--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,21 +456,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NRP SJ</t>
+          <t>GETD IN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nepi Rockcastle</t>
+          <t>Ge T&amp;D India Ltd</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45588</v>
+        <v>45589</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -479,41 +479,41 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H2">
-        <v>4.298090510846883e-05</v>
+        <v>0.000592253546715699</v>
       </c>
       <c r="I2">
-        <v>28.27575951509263</v>
+        <v>18.37275523669756</v>
       </c>
       <c r="J2">
-        <v>3.524164401635097</v>
+        <v>0.8842586546634786</v>
       </c>
       <c r="K2">
-        <v>1.781959063187878</v>
+        <v>1.974867678267285</v>
       </c>
       <c r="L2">
-        <v>28.27575951509263</v>
+        <v>18.37275523669756</v>
       </c>
       <c r="M2">
-        <v>3.524164401635097</v>
+        <v>0.8842586546634786</v>
       </c>
       <c r="N2">
-        <v>1.781959063187878</v>
+        <v>1.974867678267285</v>
       </c>
       <c r="O2" s="2">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q2" s="2">
@@ -528,12 +528,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GETD IN</t>
+          <t>MEDPLUS IN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ge T&amp;D India Ltd</t>
+          <t>Medplus Health S</t>
         </is>
       </c>
       <c r="D3" s="2">
@@ -555,25 +555,25 @@
         </is>
       </c>
       <c r="H3">
-        <v>0.000592253546715699</v>
+        <v>7.138773893902635e-05</v>
       </c>
       <c r="I3">
-        <v>18.37275523669756</v>
+        <v>2.214243447555221</v>
       </c>
       <c r="J3">
-        <v>0.8842586546634786</v>
+        <v>0.2755145403956523</v>
       </c>
       <c r="K3">
-        <v>1.974867678267285</v>
+        <v>0.9425539105392569</v>
       </c>
       <c r="L3">
-        <v>18.37275523669756</v>
+        <v>2.214243447555221</v>
       </c>
       <c r="M3">
-        <v>0.8842586546634786</v>
+        <v>0.2755145403956523</v>
       </c>
       <c r="N3">
-        <v>1.974867678267285</v>
+        <v>0.9425539105392569</v>
       </c>
       <c r="O3" s="2">
         <v>45587</v>
@@ -595,12 +595,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEDPLUS IN</t>
+          <t>SANSERA IN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Medplus Health S</t>
+          <t>Sansera Engineer</t>
         </is>
       </c>
       <c r="D4" s="2">
@@ -618,36 +618,36 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="H4">
-        <v>7.138773893902635e-05</v>
+        <v>0.0001071624862143895</v>
       </c>
       <c r="I4">
-        <v>2.214243447555221</v>
+        <v>3.323935036597538</v>
       </c>
       <c r="J4">
-        <v>0.2755145403956523</v>
+        <v>0.1867761583451842</v>
       </c>
       <c r="K4">
-        <v>0.9425539105392569</v>
+        <v>1.517882156880177</v>
       </c>
       <c r="L4">
-        <v>2.214243447555221</v>
+        <v>3.323935036597538</v>
       </c>
       <c r="M4">
-        <v>0.2755145403956523</v>
+        <v>0.1867761583451842</v>
       </c>
       <c r="N4">
-        <v>0.9425539105392569</v>
+        <v>1.517882156880177</v>
       </c>
       <c r="O4" s="2">
         <v>45587</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q4" s="2">
@@ -662,12 +662,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SANSERA IN</t>
+          <t>PNBHOUSI IN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sansera Engineer</t>
+          <t>Pnb Housing Fina</t>
         </is>
       </c>
       <c r="D5" s="2">
@@ -685,36 +685,36 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H5">
-        <v>0.0001071624862143895</v>
+        <v>0.0003008551716911689</v>
       </c>
       <c r="I5">
-        <v>3.323935036597538</v>
+        <v>9.332481348352093</v>
       </c>
       <c r="J5">
-        <v>0.1867761583451842</v>
+        <v>0.897346258394694</v>
       </c>
       <c r="K5">
-        <v>1.517882156880177</v>
+        <v>0.7306469620598524</v>
       </c>
       <c r="L5">
-        <v>3.323935036597538</v>
+        <v>9.332481348352093</v>
       </c>
       <c r="M5">
-        <v>0.1867761583451842</v>
+        <v>0.897346258394694</v>
       </c>
       <c r="N5">
-        <v>1.517882156880177</v>
+        <v>0.7306469620598524</v>
       </c>
       <c r="O5" s="2">
         <v>45587</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q5" s="2">
@@ -724,17 +724,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PNBHOUSI IN</t>
+          <t>LECN SW</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pnb Housing Fina</t>
+          <t>Leclanche Sa-Reg</t>
         </is>
       </c>
       <c r="D6" s="2">
@@ -747,41 +747,38 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>0.0003008551716911689</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I6">
-        <v>9.332481348352093</v>
+        <v>-0.1892698950900787</v>
       </c>
       <c r="J6">
-        <v>0.897346258394694</v>
+        <v>-1.2563425859688</v>
       </c>
       <c r="K6">
-        <v>0.7306469620598524</v>
+        <v>-5.126861698049794</v>
       </c>
       <c r="L6">
-        <v>9.332481348352093</v>
+        <v>-0.4989842688738437</v>
       </c>
       <c r="M6">
-        <v>0.897346258394694</v>
+        <v>-3.3121759084632</v>
       </c>
       <c r="N6">
-        <v>0.7306469620598524</v>
+        <v>-13.516271749404</v>
       </c>
       <c r="O6" s="2">
-        <v>45587</v>
+        <v>45576</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Free float criteria not fulfilled</t>
         </is>
       </c>
       <c r="Q6" s="2">
@@ -814,7 +811,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -823,13 +820,13 @@
         </is>
       </c>
       <c r="I7">
-        <v>-0.1892698950900787</v>
+        <v>-0.3097143737837651</v>
       </c>
       <c r="J7">
-        <v>-1.2563425859688</v>
+        <v>-2.0558333224944</v>
       </c>
       <c r="K7">
-        <v>-5.126861698049794</v>
+        <v>-8.389410051354208</v>
       </c>
       <c r="L7">
         <v>-0.4989842688738437</v>
@@ -860,16 +857,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LECN SW</t>
+          <t>OCI NA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Leclanche Sa-Reg</t>
+          <t>Oci Nv</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45589</v>
+        <v>45593</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -878,7 +875,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -886,30 +883,33 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="H8">
+        <v>-4.100602502116397e-05</v>
+      </c>
       <c r="I8">
-        <v>-0.3097143737837651</v>
+        <v>-214.5663492446341</v>
       </c>
       <c r="J8">
-        <v>-2.0558333224944</v>
+        <v>-7.87308509025</v>
       </c>
       <c r="K8">
-        <v>-8.389410051354208</v>
+        <v>-5.786854574050063</v>
       </c>
       <c r="L8">
-        <v>-0.4989842688738437</v>
+        <v>-171.9044279813889</v>
       </c>
       <c r="M8">
-        <v>-3.3121759084632</v>
+        <v>-6.289898573105516</v>
       </c>
       <c r="N8">
-        <v>-13.516271749404</v>
+        <v>-4.623184928251655</v>
       </c>
       <c r="O8" s="2">
-        <v>45576</v>
+        <v>45582</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Free float criteria not fulfilled</t>
+          <t>Capital repayment</t>
         </is>
       </c>
       <c r="Q8" s="2">
@@ -942,25 +942,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="H9">
-        <v>-4.100602502116397e-05</v>
+        <v>0.0003492128583036136</v>
       </c>
       <c r="I9">
-        <v>-214.5663492446341</v>
+        <v>42.66192126324518</v>
       </c>
       <c r="J9">
-        <v>-7.87308509025</v>
+        <v>1.583186517144484</v>
       </c>
       <c r="K9">
-        <v>-5.786854574050063</v>
+        <v>1.163669645798408</v>
       </c>
       <c r="L9">
         <v>-171.9044279813889</v>
@@ -986,25 +986,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OCI NA</t>
+          <t>3471 JP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Oci Nv</t>
+          <t>Mitsui Fudosan Logistics</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1014,36 +1014,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H10">
-        <v>0.0003492128583036136</v>
+        <v>6.174881265083406e-05</v>
       </c>
       <c r="I10">
-        <v>42.66192126324518</v>
+        <v>14.60907007357931</v>
       </c>
       <c r="J10">
-        <v>1.583186517144484</v>
+        <v>0.005418916326426317</v>
       </c>
       <c r="K10">
-        <v>1.163669645798408</v>
+        <v>2.935888569105413</v>
       </c>
       <c r="L10">
-        <v>-171.9044279813889</v>
+        <v>14.60907007357931</v>
       </c>
       <c r="M10">
-        <v>-6.289898573105516</v>
+        <v>0.005418916326426317</v>
       </c>
       <c r="N10">
-        <v>-4.623184928251655</v>
+        <v>2.935888569105413</v>
       </c>
       <c r="O10" s="2">
-        <v>45582</v>
+        <v>45580</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Capital repayment</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q10" s="2">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3471 JP</t>
+          <t>3493 JP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mitsui Fudosan Logistics</t>
+          <t>Advance Logistics Inv</t>
         </is>
       </c>
       <c r="D11" s="2">
@@ -1081,29 +1081,29 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="H11">
-        <v>6.174881265083406e-05</v>
+        <v>-5.813264966721212e-05</v>
       </c>
       <c r="I11">
-        <v>14.60907007357931</v>
+        <v>-13.766211657936</v>
       </c>
       <c r="J11">
-        <v>0.005418916326426317</v>
+        <v>-0.01760184</v>
       </c>
       <c r="K11">
-        <v>2.935888569105413</v>
+        <v>-11.42457324592718</v>
       </c>
       <c r="L11">
-        <v>14.60907007357931</v>
+        <v>-13.766211657936</v>
       </c>
       <c r="M11">
-        <v>0.005418916326426317</v>
+        <v>-0.01760184</v>
       </c>
       <c r="N11">
-        <v>2.935888569105413</v>
+        <v>-11.42457324592718</v>
       </c>
       <c r="O11" s="2">
         <v>45580</v>
@@ -1125,16 +1125,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3493 JP</t>
+          <t>3707 TT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Advance Logistics Inv</t>
+          <t>Episil Technolog</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1143,41 +1143,41 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="H12">
-        <v>-5.813264966721212e-05</v>
+        <v>-2.077755265977144e-05</v>
       </c>
       <c r="I12">
-        <v>-13.766211657936</v>
+        <v>-0.5711749951190059</v>
       </c>
       <c r="J12">
-        <v>-0.01760184</v>
+        <v>-0.3494374780024641</v>
       </c>
       <c r="K12">
-        <v>-11.42457324592718</v>
+        <v>-0.2286556294700287</v>
       </c>
       <c r="L12">
-        <v>-13.766211657936</v>
+        <v>-0.5711749951190059</v>
       </c>
       <c r="M12">
-        <v>-0.01760184</v>
+        <v>-0.3494374780024641</v>
       </c>
       <c r="N12">
-        <v>-11.42457324592718</v>
+        <v>-0.2286556294700287</v>
       </c>
       <c r="O12" s="2">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q12" s="2">
@@ -1185,23 +1185,18 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3707 TT</t>
+          <t>ECG US</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Episil Technolog</t>
+          <t xml:space="preserve"> EVERUS CONSTRUCTION GRP </t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45595</v>
+        <v>45597</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1210,41 +1205,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>-2.077755265977144e-05</v>
-      </c>
-      <c r="I13">
-        <v>-0.5711749951190059</v>
-      </c>
-      <c r="J13">
-        <v>-0.3494374780024641</v>
-      </c>
-      <c r="K13">
-        <v>-0.2286556294700287</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L13">
-        <v>-0.5711749951190059</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.3494374780024641</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-0.2286556294700287</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Spin-Off from MDU US</t>
         </is>
       </c>
       <c r="Q13" s="2">
@@ -1252,49 +1235,63 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECG US</t>
+          <t>5809 JP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EVERUS CONSTRUCTION GRP </t>
+          <t>Tatsuta Elec Wire &amp; Cable</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45597</v>
+        <v>45602</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>-1.134794589058234</v>
+      </c>
+      <c r="J14">
+        <v>-0.2206788394000015</v>
+      </c>
+      <c r="K14">
+        <v>-1.402337491818394</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-1.134794589058234</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.2206788394000015</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-1.402337491818394</v>
       </c>
       <c r="O14" s="2">
-        <v>45580</v>
+        <v>45587</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Spin-Off from MDU US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q14" s="2">
@@ -1309,16 +1306,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5809 JP</t>
+          <t>8155 JP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tatsuta Elec Wire &amp; Cable</t>
+          <t>Mimasu Semiconductor Indust</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1327,7 +1324,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1336,25 +1333,25 @@
         </is>
       </c>
       <c r="I15">
-        <v>-1.134794589058234</v>
+        <v>-2.650010224424026</v>
       </c>
       <c r="J15">
-        <v>-0.2206788394000015</v>
+        <v>-0.1079708335000027</v>
       </c>
       <c r="K15">
-        <v>-1.402337491818394</v>
+        <v>-6.070893084059754</v>
       </c>
       <c r="L15">
-        <v>-1.134794589058234</v>
+        <v>-2.650010224424026</v>
       </c>
       <c r="M15">
-        <v>-0.2206788394000015</v>
+        <v>-0.1079708335000027</v>
       </c>
       <c r="N15">
-        <v>-1.402337491818394</v>
+        <v>-6.070893084059754</v>
       </c>
       <c r="O15" s="2">
-        <v>45587</v>
+        <v>45583</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1373,114 +1370,50 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8155 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mimasu Semiconductor Indust</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45607</v>
+        <v>45632</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I16">
-        <v>-2.650010224424026</v>
-      </c>
-      <c r="J16">
-        <v>-0.1079708335000027</v>
-      </c>
-      <c r="K16">
-        <v>-6.070893084059754</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L16">
-        <v>-2.650010224424026</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.1079708335000027</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-6.070893084059754</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D17" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>45580</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
-      <c r="Q17" s="2">
         <v>45588</v>
       </c>
     </row>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,16 +461,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GETD IN</t>
+          <t>FIVESTAR IN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ge T&amp;D India Ltd</t>
+          <t>Five-Star Busine</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -488,28 +488,28 @@
         </is>
       </c>
       <c r="H2">
-        <v>0.000592253546715699</v>
+        <v>0.000446340177667117</v>
       </c>
       <c r="I2">
-        <v>18.37275523669756</v>
+        <v>13.84683929787695</v>
       </c>
       <c r="J2">
-        <v>0.8842586546634786</v>
+        <v>1.347034881598396</v>
       </c>
       <c r="K2">
-        <v>1.974867678267285</v>
+        <v>0.2331399979989588</v>
       </c>
       <c r="L2">
-        <v>18.37275523669756</v>
+        <v>13.84683929787695</v>
       </c>
       <c r="M2">
-        <v>0.8842586546634786</v>
+        <v>1.347034881598396</v>
       </c>
       <c r="N2">
-        <v>1.974867678267285</v>
+        <v>0.2331399979989588</v>
       </c>
       <c r="O2" s="2">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -517,141 +517,131 @@
         </is>
       </c>
       <c r="Q2" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OSK CN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Osisko Mining</t>
+        </is>
+      </c>
+      <c r="D3" s="2">
+        <v>45590</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>-0.0001603382670829901</v>
+      </c>
+      <c r="I3">
+        <v>-18.09775619059044</v>
+      </c>
+      <c r="J3">
+        <v>-5.122146119999999</v>
+      </c>
+      <c r="K3">
+        <v>-1.589708134560827</v>
+      </c>
+      <c r="L3">
+        <v>-89.16617112811045</v>
+      </c>
+      <c r="M3">
+        <v>-25.23058612</v>
+      </c>
+      <c r="N3">
+        <v>-7.830559116244324</v>
+      </c>
+      <c r="O3" s="2">
         <v>45588</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MEDPLUS IN</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Medplus Health S</t>
-        </is>
-      </c>
-      <c r="D3" s="2">
-        <v>45589</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Acquired</t>
+        </is>
+      </c>
+      <c r="Q3" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OSK CN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Osisko Mining</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <v>45590</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>7.138773893902635e-05</v>
-      </c>
-      <c r="I3">
-        <v>2.214243447555221</v>
-      </c>
-      <c r="J3">
-        <v>0.2755145403956523</v>
-      </c>
-      <c r="K3">
-        <v>0.9425539105392569</v>
-      </c>
-      <c r="L3">
-        <v>2.214243447555221</v>
-      </c>
-      <c r="M3">
-        <v>0.2755145403956523</v>
-      </c>
-      <c r="N3">
-        <v>0.9425539105392569</v>
-      </c>
-      <c r="O3" s="2">
-        <v>45587</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Block Sale</t>
-        </is>
-      </c>
-      <c r="Q3" s="2">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>S&amp;P TSX Composite</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>-0.0005083122752864666</v>
+      </c>
+      <c r="I4">
+        <v>-71.06841493752</v>
+      </c>
+      <c r="J4">
+        <v>-20.10844</v>
+      </c>
+      <c r="K4">
+        <v>-6.240850981683497</v>
+      </c>
+      <c r="L4">
+        <v>-89.16617112811045</v>
+      </c>
+      <c r="M4">
+        <v>-25.23058612</v>
+      </c>
+      <c r="N4">
+        <v>-7.830559116244324</v>
+      </c>
+      <c r="O4" s="2">
         <v>45588</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SANSERA IN</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sansera Engineer</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <v>45589</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>0.0001071624862143895</v>
-      </c>
-      <c r="I4">
-        <v>3.323935036597538</v>
-      </c>
-      <c r="J4">
-        <v>0.1867761583451842</v>
-      </c>
-      <c r="K4">
-        <v>1.517882156880177</v>
-      </c>
-      <c r="L4">
-        <v>3.323935036597538</v>
-      </c>
-      <c r="M4">
-        <v>0.1867761583451842</v>
-      </c>
-      <c r="N4">
-        <v>1.517882156880177</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45587</v>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="5">
@@ -662,127 +652,127 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PNBHOUSI IN</t>
+          <t>6099 JP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pnb Housing Fina</t>
+          <t>Elan Corp</t>
         </is>
       </c>
       <c r="D5" s="2">
+        <v>45593</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>-0.6974145465005631</v>
+      </c>
+      <c r="J5">
+        <v>-0.1212624500938335</v>
+      </c>
+      <c r="K5">
+        <v>-0.2083350372281546</v>
+      </c>
+      <c r="L5">
+        <v>-0.6974145465005631</v>
+      </c>
+      <c r="M5">
+        <v>-0.1212624500938335</v>
+      </c>
+      <c r="N5">
+        <v>-0.2083350372281546</v>
+      </c>
+      <c r="O5" s="2">
         <v>45589</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>0.0003008551716911689</v>
-      </c>
-      <c r="I5">
-        <v>9.332481348352093</v>
-      </c>
-      <c r="J5">
-        <v>0.897346258394694</v>
-      </c>
-      <c r="K5">
-        <v>0.7306469620598524</v>
-      </c>
-      <c r="L5">
-        <v>9.332481348352093</v>
-      </c>
-      <c r="M5">
-        <v>0.897346258394694</v>
-      </c>
-      <c r="N5">
-        <v>0.7306469620598524</v>
-      </c>
-      <c r="O5" s="2">
-        <v>45587</v>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LECN SW</t>
+          <t>AUB AU</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Leclanche Sa-Reg</t>
+          <t>AUB Group Limited</t>
         </is>
       </c>
       <c r="D6" s="2">
+        <v>45593</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ASX200</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>0.0001228271321258305</v>
+      </c>
+      <c r="I6">
+        <v>9.722335059416949</v>
+      </c>
+      <c r="J6">
+        <v>0.4482737104698389</v>
+      </c>
+      <c r="K6">
+        <v>0.4577253265094655</v>
+      </c>
+      <c r="L6">
+        <v>9.722335059416949</v>
+      </c>
+      <c r="M6">
+        <v>0.4482737104698389</v>
+      </c>
+      <c r="N6">
+        <v>0.4577253265094655</v>
+      </c>
+      <c r="O6" s="2">
         <v>45589</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>SPI</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I6">
-        <v>-0.1892698950900787</v>
-      </c>
-      <c r="J6">
-        <v>-1.2563425859688</v>
-      </c>
-      <c r="K6">
-        <v>-5.126861698049794</v>
-      </c>
-      <c r="L6">
-        <v>-0.4989842688738437</v>
-      </c>
-      <c r="M6">
-        <v>-3.3121759084632</v>
-      </c>
-      <c r="N6">
-        <v>-13.516271749404</v>
-      </c>
-      <c r="O6" s="2">
-        <v>45576</v>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Free float criteria not fulfilled</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="7">
@@ -793,16 +783,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LECN SW</t>
+          <t>OCI NA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Leclanche Sa-Reg</t>
+          <t>Oci Nv</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45589</v>
+        <v>45593</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -811,7 +801,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -819,34 +809,37 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="H7">
+        <v>-4.100602502116397e-05</v>
+      </c>
       <c r="I7">
-        <v>-0.3097143737837651</v>
+        <v>-214.5663492446341</v>
       </c>
       <c r="J7">
-        <v>-2.0558333224944</v>
+        <v>-7.87308509025</v>
       </c>
       <c r="K7">
-        <v>-8.389410051354208</v>
+        <v>-5.786854574050063</v>
       </c>
       <c r="L7">
-        <v>-0.4989842688738437</v>
+        <v>-171.9044279813889</v>
       </c>
       <c r="M7">
-        <v>-3.3121759084632</v>
+        <v>-6.289898573105516</v>
       </c>
       <c r="N7">
-        <v>-13.516271749404</v>
+        <v>-4.623184928251655</v>
       </c>
       <c r="O7" s="2">
-        <v>45576</v>
+        <v>45582</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Free float criteria not fulfilled</t>
+          <t>Capital repayment</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="8">
@@ -875,25 +868,25 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="H8">
-        <v>-4.100602502116397e-05</v>
+        <v>0.0003492128583036136</v>
       </c>
       <c r="I8">
-        <v>-214.5663492446341</v>
+        <v>42.66192126324518</v>
       </c>
       <c r="J8">
-        <v>-7.87308509025</v>
+        <v>1.583186517144484</v>
       </c>
       <c r="K8">
-        <v>-5.786854574050063</v>
+        <v>1.163669645798408</v>
       </c>
       <c r="L8">
         <v>-171.9044279813889</v>
@@ -913,7 +906,7 @@
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="9">
@@ -924,12 +917,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OCI NA</t>
+          <t>JFJ LN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Oci Nv</t>
+          <t>Jpmorgan Japanese Invest Tr</t>
         </is>
       </c>
       <c r="D9" s="2">
@@ -942,296 +935,290 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>0.0003492128583036136</v>
+          <t>S Inc &amp; F Dec</t>
+        </is>
       </c>
       <c r="I9">
-        <v>42.66192126324518</v>
+        <v>2.379181381835003</v>
       </c>
       <c r="J9">
-        <v>1.583186517144484</v>
+        <v>0.3492804449183868</v>
       </c>
       <c r="K9">
-        <v>1.163669645798408</v>
+        <v>0.781191760813529</v>
       </c>
       <c r="L9">
-        <v>-171.9044279813889</v>
+        <v>0.2649362418884382</v>
       </c>
       <c r="M9">
-        <v>-6.289898573105516</v>
+        <v>0.03880893832426602</v>
       </c>
       <c r="N9">
-        <v>-4.623184928251655</v>
+        <v>0.08679908453483831</v>
       </c>
       <c r="O9" s="2">
-        <v>45582</v>
+        <v>45589</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital repayment</t>
+          <t>Scheme of Reconstruction</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3471 JP</t>
+          <t>JFJ LN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mitsui Fudosan Logistics</t>
+          <t>Jpmorgan Japanese Invest Tr</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45594</v>
+        <v>45593</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>6.174881265083406e-05</v>
+          <t>S Inc &amp; F Dec</t>
+        </is>
       </c>
       <c r="I10">
-        <v>14.60907007357931</v>
+        <v>-2.114245139946565</v>
       </c>
       <c r="J10">
-        <v>0.005418916326426317</v>
+        <v>-0.3104715065941208</v>
       </c>
       <c r="K10">
-        <v>2.935888569105413</v>
+        <v>-0.6943926762786907</v>
       </c>
       <c r="L10">
-        <v>14.60907007357931</v>
+        <v>0.2649362418884382</v>
       </c>
       <c r="M10">
-        <v>0.005418916326426317</v>
+        <v>0.03880893832426602</v>
       </c>
       <c r="N10">
-        <v>2.935888569105413</v>
+        <v>0.08679908453483831</v>
       </c>
       <c r="O10" s="2">
-        <v>45580</v>
+        <v>45589</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Scheme of Reconstruction</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>JSGI LN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Jpmorgan Japan Small Cap G</t>
+        </is>
+      </c>
+      <c r="D11" s="2">
+        <v>45593</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FTSE All Share</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Scheme of Reconstruction</t>
+        </is>
+      </c>
+      <c r="Q11" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BOW US</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bowhead Specialty Hldgs</t>
+        </is>
+      </c>
+      <c r="D12" s="2">
+        <v>45593</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>1.331460107591537e-05</v>
+      </c>
+      <c r="I12">
+        <v>1.382766103914885</v>
+      </c>
+      <c r="J12">
+        <v>0.04685754333835596</v>
+      </c>
+      <c r="K12">
+        <v>0.4297561942741285</v>
+      </c>
+      <c r="L12">
+        <v>1.382766103914885</v>
+      </c>
+      <c r="M12">
+        <v>0.04685754333835596</v>
+      </c>
+      <c r="N12">
+        <v>0.4297561942741285</v>
+      </c>
+      <c r="O12" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Secondary Offering</t>
+        </is>
+      </c>
+      <c r="Q12" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>AP</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3493 JP</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Advance Logistics Inv</t>
-        </is>
-      </c>
-      <c r="D11" s="2">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3471 JP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mitsui Fudosan Logistics</t>
+        </is>
+      </c>
+      <c r="D13" s="2">
         <v>45594</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>-5.813264966721212e-05</v>
-      </c>
-      <c r="I11">
-        <v>-13.766211657936</v>
-      </c>
-      <c r="J11">
-        <v>-0.01760184</v>
-      </c>
-      <c r="K11">
-        <v>-11.42457324592718</v>
-      </c>
-      <c r="L11">
-        <v>-13.766211657936</v>
-      </c>
-      <c r="M11">
-        <v>-0.01760184</v>
-      </c>
-      <c r="N11">
-        <v>-11.42457324592718</v>
-      </c>
-      <c r="O11" s="2">
-        <v>45580</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q11" s="2">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3707 TT</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Episil Technolog</t>
-        </is>
-      </c>
-      <c r="D12" s="2">
-        <v>45595</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>-2.077755265977144e-05</v>
-      </c>
-      <c r="I12">
-        <v>-0.5711749951190059</v>
-      </c>
-      <c r="J12">
-        <v>-0.3494374780024641</v>
-      </c>
-      <c r="K12">
-        <v>-0.2286556294700287</v>
-      </c>
-      <c r="L12">
-        <v>-0.5711749951190059</v>
-      </c>
-      <c r="M12">
-        <v>-0.3494374780024641</v>
-      </c>
-      <c r="N12">
-        <v>-0.2286556294700287</v>
-      </c>
-      <c r="O12" s="2">
-        <v>45581</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
-      <c r="Q12" s="2">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ECG US</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> EVERUS CONSTRUCTION GRP </t>
-        </is>
-      </c>
-      <c r="D13" s="2">
-        <v>45597</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>6.174881265083406e-05</v>
+      </c>
+      <c r="I13">
+        <v>14.60907007357931</v>
+      </c>
+      <c r="J13">
+        <v>0.005418916326426317</v>
+      </c>
+      <c r="K13">
+        <v>2.935888569105413</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.60907007357931</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.005418916326426317</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.935888569105413</v>
       </c>
       <c r="O13" s="2">
         <v>45580</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Spin-Off from MDU US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="14">
@@ -1242,25 +1229,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5809 JP</t>
+          <t>3493 JP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tatsuta Elec Wire &amp; Cable</t>
+          <t>Advance Logistics Inv</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45602</v>
+        <v>45594</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1268,26 +1255,29 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="H14">
+        <v>-5.813264966721212e-05</v>
+      </c>
       <c r="I14">
-        <v>-1.134794589058234</v>
+        <v>-13.766211657936</v>
       </c>
       <c r="J14">
-        <v>-0.2206788394000015</v>
+        <v>-0.01760184</v>
       </c>
       <c r="K14">
-        <v>-1.402337491818394</v>
+        <v>-11.42457324592718</v>
       </c>
       <c r="L14">
-        <v>-1.134794589058234</v>
+        <v>-13.766211657936</v>
       </c>
       <c r="M14">
-        <v>-0.2206788394000015</v>
+        <v>-0.01760184</v>
       </c>
       <c r="N14">
-        <v>-1.402337491818394</v>
+        <v>-11.42457324592718</v>
       </c>
       <c r="O14" s="2">
-        <v>45587</v>
+        <v>45580</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1295,7 +1285,7 @@
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45588</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="15">
@@ -1306,16 +1296,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8155 JP</t>
+          <t>3493 JP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mimasu Semiconductor Indust</t>
+          <t>Advance Logistics Investment</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45607</v>
+        <v>45595</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1324,34 +1314,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="I15">
-        <v>-2.650010224424026</v>
+        <v>-14.6151766510341</v>
       </c>
       <c r="J15">
-        <v>-0.1079708335000027</v>
+        <v>-0.01905358059063184</v>
       </c>
       <c r="K15">
-        <v>-6.070893084059754</v>
+        <v>-12.04131866567563</v>
       </c>
       <c r="L15">
-        <v>-2.650010224424026</v>
+        <v>-29.7866403026266</v>
       </c>
       <c r="M15">
-        <v>-0.1079708335000027</v>
+        <v>-0.03883238397191055</v>
       </c>
       <c r="N15">
-        <v>-6.070893084059754</v>
+        <v>-24.54095741897213</v>
       </c>
       <c r="O15" s="2">
-        <v>45583</v>
+        <v>45589</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1359,7 +1349,7 @@
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45588</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="16">
@@ -1370,51 +1360,589 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>3471 JP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mitsui Fudosan Logistics Par</t>
+        </is>
+      </c>
+      <c r="D16" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>21.29444986579761</v>
+      </c>
+      <c r="J16">
+        <v>0.0319018095</v>
+      </c>
+      <c r="K16">
+        <v>4.528933773424188</v>
+      </c>
+      <c r="L16">
+        <v>37.0681164330551</v>
+      </c>
+      <c r="M16">
+        <v>0.0555327795</v>
+      </c>
+      <c r="N16">
+        <v>7.88369953151618</v>
+      </c>
+      <c r="O16" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q16" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3471 JP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mitsui Fudosan Logistics Par</t>
+        </is>
+      </c>
+      <c r="D17" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FTSE EPRA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>15.77366656725749</v>
+      </c>
+      <c r="J17">
+        <v>0.02363097</v>
+      </c>
+      <c r="K17">
+        <v>3.354765758091991</v>
+      </c>
+      <c r="L17">
+        <v>37.0681164330551</v>
+      </c>
+      <c r="M17">
+        <v>0.0555327795</v>
+      </c>
+      <c r="N17">
+        <v>7.88369953151618</v>
+      </c>
+      <c r="O17" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q17" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3493 JP</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Advance Logistics Investment</t>
+        </is>
+      </c>
+      <c r="D18" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>-14.6151766510341</v>
+      </c>
+      <c r="J18">
+        <v>-0.01905358059063184</v>
+      </c>
+      <c r="K18">
+        <v>-12.04131866567563</v>
+      </c>
+      <c r="L18">
+        <v>-29.7866403026266</v>
+      </c>
+      <c r="M18">
+        <v>-0.03883238397191055</v>
+      </c>
+      <c r="N18">
+        <v>-24.54095741897213</v>
+      </c>
+      <c r="O18" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q18" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3493 JP</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Advance Logistics Investment</t>
+        </is>
+      </c>
+      <c r="D19" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>FTSE EPRA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I19">
+        <v>-15.17146365159249</v>
+      </c>
+      <c r="J19">
+        <v>-0.01977880338127872</v>
+      </c>
+      <c r="K19">
+        <v>-12.4996387532965</v>
+      </c>
+      <c r="L19">
+        <v>-29.7866403026266</v>
+      </c>
+      <c r="M19">
+        <v>-0.03883238397191055</v>
+      </c>
+      <c r="N19">
+        <v>-24.54095741897213</v>
+      </c>
+      <c r="O19" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q19" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3707 TT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Episil Technolog</t>
+        </is>
+      </c>
+      <c r="D20" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>-2.077755265977144e-05</v>
+      </c>
+      <c r="I20">
+        <v>-0.5711749951190059</v>
+      </c>
+      <c r="J20">
+        <v>-0.3494374780024641</v>
+      </c>
+      <c r="K20">
+        <v>-0.2286556294700287</v>
+      </c>
+      <c r="L20">
+        <v>-0.5711749951190059</v>
+      </c>
+      <c r="M20">
+        <v>-0.3494374780024641</v>
+      </c>
+      <c r="N20">
+        <v>-0.2286556294700287</v>
+      </c>
+      <c r="O20" s="2">
+        <v>45581</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q20" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECG US</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVERUS CONSTRUCTION GRP </t>
+        </is>
+      </c>
+      <c r="D21" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="O21" s="2">
+        <v>45580</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Spin-Off from MDU US</t>
+        </is>
+      </c>
+      <c r="Q21" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5809 JP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tatsuta Elec Wire &amp; Cable</t>
+        </is>
+      </c>
+      <c r="D22" s="2">
+        <v>45602</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I22">
+        <v>-1.134794589058234</v>
+      </c>
+      <c r="J22">
+        <v>-0.2206788394000015</v>
+      </c>
+      <c r="K22">
+        <v>-1.402337491818394</v>
+      </c>
+      <c r="L22">
+        <v>-1.134794589058234</v>
+      </c>
+      <c r="M22">
+        <v>-0.2206788394000015</v>
+      </c>
+      <c r="N22">
+        <v>-1.402337491818394</v>
+      </c>
+      <c r="O22" s="2">
+        <v>45587</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q22" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8155 JP</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mimasu Semiconductor Indust</t>
+        </is>
+      </c>
+      <c r="D23" s="2">
+        <v>45607</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I23">
+        <v>-2.650010224424026</v>
+      </c>
+      <c r="J23">
+        <v>-0.1079708335000027</v>
+      </c>
+      <c r="K23">
+        <v>-6.070893084059754</v>
+      </c>
+      <c r="L23">
+        <v>-2.650010224424026</v>
+      </c>
+      <c r="M23">
+        <v>-0.1079708335000027</v>
+      </c>
+      <c r="N23">
+        <v>-6.070893084059754</v>
+      </c>
+      <c r="O23" s="2">
+        <v>45583</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q23" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Jusung Engineering (New)</t>
         </is>
       </c>
-      <c r="D16" s="2">
+      <c r="D24" s="2">
         <v>45632</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>MSCI EM Small Cap</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Add</t>
         </is>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="M24">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O24" s="2">
         <v>45580</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>Spin-Off</t>
         </is>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q24" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D25" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>KOSDAQ150</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J25">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="M25">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O25" s="2">
         <v>45588</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Spin-Off by Jusung Engineering</t>
+        </is>
+      </c>
+      <c r="Q25" s="2">
+        <v>45590</v>
       </c>
     </row>
   </sheetData>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,16 +461,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FIVESTAR IN</t>
+          <t>6099 JP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Five-Star Busine</t>
+          <t>Elan Corp</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -479,185 +479,192 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>-0.6974145465005631</v>
+      </c>
+      <c r="J2">
+        <v>-0.1212624500938335</v>
+      </c>
+      <c r="K2">
+        <v>-0.2083350372281546</v>
+      </c>
+      <c r="L2">
+        <v>-0.6974145465005631</v>
+      </c>
+      <c r="M2">
+        <v>-0.1212624500938335</v>
+      </c>
+      <c r="N2">
+        <v>-0.2083350372281546</v>
+      </c>
+      <c r="O2" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Tender Offer</t>
+        </is>
+      </c>
+      <c r="Q2" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AUB AU</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AUB Group Limited</t>
+        </is>
+      </c>
+      <c r="D3" s="2">
+        <v>45593</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ASX200</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F Inc</t>
         </is>
       </c>
-      <c r="H2">
-        <v>0.000446340177667117</v>
-      </c>
-      <c r="I2">
-        <v>13.84683929787695</v>
-      </c>
-      <c r="J2">
-        <v>1.347034881598396</v>
-      </c>
-      <c r="K2">
-        <v>0.2331399979989588</v>
-      </c>
-      <c r="L2">
-        <v>13.84683929787695</v>
-      </c>
-      <c r="M2">
-        <v>1.347034881598396</v>
-      </c>
-      <c r="N2">
-        <v>0.2331399979989588</v>
-      </c>
-      <c r="O2" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Block Sale</t>
-        </is>
-      </c>
-      <c r="Q2" s="2">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OSK CN</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Osisko Mining</t>
-        </is>
-      </c>
-      <c r="D3" s="2">
-        <v>45590</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3">
+        <v>0.0001228271321258305</v>
+      </c>
+      <c r="I3">
+        <v>9.722335059416949</v>
+      </c>
+      <c r="J3">
+        <v>0.4482737104698389</v>
+      </c>
+      <c r="K3">
+        <v>0.4577253265094655</v>
+      </c>
+      <c r="L3">
+        <v>9.722335059416949</v>
+      </c>
+      <c r="M3">
+        <v>0.4482737104698389</v>
+      </c>
+      <c r="N3">
+        <v>0.4577253265094655</v>
+      </c>
+      <c r="O3" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Secondary Offering</t>
+        </is>
+      </c>
+      <c r="Q3" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OCI NA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Oci Nv</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <v>45593</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MSCI DM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H3">
-        <v>-0.0001603382670829901</v>
-      </c>
-      <c r="I3">
-        <v>-18.09775619059044</v>
-      </c>
-      <c r="J3">
-        <v>-5.122146119999999</v>
-      </c>
-      <c r="K3">
-        <v>-1.589708134560827</v>
-      </c>
-      <c r="L3">
-        <v>-89.16617112811045</v>
-      </c>
-      <c r="M3">
-        <v>-25.23058612</v>
-      </c>
-      <c r="N3">
-        <v>-7.830559116244324</v>
-      </c>
-      <c r="O3" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Acquired</t>
-        </is>
-      </c>
-      <c r="Q3" s="2">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OSK CN</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Osisko Mining</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <v>45590</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>S&amp;P TSX Composite</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
       <c r="H4">
-        <v>-0.0005083122752864666</v>
+        <v>-4.100602502116397e-05</v>
       </c>
       <c r="I4">
-        <v>-71.06841493752</v>
+        <v>-214.5663492446341</v>
       </c>
       <c r="J4">
-        <v>-20.10844</v>
+        <v>-7.87308509025</v>
       </c>
       <c r="K4">
-        <v>-6.240850981683497</v>
+        <v>-5.786854574050063</v>
       </c>
       <c r="L4">
-        <v>-89.16617112811045</v>
+        <v>-171.9044279813889</v>
       </c>
       <c r="M4">
-        <v>-25.23058612</v>
+        <v>-6.289898573105516</v>
       </c>
       <c r="N4">
-        <v>-7.830559116244324</v>
+        <v>-4.623184928251655</v>
       </c>
       <c r="O4" s="2">
-        <v>45588</v>
+        <v>45582</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Capital repayment</t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6099 JP</t>
+          <t>OCI NA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Elan Corp</t>
+          <t>Oci Nv</t>
         </is>
       </c>
       <c r="D5" s="2">
@@ -670,58 +677,61 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>0.0003492128583036136</v>
       </c>
       <c r="I5">
-        <v>-0.6974145465005631</v>
+        <v>42.66192126324518</v>
       </c>
       <c r="J5">
-        <v>-0.1212624500938335</v>
+        <v>1.583186517144484</v>
       </c>
       <c r="K5">
-        <v>-0.2083350372281546</v>
+        <v>1.163669645798408</v>
       </c>
       <c r="L5">
-        <v>-0.6974145465005631</v>
+        <v>-171.9044279813889</v>
       </c>
       <c r="M5">
-        <v>-0.1212624500938335</v>
+        <v>-6.289898573105516</v>
       </c>
       <c r="N5">
-        <v>-0.2083350372281546</v>
+        <v>-4.623184928251655</v>
       </c>
       <c r="O5" s="2">
-        <v>45589</v>
+        <v>45582</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Capital repayment</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUB AU</t>
+          <t>JFJ LN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AUB Group Limited</t>
+          <t>Jpmorgan Japanese Invest Tr</t>
         </is>
       </c>
       <c r="D6" s="2">
@@ -734,45 +744,42 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ASX200</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>0.0001228271321258305</v>
+          <t>S Inc &amp; F Dec</t>
+        </is>
       </c>
       <c r="I6">
-        <v>9.722335059416949</v>
+        <v>2.379181381835003</v>
       </c>
       <c r="J6">
-        <v>0.4482737104698389</v>
+        <v>0.3492804449183868</v>
       </c>
       <c r="K6">
-        <v>0.4577253265094655</v>
+        <v>0.781191760813529</v>
       </c>
       <c r="L6">
-        <v>9.722335059416949</v>
+        <v>0.2649362418884382</v>
       </c>
       <c r="M6">
-        <v>0.4482737104698389</v>
+        <v>0.03880893832426602</v>
       </c>
       <c r="N6">
-        <v>0.4577253265094655</v>
+        <v>0.08679908453483831</v>
       </c>
       <c r="O6" s="2">
         <v>45589</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Scheme of Reconstruction</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="7">
@@ -783,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OCI NA</t>
+          <t>JFJ LN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Oci Nv</t>
+          <t>Jpmorgan Japanese Invest Tr</t>
         </is>
       </c>
       <c r="D7" s="2">
@@ -801,45 +808,42 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>-4.100602502116397e-05</v>
+          <t>S Inc &amp; F Dec</t>
+        </is>
       </c>
       <c r="I7">
-        <v>-214.5663492446341</v>
+        <v>-2.114245139946565</v>
       </c>
       <c r="J7">
-        <v>-7.87308509025</v>
+        <v>-0.3104715065941208</v>
       </c>
       <c r="K7">
-        <v>-5.786854574050063</v>
+        <v>-0.6943926762786907</v>
       </c>
       <c r="L7">
-        <v>-171.9044279813889</v>
+        <v>0.2649362418884382</v>
       </c>
       <c r="M7">
-        <v>-6.289898573105516</v>
+        <v>0.03880893832426602</v>
       </c>
       <c r="N7">
-        <v>-4.623184928251655</v>
+        <v>0.08679908453483831</v>
       </c>
       <c r="O7" s="2">
-        <v>45582</v>
+        <v>45589</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Capital repayment</t>
+          <t>Scheme of Reconstruction</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="8">
@@ -850,12 +854,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OCI NA</t>
+          <t>JSGI LN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Oci Nv</t>
+          <t>Jpmorgan Japan Small Cap G</t>
         </is>
       </c>
       <c r="D8" s="2">
@@ -868,129 +872,115 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>FTSE All Share</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Scheme of Reconstruction</t>
+        </is>
+      </c>
+      <c r="Q8" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BOW US</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bowhead Specialty Hldgs</t>
+        </is>
+      </c>
+      <c r="D9" s="2">
+        <v>45593</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>0.0003492128583036136</v>
-      </c>
-      <c r="I8">
-        <v>42.66192126324518</v>
-      </c>
-      <c r="J8">
-        <v>1.583186517144484</v>
-      </c>
-      <c r="K8">
-        <v>1.163669645798408</v>
-      </c>
-      <c r="L8">
-        <v>-171.9044279813889</v>
-      </c>
-      <c r="M8">
-        <v>-6.289898573105516</v>
-      </c>
-      <c r="N8">
-        <v>-4.623184928251655</v>
-      </c>
-      <c r="O8" s="2">
-        <v>45582</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Capital repayment</t>
-        </is>
-      </c>
-      <c r="Q8" s="2">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>JFJ LN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Jpmorgan Japanese Invest Tr</t>
-        </is>
-      </c>
-      <c r="D9" s="2">
-        <v>45593</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>FTSE 250</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>1.331460107591537e-05</v>
       </c>
       <c r="I9">
-        <v>2.379181381835003</v>
+        <v>1.382766103914885</v>
       </c>
       <c r="J9">
-        <v>0.3492804449183868</v>
+        <v>0.04685754333835596</v>
       </c>
       <c r="K9">
-        <v>0.781191760813529</v>
+        <v>0.4297561942741285</v>
       </c>
       <c r="L9">
-        <v>0.2649362418884382</v>
+        <v>1.382766103914885</v>
       </c>
       <c r="M9">
-        <v>0.03880893832426602</v>
+        <v>0.04685754333835596</v>
       </c>
       <c r="N9">
-        <v>0.08679908453483831</v>
+        <v>0.4297561942741285</v>
       </c>
       <c r="O9" s="2">
         <v>45589</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Scheme of Reconstruction</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JFJ LN</t>
+          <t>3471 JP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jpmorgan Japanese Invest Tr</t>
+          <t>Mitsui Fudosan Logistics</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -999,175 +989,192 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>6.174881265083406e-05</v>
       </c>
       <c r="I10">
-        <v>-2.114245139946565</v>
+        <v>14.60907007357931</v>
       </c>
       <c r="J10">
-        <v>-0.3104715065941208</v>
+        <v>0.005418916326426317</v>
       </c>
       <c r="K10">
-        <v>-0.6943926762786907</v>
+        <v>2.935888569105413</v>
       </c>
       <c r="L10">
-        <v>0.2649362418884382</v>
+        <v>14.60907007357931</v>
       </c>
       <c r="M10">
-        <v>0.03880893832426602</v>
+        <v>0.005418916326426317</v>
       </c>
       <c r="N10">
-        <v>0.08679908453483831</v>
+        <v>2.935888569105413</v>
       </c>
       <c r="O10" s="2">
-        <v>45589</v>
+        <v>45580</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Scheme of Reconstruction</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3493 JP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Advance Logistics Inv</t>
+        </is>
+      </c>
+      <c r="D11" s="2">
+        <v>45594</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>-5.813264966721212e-05</v>
+      </c>
+      <c r="I11">
+        <v>-13.766211657936</v>
+      </c>
+      <c r="J11">
+        <v>-0.01760184</v>
+      </c>
+      <c r="K11">
+        <v>-11.42457324592718</v>
+      </c>
+      <c r="L11">
+        <v>-13.766211657936</v>
+      </c>
+      <c r="M11">
+        <v>-0.01760184</v>
+      </c>
+      <c r="N11">
+        <v>-11.42457324592718</v>
+      </c>
+      <c r="O11" s="2">
+        <v>45580</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q11" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>JSGI LN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Jpmorgan Japan Small Cap G</t>
-        </is>
-      </c>
-      <c r="D11" s="2">
-        <v>45593</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>FTSE All Share</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GVOLT PL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Greenvolt-Energias Renovavei</t>
+        </is>
+      </c>
+      <c r="D12" s="2">
+        <v>45594</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>45589</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Scheme of Reconstruction</t>
-        </is>
-      </c>
-      <c r="Q11" s="2">
+      <c r="I12">
+        <v>-7.585296104201043</v>
+      </c>
+      <c r="J12">
+        <v>-0.8422405749576001</v>
+      </c>
+      <c r="K12">
+        <v>-7.360357661522006</v>
+      </c>
+      <c r="L12">
+        <v>-7.585296104201043</v>
+      </c>
+      <c r="M12">
+        <v>-0.8422405749576001</v>
+      </c>
+      <c r="N12">
+        <v>-7.360357661522006</v>
+      </c>
+      <c r="O12" s="2">
         <v>45590</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BOW US</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bowhead Specialty Hldgs</t>
-        </is>
-      </c>
-      <c r="D12" s="2">
-        <v>45593</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>1.331460107591537e-05</v>
-      </c>
-      <c r="I12">
-        <v>1.382766103914885</v>
-      </c>
-      <c r="J12">
-        <v>0.04685754333835596</v>
-      </c>
-      <c r="K12">
-        <v>0.4297561942741285</v>
-      </c>
-      <c r="L12">
-        <v>1.382766103914885</v>
-      </c>
-      <c r="M12">
-        <v>0.04685754333835596</v>
-      </c>
-      <c r="N12">
-        <v>0.4297561942741285</v>
-      </c>
-      <c r="O12" s="2">
-        <v>45589</v>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3471 JP</t>
+          <t>RSGN SW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mitsui Fudosan Logistics</t>
+          <t>R&amp;S Group Holding Ag</t>
         </is>
       </c>
       <c r="D13" s="2">
@@ -1175,66 +1182,63 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>6.174881265083406e-05</v>
+          <t>S Inc &amp; F Inc</t>
+        </is>
       </c>
       <c r="I13">
-        <v>14.60907007357931</v>
+        <v>1.840040180464899</v>
       </c>
       <c r="J13">
-        <v>0.005418916326426317</v>
+        <v>0.07155529744439999</v>
       </c>
       <c r="K13">
-        <v>2.935888569105413</v>
+        <v>0.356318609630696</v>
       </c>
       <c r="L13">
-        <v>14.60907007357931</v>
+        <v>4.851015021225643</v>
       </c>
       <c r="M13">
-        <v>0.005418916326426317</v>
+        <v>0.1886457841716</v>
       </c>
       <c r="N13">
-        <v>2.935888569105413</v>
+        <v>0.9393854253900167</v>
       </c>
       <c r="O13" s="2">
-        <v>45580</v>
+        <v>45590</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Capital Increase</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3493 JP</t>
+          <t>RSGN SW</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Advance Logistics Inv</t>
+          <t>R&amp;S Group Holding Ag</t>
         </is>
       </c>
       <c r="D14" s="2">
@@ -1242,114 +1246,100 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>SPI Extra</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>3.010974840760744</v>
+      </c>
+      <c r="J14">
+        <v>0.1170904867272</v>
+      </c>
+      <c r="K14">
+        <v>0.5830668157593207</v>
+      </c>
+      <c r="L14">
+        <v>4.851015021225643</v>
+      </c>
+      <c r="M14">
+        <v>0.1886457841716</v>
+      </c>
+      <c r="N14">
+        <v>0.9393854253900167</v>
+      </c>
+      <c r="O14" s="2">
+        <v>45590</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Capital Increase</t>
+        </is>
+      </c>
+      <c r="Q14" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PETQ US</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Petiq A</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>45594</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H14">
-        <v>-5.813264966721212e-05</v>
-      </c>
-      <c r="I14">
-        <v>-13.766211657936</v>
-      </c>
-      <c r="J14">
-        <v>-0.01760184</v>
-      </c>
-      <c r="K14">
-        <v>-11.42457324592718</v>
-      </c>
-      <c r="L14">
-        <v>-13.766211657936</v>
-      </c>
-      <c r="M14">
-        <v>-0.01760184</v>
-      </c>
-      <c r="N14">
-        <v>-11.42457324592718</v>
-      </c>
-      <c r="O14" s="2">
-        <v>45580</v>
-      </c>
-      <c r="P14" t="inlineStr">
+      <c r="H15">
+        <v>-0.0001084998442111166</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>45590</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q14" s="2">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3493 JP</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Advance Logistics Investment</t>
-        </is>
-      </c>
-      <c r="D15" s="2">
-        <v>45595</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>FTSE DM</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="I15">
-        <v>-14.6151766510341</v>
-      </c>
-      <c r="J15">
-        <v>-0.01905358059063184</v>
-      </c>
-      <c r="K15">
-        <v>-12.04131866567563</v>
-      </c>
-      <c r="L15">
-        <v>-29.7866403026266</v>
-      </c>
-      <c r="M15">
-        <v>-0.03883238397191055</v>
-      </c>
-      <c r="N15">
-        <v>-24.54095741897213</v>
-      </c>
-      <c r="O15" s="2">
-        <v>45589</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
       <c r="Q15" s="2">
-        <v>45589</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="16">
@@ -1360,12 +1350,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3471 JP</t>
+          <t>3493 JP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mitsui Fudosan Logistics Par</t>
+          <t>Advance Logistics Investment</t>
         </is>
       </c>
       <c r="D16" s="2">
@@ -1387,22 +1377,22 @@
         </is>
       </c>
       <c r="I16">
-        <v>21.29444986579761</v>
+        <v>-14.6151766510341</v>
       </c>
       <c r="J16">
-        <v>0.0319018095</v>
+        <v>-0.01905358059063184</v>
       </c>
       <c r="K16">
-        <v>4.528933773424188</v>
+        <v>-12.04131866567563</v>
       </c>
       <c r="L16">
-        <v>37.0681164330551</v>
+        <v>-29.7866403026266</v>
       </c>
       <c r="M16">
-        <v>0.0555327795</v>
+        <v>-0.03883238397191055</v>
       </c>
       <c r="N16">
-        <v>7.88369953151618</v>
+        <v>-24.54095741897213</v>
       </c>
       <c r="O16" s="2">
         <v>45589</v>
@@ -1413,7 +1403,7 @@
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45590</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="17">
@@ -1442,7 +1432,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FTSE EPRA</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1451,13 +1441,13 @@
         </is>
       </c>
       <c r="I17">
-        <v>15.77366656725749</v>
+        <v>21.29444986579761</v>
       </c>
       <c r="J17">
-        <v>0.02363097</v>
+        <v>0.0319018095</v>
       </c>
       <c r="K17">
-        <v>3.354765758091991</v>
+        <v>4.528933773424188</v>
       </c>
       <c r="L17">
         <v>37.0681164330551</v>
@@ -1477,7 +1467,7 @@
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="18">
@@ -1488,12 +1478,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3493 JP</t>
+          <t>3471 JP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Advance Logistics Investment</t>
+          <t>Mitsui Fudosan Logistics Par</t>
         </is>
       </c>
       <c r="D18" s="2">
@@ -1506,7 +1496,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EPRA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1515,22 +1505,22 @@
         </is>
       </c>
       <c r="I18">
-        <v>-14.6151766510341</v>
+        <v>15.77366656725749</v>
       </c>
       <c r="J18">
-        <v>-0.01905358059063184</v>
+        <v>0.02363097</v>
       </c>
       <c r="K18">
-        <v>-12.04131866567563</v>
+        <v>3.354765758091991</v>
       </c>
       <c r="L18">
-        <v>-29.7866403026266</v>
+        <v>37.0681164330551</v>
       </c>
       <c r="M18">
-        <v>-0.03883238397191055</v>
+        <v>0.0555327795</v>
       </c>
       <c r="N18">
-        <v>-24.54095741897213</v>
+        <v>7.88369953151618</v>
       </c>
       <c r="O18" s="2">
         <v>45589</v>
@@ -1541,7 +1531,7 @@
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="19">
@@ -1570,7 +1560,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FTSE EPRA</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1579,13 +1569,13 @@
         </is>
       </c>
       <c r="I19">
-        <v>-15.17146365159249</v>
+        <v>-14.6151766510341</v>
       </c>
       <c r="J19">
-        <v>-0.01977880338127872</v>
+        <v>-0.01905358059063184</v>
       </c>
       <c r="K19">
-        <v>-12.4996387532965</v>
+        <v>-12.04131866567563</v>
       </c>
       <c r="L19">
         <v>-29.7866403026266</v>
@@ -1605,7 +1595,7 @@
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="20">
@@ -1616,12 +1606,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3707 TT</t>
+          <t>3493 JP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Episil Technolog</t>
+          <t>Advance Logistics Investment</t>
         </is>
       </c>
       <c r="D20" s="2">
@@ -1629,219 +1619,196 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>FTSE EPRA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>-15.17146365159249</v>
+      </c>
+      <c r="J20">
+        <v>-0.01977880338127872</v>
+      </c>
+      <c r="K20">
+        <v>-12.4996387532965</v>
+      </c>
+      <c r="L20">
+        <v>-29.7866403026266</v>
+      </c>
+      <c r="M20">
+        <v>-0.03883238397191055</v>
+      </c>
+      <c r="N20">
+        <v>-24.54095741897213</v>
+      </c>
+      <c r="O20" s="2">
+        <v>45589</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q20" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3707 TT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Episil Technolog</t>
+        </is>
+      </c>
+      <c r="D21" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>MSCI EM Small Cap</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>S Inc &amp; F Dec</t>
         </is>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>-2.077755265977144e-05</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>-0.5711749951190059</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>-0.3494374780024641</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>-0.2286556294700287</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>-0.5711749951190059</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>-0.3494374780024641</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>-0.2286556294700287</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O21" s="2">
         <v>45581</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>Private Placement</t>
         </is>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q21" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECG US</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Everus Construction Group </t>
+        </is>
+      </c>
+      <c r="D22" s="2">
+        <v>45596</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Russell 1000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="O22" s="2">
         <v>45590</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Spin-Off from MDU US</t>
+        </is>
+      </c>
+      <c r="Q22" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
         <is>
           <t>ECG US</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve"> EVERUS CONSTRUCTION GRP </t>
         </is>
       </c>
-      <c r="D21" s="2">
+      <c r="D23" s="2">
         <v>45597</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Add</t>
         </is>
       </c>
-      <c r="O21" s="2">
+      <c r="O23" s="2">
         <v>45580</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>Spin-Off from MDU US</t>
         </is>
       </c>
-      <c r="Q21" s="2">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>5809 JP</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Tatsuta Elec Wire &amp; Cable</t>
-        </is>
-      </c>
-      <c r="D22" s="2">
-        <v>45602</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>FTSE DM</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I22">
-        <v>-1.134794589058234</v>
-      </c>
-      <c r="J22">
-        <v>-0.2206788394000015</v>
-      </c>
-      <c r="K22">
-        <v>-1.402337491818394</v>
-      </c>
-      <c r="L22">
-        <v>-1.134794589058234</v>
-      </c>
-      <c r="M22">
-        <v>-0.2206788394000015</v>
-      </c>
-      <c r="N22">
-        <v>-1.402337491818394</v>
-      </c>
-      <c r="O22" s="2">
-        <v>45587</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q22" s="2">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>8155 JP</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mimasu Semiconductor Indust</t>
-        </is>
-      </c>
-      <c r="D23" s="2">
-        <v>45607</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I23">
-        <v>-2.650010224424026</v>
-      </c>
-      <c r="J23">
-        <v>-0.1079708335000027</v>
-      </c>
-      <c r="K23">
-        <v>-6.070893084059754</v>
-      </c>
-      <c r="L23">
-        <v>-2.650010224424026</v>
-      </c>
-      <c r="M23">
-        <v>-0.1079708335000027</v>
-      </c>
-      <c r="N23">
-        <v>-6.070893084059754</v>
-      </c>
-      <c r="O23" s="2">
-        <v>45583</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
       <c r="Q23" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="24">
@@ -1852,16 +1819,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>5809 JP</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Tatsuta Elec Wire &amp; Cable</t>
         </is>
       </c>
       <c r="D24" s="2">
-        <v>45632</v>
+        <v>45602</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1870,27 +1837,42 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I24">
+        <v>-1.134794589058234</v>
+      </c>
+      <c r="J24">
+        <v>-0.2206788394000015</v>
+      </c>
+      <c r="K24">
+        <v>-1.402337491818394</v>
+      </c>
+      <c r="L24">
+        <v>-1.134794589058234</v>
       </c>
       <c r="M24">
-        <v>-0.1196923767245363</v>
+        <v>-0.2206788394000015</v>
+      </c>
+      <c r="N24">
+        <v>-1.402337491818394</v>
       </c>
       <c r="O24" s="2">
-        <v>45580</v>
+        <v>45587</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45590</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="25">
@@ -1901,48 +1883,216 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>8155 JP</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mimasu Semiconductor Indust</t>
+        </is>
+      </c>
+      <c r="D25" s="2">
+        <v>45607</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I25">
+        <v>-2.650010224424026</v>
+      </c>
+      <c r="J25">
+        <v>-0.1079708335000027</v>
+      </c>
+      <c r="K25">
+        <v>-6.070893084059754</v>
+      </c>
+      <c r="L25">
+        <v>-2.650010224424026</v>
+      </c>
+      <c r="M25">
+        <v>-0.1079708335000027</v>
+      </c>
+      <c r="N25">
+        <v>-6.070893084059754</v>
+      </c>
+      <c r="O25" s="2">
+        <v>45583</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q25" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Jusung Engineering (New)</t>
         </is>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
+        <v>45631</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>45590</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Demerger</t>
+        </is>
+      </c>
+      <c r="Q26" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D27" s="2">
         <v>45632</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O27" s="2">
+        <v>45580</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q27" s="2">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D28" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>KOSDAQ150</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="J25">
+      <c r="J28">
         <v>-0.1196923767245363</v>
       </c>
-      <c r="M25">
+      <c r="M28">
         <v>-0.1196923767245363</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O28" s="2">
         <v>45588</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
-      <c r="Q25" s="2">
-        <v>45590</v>
+      <c r="Q28" s="2">
+        <v>45593</v>
       </c>
     </row>
   </sheetData>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,16 +461,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HMC AU</t>
+          <t>8114 JP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HMC Capital Ltd</t>
+          <t>Descente Ltd</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -479,45 +479,45 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASX200</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="H2">
-        <v>0.000138049418431471</v>
+        <v>-0.000108222473364793</v>
       </c>
       <c r="I2">
-        <v>11.03924691742979</v>
+        <v>-25.2409217413761</v>
       </c>
       <c r="J2">
-        <v>1.613906111833457</v>
+        <v>-0.8922723994382308</v>
       </c>
       <c r="K2">
-        <v>1.197783979511401</v>
+        <v>-3.643638440240239</v>
       </c>
       <c r="L2">
-        <v>11.03924691742979</v>
+        <v>-25.2409217413761</v>
       </c>
       <c r="M2">
-        <v>1.613906111833457</v>
+        <v>-0.8922723994382308</v>
       </c>
       <c r="N2">
-        <v>1.197783979511401</v>
+        <v>-3.643638440240239</v>
       </c>
       <c r="O2" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="3">
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPOL NO</t>
+          <t>FNAC FP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sparebank 1 Ostlandet</t>
+          <t>Fnac Darty Sa</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -554,37 +554,34 @@
           <t>S Inc &amp; F Inc</t>
         </is>
       </c>
-      <c r="H3">
-        <v>2.225569705643931e-05</v>
-      </c>
       <c r="I3">
-        <v>3.579929203297047</v>
+        <v>1.065642333857853</v>
       </c>
       <c r="J3">
-        <v>0.2559861389701074</v>
+        <v>0.03763902003477138</v>
       </c>
       <c r="K3">
-        <v>8.938562872580428</v>
+        <v>0.6063079256974998</v>
       </c>
       <c r="L3">
-        <v>3.579929203297047</v>
+        <v>1.065642333857853</v>
       </c>
       <c r="M3">
-        <v>0.2559861389701074</v>
+        <v>0.03763902003477138</v>
       </c>
       <c r="N3">
-        <v>8.938562872580428</v>
+        <v>0.6063079256974998</v>
       </c>
       <c r="O3" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="4">
@@ -595,11 +592,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Everus Construction Group </t>
+          <t xml:space="preserve"> EVERUS CONSTRUCTION GRP </t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -608,7 +605,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -617,7 +614,7 @@
         </is>
       </c>
       <c r="O4" s="2">
-        <v>45590</v>
+        <v>45580</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -625,22 +622,22 @@
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITI US</t>
+          <t>CLW US</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Iteris Inc</t>
+          <t>Clearwater (MA)</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -649,7 +646,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -658,48 +655,48 @@
         </is>
       </c>
       <c r="I5">
-        <v>-27.81501615966155</v>
+        <v>-51.59239804317489</v>
       </c>
       <c r="J5">
-        <v>-3.868569702317323</v>
+        <v>-1.944681418890874</v>
       </c>
       <c r="K5">
-        <v>-11.1227752378731</v>
+        <v>-8.659784007711027</v>
       </c>
       <c r="L5">
-        <v>-27.81501615966155</v>
+        <v>-51.59239804317489</v>
       </c>
       <c r="M5">
-        <v>-3.868569702317323</v>
+        <v>-1.944681418890874</v>
       </c>
       <c r="N5">
-        <v>-11.1227752378731</v>
+        <v>-8.659784007711027</v>
       </c>
       <c r="O5" s="2">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Discretionary Removal</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>BA US</t>
+          <t>EYPT US</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Boeing Co/The</t>
+          <t>Eyepoint Pharmaceuticals</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -708,7 +705,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -716,26 +713,29 @@
           <t>S Inc</t>
         </is>
       </c>
+      <c r="H6">
+        <v>1.916478848549979e-05</v>
+      </c>
       <c r="I6">
-        <v>591.8187166790042</v>
+        <v>2.003980629229421</v>
       </c>
       <c r="J6">
-        <v>3.836501469460678</v>
+        <v>0.1748674196535271</v>
       </c>
       <c r="K6">
-        <v>0.3984842408408828</v>
+        <v>0.2237483515602393</v>
       </c>
       <c r="L6">
-        <v>1401.246302811507</v>
+        <v>2.003980629229421</v>
       </c>
       <c r="M6">
-        <v>9.127569492290476</v>
+        <v>0.1748674196535271</v>
       </c>
       <c r="N6">
-        <v>0.9480493175385323</v>
+        <v>0.2237483515602393</v>
       </c>
       <c r="O6" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>KDP US</t>
+          <t>THRY US</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Keurig Dr Pepper</t>
+          <t>Thryv Holdings</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -775,26 +775,29 @@
           <t>S Inc</t>
         </is>
       </c>
+      <c r="H7">
+        <v>1.045585689164864e-05</v>
+      </c>
       <c r="I7">
-        <v>71.14569098079858</v>
+        <v>1.093336804962131</v>
       </c>
       <c r="J7">
-        <v>2.154950506763549</v>
+        <v>0.07640369007422296</v>
       </c>
       <c r="K7">
-        <v>0.2362175157023636</v>
+        <v>0.4376076472350968</v>
       </c>
       <c r="L7">
-        <v>71.14569098079858</v>
+        <v>1.093336804962131</v>
       </c>
       <c r="M7">
-        <v>2.154950506763549</v>
+        <v>0.07640369007422296</v>
       </c>
       <c r="N7">
-        <v>0.2362175157023636</v>
+        <v>0.4376076472350968</v>
       </c>
       <c r="O7" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -802,22 +805,22 @@
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>BA US</t>
+          <t>VERA US</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Boeing Co</t>
+          <t>Vera Therapeutics A</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -826,7 +829,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -835,28 +838,28 @@
         </is>
       </c>
       <c r="H8">
-        <v>0.0003133557339285455</v>
+        <v>3.907086481412202e-05</v>
       </c>
       <c r="I8">
-        <v>809.4275861325024</v>
+        <v>4.085158857243236</v>
       </c>
       <c r="J8">
-        <v>5.291068022829798</v>
+        <v>0.1005206411723237</v>
       </c>
       <c r="K8">
-        <v>0.5495650766976495</v>
+        <v>0.1431640737977804</v>
       </c>
       <c r="L8">
-        <v>1401.246302811507</v>
+        <v>4.085158857243236</v>
       </c>
       <c r="M8">
-        <v>9.127569492290476</v>
+        <v>0.1005206411723237</v>
       </c>
       <c r="N8">
-        <v>0.9480493175385323</v>
+        <v>0.1431640737977804</v>
       </c>
       <c r="O8" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -864,337 +867,326 @@
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECG US</t>
+          <t>FA US</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Everus Construction Group Inc</t>
+          <t>First Advantage</t>
         </is>
       </c>
       <c r="D9" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>6.177500280620411e-05</v>
+      </c>
+      <c r="I9">
+        <v>6.459200877762941</v>
+      </c>
+      <c r="J9">
+        <v>0.3454118116450771</v>
+      </c>
+      <c r="K9">
+        <v>0.6242935916666289</v>
+      </c>
+      <c r="L9">
+        <v>6.459200877762941</v>
+      </c>
+      <c r="M9">
+        <v>0.3454118116450771</v>
+      </c>
+      <c r="N9">
+        <v>0.6242935916666289</v>
+      </c>
+      <c r="O9" s="2">
+        <v>45595</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q9" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>STER US</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sterling Check Corp</t>
+        </is>
+      </c>
+      <c r="D10" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>-6.102814500378859e-05</v>
+      </c>
+      <c r="I10">
+        <v>-6.381796790537998</v>
+      </c>
+      <c r="J10">
+        <v>-0.3812303936999999</v>
+      </c>
+      <c r="K10">
+        <v>-0.5247092981807049</v>
+      </c>
+      <c r="L10">
+        <v>-6.381796790537998</v>
+      </c>
+      <c r="M10">
+        <v>-0.3812303936999999</v>
+      </c>
+      <c r="N10">
+        <v>-0.5247092981807049</v>
+      </c>
+      <c r="O10" s="2">
+        <v>45595</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q10" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CTRE US</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Caretrust Rei (RE)</t>
+        </is>
+      </c>
+      <c r="D11" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>48.4608719285406</v>
+      </c>
+      <c r="J11">
+        <v>1.483344717739228</v>
+      </c>
+      <c r="K11">
+        <v>1.153707654984089</v>
+      </c>
+      <c r="L11">
+        <v>48.4608719285406</v>
+      </c>
+      <c r="M11">
+        <v>1.483344717739228</v>
+      </c>
+      <c r="N11">
+        <v>1.153707654984089</v>
+      </c>
+      <c r="O11" s="2">
         <v>45596</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Equity Offering</t>
+        </is>
+      </c>
+      <c r="Q11" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HRMY US</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Harmony Bioscie (HC)</t>
+        </is>
+      </c>
+      <c r="D12" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>S&amp;P 600</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>45594</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Spin-Off from MDU US</t>
-        </is>
-      </c>
-      <c r="Q9" s="2">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Float Inc</t>
+        </is>
+      </c>
+      <c r="I12">
+        <v>31.21016954154731</v>
+      </c>
+      <c r="J12">
+        <v>0.9713716010441117</v>
+      </c>
+      <c r="K12">
+        <v>1.355325839340549</v>
+      </c>
+      <c r="L12">
+        <v>31.21016954154731</v>
+      </c>
+      <c r="M12">
+        <v>0.9713716010441117</v>
+      </c>
+      <c r="N12">
+        <v>1.355325839340549</v>
+      </c>
+      <c r="O12" s="2">
         <v>45596</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AESB3 BZ</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Aes Brasil Energia On</t>
-        </is>
-      </c>
-      <c r="D10" s="2">
-        <v>45596</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Equity Offering</t>
+        </is>
+      </c>
+      <c r="Q12" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>STLC CN</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Stelco Holdings Inc</t>
+        </is>
+      </c>
+      <c r="D13" s="2">
+        <v>45600</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S&amp;P TSX Composite</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H10">
-        <v>-0.0002813055566670548</v>
-      </c>
-      <c r="I10">
-        <v>-10.101824390558</v>
-      </c>
-      <c r="J10">
-        <v>-6.5008149588</v>
-      </c>
-      <c r="K10">
-        <v>-0.7883129620966012</v>
-      </c>
-      <c r="L10">
-        <v>-10.101824390558</v>
-      </c>
-      <c r="M10">
-        <v>-6.5008149588</v>
-      </c>
-      <c r="N10">
-        <v>-0.7883129620966012</v>
-      </c>
-      <c r="O10" s="2">
-        <v>45593</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q10" s="2">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>AURE3 BZ</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Auren Energia On</t>
-        </is>
-      </c>
-      <c r="D11" s="2">
-        <v>45596</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>0.0002519386838645002</v>
-      </c>
-      <c r="I11">
-        <v>9.011907076842034</v>
-      </c>
-      <c r="J11">
-        <v>4.974850621471921</v>
-      </c>
-      <c r="K11">
-        <v>0.9303342237641463</v>
-      </c>
-      <c r="L11">
-        <v>9.011907076842034</v>
-      </c>
-      <c r="M11">
-        <v>4.974850621471921</v>
-      </c>
-      <c r="N11">
-        <v>0.9303342237641463</v>
-      </c>
-      <c r="O11" s="2">
-        <v>45593</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q11" s="2">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8114 JP</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Descente Ltd</t>
-        </is>
-      </c>
-      <c r="D12" s="2">
-        <v>45597</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>-0.000108222473364793</v>
-      </c>
-      <c r="I12">
-        <v>-25.2409217413761</v>
-      </c>
-      <c r="J12">
-        <v>-0.8922723994382308</v>
-      </c>
-      <c r="K12">
-        <v>-3.643638440240239</v>
-      </c>
-      <c r="L12">
-        <v>-25.2409217413761</v>
-      </c>
-      <c r="M12">
-        <v>-0.8922723994382308</v>
-      </c>
-      <c r="N12">
-        <v>-3.643638440240239</v>
-      </c>
-      <c r="O12" s="2">
-        <v>45595</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q12" s="2">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>FNAC FP</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Fnac Darty Sa</t>
-        </is>
-      </c>
-      <c r="D13" s="2">
-        <v>45597</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
+      <c r="H13">
+        <v>-0.0005834744360663676</v>
       </c>
       <c r="I13">
-        <v>1.065642333857853</v>
+        <v>-80.91925299700002</v>
       </c>
       <c r="J13">
-        <v>0.03763902003477138</v>
+        <v>-1.647052</v>
       </c>
       <c r="K13">
-        <v>0.6063079256974998</v>
+        <v>-2.688695754378176</v>
       </c>
       <c r="L13">
-        <v>1.065642333857853</v>
+        <v>-80.91925299700002</v>
       </c>
       <c r="M13">
-        <v>0.03763902003477138</v>
+        <v>-1.647052</v>
       </c>
       <c r="N13">
-        <v>0.6063079256974998</v>
+        <v>-2.688695754378176</v>
       </c>
       <c r="O13" s="2">
         <v>45595</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECG US</t>
+          <t>CLF US</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EVERUS CONSTRUCTION GRP </t>
+          <t>Cleveland-Cliffs (MA)</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1203,39 +1195,57 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>18.9982096789035</v>
+      </c>
+      <c r="J14">
+        <v>1.440349482858491</v>
+      </c>
+      <c r="K14">
+        <v>0.1549237651171048</v>
+      </c>
+      <c r="L14">
+        <v>18.9982096789035</v>
+      </c>
+      <c r="M14">
+        <v>1.440349482858491</v>
+      </c>
+      <c r="N14">
+        <v>0.1549237651171048</v>
       </c>
       <c r="O14" s="2">
-        <v>45580</v>
+        <v>45595</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Spin-Off from MDU US</t>
+          <t>Acquiring STLC CN</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLW US</t>
+          <t>MAGN_z US</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Clearwater (MA)</t>
+          <t>Magnera Corp placeholder</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1244,57 +1254,48 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I15">
-        <v>-51.59239804317489</v>
-      </c>
-      <c r="J15">
-        <v>-1.944681418890874</v>
-      </c>
-      <c r="K15">
-        <v>-8.659784007711027</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L15">
-        <v>-51.59239804317489</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-1.944681418890874</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>-8.659784007711027</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Spin-off from BERY</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>EYPT US</t>
+          <t>BERY_x US</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eyepoint Pharmaceuticals</t>
+          <t xml:space="preserve">Berry Global HHNF Distribution </t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1303,60 +1304,48 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H16">
-        <v>1.916478848549979e-05</v>
-      </c>
-      <c r="I16">
-        <v>2.003980629229421</v>
-      </c>
-      <c r="J16">
-        <v>0.1748674196535271</v>
-      </c>
-      <c r="K16">
-        <v>0.2237483515602393</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L16">
-        <v>2.003980629229421</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.1748674196535271</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.2237483515602393</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Spin-off from BERY</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>THRY US</t>
+          <t>CWH US</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thryv Holdings</t>
+          <t>Camping World-A</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1365,7 +1354,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1373,29 +1362,26 @@
           <t>S Inc</t>
         </is>
       </c>
-      <c r="H17">
-        <v>1.045585689164864e-05</v>
-      </c>
       <c r="I17">
-        <v>1.093336804962131</v>
+        <v>25.04953264165996</v>
       </c>
       <c r="J17">
-        <v>0.07640369007422296</v>
+        <v>1.239768999834693</v>
       </c>
       <c r="K17">
-        <v>0.4376076472350968</v>
+        <v>1.044346123166885</v>
       </c>
       <c r="L17">
-        <v>1.093336804962131</v>
+        <v>28.6741902332341</v>
       </c>
       <c r="M17">
-        <v>0.07640369007422296</v>
+        <v>1.420459806991928</v>
       </c>
       <c r="N17">
-        <v>0.4376076472350968</v>
+        <v>1.196554916879033</v>
       </c>
       <c r="O17" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1403,22 +1389,22 @@
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>VERA US</t>
+          <t>CTRE US</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Vera Therapeutics A</t>
+          <t>Caretrust Rei</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1427,37 +1413,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H18">
-        <v>3.907086481412202e-05</v>
+          <t>S Inc</t>
+        </is>
       </c>
       <c r="I18">
-        <v>4.085158857243236</v>
+        <v>41.26581835090484</v>
       </c>
       <c r="J18">
-        <v>0.1005206411723237</v>
+        <v>1.247643789898861</v>
       </c>
       <c r="K18">
-        <v>0.1431640737977804</v>
+        <v>0.9703854902274478</v>
       </c>
       <c r="L18">
-        <v>4.085158857243236</v>
+        <v>54.71769507918042</v>
       </c>
       <c r="M18">
-        <v>0.1005206411723237</v>
+        <v>1.659393919322662</v>
       </c>
       <c r="N18">
-        <v>0.1431640737977804</v>
+        <v>1.214692470781049</v>
       </c>
       <c r="O18" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1465,22 +1448,22 @@
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>FA US</t>
+          <t>KDP US</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>First Advantage</t>
+          <t>Keurig Dr Pepper</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1489,60 +1472,60 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H19">
-        <v>6.177500280620411e-05</v>
+        <v>3.205217898801936e-05</v>
       </c>
       <c r="I19">
-        <v>6.459200877762941</v>
+        <v>82.57883740282604</v>
       </c>
       <c r="J19">
-        <v>0.3454118116450771</v>
+        <v>2.506186264122186</v>
       </c>
       <c r="K19">
-        <v>0.6242935916666289</v>
+        <v>0.1906021175433461</v>
       </c>
       <c r="L19">
-        <v>6.459200877762941</v>
+        <v>82.57883740282604</v>
       </c>
       <c r="M19">
-        <v>0.3454118116450771</v>
+        <v>2.506186264122186</v>
       </c>
       <c r="N19">
-        <v>0.6242935916666289</v>
+        <v>0.1906021175433461</v>
       </c>
       <c r="O19" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>STER US</t>
+          <t>CWH US</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sterling Check Corp</t>
+          <t>Camping World Holdings A</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1556,51 +1539,51 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H20">
-        <v>-6.102814500378859e-05</v>
+        <v>3.465777273741918e-05</v>
       </c>
       <c r="I20">
-        <v>-6.381796790537998</v>
+        <v>3.624657591574143</v>
       </c>
       <c r="J20">
-        <v>-0.3812303936999999</v>
+        <v>0.1806908071572354</v>
       </c>
       <c r="K20">
-        <v>-0.5247092981807049</v>
+        <v>0.1522087937121475</v>
       </c>
       <c r="L20">
-        <v>-6.381796790537998</v>
+        <v>28.6741902332341</v>
       </c>
       <c r="M20">
-        <v>-0.3812303936999999</v>
+        <v>1.420459806991928</v>
       </c>
       <c r="N20">
-        <v>-0.5247092981807049</v>
+        <v>1.196554916879033</v>
       </c>
       <c r="O20" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>STLC CN</t>
+          <t>HRMY US</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Stelco Holdings Inc</t>
+          <t>Harmony Biosciences</t>
         </is>
       </c>
       <c r="D21" s="2">
@@ -1613,56 +1596,56 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>S&amp;P TSX Composite</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H21">
-        <v>-0.0005834744360663676</v>
+        <v>3.401412361810264e-05</v>
       </c>
       <c r="I21">
-        <v>-80.91925299700002</v>
+        <v>3.55730499352983</v>
       </c>
       <c r="J21">
-        <v>-1.647052</v>
+        <v>0.1107159973087404</v>
       </c>
       <c r="K21">
-        <v>-2.688695754378176</v>
+        <v>0.1544787307139734</v>
       </c>
       <c r="L21">
-        <v>-80.91925299700002</v>
+        <v>3.55730499352983</v>
       </c>
       <c r="M21">
-        <v>-1.647052</v>
+        <v>0.1107159973087404</v>
       </c>
       <c r="N21">
-        <v>-2.688695754378176</v>
+        <v>0.1544787307139734</v>
       </c>
       <c r="O21" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLF US</t>
+          <t>CTRE US</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cleveland-Cliffs (MA)</t>
+          <t>Caretrust Reit Inc</t>
         </is>
       </c>
       <c r="D22" s="2">
@@ -1675,53 +1658,58 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I22">
-        <v>18.9982096789035</v>
+        <v>13.45187672827558</v>
       </c>
       <c r="J22">
-        <v>1.440349482858491</v>
+        <v>0.4117501294238009</v>
       </c>
       <c r="K22">
-        <v>0.1549237651171048</v>
+        <v>0.2443069805536012</v>
       </c>
       <c r="L22">
-        <v>18.9982096789035</v>
+        <v>54.71769507918042</v>
       </c>
       <c r="M22">
-        <v>1.440349482858491</v>
+        <v>1.659393919322662</v>
       </c>
       <c r="N22">
-        <v>0.1549237651171048</v>
+        <v>1.214692470781049</v>
       </c>
       <c r="O22" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Acquiring STLC CN</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAGN_z US</t>
+          <t>AURE3 BZ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Magnera Corp placeholder</t>
+          <t>Auren Energia Sa - On</t>
         </is>
       </c>
       <c r="D23" s="2">
@@ -1734,53 +1722,62 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t xml:space="preserve">S Inc &amp; F Inc </t>
+        </is>
+      </c>
+      <c r="I23">
+        <v>0.2228520476940663</v>
+      </c>
+      <c r="J23">
+        <v>0.1259255301249786</v>
+      </c>
+      <c r="K23">
+        <v>0.0219001874138546</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2228520476940663</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1259255301249786</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.0219001874138546</v>
       </c>
       <c r="O23" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Spin-off from BERY</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8114 JP</t>
+          <t>AESB3 BZ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Descente Ltd</t>
+          <t>Aes Brasil Energia Sa</t>
         </is>
       </c>
       <c r="D24" s="2">
-        <v>45601</v>
+        <v>45600</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1789,53 +1786,58 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I24">
-        <v>-31.66127028191939</v>
+        <v>-0.5139890211665453</v>
       </c>
       <c r="J24">
-        <v>-1.114579148205599</v>
+        <v>-0.3670744478350682</v>
       </c>
       <c r="K24">
-        <v>-4.551439035488492</v>
+        <v>-0.04525129689987539</v>
       </c>
       <c r="L24">
-        <v>-31.66127028191939</v>
+        <v>-0.5139890211665453</v>
       </c>
       <c r="M24">
-        <v>-1.114579148205599</v>
+        <v>-0.3670744478350682</v>
       </c>
       <c r="N24">
-        <v>-4.551439035488492</v>
+        <v>-0.04525129689987539</v>
       </c>
       <c r="O24" s="2">
         <v>45596</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAGN US</t>
+          <t>8114 JP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Magnera Corp </t>
+          <t>Descente Ltd</t>
         </is>
       </c>
       <c r="D25" s="2">
@@ -1848,41 +1850,58 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I25">
+        <v>-31.66127028191939</v>
       </c>
       <c r="J25">
-        <v>-2.665152587391532</v>
+        <v>-1.114579148205599</v>
+      </c>
+      <c r="K25">
+        <v>-4.551439035488492</v>
+      </c>
+      <c r="L25">
+        <v>-31.66127028191939</v>
       </c>
       <c r="M25">
-        <v>-2.665152587391532</v>
+        <v>-1.114579148205599</v>
+      </c>
+      <c r="N25">
+        <v>-4.551439035488492</v>
       </c>
       <c r="O25" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Merge into MAGN (GLT)</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GLT US</t>
+          <t>8890 JP</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GLATFELTER</t>
+          <t>Raysum Co</t>
         </is>
       </c>
       <c r="D26" s="2">
@@ -1900,197 +1919,178 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>-4.863217879867193e-05</v>
+      </c>
+      <c r="I26">
+        <v>-11.34701354573884</v>
+      </c>
+      <c r="J26">
+        <v>-0.29517621</v>
+      </c>
+      <c r="K26">
+        <v>-2.795229261363637</v>
+      </c>
+      <c r="L26">
+        <v>-11.34701354573884</v>
+      </c>
+      <c r="M26">
+        <v>-0.29517621</v>
+      </c>
+      <c r="N26">
+        <v>-2.795229261363637</v>
+      </c>
+      <c r="O26" s="2">
+        <v>45596</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q26" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MAGN US</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magnera Corp </t>
+        </is>
+      </c>
+      <c r="D27" s="2">
+        <v>45601</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J27">
+        <v>-2.665152587391532</v>
+      </c>
+      <c r="M27">
+        <v>-2.665152587391532</v>
+      </c>
+      <c r="O27" s="2">
+        <v>45595</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Merge into MAGN (GLT)</t>
+        </is>
+      </c>
+      <c r="Q27" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GLT US</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GLATFELTER</t>
+        </is>
+      </c>
+      <c r="D28" s="2">
+        <v>45601</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Add</t>
         </is>
       </c>
-      <c r="H26">
+      <c r="H28">
         <v>0.0001073641624070682</v>
       </c>
-      <c r="I26">
+      <c r="I28">
         <v>1.111851836549999</v>
       </c>
-      <c r="J26">
+      <c r="J28">
         <v>0.5882813949999992</v>
       </c>
-      <c r="K26">
+      <c r="K28">
         <v>1.82090947562366</v>
       </c>
-      <c r="L26">
+      <c r="L28">
         <v>1.111851836549999</v>
       </c>
-      <c r="M26">
+      <c r="M28">
         <v>0.5882813949999992</v>
       </c>
-      <c r="N26">
+      <c r="N28">
         <v>1.82090947562366</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O28" s="2">
         <v>45595</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>Spin off from BERY</t>
         </is>
       </c>
-      <c r="Q26" s="2">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>5809 JP</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Tatsuta Elec Wire &amp; Cable</t>
-        </is>
-      </c>
-      <c r="D27" s="2">
-        <v>45602</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>FTSE DM</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I27">
-        <v>-1.134794589058234</v>
-      </c>
-      <c r="J27">
-        <v>-0.2206788394000015</v>
-      </c>
-      <c r="K27">
-        <v>-1.402337491818394</v>
-      </c>
-      <c r="L27">
-        <v>-1.134794589058234</v>
-      </c>
-      <c r="M27">
-        <v>-0.2206788394000015</v>
-      </c>
-      <c r="N27">
-        <v>-1.402337491818394</v>
-      </c>
-      <c r="O27" s="2">
-        <v>45587</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q27" s="2">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>8155 JP</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mimasu Semiconductor Indust</t>
-        </is>
-      </c>
-      <c r="D28" s="2">
-        <v>45607</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I28">
-        <v>-2.650010224424026</v>
-      </c>
-      <c r="J28">
-        <v>-0.1079708335000027</v>
-      </c>
-      <c r="K28">
-        <v>-6.070893084059754</v>
-      </c>
-      <c r="L28">
-        <v>-2.650010224424026</v>
-      </c>
-      <c r="M28">
-        <v>-0.1079708335000027</v>
-      </c>
-      <c r="N28">
-        <v>-6.070893084059754</v>
-      </c>
-      <c r="O28" s="2">
-        <v>45583</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
       <c r="Q28" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BCPT LN</t>
+          <t>5809 JP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Balanced Comm Ppty Trust</t>
+          <t>Tatsuta Elec Wire &amp; Cable</t>
         </is>
       </c>
       <c r="D29" s="2">
-        <v>45610</v>
+        <v>45602</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2098,29 +2098,26 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H29">
-        <v>-0.0001081784937401948</v>
-      </c>
       <c r="I29">
-        <v>-17.40727434825358</v>
+        <v>-1.134794589058234</v>
       </c>
       <c r="J29">
-        <v>-14.03100374</v>
+        <v>-0.2206788394000015</v>
       </c>
       <c r="K29">
-        <v>-3.819823859640908</v>
+        <v>-1.402337491818394</v>
       </c>
       <c r="L29">
-        <v>-17.40727434825358</v>
+        <v>-1.134794589058234</v>
       </c>
       <c r="M29">
-        <v>-14.03100374</v>
+        <v>-0.2206788394000015</v>
       </c>
       <c r="N29">
-        <v>-3.819823859640908</v>
+        <v>-1.402337491818394</v>
       </c>
       <c r="O29" s="2">
-        <v>45595</v>
+        <v>45587</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2128,7 +2125,7 @@
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="30">
@@ -2139,16 +2136,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>8890 JP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Raysum Co Ltd</t>
         </is>
       </c>
       <c r="D30" s="2">
-        <v>45631</v>
+        <v>45602</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2162,28 +2159,37 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I30">
+        <v>-11.37270516874678</v>
+      </c>
+      <c r="J30">
+        <v>-0.2942061174818217</v>
+      </c>
+      <c r="K30">
+        <v>-2.786042779183918</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-11.37270516874678</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-0.2942061174818217</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-2.786042779183918</v>
       </c>
       <c r="O30" s="2">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q30" s="2">
-        <v>45594</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="31">
@@ -2194,96 +2200,486 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>8155 JP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mimasu Semiconductor Indust</t>
+        </is>
+      </c>
+      <c r="D31" s="2">
+        <v>45607</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I31">
+        <v>-2.650010224424026</v>
+      </c>
+      <c r="J31">
+        <v>-0.1079708335000027</v>
+      </c>
+      <c r="K31">
+        <v>-6.070893084059754</v>
+      </c>
+      <c r="L31">
+        <v>-2.650010224424026</v>
+      </c>
+      <c r="M31">
+        <v>-0.1079708335000027</v>
+      </c>
+      <c r="N31">
+        <v>-6.070893084059754</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45583</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q31" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
+        </is>
+      </c>
+      <c r="D32" s="2">
+        <v>45609</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>45596</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Spin off from  LBTYA US</t>
+        </is>
+      </c>
+      <c r="Q32" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
+        </is>
+      </c>
+      <c r="D33" s="2">
+        <v>45609</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>45596</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Spin off from  LBTYK US</t>
+        </is>
+      </c>
+      <c r="Q33" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BCPT LN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Balanced Comm Ppty Trust</t>
+        </is>
+      </c>
+      <c r="D34" s="2">
+        <v>45610</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H34">
+        <v>-0.0001081784937401948</v>
+      </c>
+      <c r="I34">
+        <v>-17.40727434825358</v>
+      </c>
+      <c r="J34">
+        <v>-14.03100374</v>
+      </c>
+      <c r="K34">
+        <v>-3.819823859640908</v>
+      </c>
+      <c r="L34">
+        <v>-17.40727434825358</v>
+      </c>
+      <c r="M34">
+        <v>-14.03100374</v>
+      </c>
+      <c r="N34">
+        <v>-3.819823859640908</v>
+      </c>
+      <c r="O34" s="2">
+        <v>45595</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q34" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUNRISE A</t>
+        </is>
+      </c>
+      <c r="D35" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="J35">
+        <v>1.1619372024</v>
+      </c>
+      <c r="M35">
+        <v>0.2977813214999999</v>
+      </c>
+      <c r="O35" s="2">
+        <v>45596</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Spin-off from Liberty Global</t>
+        </is>
+      </c>
+      <c r="Q35" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUNRISE A</t>
+        </is>
+      </c>
+      <c r="D36" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J36">
+        <v>-0.8641558809</v>
+      </c>
+      <c r="M36">
+        <v>0.2977813214999999</v>
+      </c>
+      <c r="O36" s="2">
+        <v>45596</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Spin-off from Liberty Global</t>
+        </is>
+      </c>
+      <c r="Q36" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Jusung Engineering (New)</t>
         </is>
       </c>
-      <c r="D31" s="2">
+      <c r="D37" s="2">
+        <v>45631</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>45590</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Demerger</t>
+        </is>
+      </c>
+      <c r="Q37" s="2">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D38" s="2">
         <v>45632</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>MSCI EM Small Cap</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Add</t>
         </is>
       </c>
-      <c r="M31">
+      <c r="M38">
         <v>-0.1196923767245363</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O38" s="2">
         <v>45580</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>Spin-Off</t>
         </is>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q38" s="2">
         <v>45595</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Jusung Engineering (New)</t>
         </is>
       </c>
-      <c r="D32" s="2">
+      <c r="D39" s="2">
         <v>45632</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>KOSDAQ150</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="J32">
+      <c r="J39">
         <v>-0.1196923767245363</v>
       </c>
-      <c r="M32">
+      <c r="M39">
         <v>-0.1196923767245363</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O39" s="2">
         <v>45588</v>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q39" s="2">
         <v>45595</v>
       </c>
     </row>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,25 +452,65 @@
           <t>As_of_date</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Share_Inc</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Share_Dec</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Float_Inc</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Float_Dec</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Spin_Off</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Country_change</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8114 JP</t>
+          <t>STLC CN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Descente Ltd</t>
+          <t>Stelco Holdings Inc</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -479,7 +519,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>S&amp;P TSX Composite</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -488,25 +528,25 @@
         </is>
       </c>
       <c r="H2">
-        <v>-0.000108222473364793</v>
+        <v>-0.0005834744360663676</v>
       </c>
       <c r="I2">
-        <v>-25.2409217413761</v>
+        <v>-80.91925299700002</v>
       </c>
       <c r="J2">
-        <v>-0.8922723994382308</v>
+        <v>-1.647052</v>
       </c>
       <c r="K2">
-        <v>-3.643638440240239</v>
+        <v>-2.688695754378176</v>
       </c>
       <c r="L2">
-        <v>-25.2409217413761</v>
+        <v>-80.91925299700002</v>
       </c>
       <c r="M2">
-        <v>-0.8922723994382308</v>
+        <v>-1.647052</v>
       </c>
       <c r="N2">
-        <v>-3.643638440240239</v>
+        <v>-2.688695754378176</v>
       </c>
       <c r="O2" s="2">
         <v>45595</v>
@@ -519,25 +559,25 @@
       <c r="Q2" s="2">
         <v>45597</v>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FNAC FP</t>
+          <t>CLF US</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fnac Darty Sa</t>
+          <t>Cleveland-Cliffs (MA)</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -546,57 +586,67 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I3">
-        <v>1.065642333857853</v>
+        <v>18.9982096789035</v>
       </c>
       <c r="J3">
-        <v>0.03763902003477138</v>
+        <v>1.440349482858491</v>
       </c>
       <c r="K3">
-        <v>0.6063079256974998</v>
+        <v>0.1549237651171048</v>
       </c>
       <c r="L3">
-        <v>1.065642333857853</v>
+        <v>18.9982096789035</v>
       </c>
       <c r="M3">
-        <v>0.03763902003477138</v>
+        <v>1.440349482858491</v>
       </c>
       <c r="N3">
-        <v>0.6063079256974998</v>
+        <v>0.1549237651171048</v>
       </c>
       <c r="O3" s="2">
         <v>45595</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Acquiring STLC CN</t>
         </is>
       </c>
       <c r="Q3" s="2">
         <v>45597</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECG US</t>
+          <t>MAGN_z US</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EVERUS CONSTRUCTION GRP </t>
+          <t>Magnera Corp placeholder</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -605,7 +655,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -613,31 +663,50 @@
           <t>Add</t>
         </is>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
       <c r="O4" s="2">
-        <v>45580</v>
+        <v>45595</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Spin-Off from MDU US</t>
+          <t>Spin-off from BERY</t>
         </is>
       </c>
       <c r="Q4" s="2">
         <v>45597</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLW US</t>
+          <t>BERY_x US</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Clearwater (MA)</t>
+          <t xml:space="preserve">Berry Global HHNF Distribution </t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -646,57 +715,58 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I5">
-        <v>-51.59239804317489</v>
-      </c>
-      <c r="J5">
-        <v>-1.944681418890874</v>
-      </c>
-      <c r="K5">
-        <v>-8.659784007711027</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L5">
-        <v>-51.59239804317489</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>-1.944681418890874</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-8.659784007711027</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>45594</v>
+        <v>45596</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Spin-off from BERY</t>
         </is>
       </c>
       <c r="Q5" s="2">
         <v>45597</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>EYPT US</t>
+          <t>CWH US</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eyepoint Pharmaceuticals</t>
+          <t>Camping World-A</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -705,7 +775,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -713,29 +783,26 @@
           <t>S Inc</t>
         </is>
       </c>
-      <c r="H6">
-        <v>1.916478848549979e-05</v>
-      </c>
       <c r="I6">
-        <v>2.003980629229421</v>
+        <v>25.04953264165996</v>
       </c>
       <c r="J6">
-        <v>0.1748674196535271</v>
+        <v>1.239768999834693</v>
       </c>
       <c r="K6">
-        <v>0.2237483515602393</v>
+        <v>1.044346123166885</v>
       </c>
       <c r="L6">
-        <v>2.003980629229421</v>
+        <v>28.6741902332341</v>
       </c>
       <c r="M6">
-        <v>0.1748674196535271</v>
+        <v>1.420459806991928</v>
       </c>
       <c r="N6">
-        <v>0.2237483515602393</v>
+        <v>1.196554916879033</v>
       </c>
       <c r="O6" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -744,21 +811,26 @@
       </c>
       <c r="Q6" s="2">
         <v>45597</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>THRY US</t>
+          <t>CTRE US</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thryv Holdings</t>
+          <t>Caretrust Rei</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -767,7 +839,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -775,29 +847,26 @@
           <t>S Inc</t>
         </is>
       </c>
-      <c r="H7">
-        <v>1.045585689164864e-05</v>
-      </c>
       <c r="I7">
-        <v>1.093336804962131</v>
+        <v>41.26581835090484</v>
       </c>
       <c r="J7">
-        <v>0.07640369007422296</v>
+        <v>1.247643789898861</v>
       </c>
       <c r="K7">
-        <v>0.4376076472350968</v>
+        <v>0.9703854902274478</v>
       </c>
       <c r="L7">
-        <v>1.093336804962131</v>
+        <v>54.71769507918042</v>
       </c>
       <c r="M7">
-        <v>0.07640369007422296</v>
+        <v>1.659393919322662</v>
       </c>
       <c r="N7">
-        <v>0.4376076472350968</v>
+        <v>1.214692470781049</v>
       </c>
       <c r="O7" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -806,21 +875,26 @@
       </c>
       <c r="Q7" s="2">
         <v>45597</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>VERA US</t>
+          <t>KDP US</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vera Therapeutics A</t>
+          <t>Keurig Dr Pepper</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -829,37 +903,37 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H8">
-        <v>3.907086481412202e-05</v>
+        <v>3.205217898801936e-05</v>
       </c>
       <c r="I8">
-        <v>4.085158857243236</v>
+        <v>82.57883740282604</v>
       </c>
       <c r="J8">
-        <v>0.1005206411723237</v>
+        <v>2.506186264122186</v>
       </c>
       <c r="K8">
-        <v>0.1431640737977804</v>
+        <v>0.1906021175433461</v>
       </c>
       <c r="L8">
-        <v>4.085158857243236</v>
+        <v>82.57883740282604</v>
       </c>
       <c r="M8">
-        <v>0.1005206411723237</v>
+        <v>2.506186264122186</v>
       </c>
       <c r="N8">
-        <v>0.1431640737977804</v>
+        <v>0.1906021175433461</v>
       </c>
       <c r="O8" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -868,21 +942,26 @@
       </c>
       <c r="Q8" s="2">
         <v>45597</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>FA US</t>
+          <t>CWH US</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>First Advantage</t>
+          <t>Camping World Holdings A</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -896,55 +975,60 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H9">
-        <v>6.177500280620411e-05</v>
+        <v>3.465777273741918e-05</v>
       </c>
       <c r="I9">
-        <v>6.459200877762941</v>
+        <v>3.624657591574143</v>
       </c>
       <c r="J9">
-        <v>0.3454118116450771</v>
+        <v>0.1806908071572354</v>
       </c>
       <c r="K9">
-        <v>0.6242935916666289</v>
+        <v>0.1522087937121475</v>
       </c>
       <c r="L9">
-        <v>6.459200877762941</v>
+        <v>28.6741902332341</v>
       </c>
       <c r="M9">
-        <v>0.3454118116450771</v>
+        <v>1.420459806991928</v>
       </c>
       <c r="N9">
-        <v>0.6242935916666289</v>
+        <v>1.196554916879033</v>
       </c>
       <c r="O9" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q9" s="2">
         <v>45597</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>STER US</t>
+          <t>HRMY US</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sterling Check Corp</t>
+          <t>Harmony Biosciences</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -958,40 +1042,45 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H10">
-        <v>-6.102814500378859e-05</v>
+        <v>3.401412361810264e-05</v>
       </c>
       <c r="I10">
-        <v>-6.381796790537998</v>
+        <v>3.55730499352983</v>
       </c>
       <c r="J10">
-        <v>-0.3812303936999999</v>
+        <v>0.1107159973087404</v>
       </c>
       <c r="K10">
-        <v>-0.5247092981807049</v>
+        <v>0.1544787307139734</v>
       </c>
       <c r="L10">
-        <v>-6.381796790537998</v>
+        <v>3.55730499352983</v>
       </c>
       <c r="M10">
-        <v>-0.3812303936999999</v>
+        <v>0.1107159973087404</v>
       </c>
       <c r="N10">
-        <v>-0.5247092981807049</v>
+        <v>0.1544787307139734</v>
       </c>
       <c r="O10" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q10" s="2">
         <v>45597</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1002,11 +1091,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Caretrust Rei (RE)</t>
+          <t>Caretrust Reit Inc</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1015,7 +1104,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1024,22 +1113,22 @@
         </is>
       </c>
       <c r="I11">
-        <v>48.4608719285406</v>
+        <v>13.45187672827558</v>
       </c>
       <c r="J11">
-        <v>1.483344717739228</v>
+        <v>0.4117501294238009</v>
       </c>
       <c r="K11">
-        <v>1.153707654984089</v>
+        <v>0.2443069805536012</v>
       </c>
       <c r="L11">
-        <v>48.4608719285406</v>
+        <v>54.71769507918042</v>
       </c>
       <c r="M11">
-        <v>1.483344717739228</v>
+        <v>1.659393919322662</v>
       </c>
       <c r="N11">
-        <v>1.153707654984089</v>
+        <v>1.214692470781049</v>
       </c>
       <c r="O11" s="2">
         <v>45596</v>
@@ -1052,20 +1141,30 @@
       <c r="Q11" s="2">
         <v>45597</v>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HRMY US</t>
+          <t>AURE3 BZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Harmony Bioscie (HC)</t>
+          <t>Auren Energia Sa - On</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1074,53 +1173,68 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Float Inc</t>
+          <t xml:space="preserve">S Inc &amp; F Inc </t>
         </is>
       </c>
       <c r="I12">
-        <v>31.21016954154731</v>
+        <v>0.2228520476940663</v>
       </c>
       <c r="J12">
-        <v>0.9713716010441117</v>
+        <v>0.1259255301249786</v>
       </c>
       <c r="K12">
-        <v>1.355325839340549</v>
+        <v>0.0219001874138546</v>
       </c>
       <c r="L12">
-        <v>31.21016954154731</v>
+        <v>0.2228520476940663</v>
       </c>
       <c r="M12">
-        <v>0.9713716010441117</v>
+        <v>0.1259255301249786</v>
       </c>
       <c r="N12">
-        <v>1.355325839340549</v>
+        <v>0.0219001874138546</v>
       </c>
       <c r="O12" s="2">
         <v>45596</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q12" s="2">
         <v>45597</v>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STLC CN</t>
+          <t>AESB3 BZ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Stelco Holdings Inc</t>
+          <t>Aes Brasil Energia Sa</t>
         </is>
       </c>
       <c r="D13" s="2">
@@ -1133,7 +1247,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>S&amp;P TSX Composite</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1141,161 +1255,195 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H13">
-        <v>-0.0005834744360663676</v>
-      </c>
       <c r="I13">
-        <v>-80.91925299700002</v>
+        <v>-0.5139890211665453</v>
       </c>
       <c r="J13">
-        <v>-1.647052</v>
+        <v>-0.3670744478350682</v>
       </c>
       <c r="K13">
-        <v>-2.688695754378176</v>
+        <v>-0.04525129689987539</v>
       </c>
       <c r="L13">
-        <v>-80.91925299700002</v>
+        <v>-0.5139890211665453</v>
       </c>
       <c r="M13">
-        <v>-1.647052</v>
+        <v>-0.3670744478350682</v>
       </c>
       <c r="N13">
-        <v>-2.688695754378176</v>
+        <v>-0.04525129689987539</v>
       </c>
       <c r="O13" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>Merger</t>
+        </is>
+      </c>
+      <c r="Q13" s="2">
+        <v>45597</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8114 JP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Descente Ltd</t>
+        </is>
+      </c>
+      <c r="D14" s="2">
+        <v>45601</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>-31.66127028191939</v>
+      </c>
+      <c r="J14">
+        <v>-1.114579148205599</v>
+      </c>
+      <c r="K14">
+        <v>-4.551439035488492</v>
+      </c>
+      <c r="L14">
+        <v>-31.66127028191939</v>
+      </c>
+      <c r="M14">
+        <v>-1.114579148205599</v>
+      </c>
+      <c r="N14">
+        <v>-4.551439035488492</v>
+      </c>
+      <c r="O14" s="2">
+        <v>45596</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Tender Offer</t>
+        </is>
+      </c>
+      <c r="Q14" s="2">
+        <v>45597</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8890 JP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Raysum Co</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>45601</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>-4.863217879867193e-05</v>
+      </c>
+      <c r="I15">
+        <v>-11.34701354573884</v>
+      </c>
+      <c r="J15">
+        <v>-0.29517621</v>
+      </c>
+      <c r="K15">
+        <v>-2.795229261363637</v>
+      </c>
+      <c r="L15">
+        <v>-11.34701354573884</v>
+      </c>
+      <c r="M15">
+        <v>-0.29517621</v>
+      </c>
+      <c r="N15">
+        <v>-2.795229261363637</v>
+      </c>
+      <c r="O15" s="2">
+        <v>45596</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q13" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CLF US</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Cleveland-Cliffs (MA)</t>
-        </is>
-      </c>
-      <c r="D14" s="2">
-        <v>45600</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>S&amp;P 400</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="I14">
-        <v>18.9982096789035</v>
-      </c>
-      <c r="J14">
-        <v>1.440349482858491</v>
-      </c>
-      <c r="K14">
-        <v>0.1549237651171048</v>
-      </c>
-      <c r="L14">
-        <v>18.9982096789035</v>
-      </c>
-      <c r="M14">
-        <v>1.440349482858491</v>
-      </c>
-      <c r="N14">
-        <v>0.1549237651171048</v>
-      </c>
-      <c r="O14" s="2">
-        <v>45595</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Acquiring STLC CN</t>
-        </is>
-      </c>
-      <c r="Q14" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MAGN_z US</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Magnera Corp placeholder</t>
-        </is>
-      </c>
-      <c r="D15" s="2">
-        <v>45600</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>S&amp;P 400</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>45595</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Spin-off from BERY</t>
-        </is>
-      </c>
       <c r="Q15" s="2">
         <v>45597</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>BERY_x US</t>
+          <t>MAGN US</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Berry Global HHNF Distribution </t>
+          <t xml:space="preserve">Magnera Corp </t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45600</v>
+        <v>45601</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1304,48 +1452,50 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L16">
-        <v>0</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J16">
+        <v>-2.665152587391532</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
+        <v>-2.665152587391532</v>
       </c>
       <c r="O16" s="2">
-        <v>45596</v>
+        <v>45595</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Spin-off from BERY</t>
+          <t>Merge into MAGN (GLT)</t>
         </is>
       </c>
       <c r="Q16" s="2">
         <v>45597</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>CWH US</t>
+          <t>GLT US</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Camping World-A</t>
+          <t>GLATFELTER</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45600</v>
+        <v>45601</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1354,57 +1504,75 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>0.0001073641624070682</v>
       </c>
       <c r="I17">
-        <v>25.04953264165996</v>
+        <v>1.111851836549999</v>
       </c>
       <c r="J17">
-        <v>1.239768999834693</v>
+        <v>0.5882813949999992</v>
       </c>
       <c r="K17">
-        <v>1.044346123166885</v>
+        <v>1.82090947562366</v>
       </c>
       <c r="L17">
-        <v>28.6741902332341</v>
+        <v>1.111851836549999</v>
       </c>
       <c r="M17">
-        <v>1.420459806991928</v>
+        <v>0.5882813949999992</v>
       </c>
       <c r="N17">
-        <v>1.196554916879033</v>
+        <v>1.82090947562366</v>
       </c>
       <c r="O17" s="2">
-        <v>45596</v>
+        <v>45595</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Spin off from BERY</t>
         </is>
       </c>
       <c r="Q17" s="2">
         <v>45597</v>
       </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CTRE US</t>
+          <t>5809 JP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Caretrust Rei</t>
+          <t>Tatsuta Elec Wire &amp; Cable</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45600</v>
+        <v>45602</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1413,57 +1581,67 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I18">
-        <v>41.26581835090484</v>
+        <v>-1.134794589058234</v>
       </c>
       <c r="J18">
-        <v>1.247643789898861</v>
+        <v>-0.2206788394000015</v>
       </c>
       <c r="K18">
-        <v>0.9703854902274478</v>
+        <v>-1.402337491818394</v>
       </c>
       <c r="L18">
-        <v>54.71769507918042</v>
+        <v>-1.134794589058234</v>
       </c>
       <c r="M18">
-        <v>1.659393919322662</v>
+        <v>-0.2206788394000015</v>
       </c>
       <c r="N18">
-        <v>1.214692470781049</v>
+        <v>-1.402337491818394</v>
       </c>
       <c r="O18" s="2">
-        <v>45596</v>
+        <v>45587</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q18" s="2">
         <v>45597</v>
       </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KDP US</t>
+          <t>8890 JP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Keurig Dr Pepper</t>
+          <t>Raysum Co Ltd</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45600</v>
+        <v>45602</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1472,60 +1650,67 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H19">
-        <v>3.205217898801936e-05</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I19">
-        <v>82.57883740282604</v>
+        <v>-11.37270516874678</v>
       </c>
       <c r="J19">
-        <v>2.506186264122186</v>
+        <v>-0.2942061174818217</v>
       </c>
       <c r="K19">
-        <v>0.1906021175433461</v>
+        <v>-2.786042779183918</v>
       </c>
       <c r="L19">
-        <v>82.57883740282604</v>
+        <v>-11.37270516874678</v>
       </c>
       <c r="M19">
-        <v>2.506186264122186</v>
+        <v>-0.2942061174818217</v>
       </c>
       <c r="N19">
-        <v>0.1906021175433461</v>
+        <v>-2.786042779183918</v>
       </c>
       <c r="O19" s="2">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q19" s="2">
         <v>45597</v>
       </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CWH US</t>
+          <t>8155 JP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Camping World Holdings A</t>
+          <t>Mimasu Semiconductor Indust</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1534,64 +1719,66 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H20">
-        <v>3.465777273741918e-05</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I20">
-        <v>3.624657591574143</v>
+        <v>-2.650010224424026</v>
       </c>
       <c r="J20">
-        <v>0.1806908071572354</v>
+        <v>-0.1079708335000027</v>
       </c>
       <c r="K20">
-        <v>0.1522087937121475</v>
+        <v>-6.070893084059754</v>
       </c>
       <c r="L20">
-        <v>28.6741902332341</v>
+        <v>-2.650010224424026</v>
       </c>
       <c r="M20">
-        <v>1.420459806991928</v>
+        <v>-0.1079708335000027</v>
       </c>
       <c r="N20">
-        <v>1.196554916879033</v>
+        <v>-6.070893084059754</v>
       </c>
       <c r="O20" s="2">
-        <v>45596</v>
+        <v>45583</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q20" s="2">
         <v>45597</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>HRMY US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Harmony Biosciences</t>
+          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45600</v>
+        <v>45609</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1601,291 +1788,294 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H21">
-        <v>3.401412361810264e-05</v>
-      </c>
-      <c r="I21">
-        <v>3.55730499352983</v>
-      </c>
-      <c r="J21">
-        <v>0.1107159973087404</v>
-      </c>
-      <c r="K21">
-        <v>0.1544787307139734</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L21">
-        <v>3.55730499352983</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.1107159973087404</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.1544787307139734</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>45596</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Spin off from  LBTYA US</t>
         </is>
       </c>
       <c r="Q21" s="2">
         <v>45597</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>CTRE US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Caretrust Reit Inc</t>
+          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
         </is>
       </c>
       <c r="D22" s="2">
-        <v>45600</v>
+        <v>45609</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I22">
-        <v>13.45187672827558</v>
-      </c>
-      <c r="J22">
-        <v>0.4117501294238009</v>
-      </c>
-      <c r="K22">
-        <v>0.2443069805536012</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L22">
-        <v>54.71769507918042</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.659393919322662</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.214692470781049</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>45596</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Spin off from  LBTYK US</t>
         </is>
       </c>
       <c r="Q22" s="2">
         <v>45597</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AURE3 BZ</t>
+          <t>BCPT LN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Auren Energia Sa - On</t>
+          <t>Balanced Comm Ppty Trust</t>
         </is>
       </c>
       <c r="D23" s="2">
-        <v>45600</v>
+        <v>45610</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">S Inc &amp; F Inc </t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>-0.0001081784937401948</v>
       </c>
       <c r="I23">
-        <v>0.2228520476940663</v>
+        <v>-17.40727434825358</v>
       </c>
       <c r="J23">
-        <v>0.1259255301249786</v>
+        <v>-14.03100374</v>
       </c>
       <c r="K23">
-        <v>0.0219001874138546</v>
+        <v>-3.819823859640908</v>
       </c>
       <c r="L23">
-        <v>0.2228520476940663</v>
+        <v>-17.40727434825358</v>
       </c>
       <c r="M23">
-        <v>0.1259255301249786</v>
+        <v>-14.03100374</v>
       </c>
       <c r="N23">
-        <v>0.0219001874138546</v>
+        <v>-3.819823859640908</v>
       </c>
       <c r="O23" s="2">
-        <v>45596</v>
+        <v>45595</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q23" s="2">
         <v>45597</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AESB3 BZ</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aes Brasil Energia Sa</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D24" s="2">
-        <v>45600</v>
+        <v>45621</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I24">
-        <v>-0.5139890211665453</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J24">
-        <v>-0.3670744478350682</v>
-      </c>
-      <c r="K24">
-        <v>-0.04525129689987539</v>
-      </c>
-      <c r="L24">
-        <v>-0.5139890211665453</v>
+        <v>1.1619372024</v>
       </c>
       <c r="M24">
-        <v>-0.3670744478350682</v>
-      </c>
-      <c r="N24">
-        <v>-0.04525129689987539</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O24" s="2">
         <v>45596</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q24" s="2">
         <v>45597</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8114 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Descente Ltd</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D25" s="2">
-        <v>45601</v>
+        <v>45621</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
-      </c>
-      <c r="I25">
-        <v>-31.66127028191939</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J25">
-        <v>-1.114579148205599</v>
-      </c>
-      <c r="K25">
-        <v>-4.551439035488492</v>
-      </c>
-      <c r="L25">
-        <v>-31.66127028191939</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M25">
-        <v>-1.114579148205599</v>
-      </c>
-      <c r="N25">
-        <v>-4.551439035488492</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O25" s="2">
         <v>45596</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q25" s="2">
         <v>45597</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1896,16 +2086,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8890 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Raysum Co</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D26" s="2">
-        <v>45601</v>
+        <v>45631</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1914,773 +2104,159 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>45590</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Demerger</t>
+        </is>
+      </c>
+      <c r="Q26" s="2">
+        <v>45594</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D27" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="M27">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O27" s="2">
+        <v>45580</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q27" s="2">
+        <v>45595</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D28" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>KOSDAQ150</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H26">
-        <v>-4.863217879867193e-05</v>
-      </c>
-      <c r="I26">
-        <v>-11.34701354573884</v>
-      </c>
-      <c r="J26">
-        <v>-0.29517621</v>
-      </c>
-      <c r="K26">
-        <v>-2.795229261363637</v>
-      </c>
-      <c r="L26">
-        <v>-11.34701354573884</v>
-      </c>
-      <c r="M26">
-        <v>-0.29517621</v>
-      </c>
-      <c r="N26">
-        <v>-2.795229261363637</v>
-      </c>
-      <c r="O26" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q26" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MAGN US</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magnera Corp </t>
-        </is>
-      </c>
-      <c r="D27" s="2">
-        <v>45601</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>S&amp;P 400</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J27">
-        <v>-2.665152587391532</v>
-      </c>
-      <c r="M27">
-        <v>-2.665152587391532</v>
-      </c>
-      <c r="O27" s="2">
+      <c r="J28">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="M28">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O28" s="2">
+        <v>45588</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Spin-Off by Jusung Engineering</t>
+        </is>
+      </c>
+      <c r="Q28" s="2">
         <v>45595</v>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Merge into MAGN (GLT)</t>
-        </is>
-      </c>
-      <c r="Q27" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>GLT US</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>GLATFELTER</t>
-        </is>
-      </c>
-      <c r="D28" s="2">
-        <v>45601</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="H28">
-        <v>0.0001073641624070682</v>
-      </c>
-      <c r="I28">
-        <v>1.111851836549999</v>
-      </c>
-      <c r="J28">
-        <v>0.5882813949999992</v>
-      </c>
-      <c r="K28">
-        <v>1.82090947562366</v>
-      </c>
-      <c r="L28">
-        <v>1.111851836549999</v>
-      </c>
-      <c r="M28">
-        <v>0.5882813949999992</v>
-      </c>
-      <c r="N28">
-        <v>1.82090947562366</v>
-      </c>
-      <c r="O28" s="2">
-        <v>45595</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Spin off from BERY</t>
-        </is>
-      </c>
-      <c r="Q28" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>5809 JP</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Tatsuta Elec Wire &amp; Cable</t>
-        </is>
-      </c>
-      <c r="D29" s="2">
-        <v>45602</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>FTSE DM</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I29">
-        <v>-1.134794589058234</v>
-      </c>
-      <c r="J29">
-        <v>-0.2206788394000015</v>
-      </c>
-      <c r="K29">
-        <v>-1.402337491818394</v>
-      </c>
-      <c r="L29">
-        <v>-1.134794589058234</v>
-      </c>
-      <c r="M29">
-        <v>-0.2206788394000015</v>
-      </c>
-      <c r="N29">
-        <v>-1.402337491818394</v>
-      </c>
-      <c r="O29" s="2">
-        <v>45587</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q29" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>8890 JP</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Raysum Co Ltd</t>
-        </is>
-      </c>
-      <c r="D30" s="2">
-        <v>45602</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I30">
-        <v>-11.37270516874678</v>
-      </c>
-      <c r="J30">
-        <v>-0.2942061174818217</v>
-      </c>
-      <c r="K30">
-        <v>-2.786042779183918</v>
-      </c>
-      <c r="L30">
-        <v>-11.37270516874678</v>
-      </c>
-      <c r="M30">
-        <v>-0.2942061174818217</v>
-      </c>
-      <c r="N30">
-        <v>-2.786042779183918</v>
-      </c>
-      <c r="O30" s="2">
-        <v>45597</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Tender Offer</t>
-        </is>
-      </c>
-      <c r="Q30" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>8155 JP</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Mimasu Semiconductor Indust</t>
-        </is>
-      </c>
-      <c r="D31" s="2">
-        <v>45607</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I31">
-        <v>-2.650010224424026</v>
-      </c>
-      <c r="J31">
-        <v>-0.1079708335000027</v>
-      </c>
-      <c r="K31">
-        <v>-6.070893084059754</v>
-      </c>
-      <c r="L31">
-        <v>-2.650010224424026</v>
-      </c>
-      <c r="M31">
-        <v>-0.1079708335000027</v>
-      </c>
-      <c r="N31">
-        <v>-6.070893084059754</v>
-      </c>
-      <c r="O31" s="2">
-        <v>45583</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q31" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
-        </is>
-      </c>
-      <c r="D32" s="2">
-        <v>45609</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Spin off from  LBTYA US</t>
-        </is>
-      </c>
-      <c r="Q32" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
-        </is>
-      </c>
-      <c r="D33" s="2">
-        <v>45609</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Spin off from  LBTYK US</t>
-        </is>
-      </c>
-      <c r="Q33" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>BCPT LN</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Balanced Comm Ppty Trust</t>
-        </is>
-      </c>
-      <c r="D34" s="2">
-        <v>45610</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H34">
-        <v>-0.0001081784937401948</v>
-      </c>
-      <c r="I34">
-        <v>-17.40727434825358</v>
-      </c>
-      <c r="J34">
-        <v>-14.03100374</v>
-      </c>
-      <c r="K34">
-        <v>-3.819823859640908</v>
-      </c>
-      <c r="L34">
-        <v>-17.40727434825358</v>
-      </c>
-      <c r="M34">
-        <v>-14.03100374</v>
-      </c>
-      <c r="N34">
-        <v>-3.819823859640908</v>
-      </c>
-      <c r="O34" s="2">
-        <v>45595</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q34" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUNRISE A</t>
-        </is>
-      </c>
-      <c r="D35" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="J35">
-        <v>1.1619372024</v>
-      </c>
-      <c r="M35">
-        <v>0.2977813214999999</v>
-      </c>
-      <c r="O35" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Spin-off from Liberty Global</t>
-        </is>
-      </c>
-      <c r="Q35" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUNRISE A</t>
-        </is>
-      </c>
-      <c r="D36" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J36">
-        <v>-0.8641558809</v>
-      </c>
-      <c r="M36">
-        <v>0.2977813214999999</v>
-      </c>
-      <c r="O36" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Spin-off from Liberty Global</t>
-        </is>
-      </c>
-      <c r="Q36" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D37" s="2">
-        <v>45631</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>45590</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Demerger</t>
-        </is>
-      </c>
-      <c r="Q37" s="2">
-        <v>45594</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D38" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="M38">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O38" s="2">
-        <v>45580</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
-      <c r="Q38" s="2">
-        <v>45595</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D39" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>KOSDAQ150</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J39">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="M39">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O39" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Spin-Off by Jusung Engineering</t>
-        </is>
-      </c>
-      <c r="Q39" s="2">
-        <v>45595</v>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +506,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8114 JP</t>
+          <t>5809 JP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Descente Ltd</t>
+          <t>Tatsuta Elec Wire &amp; Cable</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -529,39 +529,39 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I2">
-        <v>-31.66127028191939</v>
+        <v>-1.134794589058234</v>
       </c>
       <c r="J2">
-        <v>-1.114579148205599</v>
+        <v>-0.2206788394000015</v>
       </c>
       <c r="K2">
-        <v>-4.551439035488492</v>
+        <v>-1.402337491818394</v>
       </c>
       <c r="L2">
-        <v>-31.66127028191939</v>
+        <v>-1.134794589058234</v>
       </c>
       <c r="M2">
-        <v>-1.114579148205599</v>
+        <v>-0.2206788394000015</v>
       </c>
       <c r="N2">
-        <v>-4.551439035488492</v>
+        <v>-1.402337491818394</v>
       </c>
       <c r="O2" s="2">
-        <v>45596</v>
+        <v>45587</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45601</v>
-      </c>
-      <c r="U2" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -580,11 +580,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Raysum Co</t>
+          <t>Raysum Co Ltd</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -593,99 +593,116 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>-11.37270516874678</v>
+      </c>
+      <c r="J3">
+        <v>-0.2942061174818217</v>
+      </c>
+      <c r="K3">
+        <v>-2.786042779183918</v>
+      </c>
+      <c r="L3">
+        <v>-11.37270516874678</v>
+      </c>
+      <c r="M3">
+        <v>-0.2942061174818217</v>
+      </c>
+      <c r="N3">
+        <v>-2.786042779183918</v>
+      </c>
+      <c r="O3" s="2">
+        <v>45597</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Tender Offer</t>
+        </is>
+      </c>
+      <c r="Q3" s="2">
+        <v>45602</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9058 JP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Trancom Co Ltd</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <v>45602</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>-4.863217879867193e-05</v>
-      </c>
-      <c r="I3">
-        <v>-11.34701354573884</v>
-      </c>
-      <c r="J3">
-        <v>-0.29517621</v>
-      </c>
-      <c r="K3">
-        <v>-2.795229261363637</v>
-      </c>
-      <c r="L3">
-        <v>-11.34701354573884</v>
-      </c>
-      <c r="M3">
-        <v>-0.29517621</v>
-      </c>
-      <c r="N3">
-        <v>-2.795229261363637</v>
-      </c>
-      <c r="O3" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>-3.466364387055755e-05</v>
+      </c>
+      <c r="I4">
+        <v>-7.998127383562283</v>
+      </c>
+      <c r="J4">
+        <v>-0.1197449580194584</v>
+      </c>
+      <c r="K4">
+        <v>-1.80624418160432</v>
+      </c>
+      <c r="L4">
+        <v>-7.998127383562283</v>
+      </c>
+      <c r="M4">
+        <v>-0.1197449580194584</v>
+      </c>
+      <c r="N4">
+        <v>-1.80624418160432</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45597</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q3" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MAGN US</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magnera Corp </t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <v>45601</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>S&amp;P 400</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J4">
-        <v>-3.324886127180957</v>
-      </c>
-      <c r="M4">
-        <v>-3.324886127180957</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45595</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Merge into MAGN (GLT)</t>
-        </is>
-      </c>
       <c r="Q4" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W4" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -694,16 +711,16 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>GLT US</t>
+          <t>CLF US</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GLATFELTER</t>
+          <t>Cleveland Cliffs</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -717,47 +734,42 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H5">
-        <v>0.0001073641624070682</v>
+        <v>2.878860362309245e-05</v>
       </c>
       <c r="I5">
-        <v>1.111851836549999</v>
+        <v>2.977708195039949</v>
       </c>
       <c r="J5">
-        <v>0.5882813949999992</v>
+        <v>0.2243939860617897</v>
       </c>
       <c r="K5">
-        <v>1.82090947562366</v>
+        <v>0.02355697940008609</v>
       </c>
       <c r="L5">
-        <v>1.111851836549999</v>
+        <v>3.060624994965491</v>
       </c>
       <c r="M5">
-        <v>0.5882813949999992</v>
+        <v>0.2307186847593901</v>
       </c>
       <c r="N5">
-        <v>1.82090947562366</v>
+        <v>0.0242209490525085</v>
       </c>
       <c r="O5" s="2">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Spin off from BERY</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45601</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -766,16 +778,16 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>SRCL US</t>
+          <t>CLF US</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stericycle</t>
+          <t>Cleveland-Cliffs Inc</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -784,37 +796,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>-0.0007230705447277554</v>
+          <t>S Inc &amp; F Dec</t>
+        </is>
       </c>
       <c r="I6">
-        <v>-74.802041223</v>
+        <v>0.08291679992554225</v>
       </c>
       <c r="J6">
-        <v>-1.20687385</v>
+        <v>0.006324698697600478</v>
       </c>
       <c r="K6">
-        <v>-1.484075044927706</v>
+        <v>0.0006639696524224107</v>
       </c>
       <c r="L6">
-        <v>-626.1515219567573</v>
+        <v>3.060624994965491</v>
       </c>
       <c r="M6">
-        <v>-10.10247695961209</v>
+        <v>0.2307186847593901</v>
       </c>
       <c r="N6">
-        <v>-12.42286751653242</v>
+        <v>0.0242209490525085</v>
       </c>
       <c r="O6" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -822,9 +831,14 @@
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W6" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -833,16 +847,16 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHWY US</t>
+          <t>STLC CN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chewy Inc- Cl A (CD)</t>
+          <t>Stelco Holdings</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -851,44 +865,47 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>-0.0002209500529776743</v>
       </c>
       <c r="I7">
-        <v>374.6533903948815</v>
+        <v>-24.6237940497636</v>
       </c>
       <c r="J7">
-        <v>13.81465303815935</v>
+        <v>-0.5016711154000001</v>
       </c>
       <c r="K7">
-        <v>3.189673519113146</v>
+        <v>-0.681841814736025</v>
       </c>
       <c r="L7">
-        <v>374.6533903948815</v>
+        <v>-88.25691251850581</v>
       </c>
       <c r="M7">
-        <v>13.81465303815935</v>
+        <v>-1.7972591746</v>
       </c>
       <c r="N7">
-        <v>3.189673519113146</v>
+        <v>-2.442728751052655</v>
       </c>
       <c r="O7" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Replacing SRCL</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45601</v>
-      </c>
-      <c r="V7" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -897,16 +914,16 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>SRCL US</t>
+          <t>STLC CN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Stericycle Inc (ID)</t>
+          <t>Stelco Holdings Inc</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -915,7 +932,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -924,33 +941,33 @@
         </is>
       </c>
       <c r="I8">
-        <v>-551.3494807337572</v>
+        <v>-63.63311846874221</v>
       </c>
       <c r="J8">
-        <v>-8.895603109612088</v>
+        <v>-1.2955880592</v>
       </c>
       <c r="K8">
-        <v>-10.93879247160472</v>
+        <v>-1.76088693631663</v>
       </c>
       <c r="L8">
-        <v>-626.1515219567573</v>
+        <v>-88.25691251850581</v>
       </c>
       <c r="M8">
-        <v>-10.10247695961209</v>
+        <v>-1.7972591746</v>
       </c>
       <c r="N8">
-        <v>-12.42286751653242</v>
+        <v>-2.442728751052655</v>
       </c>
       <c r="O8" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -961,17 +978,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5809 JP</t>
+          <t>FIBRAPL MM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tatsuta Elec Wire &amp; Cable</t>
+          <t>Prologis Property Mexico</t>
         </is>
       </c>
       <c r="D9" s="2">
@@ -984,34 +1001,37 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>2.850876339622363e-05</v>
       </c>
       <c r="I9">
-        <v>-1.134794589058234</v>
+        <v>20.5296672</v>
       </c>
       <c r="J9">
-        <v>-0.2206788394000015</v>
+        <v>6.08</v>
       </c>
       <c r="K9">
-        <v>-1.402337491818394</v>
+        <v>2.532225484683784</v>
       </c>
       <c r="L9">
-        <v>-1.134794589058234</v>
+        <v>20.5296672</v>
       </c>
       <c r="M9">
-        <v>-0.2206788394000015</v>
+        <v>6.08</v>
       </c>
       <c r="N9">
-        <v>-1.402337491818394</v>
+        <v>2.532225484683784</v>
       </c>
       <c r="O9" s="2">
-        <v>45587</v>
+        <v>45600</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1019,9 +1039,9 @@
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W9" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1030,17 +1050,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8890 JP</t>
+          <t>TERRA13 MM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Raysum Co Ltd</t>
+          <t>Tf Administradora Indl</t>
         </is>
       </c>
       <c r="D10" s="2">
@@ -1053,7 +1073,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1061,34 +1081,37 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="H10">
+        <v>-0.0002712384072017944</v>
+      </c>
       <c r="I10">
-        <v>-11.37270516874678</v>
+        <v>-19.6200272</v>
       </c>
       <c r="J10">
-        <v>-0.2942061174818217</v>
+        <v>-10.48</v>
       </c>
       <c r="K10">
-        <v>-2.786042779183918</v>
+        <v>-17.59310242945972</v>
       </c>
       <c r="L10">
-        <v>-11.37270516874678</v>
+        <v>-19.6200272</v>
       </c>
       <c r="M10">
-        <v>-0.2942061174818217</v>
+        <v>-10.48</v>
       </c>
       <c r="N10">
-        <v>-2.786042779183918</v>
+        <v>-17.59310242945972</v>
       </c>
       <c r="O10" s="2">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1113,7 +1136,7 @@
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1122,7 +1145,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1130,106 +1153,113 @@
           <t>F Dec</t>
         </is>
       </c>
-      <c r="H11">
-        <v>-3.466364387055755e-05</v>
-      </c>
       <c r="I11">
-        <v>-7.998127383562283</v>
+        <v>-8.349904664729781</v>
       </c>
       <c r="J11">
-        <v>-0.1197449580194584</v>
+        <v>-0.1243344074568407</v>
       </c>
       <c r="K11">
-        <v>-1.80624418160432</v>
+        <v>-1.875471867514001</v>
       </c>
       <c r="L11">
-        <v>-7.998127383562283</v>
+        <v>-8.349904664729781</v>
       </c>
       <c r="M11">
-        <v>-0.1197449580194584</v>
+        <v>-0.1243344074568407</v>
       </c>
       <c r="N11">
-        <v>-1.80624418160432</v>
+        <v>-1.875471867514001</v>
       </c>
       <c r="O11" s="2">
-        <v>45597</v>
+        <v>45601</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q11" s="2">
+        <v>45602</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3939 HK</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Wanguo Gold Grou</t>
+        </is>
+      </c>
+      <c r="D12" s="2">
+        <v>45603</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>-2.969125209399933e-05</v>
+      </c>
+      <c r="I12">
+        <v>-0.8002754612279442</v>
+      </c>
+      <c r="J12">
+        <v>-0.6321525513244477</v>
+      </c>
+      <c r="K12">
+        <v>-0.4758798086133391</v>
+      </c>
+      <c r="L12">
+        <v>-0.8002754612279442</v>
+      </c>
+      <c r="M12">
+        <v>-0.6321525513244477</v>
+      </c>
+      <c r="N12">
+        <v>-0.4758798086133391</v>
+      </c>
+      <c r="O12" s="2">
         <v>45601</v>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CLF US</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Cleveland Cliffs</t>
-        </is>
-      </c>
-      <c r="D12" s="2">
-        <v>45602</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>2.878860362309245e-05</v>
-      </c>
-      <c r="I12">
-        <v>2.977708195039949</v>
-      </c>
-      <c r="J12">
-        <v>0.2243939860617897</v>
-      </c>
-      <c r="K12">
-        <v>0.02355697940008609</v>
-      </c>
-      <c r="L12">
-        <v>3.060624994965491</v>
-      </c>
-      <c r="M12">
-        <v>0.2307186847593901</v>
-      </c>
-      <c r="N12">
-        <v>0.0242209490525085</v>
-      </c>
-      <c r="O12" s="2">
-        <v>45600</v>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="R12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1238,16 +1268,16 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLF US</t>
+          <t>INTC US</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cleveland-Cliffs Inc</t>
+          <t>Intel Corp (ID)</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1256,49 +1286,44 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>DJIA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I13">
-        <v>0.08291679992554225</v>
+        <v>-129.2816329371989</v>
       </c>
       <c r="J13">
-        <v>0.006324698697600478</v>
+        <v>-5.57248417832754</v>
       </c>
       <c r="K13">
-        <v>0.0006639696524224107</v>
+        <v>-0.1032411911962172</v>
       </c>
       <c r="L13">
-        <v>3.060624994965491</v>
+        <v>-129.2816329371989</v>
       </c>
       <c r="M13">
-        <v>0.2307186847593901</v>
+        <v>-5.57248417832754</v>
       </c>
       <c r="N13">
-        <v>0.0242209490525085</v>
+        <v>-0.1032411911962172</v>
       </c>
       <c r="O13" s="2">
-        <v>45600</v>
+        <v>45597</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Deletion</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45601</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1307,16 +1332,16 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>STLC CN</t>
+          <t>NVDA US</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Stelco Holdings</t>
+          <t>Nvidia Corp (ID)</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1325,47 +1350,44 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>DJIA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H14">
-        <v>-0.0002209500529776743</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="I14">
-        <v>-24.6237940497636</v>
+        <v>707.9311367925152</v>
       </c>
       <c r="J14">
-        <v>-0.5016711154000001</v>
+        <v>5.228442664641914</v>
       </c>
       <c r="K14">
-        <v>-0.681841814736025</v>
+        <v>0.02166042096472481</v>
       </c>
       <c r="L14">
-        <v>-88.25691251850581</v>
+        <v>707.9311367925152</v>
       </c>
       <c r="M14">
-        <v>-1.7972591746</v>
+        <v>5.228442664641914</v>
       </c>
       <c r="N14">
-        <v>-2.442728751052655</v>
+        <v>0.02166042096472481</v>
       </c>
       <c r="O14" s="2">
-        <v>45600</v>
+        <v>45597</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Replacing INTC</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W14" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1374,16 +1396,16 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>STLC CN</t>
+          <t>DOW US</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Stelco Holdings Inc</t>
+          <t>Dow Inc (ID)</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1392,7 +1414,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>DJIA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1401,248 +1423,232 @@
         </is>
       </c>
       <c r="I15">
-        <v>-63.63311846874221</v>
+        <v>-272.8845502127002</v>
       </c>
       <c r="J15">
-        <v>-1.2955880592</v>
+        <v>-5.572484178327551</v>
       </c>
       <c r="K15">
-        <v>-1.76088693631663</v>
+        <v>-1.333130903797149</v>
       </c>
       <c r="L15">
-        <v>-88.25691251850581</v>
+        <v>-272.8845502127002</v>
       </c>
       <c r="M15">
-        <v>-1.7972591746</v>
+        <v>-5.572484178327551</v>
       </c>
       <c r="N15">
-        <v>-2.442728751052655</v>
+        <v>-1.333130903797149</v>
       </c>
       <c r="O15" s="2">
-        <v>45600</v>
+        <v>45597</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Deletion</t>
         </is>
       </c>
       <c r="Q15" s="2">
+        <v>45602</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SHW US</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sherwin-Williams (ID)</t>
+        </is>
+      </c>
+      <c r="D16" s="2">
+        <v>45603</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DJIA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>1871.625620661866</v>
+      </c>
+      <c r="J16">
+        <v>5.228442664641914</v>
+      </c>
+      <c r="K16">
+        <v>4.142928163279922</v>
+      </c>
+      <c r="L16">
+        <v>1871.625620661866</v>
+      </c>
+      <c r="M16">
+        <v>5.228442664641914</v>
+      </c>
+      <c r="N16">
+        <v>4.142928163279922</v>
+      </c>
+      <c r="O16" s="2">
+        <v>45597</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Replacing DOW</t>
+        </is>
+      </c>
+      <c r="Q16" s="2">
+        <v>45602</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MAGN US</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Magnera Corp</t>
+        </is>
+      </c>
+      <c r="D17" s="2">
+        <v>45603</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Russell 1000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>-27.1571398001</v>
+      </c>
+      <c r="J17">
+        <v>-1.2631227814</v>
+      </c>
+      <c r="K17">
+        <v>-11.21609565409523</v>
+      </c>
+      <c r="L17">
+        <v>-27.1571398001</v>
+      </c>
+      <c r="M17">
+        <v>-1.2631227814</v>
+      </c>
+      <c r="N17">
+        <v>-11.21609565409523</v>
+      </c>
+      <c r="O17" s="2">
         <v>45601</v>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>FIBRAPL MM</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Prologis Property Mexico</t>
-        </is>
-      </c>
-      <c r="D16" s="2">
-        <v>45602</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Spin-off from BERY</t>
+        </is>
+      </c>
+      <c r="Q17" s="2">
+        <v>45602</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PRMW CN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Primo Water Corp</t>
+        </is>
+      </c>
+      <c r="D18" s="2">
+        <v>45604</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>MSCI EM</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H16">
-        <v>2.850876339622363e-05</v>
-      </c>
-      <c r="I16">
-        <v>14.31328856451667</v>
-      </c>
-      <c r="J16">
-        <v>4.031074211210895</v>
-      </c>
-      <c r="K16">
-        <v>1.036715098562578</v>
-      </c>
-      <c r="L16">
-        <v>14.31328856451667</v>
-      </c>
-      <c r="M16">
-        <v>4.031074211210895</v>
-      </c>
-      <c r="N16">
-        <v>1.036715098562578</v>
-      </c>
-      <c r="O16" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q16" s="2">
-        <v>45601</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LATAM</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TERRA13 MM</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Tf Administradora Indl</t>
-        </is>
-      </c>
-      <c r="D17" s="2">
-        <v>45602</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H17">
-        <v>-0.0002712384072017944</v>
-      </c>
-      <c r="I17">
-        <v>-5.30465098835751</v>
-      </c>
-      <c r="J17">
-        <v>-2.850200783125</v>
-      </c>
-      <c r="K17">
-        <v>-4.74654847504141</v>
-      </c>
-      <c r="L17">
-        <v>-5.30465098835751</v>
-      </c>
-      <c r="M17">
-        <v>-2.850200783125</v>
-      </c>
-      <c r="N17">
-        <v>-4.74654847504141</v>
-      </c>
-      <c r="O17" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q17" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>9058 JP</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Trancom Co Ltd</t>
-        </is>
-      </c>
-      <c r="D18" s="2">
-        <v>45603</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>F Dec</t>
-        </is>
-      </c>
       <c r="I18">
-        <v>-8.349904664729781</v>
+        <v>-109.41196634644</v>
       </c>
       <c r="J18">
-        <v>-0.1243344074568407</v>
+        <v>-4.362911743500014</v>
       </c>
       <c r="K18">
-        <v>-1.875471867514001</v>
+        <v>-22.59703763832103</v>
       </c>
       <c r="L18">
-        <v>-8.349904664729781</v>
+        <v>-109.41196634644</v>
       </c>
       <c r="M18">
-        <v>-0.1243344074568407</v>
+        <v>-4.362911743500014</v>
       </c>
       <c r="N18">
-        <v>-1.875471867514001</v>
+        <v>-22.59703763832103</v>
       </c>
       <c r="O18" s="2">
         <v>45601</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45601</v>
-      </c>
-      <c r="U18" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1651,16 +1657,16 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTC US</t>
+          <t>PRMW US</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Intel Corp (ID)</t>
+          <t>Primo Water Corp</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1669,108 +1675,113 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DJIA</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I19">
+        <v>1.177986170745</v>
+      </c>
+      <c r="J19">
+        <v>0.04691302949999999</v>
+      </c>
+      <c r="K19">
+        <v>0.03124597137158691</v>
+      </c>
+      <c r="L19">
+        <v>1.177986170745</v>
+      </c>
+      <c r="M19">
+        <v>0.04691302949999999</v>
+      </c>
+      <c r="N19">
+        <v>0.03124597137158691</v>
+      </c>
+      <c r="O19" s="2">
+        <v>45601</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q19" s="2">
+        <v>45602</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8155 JP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mimasu Semiconductor Indust</t>
+        </is>
+      </c>
+      <c r="D20" s="2">
+        <v>45607</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="I19">
-        <v>-129.2816329371989</v>
-      </c>
-      <c r="J19">
-        <v>-5.57248417832754</v>
-      </c>
-      <c r="K19">
-        <v>-0.1032411911962172</v>
-      </c>
-      <c r="L19">
-        <v>-129.2816329371989</v>
-      </c>
-      <c r="M19">
-        <v>-5.57248417832754</v>
-      </c>
-      <c r="N19">
-        <v>-0.1032411911962172</v>
-      </c>
-      <c r="O19" s="2">
-        <v>45597</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Deletion</t>
-        </is>
-      </c>
-      <c r="Q19" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NVDA US</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Nvidia Corp (ID)</t>
-        </is>
-      </c>
-      <c r="D20" s="2">
-        <v>45603</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>DJIA</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
       <c r="I20">
-        <v>707.9311367925152</v>
+        <v>-2.650010224424026</v>
       </c>
       <c r="J20">
-        <v>5.228442664641914</v>
+        <v>-0.1079708335000027</v>
       </c>
       <c r="K20">
-        <v>0.02166042096472481</v>
+        <v>-6.070893084059754</v>
       </c>
       <c r="L20">
-        <v>707.9311367925152</v>
+        <v>-2.650010224424026</v>
       </c>
       <c r="M20">
-        <v>5.228442664641914</v>
+        <v>-0.1079708335000027</v>
       </c>
       <c r="N20">
-        <v>0.02166042096472481</v>
+        <v>-6.070893084059754</v>
       </c>
       <c r="O20" s="2">
-        <v>45597</v>
+        <v>45583</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Replacing INTC</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45601</v>
-      </c>
-      <c r="V20" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="W20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1779,62 +1790,58 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>DOW US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dow Inc (ID)</t>
+          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45603</v>
+        <v>45609</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DJIA</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I21">
-        <v>-272.8845502127002</v>
-      </c>
-      <c r="J21">
-        <v>-5.572484178327551</v>
-      </c>
-      <c r="K21">
-        <v>-1.333130903797149</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L21">
-        <v>-272.8845502127002</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>-5.572484178327551</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>-1.333130903797149</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Deletion</t>
+          <t>Spin off from  LBTYA US</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W21" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1843,25 +1850,25 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>SHW US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sherwin-Williams (ID)</t>
+          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
         </is>
       </c>
       <c r="D22" s="2">
-        <v>45603</v>
+        <v>45609</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DJIA</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1869,36 +1876,32 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="I22">
-        <v>1871.625620661866</v>
-      </c>
-      <c r="J22">
-        <v>5.228442664641914</v>
-      </c>
-      <c r="K22">
-        <v>4.142928163279922</v>
-      </c>
       <c r="L22">
-        <v>1871.625620661866</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>5.228442664641914</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4.142928163279922</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Replacing DOW</t>
+          <t>Spin off from  LBTYK US</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="V22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1907,30 +1910,30 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8155 JP</t>
+          <t>BCPT LN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mimasu Semiconductor Indust</t>
+          <t>Balanced Comm Ppty Trust</t>
         </is>
       </c>
       <c r="D23" s="2">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1938,26 +1941,29 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="H23">
+        <v>-0.0001081784937401948</v>
+      </c>
       <c r="I23">
-        <v>-2.650010224424026</v>
+        <v>-17.40727434825358</v>
       </c>
       <c r="J23">
-        <v>-0.1079708335000027</v>
+        <v>-14.03100374</v>
       </c>
       <c r="K23">
-        <v>-6.070893084059754</v>
+        <v>-3.819823859640908</v>
       </c>
       <c r="L23">
-        <v>-2.650010224424026</v>
+        <v>-17.40727434825358</v>
       </c>
       <c r="M23">
-        <v>-0.1079708335000027</v>
+        <v>-14.03100374</v>
       </c>
       <c r="N23">
-        <v>-6.070893084059754</v>
+        <v>-3.819823859640908</v>
       </c>
       <c r="O23" s="2">
-        <v>45583</v>
+        <v>45595</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -1965,7 +1971,7 @@
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -1974,6 +1980,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>TBD</t>
@@ -1981,11 +1992,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D24" s="2">
-        <v>45609</v>
+        <v>45621</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2002,25 +2013,22 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="L24">
-        <v>0</v>
+      <c r="J24">
+        <v>1.1619372024</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O24" s="2">
         <v>45596</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYA US</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2034,6 +2042,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>TBD</t>
@@ -2041,11 +2054,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D25" s="2">
-        <v>45609</v>
+        <v>45621</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2059,30 +2072,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L25">
-        <v>0</v>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J25">
+        <v>-0.8641558809</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O25" s="2">
         <v>45596</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYK US</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45601</v>
-      </c>
-      <c r="V25" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="W25" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2096,70 +2106,58 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BCPT LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Balanced Comm Ppty Trust</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D26" s="2">
-        <v>45610</v>
+        <v>45631</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H26">
-        <v>-0.0001081784937401948</v>
-      </c>
-      <c r="I26">
-        <v>-17.40727434825358</v>
-      </c>
-      <c r="J26">
-        <v>-14.03100374</v>
-      </c>
-      <c r="K26">
-        <v>-3.819823859640908</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L26">
-        <v>-17.40727434825358</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>-14.03100374</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-3.819823859640908</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>45595</v>
+        <v>45590</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W26" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2168,7 +2166,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2178,20 +2176,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D27" s="2">
-        <v>45621</v>
+        <v>45632</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2199,22 +2197,19 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="J27">
-        <v>1.1619372024</v>
-      </c>
       <c r="M27">
-        <v>0.2977813214999999</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O27" s="2">
-        <v>45596</v>
+        <v>45580</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q27" s="2">
-        <v>45601</v>
+        <v>45595</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2230,7 +2225,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2240,43 +2235,43 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D28" s="2">
-        <v>45621</v>
+        <v>45632</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="J28">
-        <v>-0.8641558809</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M28">
-        <v>0.2977813214999999</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O28" s="2">
-        <v>45596</v>
+        <v>45588</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45601</v>
+        <v>45595</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2292,7 +2287,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2302,11 +2297,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D29" s="2">
-        <v>45631</v>
+        <v>45642</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2315,35 +2310,37 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L29">
-        <v>0</v>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J29">
+        <v>-12.976968375</v>
       </c>
       <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O29" s="2">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V29" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2352,7 +2349,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2362,11 +2359,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D30" s="2">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2375,29 +2372,32 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J30">
+        <v>-12.976968375</v>
       </c>
       <c r="M30">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O30" s="2">
-        <v>45580</v>
+        <v>45600</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q30" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V30" t="inlineStr">
+        <v>45602</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2411,7 +2411,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2421,11 +2421,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D31" s="2">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2434,30 +2434,30 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Spin-off Delete</t>
         </is>
       </c>
       <c r="J31">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M31">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O31" s="2">
-        <v>45588</v>
+        <v>45600</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Spin-Off by Jusung Engineering</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q31" s="2">
-        <v>45595</v>
+        <v>45602</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -2465,192 +2465,6 @@
         </is>
       </c>
       <c r="X31" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Canal+</t>
-        </is>
-      </c>
-      <c r="D32" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J32">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M32">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O32" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q32" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Louis Hachette</t>
-        </is>
-      </c>
-      <c r="D33" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J33">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M33">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O33" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q33" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Havas</t>
-        </is>
-      </c>
-      <c r="D34" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J34">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M34">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O34" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q34" s="2">
-        <v>45601</v>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +506,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>030200 KS</t>
+          <t>8155 JP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kt Corp</t>
+          <t>Mimasu Semiconductor Indust</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -532,33 +532,30 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H2">
-        <v>-0.0001175571061923845</v>
-      </c>
       <c r="I2">
-        <v>-78.60962735076629</v>
+        <v>-2.650010224424026</v>
       </c>
       <c r="J2">
-        <v>-2.5101359826</v>
+        <v>-0.1079708335000027</v>
       </c>
       <c r="K2">
-        <v>-4.238339090971105</v>
+        <v>-6.070893084059754</v>
       </c>
       <c r="L2">
-        <v>-78.60962735076629</v>
+        <v>-2.650010224424026</v>
       </c>
       <c r="M2">
-        <v>-2.5101359826</v>
+        <v>-0.1079708335000027</v>
       </c>
       <c r="N2">
-        <v>-4.238339090971105</v>
+        <v>-6.070893084059754</v>
       </c>
       <c r="O2" s="2">
-        <v>45602</v>
+        <v>45583</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Foreign room</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q2" s="2">
@@ -587,7 +584,7 @@
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -596,7 +593,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -604,33 +601,30 @@
           <t>F Dec</t>
         </is>
       </c>
-      <c r="H3">
-        <v>-0.0001694050552668811</v>
-      </c>
       <c r="I3">
-        <v>-40.67364603041017</v>
+        <v>-52.08387788108959</v>
       </c>
       <c r="J3">
-        <v>-0.6833296268668323</v>
+        <v>-0.8672387310000043</v>
       </c>
       <c r="K3">
-        <v>-2.128089775356064</v>
+        <v>-2.700836907505463</v>
       </c>
       <c r="L3">
-        <v>-40.67364603041017</v>
+        <v>-52.08387788108959</v>
       </c>
       <c r="M3">
-        <v>-0.6833296268668323</v>
+        <v>-0.8672387310000043</v>
       </c>
       <c r="N3">
-        <v>-2.128089775356064</v>
+        <v>-2.700836907505463</v>
       </c>
       <c r="O3" s="2">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q3" s="2">
@@ -643,18 +637,23 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PRMW CN</t>
+          <t>HZ IN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Primo Water Corp</t>
+          <t>Hindustan Zinc Ltd</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -663,44 +662,44 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I4">
-        <v>-109.41196634644</v>
+        <v>17.1980857521607</v>
       </c>
       <c r="J4">
-        <v>-4.362911743500014</v>
+        <v>2.856711935999989</v>
       </c>
       <c r="K4">
-        <v>-22.59703763832103</v>
+        <v>0.792942553748992</v>
       </c>
       <c r="L4">
-        <v>-334.53165428464</v>
+        <v>17.1980857521607</v>
       </c>
       <c r="M4">
-        <v>-13.20658174350002</v>
+        <v>2.856711935999989</v>
       </c>
       <c r="N4">
-        <v>-61.49402670374247</v>
+        <v>0.792942553748992</v>
       </c>
       <c r="O4" s="2">
-        <v>45601</v>
+        <v>45603</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q4" s="2">
         <v>45604</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -709,16 +708,16 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>PRMW US</t>
+          <t>ALKT US</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Primo Water Corp</t>
+          <t>Alkami Technolog</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -727,44 +726,44 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I5">
-        <v>1.177986170745</v>
+        <v>25.69931534832937</v>
       </c>
       <c r="J5">
-        <v>0.04691302949999999</v>
+        <v>0.6782611598925673</v>
       </c>
       <c r="K5">
-        <v>0.03124597137158691</v>
+        <v>1.028095044580154</v>
       </c>
       <c r="L5">
-        <v>1.177986170745</v>
+        <v>25.69931534832937</v>
       </c>
       <c r="M5">
-        <v>0.04691302949999999</v>
+        <v>0.6782611598925673</v>
       </c>
       <c r="N5">
-        <v>0.03124597137158691</v>
+        <v>1.028095044580154</v>
       </c>
       <c r="O5" s="2">
-        <v>45601</v>
+        <v>45603</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q5" s="2">
         <v>45604</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -773,16 +772,16 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>PRMW CN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Primo Water Corp</t>
+          <t xml:space="preserve">Sunrise Class C Distribution </t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45604</v>
+        <v>45608</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -791,70 +790,58 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S&amp;P TSX Composite</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>-0.00162012729783442</v>
-      </c>
-      <c r="I6">
-        <v>-225.1196879382</v>
-      </c>
-      <c r="J6">
-        <v>-8.843670000000001</v>
-      </c>
-      <c r="K6">
-        <v>-38.89698906542144</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L6">
-        <v>-334.53165428464</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-13.20658174350002</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-61.49402670374247</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>45602</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from LBTYK US</t>
         </is>
       </c>
       <c r="Q6" s="2">
         <v>45604</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8155 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mimasu Semiconductor Indust</t>
+          <t xml:space="preserve">Sunrise Class A Distribution </t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -863,67 +850,58 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I7">
-        <v>-2.650010224424026</v>
-      </c>
-      <c r="J7">
-        <v>-0.1079708335000027</v>
-      </c>
-      <c r="K7">
-        <v>-6.070893084059754</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L7">
-        <v>-2.650010224424026</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.1079708335000027</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-6.070893084059754</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>45583</v>
+        <v>45602</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from LBTYA US</t>
         </is>
       </c>
       <c r="Q7" s="2">
         <v>45604</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9749 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fuji Soft Inc</t>
+          <t xml:space="preserve">Sunrise Class C Distribution </t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -937,62 +915,53 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
-      </c>
-      <c r="I8">
-        <v>-52.08387788108959</v>
-      </c>
-      <c r="J8">
-        <v>-0.8672387310000043</v>
-      </c>
-      <c r="K8">
-        <v>-2.700836907505463</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L8">
-        <v>-52.08387788108959</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>-0.8672387310000043</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-2.700836907505463</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>45603</v>
+        <v>45602</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Spin-off from LBTYK US</t>
         </is>
       </c>
       <c r="Q8" s="2">
         <v>45604</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HZ IN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hindustan Zinc Ltd</t>
+          <t xml:space="preserve">Sunrise Class A Distribution </t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1001,44 +970,40 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>17.1980857521607</v>
-      </c>
-      <c r="J9">
-        <v>2.856711935999989</v>
-      </c>
-      <c r="K9">
-        <v>0.792942553748992</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L9">
-        <v>17.1980857521607</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>2.856711935999989</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.792942553748992</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>45603</v>
+        <v>45602</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Spin-off from LBTYA US</t>
         </is>
       </c>
       <c r="Q9" s="2">
         <v>45604</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1047,62 +1012,58 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>ALKT US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Alkami Technolog</t>
+          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I10">
-        <v>25.69931534832937</v>
-      </c>
-      <c r="J10">
-        <v>0.6782611598925673</v>
-      </c>
-      <c r="K10">
-        <v>1.028095044580154</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L10">
-        <v>25.69931534832937</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6782611598925673</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.028095044580154</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>45603</v>
+        <v>45596</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Spin off from  LBTYA US</t>
         </is>
       </c>
       <c r="Q10" s="2">
         <v>45604</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1116,20 +1077,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class C Distribution </t>
+          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1147,11 +1108,11 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>45602</v>
+        <v>45596</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYK US</t>
+          <t>Spin off from  LBTYK US</t>
         </is>
       </c>
       <c r="Q11" s="2">
@@ -1169,186 +1130,227 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>BCPT LN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class A Distribution </t>
+          <t>Balanced Comm Ppty Trust</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>-0.0001081784937401948</v>
+      </c>
+      <c r="I12">
+        <v>-17.40727434825358</v>
+      </c>
+      <c r="J12">
+        <v>-14.03100374</v>
+      </c>
+      <c r="K12">
+        <v>-3.819823859640908</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-17.40727434825358</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-14.03100374</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-3.819823859640908</v>
       </c>
       <c r="O12" s="2">
-        <v>45602</v>
+        <v>45595</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYA US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q12" s="2">
         <v>45604</v>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class C Distribution </t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45608</v>
+        <v>45617</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>0.0002609298317320255</v>
+      </c>
+      <c r="I13">
+        <v>169.2567887469962</v>
+      </c>
+      <c r="J13">
+        <v>6.517444245722097</v>
+      </c>
+      <c r="K13">
+        <v>3.471595128764175</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="O13" s="2">
         <v>45602</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYK US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q13" s="2">
         <v>45604</v>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class A Distribution </t>
+          <t>Centamin</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45608</v>
+        <v>45617</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>-0.000278655968179756</v>
+      </c>
+      <c r="I14">
+        <v>-45.0171034824237</v>
+      </c>
+      <c r="J14">
+        <v>-23.2216539</v>
+      </c>
+      <c r="K14">
+        <v>-1.690132056726749</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-23.2216539</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="O14" s="2">
         <v>45602</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYA US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q14" s="2">
         <v>45604</v>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>TBD</t>
@@ -1356,11 +1358,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45609</v>
+        <v>45621</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1377,21 +1379,18 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="L15">
-        <v>0</v>
+      <c r="J15">
+        <v>1.1619372024</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O15" s="2">
         <v>45596</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYA US</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q15" s="2">
@@ -1409,6 +1408,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>TBD</t>
@@ -1416,11 +1420,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45609</v>
+        <v>45621</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1434,30 +1438,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L16">
-        <v>0</v>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J16">
+        <v>-0.8641558809</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O16" s="2">
         <v>45596</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYK US</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q16" s="2">
         <v>45604</v>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1471,70 +1472,58 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BCPT LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Balanced Comm Ppty Trust</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45610</v>
+        <v>45631</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H17">
-        <v>-0.0001081784937401948</v>
-      </c>
-      <c r="I17">
-        <v>-17.40727434825358</v>
-      </c>
-      <c r="J17">
-        <v>-14.03100374</v>
-      </c>
-      <c r="K17">
-        <v>-3.819823859640908</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L17">
-        <v>-17.40727434825358</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>-14.03100374</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-3.819823859640908</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>45595</v>
+        <v>45590</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W17" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1543,70 +1532,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45617</v>
+        <v>45632</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H18">
-        <v>0.0002609298317320255</v>
-      </c>
-      <c r="I18">
-        <v>169.2567887469962</v>
-      </c>
-      <c r="J18">
-        <v>6.517444245722097</v>
-      </c>
-      <c r="K18">
-        <v>3.471595128764175</v>
-      </c>
-      <c r="L18">
-        <v>169.2567887469962</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="M18">
-        <v>6.517444245722097</v>
-      </c>
-      <c r="N18">
-        <v>3.471595128764175</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O18" s="2">
-        <v>45602</v>
+        <v>45580</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45604</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1615,30 +1591,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45617</v>
+        <v>45632</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1646,39 +1622,29 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H19">
-        <v>-0.000278655968179756</v>
-      </c>
-      <c r="I19">
-        <v>-45.0171034824237</v>
-      </c>
       <c r="J19">
-        <v>-23.2216539</v>
-      </c>
-      <c r="K19">
-        <v>-1.690132056726749</v>
-      </c>
-      <c r="L19">
-        <v>-45.0171034824237</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M19">
-        <v>-23.2216539</v>
-      </c>
-      <c r="N19">
-        <v>-1.690132056726749</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O19" s="2">
-        <v>45602</v>
+        <v>45588</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45604</v>
+        <v>45595</v>
       </c>
       <c r="W19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1697,45 +1663,45 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45621</v>
+        <v>45642</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Spin-off Delete</t>
         </is>
       </c>
       <c r="J20">
-        <v>1.1619372024</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M20">
-        <v>0.2977813214999999</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O20" s="2">
-        <v>45596</v>
+        <v>45600</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q20" s="2">
         <v>45604</v>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1759,20 +1725,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45621</v>
+        <v>45642</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1781,17 +1747,17 @@
         </is>
       </c>
       <c r="J21">
-        <v>-0.8641558809</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M21">
-        <v>0.2977813214999999</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O21" s="2">
-        <v>45596</v>
+        <v>45600</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q21" s="2">
@@ -1811,7 +1777,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1821,11 +1787,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D22" s="2">
-        <v>45631</v>
+        <v>45642</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1834,342 +1800,37 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L22">
-        <v>0</v>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J22">
+        <v>-12.976968375</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O22" s="2">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D23" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="M23">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O23" s="2">
-        <v>45580</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
-      <c r="Q23" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D24" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>KOSDAQ150</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J24">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="M24">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O24" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Spin-Off by Jusung Engineering</t>
-        </is>
-      </c>
-      <c r="Q24" s="2">
-        <v>45595</v>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Canal+</t>
-        </is>
-      </c>
-      <c r="D25" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J25">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M25">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O25" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q25" s="2">
         <v>45604</v>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Louis Hachette</t>
-        </is>
-      </c>
-      <c r="D26" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J26">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M26">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O26" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q26" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Havas</t>
-        </is>
-      </c>
-      <c r="D27" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J27">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M27">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O27" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q27" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,23 +499,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8155 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mimasu Semiconductor Indust</t>
+          <t xml:space="preserve">Sunrise Class C Distribution </t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,67 +519,58 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I2">
-        <v>-2.650010224424026</v>
-      </c>
-      <c r="J2">
-        <v>-0.1079708335000027</v>
-      </c>
-      <c r="K2">
-        <v>-6.070893084059754</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L2">
-        <v>-2.650010224424026</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-0.1079708335000027</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-6.070893084059754</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>45583</v>
+        <v>45602</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from LBTYK US</t>
         </is>
       </c>
       <c r="Q2" s="2">
         <v>45604</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9749 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fuji Soft Inc</t>
+          <t xml:space="preserve">Sunrise Class A Distribution </t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -593,67 +579,58 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
-      </c>
-      <c r="I3">
-        <v>-52.08387788108959</v>
-      </c>
-      <c r="J3">
-        <v>-0.8672387310000043</v>
-      </c>
-      <c r="K3">
-        <v>-2.700836907505463</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L3">
-        <v>-52.08387788108959</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.8672387310000043</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.700836907505463</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>45603</v>
+        <v>45602</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Spin-off from LBTYA US</t>
         </is>
       </c>
       <c r="Q3" s="2">
         <v>45604</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HZ IN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hindustan Zinc Ltd</t>
+          <t xml:space="preserve">Sunrise Class C Distribution </t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -662,44 +639,40 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I4">
-        <v>17.1980857521607</v>
-      </c>
-      <c r="J4">
-        <v>2.856711935999989</v>
-      </c>
-      <c r="K4">
-        <v>0.792942553748992</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L4">
-        <v>17.1980857521607</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2.856711935999989</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.792942553748992</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>45603</v>
+        <v>45602</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Spin-off from LBTYK US</t>
         </is>
       </c>
       <c r="Q4" s="2">
         <v>45604</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -708,16 +681,16 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALKT US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Alkami Technolog</t>
+          <t xml:space="preserve">Sunrise Class A Distribution </t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -726,44 +699,40 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I5">
-        <v>25.69931534832937</v>
-      </c>
-      <c r="J5">
-        <v>0.6782611598925673</v>
-      </c>
-      <c r="K5">
-        <v>1.028095044580154</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L5">
-        <v>25.69931534832937</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6782611598925673</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.028095044580154</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>45603</v>
+        <v>45602</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Spin-off from LBTYA US</t>
         </is>
       </c>
       <c r="Q5" s="2">
         <v>45604</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -777,20 +746,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class C Distribution </t>
+          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -808,11 +777,11 @@
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>45602</v>
+        <v>45596</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYK US</t>
+          <t>Spin off from  LBTYA US</t>
         </is>
       </c>
       <c r="Q6" s="2">
@@ -837,20 +806,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class A Distribution </t>
+          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -868,11 +837,11 @@
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>45602</v>
+        <v>45596</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYA US</t>
+          <t>Spin off from  LBTYK US</t>
         </is>
       </c>
       <c r="Q7" s="2">
@@ -890,138 +859,167 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>BCPT LN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class C Distribution </t>
+          <t>Balanced Comm Ppty Trust</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>-0.0001081784937401948</v>
+      </c>
+      <c r="I8">
+        <v>-17.40727434825358</v>
+      </c>
+      <c r="J8">
+        <v>-14.03100374</v>
+      </c>
+      <c r="K8">
+        <v>-3.819823859640908</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-17.40727434825358</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-14.03100374</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>-3.819823859640908</v>
       </c>
       <c r="O8" s="2">
-        <v>45602</v>
+        <v>45595</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYK US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q8" s="2">
         <v>45604</v>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class A Distribution </t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45608</v>
+        <v>45617</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>0.0002609298317320255</v>
+      </c>
+      <c r="I9">
+        <v>169.2567887469962</v>
+      </c>
+      <c r="J9">
+        <v>6.517444245722097</v>
+      </c>
+      <c r="K9">
+        <v>3.471595128764175</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="O9" s="2">
         <v>45602</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYA US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q9" s="2">
         <v>45604</v>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
+          <t>Centamin</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45609</v>
+        <v>45617</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1035,41 +1033,53 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>-0.000278655968179756</v>
+      </c>
+      <c r="I10">
+        <v>-45.0171034824237</v>
+      </c>
+      <c r="J10">
+        <v>-23.2216539</v>
+      </c>
+      <c r="K10">
+        <v>-1.690132056726749</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-23.2216539</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="O10" s="2">
-        <v>45596</v>
+        <v>45602</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYA US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q10" s="2">
         <v>45604</v>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>TBD</t>
@@ -1077,11 +1087,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45609</v>
+        <v>45621</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1098,21 +1108,18 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="L11">
-        <v>0</v>
+      <c r="J11">
+        <v>1.1619372024</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O11" s="2">
         <v>45596</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYK US</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q11" s="2">
@@ -1137,16 +1144,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BCPT LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Balanced Comm Ppty Trust</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45610</v>
+        <v>45621</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1160,36 +1167,21 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>-0.0001081784937401948</v>
-      </c>
-      <c r="I12">
-        <v>-17.40727434825358</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J12">
-        <v>-14.03100374</v>
-      </c>
-      <c r="K12">
-        <v>-3.819823859640908</v>
-      </c>
-      <c r="L12">
-        <v>-17.40727434825358</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M12">
-        <v>-14.03100374</v>
-      </c>
-      <c r="N12">
-        <v>-3.819823859640908</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O12" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q12" s="2">
@@ -1200,74 +1192,67 @@
           <t>TRUE</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45617</v>
+        <v>45631</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>0.0002609298317320255</v>
-      </c>
-      <c r="I13">
-        <v>169.2567887469962</v>
-      </c>
-      <c r="J13">
-        <v>6.517444245722097</v>
-      </c>
-      <c r="K13">
-        <v>3.471595128764175</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L13">
-        <v>169.2567887469962</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>6.517444245722097</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3.471595128764175</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>45602</v>
+        <v>45590</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45604</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1276,70 +1261,57 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45617</v>
+        <v>45632</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H14">
-        <v>-0.000278655968179756</v>
-      </c>
-      <c r="I14">
-        <v>-45.0171034824237</v>
-      </c>
-      <c r="J14">
-        <v>-23.2216539</v>
-      </c>
-      <c r="K14">
-        <v>-1.690132056726749</v>
-      </c>
-      <c r="L14">
-        <v>-45.0171034824237</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="M14">
-        <v>-23.2216539</v>
-      </c>
-      <c r="N14">
-        <v>-1.690132056726749</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O14" s="2">
-        <v>45602</v>
+        <v>45580</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W14" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1348,7 +1320,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1358,45 +1330,45 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45621</v>
+        <v>45632</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="J15">
-        <v>1.1619372024</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M15">
-        <v>0.2977813214999999</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O15" s="2">
-        <v>45596</v>
+        <v>45588</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45604</v>
-      </c>
-      <c r="V15" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1420,20 +1392,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45621</v>
+        <v>45642</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1442,17 +1414,17 @@
         </is>
       </c>
       <c r="J16">
-        <v>-0.8641558809</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M16">
-        <v>0.2977813214999999</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O16" s="2">
-        <v>45596</v>
+        <v>45600</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q16" s="2">
@@ -1472,7 +1444,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1482,11 +1454,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45631</v>
+        <v>45642</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1495,35 +1467,37 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L17">
-        <v>0</v>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J17">
+        <v>-12.976968375</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O17" s="2">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V17" t="inlineStr">
+        <v>45604</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1532,7 +1506,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1542,11 +1516,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1555,282 +1529,37 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J18">
+        <v>-12.976968375</v>
       </c>
       <c r="M18">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O18" s="2">
-        <v>45580</v>
+        <v>45600</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V18" t="inlineStr">
+        <v>45604</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D19" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>KOSDAQ150</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J19">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="M19">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O19" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Spin-Off by Jusung Engineering</t>
-        </is>
-      </c>
-      <c r="Q19" s="2">
-        <v>45595</v>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Canal+</t>
-        </is>
-      </c>
-      <c r="D20" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J20">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M20">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O20" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q20" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Louis Hachette</t>
-        </is>
-      </c>
-      <c r="D21" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J21">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M21">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O21" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q21" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Havas</t>
-        </is>
-      </c>
-      <c r="D22" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J22">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M22">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O22" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q22" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,20 +506,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class C Distribution </t>
+          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -537,11 +537,11 @@
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>45602</v>
+        <v>45596</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYK US</t>
+          <t>Spin off from  LBTYA US</t>
         </is>
       </c>
       <c r="Q2" s="2">
@@ -566,20 +566,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class A Distribution </t>
+          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -597,11 +597,11 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>45602</v>
+        <v>45596</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYA US</t>
+          <t>Spin off from  LBTYK US</t>
         </is>
       </c>
       <c r="Q3" s="2">
@@ -619,138 +619,167 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>BCPT LN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class C Distribution </t>
+          <t>Balanced Comm Ppty Trust</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>-0.0001081784937401948</v>
+      </c>
+      <c r="I4">
+        <v>-17.40727434825358</v>
+      </c>
+      <c r="J4">
+        <v>-14.03100374</v>
+      </c>
+      <c r="K4">
+        <v>-3.819823859640908</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-17.40727434825358</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-14.03100374</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-3.819823859640908</v>
       </c>
       <c r="O4" s="2">
-        <v>45602</v>
+        <v>45595</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYK US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q4" s="2">
         <v>45604</v>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunrise Class A Distribution </t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45608</v>
+        <v>45617</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>0.0002609298317320255</v>
+      </c>
+      <c r="I5">
+        <v>169.2567887469962</v>
+      </c>
+      <c r="J5">
+        <v>6.517444245722097</v>
+      </c>
+      <c r="K5">
+        <v>3.471595128764175</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="O5" s="2">
         <v>45602</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Spin-off from LBTYA US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q5" s="2">
         <v>45604</v>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
+          <t>Centamin</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45609</v>
+        <v>45617</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -764,41 +793,53 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>-0.000278655968179756</v>
+      </c>
+      <c r="I6">
+        <v>-45.0171034824237</v>
+      </c>
+      <c r="J6">
+        <v>-23.2216539</v>
+      </c>
+      <c r="K6">
+        <v>-1.690132056726749</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-23.2216539</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="O6" s="2">
-        <v>45596</v>
+        <v>45602</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYA US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q6" s="2">
         <v>45604</v>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>TBD</t>
@@ -806,11 +847,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45609</v>
+        <v>45621</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -827,21 +868,18 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="J7">
+        <v>1.1619372024</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O7" s="2">
         <v>45596</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYK US</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q7" s="2">
@@ -866,16 +904,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BCPT LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Balanced Comm Ppty Trust</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45610</v>
+        <v>45621</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -889,42 +927,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>-0.0001081784937401948</v>
-      </c>
-      <c r="I8">
-        <v>-17.40727434825358</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J8">
-        <v>-14.03100374</v>
-      </c>
-      <c r="K8">
-        <v>-3.819823859640908</v>
-      </c>
-      <c r="L8">
-        <v>-17.40727434825358</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M8">
-        <v>-14.03100374</v>
-      </c>
-      <c r="N8">
-        <v>-3.819823859640908</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O8" s="2">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q8" s="2">
         <v>45604</v>
       </c>
       <c r="W8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -933,70 +961,58 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45617</v>
+        <v>45631</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>0.0002609298317320255</v>
-      </c>
-      <c r="I9">
-        <v>169.2567887469962</v>
-      </c>
-      <c r="J9">
-        <v>6.517444245722097</v>
-      </c>
-      <c r="K9">
-        <v>3.471595128764175</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L9">
-        <v>169.2567887469962</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>6.517444245722097</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3.471595128764175</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>45602</v>
+        <v>45590</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45604</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1005,70 +1021,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45617</v>
+        <v>45632</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>-0.000278655968179756</v>
-      </c>
-      <c r="I10">
-        <v>-45.0171034824237</v>
-      </c>
-      <c r="J10">
-        <v>-23.2216539</v>
-      </c>
-      <c r="K10">
-        <v>-1.690132056726749</v>
-      </c>
-      <c r="L10">
-        <v>-45.0171034824237</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="M10">
-        <v>-23.2216539</v>
-      </c>
-      <c r="N10">
-        <v>-1.690132056726749</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O10" s="2">
-        <v>45602</v>
+        <v>45580</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W10" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1077,7 +1080,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1087,45 +1090,45 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45621</v>
+        <v>45632</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="J11">
-        <v>1.1619372024</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M11">
-        <v>0.2977813214999999</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O11" s="2">
-        <v>45596</v>
+        <v>45588</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45604</v>
-      </c>
-      <c r="V11" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1149,20 +1152,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45621</v>
+        <v>45642</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1171,17 +1174,17 @@
         </is>
       </c>
       <c r="J12">
-        <v>-0.8641558809</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M12">
-        <v>0.2977813214999999</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O12" s="2">
-        <v>45596</v>
+        <v>45600</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q12" s="2">
@@ -1201,7 +1204,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1211,11 +1214,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45631</v>
+        <v>45642</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1224,35 +1227,37 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L13">
-        <v>0</v>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J13">
+        <v>-12.976968375</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O13" s="2">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V13" t="inlineStr">
+        <v>45604</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1261,7 +1266,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1271,11 +1276,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1284,282 +1289,37 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J14">
+        <v>-12.976968375</v>
       </c>
       <c r="M14">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O14" s="2">
-        <v>45580</v>
+        <v>45600</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V14" t="inlineStr">
+        <v>45604</v>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D15" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>KOSDAQ150</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J15">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="M15">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O15" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Spin-Off by Jusung Engineering</t>
-        </is>
-      </c>
-      <c r="Q15" s="2">
-        <v>45595</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Canal+</t>
-        </is>
-      </c>
-      <c r="D16" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J16">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M16">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O16" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q16" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Louis Hachette</t>
-        </is>
-      </c>
-      <c r="D17" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J17">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M17">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O17" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q17" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Havas</t>
-        </is>
-      </c>
-      <c r="D18" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J18">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M18">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O18" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q18" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,18 +499,23 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>BCPT LN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL A (DET)  </t>
+          <t>Balanced Comm Ppty Trust</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,53 +529,65 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>-0.0001081784937401948</v>
+      </c>
+      <c r="I2">
+        <v>-17.40727434825358</v>
+      </c>
+      <c r="J2">
+        <v>-14.03100374</v>
+      </c>
+      <c r="K2">
+        <v>-3.819823859640908</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-17.40727434825358</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-14.03100374</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-3.819823859640908</v>
       </c>
       <c r="O2" s="2">
-        <v>45596</v>
+        <v>45595</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYA US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q2" s="2">
         <v>45604</v>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBERTY GLOBAL C (DET)  </t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45609</v>
+        <v>45617</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -579,40 +596,47 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>0.0002609298317320255</v>
+      </c>
+      <c r="I3">
+        <v>169.2567887469962</v>
+      </c>
+      <c r="J3">
+        <v>6.517444245722097</v>
+      </c>
+      <c r="K3">
+        <v>3.471595128764175</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="O3" s="2">
-        <v>45596</v>
+        <v>45602</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Spin off from  LBTYK US</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q3" s="2">
         <v>45604</v>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -626,16 +650,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BCPT LN</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Balanced Comm Ppty Trust</t>
+          <t>Centamin</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45610</v>
+        <v>45617</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -653,28 +677,28 @@
         </is>
       </c>
       <c r="H4">
-        <v>-0.0001081784937401948</v>
+        <v>-0.000278655968179756</v>
       </c>
       <c r="I4">
-        <v>-17.40727434825358</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="J4">
-        <v>-14.03100374</v>
+        <v>-23.2216539</v>
       </c>
       <c r="K4">
-        <v>-3.819823859640908</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="L4">
-        <v>-17.40727434825358</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="M4">
-        <v>-14.03100374</v>
+        <v>-23.2216539</v>
       </c>
       <c r="N4">
-        <v>-3.819823859640908</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="O4" s="2">
-        <v>45595</v>
+        <v>45602</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -698,16 +722,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -716,47 +740,37 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>0.0002609298317320255</v>
-      </c>
-      <c r="I5">
-        <v>169.2567887469962</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J5">
-        <v>6.517444245722097</v>
-      </c>
-      <c r="K5">
-        <v>3.471595128764175</v>
-      </c>
-      <c r="L5">
-        <v>169.2567887469962</v>
+        <v>1.1619372024</v>
       </c>
       <c r="M5">
-        <v>6.517444245722097</v>
-      </c>
-      <c r="N5">
-        <v>3.471595128764175</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O5" s="2">
-        <v>45602</v>
+        <v>45596</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q5" s="2">
         <v>45604</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -770,16 +784,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -793,42 +807,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>-0.000278655968179756</v>
-      </c>
-      <c r="I6">
-        <v>-45.0171034824237</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J6">
-        <v>-23.2216539</v>
-      </c>
-      <c r="K6">
-        <v>-1.690132056726749</v>
-      </c>
-      <c r="L6">
-        <v>-45.0171034824237</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M6">
-        <v>-23.2216539</v>
-      </c>
-      <c r="N6">
-        <v>-1.690132056726749</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O6" s="2">
-        <v>45602</v>
+        <v>45596</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q6" s="2">
         <v>45604</v>
       </c>
       <c r="W6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -837,7 +841,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -847,20 +851,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45621</v>
+        <v>45631</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -868,29 +872,27 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="J7">
-        <v>1.1619372024</v>
+      <c r="L7">
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2977813214999999</v>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>45596</v>
+        <v>45590</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45604</v>
+        <v>45594</v>
       </c>
       <c r="V7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -899,7 +901,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -909,45 +911,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45621</v>
+        <v>45632</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J8">
-        <v>-0.8641558809</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="M8">
-        <v>0.2977813214999999</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O8" s="2">
-        <v>45596</v>
+        <v>45580</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W8" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -975,7 +974,7 @@
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -984,35 +983,37 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L9">
-        <v>0</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J9">
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O9" s="2">
-        <v>45590</v>
+        <v>45588</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V9" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1021,7 +1022,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1031,11 +1032,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1044,29 +1045,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J10">
+        <v>-12.976968375</v>
       </c>
       <c r="M10">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O10" s="2">
-        <v>45580</v>
+        <v>45600</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V10" t="inlineStr">
+        <v>45604</v>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1080,7 +1084,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1090,11 +1094,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1103,30 +1107,30 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Spin-off Delete</t>
         </is>
       </c>
       <c r="J11">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M11">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O11" s="2">
-        <v>45588</v>
+        <v>45600</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Spin-Off by Jusung Engineering</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45595</v>
+        <v>45604</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1152,7 +1156,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Canal+</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D12" s="2">
@@ -1196,130 +1200,6 @@
         </is>
       </c>
       <c r="X12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Louis Hachette</t>
-        </is>
-      </c>
-      <c r="D13" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J13">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M13">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O13" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q13" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Havas</t>
-        </is>
-      </c>
-      <c r="D14" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J14">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M14">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O14" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q14" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +506,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BCPT LN</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Balanced Comm Ppty Trust</t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45610</v>
+        <v>45617</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,37 +524,37 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H2">
-        <v>-0.0001081784937401948</v>
+        <v>0.0002609298317320255</v>
       </c>
       <c r="I2">
-        <v>-17.40727434825358</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="J2">
-        <v>-14.03100374</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="K2">
-        <v>-3.819823859640908</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="L2">
-        <v>-17.40727434825358</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="M2">
-        <v>-14.03100374</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="N2">
-        <v>-3.819823859640908</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="O2" s="2">
-        <v>45595</v>
+        <v>45602</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
       <c r="Q2" s="2">
         <v>45604</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -578,12 +578,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Centamin</t>
         </is>
       </c>
       <c r="D3" s="2">
@@ -596,34 +596,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="H3">
-        <v>0.0002609298317320255</v>
+        <v>-0.000278655968179756</v>
       </c>
       <c r="I3">
-        <v>169.2567887469962</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="J3">
-        <v>6.517444245722097</v>
+        <v>-23.2216539</v>
       </c>
       <c r="K3">
-        <v>3.471595128764175</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="L3">
-        <v>169.2567887469962</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="M3">
-        <v>6.517444245722097</v>
+        <v>-23.2216539</v>
       </c>
       <c r="N3">
-        <v>3.471595128764175</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="O3" s="2">
         <v>45602</v>
@@ -636,7 +636,7 @@
       <c r="Q3" s="2">
         <v>45604</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -650,16 +650,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -673,42 +673,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>-0.000278655968179756</v>
-      </c>
-      <c r="I4">
-        <v>-45.0171034824237</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J4">
-        <v>-23.2216539</v>
-      </c>
-      <c r="K4">
-        <v>-1.690132056726749</v>
-      </c>
-      <c r="L4">
-        <v>-45.0171034824237</v>
+        <v>1.1619372024</v>
       </c>
       <c r="M4">
-        <v>-23.2216539</v>
-      </c>
-      <c r="N4">
-        <v>-1.690132056726749</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O4" s="2">
-        <v>45602</v>
+        <v>45596</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q4" s="2">
         <v>45604</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -745,11 +735,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Spin-off Delete</t>
         </is>
       </c>
       <c r="J5">
-        <v>1.1619372024</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M5">
         <v>0.2977813214999999</v>
@@ -765,7 +755,7 @@
       <c r="Q5" s="2">
         <v>45604</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -779,7 +769,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -789,50 +779,48 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45621</v>
+        <v>45631</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J6">
-        <v>-0.8641558809</v>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2977813214999999</v>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>45596</v>
+        <v>45590</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -855,7 +843,7 @@
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -864,7 +852,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -872,27 +860,26 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O7" s="2">
-        <v>45590</v>
+        <v>45580</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="V7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -924,29 +911,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J8">
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M8">
         <v>-0.1196923767245363</v>
       </c>
       <c r="O8" s="2">
-        <v>45580</v>
+        <v>45588</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q8" s="2">
         <v>45595</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -960,7 +950,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -970,11 +960,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -983,30 +973,30 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Spin-off Delete</t>
         </is>
       </c>
       <c r="J9">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M9">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O9" s="2">
-        <v>45588</v>
+        <v>45600</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Spin-Off by Jusung Engineering</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45595</v>
+        <v>45604</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1032,7 +1022,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Canal+</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D10" s="2">
@@ -1094,7 +1084,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D11" s="2">
@@ -1138,68 +1128,6 @@
         </is>
       </c>
       <c r="X11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Havas</t>
-        </is>
-      </c>
-      <c r="D12" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J12">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M12">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O12" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q12" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,25 +501,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>002602 C2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Zhejiang Century A(Hk-C)</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45617</v>
+        <v>45611</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -529,42 +529,42 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="H2">
-        <v>0.0002609298317320255</v>
+        <v>-3.773764333230997e-05</v>
       </c>
       <c r="I2">
-        <v>169.2567887469962</v>
+        <v>-24.24951978025897</v>
       </c>
       <c r="J2">
-        <v>6.517444245722097</v>
+        <v>-35.7722734464</v>
       </c>
       <c r="K2">
-        <v>3.471595128764175</v>
+        <v>-0.1321833342314972</v>
       </c>
       <c r="L2">
-        <v>169.2567887469962</v>
+        <v>-24.24951978025897</v>
       </c>
       <c r="M2">
-        <v>6.517444245722097</v>
+        <v>-35.7722734464</v>
       </c>
       <c r="N2">
-        <v>3.471595128764175</v>
+        <v>-0.1321833342314972</v>
       </c>
       <c r="O2" s="2">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Ineligible</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45604</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>45611</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -578,455 +578,473 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>APPS SM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t>Applus Services Sa</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45617</v>
+        <v>45611</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>-4.056557970056359</v>
+      </c>
+      <c r="J3">
+        <v>-0.3049376392125</v>
+      </c>
+      <c r="K3">
+        <v>-4.528039332393387</v>
+      </c>
+      <c r="L3">
+        <v>-4.056557970056359</v>
+      </c>
+      <c r="M3">
+        <v>-0.3049376392125</v>
+      </c>
+      <c r="N3">
+        <v>-4.528039332393387</v>
+      </c>
+      <c r="O3" s="2">
+        <v>45609</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q3" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DLTR US</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dollar Tree Inc</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <v>45611</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NDX</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>-311.0812402716913</v>
+      </c>
+      <c r="J4">
+        <v>-5.065644687700559</v>
+      </c>
+      <c r="K4">
+        <v>-1.154870988989897</v>
+      </c>
+      <c r="L4">
+        <v>-311.0812402716913</v>
+      </c>
+      <c r="M4">
+        <v>-5.065644687700559</v>
+      </c>
+      <c r="N4">
+        <v>-1.154870988989897</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45604</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Ineligible</t>
+        </is>
+      </c>
+      <c r="Q4" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>APP US</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Applovin Co-Cl A</t>
+        </is>
+      </c>
+      <c r="D5" s="2">
+        <v>45611</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NDX</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>2021.084703347148</v>
+      </c>
+      <c r="J5">
+        <v>6.969017286807862</v>
+      </c>
+      <c r="K5">
+        <v>1.392044608998103</v>
+      </c>
+      <c r="L5">
+        <v>2021.084703347148</v>
+      </c>
+      <c r="M5">
+        <v>6.969017286807862</v>
+      </c>
+      <c r="N5">
+        <v>1.392044608998103</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45604</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Replacing DLTR</t>
+        </is>
+      </c>
+      <c r="Q5" s="2">
+        <v>45611</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CWAN US</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Clearwater An-A</t>
+        </is>
+      </c>
+      <c r="D6" s="2">
+        <v>45611</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>69.97735490641561</v>
+      </c>
+      <c r="J6">
+        <v>2.298106893478345</v>
+      </c>
+      <c r="K6">
+        <v>1.040403462860488</v>
+      </c>
+      <c r="L6">
+        <v>84.35968708065113</v>
+      </c>
+      <c r="M6">
+        <v>2.773555890973734</v>
+      </c>
+      <c r="N6">
+        <v>1.255649666077367</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45609</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Equity Offering</t>
+        </is>
+      </c>
+      <c r="Q6" s="2">
+        <v>45611</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CWAN US</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Clearwater Analytics</t>
+        </is>
+      </c>
+      <c r="D7" s="2">
+        <v>45611</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>0.0001334376637804495</v>
+      </c>
+      <c r="I7">
+        <v>14.38233217423551</v>
+      </c>
+      <c r="J7">
+        <v>0.4754489974953889</v>
+      </c>
+      <c r="K7">
+        <v>0.2152462032168788</v>
+      </c>
+      <c r="L7">
+        <v>84.35968708065113</v>
+      </c>
+      <c r="M7">
+        <v>2.773555890973734</v>
+      </c>
+      <c r="N7">
+        <v>1.255649666077367</v>
+      </c>
+      <c r="O7" s="2">
+        <v>45609</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Secondary Offering</t>
+        </is>
+      </c>
+      <c r="Q7" s="2">
+        <v>45611</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NVEI CN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nuvei Corporation Sv</t>
+        </is>
+      </c>
+      <c r="D8" s="2">
+        <v>45611</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H3">
-        <v>-0.000278655968179756</v>
-      </c>
-      <c r="I3">
-        <v>-45.0171034824237</v>
-      </c>
-      <c r="J3">
-        <v>-23.2216539</v>
-      </c>
-      <c r="K3">
-        <v>-1.690132056726749</v>
-      </c>
-      <c r="L3">
-        <v>-45.0171034824237</v>
-      </c>
-      <c r="M3">
-        <v>-23.2216539</v>
-      </c>
-      <c r="N3">
-        <v>-1.690132056726749</v>
-      </c>
-      <c r="O3" s="2">
-        <v>45602</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="H8">
+        <v>-0.0002621934081127334</v>
+      </c>
+      <c r="I8">
+        <v>-30.44603172960441</v>
+      </c>
+      <c r="J8">
+        <v>-0.8953435400000002</v>
+      </c>
+      <c r="K8">
+        <v>-11.12910262378241</v>
+      </c>
+      <c r="L8">
+        <v>-148.8050038456044</v>
+      </c>
+      <c r="M8">
+        <v>-4.37574354</v>
+      </c>
+      <c r="N8">
+        <v>-54.39040629255327</v>
+      </c>
+      <c r="O8" s="2">
+        <v>45609</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q3" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUNRISE A</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="Q8" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TWKS US</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Thoughtworks Holding</t>
+        </is>
+      </c>
+      <c r="D9" s="2">
+        <v>45611</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="J4">
-        <v>1.1619372024</v>
-      </c>
-      <c r="M4">
-        <v>0.2977813214999999</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Spin-off from Liberty Global</t>
-        </is>
-      </c>
-      <c r="Q4" s="2">
-        <v>45604</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUNRISE A</t>
-        </is>
-      </c>
-      <c r="D5" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J5">
-        <v>-0.8641558809</v>
-      </c>
-      <c r="M5">
-        <v>0.2977813214999999</v>
-      </c>
-      <c r="O5" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Spin-off from Liberty Global</t>
-        </is>
-      </c>
-      <c r="Q5" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D6" s="2">
-        <v>45631</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>45590</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Demerger</t>
-        </is>
-      </c>
-      <c r="Q6" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D7" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="M7">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O7" s="2">
-        <v>45580</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
-      <c r="Q7" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D8" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>KOSDAQ150</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="J8">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="M8">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O8" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Spin-Off by Jusung Engineering</t>
-        </is>
-      </c>
-      <c r="Q8" s="2">
-        <v>45595</v>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Canal+</t>
-        </is>
-      </c>
-      <c r="D9" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
+      <c r="H9">
+        <v>-6.090897706947952e-05</v>
+      </c>
+      <c r="I9">
+        <v>-6.567582687393</v>
       </c>
       <c r="J9">
-        <v>-12.976968375</v>
+        <v>-1.4692578719</v>
+      </c>
+      <c r="K9">
+        <v>-0.2149828719743435</v>
+      </c>
+      <c r="L9">
+        <v>-6.567582687393</v>
       </c>
       <c r="M9">
-        <v>-12.976968375</v>
+        <v>-1.4692578719</v>
+      </c>
+      <c r="N9">
+        <v>-0.2149828719743435</v>
       </c>
       <c r="O9" s="2">
-        <v>45600</v>
+        <v>45609</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NVEI CN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Nuvei Corporation Sv</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45642</v>
+        <v>45611</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1035,37 +1053,47 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>S&amp;P TSX Composite</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>-0.0008444151884771946</v>
+      </c>
+      <c r="I10">
+        <v>-118.358972116</v>
       </c>
       <c r="J10">
-        <v>-12.976968375</v>
+        <v>-3.4804</v>
+      </c>
+      <c r="K10">
+        <v>-43.26130366877086</v>
+      </c>
+      <c r="L10">
+        <v>-148.8050038456044</v>
       </c>
       <c r="M10">
-        <v>-12.976968375</v>
+        <v>-4.37574354</v>
+      </c>
+      <c r="N10">
+        <v>-54.39040629255327</v>
       </c>
       <c r="O10" s="2">
-        <v>45600</v>
+        <v>45609</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45604</v>
+        <v>45611</v>
       </c>
       <c r="W10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1074,60 +1102,1729 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002602 C2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Zhejiang Century Huatong -A</t>
+        </is>
+      </c>
+      <c r="D11" s="2">
+        <v>45614</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>-12.08841762127799</v>
+      </c>
+      <c r="J11">
+        <v>-20.032473129984</v>
+      </c>
+      <c r="K11">
+        <v>-0.08270615620320332</v>
+      </c>
+      <c r="L11">
+        <v>-12.08841762127799</v>
+      </c>
+      <c r="M11">
+        <v>-20.032473129984</v>
+      </c>
+      <c r="N11">
+        <v>-0.08270615620320332</v>
+      </c>
+      <c r="O11" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Removal from Stock Connect Scheme Buy-and-Sell List</t>
+        </is>
+      </c>
+      <c r="Q11" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BMPS IM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Banca Monte Dei Paschi Siena</t>
+        </is>
+      </c>
+      <c r="D12" s="2">
+        <v>45614</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I12">
+        <v>18.05488251393627</v>
+      </c>
+      <c r="J12">
+        <v>2.778299991557525</v>
+      </c>
+      <c r="K12">
+        <v>0.1037898632220294</v>
+      </c>
+      <c r="L12">
+        <v>28.37195823618558</v>
+      </c>
+      <c r="M12">
+        <v>4.365899986733255</v>
+      </c>
+      <c r="N12">
+        <v>0.1630983564917605</v>
+      </c>
+      <c r="O12" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Secondary Placing</t>
+        </is>
+      </c>
+      <c r="Q12" s="2">
+        <v>45611</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BMPS IM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Banca Monte Dei Paschi Siena</t>
+        </is>
+      </c>
+      <c r="D13" s="2">
+        <v>45614</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FTSE MIB</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>10.31707572224931</v>
+      </c>
+      <c r="J13">
+        <v>1.58759999517573</v>
+      </c>
+      <c r="K13">
+        <v>0.0593084932697311</v>
+      </c>
+      <c r="L13">
+        <v>28.37195823618558</v>
+      </c>
+      <c r="M13">
+        <v>4.365899986733255</v>
+      </c>
+      <c r="N13">
+        <v>0.1630983564917605</v>
+      </c>
+      <c r="O13" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Secondary Placing</t>
+        </is>
+      </c>
+      <c r="Q13" s="2">
+        <v>45611</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="D14" s="2">
+        <v>45614</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="J14">
+        <v>2.049914129579906</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2.049914129579906</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Demerger</t>
+        </is>
+      </c>
+      <c r="Q14" s="2">
+        <v>45611</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SNRE US</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sunrise Communicat-Cl A</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>45614</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>-0.9371036020936711</v>
+      </c>
+      <c r="J15">
+        <v>-0.01952299171028481</v>
+      </c>
+      <c r="L15">
+        <v>-125.8830236020936</v>
+      </c>
+      <c r="M15">
+        <v>-2.622562991710284</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Demerger</t>
+        </is>
+      </c>
+      <c r="Q15" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SNRE US</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sunrise</t>
+        </is>
+      </c>
+      <c r="D16" s="2">
+        <v>45614</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Russell 1000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>-124.94592</v>
+      </c>
+      <c r="J16">
+        <v>-2.60304</v>
+      </c>
+      <c r="L16">
+        <v>-125.8830236020936</v>
+      </c>
+      <c r="M16">
+        <v>-2.622562991710284</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Nationality Change</t>
+        </is>
+      </c>
+      <c r="Q16" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NVEI CN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Nuvei Corp-Subordinate Vtg</t>
+        </is>
+      </c>
+      <c r="D17" s="2">
+        <v>45614</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>-60.13673185905345</v>
+      </c>
+      <c r="J17">
+        <v>-1.770720509793036</v>
+      </c>
+      <c r="K17">
+        <v>-19.15479004608299</v>
+      </c>
+      <c r="L17">
+        <v>-60.13673185905345</v>
+      </c>
+      <c r="M17">
+        <v>-1.770720509793036</v>
+      </c>
+      <c r="N17">
+        <v>-19.15479004608299</v>
+      </c>
+      <c r="O17" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q17" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PNBHOUSI IN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pnb Housing Finance Ltd</t>
+        </is>
+      </c>
+      <c r="D18" s="2">
+        <v>45615</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>FTSE EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>9.021053075999466</v>
+      </c>
+      <c r="J18">
+        <v>0.8427999999999503</v>
+      </c>
+      <c r="K18">
+        <v>0.254413138198723</v>
+      </c>
+      <c r="L18">
+        <v>9.021053075999466</v>
+      </c>
+      <c r="M18">
+        <v>0.8427999999999503</v>
+      </c>
+      <c r="N18">
+        <v>0.254413138198723</v>
+      </c>
+      <c r="O18" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Secondary Offering</t>
+        </is>
+      </c>
+      <c r="Q18" s="2">
+        <v>45611</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>STC AB</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Saudi Telecom Co</t>
+        </is>
+      </c>
+      <c r="D19" s="2">
+        <v>45615</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I19">
+        <v>41.10013439999984</v>
+      </c>
+      <c r="J19">
+        <v>3.839999999999986</v>
+      </c>
+      <c r="K19">
+        <v>1.362084187444062</v>
+      </c>
+      <c r="L19">
+        <v>41.10013439999984</v>
+      </c>
+      <c r="M19">
+        <v>3.839999999999986</v>
+      </c>
+      <c r="N19">
+        <v>1.362084187444062</v>
+      </c>
+      <c r="O19" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Secondary Placing</t>
+        </is>
+      </c>
+      <c r="Q19" s="2">
+        <v>45611</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ANG SJ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Anglogold Ashanti</t>
+        </is>
+      </c>
+      <c r="D20" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>0.0002609298317320255</v>
+      </c>
+      <c r="I20">
+        <v>169.2567887469962</v>
+      </c>
+      <c r="J20">
+        <v>6.517444245722097</v>
+      </c>
+      <c r="K20">
+        <v>3.471595128764175</v>
+      </c>
+      <c r="L20">
+        <v>169.2567887469962</v>
+      </c>
+      <c r="M20">
+        <v>6.517444245722097</v>
+      </c>
+      <c r="N20">
+        <v>3.471595128764175</v>
+      </c>
+      <c r="O20" s="2">
+        <v>45602</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q20" s="2">
+        <v>45611</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CEY LN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Centamin</t>
+        </is>
+      </c>
+      <c r="D21" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>-0.000278655968179756</v>
+      </c>
+      <c r="I21">
+        <v>-45.0171034824237</v>
+      </c>
+      <c r="J21">
+        <v>-23.2216539</v>
+      </c>
+      <c r="K21">
+        <v>-1.690132056726749</v>
+      </c>
+      <c r="L21">
+        <v>-45.0171034824237</v>
+      </c>
+      <c r="M21">
+        <v>-23.2216539</v>
+      </c>
+      <c r="N21">
+        <v>-1.690132056726749</v>
+      </c>
+      <c r="O21" s="2">
+        <v>45602</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q21" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sunrise Communications</t>
+        </is>
+      </c>
+      <c r="D22" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SPI</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="J22">
+        <v>0.7177087420866</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.8921412291374</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>45608</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Spin-off from Liberty Global</t>
+        </is>
+      </c>
+      <c r="Q22" s="2">
+        <v>45611</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sunrise Communications</t>
+        </is>
+      </c>
+      <c r="D23" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SPI Extra</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="J23">
+        <v>1.1744324870508</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.8921412291374</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>45608</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Spin-off from Liberty Global</t>
+        </is>
+      </c>
+      <c r="Q23" s="2">
+        <v>45611</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2388 TT </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Via Tech</t>
+        </is>
+      </c>
+      <c r="D24" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>0.0001276412408384147</v>
+      </c>
+      <c r="I24">
+        <v>3.432143166841027</v>
+      </c>
+      <c r="J24">
+        <v>0.9975889070823539</v>
+      </c>
+      <c r="K24">
+        <v>0.05383183231447906</v>
+      </c>
+      <c r="L24">
+        <v>3.432143166841027</v>
+      </c>
+      <c r="M24">
+        <v>0.9975889070823539</v>
+      </c>
+      <c r="N24">
+        <v>0.05383183231447906</v>
+      </c>
+      <c r="O24" s="2">
+        <v>45604</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q24" s="2">
+        <v>45611</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>XTB PW</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Xtb</t>
+        </is>
+      </c>
+      <c r="D25" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>0.0001518310377102649</v>
+      </c>
+      <c r="I25">
+        <v>3.388291589118158</v>
+      </c>
+      <c r="J25">
+        <v>0.1998002036101965</v>
+      </c>
+      <c r="K25">
+        <v>0.7222565165155334</v>
+      </c>
+      <c r="L25">
+        <v>3.388291589118158</v>
+      </c>
+      <c r="M25">
+        <v>0.1998002036101965</v>
+      </c>
+      <c r="N25">
+        <v>0.7222565165155334</v>
+      </c>
+      <c r="O25" s="2">
+        <v>45608</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q25" s="2">
+        <v>45611</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUNRISE A</t>
+        </is>
+      </c>
+      <c r="D26" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="J26">
+        <v>1.1619372024</v>
+      </c>
+      <c r="M26">
+        <v>0.2977813214999999</v>
+      </c>
+      <c r="O26" s="2">
+        <v>45596</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Spin-off from Liberty Global</t>
+        </is>
+      </c>
+      <c r="Q26" s="2">
+        <v>45611</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUNRISE A</t>
+        </is>
+      </c>
+      <c r="D27" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J27">
+        <v>-0.8641558809</v>
+      </c>
+      <c r="M27">
+        <v>0.2977813214999999</v>
+      </c>
+      <c r="O27" s="2">
+        <v>45596</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Spin-off from Liberty Global</t>
+        </is>
+      </c>
+      <c r="Q27" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ETNB US</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>89Bio</t>
+        </is>
+      </c>
+      <c r="D28" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>1.162856760642005e-05</v>
+      </c>
+      <c r="I28">
+        <v>1.24425825573269</v>
+      </c>
+      <c r="J28">
+        <v>0.1395690696278958</v>
+      </c>
+      <c r="K28">
+        <v>0.1770807346297178</v>
+      </c>
+      <c r="L28">
+        <v>1.24425825573269</v>
+      </c>
+      <c r="M28">
+        <v>0.1395690696278958</v>
+      </c>
+      <c r="N28">
+        <v>0.1770807346297178</v>
+      </c>
+      <c r="O28" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q28" s="2">
+        <v>45611</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003850 KS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Boryung</t>
+        </is>
+      </c>
+      <c r="D29" s="2">
+        <v>45625</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>-3.112251325577096e-06</v>
+      </c>
+      <c r="I29">
+        <v>-0.08117514757608446</v>
+      </c>
+      <c r="J29">
+        <v>-0.01079752455409766</v>
+      </c>
+      <c r="K29">
+        <v>-0.03062579309660501</v>
+      </c>
+      <c r="L29">
+        <v>-0.08117514757608446</v>
+      </c>
+      <c r="M29">
+        <v>-0.01079752455409766</v>
+      </c>
+      <c r="N29">
+        <v>-0.03062579309660501</v>
+      </c>
+      <c r="O29" s="2">
+        <v>45609</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q29" s="2">
+        <v>45611</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D30" s="2">
+        <v>45631</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>45590</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Demerger</t>
+        </is>
+      </c>
+      <c r="Q30" s="2">
+        <v>45594</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D31" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45580</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q31" s="2">
+        <v>45595</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D32" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>KOSDAQ150</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J32">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="M32">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O32" s="2">
+        <v>45588</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Spin-Off by Jusung Engineering</t>
+        </is>
+      </c>
+      <c r="Q32" s="2">
+        <v>45595</v>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Canal+</t>
+        </is>
+      </c>
+      <c r="D33" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J33">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M33">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O33" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q33" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Louis Hachette</t>
+        </is>
+      </c>
+      <c r="D34" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J34">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M34">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O34" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q34" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Havas</t>
         </is>
       </c>
-      <c r="D11" s="2">
+      <c r="D35" s="2">
         <v>45642</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>CAC 40</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Spin-off Delete</t>
         </is>
       </c>
-      <c r="J11">
+      <c r="J35">
         <v>-12.976968375</v>
       </c>
-      <c r="M11">
+      <c r="M35">
         <v>-12.976968375</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O35" s="2">
         <v>45600</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>Spin-off from Vivendi</t>
         </is>
       </c>
-      <c r="Q11" s="2">
-        <v>45604</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="Q35" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GS P&amp;L</t>
+        </is>
+      </c>
+      <c r="D36" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J36">
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>45609</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Spin off by GS Retail</t>
+        </is>
+      </c>
+      <c r="Q36" s="2">
+        <v>45611</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,11 +511,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zhejiang Century A(Hk-C)</t>
+          <t>Zhejiang Century Huatong -A</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -532,33 +532,30 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H2">
-        <v>-3.773764333230997e-05</v>
-      </c>
       <c r="I2">
-        <v>-24.24951978025897</v>
+        <v>-12.08841762127799</v>
       </c>
       <c r="J2">
-        <v>-35.7722734464</v>
+        <v>-20.032473129984</v>
       </c>
       <c r="K2">
-        <v>-0.1321833342314972</v>
+        <v>-0.08270615620320332</v>
       </c>
       <c r="L2">
-        <v>-24.24951978025897</v>
+        <v>-12.08841762127799</v>
       </c>
       <c r="M2">
-        <v>-35.7722734464</v>
+        <v>-20.032473129984</v>
       </c>
       <c r="N2">
-        <v>-0.1321833342314972</v>
+        <v>-0.08270615620320332</v>
       </c>
       <c r="O2" s="2">
-        <v>45604</v>
+        <v>45610</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ineligible</t>
+          <t>Removal from Stock Connect Scheme Buy-and-Sell List</t>
         </is>
       </c>
       <c r="Q2" s="2">
@@ -578,16 +575,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>APPS SM</t>
+          <t>BMPS IM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Applus Services Sa</t>
+          <t>Banca Monte Dei Paschi Siena</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -601,57 +598,62 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I3">
-        <v>-4.056557970056359</v>
+        <v>18.05488251393627</v>
       </c>
       <c r="J3">
-        <v>-0.3049376392125</v>
+        <v>2.778299991557525</v>
       </c>
       <c r="K3">
-        <v>-4.528039332393387</v>
+        <v>0.1037898632220294</v>
       </c>
       <c r="L3">
-        <v>-4.056557970056359</v>
+        <v>28.37195823618558</v>
       </c>
       <c r="M3">
-        <v>-0.3049376392125</v>
+        <v>4.365899986733255</v>
       </c>
       <c r="N3">
-        <v>-4.528039332393387</v>
+        <v>0.1630983564917605</v>
       </c>
       <c r="O3" s="2">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Secondary Placing</t>
         </is>
       </c>
       <c r="Q3" s="2">
         <v>45611</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DLTR US</t>
+          <t>BMPS IM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dollar Tree Inc</t>
+          <t>Banca Monte Dei Paschi Siena</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -660,62 +662,67 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NDX</t>
+          <t>FTSE MIB</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I4">
-        <v>-311.0812402716913</v>
+        <v>10.31707572224931</v>
       </c>
       <c r="J4">
-        <v>-5.065644687700559</v>
+        <v>1.58759999517573</v>
       </c>
       <c r="K4">
-        <v>-1.154870988989897</v>
+        <v>0.0593084932697311</v>
       </c>
       <c r="L4">
-        <v>-311.0812402716913</v>
+        <v>28.37195823618558</v>
       </c>
       <c r="M4">
-        <v>-5.065644687700559</v>
+        <v>4.365899986733255</v>
       </c>
       <c r="N4">
-        <v>-1.154870988989897</v>
+        <v>0.1630983564917605</v>
       </c>
       <c r="O4" s="2">
-        <v>45604</v>
+        <v>45610</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ineligible</t>
+          <t>Secondary Placing</t>
         </is>
       </c>
       <c r="Q4" s="2">
         <v>45611</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>APP US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Applovin Co-Cl A</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -724,7 +731,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NDX</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -732,30 +739,24 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="I5">
-        <v>2021.084703347148</v>
-      </c>
       <c r="J5">
-        <v>6.969017286807862</v>
-      </c>
-      <c r="K5">
-        <v>1.392044608998103</v>
+        <v>2.049914129579906</v>
       </c>
       <c r="L5">
-        <v>2021.084703347148</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>6.969017286807862</v>
+        <v>2.049914129579906</v>
       </c>
       <c r="N5">
-        <v>1.392044608998103</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>45604</v>
+        <v>45610</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Replacing DLTR</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q5" s="2">
@@ -770,16 +771,16 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>CWAN US</t>
+          <t>SNRE US</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Clearwater An-A</t>
+          <t>Sunrise Communicat-Cl A</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -788,44 +789,41 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I6">
-        <v>69.97735490641561</v>
+        <v>-0.9371036020936711</v>
       </c>
       <c r="J6">
-        <v>2.298106893478345</v>
-      </c>
-      <c r="K6">
-        <v>1.040403462860488</v>
+        <v>-0.01952299171028481</v>
       </c>
       <c r="L6">
-        <v>84.35968708065113</v>
+        <v>-125.8830236020936</v>
       </c>
       <c r="M6">
-        <v>2.773555890973734</v>
+        <v>-2.622562991710284</v>
       </c>
       <c r="N6">
-        <v>1.255649666077367</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q6" s="2">
         <v>45611</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -834,16 +832,16 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>CWAN US</t>
+          <t>SNRE US</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Clearwater Analytics</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -852,47 +850,41 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>0.0001334376637804495</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I7">
-        <v>14.38233217423551</v>
+        <v>-124.94592</v>
       </c>
       <c r="J7">
-        <v>0.4754489974953889</v>
-      </c>
-      <c r="K7">
-        <v>0.2152462032168788</v>
+        <v>-2.60304</v>
       </c>
       <c r="L7">
-        <v>84.35968708065113</v>
+        <v>-125.8830236020936</v>
       </c>
       <c r="M7">
-        <v>2.773555890973734</v>
+        <v>-2.622562991710284</v>
       </c>
       <c r="N7">
-        <v>1.255649666077367</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Nationality Change</t>
         </is>
       </c>
       <c r="Q7" s="2">
         <v>45611</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -906,11 +898,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nuvei Corporation Sv</t>
+          <t>Nuvei Corp-Subordinate Vtg</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -919,7 +911,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -927,29 +919,26 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H8">
-        <v>-0.0002621934081127334</v>
-      </c>
       <c r="I8">
-        <v>-30.44603172960441</v>
+        <v>-60.13673185905345</v>
       </c>
       <c r="J8">
-        <v>-0.8953435400000002</v>
+        <v>-1.770720509793036</v>
       </c>
       <c r="K8">
-        <v>-11.12910262378241</v>
+        <v>-19.15479004608299</v>
       </c>
       <c r="L8">
-        <v>-148.8050038456044</v>
+        <v>-60.13673185905345</v>
       </c>
       <c r="M8">
-        <v>-4.37574354</v>
+        <v>-1.770720509793036</v>
       </c>
       <c r="N8">
-        <v>-54.39040629255327</v>
+        <v>-19.15479004608299</v>
       </c>
       <c r="O8" s="2">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -966,18 +955,23 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TWKS US</t>
+          <t>PNBHOUSI IN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thoughtworks Holding</t>
+          <t>Pnb Housing Finance Ltd</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45611</v>
+        <v>45615</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -986,65 +980,67 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>-6.090897706947952e-05</v>
+          <t>F Inc</t>
+        </is>
       </c>
       <c r="I9">
-        <v>-6.567582687393</v>
+        <v>9.021053075999466</v>
       </c>
       <c r="J9">
-        <v>-1.4692578719</v>
+        <v>0.8427999999999503</v>
       </c>
       <c r="K9">
-        <v>-0.2149828719743435</v>
+        <v>0.254413138198723</v>
       </c>
       <c r="L9">
-        <v>-6.567582687393</v>
+        <v>9.021053075999466</v>
       </c>
       <c r="M9">
-        <v>-1.4692578719</v>
+        <v>0.8427999999999503</v>
       </c>
       <c r="N9">
-        <v>-0.2149828719743435</v>
+        <v>0.254413138198723</v>
       </c>
       <c r="O9" s="2">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q9" s="2">
         <v>45611</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NVEI CN</t>
+          <t>STC AB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nuvei Corporation Sv</t>
+          <t>Saudi Telecom Co</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45611</v>
+        <v>45615</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1053,47 +1049,44 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>S&amp;P TSX Composite</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>-0.0008444151884771946</v>
+          <t>F Inc</t>
+        </is>
       </c>
       <c r="I10">
-        <v>-118.358972116</v>
+        <v>41.10013439999984</v>
       </c>
       <c r="J10">
-        <v>-3.4804</v>
+        <v>3.839999999999986</v>
       </c>
       <c r="K10">
-        <v>-43.26130366877086</v>
+        <v>1.362084187444062</v>
       </c>
       <c r="L10">
-        <v>-148.8050038456044</v>
+        <v>41.10013439999984</v>
       </c>
       <c r="M10">
-        <v>-4.37574354</v>
+        <v>3.839999999999986</v>
       </c>
       <c r="N10">
-        <v>-54.39040629255327</v>
+        <v>1.362084187444062</v>
       </c>
       <c r="O10" s="2">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Placing</t>
         </is>
       </c>
       <c r="Q10" s="2">
         <v>45611</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1102,67 +1095,70 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002602 C2</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Zhejiang Century Huatong -A</t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>0.0002609298317320255</v>
       </c>
       <c r="I11">
-        <v>-12.08841762127799</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="J11">
-        <v>-20.032473129984</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="K11">
-        <v>-0.08270615620320332</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="L11">
-        <v>-12.08841762127799</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="M11">
-        <v>-20.032473129984</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="N11">
-        <v>-0.08270615620320332</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="O11" s="2">
-        <v>45610</v>
+        <v>45602</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Removal from Stock Connect Scheme Buy-and-Sell List</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q11" s="2">
         <v>45611</v>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1176,62 +1172,65 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BMPS IM</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Banca Monte Dei Paschi Siena</t>
+          <t>Centamin</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>-0.000278655968179756</v>
       </c>
       <c r="I12">
-        <v>18.05488251393627</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="J12">
-        <v>2.778299991557525</v>
+        <v>-23.2216539</v>
       </c>
       <c r="K12">
-        <v>0.1037898632220294</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="L12">
-        <v>28.37195823618558</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="M12">
-        <v>4.365899986733255</v>
+        <v>-23.2216539</v>
       </c>
       <c r="N12">
-        <v>0.1630983564917605</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="O12" s="2">
-        <v>45610</v>
+        <v>45602</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Secondary Placing</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q12" s="2">
         <v>45611</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1245,16 +1244,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BMPS IM</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Banca Monte Dei Paschi Siena</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1263,44 +1262,43 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FTSE MIB</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I13">
-        <v>10.31707572224931</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J13">
-        <v>1.58759999517573</v>
-      </c>
-      <c r="K13">
-        <v>0.0593084932697311</v>
+        <v>0.7177087420866</v>
       </c>
       <c r="L13">
-        <v>28.37195823618558</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>4.365899986733255</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N13">
-        <v>0.1630983564917605</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Secondary Placing</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q13" s="2">
         <v>45611</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1319,11 +1317,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1332,7 +1330,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1341,23 +1339,23 @@
         </is>
       </c>
       <c r="J14">
-        <v>2.049914129579906</v>
+        <v>1.1744324870508</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.049914129579906</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q14" s="2">
@@ -1368,20 +1366,30 @@
           <t>TRUE</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SNRE US</t>
+          <t xml:space="preserve">2388 TT </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sunrise Communicat-Cl A</t>
+          <t>Via Tech</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45614</v>
+        <v>45621</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1390,59 +1398,75 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>0.0001276412408384147</v>
       </c>
       <c r="I15">
-        <v>-0.9371036020936711</v>
+        <v>3.432143166841027</v>
       </c>
       <c r="J15">
-        <v>-0.01952299171028481</v>
+        <v>0.9975889070823539</v>
+      </c>
+      <c r="K15">
+        <v>0.05383183231447906</v>
       </c>
       <c r="L15">
-        <v>-125.8830236020936</v>
+        <v>3.432143166841027</v>
       </c>
       <c r="M15">
-        <v>-2.622562991710284</v>
+        <v>0.9975889070823539</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05383183231447906</v>
       </c>
       <c r="O15" s="2">
-        <v>45610</v>
+        <v>45604</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q15" s="2">
         <v>45611</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SNRE US</t>
+          <t>XTB PW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Xtb</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45614</v>
+        <v>45621</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1451,59 +1475,70 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>0.0001518310377102649</v>
       </c>
       <c r="I16">
-        <v>-124.94592</v>
+        <v>3.388291589118158</v>
       </c>
       <c r="J16">
-        <v>-2.60304</v>
+        <v>0.1998002036101965</v>
+      </c>
+      <c r="K16">
+        <v>0.7222565165155334</v>
       </c>
       <c r="L16">
-        <v>-125.8830236020936</v>
+        <v>3.388291589118158</v>
       </c>
       <c r="M16">
-        <v>-2.622562991710284</v>
+        <v>0.1998002036101965</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.7222565165155334</v>
       </c>
       <c r="O16" s="2">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Nationality Change</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q16" s="2">
         <v>45611</v>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NVEI CN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nuvei Corp-Subordinate Vtg</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45614</v>
+        <v>45621</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1512,44 +1547,37 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I17">
-        <v>-60.13673185905345</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J17">
-        <v>-1.770720509793036</v>
-      </c>
-      <c r="K17">
-        <v>-19.15479004608299</v>
-      </c>
-      <c r="L17">
-        <v>-60.13673185905345</v>
+        <v>1.1619372024</v>
       </c>
       <c r="M17">
-        <v>-1.770720509793036</v>
-      </c>
-      <c r="N17">
-        <v>-19.15479004608299</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O17" s="2">
-        <v>45610</v>
+        <v>45596</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q17" s="2">
         <v>45611</v>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1558,21 +1586,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PNBHOUSI IN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pnb Housing Finance Ltd</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45615</v>
+        <v>45621</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1581,67 +1609,55 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I18">
-        <v>9.021053075999466</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J18">
-        <v>0.8427999999999503</v>
-      </c>
-      <c r="K18">
-        <v>0.254413138198723</v>
-      </c>
-      <c r="L18">
-        <v>9.021053075999466</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M18">
-        <v>0.8427999999999503</v>
-      </c>
-      <c r="N18">
-        <v>0.254413138198723</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O18" s="2">
-        <v>45610</v>
+        <v>45596</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q18" s="2">
         <v>45611</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>STC AB</t>
+          <t>ETNB US</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Saudi Telecom Co</t>
+          <t>89Bio</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45615</v>
+        <v>45621</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1650,44 +1666,52 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>1.162856760642005e-05</v>
       </c>
       <c r="I19">
-        <v>41.10013439999984</v>
+        <v>1.24425825573269</v>
       </c>
       <c r="J19">
-        <v>3.839999999999986</v>
+        <v>0.1395690696278958</v>
       </c>
       <c r="K19">
-        <v>1.362084187444062</v>
+        <v>0.1770807346297178</v>
       </c>
       <c r="L19">
-        <v>41.10013439999984</v>
+        <v>1.24425825573269</v>
       </c>
       <c r="M19">
-        <v>3.839999999999986</v>
+        <v>0.1395690696278958</v>
       </c>
       <c r="N19">
-        <v>1.362084187444062</v>
+        <v>0.1770807346297178</v>
       </c>
       <c r="O19" s="2">
         <v>45610</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Secondary Placing</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q19" s="2">
         <v>45611</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1696,21 +1720,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>003850 KS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Boryung</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45617</v>
+        <v>45625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1719,41 +1743,41 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="H20">
-        <v>0.0002609298317320255</v>
+        <v>-3.112251325577096e-06</v>
       </c>
       <c r="I20">
-        <v>169.2567887469962</v>
+        <v>-0.08117514757608446</v>
       </c>
       <c r="J20">
-        <v>6.517444245722097</v>
+        <v>-0.01079752455409766</v>
       </c>
       <c r="K20">
-        <v>3.471595128764175</v>
+        <v>-0.03062579309660501</v>
       </c>
       <c r="L20">
-        <v>169.2567887469962</v>
+        <v>-0.08117514757608446</v>
       </c>
       <c r="M20">
-        <v>6.517444245722097</v>
+        <v>-0.01079752455409766</v>
       </c>
       <c r="N20">
-        <v>3.471595128764175</v>
+        <v>-0.03062579309660501</v>
       </c>
       <c r="O20" s="2">
-        <v>45602</v>
+        <v>45609</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q20" s="2">
@@ -1764,74 +1788,67 @@
           <t>TRUE</t>
         </is>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45617</v>
+        <v>45631</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H21">
-        <v>-0.000278655968179756</v>
-      </c>
-      <c r="I21">
-        <v>-45.0171034824237</v>
-      </c>
-      <c r="J21">
-        <v>-23.2216539</v>
-      </c>
-      <c r="K21">
-        <v>-1.690132056726749</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L21">
-        <v>-45.0171034824237</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>-23.2216539</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>-1.690132056726749</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>45602</v>
+        <v>45590</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W21" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="V21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1840,7 +1857,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1850,11 +1867,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sunrise Communications</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D22" s="2">
-        <v>45617</v>
+        <v>45632</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1863,7 +1880,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1871,28 +1888,19 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="J22">
-        <v>0.7177087420866</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
       <c r="M22">
-        <v>1.8921412291374</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O22" s="2">
-        <v>45608</v>
+        <v>45580</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45611</v>
+        <v>45595</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -1908,7 +1916,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1918,11 +1926,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sunrise Communications</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D23" s="2">
-        <v>45617</v>
+        <v>45632</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1931,38 +1939,32 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="J23">
-        <v>1.1744324870508</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M23">
-        <v>1.8921412291374</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O23" s="2">
-        <v>45608</v>
+        <v>45588</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45611</v>
-      </c>
-      <c r="V23" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="W23" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1976,21 +1978,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">2388 TT </t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Via Tech</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D24" s="2">
-        <v>45621</v>
+        <v>45642</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1999,52 +2001,37 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H24">
-        <v>0.0001276412408384147</v>
-      </c>
-      <c r="I24">
-        <v>3.432143166841027</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J24">
-        <v>0.9975889070823539</v>
-      </c>
-      <c r="K24">
-        <v>0.05383183231447906</v>
-      </c>
-      <c r="L24">
-        <v>3.432143166841027</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M24">
-        <v>0.9975889070823539</v>
-      </c>
-      <c r="N24">
-        <v>0.05383183231447906</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O24" s="2">
-        <v>45604</v>
+        <v>45600</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q24" s="2">
         <v>45611</v>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2058,16 +2045,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>XTB PW</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Xtb</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D25" s="2">
-        <v>45621</v>
+        <v>45642</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2076,47 +2063,37 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H25">
-        <v>0.0001518310377102649</v>
-      </c>
-      <c r="I25">
-        <v>3.388291589118158</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J25">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="K25">
-        <v>0.7222565165155334</v>
-      </c>
-      <c r="L25">
-        <v>3.388291589118158</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M25">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="N25">
-        <v>0.7222565165155334</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O25" s="2">
-        <v>45608</v>
+        <v>45600</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q25" s="2">
         <v>45611</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2135,11 +2112,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D26" s="2">
-        <v>45621</v>
+        <v>45642</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2148,32 +2125,32 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Spin-off Delete</t>
         </is>
       </c>
       <c r="J26">
-        <v>1.1619372024</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M26">
-        <v>0.2977813214999999</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O26" s="2">
-        <v>45596</v>
+        <v>45600</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q26" s="2">
         <v>45611</v>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2187,7 +2164,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2197,39 +2174,45 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>GS P&amp;L</t>
         </is>
       </c>
       <c r="D27" s="2">
-        <v>45621</v>
+        <v>45646</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="J27">
-        <v>-0.8641558809</v>
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.2977813214999999</v>
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>45596</v>
+        <v>45609</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Spin off by GS Retail</t>
         </is>
       </c>
       <c r="Q27" s="2">
@@ -2241,590 +2224,6 @@
         </is>
       </c>
       <c r="X27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ETNB US</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>89Bio</t>
-        </is>
-      </c>
-      <c r="D28" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H28">
-        <v>1.162856760642005e-05</v>
-      </c>
-      <c r="I28">
-        <v>1.24425825573269</v>
-      </c>
-      <c r="J28">
-        <v>0.1395690696278958</v>
-      </c>
-      <c r="K28">
-        <v>0.1770807346297178</v>
-      </c>
-      <c r="L28">
-        <v>1.24425825573269</v>
-      </c>
-      <c r="M28">
-        <v>0.1395690696278958</v>
-      </c>
-      <c r="N28">
-        <v>0.1770807346297178</v>
-      </c>
-      <c r="O28" s="2">
-        <v>45610</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Public Offering</t>
-        </is>
-      </c>
-      <c r="Q28" s="2">
-        <v>45611</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003850 KS</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Boryung</t>
-        </is>
-      </c>
-      <c r="D29" s="2">
-        <v>45625</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H29">
-        <v>-3.112251325577096e-06</v>
-      </c>
-      <c r="I29">
-        <v>-0.08117514757608446</v>
-      </c>
-      <c r="J29">
-        <v>-0.01079752455409766</v>
-      </c>
-      <c r="K29">
-        <v>-0.03062579309660501</v>
-      </c>
-      <c r="L29">
-        <v>-0.08117514757608446</v>
-      </c>
-      <c r="M29">
-        <v>-0.01079752455409766</v>
-      </c>
-      <c r="N29">
-        <v>-0.03062579309660501</v>
-      </c>
-      <c r="O29" s="2">
-        <v>45609</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
-      <c r="Q29" s="2">
-        <v>45611</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D30" s="2">
-        <v>45631</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>45590</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Demerger</t>
-        </is>
-      </c>
-      <c r="Q30" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D31" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="M31">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O31" s="2">
-        <v>45580</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
-      <c r="Q31" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D32" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>KOSDAQ150</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J32">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="M32">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O32" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Spin-Off by Jusung Engineering</t>
-        </is>
-      </c>
-      <c r="Q32" s="2">
-        <v>45595</v>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Canal+</t>
-        </is>
-      </c>
-      <c r="D33" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J33">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M33">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O33" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q33" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Louis Hachette</t>
-        </is>
-      </c>
-      <c r="D34" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J34">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M34">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O34" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q34" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Havas</t>
-        </is>
-      </c>
-      <c r="D35" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J35">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M35">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O35" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
-      <c r="Q35" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>GS P&amp;L</t>
-        </is>
-      </c>
-      <c r="D36" s="2">
-        <v>45646</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J36">
-        <v>-0.158686858219997</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>-0.158686858219997</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>45609</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Spin off by GS Retail</t>
-        </is>
-      </c>
-      <c r="Q36" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -946,147 +946,137 @@
         </is>
       </c>
       <c r="Q8" s="2">
+        <v>45614</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RCM US</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R1 Rcm Inc</t>
+        </is>
+      </c>
+      <c r="D9" s="2">
+        <v>45614</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Russell 1000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I9">
+        <v>-79.93601603230908</v>
+      </c>
+      <c r="J9">
+        <v>-5.589931191070565</v>
+      </c>
+      <c r="K9">
+        <v>-2.889307256060158</v>
+      </c>
+      <c r="L9">
+        <v>-79.93601603230908</v>
+      </c>
+      <c r="M9">
+        <v>-5.589931191070565</v>
+      </c>
+      <c r="N9">
+        <v>-2.889307256060158</v>
+      </c>
+      <c r="O9" s="2">
         <v>45611</v>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PNBHOUSI IN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Pnb Housing Finance Ltd</t>
-        </is>
-      </c>
-      <c r="D9" s="2">
-        <v>45615</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>FTSE EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>9.021053075999466</v>
-      </c>
-      <c r="J9">
-        <v>0.8427999999999503</v>
-      </c>
-      <c r="K9">
-        <v>0.254413138198723</v>
-      </c>
-      <c r="L9">
-        <v>9.021053075999466</v>
-      </c>
-      <c r="M9">
-        <v>0.8427999999999503</v>
-      </c>
-      <c r="N9">
-        <v>0.254413138198723</v>
-      </c>
-      <c r="O9" s="2">
-        <v>45610</v>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q9" s="2">
+        <v>45614</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ASB US</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Assoc Banc-Corp (FN)</t>
+        </is>
+      </c>
+      <c r="D10" s="2">
+        <v>45614</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I10">
+        <v>32.20412503463848</v>
+      </c>
+      <c r="J10">
+        <v>1.210681392279642</v>
+      </c>
+      <c r="K10">
+        <v>0.7047753849205711</v>
+      </c>
+      <c r="L10">
+        <v>32.20412503463848</v>
+      </c>
+      <c r="M10">
+        <v>1.210681392279642</v>
+      </c>
+      <c r="N10">
+        <v>0.7047753849205711</v>
+      </c>
+      <c r="O10" s="2">
         <v>45611</v>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>STC AB</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Saudi Telecom Co</t>
-        </is>
-      </c>
-      <c r="D10" s="2">
-        <v>45615</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>FTSE EM</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I10">
-        <v>41.10013439999984</v>
-      </c>
-      <c r="J10">
-        <v>3.839999999999986</v>
-      </c>
-      <c r="K10">
-        <v>1.362084187444062</v>
-      </c>
-      <c r="L10">
-        <v>41.10013439999984</v>
-      </c>
-      <c r="M10">
-        <v>3.839999999999986</v>
-      </c>
-      <c r="N10">
-        <v>1.362084187444062</v>
-      </c>
-      <c r="O10" s="2">
-        <v>45610</v>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Secondary Placing</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45611</v>
-      </c>
-      <c r="T10" t="inlineStr">
+        <v>45614</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1095,70 +1085,67 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>PNBHOUSI IN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Pnb Housing Finance Ltd</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>0.0002609298317320255</v>
+          <t>F Inc</t>
+        </is>
       </c>
       <c r="I11">
-        <v>169.2567887469962</v>
+        <v>9.021053075999466</v>
       </c>
       <c r="J11">
-        <v>6.517444245722097</v>
+        <v>0.8427999999999503</v>
       </c>
       <c r="K11">
-        <v>3.471595128764175</v>
+        <v>0.254413138198723</v>
       </c>
       <c r="L11">
-        <v>169.2567887469962</v>
+        <v>9.021053075999466</v>
       </c>
       <c r="M11">
-        <v>6.517444245722097</v>
+        <v>0.8427999999999503</v>
       </c>
       <c r="N11">
-        <v>3.471595128764175</v>
+        <v>0.254413138198723</v>
       </c>
       <c r="O11" s="2">
-        <v>45602</v>
+        <v>45610</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45611</v>
-      </c>
-      <c r="R11" t="inlineStr">
+        <v>45614</v>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1167,60 +1154,60 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>096770 KS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t>Sk Innovation</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>KOSPI2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc&amp;F Dec</t>
         </is>
       </c>
       <c r="H12">
-        <v>-0.000278655968179756</v>
+        <v>0.0007256730719430188</v>
       </c>
       <c r="I12">
-        <v>-45.0171034824237</v>
+        <v>10.23798819209969</v>
       </c>
       <c r="J12">
-        <v>-23.2216539</v>
+        <v>0.1489206469740735</v>
       </c>
       <c r="K12">
-        <v>-1.690132056726749</v>
+        <v>0.5211770001867911</v>
       </c>
       <c r="L12">
-        <v>-45.0171034824237</v>
+        <v>10.23798819209969</v>
       </c>
       <c r="M12">
-        <v>-23.2216539</v>
+        <v>0.1489206469740735</v>
       </c>
       <c r="N12">
-        <v>-1.690132056726749</v>
+        <v>0.5211770001867911</v>
       </c>
       <c r="O12" s="2">
-        <v>45602</v>
+        <v>45611</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1228,12 +1215,7 @@
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+        <v>45614</v>
       </c>
     </row>
     <row r="13">
@@ -1244,16 +1226,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>STC AB</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sunrise Communications</t>
+          <t>Saudi Telecom Co</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1262,66 +1244,62 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>41.10013439999984</v>
       </c>
       <c r="J13">
-        <v>0.7177087420866</v>
+        <v>3.839999999999986</v>
+      </c>
+      <c r="K13">
+        <v>1.362084187444062</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>41.10013439999984</v>
       </c>
       <c r="M13">
-        <v>1.8921412291374</v>
+        <v>3.839999999999986</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.362084187444062</v>
       </c>
       <c r="O13" s="2">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Secondary Placing</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45611</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+        <v>45614</v>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>AXNX US</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sunrise Communications</t>
+          <t>Axonics</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1330,254 +1308,230 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="J14">
-        <v>1.1744324870508</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>-0.0004434168860937395</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.8921412291374</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>45608</v>
+        <v>45611</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q14" s="2">
+        <v>45614</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ASB US</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Assoc Banc-Corp</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>45615</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>27.97680067447703</v>
+      </c>
+      <c r="J15">
+        <v>1.05175942385252</v>
+      </c>
+      <c r="K15">
+        <v>0.6122619522496829</v>
+      </c>
+      <c r="L15">
+        <v>27.97680067447703</v>
+      </c>
+      <c r="M15">
+        <v>1.05175942385252</v>
+      </c>
+      <c r="N15">
+        <v>0.6122619522496829</v>
+      </c>
+      <c r="O15" s="2">
         <v>45611</v>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2388 TT </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Via Tech</t>
-        </is>
-      </c>
-      <c r="D15" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H15">
-        <v>0.0001276412408384147</v>
-      </c>
-      <c r="I15">
-        <v>3.432143166841027</v>
-      </c>
-      <c r="J15">
-        <v>0.9975889070823539</v>
-      </c>
-      <c r="K15">
-        <v>0.05383183231447906</v>
-      </c>
-      <c r="L15">
-        <v>3.432143166841027</v>
-      </c>
-      <c r="M15">
-        <v>0.9975889070823539</v>
-      </c>
-      <c r="N15">
-        <v>0.05383183231447906</v>
-      </c>
-      <c r="O15" s="2">
-        <v>45604</v>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q15" s="2">
+        <v>45614</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FOUR US</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Shift4 Payment-A (FN)</t>
+        </is>
+      </c>
+      <c r="D16" s="2">
+        <v>45615</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>610.8764762170088</v>
+      </c>
+      <c r="J16">
+        <v>6.297046451056682</v>
+      </c>
+      <c r="K16">
+        <v>4.671618643127492</v>
+      </c>
+      <c r="L16">
+        <v>610.8764762170088</v>
+      </c>
+      <c r="M16">
+        <v>6.297046451056682</v>
+      </c>
+      <c r="N16">
+        <v>4.671618643127492</v>
+      </c>
+      <c r="O16" s="2">
         <v>45611</v>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>XTB PW</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Xtb</t>
-        </is>
-      </c>
-      <c r="D16" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H16">
-        <v>0.0001518310377102649</v>
-      </c>
-      <c r="I16">
-        <v>3.388291589118158</v>
-      </c>
-      <c r="J16">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="K16">
-        <v>0.7222565165155334</v>
-      </c>
-      <c r="L16">
-        <v>3.388291589118158</v>
-      </c>
-      <c r="M16">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="N16">
-        <v>0.7222565165155334</v>
-      </c>
-      <c r="O16" s="2">
-        <v>45608</v>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Replacing RCM</t>
         </is>
       </c>
       <c r="Q16" s="2">
+        <v>45614</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RCM US</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>R1 Rcm Inc (HC)</t>
+        </is>
+      </c>
+      <c r="D17" s="2">
+        <v>45615</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>-215.3867754627873</v>
+      </c>
+      <c r="J17">
+        <v>-15.06201227012498</v>
+      </c>
+      <c r="K17">
+        <v>-7.785208771881981</v>
+      </c>
+      <c r="L17">
+        <v>-215.3867754627873</v>
+      </c>
+      <c r="M17">
+        <v>-15.06201227012498</v>
+      </c>
+      <c r="N17">
+        <v>-7.785208771881981</v>
+      </c>
+      <c r="O17" s="2">
         <v>45611</v>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUNRISE A</t>
-        </is>
-      </c>
-      <c r="D17" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="J17">
-        <v>1.1619372024</v>
-      </c>
-      <c r="M17">
-        <v>0.2977813214999999</v>
-      </c>
-      <c r="O17" s="2">
-        <v>45596</v>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45611</v>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+        <v>45614</v>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1591,127 +1545,137 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45621</v>
+        <v>45617</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>0.0002609298317320255</v>
+      </c>
+      <c r="I18">
+        <v>169.2567887469962</v>
+      </c>
+      <c r="J18">
+        <v>6.517444245722097</v>
+      </c>
+      <c r="K18">
+        <v>3.471595128764175</v>
+      </c>
+      <c r="L18">
+        <v>169.2567887469962</v>
+      </c>
+      <c r="M18">
+        <v>6.517444245722097</v>
+      </c>
+      <c r="N18">
+        <v>3.471595128764175</v>
+      </c>
+      <c r="O18" s="2">
+        <v>45602</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q18" s="2">
+        <v>45614</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CEY LN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Centamin</t>
+        </is>
+      </c>
+      <c r="D19" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J18">
-        <v>-0.8641558809</v>
-      </c>
-      <c r="M18">
-        <v>0.2977813214999999</v>
-      </c>
-      <c r="O18" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Spin-off from Liberty Global</t>
-        </is>
-      </c>
-      <c r="Q18" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ETNB US</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>89Bio</t>
-        </is>
-      </c>
-      <c r="D19" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="H19">
-        <v>1.162856760642005e-05</v>
+        <v>-0.000278655968179756</v>
       </c>
       <c r="I19">
-        <v>1.24425825573269</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="J19">
-        <v>0.1395690696278958</v>
+        <v>-23.2216539</v>
       </c>
       <c r="K19">
-        <v>0.1770807346297178</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="L19">
-        <v>1.24425825573269</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="M19">
-        <v>0.1395690696278958</v>
+        <v>-23.2216539</v>
       </c>
       <c r="N19">
-        <v>0.1770807346297178</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="O19" s="2">
-        <v>45610</v>
+        <v>45602</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45611</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
+        <v>45614</v>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1720,75 +1684,66 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003850 KS</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Boryung</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45625</v>
+        <v>45617</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H20">
-        <v>-3.112251325577096e-06</v>
-      </c>
-      <c r="I20">
-        <v>-0.08117514757608446</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J20">
-        <v>-0.01079752455409766</v>
-      </c>
-      <c r="K20">
-        <v>-0.03062579309660501</v>
+        <v>0.7177087420866</v>
       </c>
       <c r="L20">
-        <v>-0.08117514757608446</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>-0.01079752455409766</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N20">
-        <v>-0.03062579309660501</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45611</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
+        <v>45614</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1797,7 +1752,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1807,11 +1762,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45631</v>
+        <v>45617</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1820,35 +1775,43 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>Add</t>
         </is>
+      </c>
+      <c r="J21">
+        <v>1.1744324870508</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>45590</v>
+        <v>45608</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45594</v>
+        <v>45614</v>
       </c>
       <c r="V21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1862,16 +1825,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t xml:space="preserve">2388 TT </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Via Tech</t>
         </is>
       </c>
       <c r="D22" s="2">
-        <v>45632</v>
+        <v>45621</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1885,29 +1848,47 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>0.0001276412408384147</v>
+      </c>
+      <c r="I22">
+        <v>3.432143166841027</v>
+      </c>
+      <c r="J22">
+        <v>0.9975889070823539</v>
+      </c>
+      <c r="K22">
+        <v>0.05383183231447906</v>
+      </c>
+      <c r="L22">
+        <v>3.432143166841027</v>
       </c>
       <c r="M22">
-        <v>-0.1196923767245363</v>
+        <v>0.9975889070823539</v>
+      </c>
+      <c r="N22">
+        <v>0.05383183231447906</v>
       </c>
       <c r="O22" s="2">
-        <v>45580</v>
+        <v>45604</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
+        <v>45614</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1916,21 +1897,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>XTB PW</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Xtb</t>
         </is>
       </c>
       <c r="D23" s="2">
-        <v>45632</v>
+        <v>45621</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1939,37 +1920,47 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>0.0001518310377102649</v>
+      </c>
+      <c r="I23">
+        <v>3.388291589118158</v>
       </c>
       <c r="J23">
-        <v>-0.1196923767245363</v>
+        <v>0.1998002036101965</v>
+      </c>
+      <c r="K23">
+        <v>0.7222565165155334</v>
+      </c>
+      <c r="L23">
+        <v>3.388291589118158</v>
       </c>
       <c r="M23">
-        <v>-0.1196923767245363</v>
+        <v>0.1998002036101965</v>
+      </c>
+      <c r="N23">
+        <v>0.7222565165155334</v>
       </c>
       <c r="O23" s="2">
-        <v>45588</v>
+        <v>45608</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Spin-Off by Jusung Engineering</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45595</v>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
+        <v>45614</v>
+      </c>
+      <c r="T23" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1988,11 +1979,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Canal+</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D24" s="2">
-        <v>45642</v>
+        <v>45621</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2001,32 +1992,32 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="J24">
-        <v>-12.976968375</v>
+        <v>1.1619372024</v>
       </c>
       <c r="M24">
-        <v>-12.976968375</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O24" s="2">
-        <v>45600</v>
+        <v>45596</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W24" t="inlineStr">
+        <v>45614</v>
+      </c>
+      <c r="V24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2050,11 +2041,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D25" s="2">
-        <v>45642</v>
+        <v>45621</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2063,7 +2054,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2072,21 +2063,21 @@
         </is>
       </c>
       <c r="J25">
-        <v>-12.976968375</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M25">
-        <v>-12.976968375</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O25" s="2">
-        <v>45600</v>
+        <v>45596</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2107,123 +2098,932 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>BMPS IM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Banca Monte Paschi</t>
+        </is>
+      </c>
+      <c r="D26" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>9.897477582510809e-05</v>
+      </c>
+      <c r="I26">
+        <v>19.1982292485658</v>
+      </c>
+      <c r="J26">
+        <v>3.016390385161618</v>
+      </c>
+      <c r="K26">
+        <v>0.1001432362650085</v>
+      </c>
+      <c r="L26">
+        <v>19.1982292485658</v>
+      </c>
+      <c r="M26">
+        <v>3.016390385161618</v>
+      </c>
+      <c r="N26">
+        <v>0.1001432362650085</v>
+      </c>
+      <c r="O26" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Block Sale</t>
+        </is>
+      </c>
+      <c r="Q26" s="2">
+        <v>45614</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ETNB US</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>89Bio</t>
+        </is>
+      </c>
+      <c r="D27" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H27">
+        <v>1.162856760642005e-05</v>
+      </c>
+      <c r="I27">
+        <v>1.24425825573269</v>
+      </c>
+      <c r="J27">
+        <v>0.1395690696278958</v>
+      </c>
+      <c r="K27">
+        <v>0.1770807346297178</v>
+      </c>
+      <c r="L27">
+        <v>1.24425825573269</v>
+      </c>
+      <c r="M27">
+        <v>0.1395690696278958</v>
+      </c>
+      <c r="N27">
+        <v>0.1770807346297178</v>
+      </c>
+      <c r="O27" s="2">
+        <v>45610</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q27" s="2">
+        <v>45614</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DCOM US</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Dime Community Bancshrs</t>
+        </is>
+      </c>
+      <c r="D28" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>2.634604040380311e-05</v>
+      </c>
+      <c r="I28">
+        <v>2.796844259431534</v>
+      </c>
+      <c r="J28">
+        <v>0.08299241125909596</v>
+      </c>
+      <c r="K28">
+        <v>0.2683319683415175</v>
+      </c>
+      <c r="L28">
+        <v>2.796844259431534</v>
+      </c>
+      <c r="M28">
+        <v>0.08299241125909596</v>
+      </c>
+      <c r="N28">
+        <v>0.2683319683415175</v>
+      </c>
+      <c r="O28" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q28" s="2">
+        <v>45614</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>OS US</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Onestream A</t>
+        </is>
+      </c>
+      <c r="D29" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>0.0001435012341539708</v>
+      </c>
+      <c r="I29">
+        <v>15.23404706116151</v>
+      </c>
+      <c r="J29">
+        <v>0.5056105894842852</v>
+      </c>
+      <c r="K29">
+        <v>0.5760133126058917</v>
+      </c>
+      <c r="L29">
+        <v>15.23404706116151</v>
+      </c>
+      <c r="M29">
+        <v>0.5056105894842852</v>
+      </c>
+      <c r="N29">
+        <v>0.5760133126058917</v>
+      </c>
+      <c r="O29" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q29" s="2">
+        <v>45614</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CON US</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Concentra Grp Hldgs</t>
+        </is>
+      </c>
+      <c r="D30" s="2">
+        <v>45622</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>0.0002227013059701727</v>
+      </c>
+      <c r="I30">
+        <v>23.64000774697608</v>
+      </c>
+      <c r="J30">
+        <v>1.151486008133272</v>
+      </c>
+      <c r="K30">
+        <v>3.701374768876201</v>
+      </c>
+      <c r="L30">
+        <v>23.64000774697608</v>
+      </c>
+      <c r="M30">
+        <v>1.151486008133272</v>
+      </c>
+      <c r="N30">
+        <v>3.701374768876201</v>
+      </c>
+      <c r="O30" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Spin-off from SEM US</t>
+        </is>
+      </c>
+      <c r="Q30" s="2">
+        <v>45614</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003850 KS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Boryung</t>
+        </is>
+      </c>
+      <c r="D31" s="2">
+        <v>45625</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>-3.112251325577096e-06</v>
+      </c>
+      <c r="I31">
+        <v>-0.08117514757608446</v>
+      </c>
+      <c r="J31">
+        <v>-0.01079752455409766</v>
+      </c>
+      <c r="K31">
+        <v>-0.03062579309660501</v>
+      </c>
+      <c r="L31">
+        <v>-0.08117514757608446</v>
+      </c>
+      <c r="M31">
+        <v>-0.01079752455409766</v>
+      </c>
+      <c r="N31">
+        <v>-0.03062579309660501</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45609</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q31" s="2">
+        <v>45614</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D32" s="2">
+        <v>45631</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>45590</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Demerger</t>
+        </is>
+      </c>
+      <c r="Q32" s="2">
+        <v>45594</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D33" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O33" s="2">
+        <v>45580</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q33" s="2">
+        <v>45595</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D34" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>KOSDAQ150</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J34">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="M34">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O34" s="2">
+        <v>45588</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Spin-Off by Jusung Engineering</t>
+        </is>
+      </c>
+      <c r="Q34" s="2">
+        <v>45595</v>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EQC US</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Equity Commonwealth</t>
+        </is>
+      </c>
+      <c r="D35" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H35">
+        <v>-0.0002638907874384385</v>
+      </c>
+      <c r="I35">
+        <v>-28.01682045864</v>
+      </c>
+      <c r="J35">
+        <v>-1.395259983</v>
+      </c>
+      <c r="K35">
+        <v>-0.5081628648052433</v>
+      </c>
+      <c r="L35">
+        <v>-28.01682045864</v>
+      </c>
+      <c r="M35">
+        <v>-1.395259983</v>
+      </c>
+      <c r="N35">
+        <v>-0.5081628648052433</v>
+      </c>
+      <c r="O35" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Liquidation</t>
+        </is>
+      </c>
+      <c r="Q35" s="2">
+        <v>45614</v>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Canal+</t>
+        </is>
+      </c>
+      <c r="D36" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J36">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M36">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O36" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q36" s="2">
+        <v>45614</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Louis Hachette</t>
+        </is>
+      </c>
+      <c r="D37" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J37">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M37">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O37" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q37" s="2">
+        <v>45614</v>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Havas</t>
         </is>
       </c>
-      <c r="D26" s="2">
+      <c r="D38" s="2">
         <v>45642</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>CAC 40</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Spin-off Delete</t>
         </is>
       </c>
-      <c r="J26">
+      <c r="J38">
         <v>-12.976968375</v>
       </c>
-      <c r="M26">
+      <c r="M38">
         <v>-12.976968375</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O38" s="2">
         <v>45600</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>Spin-off from Vivendi</t>
         </is>
       </c>
-      <c r="Q26" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="Q38" s="2">
+        <v>45614</v>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>GS P&amp;L</t>
         </is>
       </c>
-      <c r="D27" s="2">
+      <c r="D39" s="2">
         <v>45646</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>MSCI EM Small Cap</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="J27">
+      <c r="J39">
         <v>-0.158686858219997</v>
       </c>
-      <c r="L27">
+      <c r="L39">
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="M39">
         <v>-0.158686858219997</v>
       </c>
-      <c r="N27">
+      <c r="N39">
         <v>0</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O39" s="2">
         <v>45609</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>Spin off by GS Retail</t>
         </is>
       </c>
-      <c r="Q27" s="2">
-        <v>45611</v>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
+      <c r="Q39" s="2">
+        <v>45614</v>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +506,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002602 C2</t>
+          <t>PNBHOUSI IN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zhejiang Century Huatong -A</t>
+          <t>Pnb Housing Finance Ltd</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,44 +524,44 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I2">
-        <v>-12.08841762127799</v>
+        <v>9.021053075999466</v>
       </c>
       <c r="J2">
-        <v>-20.032473129984</v>
+        <v>0.8427999999999503</v>
       </c>
       <c r="K2">
-        <v>-0.08270615620320332</v>
+        <v>0.254413138198723</v>
       </c>
       <c r="L2">
-        <v>-12.08841762127799</v>
+        <v>9.021053075999466</v>
       </c>
       <c r="M2">
-        <v>-20.032473129984</v>
+        <v>0.8427999999999503</v>
       </c>
       <c r="N2">
-        <v>-0.08270615620320332</v>
+        <v>0.254413138198723</v>
       </c>
       <c r="O2" s="2">
         <v>45610</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Removal from Stock Connect Scheme Buy-and-Sell List</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45614</v>
-      </c>
-      <c r="W2" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -570,21 +570,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BMPS IM</t>
+          <t>096770 KS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Banca Monte Dei Paschi Siena</t>
+          <t>Sk Innovation</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -593,47 +593,45 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>KOSPI2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>S Inc&amp;F Dec</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>0.0007256730719430188</v>
       </c>
       <c r="I3">
-        <v>18.05488251393627</v>
+        <v>10.23798819209969</v>
       </c>
       <c r="J3">
-        <v>2.778299991557525</v>
+        <v>0.1489206469740735</v>
       </c>
       <c r="K3">
-        <v>0.1037898632220294</v>
+        <v>0.5211770001867911</v>
       </c>
       <c r="L3">
-        <v>28.37195823618558</v>
+        <v>10.23798819209969</v>
       </c>
       <c r="M3">
-        <v>4.365899986733255</v>
+        <v>0.1489206469740735</v>
       </c>
       <c r="N3">
-        <v>0.1630983564917605</v>
+        <v>0.5211770001867911</v>
       </c>
       <c r="O3" s="2">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Secondary Placing</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45614</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+        <v>45615</v>
       </c>
     </row>
     <row r="4">
@@ -644,16 +642,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BMPS IM</t>
+          <t>STC AB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Banca Monte Dei Paschi Siena</t>
+          <t>Saudi Telecom Co</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -662,7 +660,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FTSE MIB</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -671,22 +669,22 @@
         </is>
       </c>
       <c r="I4">
-        <v>10.31707572224931</v>
+        <v>41.10013439999984</v>
       </c>
       <c r="J4">
-        <v>1.58759999517573</v>
+        <v>3.839999999999986</v>
       </c>
       <c r="K4">
-        <v>0.0593084932697311</v>
+        <v>1.362084187444062</v>
       </c>
       <c r="L4">
-        <v>28.37195823618558</v>
+        <v>41.10013439999984</v>
       </c>
       <c r="M4">
-        <v>4.365899986733255</v>
+        <v>3.839999999999986</v>
       </c>
       <c r="N4">
-        <v>0.1630983564917605</v>
+        <v>1.362084187444062</v>
       </c>
       <c r="O4" s="2">
         <v>45610</v>
@@ -697,7 +695,7 @@
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -706,23 +704,18 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>AXNX US</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Axonics</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -731,38 +724,38 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="J5">
-        <v>2.049914129579906</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>-0.0004434168860937395</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.049914129579906</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45614</v>
-      </c>
-      <c r="V5" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -771,16 +764,16 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>SNRE US</t>
+          <t>ASB US</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sunrise Communicat-Cl A</t>
+          <t>Assoc Banc-Corp</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -789,41 +782,44 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I6">
-        <v>-0.9371036020936711</v>
+        <v>27.97680067447703</v>
       </c>
       <c r="J6">
-        <v>-0.01952299171028481</v>
+        <v>1.05175942385252</v>
+      </c>
+      <c r="K6">
+        <v>0.6122619522496829</v>
       </c>
       <c r="L6">
-        <v>-125.8830236020936</v>
+        <v>27.97680067447703</v>
       </c>
       <c r="M6">
-        <v>-2.622562991710284</v>
+        <v>1.05175942385252</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.6122619522496829</v>
       </c>
       <c r="O6" s="2">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45614</v>
-      </c>
-      <c r="W6" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -832,16 +828,16 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>SNRE US</t>
+          <t>FOUR US</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Shift4 Payment-A (FN)</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -850,41 +846,44 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I7">
-        <v>-124.94592</v>
+        <v>610.8764762170088</v>
       </c>
       <c r="J7">
-        <v>-2.60304</v>
+        <v>6.297046451056682</v>
+      </c>
+      <c r="K7">
+        <v>4.671618643127492</v>
       </c>
       <c r="L7">
-        <v>-125.8830236020936</v>
+        <v>610.8764762170088</v>
       </c>
       <c r="M7">
-        <v>-2.622562991710284</v>
+        <v>6.297046451056682</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4.671618643127492</v>
       </c>
       <c r="O7" s="2">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Nationality Change</t>
+          <t>Replacing RCM</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45614</v>
-      </c>
-      <c r="W7" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -893,16 +892,16 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>NVEI CN</t>
+          <t>RCM US</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nuvei Corp-Subordinate Vtg</t>
+          <t>R1 Rcm Inc (HC)</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -911,7 +910,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -920,33 +919,33 @@
         </is>
       </c>
       <c r="I8">
-        <v>-60.13673185905345</v>
+        <v>-215.3867754627873</v>
       </c>
       <c r="J8">
-        <v>-1.770720509793036</v>
+        <v>-15.06201227012498</v>
       </c>
       <c r="K8">
-        <v>-19.15479004608299</v>
+        <v>-7.785208771881981</v>
       </c>
       <c r="L8">
-        <v>-60.13673185905345</v>
+        <v>-215.3867754627873</v>
       </c>
       <c r="M8">
-        <v>-1.770720509793036</v>
+        <v>-15.06201227012498</v>
       </c>
       <c r="N8">
-        <v>-19.15479004608299</v>
+        <v>-7.785208771881981</v>
       </c>
       <c r="O8" s="2">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -957,126 +956,134 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>RCM US</t>
+          <t>RXRX US</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R1 Rcm Inc</t>
+          <t>Recursion Phar-A</t>
         </is>
       </c>
       <c r="D9" s="2">
+        <v>45615</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I9">
+        <v>5.48234221393955</v>
+      </c>
+      <c r="J9">
+        <v>0.8987446252359919</v>
+      </c>
+      <c r="K9">
+        <v>0.1620002140012628</v>
+      </c>
+      <c r="L9">
+        <v>5.48234221393955</v>
+      </c>
+      <c r="M9">
+        <v>0.8987446252359919</v>
+      </c>
+      <c r="N9">
+        <v>0.1620002140012628</v>
+      </c>
+      <c r="O9" s="2">
         <v>45614</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q9" s="2">
+        <v>45615</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HHFA GY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hamburger Hafen Und Logi</t>
+        </is>
+      </c>
+      <c r="D10" s="2">
+        <v>45616</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Russell 1000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="I9">
-        <v>-79.93601603230908</v>
-      </c>
-      <c r="J9">
-        <v>-5.589931191070565</v>
-      </c>
-      <c r="K9">
-        <v>-2.889307256060158</v>
-      </c>
-      <c r="L9">
-        <v>-79.93601603230908</v>
-      </c>
-      <c r="M9">
-        <v>-5.589931191070565</v>
-      </c>
-      <c r="N9">
-        <v>-2.889307256060158</v>
-      </c>
-      <c r="O9" s="2">
-        <v>45611</v>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="H10">
+        <v>-5.01741854749736e-05</v>
+      </c>
+      <c r="I10">
+        <v>-9.756481627110961</v>
+      </c>
+      <c r="J10">
+        <v>-0.5415799536</v>
+      </c>
+      <c r="K10">
+        <v>-31.47430579907655</v>
+      </c>
+      <c r="L10">
+        <v>-9.756481627110961</v>
+      </c>
+      <c r="M10">
+        <v>-0.5415799536</v>
+      </c>
+      <c r="N10">
+        <v>-31.47430579907655</v>
+      </c>
+      <c r="O10" s="2">
+        <v>45614</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q9" s="2">
-        <v>45614</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ASB US</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Assoc Banc-Corp (FN)</t>
-        </is>
-      </c>
-      <c r="D10" s="2">
-        <v>45614</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>S&amp;P 400</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I10">
-        <v>32.20412503463848</v>
-      </c>
-      <c r="J10">
-        <v>1.210681392279642</v>
-      </c>
-      <c r="K10">
-        <v>0.7047753849205711</v>
-      </c>
-      <c r="L10">
-        <v>32.20412503463848</v>
-      </c>
-      <c r="M10">
-        <v>1.210681392279642</v>
-      </c>
-      <c r="N10">
-        <v>0.7047753849205711</v>
-      </c>
-      <c r="O10" s="2">
-        <v>45611</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Equity Offering</t>
-        </is>
-      </c>
       <c r="Q10" s="2">
-        <v>45614</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1085,67 +1092,70 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PNBHOUSI IN</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pnb Housing Finance Ltd</t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>0.0002609298317320255</v>
       </c>
       <c r="I11">
-        <v>9.021053075999466</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="J11">
-        <v>0.8427999999999503</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="K11">
-        <v>0.254413138198723</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="L11">
-        <v>9.021053075999466</v>
+        <v>245.2448925040395</v>
       </c>
       <c r="M11">
-        <v>0.8427999999999503</v>
+        <v>9.572007845342924</v>
       </c>
       <c r="N11">
-        <v>0.254413138198723</v>
+        <v>5.126232730112789</v>
       </c>
       <c r="O11" s="2">
-        <v>45610</v>
+        <v>45602</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45614</v>
-      </c>
-      <c r="T11" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1154,60 +1164,60 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>096770 KS</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sk Innovation</t>
+          <t>Centamin</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>KOSPI2</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>S Inc&amp;F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="H12">
-        <v>0.0007256730719430188</v>
+        <v>-0.000278655968179756</v>
       </c>
       <c r="I12">
-        <v>10.23798819209969</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="J12">
-        <v>0.1489206469740735</v>
+        <v>-23.2216539</v>
       </c>
       <c r="K12">
-        <v>0.5211770001867911</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="L12">
-        <v>10.23798819209969</v>
+        <v>-226.8753197769533</v>
       </c>
       <c r="M12">
-        <v>0.1489206469740735</v>
+        <v>-121.7569924630005</v>
       </c>
       <c r="N12">
-        <v>0.5211770001867911</v>
+        <v>-10.63712931030272</v>
       </c>
       <c r="O12" s="2">
-        <v>45611</v>
+        <v>45602</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1215,7 +1225,12 @@
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45614</v>
+        <v>45615</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1226,16 +1241,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STC AB</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Saudi Telecom Co</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1244,62 +1259,66 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I13">
-        <v>41.10013439999984</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J13">
-        <v>3.839999999999986</v>
-      </c>
-      <c r="K13">
-        <v>1.362084187444062</v>
+        <v>0.7177087420866</v>
       </c>
       <c r="L13">
-        <v>41.10013439999984</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>3.839999999999986</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N13">
-        <v>1.362084187444062</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Secondary Placing</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45614</v>
-      </c>
-      <c r="T13" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AXNX US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Axonics</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1308,228 +1327,253 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H14">
-        <v>-0.0004434168860937395</v>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="J14">
+        <v>1.1744324870508</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>45611</v>
+        <v>45608</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q14" s="2">
+        <v>45615</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ANG SJ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Anglogold Ashanti Plc</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>75.98810375704332</v>
+      </c>
+      <c r="J15">
+        <v>3.054563599620826</v>
+      </c>
+      <c r="K15">
+        <v>1.654637601348614</v>
+      </c>
+      <c r="L15">
+        <v>245.2448925040395</v>
+      </c>
+      <c r="M15">
+        <v>9.572007845342924</v>
+      </c>
+      <c r="N15">
+        <v>5.126232730112789</v>
+      </c>
+      <c r="O15" s="2">
         <v>45614</v>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ASB US</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Assoc Banc-Corp</t>
-        </is>
-      </c>
-      <c r="D15" s="2">
-        <v>45615</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Merger</t>
+        </is>
+      </c>
+      <c r="Q15" s="2">
+        <v>45615</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CEY LN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Centamin Plc</t>
+        </is>
+      </c>
+      <c r="D16" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Russell 2000</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I15">
-        <v>27.97680067447703</v>
-      </c>
-      <c r="J15">
-        <v>1.05175942385252</v>
-      </c>
-      <c r="K15">
-        <v>0.6122619522496829</v>
-      </c>
-      <c r="L15">
-        <v>27.97680067447703</v>
-      </c>
-      <c r="M15">
-        <v>1.05175942385252</v>
-      </c>
-      <c r="N15">
-        <v>0.6122619522496829</v>
-      </c>
-      <c r="O15" s="2">
-        <v>45611</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Equity Offering</t>
-        </is>
-      </c>
-      <c r="Q15" s="2">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>-66.22101032663875</v>
+      </c>
+      <c r="J16">
+        <v>-35.88281115300017</v>
+      </c>
+      <c r="K16">
+        <v>-3.258155069221307</v>
+      </c>
+      <c r="L16">
+        <v>-226.8753197769533</v>
+      </c>
+      <c r="M16">
+        <v>-121.7569924630005</v>
+      </c>
+      <c r="N16">
+        <v>-10.63712931030272</v>
+      </c>
+      <c r="O16" s="2">
         <v>45614</v>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>FOUR US</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Shift4 Payment-A (FN)</t>
-        </is>
-      </c>
-      <c r="D16" s="2">
-        <v>45615</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Merger</t>
+        </is>
+      </c>
+      <c r="Q16" s="2">
+        <v>45615</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CEY LN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Centamin Plc</t>
+        </is>
+      </c>
+      <c r="D17" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>S&amp;P 400</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I16">
-        <v>610.8764762170088</v>
-      </c>
-      <c r="J16">
-        <v>6.297046451056682</v>
-      </c>
-      <c r="K16">
-        <v>4.671618643127492</v>
-      </c>
-      <c r="L16">
-        <v>610.8764762170088</v>
-      </c>
-      <c r="M16">
-        <v>6.297046451056682</v>
-      </c>
-      <c r="N16">
-        <v>4.671618643127492</v>
-      </c>
-      <c r="O16" s="2">
-        <v>45611</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Replacing RCM</t>
-        </is>
-      </c>
-      <c r="Q16" s="2">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FTSE All Share</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>-84.09978615846607</v>
+      </c>
+      <c r="J17">
+        <v>-45.56547448000021</v>
+      </c>
+      <c r="K17">
+        <v>-4.137339770439754</v>
+      </c>
+      <c r="L17">
+        <v>-226.8753197769533</v>
+      </c>
+      <c r="M17">
+        <v>-121.7569924630005</v>
+      </c>
+      <c r="N17">
+        <v>-10.63712931030272</v>
+      </c>
+      <c r="O17" s="2">
         <v>45614</v>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>RCM US</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>R1 Rcm Inc (HC)</t>
-        </is>
-      </c>
-      <c r="D17" s="2">
-        <v>45615</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>S&amp;P 400</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I17">
-        <v>-215.3867754627873</v>
-      </c>
-      <c r="J17">
-        <v>-15.06201227012498</v>
-      </c>
-      <c r="K17">
-        <v>-7.785208771881981</v>
-      </c>
-      <c r="L17">
-        <v>-215.3867754627873</v>
-      </c>
-      <c r="M17">
-        <v>-15.06201227012498</v>
-      </c>
-      <c r="N17">
-        <v>-7.785208771881981</v>
-      </c>
-      <c r="O17" s="2">
-        <v>45611</v>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1545,12 +1589,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Centamin Plc</t>
         </is>
       </c>
       <c r="D18" s="2">
@@ -1558,52 +1602,49 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H18">
-        <v>0.0002609298317320255</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I18">
-        <v>169.2567887469962</v>
+        <v>-31.53741980942478</v>
       </c>
       <c r="J18">
-        <v>6.517444245722097</v>
+        <v>-17.08705293000008</v>
       </c>
       <c r="K18">
-        <v>3.471595128764175</v>
+        <v>-1.551502413914908</v>
       </c>
       <c r="L18">
-        <v>169.2567887469962</v>
+        <v>-226.8753197769533</v>
       </c>
       <c r="M18">
-        <v>6.517444245722097</v>
+        <v>-121.7569924630005</v>
       </c>
       <c r="N18">
-        <v>3.471595128764175</v>
+        <v>-10.63712931030272</v>
       </c>
       <c r="O18" s="2">
-        <v>45602</v>
+        <v>45614</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45614</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1612,70 +1653,75 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t xml:space="preserve">2388 TT </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t>Via Tech</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="H19">
-        <v>-0.000278655968179756</v>
+        <v>0.0001276412408384147</v>
       </c>
       <c r="I19">
-        <v>-45.0171034824237</v>
+        <v>3.432143166841027</v>
       </c>
       <c r="J19">
-        <v>-23.2216539</v>
+        <v>0.9975889070823539</v>
       </c>
       <c r="K19">
-        <v>-1.690132056726749</v>
+        <v>0.05383183231447906</v>
       </c>
       <c r="L19">
-        <v>-45.0171034824237</v>
+        <v>3.432143166841027</v>
       </c>
       <c r="M19">
-        <v>-23.2216539</v>
+        <v>0.9975889070823539</v>
       </c>
       <c r="N19">
-        <v>-1.690132056726749</v>
+        <v>0.05383183231447906</v>
       </c>
       <c r="O19" s="2">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45614</v>
-      </c>
-      <c r="W19" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1684,21 +1730,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>AXRB MK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sunrise Communications</t>
+          <t>Axis Real Estate</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1707,43 +1753,47 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>6.316704520863787e-05</v>
+      </c>
+      <c r="I20">
+        <v>1.626103491639672</v>
       </c>
       <c r="J20">
-        <v>0.7177087420866</v>
+        <v>4.210198127024521</v>
+      </c>
+      <c r="K20">
+        <v>2.941847188379426</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.626103491639672</v>
       </c>
       <c r="M20">
-        <v>1.8921412291374</v>
+        <v>4.210198127024521</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.941847188379426</v>
       </c>
       <c r="O20" s="2">
-        <v>45608</v>
+        <v>45614</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45614</v>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1757,16 +1807,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>XTB PW</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sunrise Communications</t>
+          <t>Xtb</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1775,43 +1825,47 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>0.0001518310377102649</v>
+      </c>
+      <c r="I21">
+        <v>3.388291589118158</v>
       </c>
       <c r="J21">
-        <v>1.1744324870508</v>
+        <v>0.1998002036101965</v>
+      </c>
+      <c r="K21">
+        <v>0.7222565165155334</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3.388291589118158</v>
       </c>
       <c r="M21">
-        <v>1.8921412291374</v>
+        <v>0.1998002036101965</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7222565165155334</v>
       </c>
       <c r="O21" s="2">
         <v>45608</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45614</v>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1820,17 +1874,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">2388 TT </t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Via Tech</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D22" s="2">
@@ -1843,52 +1897,37 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H22">
-        <v>0.0001276412408384147</v>
-      </c>
-      <c r="I22">
-        <v>3.432143166841027</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J22">
-        <v>0.9975889070823539</v>
-      </c>
-      <c r="K22">
-        <v>0.05383183231447906</v>
-      </c>
-      <c r="L22">
-        <v>3.432143166841027</v>
+        <v>1.1619372024</v>
       </c>
       <c r="M22">
-        <v>0.9975889070823539</v>
-      </c>
-      <c r="N22">
-        <v>0.05383183231447906</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O22" s="2">
-        <v>45604</v>
+        <v>45596</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45614</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1902,12 +1941,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XTB PW</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Xtb</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D23" s="2">
@@ -1920,47 +1959,37 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H23">
-        <v>0.0001518310377102649</v>
-      </c>
-      <c r="I23">
-        <v>3.388291589118158</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J23">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="K23">
-        <v>0.7222565165155334</v>
-      </c>
-      <c r="L23">
-        <v>3.388291589118158</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M23">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="N23">
-        <v>0.7222565165155334</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O23" s="2">
-        <v>45608</v>
+        <v>45596</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45614</v>
-      </c>
-      <c r="T23" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1974,12 +2003,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>BMPS IM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Banca Monte Paschi</t>
         </is>
       </c>
       <c r="D24" s="2">
@@ -1997,51 +2026,56 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>9.897477582510809e-05</v>
+      </c>
+      <c r="I24">
+        <v>19.1982292485658</v>
       </c>
       <c r="J24">
-        <v>1.1619372024</v>
+        <v>3.016390385161618</v>
+      </c>
+      <c r="K24">
+        <v>0.1001432362650085</v>
+      </c>
+      <c r="L24">
+        <v>19.1982292485658</v>
       </c>
       <c r="M24">
-        <v>0.2977813214999999</v>
+        <v>3.016390385161618</v>
+      </c>
+      <c r="N24">
+        <v>0.1001432362650085</v>
       </c>
       <c r="O24" s="2">
-        <v>45596</v>
+        <v>45611</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45614</v>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ETNB US</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>89Bio</t>
         </is>
       </c>
       <c r="D25" s="2">
@@ -2059,51 +2093,61 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>1.162856760642005e-05</v>
+      </c>
+      <c r="I25">
+        <v>1.24425825573269</v>
       </c>
       <c r="J25">
-        <v>-0.8641558809</v>
+        <v>0.1395690696278958</v>
+      </c>
+      <c r="K25">
+        <v>0.1770807346297178</v>
+      </c>
+      <c r="L25">
+        <v>1.24425825573269</v>
       </c>
       <c r="M25">
-        <v>0.2977813214999999</v>
+        <v>0.1395690696278958</v>
+      </c>
+      <c r="N25">
+        <v>0.1770807346297178</v>
       </c>
       <c r="O25" s="2">
-        <v>45596</v>
+        <v>45610</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45614</v>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BMPS IM</t>
+          <t>DCOM US</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Banca Monte Paschi</t>
+          <t>Dime Community Bancshrs</t>
         </is>
       </c>
       <c r="D26" s="2">
@@ -2121,40 +2165,45 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="H26">
-        <v>9.897477582510809e-05</v>
+        <v>2.634604040380311e-05</v>
       </c>
       <c r="I26">
-        <v>19.1982292485658</v>
+        <v>2.796844259431534</v>
       </c>
       <c r="J26">
-        <v>3.016390385161618</v>
+        <v>0.08299241125909596</v>
       </c>
       <c r="K26">
-        <v>0.1001432362650085</v>
+        <v>0.2683319683415175</v>
       </c>
       <c r="L26">
-        <v>19.1982292485658</v>
+        <v>2.796844259431534</v>
       </c>
       <c r="M26">
-        <v>3.016390385161618</v>
+        <v>0.08299241125909596</v>
       </c>
       <c r="N26">
-        <v>0.1001432362650085</v>
+        <v>0.2683319683415175</v>
       </c>
       <c r="O26" s="2">
         <v>45611</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45614</v>
+        <v>45615</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2165,12 +2214,12 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>ETNB US</t>
+          <t>OS US</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>89Bio</t>
+          <t>Onestream A</t>
         </is>
       </c>
       <c r="D27" s="2">
@@ -2192,28 +2241,28 @@
         </is>
       </c>
       <c r="H27">
-        <v>1.162856760642005e-05</v>
+        <v>0.0001435012341539708</v>
       </c>
       <c r="I27">
-        <v>1.24425825573269</v>
+        <v>15.23404706116151</v>
       </c>
       <c r="J27">
-        <v>0.1395690696278958</v>
+        <v>0.5056105894842852</v>
       </c>
       <c r="K27">
-        <v>0.1770807346297178</v>
+        <v>0.5760133126058917</v>
       </c>
       <c r="L27">
-        <v>1.24425825573269</v>
+        <v>15.23404706116151</v>
       </c>
       <c r="M27">
-        <v>0.1395690696278958</v>
+        <v>0.5056105894842852</v>
       </c>
       <c r="N27">
-        <v>0.1770807346297178</v>
+        <v>0.5760133126058917</v>
       </c>
       <c r="O27" s="2">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2221,7 +2270,7 @@
         </is>
       </c>
       <c r="Q27" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2237,12 +2286,12 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>DCOM US</t>
+          <t>PRL CN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dime Community Bancshrs</t>
+          <t>Propel Holdings</t>
         </is>
       </c>
       <c r="D28" s="2">
@@ -2260,47 +2309,42 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="H28">
-        <v>2.634604040380311e-05</v>
+        <v>8.478482241270527e-05</v>
       </c>
       <c r="I28">
-        <v>2.796844259431534</v>
+        <v>9.596443836529115</v>
       </c>
       <c r="J28">
-        <v>0.08299241125909596</v>
+        <v>0.3504364856501185</v>
       </c>
       <c r="K28">
-        <v>0.2683319683415175</v>
+        <v>1.034593529297496</v>
       </c>
       <c r="L28">
-        <v>2.796844259431534</v>
+        <v>9.596443836529115</v>
       </c>
       <c r="M28">
-        <v>0.08299241125909596</v>
+        <v>0.3504364856501185</v>
       </c>
       <c r="N28">
-        <v>0.2683319683415175</v>
+        <v>1.034593529297496</v>
       </c>
       <c r="O28" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45614</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="V28" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2309,20 +2353,20 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>OS US</t>
+          <t>CON US</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Onestream A</t>
+          <t>Concentra Grp Hldgs</t>
         </is>
       </c>
       <c r="D29" s="2">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2332,65 +2376,70 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H29">
-        <v>0.0001435012341539708</v>
+        <v>0.0002227013059701727</v>
       </c>
       <c r="I29">
-        <v>15.23404706116151</v>
+        <v>23.64000774697608</v>
       </c>
       <c r="J29">
-        <v>0.5056105894842852</v>
+        <v>1.151486008133272</v>
       </c>
       <c r="K29">
-        <v>0.5760133126058917</v>
+        <v>3.701374768876201</v>
       </c>
       <c r="L29">
-        <v>15.23404706116151</v>
+        <v>23.64000774697608</v>
       </c>
       <c r="M29">
-        <v>0.5056105894842852</v>
+        <v>1.151486008133272</v>
       </c>
       <c r="N29">
-        <v>0.5760133126058917</v>
+        <v>3.701374768876201</v>
       </c>
       <c r="O29" s="2">
         <v>45611</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-off from SEM US</t>
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45614</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CON US</t>
+          <t>003850 KS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Concentra Grp Hldgs</t>
+          <t>Boryung</t>
         </is>
       </c>
       <c r="D30" s="2">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2399,52 +2448,52 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="H30">
-        <v>0.0002227013059701727</v>
+        <v>-3.112251325577096e-06</v>
       </c>
       <c r="I30">
-        <v>23.64000774697608</v>
+        <v>-0.08117514757608446</v>
       </c>
       <c r="J30">
-        <v>1.151486008133272</v>
+        <v>-0.01079752455409766</v>
       </c>
       <c r="K30">
-        <v>3.701374768876201</v>
+        <v>-0.03062579309660501</v>
       </c>
       <c r="L30">
-        <v>23.64000774697608</v>
+        <v>-0.08117514757608446</v>
       </c>
       <c r="M30">
-        <v>1.151486008133272</v>
+        <v>-0.01079752455409766</v>
       </c>
       <c r="N30">
-        <v>3.701374768876201</v>
+        <v>-0.03062579309660501</v>
       </c>
       <c r="O30" s="2">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Spin-off from SEM US</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q30" s="2">
-        <v>45614</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2453,17 +2502,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>003850 KS</t>
+          <t>CURN SW</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Boryung</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D31" s="2">
@@ -2471,57 +2520,49 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H31">
-        <v>-3.112251325577096e-06</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I31">
-        <v>-0.08117514757608446</v>
+        <v>-0.1634464756409562</v>
       </c>
       <c r="J31">
-        <v>-0.01079752455409766</v>
+        <v>-0.009257774723999999</v>
       </c>
       <c r="K31">
-        <v>-0.03062579309660501</v>
+        <v>-1.442908756010318</v>
       </c>
       <c r="L31">
-        <v>-0.08117514757608446</v>
+        <v>-0.4309043448716117</v>
       </c>
       <c r="M31">
-        <v>-0.01079752455409766</v>
+        <v>-0.024406860636</v>
       </c>
       <c r="N31">
-        <v>-0.03062579309660501</v>
+        <v>-3.804032174936292</v>
       </c>
       <c r="O31" s="2">
-        <v>45609</v>
+        <v>45614</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Free float criteria not fulfilled</t>
         </is>
       </c>
       <c r="Q31" s="2">
-        <v>45614</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2530,21 +2571,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CURN SW</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D32" s="2">
-        <v>45631</v>
+        <v>45625</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2553,35 +2594,44 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I32">
+        <v>-0.2674578692306556</v>
+      </c>
+      <c r="J32">
+        <v>-0.015149085912</v>
+      </c>
+      <c r="K32">
+        <v>-2.361123418925974</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-0.4309043448716117</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-0.024406860636</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>-3.804032174936292</v>
       </c>
       <c r="O32" s="2">
-        <v>45590</v>
+        <v>45614</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Free float criteria not fulfilled</t>
         </is>
       </c>
       <c r="Q32" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V32" t="inlineStr">
+        <v>45615</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2604,7 +2654,7 @@
         </is>
       </c>
       <c r="D33" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2613,7 +2663,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2621,26 +2671,27 @@
           <t>Add</t>
         </is>
       </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
       <c r="M33">
-        <v>-0.1196923767245363</v>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>45580</v>
+        <v>45590</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q33" s="2">
-        <v>45595</v>
+        <v>45594</v>
       </c>
       <c r="V33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2672,32 +2723,29 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J34">
-        <v>-0.1196923767245363</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="M34">
         <v>-0.1196923767245363</v>
       </c>
       <c r="O34" s="2">
-        <v>45588</v>
+        <v>45580</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Spin-Off by Jusung Engineering</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q34" s="2">
         <v>45595</v>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2709,14 +2757,19 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EQC US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Equity Commonwealth</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D35" s="2">
@@ -2724,114 +2777,109 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>KOSDAQ150</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J35">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="M35">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O35" s="2">
+        <v>45588</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Spin-Off by Jusung Engineering</t>
+        </is>
+      </c>
+      <c r="Q35" s="2">
+        <v>45595</v>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EQC US</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Equity Commonwealth</t>
+        </is>
+      </c>
+      <c r="D36" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>-0.0002638907874384385</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>-28.01682045864</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>-1.395259983</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>-0.5081628648052433</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>-28.01682045864</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <v>-1.395259983</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>-0.5081628648052433</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O36" s="2">
         <v>45611</v>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>Liquidation</t>
         </is>
       </c>
-      <c r="Q35" s="2">
-        <v>45614</v>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Canal+</t>
-        </is>
-      </c>
-      <c r="D36" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J36">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M36">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O36" s="2">
-        <v>45600</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Spin-off from Vivendi</t>
-        </is>
-      </c>
       <c r="Q36" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="W36" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2850,7 +2898,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D37" s="2">
@@ -2886,7 +2934,7 @@
         </is>
       </c>
       <c r="Q37" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -2912,7 +2960,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Havas</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D38" s="2">
@@ -2948,7 +2996,7 @@
         </is>
       </c>
       <c r="Q38" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -2964,66 +3012,197 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Havas</t>
+        </is>
+      </c>
+      <c r="D39" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J39">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M39">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O39" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q39" s="2">
+        <v>45615</v>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>AP</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>GS P&amp;L</t>
         </is>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="2">
         <v>45646</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>MSCI EM Small Cap</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>-0.158686858219997</v>
       </c>
-      <c r="L39">
+      <c r="L40">
         <v>0</v>
       </c>
-      <c r="M39">
+      <c r="M40">
         <v>-0.158686858219997</v>
       </c>
-      <c r="N39">
+      <c r="N40">
         <v>0</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O40" s="2">
         <v>45609</v>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>Spin off by GS Retail</t>
         </is>
       </c>
-      <c r="Q39" s="2">
-        <v>45614</v>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
+      <c r="Q40" s="2">
+        <v>45615</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ARAMCO AB</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Saudi Arabian Oil Co</t>
+        </is>
+      </c>
+      <c r="D41" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I41">
+        <v>361.3818757216084</v>
+      </c>
+      <c r="J41">
+        <v>48.8008521160914</v>
+      </c>
+      <c r="K41">
+        <v>3.324102669118699</v>
+      </c>
+      <c r="L41">
+        <v>361.3818757216084</v>
+      </c>
+      <c r="M41">
+        <v>48.8008521160914</v>
+      </c>
+      <c r="N41">
+        <v>3.324102669118699</v>
+      </c>
+      <c r="O41" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Public shareholder disclosure</t>
+        </is>
+      </c>
+      <c r="Q41" s="2">
+        <v>45615</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,21 +501,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PNBHOUSI IN</t>
+          <t>HHFA GY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pnb Housing Finance Ltd</t>
+          <t>Hamburger Hafen Und Logi</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,44 +524,47 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>-5.01741854749736e-05</v>
       </c>
       <c r="I2">
-        <v>9.021053075999466</v>
+        <v>-9.756481627110961</v>
       </c>
       <c r="J2">
-        <v>0.8427999999999503</v>
+        <v>-0.5415799536</v>
       </c>
       <c r="K2">
-        <v>0.254413138198723</v>
+        <v>-31.47430579907655</v>
       </c>
       <c r="L2">
-        <v>9.021053075999466</v>
+        <v>-9.756481627110961</v>
       </c>
       <c r="M2">
-        <v>0.8427999999999503</v>
+        <v>-0.5415799536</v>
       </c>
       <c r="N2">
-        <v>0.254413138198723</v>
+        <v>-31.47430579907655</v>
       </c>
       <c r="O2" s="2">
-        <v>45610</v>
+        <v>45614</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45615</v>
-      </c>
-      <c r="T2" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -570,21 +573,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>096770 KS</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sk Innovation</t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -593,37 +596,37 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>KOSPI2</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>S Inc&amp;F Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H3">
-        <v>0.0007256730719430188</v>
+        <v>0.0002609298317320255</v>
       </c>
       <c r="I3">
-        <v>10.23798819209969</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="J3">
-        <v>0.1489206469740735</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="K3">
-        <v>0.5211770001867911</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="L3">
-        <v>10.23798819209969</v>
+        <v>245.2448925040395</v>
       </c>
       <c r="M3">
-        <v>0.1489206469740735</v>
+        <v>9.572007845342924</v>
       </c>
       <c r="N3">
-        <v>0.5211770001867911</v>
+        <v>5.126232730112789</v>
       </c>
       <c r="O3" s="2">
-        <v>45611</v>
+        <v>45602</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -631,7 +634,12 @@
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45615</v>
+        <v>45616</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -642,16 +650,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>STC AB</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Saudi Telecom Co</t>
+          <t>Centamin</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -660,62 +668,70 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>-0.000278655968179756</v>
       </c>
       <c r="I4">
-        <v>41.10013439999984</v>
+        <v>-45.0171034824237</v>
       </c>
       <c r="J4">
-        <v>3.839999999999986</v>
+        <v>-23.2216539</v>
       </c>
       <c r="K4">
-        <v>1.362084187444062</v>
+        <v>-1.690132056726749</v>
       </c>
       <c r="L4">
-        <v>41.10013439999984</v>
+        <v>-226.8753197769533</v>
       </c>
       <c r="M4">
-        <v>3.839999999999986</v>
+        <v>-121.7569924630005</v>
       </c>
       <c r="N4">
-        <v>1.362084187444062</v>
+        <v>-10.63712931030272</v>
       </c>
       <c r="O4" s="2">
-        <v>45610</v>
+        <v>45602</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Secondary Placing</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45615</v>
-      </c>
-      <c r="T4" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AXNX US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Axonics</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -724,56 +740,66 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>-0.0004434168860937395</v>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="J5">
+        <v>0.7177087420866</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>45611</v>
+        <v>45608</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45615</v>
-      </c>
-      <c r="W5" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASB US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Assoc Banc-Corp</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -782,62 +808,66 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I6">
-        <v>27.97680067447703</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J6">
-        <v>1.05175942385252</v>
-      </c>
-      <c r="K6">
-        <v>0.6122619522496829</v>
+        <v>1.1744324870508</v>
       </c>
       <c r="L6">
-        <v>27.97680067447703</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.05175942385252</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N6">
-        <v>0.6122619522496829</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>45611</v>
+        <v>45608</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45615</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FOUR US</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Shift4 Payment-A (FN)</t>
+          <t>Anglogold Ashanti Plc</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -846,62 +876,72 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I7">
-        <v>610.8764762170088</v>
+        <v>75.98810375704332</v>
       </c>
       <c r="J7">
-        <v>6.297046451056682</v>
+        <v>3.054563599620826</v>
       </c>
       <c r="K7">
-        <v>4.671618643127492</v>
+        <v>1.654637601348614</v>
       </c>
       <c r="L7">
-        <v>610.8764762170088</v>
+        <v>245.2448925040395</v>
       </c>
       <c r="M7">
-        <v>6.297046451056682</v>
+        <v>9.572007845342924</v>
       </c>
       <c r="N7">
-        <v>4.671618643127492</v>
+        <v>5.126232730112789</v>
       </c>
       <c r="O7" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Replacing RCM</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45615</v>
-      </c>
-      <c r="V7" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RCM US</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R1 Rcm Inc (HC)</t>
+          <t>Centamin Plc</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -910,7 +950,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -919,33 +959,33 @@
         </is>
       </c>
       <c r="I8">
-        <v>-215.3867754627873</v>
+        <v>-66.22101032663875</v>
       </c>
       <c r="J8">
-        <v>-15.06201227012498</v>
+        <v>-35.88281115300017</v>
       </c>
       <c r="K8">
-        <v>-7.785208771881981</v>
+        <v>-3.258155069221307</v>
       </c>
       <c r="L8">
-        <v>-215.3867754627873</v>
+        <v>-226.8753197769533</v>
       </c>
       <c r="M8">
-        <v>-15.06201227012498</v>
+        <v>-121.7569924630005</v>
       </c>
       <c r="N8">
-        <v>-7.785208771881981</v>
+        <v>-10.63712931030272</v>
       </c>
       <c r="O8" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -954,18 +994,23 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RXRX US</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursion Phar-A</t>
+          <t>Centamin Plc</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -974,44 +1019,44 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I9">
-        <v>5.48234221393955</v>
+        <v>-84.09978615846607</v>
       </c>
       <c r="J9">
-        <v>0.8987446252359919</v>
+        <v>-45.56547448000021</v>
       </c>
       <c r="K9">
-        <v>0.1620002140012628</v>
+        <v>-4.137339770439754</v>
       </c>
       <c r="L9">
-        <v>5.48234221393955</v>
+        <v>-226.8753197769533</v>
       </c>
       <c r="M9">
-        <v>0.8987446252359919</v>
+        <v>-121.7569924630005</v>
       </c>
       <c r="N9">
-        <v>0.1620002140012628</v>
+        <v>-10.63712931030272</v>
       </c>
       <c r="O9" s="2">
         <v>45614</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45615</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1025,16 +1070,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HHFA GY</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hamburger Hafen Und Logi</t>
+          <t>Centamin Plc</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1043,7 +1088,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1051,37 +1096,34 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H10">
-        <v>-5.01741854749736e-05</v>
-      </c>
       <c r="I10">
-        <v>-9.756481627110961</v>
+        <v>-31.53741980942478</v>
       </c>
       <c r="J10">
-        <v>-0.5415799536</v>
+        <v>-17.08705293000008</v>
       </c>
       <c r="K10">
-        <v>-31.47430579907655</v>
+        <v>-1.551502413914908</v>
       </c>
       <c r="L10">
-        <v>-9.756481627110961</v>
+        <v>-226.8753197769533</v>
       </c>
       <c r="M10">
-        <v>-0.5415799536</v>
+        <v>-121.7569924630005</v>
       </c>
       <c r="N10">
-        <v>-31.47430579907655</v>
+        <v>-10.63712931030272</v>
       </c>
       <c r="O10" s="2">
         <v>45614</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1097,12 +1139,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>MTRO LN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Metro Bank Holdings Plc</t>
         </is>
       </c>
       <c r="D11" s="2">
@@ -1110,401 +1152,367 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>0.0002609298317320255</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="I11">
-        <v>169.2567887469962</v>
+        <v>5.404366824208683</v>
       </c>
       <c r="J11">
-        <v>6.517444245722097</v>
+        <v>4.700042026350003</v>
       </c>
       <c r="K11">
-        <v>3.471595128764175</v>
+        <v>2.104139668117467</v>
       </c>
       <c r="L11">
-        <v>245.2448925040395</v>
+        <v>5.404366824208683</v>
       </c>
       <c r="M11">
-        <v>9.572007845342924</v>
+        <v>4.700042026350003</v>
       </c>
       <c r="N11">
-        <v>5.126232730112789</v>
+        <v>2.104139668117467</v>
       </c>
       <c r="O11" s="2">
-        <v>45602</v>
+        <v>45615</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Replacing CEY LN</t>
         </is>
       </c>
       <c r="Q11" s="2">
+        <v>45616</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ENV US</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Envestnet Inc</t>
+        </is>
+      </c>
+      <c r="D12" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I12">
+        <v>-277.8756675720152</v>
+      </c>
+      <c r="J12">
+        <v>-4.403734826814821</v>
+      </c>
+      <c r="K12">
+        <v>-6.527532341462187</v>
+      </c>
+      <c r="L12">
+        <v>-627.4234821791745</v>
+      </c>
+      <c r="M12">
+        <v>-9.944197889220263</v>
+      </c>
+      <c r="N12">
+        <v>-14.74000499224764</v>
+      </c>
+      <c r="O12" s="2">
         <v>45615</v>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CEY LN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Centamin</t>
-        </is>
-      </c>
-      <c r="D12" s="2">
-        <v>45617</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Acquired</t>
+        </is>
+      </c>
+      <c r="Q12" s="2">
+        <v>45616</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FLEX US</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Flex Ltd (IT)</t>
+        </is>
+      </c>
+      <c r="D13" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>1415.641017046208</v>
+      </c>
+      <c r="J13">
+        <v>37.9223417371071</v>
+      </c>
+      <c r="K13">
+        <v>13.18785110754228</v>
+      </c>
+      <c r="L13">
+        <v>1415.641017046208</v>
+      </c>
+      <c r="M13">
+        <v>37.9223417371071</v>
+      </c>
+      <c r="N13">
+        <v>13.18785110754228</v>
+      </c>
+      <c r="O13" s="2">
+        <v>45615</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Replacing AZTA</t>
+        </is>
+      </c>
+      <c r="Q13" s="2">
+        <v>45616</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AZTA US</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Azenta Inc (HC)</t>
+        </is>
+      </c>
+      <c r="D14" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H12">
-        <v>-0.000278655968179756</v>
-      </c>
-      <c r="I12">
-        <v>-45.0171034824237</v>
-      </c>
-      <c r="J12">
-        <v>-23.2216539</v>
-      </c>
-      <c r="K12">
-        <v>-1.690132056726749</v>
-      </c>
-      <c r="L12">
-        <v>-226.8753197769533</v>
-      </c>
-      <c r="M12">
-        <v>-121.7569924630005</v>
-      </c>
-      <c r="N12">
-        <v>-10.63712931030272</v>
-      </c>
-      <c r="O12" s="2">
-        <v>45602</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q12" s="2">
+      <c r="I14">
+        <v>-214.6958761322659</v>
+      </c>
+      <c r="J14">
+        <v>-5.248004794237739</v>
+      </c>
+      <c r="K14">
+        <v>-9.201934621239591</v>
+      </c>
+      <c r="L14">
+        <v>7.033028546065907</v>
+      </c>
+      <c r="M14">
+        <v>0.1719146552448283</v>
+      </c>
+      <c r="N14">
+        <v>0.3014378759205432</v>
+      </c>
+      <c r="O14" s="2">
         <v>45615</v>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sunrise Communications</t>
-        </is>
-      </c>
-      <c r="D13" s="2">
-        <v>45617</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>SPI</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Moving to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q14" s="2">
+        <v>45616</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AZTA US</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Azenta Inc (HC)</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Add</t>
         </is>
       </c>
-      <c r="J13">
-        <v>0.7177087420866</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1.8921412291374</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>45608</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Spin-off from Liberty Global</t>
-        </is>
-      </c>
-      <c r="Q13" s="2">
+      <c r="I15">
+        <v>221.7289046783318</v>
+      </c>
+      <c r="J15">
+        <v>5.419919449482568</v>
+      </c>
+      <c r="K15">
+        <v>9.503372497160134</v>
+      </c>
+      <c r="L15">
+        <v>7.033028546065907</v>
+      </c>
+      <c r="M15">
+        <v>0.1719146552448283</v>
+      </c>
+      <c r="N15">
+        <v>0.3014378759205432</v>
+      </c>
+      <c r="O15" s="2">
         <v>45615</v>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sunrise Communications</t>
-        </is>
-      </c>
-      <c r="D14" s="2">
-        <v>45617</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>SPI Extra</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="J14">
-        <v>1.1744324870508</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1.8921412291374</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>45608</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Spin-off from Liberty Global</t>
-        </is>
-      </c>
-      <c r="Q14" s="2">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Moved from S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q15" s="2">
+        <v>45616</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ENV US</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Envestnet Inc (IT)</t>
+        </is>
+      </c>
+      <c r="D16" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>-349.5478146071593</v>
+      </c>
+      <c r="J16">
+        <v>-5.540463062405441</v>
+      </c>
+      <c r="K16">
+        <v>-8.212472650785456</v>
+      </c>
+      <c r="L16">
+        <v>-627.4234821791745</v>
+      </c>
+      <c r="M16">
+        <v>-9.944197889220263</v>
+      </c>
+      <c r="N16">
+        <v>-14.74000499224764</v>
+      </c>
+      <c r="O16" s="2">
         <v>45615</v>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANG SJ</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Anglogold Ashanti Plc</t>
-        </is>
-      </c>
-      <c r="D15" s="2">
-        <v>45617</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>FTSE EM</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="I15">
-        <v>75.98810375704332</v>
-      </c>
-      <c r="J15">
-        <v>3.054563599620826</v>
-      </c>
-      <c r="K15">
-        <v>1.654637601348614</v>
-      </c>
-      <c r="L15">
-        <v>245.2448925040395</v>
-      </c>
-      <c r="M15">
-        <v>9.572007845342924</v>
-      </c>
-      <c r="N15">
-        <v>5.126232730112789</v>
-      </c>
-      <c r="O15" s="2">
-        <v>45614</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Merger</t>
-        </is>
-      </c>
-      <c r="Q15" s="2">
-        <v>45615</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CEY LN</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Centamin Plc</t>
-        </is>
-      </c>
-      <c r="D16" s="2">
-        <v>45617</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I16">
-        <v>-66.22101032663875</v>
-      </c>
-      <c r="J16">
-        <v>-35.88281115300017</v>
-      </c>
-      <c r="K16">
-        <v>-3.258155069221307</v>
-      </c>
-      <c r="L16">
-        <v>-226.8753197769533</v>
-      </c>
-      <c r="M16">
-        <v>-121.7569924630005</v>
-      </c>
-      <c r="N16">
-        <v>-10.63712931030272</v>
-      </c>
-      <c r="O16" s="2">
-        <v>45614</v>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1515,21 +1523,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t xml:space="preserve">2388 TT </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Centamin Plc</t>
+          <t>Via Tech</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1538,44 +1546,52 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>0.0001276412408384147</v>
       </c>
       <c r="I17">
-        <v>-84.09978615846607</v>
+        <v>3.432143166841027</v>
       </c>
       <c r="J17">
-        <v>-45.56547448000021</v>
+        <v>0.9975889070823539</v>
       </c>
       <c r="K17">
-        <v>-4.137339770439754</v>
+        <v>0.05383183231447906</v>
       </c>
       <c r="L17">
-        <v>-226.8753197769533</v>
+        <v>3.432143166841027</v>
       </c>
       <c r="M17">
-        <v>-121.7569924630005</v>
+        <v>0.9975889070823539</v>
       </c>
       <c r="N17">
-        <v>-10.63712931030272</v>
+        <v>0.05383183231447906</v>
       </c>
       <c r="O17" s="2">
-        <v>45614</v>
+        <v>45604</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45615</v>
-      </c>
-      <c r="W17" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1584,21 +1600,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>AXRB MK</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Centamin Plc</t>
+          <t>Axis Real Estate</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1607,44 +1623,47 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FTSE 250</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>6.316704520863787e-05</v>
       </c>
       <c r="I18">
-        <v>-31.53741980942478</v>
+        <v>1.626103491639672</v>
       </c>
       <c r="J18">
-        <v>-17.08705293000008</v>
+        <v>4.210198127024521</v>
       </c>
       <c r="K18">
-        <v>-1.551502413914908</v>
+        <v>2.941847188379426</v>
       </c>
       <c r="L18">
-        <v>-226.8753197769533</v>
+        <v>1.626103491639672</v>
       </c>
       <c r="M18">
-        <v>-121.7569924630005</v>
+        <v>4.210198127024521</v>
       </c>
       <c r="N18">
-        <v>-10.63712931030272</v>
+        <v>2.941847188379426</v>
       </c>
       <c r="O18" s="2">
         <v>45614</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45615</v>
-      </c>
-      <c r="W18" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1653,17 +1672,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2388 TT </t>
+          <t>XTB PW</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Via Tech</t>
+          <t>Xtb</t>
         </is>
       </c>
       <c r="D19" s="2">
@@ -1681,45 +1700,40 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H19">
-        <v>0.0001276412408384147</v>
+        <v>0.0001518310377102649</v>
       </c>
       <c r="I19">
-        <v>3.432143166841027</v>
+        <v>3.388291589118158</v>
       </c>
       <c r="J19">
-        <v>0.9975889070823539</v>
+        <v>0.1998002036101965</v>
       </c>
       <c r="K19">
-        <v>0.05383183231447906</v>
+        <v>0.7222565165155334</v>
       </c>
       <c r="L19">
-        <v>3.432143166841027</v>
+        <v>3.388291589118158</v>
       </c>
       <c r="M19">
-        <v>0.9975889070823539</v>
+        <v>0.1998002036101965</v>
       </c>
       <c r="N19">
-        <v>0.05383183231447906</v>
+        <v>0.7222565165155334</v>
       </c>
       <c r="O19" s="2">
-        <v>45604</v>
+        <v>45608</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45615</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+        <v>45616</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1730,17 +1744,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AXRB MK</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Axis Real Estate</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D20" s="2">
@@ -1753,47 +1767,37 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H20">
-        <v>6.316704520863787e-05</v>
-      </c>
-      <c r="I20">
-        <v>1.626103491639672</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J20">
-        <v>4.210198127024521</v>
-      </c>
-      <c r="K20">
-        <v>2.941847188379426</v>
-      </c>
-      <c r="L20">
-        <v>1.626103491639672</v>
+        <v>1.1619372024</v>
       </c>
       <c r="M20">
-        <v>4.210198127024521</v>
-      </c>
-      <c r="N20">
-        <v>2.941847188379426</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O20" s="2">
-        <v>45614</v>
+        <v>45596</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45615</v>
-      </c>
-      <c r="R20" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1807,12 +1811,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>XTB PW</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Xtb</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D21" s="2">
@@ -1825,47 +1829,37 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H21">
-        <v>0.0001518310377102649</v>
-      </c>
-      <c r="I21">
-        <v>3.388291589118158</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J21">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="K21">
-        <v>0.7222565165155334</v>
-      </c>
-      <c r="L21">
-        <v>3.388291589118158</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M21">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="N21">
-        <v>0.7222565165155334</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O21" s="2">
-        <v>45608</v>
+        <v>45596</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45615</v>
-      </c>
-      <c r="T21" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1879,12 +1873,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>BMPS IM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>Banca Monte Paschi</t>
         </is>
       </c>
       <c r="D22" s="2">
@@ -1902,51 +1896,56 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>9.897477582510809e-05</v>
+      </c>
+      <c r="I22">
+        <v>19.1982292485658</v>
       </c>
       <c r="J22">
-        <v>1.1619372024</v>
+        <v>3.016390385161618</v>
+      </c>
+      <c r="K22">
+        <v>0.1001432362650085</v>
+      </c>
+      <c r="L22">
+        <v>19.1982292485658</v>
       </c>
       <c r="M22">
-        <v>0.2977813214999999</v>
+        <v>3.016390385161618</v>
+      </c>
+      <c r="N22">
+        <v>0.1001432362650085</v>
       </c>
       <c r="O22" s="2">
-        <v>45596</v>
+        <v>45611</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45615</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ETNB US</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUNRISE A</t>
+          <t>89Bio</t>
         </is>
       </c>
       <c r="D23" s="2">
@@ -1964,51 +1963,61 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>1.162856760642005e-05</v>
+      </c>
+      <c r="I23">
+        <v>1.24425825573269</v>
       </c>
       <c r="J23">
-        <v>-0.8641558809</v>
+        <v>0.1395690696278958</v>
+      </c>
+      <c r="K23">
+        <v>0.1770807346297178</v>
+      </c>
+      <c r="L23">
+        <v>1.24425825573269</v>
       </c>
       <c r="M23">
-        <v>0.2977813214999999</v>
+        <v>0.1395690696278958</v>
+      </c>
+      <c r="N23">
+        <v>0.1770807346297178</v>
       </c>
       <c r="O23" s="2">
-        <v>45596</v>
+        <v>45610</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45615</v>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BMPS IM</t>
+          <t>DCOM US</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Banca Monte Paschi</t>
+          <t>Dime Community Bancshrs</t>
         </is>
       </c>
       <c r="D24" s="2">
@@ -2026,40 +2035,45 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="H24">
-        <v>9.897477582510809e-05</v>
+        <v>2.634604040380311e-05</v>
       </c>
       <c r="I24">
-        <v>19.1982292485658</v>
+        <v>2.796844259431534</v>
       </c>
       <c r="J24">
-        <v>3.016390385161618</v>
+        <v>0.08299241125909596</v>
       </c>
       <c r="K24">
-        <v>0.1001432362650085</v>
+        <v>0.2683319683415175</v>
       </c>
       <c r="L24">
-        <v>19.1982292485658</v>
+        <v>2.796844259431534</v>
       </c>
       <c r="M24">
-        <v>3.016390385161618</v>
+        <v>0.08299241125909596</v>
       </c>
       <c r="N24">
-        <v>0.1001432362650085</v>
+        <v>0.2683319683415175</v>
       </c>
       <c r="O24" s="2">
         <v>45611</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45615</v>
+        <v>45616</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2070,12 +2084,12 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>ETNB US</t>
+          <t>OS US</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>89Bio</t>
+          <t>Onestream A</t>
         </is>
       </c>
       <c r="D25" s="2">
@@ -2097,28 +2111,28 @@
         </is>
       </c>
       <c r="H25">
-        <v>1.162856760642005e-05</v>
+        <v>0.0001435012341539708</v>
       </c>
       <c r="I25">
-        <v>1.24425825573269</v>
+        <v>15.23404706116151</v>
       </c>
       <c r="J25">
-        <v>0.1395690696278958</v>
+        <v>0.5056105894842852</v>
       </c>
       <c r="K25">
-        <v>0.1770807346297178</v>
+        <v>0.5760133126058917</v>
       </c>
       <c r="L25">
-        <v>1.24425825573269</v>
+        <v>15.23404706116151</v>
       </c>
       <c r="M25">
-        <v>0.1395690696278958</v>
+        <v>0.5056105894842852</v>
       </c>
       <c r="N25">
-        <v>0.1770807346297178</v>
+        <v>0.5760133126058917</v>
       </c>
       <c r="O25" s="2">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2126,7 +2140,7 @@
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2142,12 +2156,12 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>DCOM US</t>
+          <t>PRL CN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dime Community Bancshrs</t>
+          <t>Propel Holdings</t>
         </is>
       </c>
       <c r="D26" s="2">
@@ -2165,47 +2179,42 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="H26">
-        <v>2.634604040380311e-05</v>
+        <v>8.478482241270527e-05</v>
       </c>
       <c r="I26">
-        <v>2.796844259431534</v>
+        <v>9.596443836529115</v>
       </c>
       <c r="J26">
-        <v>0.08299241125909596</v>
+        <v>0.3504364856501185</v>
       </c>
       <c r="K26">
-        <v>0.2683319683415175</v>
+        <v>1.034593529297496</v>
       </c>
       <c r="L26">
-        <v>2.796844259431534</v>
+        <v>9.596443836529115</v>
       </c>
       <c r="M26">
-        <v>0.08299241125909596</v>
+        <v>0.3504364856501185</v>
       </c>
       <c r="N26">
-        <v>0.2683319683415175</v>
+        <v>1.034593529297496</v>
       </c>
       <c r="O26" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45615</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2214,12 +2223,12 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>OS US</t>
+          <t>CON_x US</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Onestream A</t>
+          <t xml:space="preserve">Concentra Distribution Shares </t>
         </is>
       </c>
       <c r="D27" s="2">
@@ -2232,52 +2241,40 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H27">
-        <v>0.0001435012341539708</v>
-      </c>
-      <c r="I27">
-        <v>15.23404706116151</v>
-      </c>
-      <c r="J27">
-        <v>0.5056105894842852</v>
-      </c>
-      <c r="K27">
-        <v>0.5760133126058917</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L27">
-        <v>15.23404706116151</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.5056105894842852</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>0.5760133126058917</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>45611</v>
+        <v>45615</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-off from SEM US</t>
         </is>
       </c>
       <c r="Q27" s="2">
-        <v>45615</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2286,12 +2283,12 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>PRL CN</t>
+          <t>SYRE US</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Propel Holdings</t>
+          <t>Spyre Therapeutics</t>
         </is>
       </c>
       <c r="D28" s="2">
@@ -2309,42 +2306,47 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="H28">
-        <v>8.478482241270527e-05</v>
+        <v>3.162238157073233e-05</v>
       </c>
       <c r="I28">
-        <v>9.596443836529115</v>
+        <v>3.330512836502337</v>
       </c>
       <c r="J28">
-        <v>0.3504364856501185</v>
+        <v>0.1238108861153285</v>
       </c>
       <c r="K28">
-        <v>1.034593529297496</v>
+        <v>0.2662066930214177</v>
       </c>
       <c r="L28">
-        <v>9.596443836529115</v>
+        <v>3.330512836502337</v>
       </c>
       <c r="M28">
-        <v>0.3504364856501185</v>
+        <v>0.1238108861153285</v>
       </c>
       <c r="N28">
-        <v>1.034593529297496</v>
+        <v>0.2662066930214177</v>
       </c>
       <c r="O28" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45615</v>
-      </c>
-      <c r="V28" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2392,13 +2394,13 @@
         <v>3.701374768876201</v>
       </c>
       <c r="L29">
-        <v>23.64000774697608</v>
+        <v>116.4094130699441</v>
       </c>
       <c r="M29">
-        <v>1.151486008133272</v>
+        <v>5.72817102653327</v>
       </c>
       <c r="N29">
-        <v>3.701374768876201</v>
+        <v>16.83421670962961</v>
       </c>
       <c r="O29" s="2">
         <v>45611</v>
@@ -2409,158 +2411,145 @@
         </is>
       </c>
       <c r="Q29" s="2">
+        <v>45616</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CON US</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Concentra Group (HC)</t>
+        </is>
+      </c>
+      <c r="D30" s="2">
+        <v>45622</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I30">
+        <v>92.76940532296797</v>
+      </c>
+      <c r="J30">
+        <v>4.576685018399998</v>
+      </c>
+      <c r="K30">
+        <v>13.13284194075341</v>
+      </c>
+      <c r="L30">
+        <v>116.4094130699441</v>
+      </c>
+      <c r="M30">
+        <v>5.72817102653327</v>
+      </c>
+      <c r="N30">
+        <v>16.83421670962961</v>
+      </c>
+      <c r="O30" s="2">
         <v>45615</v>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003850 KS</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Boryung</t>
-        </is>
-      </c>
-      <c r="D30" s="2">
-        <v>45625</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H30">
-        <v>-3.112251325577096e-06</v>
-      </c>
-      <c r="I30">
-        <v>-0.08117514757608446</v>
-      </c>
-      <c r="J30">
-        <v>-0.01079752455409766</v>
-      </c>
-      <c r="K30">
-        <v>-0.03062579309660501</v>
-      </c>
-      <c r="L30">
-        <v>-0.08117514757608446</v>
-      </c>
-      <c r="M30">
-        <v>-0.01079752455409766</v>
-      </c>
-      <c r="N30">
-        <v>-0.03062579309660501</v>
-      </c>
-      <c r="O30" s="2">
-        <v>45609</v>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Spin-off from SEM</t>
         </is>
       </c>
       <c r="Q30" s="2">
+        <v>45616</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MYE US</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Myers Inds Inc (MA)</t>
+        </is>
+      </c>
+      <c r="D31" s="2">
+        <v>45622</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I31">
+        <v>-50.10732946926377</v>
+      </c>
+      <c r="J31">
+        <v>-4.592789135587879</v>
+      </c>
+      <c r="K31">
+        <v>-15.11404568963284</v>
+      </c>
+      <c r="L31">
+        <v>-50.10732946926377</v>
+      </c>
+      <c r="M31">
+        <v>-4.592789135587879</v>
+      </c>
+      <c r="N31">
+        <v>-15.11404568963284</v>
+      </c>
+      <c r="O31" s="2">
         <v>45615</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CURN SW</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Curatis Holding Ag</t>
-        </is>
-      </c>
-      <c r="D31" s="2">
-        <v>45625</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>SPI</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I31">
-        <v>-0.1634464756409562</v>
-      </c>
-      <c r="J31">
-        <v>-0.009257774723999999</v>
-      </c>
-      <c r="K31">
-        <v>-1.442908756010318</v>
-      </c>
-      <c r="L31">
-        <v>-0.4309043448716117</v>
-      </c>
-      <c r="M31">
-        <v>-0.024406860636</v>
-      </c>
-      <c r="N31">
-        <v>-3.804032174936292</v>
-      </c>
-      <c r="O31" s="2">
-        <v>45614</v>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Free float criteria not fulfilled</t>
+          <t>Discretionary Removal</t>
         </is>
       </c>
       <c r="Q31" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -2571,21 +2560,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CURN SW</t>
+          <t>222080 KS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Creative &amp; Innovative System</t>
         </is>
       </c>
       <c r="D32" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2594,44 +2583,49 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I32">
-        <v>-0.2674578692306556</v>
+        <v>0.7608460963872119</v>
       </c>
       <c r="J32">
-        <v>-0.015149085912</v>
+        <v>0.1251843134188387</v>
       </c>
       <c r="K32">
-        <v>-2.361123418925974</v>
+        <v>0.04471257974582025</v>
       </c>
       <c r="L32">
-        <v>-0.4309043448716117</v>
+        <v>0.7608460963872119</v>
       </c>
       <c r="M32">
-        <v>-0.024406860636</v>
+        <v>0.1251843134188387</v>
       </c>
       <c r="N32">
-        <v>-3.804032174936292</v>
+        <v>0.04471257974582025</v>
       </c>
       <c r="O32" s="2">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Free float criteria not fulfilled</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q32" s="2">
-        <v>45615</v>
-      </c>
-      <c r="W32" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2645,53 +2639,70 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>003850 KS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Boryung</t>
         </is>
       </c>
       <c r="D33" s="2">
-        <v>45631</v>
+        <v>45625</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>-3.112251325577096e-06</v>
+      </c>
+      <c r="I33">
+        <v>-0.08117514757608446</v>
+      </c>
+      <c r="J33">
+        <v>-0.01079752455409766</v>
+      </c>
+      <c r="K33">
+        <v>-0.03062579309660501</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-0.08117514757608446</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-0.01079752455409766</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>-0.03062579309660501</v>
       </c>
       <c r="O33" s="2">
-        <v>45590</v>
+        <v>45609</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q33" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V33" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2700,21 +2711,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CURN SW</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D34" s="2">
-        <v>45632</v>
+        <v>45625</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2723,34 +2734,44 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I34">
+        <v>-0.1634464756409562</v>
+      </c>
+      <c r="J34">
+        <v>-0.009257774723999999</v>
+      </c>
+      <c r="K34">
+        <v>-1.442908756010318</v>
+      </c>
+      <c r="L34">
+        <v>-0.4309043448716117</v>
       </c>
       <c r="M34">
-        <v>-0.1196923767245363</v>
+        <v>-0.024406860636</v>
+      </c>
+      <c r="N34">
+        <v>-3.804032174936292</v>
       </c>
       <c r="O34" s="2">
-        <v>45580</v>
+        <v>45614</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Free float criteria not fulfilled</t>
         </is>
       </c>
       <c r="Q34" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2759,21 +2780,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CURN SW</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D35" s="2">
-        <v>45632</v>
+        <v>45625</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2782,7 +2803,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2790,29 +2811,36 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="I35">
+        <v>-0.2674578692306556</v>
+      </c>
       <c r="J35">
-        <v>-0.1196923767245363</v>
+        <v>-0.015149085912</v>
+      </c>
+      <c r="K35">
+        <v>-2.361123418925974</v>
+      </c>
+      <c r="L35">
+        <v>-0.4309043448716117</v>
       </c>
       <c r="M35">
-        <v>-0.1196923767245363</v>
+        <v>-0.024406860636</v>
+      </c>
+      <c r="N35">
+        <v>-3.804032174936292</v>
       </c>
       <c r="O35" s="2">
-        <v>45588</v>
+        <v>45614</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Spin-Off by Jusung Engineering</t>
+          <t>Free float criteria not fulfilled</t>
         </is>
       </c>
       <c r="Q35" s="2">
-        <v>45595</v>
+        <v>45616</v>
       </c>
       <c r="W35" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2821,25 +2849,25 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>EQC US</t>
+          <t>CON_x US</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Equity Commonwealth</t>
+          <t xml:space="preserve">Concentra Distribution Shares </t>
         </is>
       </c>
       <c r="D36" s="2">
-        <v>45632</v>
+        <v>45625</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2847,96 +2875,87 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H36">
-        <v>-0.0002638907874384385</v>
-      </c>
-      <c r="I36">
-        <v>-28.01682045864</v>
-      </c>
-      <c r="J36">
-        <v>-1.395259983</v>
-      </c>
-      <c r="K36">
-        <v>-0.5081628648052433</v>
-      </c>
       <c r="L36">
-        <v>-28.01682045864</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>-1.395259983</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>-0.5081628648052433</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>45611</v>
+        <v>45615</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Liquidation</t>
+          <t>Spin-off from SEM US</t>
         </is>
       </c>
       <c r="Q36" s="2">
+        <v>45616</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CON US</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Concentra Group</t>
+        </is>
+      </c>
+      <c r="D37" s="2">
+        <v>45625</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Share Inc</t>
+        </is>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
         <v>45615</v>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Canal+</t>
-        </is>
-      </c>
-      <c r="D37" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J37">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M37">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O37" s="2">
-        <v>45600</v>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Spin-off from SEM US</t>
         </is>
       </c>
       <c r="Q37" s="2">
-        <v>45615</v>
-      </c>
-      <c r="W37" t="inlineStr">
+        <v>45616</v>
+      </c>
+      <c r="R37" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2950,7 +2969,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2960,11 +2979,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D38" s="2">
-        <v>45642</v>
+        <v>45631</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2973,37 +2992,35 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J38">
-        <v>-12.976968375</v>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L38">
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>-12.976968375</v>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>45600</v>
+        <v>45590</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q38" s="2">
-        <v>45615</v>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="V38" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3012,7 +3029,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3022,11 +3039,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Havas</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D39" s="2">
-        <v>45642</v>
+        <v>45632</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3035,32 +3052,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J39">
-        <v>-12.976968375</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="M39">
-        <v>-12.976968375</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O39" s="2">
-        <v>45600</v>
+        <v>45580</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q39" s="2">
-        <v>45615</v>
-      </c>
-      <c r="W39" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="V39" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3084,125 +3098,440 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D40" s="2">
-        <v>45646</v>
+        <v>45632</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>KOSDAQ150</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J40">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="M40">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O40" s="2">
+        <v>45588</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Spin-Off by Jusung Engineering</t>
+        </is>
+      </c>
+      <c r="Q40" s="2">
+        <v>45595</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EQC US</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Equity Commonwealth</t>
+        </is>
+      </c>
+      <c r="D41" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="J40">
-        <v>-0.158686858219997</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>-0.158686858219997</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>45609</v>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Spin off by GS Retail</t>
-        </is>
-      </c>
-      <c r="Q40" s="2">
-        <v>45615</v>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ARAMCO AB</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Saudi Arabian Oil Co</t>
-        </is>
-      </c>
-      <c r="D41" s="2">
-        <v>45646</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>FTSE EM</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>F Inc</t>
-        </is>
+      <c r="H41">
+        <v>-0.0002638907874384385</v>
       </c>
       <c r="I41">
-        <v>361.3818757216084</v>
+        <v>-28.01682045864</v>
       </c>
       <c r="J41">
-        <v>48.8008521160914</v>
+        <v>-1.395259983</v>
       </c>
       <c r="K41">
-        <v>3.324102669118699</v>
+        <v>-0.5081628648052433</v>
       </c>
       <c r="L41">
-        <v>361.3818757216084</v>
+        <v>-28.01682045864</v>
       </c>
       <c r="M41">
-        <v>48.8008521160914</v>
+        <v>-1.395259983</v>
       </c>
       <c r="N41">
-        <v>3.324102669118699</v>
+        <v>-0.5081628648052433</v>
       </c>
       <c r="O41" s="2">
         <v>45611</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
+          <t>Liquidation</t>
+        </is>
+      </c>
+      <c r="Q41" s="2">
+        <v>45616</v>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Canal+</t>
+        </is>
+      </c>
+      <c r="D42" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J42">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M42">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O42" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q42" s="2">
+        <v>45616</v>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Louis Hachette</t>
+        </is>
+      </c>
+      <c r="D43" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J43">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M43">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O43" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q43" s="2">
+        <v>45616</v>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Havas</t>
+        </is>
+      </c>
+      <c r="D44" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J44">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M44">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O44" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q44" s="2">
+        <v>45616</v>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GS P&amp;L</t>
+        </is>
+      </c>
+      <c r="D45" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J45">
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>45609</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Spin off by GS Retail</t>
+        </is>
+      </c>
+      <c r="Q45" s="2">
+        <v>45616</v>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ARAMCO AB</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Saudi Arabian Oil Co</t>
+        </is>
+      </c>
+      <c r="D46" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I46">
+        <v>361.3818757216084</v>
+      </c>
+      <c r="J46">
+        <v>48.8008521160914</v>
+      </c>
+      <c r="K46">
+        <v>3.324102669118699</v>
+      </c>
+      <c r="L46">
+        <v>361.3818757216084</v>
+      </c>
+      <c r="M46">
+        <v>48.8008521160914</v>
+      </c>
+      <c r="N46">
+        <v>3.324102669118699</v>
+      </c>
+      <c r="O46" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
           <t>Public shareholder disclosure</t>
         </is>
       </c>
-      <c r="Q41" s="2">
-        <v>45615</v>
-      </c>
-      <c r="T41" t="inlineStr">
+      <c r="Q46" s="2">
+        <v>45616</v>
+      </c>
+      <c r="T46" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +506,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HHFA GY</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hamburger Hafen Und Logi</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,47 +524,43 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>-5.01741854749736e-05</v>
-      </c>
-      <c r="I2">
-        <v>-9.756481627110961</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J2">
-        <v>-0.5415799536</v>
-      </c>
-      <c r="K2">
-        <v>-31.47430579907655</v>
+        <v>0.7177087420866</v>
       </c>
       <c r="L2">
-        <v>-9.756481627110961</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-0.5415799536</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N2">
-        <v>-31.47430579907655</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>45614</v>
+        <v>45608</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q2" s="2">
         <v>45616</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -578,12 +574,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D3" s="2">
@@ -596,47 +592,43 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>0.0002609298317320255</v>
-      </c>
-      <c r="I3">
-        <v>169.2567887469962</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J3">
-        <v>6.517444245722097</v>
-      </c>
-      <c r="K3">
-        <v>3.471595128764175</v>
+        <v>1.1744324870508</v>
       </c>
       <c r="L3">
-        <v>245.2448925040395</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.572007845342924</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N3">
-        <v>5.126232730112789</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q3" s="2">
         <v>45616</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -650,12 +642,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Centamin</t>
+          <t>Anglogold Ashanti</t>
         </is>
       </c>
       <c r="D4" s="2">
@@ -668,34 +660,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H4">
-        <v>-0.000278655968179756</v>
+        <v>0.0002609298317320255</v>
       </c>
       <c r="I4">
-        <v>-45.0171034824237</v>
+        <v>169.2567887469962</v>
       </c>
       <c r="J4">
-        <v>-23.2216539</v>
+        <v>6.517444245722097</v>
       </c>
       <c r="K4">
-        <v>-1.690132056726749</v>
+        <v>3.471595128764175</v>
       </c>
       <c r="L4">
-        <v>-226.8753197769533</v>
+        <v>245.2448925040395</v>
       </c>
       <c r="M4">
-        <v>-121.7569924630005</v>
+        <v>9.572007845342924</v>
       </c>
       <c r="N4">
-        <v>-10.63712931030272</v>
+        <v>5.126232730112789</v>
       </c>
       <c r="O4" s="2">
         <v>45602</v>
@@ -706,9 +698,9 @@
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W4" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -722,12 +714,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CEY LN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sunrise Communications</t>
+          <t>Centamin</t>
         </is>
       </c>
       <c r="D5" s="2">
@@ -740,43 +732,47 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>-0.000278655968179756</v>
+      </c>
+      <c r="I5">
+        <v>-45.0171034824237</v>
       </c>
       <c r="J5">
-        <v>0.7177087420866</v>
+        <v>-23.2216539</v>
+      </c>
+      <c r="K5">
+        <v>-1.690132056726749</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-226.8753197769533</v>
       </c>
       <c r="M5">
-        <v>1.8921412291374</v>
+        <v>-121.7569924630005</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-10.63712931030272</v>
       </c>
       <c r="O5" s="2">
-        <v>45608</v>
+        <v>45602</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45616</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -790,7 +786,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>SUNN SE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -808,7 +804,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -817,7 +813,7 @@
         </is>
       </c>
       <c r="J6">
-        <v>1.1744324870508</v>
+        <v>0.7177087420866</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -837,7 +833,7 @@
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -858,12 +854,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ANG SJ</t>
+          <t>SUNN SE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anglogold Ashanti Plc</t>
+          <t>Sunrise Communications</t>
         </is>
       </c>
       <c r="D7" s="2">
@@ -876,49 +872,43 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="I7">
-        <v>75.98810375704332</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J7">
-        <v>3.054563599620826</v>
-      </c>
-      <c r="K7">
-        <v>1.654637601348614</v>
+        <v>1.1744324870508</v>
       </c>
       <c r="L7">
-        <v>245.2448925040395</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.572007845342924</v>
+        <v>1.8921412291374</v>
       </c>
       <c r="N7">
-        <v>5.126232730112789</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>45614</v>
+        <v>45608</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45616</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -932,12 +922,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CEY LN</t>
+          <t>ANG SJ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Centamin Plc</t>
+          <t>Anglogold Ashanti Plc</t>
         </is>
       </c>
       <c r="D8" s="2">
@@ -950,31 +940,31 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I8">
-        <v>-66.22101032663875</v>
+        <v>75.98810375704332</v>
       </c>
       <c r="J8">
-        <v>-35.88281115300017</v>
+        <v>3.054563599620826</v>
       </c>
       <c r="K8">
-        <v>-3.258155069221307</v>
+        <v>1.654637601348614</v>
       </c>
       <c r="L8">
-        <v>-226.8753197769533</v>
+        <v>245.2448925040395</v>
       </c>
       <c r="M8">
-        <v>-121.7569924630005</v>
+        <v>9.572007845342924</v>
       </c>
       <c r="N8">
-        <v>-10.63712931030272</v>
+        <v>5.126232730112789</v>
       </c>
       <c r="O8" s="2">
         <v>45614</v>
@@ -985,9 +975,14 @@
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W8" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1019,7 +1014,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1028,13 +1023,13 @@
         </is>
       </c>
       <c r="I9">
-        <v>-84.09978615846607</v>
+        <v>-66.22101032663875</v>
       </c>
       <c r="J9">
-        <v>-45.56547448000021</v>
+        <v>-35.88281115300017</v>
       </c>
       <c r="K9">
-        <v>-4.137339770439754</v>
+        <v>-3.258155069221307</v>
       </c>
       <c r="L9">
         <v>-226.8753197769533</v>
@@ -1054,7 +1049,7 @@
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1088,7 +1083,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FTSE 250</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1097,13 +1092,13 @@
         </is>
       </c>
       <c r="I10">
-        <v>-31.53741980942478</v>
+        <v>-84.09978615846607</v>
       </c>
       <c r="J10">
-        <v>-17.08705293000008</v>
+        <v>-45.56547448000021</v>
       </c>
       <c r="K10">
-        <v>-1.551502413914908</v>
+        <v>-4.137339770439754</v>
       </c>
       <c r="L10">
         <v>-226.8753197769533</v>
@@ -1123,7 +1118,7 @@
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1139,126 +1134,131 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>CEY LN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Centamin Plc</t>
+        </is>
+      </c>
+      <c r="D11" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FTSE 250</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>-31.53741980942478</v>
+      </c>
+      <c r="J11">
+        <v>-17.08705293000008</v>
+      </c>
+      <c r="K11">
+        <v>-1.551502413914908</v>
+      </c>
+      <c r="L11">
+        <v>-226.8753197769533</v>
+      </c>
+      <c r="M11">
+        <v>-121.7569924630005</v>
+      </c>
+      <c r="N11">
+        <v>-10.63712931030272</v>
+      </c>
+      <c r="O11" s="2">
+        <v>45614</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Merger</t>
+        </is>
+      </c>
+      <c r="Q11" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>MTRO LN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Metro Bank Holdings Plc</t>
         </is>
       </c>
-      <c r="D11" s="2">
-        <v>45617</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="D12" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>FTSE 250</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Add</t>
         </is>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>5.404366824208683</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>4.700042026350003</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>2.104139668117467</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>5.404366824208683</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>4.700042026350003</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>2.104139668117467</v>
-      </c>
-      <c r="O11" s="2">
-        <v>45615</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Replacing CEY LN</t>
-        </is>
-      </c>
-      <c r="Q11" s="2">
-        <v>45616</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ENV US</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Envestnet Inc</t>
-        </is>
-      </c>
-      <c r="D12" s="2">
-        <v>45618</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Russell 2000</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I12">
-        <v>-277.8756675720152</v>
-      </c>
-      <c r="J12">
-        <v>-4.403734826814821</v>
-      </c>
-      <c r="K12">
-        <v>-6.527532341462187</v>
-      </c>
-      <c r="L12">
-        <v>-627.4234821791745</v>
-      </c>
-      <c r="M12">
-        <v>-9.944197889220263</v>
-      </c>
-      <c r="N12">
-        <v>-14.74000499224764</v>
       </c>
       <c r="O12" s="2">
         <v>45615</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Replacing CEY LN</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W12" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1267,12 +1267,12 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>FLEX US</t>
+          <t>ENV US</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Flex Ltd (IT)</t>
+          <t>Envestnet Inc</t>
         </is>
       </c>
       <c r="D13" s="2">
@@ -1285,44 +1285,44 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I13">
-        <v>1415.641017046208</v>
+        <v>-277.8756675720152</v>
       </c>
       <c r="J13">
-        <v>37.9223417371071</v>
+        <v>-4.403734826814821</v>
       </c>
       <c r="K13">
-        <v>13.18785110754228</v>
+        <v>-6.527532341462187</v>
       </c>
       <c r="L13">
-        <v>1415.641017046208</v>
+        <v>-627.4234821791745</v>
       </c>
       <c r="M13">
-        <v>37.9223417371071</v>
+        <v>-9.944197889220263</v>
       </c>
       <c r="N13">
-        <v>13.18785110754228</v>
+        <v>-14.74000499224764</v>
       </c>
       <c r="O13" s="2">
         <v>45615</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Replacing AZTA</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45616</v>
-      </c>
-      <c r="V13" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1331,12 +1331,12 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>AZTA US</t>
+          <t>FLEX US</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Azenta Inc (HC)</t>
+          <t>Flex Ltd (IT)</t>
         </is>
       </c>
       <c r="D14" s="2">
@@ -1354,39 +1354,39 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I14">
-        <v>-214.6958761322659</v>
+        <v>1415.641017046208</v>
       </c>
       <c r="J14">
-        <v>-5.248004794237739</v>
+        <v>37.9223417371071</v>
       </c>
       <c r="K14">
-        <v>-9.201934621239591</v>
+        <v>13.18785110754228</v>
       </c>
       <c r="L14">
-        <v>7.033028546065907</v>
+        <v>1415.641017046208</v>
       </c>
       <c r="M14">
-        <v>0.1719146552448283</v>
+        <v>37.9223417371071</v>
       </c>
       <c r="N14">
-        <v>0.3014378759205432</v>
+        <v>13.18785110754228</v>
       </c>
       <c r="O14" s="2">
         <v>45615</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Moving to S&amp;P 600</t>
+          <t>Replacing AZTA</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W14" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1413,22 +1413,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I15">
-        <v>221.7289046783318</v>
+        <v>-214.6958761322659</v>
       </c>
       <c r="J15">
-        <v>5.419919449482568</v>
+        <v>-5.248004794237739</v>
       </c>
       <c r="K15">
-        <v>9.503372497160134</v>
+        <v>-9.201934621239591</v>
       </c>
       <c r="L15">
         <v>7.033028546065907</v>
@@ -1444,13 +1444,13 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 400</t>
+          <t>Moving to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45616</v>
-      </c>
-      <c r="V15" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1459,12 +1459,12 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENV US</t>
+          <t>AZTA US</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Envestnet Inc (IT)</t>
+          <t>Azenta Inc (HC)</t>
         </is>
       </c>
       <c r="D16" s="2">
@@ -1482,384 +1482,362 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I16">
-        <v>-349.5478146071593</v>
+        <v>221.7289046783318</v>
       </c>
       <c r="J16">
-        <v>-5.540463062405441</v>
+        <v>5.419919449482568</v>
       </c>
       <c r="K16">
-        <v>-8.212472650785456</v>
+        <v>9.503372497160134</v>
       </c>
       <c r="L16">
-        <v>-627.4234821791745</v>
+        <v>7.033028546065907</v>
       </c>
       <c r="M16">
-        <v>-9.944197889220263</v>
+        <v>0.1719146552448283</v>
       </c>
       <c r="N16">
-        <v>-14.74000499224764</v>
+        <v>0.3014378759205432</v>
       </c>
       <c r="O16" s="2">
         <v>45615</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>Moved from S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q16" s="2">
+        <v>45617</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ENV US</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Envestnet Inc (IT)</t>
+        </is>
+      </c>
+      <c r="D17" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>-349.5478146071593</v>
+      </c>
+      <c r="J17">
+        <v>-5.540463062405441</v>
+      </c>
+      <c r="K17">
+        <v>-8.212472650785456</v>
+      </c>
+      <c r="L17">
+        <v>-627.4234821791745</v>
+      </c>
+      <c r="M17">
+        <v>-9.944197889220263</v>
+      </c>
+      <c r="N17">
+        <v>-14.74000499224764</v>
+      </c>
+      <c r="O17" s="2">
+        <v>45615</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
           <t>Acquired</t>
         </is>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q17" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>QDEL US</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Quidelortho Corp</t>
+        </is>
+      </c>
+      <c r="D18" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Russell 1000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>10.70390353938384</v>
+      </c>
+      <c r="J18">
+        <v>0.2913816126142329</v>
+      </c>
+      <c r="K18">
+        <v>0.417482969895677</v>
+      </c>
+      <c r="L18">
+        <v>10.70390353938384</v>
+      </c>
+      <c r="M18">
+        <v>0.2913816126142329</v>
+      </c>
+      <c r="N18">
+        <v>0.417482969895677</v>
+      </c>
+      <c r="O18" s="2">
         <v>45616</v>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2388 TT </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Via Tech</t>
-        </is>
-      </c>
-      <c r="D17" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H17">
-        <v>0.0001276412408384147</v>
-      </c>
-      <c r="I17">
-        <v>3.432143166841027</v>
-      </c>
-      <c r="J17">
-        <v>0.9975889070823539</v>
-      </c>
-      <c r="K17">
-        <v>0.05383183231447906</v>
-      </c>
-      <c r="L17">
-        <v>3.432143166841027</v>
-      </c>
-      <c r="M17">
-        <v>0.9975889070823539</v>
-      </c>
-      <c r="N17">
-        <v>0.05383183231447906</v>
-      </c>
-      <c r="O17" s="2">
-        <v>45604</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Public Offering</t>
-        </is>
-      </c>
-      <c r="Q17" s="2">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Equity Offering</t>
+        </is>
+      </c>
+      <c r="Q18" s="2">
+        <v>45617</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HAYN US</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Haynes International</t>
+        </is>
+      </c>
+      <c r="D19" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>-9.568523410278904e-05</v>
+      </c>
+      <c r="I19">
+        <v>-10.13525086704</v>
+      </c>
+      <c r="J19">
+        <v>-0.166178896</v>
+      </c>
+      <c r="K19">
+        <v>-0.6828374059155939</v>
+      </c>
+      <c r="L19">
+        <v>-95.1895776423067</v>
+      </c>
+      <c r="M19">
+        <v>-1.560740738519539</v>
+      </c>
+      <c r="N19">
+        <v>-6.413161856590204</v>
+      </c>
+      <c r="O19" s="2">
         <v>45616</v>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AXRB MK</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Axis Real Estate</t>
-        </is>
-      </c>
-      <c r="D18" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H18">
-        <v>6.316704520863787e-05</v>
-      </c>
-      <c r="I18">
-        <v>1.626103491639672</v>
-      </c>
-      <c r="J18">
-        <v>4.210198127024521</v>
-      </c>
-      <c r="K18">
-        <v>2.941847188379426</v>
-      </c>
-      <c r="L18">
-        <v>1.626103491639672</v>
-      </c>
-      <c r="M18">
-        <v>4.210198127024521</v>
-      </c>
-      <c r="N18">
-        <v>2.941847188379426</v>
-      </c>
-      <c r="O18" s="2">
-        <v>45614</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
-      <c r="Q18" s="2">
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Acquired</t>
+        </is>
+      </c>
+      <c r="Q19" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DFH US</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Dream Finders-A (CD)</t>
+        </is>
+      </c>
+      <c r="D20" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>85.54313872088127</v>
+      </c>
+      <c r="J20">
+        <v>3.06496376642355</v>
+      </c>
+      <c r="K20">
+        <v>6.985826149988172</v>
+      </c>
+      <c r="L20">
+        <v>85.54313872088127</v>
+      </c>
+      <c r="M20">
+        <v>3.06496376642355</v>
+      </c>
+      <c r="N20">
+        <v>6.985826149988172</v>
+      </c>
+      <c r="O20" s="2">
         <v>45616</v>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>XTB PW</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Xtb</t>
-        </is>
-      </c>
-      <c r="D19" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H19">
-        <v>0.0001518310377102649</v>
-      </c>
-      <c r="I19">
-        <v>3.388291589118158</v>
-      </c>
-      <c r="J19">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="K19">
-        <v>0.7222565165155334</v>
-      </c>
-      <c r="L19">
-        <v>3.388291589118158</v>
-      </c>
-      <c r="M19">
-        <v>0.1998002036101965</v>
-      </c>
-      <c r="N19">
-        <v>0.7222565165155334</v>
-      </c>
-      <c r="O19" s="2">
-        <v>45608</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Review Amendment</t>
-        </is>
-      </c>
-      <c r="Q19" s="2">
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Replacing HAYN</t>
+        </is>
+      </c>
+      <c r="Q20" s="2">
+        <v>45617</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HAYN US</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Haynes Intl Inc (MA)</t>
+        </is>
+      </c>
+      <c r="D21" s="2">
+        <v>45618</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I21">
+        <v>-85.0543267752667</v>
+      </c>
+      <c r="J21">
+        <v>-1.394561842519539</v>
+      </c>
+      <c r="K21">
+        <v>-5.73032445067461</v>
+      </c>
+      <c r="L21">
+        <v>-95.1895776423067</v>
+      </c>
+      <c r="M21">
+        <v>-1.560740738519539</v>
+      </c>
+      <c r="N21">
+        <v>-6.413161856590204</v>
+      </c>
+      <c r="O21" s="2">
         <v>45616</v>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUNRISE A</t>
-        </is>
-      </c>
-      <c r="D20" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="J20">
-        <v>1.1619372024</v>
-      </c>
-      <c r="M20">
-        <v>0.2977813214999999</v>
-      </c>
-      <c r="O20" s="2">
-        <v>45596</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Spin-off from Liberty Global</t>
-        </is>
-      </c>
-      <c r="Q20" s="2">
-        <v>45616</v>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUNRISE A</t>
-        </is>
-      </c>
-      <c r="D21" s="2">
-        <v>45621</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J21">
-        <v>-0.8641558809</v>
-      </c>
-      <c r="M21">
-        <v>0.2977813214999999</v>
-      </c>
-      <c r="O21" s="2">
-        <v>45596</v>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Spin-off from Liberty Global</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="W21" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1873,12 +1851,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BMPS IM</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Banca Monte Paschi</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D22" s="2">
@@ -1896,56 +1874,51 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H22">
-        <v>9.897477582510809e-05</v>
-      </c>
-      <c r="I22">
-        <v>19.1982292485658</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J22">
-        <v>3.016390385161618</v>
-      </c>
-      <c r="K22">
-        <v>0.1001432362650085</v>
-      </c>
-      <c r="L22">
-        <v>19.1982292485658</v>
+        <v>1.1619372024</v>
       </c>
       <c r="M22">
-        <v>3.016390385161618</v>
-      </c>
-      <c r="N22">
-        <v>0.1001432362650085</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O22" s="2">
-        <v>45611</v>
+        <v>45596</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q22" s="2">
         <v>45616</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ETNB US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>89Bio</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D23" s="2">
@@ -1963,61 +1936,51 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H23">
-        <v>1.162856760642005e-05</v>
-      </c>
-      <c r="I23">
-        <v>1.24425825573269</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J23">
-        <v>0.1395690696278958</v>
-      </c>
-      <c r="K23">
-        <v>0.1770807346297178</v>
-      </c>
-      <c r="L23">
-        <v>1.24425825573269</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M23">
-        <v>0.1395690696278958</v>
-      </c>
-      <c r="N23">
-        <v>0.1770807346297178</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O23" s="2">
-        <v>45610</v>
+        <v>45596</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q23" s="2">
         <v>45616</v>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DCOM US</t>
+          <t xml:space="preserve">2388 TT </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dime Community Bancshrs</t>
+          <t>Via Tech</t>
         </is>
       </c>
       <c r="D24" s="2">
@@ -2030,7 +1993,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2039,28 +2002,28 @@
         </is>
       </c>
       <c r="H24">
-        <v>2.634604040380311e-05</v>
+        <v>0.0001276412408384147</v>
       </c>
       <c r="I24">
-        <v>2.796844259431534</v>
+        <v>3.432143166841027</v>
       </c>
       <c r="J24">
-        <v>0.08299241125909596</v>
+        <v>0.9975889070823539</v>
       </c>
       <c r="K24">
-        <v>0.2683319683415175</v>
+        <v>0.05383183231447906</v>
       </c>
       <c r="L24">
-        <v>2.796844259431534</v>
+        <v>3.432143166841027</v>
       </c>
       <c r="M24">
-        <v>0.08299241125909596</v>
+        <v>0.9975889070823539</v>
       </c>
       <c r="N24">
-        <v>0.2683319683415175</v>
+        <v>0.05383183231447906</v>
       </c>
       <c r="O24" s="2">
-        <v>45611</v>
+        <v>45604</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2068,7 +2031,7 @@
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2082,14 +2045,19 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OS US</t>
+          <t>AXRB MK</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Onestream A</t>
+          <t>Axis Real Estate</t>
         </is>
       </c>
       <c r="D25" s="2">
@@ -2102,66 +2070,66 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H25">
-        <v>0.0001435012341539708</v>
+        <v>6.316704520863787e-05</v>
       </c>
       <c r="I25">
-        <v>15.23404706116151</v>
+        <v>1.626103491639672</v>
       </c>
       <c r="J25">
-        <v>0.5056105894842852</v>
+        <v>4.210198127024521</v>
       </c>
       <c r="K25">
-        <v>0.5760133126058917</v>
+        <v>2.941847188379426</v>
       </c>
       <c r="L25">
-        <v>15.23404706116151</v>
+        <v>1.626103491639672</v>
       </c>
       <c r="M25">
-        <v>0.5056105894842852</v>
+        <v>4.210198127024521</v>
       </c>
       <c r="N25">
-        <v>0.5760133126058917</v>
+        <v>2.941847188379426</v>
       </c>
       <c r="O25" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PRL CN</t>
+          <t>XTB PW</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Propel Holdings</t>
+          <t>Xtb</t>
         </is>
       </c>
       <c r="D26" s="2">
@@ -2174,61 +2142,66 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H26">
-        <v>8.478482241270527e-05</v>
+        <v>0.0001518310377102649</v>
       </c>
       <c r="I26">
-        <v>9.596443836529115</v>
+        <v>3.388291589118158</v>
       </c>
       <c r="J26">
-        <v>0.3504364856501185</v>
+        <v>0.1998002036101965</v>
       </c>
       <c r="K26">
-        <v>1.034593529297496</v>
+        <v>0.7222565165155334</v>
       </c>
       <c r="L26">
-        <v>9.596443836529115</v>
+        <v>3.388291589118158</v>
       </c>
       <c r="M26">
-        <v>0.3504364856501185</v>
+        <v>0.1998002036101965</v>
       </c>
       <c r="N26">
-        <v>1.034593529297496</v>
+        <v>0.7222565165155334</v>
       </c>
       <c r="O26" s="2">
-        <v>45614</v>
+        <v>45608</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45616</v>
-      </c>
-      <c r="V26" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CON_x US</t>
+          <t>SUNN SE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Concentra Distribution Shares </t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D27" s="2">
@@ -2241,7 +2214,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2249,25 +2222,22 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="L27">
-        <v>0</v>
+      <c r="J27">
+        <v>1.1619372024</v>
       </c>
       <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O27" s="2">
-        <v>45615</v>
+        <v>45596</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Spin-off from SEM US</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q27" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2281,14 +2251,19 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SYRE US</t>
+          <t>SUNN SE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spyre Therapeutics</t>
+          <t xml:space="preserve"> SUNRISE A</t>
         </is>
       </c>
       <c r="D28" s="2">
@@ -2306,69 +2281,59 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H28">
-        <v>3.162238157073233e-05</v>
-      </c>
-      <c r="I28">
-        <v>3.330512836502337</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J28">
-        <v>0.1238108861153285</v>
-      </c>
-      <c r="K28">
-        <v>0.2662066930214177</v>
-      </c>
-      <c r="L28">
-        <v>3.330512836502337</v>
+        <v>-0.8641558809</v>
       </c>
       <c r="M28">
-        <v>0.1238108861153285</v>
-      </c>
-      <c r="N28">
-        <v>0.2662066930214177</v>
+        <v>0.2977813214999999</v>
       </c>
       <c r="O28" s="2">
-        <v>45615</v>
+        <v>45596</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-off from Liberty Global</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45616</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CON US</t>
+          <t>BMPS IM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Concentra Grp Hldgs</t>
+          <t>Banca Monte Paschi</t>
         </is>
       </c>
       <c r="D29" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2382,43 +2347,38 @@
         </is>
       </c>
       <c r="H29">
-        <v>0.0002227013059701727</v>
+        <v>9.897477582510809e-05</v>
       </c>
       <c r="I29">
-        <v>23.64000774697608</v>
+        <v>19.1982292485658</v>
       </c>
       <c r="J29">
-        <v>1.151486008133272</v>
+        <v>3.016390385161618</v>
       </c>
       <c r="K29">
-        <v>3.701374768876201</v>
+        <v>0.1001432362650085</v>
       </c>
       <c r="L29">
-        <v>116.4094130699441</v>
+        <v>19.1982292485658</v>
       </c>
       <c r="M29">
-        <v>5.72817102653327</v>
+        <v>3.016390385161618</v>
       </c>
       <c r="N29">
-        <v>16.83421670962961</v>
+        <v>0.1001432362650085</v>
       </c>
       <c r="O29" s="2">
         <v>45611</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Spin-off from SEM US</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="T29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2427,16 +2387,16 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>CON US</t>
+          <t>ETNB US</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Concentra Group (HC)</t>
+          <t>89Bio</t>
         </is>
       </c>
       <c r="D30" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2445,49 +2405,52 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>1.162856760642005e-05</v>
       </c>
       <c r="I30">
-        <v>92.76940532296797</v>
+        <v>1.24425825573269</v>
       </c>
       <c r="J30">
-        <v>4.576685018399998</v>
+        <v>0.1395690696278958</v>
       </c>
       <c r="K30">
-        <v>13.13284194075341</v>
+        <v>0.1770807346297178</v>
       </c>
       <c r="L30">
-        <v>116.4094130699441</v>
+        <v>1.24425825573269</v>
       </c>
       <c r="M30">
-        <v>5.72817102653327</v>
+        <v>0.1395690696278958</v>
       </c>
       <c r="N30">
-        <v>16.83421670962961</v>
+        <v>0.1770807346297178</v>
       </c>
       <c r="O30" s="2">
-        <v>45615</v>
+        <v>45610</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Spin-off from SEM</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q30" s="2">
-        <v>45616</v>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2496,16 +2459,16 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>MYE US</t>
+          <t>DCOM US</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Myers Inds Inc (MA)</t>
+          <t>Dime Community Bancshrs</t>
         </is>
       </c>
       <c r="D31" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2514,287 +2477,269 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>2.634604040380311e-05</v>
       </c>
       <c r="I31">
-        <v>-50.10732946926377</v>
+        <v>2.796844259431534</v>
       </c>
       <c r="J31">
-        <v>-4.592789135587879</v>
+        <v>0.08299241125909596</v>
       </c>
       <c r="K31">
-        <v>-15.11404568963284</v>
+        <v>0.2683319683415175</v>
       </c>
       <c r="L31">
-        <v>-50.10732946926377</v>
+        <v>2.796844259431534</v>
       </c>
       <c r="M31">
-        <v>-4.592789135587879</v>
+        <v>0.08299241125909596</v>
       </c>
       <c r="N31">
-        <v>-15.11404568963284</v>
+        <v>0.2683319683415175</v>
       </c>
       <c r="O31" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q31" s="2">
+        <v>45617</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OS US</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Onestream A</t>
+        </is>
+      </c>
+      <c r="D32" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>0.0001435012341539708</v>
+      </c>
+      <c r="I32">
+        <v>15.23404706116151</v>
+      </c>
+      <c r="J32">
+        <v>0.5056105894842852</v>
+      </c>
+      <c r="K32">
+        <v>0.5760133126058917</v>
+      </c>
+      <c r="L32">
+        <v>15.23404706116151</v>
+      </c>
+      <c r="M32">
+        <v>0.5056105894842852</v>
+      </c>
+      <c r="N32">
+        <v>0.5760133126058917</v>
+      </c>
+      <c r="O32" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q32" s="2">
+        <v>45617</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PRL CN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Propel Holdings</t>
+        </is>
+      </c>
+      <c r="D33" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>8.478482241270527e-05</v>
+      </c>
+      <c r="I33">
+        <v>9.596443836529115</v>
+      </c>
+      <c r="J33">
+        <v>0.3504364856501185</v>
+      </c>
+      <c r="K33">
+        <v>1.034593529297496</v>
+      </c>
+      <c r="L33">
+        <v>9.596443836529115</v>
+      </c>
+      <c r="M33">
+        <v>0.3504364856501185</v>
+      </c>
+      <c r="N33">
+        <v>1.034593529297496</v>
+      </c>
+      <c r="O33" s="2">
+        <v>45614</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q33" s="2">
+        <v>45617</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CON_x US</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concentra Distribution Shares </t>
+        </is>
+      </c>
+      <c r="D34" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
         <v>45615</v>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Discretionary Removal</t>
-        </is>
-      </c>
-      <c r="Q31" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>222080 KS</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Creative &amp; Innovative System</t>
-        </is>
-      </c>
-      <c r="D32" s="2">
-        <v>45623</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="I32">
-        <v>0.7608460963872119</v>
-      </c>
-      <c r="J32">
-        <v>0.1251843134188387</v>
-      </c>
-      <c r="K32">
-        <v>0.04471257974582025</v>
-      </c>
-      <c r="L32">
-        <v>0.7608460963872119</v>
-      </c>
-      <c r="M32">
-        <v>0.1251843134188387</v>
-      </c>
-      <c r="N32">
-        <v>0.04471257974582025</v>
-      </c>
-      <c r="O32" s="2">
-        <v>45616</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q32" s="2">
-        <v>45616</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>003850 KS</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Boryung</t>
-        </is>
-      </c>
-      <c r="D33" s="2">
-        <v>45625</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H33">
-        <v>-3.112251325577096e-06</v>
-      </c>
-      <c r="I33">
-        <v>-0.08117514757608446</v>
-      </c>
-      <c r="J33">
-        <v>-0.01079752455409766</v>
-      </c>
-      <c r="K33">
-        <v>-0.03062579309660501</v>
-      </c>
-      <c r="L33">
-        <v>-0.08117514757608446</v>
-      </c>
-      <c r="M33">
-        <v>-0.01079752455409766</v>
-      </c>
-      <c r="N33">
-        <v>-0.03062579309660501</v>
-      </c>
-      <c r="O33" s="2">
-        <v>45609</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
-      <c r="Q33" s="2">
-        <v>45616</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CURN SW</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Curatis Holding Ag</t>
-        </is>
-      </c>
-      <c r="D34" s="2">
-        <v>45625</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>SPI</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I34">
-        <v>-0.1634464756409562</v>
-      </c>
-      <c r="J34">
-        <v>-0.009257774723999999</v>
-      </c>
-      <c r="K34">
-        <v>-1.442908756010318</v>
-      </c>
-      <c r="L34">
-        <v>-0.4309043448716117</v>
-      </c>
-      <c r="M34">
-        <v>-0.024406860636</v>
-      </c>
-      <c r="N34">
-        <v>-3.804032174936292</v>
-      </c>
-      <c r="O34" s="2">
-        <v>45614</v>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Free float criteria not fulfilled</t>
+          <t>Spin-off from SEM US</t>
         </is>
       </c>
       <c r="Q34" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W34" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CURN SW</t>
+          <t>SYRE US</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Spyre Therapeutics</t>
         </is>
       </c>
       <c r="D35" s="2">
-        <v>45625</v>
+        <v>45621</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2803,44 +2748,52 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H35">
+        <v>3.162238157073233e-05</v>
       </c>
       <c r="I35">
-        <v>-0.2674578692306556</v>
+        <v>3.330512836502337</v>
       </c>
       <c r="J35">
-        <v>-0.015149085912</v>
+        <v>0.1238108861153285</v>
       </c>
       <c r="K35">
-        <v>-2.361123418925974</v>
+        <v>0.2662066930214177</v>
       </c>
       <c r="L35">
-        <v>-0.4309043448716117</v>
+        <v>3.330512836502337</v>
       </c>
       <c r="M35">
-        <v>-0.024406860636</v>
+        <v>0.1238108861153285</v>
       </c>
       <c r="N35">
-        <v>-3.804032174936292</v>
+        <v>0.2662066930214177</v>
       </c>
       <c r="O35" s="2">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Free float criteria not fulfilled</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q35" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W35" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2849,16 +2802,16 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>CON_x US</t>
+          <t>QDEL US</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Concentra Distribution Shares </t>
+          <t>Quidelortho Corp</t>
         </is>
       </c>
       <c r="D36" s="2">
-        <v>45625</v>
+        <v>45621</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2867,40 +2820,52 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H36">
+        <v>4.740785693696596e-05</v>
+      </c>
+      <c r="I36">
+        <v>5.020694946707243</v>
+      </c>
+      <c r="J36">
+        <v>0.1339566421213245</v>
+      </c>
+      <c r="K36">
+        <v>0.1919291210187063</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>5.020694946707243</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>0.1339566421213245</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.1919291210187063</v>
       </c>
       <c r="O36" s="2">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Spin-off from SEM US</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q36" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2909,306 +2874,349 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
+          <t>RXRX US</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Recursion Pharma A</t>
+        </is>
+      </c>
+      <c r="D37" s="2">
+        <v>45621</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H37">
+        <v>4.783174854031916e-05</v>
+      </c>
+      <c r="I37">
+        <v>5.06594797318995</v>
+      </c>
+      <c r="J37">
+        <v>0.8387331081440316</v>
+      </c>
+      <c r="K37">
+        <v>0.1353927393717637</v>
+      </c>
+      <c r="L37">
+        <v>5.06594797318995</v>
+      </c>
+      <c r="M37">
+        <v>0.8387331081440316</v>
+      </c>
+      <c r="N37">
+        <v>0.1353927393717637</v>
+      </c>
+      <c r="O37" s="2">
+        <v>45616</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q37" s="2">
+        <v>45617</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
           <t>CON US</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Concentra Group</t>
-        </is>
-      </c>
-      <c r="D37" s="2">
-        <v>45625</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Russell 2000</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Share Inc</t>
-        </is>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Concentra Grp Hldgs</t>
+        </is>
+      </c>
+      <c r="D38" s="2">
+        <v>45622</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H38">
+        <v>0.0002227013059701727</v>
+      </c>
+      <c r="I38">
+        <v>23.64000774697608</v>
+      </c>
+      <c r="J38">
+        <v>1.151486008133272</v>
+      </c>
+      <c r="K38">
+        <v>3.701374768876201</v>
+      </c>
+      <c r="L38">
+        <v>76.53242197816003</v>
+      </c>
+      <c r="M38">
+        <v>3.639370026533269</v>
+      </c>
+      <c r="N38">
+        <v>10.35937526587441</v>
+      </c>
+      <c r="O38" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Spin-off from SEM US</t>
+        </is>
+      </c>
+      <c r="Q38" s="2">
+        <v>45617</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CON US</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Concentra Group (HC)</t>
+        </is>
+      </c>
+      <c r="D39" s="2">
+        <v>45622</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I39">
+        <v>52.89241423118395</v>
+      </c>
+      <c r="J39">
+        <v>2.487884018399997</v>
+      </c>
+      <c r="K39">
+        <v>6.658000496998208</v>
+      </c>
+      <c r="L39">
+        <v>76.53242197816003</v>
+      </c>
+      <c r="M39">
+        <v>3.639370026533269</v>
+      </c>
+      <c r="N39">
+        <v>10.35937526587441</v>
+      </c>
+      <c r="O39" s="2">
         <v>45615</v>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Spin-off from SEM US</t>
-        </is>
-      </c>
-      <c r="Q37" s="2">
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Spin-off from SEM</t>
+        </is>
+      </c>
+      <c r="Q39" s="2">
+        <v>45617</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MYE US</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Myers Inds Inc (MA)</t>
+        </is>
+      </c>
+      <c r="D40" s="2">
+        <v>45622</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I40">
+        <v>-50.10732946926377</v>
+      </c>
+      <c r="J40">
+        <v>-4.592789135587879</v>
+      </c>
+      <c r="K40">
+        <v>-15.11404568963284</v>
+      </c>
+      <c r="L40">
+        <v>-50.10732946926377</v>
+      </c>
+      <c r="M40">
+        <v>-4.592789135587879</v>
+      </c>
+      <c r="N40">
+        <v>-15.11404568963284</v>
+      </c>
+      <c r="O40" s="2">
+        <v>45615</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q40" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>222080 KS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Creative &amp; Innovative System</t>
+        </is>
+      </c>
+      <c r="D41" s="2">
+        <v>45623</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I41">
+        <v>0.7608460963872119</v>
+      </c>
+      <c r="J41">
+        <v>0.1251843134188387</v>
+      </c>
+      <c r="K41">
+        <v>0.04471257974582025</v>
+      </c>
+      <c r="L41">
+        <v>0.7608460963872119</v>
+      </c>
+      <c r="M41">
+        <v>0.1251843134188387</v>
+      </c>
+      <c r="N41">
+        <v>0.04471257974582025</v>
+      </c>
+      <c r="O41" s="2">
         <v>45616</v>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D38" s="2">
-        <v>45631</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2">
-        <v>45590</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Demerger</t>
-        </is>
-      </c>
-      <c r="Q38" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D39" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="M39">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O39" s="2">
-        <v>45580</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
-      <c r="Q39" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Jusung Engineering (New)</t>
-        </is>
-      </c>
-      <c r="D40" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>KOSDAQ150</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J40">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="M40">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O40" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Spin-Off by Jusung Engineering</t>
-        </is>
-      </c>
-      <c r="Q40" s="2">
-        <v>45595</v>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>EQC US</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Equity Commonwealth</t>
-        </is>
-      </c>
-      <c r="D41" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H41">
-        <v>-0.0002638907874384385</v>
-      </c>
-      <c r="I41">
-        <v>-28.01682045864</v>
-      </c>
-      <c r="J41">
-        <v>-1.395259983</v>
-      </c>
-      <c r="K41">
-        <v>-0.5081628648052433</v>
-      </c>
-      <c r="L41">
-        <v>-28.01682045864</v>
-      </c>
-      <c r="M41">
-        <v>-1.395259983</v>
-      </c>
-      <c r="N41">
-        <v>-0.5081628648052433</v>
-      </c>
-      <c r="O41" s="2">
-        <v>45611</v>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Liquidation</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q41" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W41" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3217,60 +3225,75 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>003850 KS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Canal+</t>
+          <t>Boryung</t>
         </is>
       </c>
       <c r="D42" s="2">
-        <v>45642</v>
+        <v>45625</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H42">
+        <v>-3.112251325577096e-06</v>
+      </c>
+      <c r="I42">
+        <v>-0.08117514757608446</v>
       </c>
       <c r="J42">
-        <v>-12.976968375</v>
+        <v>-0.01079752455409766</v>
+      </c>
+      <c r="K42">
+        <v>-0.03062579309660501</v>
+      </c>
+      <c r="L42">
+        <v>-0.08117514757608446</v>
       </c>
       <c r="M42">
-        <v>-12.976968375</v>
+        <v>-0.01079752455409766</v>
+      </c>
+      <c r="N42">
+        <v>-0.03062579309660501</v>
       </c>
       <c r="O42" s="2">
-        <v>45600</v>
+        <v>45609</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q42" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
+        <v>45617</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3284,16 +3307,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CURN SW</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D43" s="2">
-        <v>45642</v>
+        <v>45625</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3302,37 +3325,44 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I43">
+        <v>-0.1634464756409562</v>
       </c>
       <c r="J43">
-        <v>-12.976968375</v>
+        <v>-0.009257774723999999</v>
+      </c>
+      <c r="K43">
+        <v>-1.442908756010318</v>
+      </c>
+      <c r="L43">
+        <v>-0.4309043448716117</v>
       </c>
       <c r="M43">
-        <v>-12.976968375</v>
+        <v>-0.024406860636</v>
+      </c>
+      <c r="N43">
+        <v>-3.804032174936292</v>
       </c>
       <c r="O43" s="2">
-        <v>45600</v>
+        <v>45614</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Free float criteria not fulfilled</t>
         </is>
       </c>
       <c r="Q43" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="W43" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3346,16 +3376,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CURN SW</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Havas</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D44" s="2">
-        <v>45642</v>
+        <v>45625</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3364,174 +3394,735 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I44">
+        <v>-0.2674578692306556</v>
       </c>
       <c r="J44">
-        <v>-12.976968375</v>
+        <v>-0.015149085912</v>
+      </c>
+      <c r="K44">
+        <v>-2.361123418925974</v>
+      </c>
+      <c r="L44">
+        <v>-0.4309043448716117</v>
       </c>
       <c r="M44">
-        <v>-12.976968375</v>
+        <v>-0.024406860636</v>
+      </c>
+      <c r="N44">
+        <v>-3.804032174936292</v>
       </c>
       <c r="O44" s="2">
-        <v>45600</v>
+        <v>45614</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Free float criteria not fulfilled</t>
         </is>
       </c>
       <c r="Q44" s="2">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CON_x US</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t xml:space="preserve">Concentra Distribution Shares </t>
         </is>
       </c>
       <c r="D45" s="2">
-        <v>45646</v>
+        <v>45625</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
-      </c>
-      <c r="J45">
-        <v>-0.158686858219997</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>-0.158686858219997</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45" s="2">
+        <v>45615</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Spin-off from SEM US</t>
+        </is>
+      </c>
+      <c r="Q45" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CON US</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Concentra Group</t>
+        </is>
+      </c>
+      <c r="D46" s="2">
+        <v>45625</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Share Inc</t>
+        </is>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>45615</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Spin-off from SEM US</t>
+        </is>
+      </c>
+      <c r="Q46" s="2">
+        <v>45617</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D47" s="2">
+        <v>45631</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>45590</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Demerger</t>
+        </is>
+      </c>
+      <c r="Q47" s="2">
+        <v>45594</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D48" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="M48">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O48" s="2">
+        <v>45580</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q48" s="2">
+        <v>45595</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Jusung Engineering (New)</t>
+        </is>
+      </c>
+      <c r="D49" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>KOSDAQ150</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J49">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="M49">
+        <v>-0.1196923767245363</v>
+      </c>
+      <c r="O49" s="2">
+        <v>45588</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Spin-Off by Jusung Engineering</t>
+        </is>
+      </c>
+      <c r="Q49" s="2">
+        <v>45595</v>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>EQC US</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Equity Commonwealth</t>
+        </is>
+      </c>
+      <c r="D50" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H50">
+        <v>-0.0002638907874384385</v>
+      </c>
+      <c r="I50">
+        <v>-28.01682045864</v>
+      </c>
+      <c r="J50">
+        <v>-1.395259983</v>
+      </c>
+      <c r="K50">
+        <v>-0.5081628648052433</v>
+      </c>
+      <c r="L50">
+        <v>-28.01682045864</v>
+      </c>
+      <c r="M50">
+        <v>-1.395259983</v>
+      </c>
+      <c r="N50">
+        <v>-0.5081628648052433</v>
+      </c>
+      <c r="O50" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Liquidation</t>
+        </is>
+      </c>
+      <c r="Q50" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Canal+</t>
+        </is>
+      </c>
+      <c r="D51" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J51">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M51">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O51" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q51" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Louis Hachette</t>
+        </is>
+      </c>
+      <c r="D52" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J52">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M52">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O52" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q52" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Havas</t>
+        </is>
+      </c>
+      <c r="D53" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J53">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M53">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O53" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q53" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>GS P&amp;L</t>
+        </is>
+      </c>
+      <c r="D54" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J54">
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
         <v>45609</v>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>Spin off by GS Retail</t>
         </is>
       </c>
-      <c r="Q45" s="2">
-        <v>45616</v>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="Q54" s="2">
+        <v>45617</v>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>ARAMCO AB</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Saudi Arabian Oil Co</t>
         </is>
       </c>
-      <c r="D46" s="2">
+      <c r="D55" s="2">
         <v>45646</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>FTSE EM</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>F Inc</t>
         </is>
       </c>
-      <c r="I46">
+      <c r="I55">
         <v>361.3818757216084</v>
       </c>
-      <c r="J46">
+      <c r="J55">
         <v>48.8008521160914</v>
       </c>
-      <c r="K46">
+      <c r="K55">
         <v>3.324102669118699</v>
       </c>
-      <c r="L46">
+      <c r="L55">
         <v>361.3818757216084</v>
       </c>
-      <c r="M46">
+      <c r="M55">
         <v>48.8008521160914</v>
       </c>
-      <c r="N46">
+      <c r="N55">
         <v>3.324102669118699</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O55" s="2">
         <v>45611</v>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>Public shareholder disclosure</t>
         </is>
       </c>
-      <c r="Q46" s="2">
-        <v>45616</v>
-      </c>
-      <c r="T46" t="inlineStr">
+      <c r="Q55" s="2">
+        <v>45617</v>
+      </c>
+      <c r="T55" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,14 +499,19 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>187A JP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">RAMACO RESOURCES A(DET) </t>
+          <t>Samty Holdings Co Ltd /Japan</t>
         </is>
       </c>
       <c r="D2" s="2">
@@ -519,40 +524,44 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>-17.99875274074589</v>
+      </c>
+      <c r="J2">
+        <v>-0.8335399300586476</v>
+      </c>
+      <c r="K2">
+        <v>-2.87591191560249</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-17.99875274074589</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.8335399300586476</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-2.87591191560249</v>
       </c>
       <c r="O2" s="2">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Spin-off from METC US</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45624</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -579,7 +588,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -622,7 +631,7 @@
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45624</v>
+        <v>45628</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -633,17 +642,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>187A JP</t>
+          <t>GVTD IN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Samty Holdings Co Ltd /Japan</t>
+          <t>Ge Vernova T&amp;D India Ltd</t>
         </is>
       </c>
       <c r="D4" s="2">
@@ -656,111 +665,113 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I4">
-        <v>-17.99875274074589</v>
+        <v>17.07336970256792</v>
       </c>
       <c r="J4">
-        <v>-0.8335399300586476</v>
+        <v>0.8237248511999991</v>
       </c>
       <c r="K4">
-        <v>-2.87591191560249</v>
+        <v>1.294894887009405</v>
       </c>
       <c r="L4">
-        <v>-17.99875274074589</v>
+        <v>17.07336970256792</v>
       </c>
       <c r="M4">
-        <v>-0.8335399300586476</v>
+        <v>0.8237248511999991</v>
       </c>
       <c r="N4">
-        <v>-2.87591191560249</v>
+        <v>1.294894887009405</v>
       </c>
       <c r="O4" s="2">
         <v>45624</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>Secondary Offering</t>
+        </is>
+      </c>
+      <c r="Q4" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>187A JP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Samty Holdings Co Ltd /Japan</t>
+        </is>
+      </c>
+      <c r="D5" s="2">
+        <v>45628</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>-17.99875274074589</v>
+      </c>
+      <c r="J5">
+        <v>-0.8335399300586476</v>
+      </c>
+      <c r="K5">
+        <v>-2.87591191560249</v>
+      </c>
+      <c r="L5">
+        <v>-17.99875274074589</v>
+      </c>
+      <c r="M5">
+        <v>-0.8335399300586476</v>
+      </c>
+      <c r="N5">
+        <v>-2.87591191560249</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45624</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>Tender Offer</t>
         </is>
       </c>
-      <c r="Q4" s="2">
-        <v>45624</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LB US</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Landbridge Co Llc</t>
-        </is>
-      </c>
-      <c r="D5" s="2">
-        <v>45628</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>2.886033069086332e-05</v>
-      </c>
-      <c r="I5">
-        <v>3.162269545271559</v>
-      </c>
-      <c r="J5">
-        <v>0.04168010472217687</v>
-      </c>
-      <c r="K5">
-        <v>0.07478934155363902</v>
-      </c>
-      <c r="L5">
-        <v>3.162269545271559</v>
-      </c>
-      <c r="M5">
-        <v>0.04168010472217687</v>
-      </c>
-      <c r="N5">
-        <v>0.07478934155363902</v>
-      </c>
-      <c r="O5" s="2">
-        <v>45622</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
       <c r="Q5" s="2">
-        <v>45624</v>
-      </c>
-      <c r="R5" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -769,12 +780,12 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>REPL US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Replimune Group</t>
+          <t xml:space="preserve">RAMACO RESOURCES A(DET) </t>
         </is>
       </c>
       <c r="D6" s="2">
@@ -792,147 +803,120 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>1.409395045065426e-05</v>
-      </c>
-      <c r="I6">
-        <v>1.544316282669745</v>
-      </c>
-      <c r="J6">
-        <v>0.1073933437183411</v>
-      </c>
-      <c r="K6">
-        <v>0.1138966879949042</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L6">
-        <v>1.544316282669745</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1073933437183411</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1138966879949042</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-off from METC US</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45624</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9503 JP</t>
+          <t>LB US</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kansai Electric Power Co</t>
+          <t>Landbridge Co Llc</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H7">
-        <v>3.801145429476402e-05</v>
+        <v>2.886033069086332e-05</v>
       </c>
       <c r="I7">
-        <v>180.8640450792115</v>
+        <v>3.162269545271559</v>
       </c>
       <c r="J7">
-        <v>14.71854210821919</v>
+        <v>0.04168010472217687</v>
       </c>
       <c r="K7">
-        <v>1.927079538295556</v>
+        <v>0.07478934155363902</v>
       </c>
       <c r="L7">
-        <v>180.8640450792115</v>
+        <v>3.162269545271559</v>
       </c>
       <c r="M7">
-        <v>14.71854210821919</v>
+        <v>0.04168010472217687</v>
       </c>
       <c r="N7">
-        <v>1.927079538295556</v>
+        <v>0.07478934155363902</v>
       </c>
       <c r="O7" s="2">
         <v>45622</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Public Offering &amp; Secondary Offering</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45624</v>
+        <v>45628</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>REPL US</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Replimune Group</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -941,35 +925,52 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>1.409395045065426e-05</v>
+      </c>
+      <c r="I8">
+        <v>1.544316282669745</v>
+      </c>
+      <c r="J8">
+        <v>0.1073933437183411</v>
+      </c>
+      <c r="K8">
+        <v>0.1138966879949042</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.544316282669745</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1073933437183411</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1138966879949042</v>
       </c>
       <c r="O8" s="2">
-        <v>45590</v>
+        <v>45622</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V8" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -983,16 +984,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>9503 JP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Kansai Electric Power Co</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1001,34 +1002,52 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>3.801145429476402e-05</v>
+      </c>
+      <c r="I9">
+        <v>180.8640450792115</v>
+      </c>
+      <c r="J9">
+        <v>14.71854210821919</v>
+      </c>
+      <c r="K9">
+        <v>1.927079538295556</v>
+      </c>
+      <c r="L9">
+        <v>180.8640450792115</v>
       </c>
       <c r="M9">
-        <v>-0.1196923767245363</v>
+        <v>14.71854210821919</v>
+      </c>
+      <c r="N9">
+        <v>1.927079538295556</v>
       </c>
       <c r="O9" s="2">
-        <v>45580</v>
+        <v>45622</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Public Offering &amp; Secondary Offering</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1042,16 +1061,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>GPL IN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Godrej Properties Ltd</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1060,102 +1079,102 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I10">
+        <v>10.90030629131986</v>
+      </c>
+      <c r="J10">
+        <v>0.3320981950610728</v>
+      </c>
+      <c r="K10">
+        <v>0.4886734057088029</v>
+      </c>
+      <c r="L10">
+        <v>10.90030629131986</v>
+      </c>
+      <c r="M10">
+        <v>0.3320981950610728</v>
+      </c>
+      <c r="N10">
+        <v>0.4886734057088029</v>
+      </c>
+      <c r="O10" s="2">
+        <v>45625</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q10" s="2">
+        <v>45628</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATS LN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Artemis Alpha Trust Plc-Ord</t>
+        </is>
+      </c>
+      <c r="D11" s="2">
+        <v>45629</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FTSE All Share</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="J10">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="M10">
-        <v>-0.1196923767245363</v>
-      </c>
-      <c r="O10" s="2">
-        <v>45588</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Spin-Off by Jusung Engineering</t>
-        </is>
-      </c>
-      <c r="Q10" s="2">
-        <v>45595</v>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>EQC US</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Equity Commonwealth</t>
-        </is>
-      </c>
-      <c r="D11" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>-0.0002638907874384385</v>
-      </c>
-      <c r="I11">
-        <v>-28.01682045864</v>
-      </c>
-      <c r="J11">
-        <v>-1.395259983</v>
-      </c>
-      <c r="K11">
-        <v>-0.5081628648052433</v>
-      </c>
       <c r="L11">
-        <v>-28.01682045864</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-1.395259983</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>-0.5081628648052433</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>45611</v>
+        <v>45625</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Liquidation</t>
+          <t xml:space="preserve">Scheme of Reconstruction </t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45624</v>
+        <v>45628</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1171,16 +1190,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ARR LN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Canal+</t>
+          <t>Aurora Investment Trust Plc</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45642</v>
+        <v>45629</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1189,60 +1208,67 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I12">
+        <v>-1.283208570068149</v>
       </c>
       <c r="J12">
-        <v>-12.976968375</v>
+        <v>-0.439392692292308</v>
+      </c>
+      <c r="K12">
+        <v>-6.160745587293398</v>
+      </c>
+      <c r="L12">
+        <v>-1.283208570068149</v>
       </c>
       <c r="M12">
-        <v>-12.976968375</v>
+        <v>-0.439392692292308</v>
+      </c>
+      <c r="N12">
+        <v>-6.160745587293398</v>
       </c>
       <c r="O12" s="2">
-        <v>45600</v>
+        <v>45625</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t xml:space="preserve">Scheme of Reconstruction </t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45624</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>MAC US</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Macerich Co</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45642</v>
+        <v>45629</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1251,37 +1277,47 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>8.117304564158071e-05</v>
+      </c>
+      <c r="I13">
+        <v>8.962583694102266</v>
       </c>
       <c r="J13">
-        <v>-12.976968375</v>
+        <v>0.4225640591278768</v>
+      </c>
+      <c r="K13">
+        <v>0.1663868447639852</v>
+      </c>
+      <c r="L13">
+        <v>8.962583694102266</v>
       </c>
       <c r="M13">
-        <v>-12.976968375</v>
+        <v>0.4225640591278768</v>
+      </c>
+      <c r="N13">
+        <v>0.1663868447639852</v>
       </c>
       <c r="O13" s="2">
-        <v>45600</v>
+        <v>45625</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45624</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1290,7 +1326,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1300,11 +1336,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Havas</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45642</v>
+        <v>45631</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1313,37 +1349,35 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J14">
-        <v>-12.976968375</v>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>-12.976968375</v>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>45600</v>
+        <v>45590</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45624</v>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1357,16 +1391,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>IDX AU</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Integral Diagnostics Ltd</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45646</v>
+        <v>45631</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1375,43 +1409,49 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>6.889151588619043</v>
       </c>
       <c r="J15">
-        <v>-0.158686858219997</v>
+        <v>3.72110205102753</v>
+      </c>
+      <c r="K15">
+        <v>4.548557423232247</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.889151588619043</v>
       </c>
       <c r="M15">
-        <v>-0.158686858219997</v>
+        <v>3.72110205102753</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.548557423232247</v>
       </c>
       <c r="O15" s="2">
-        <v>45609</v>
+        <v>45628</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Spin off by GS Retail</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45624</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1430,11 +1470,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45646</v>
+        <v>45632</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1443,7 +1483,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1451,25 +1491,19 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
-        <v>-0.158686858219997</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O16" s="2">
-        <v>45624</v>
+        <v>45580</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Spin off by GS Retail</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45624</v>
+        <v>45595</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1485,21 +1519,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CURN SE</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45646</v>
+        <v>45632</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1508,113 +1542,104 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I17">
-        <v>0.03617654735321396</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="J17">
-        <v>0.002282341292</v>
-      </c>
-      <c r="K17">
-        <v>0.3036522347431582</v>
-      </c>
-      <c r="L17">
-        <v>0.09537453393120043</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M17">
-        <v>0.006017081588</v>
-      </c>
-      <c r="N17">
-        <v>0.8005377097774171</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O17" s="2">
-        <v>45614</v>
+        <v>45588</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45624</v>
-      </c>
-      <c r="T17" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CURN SE</t>
+          <t>EQC US</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Equity Commonwealth</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45646</v>
+        <v>45632</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>-0.0002638907874384385</v>
       </c>
       <c r="I18">
-        <v>0.05919798657798648</v>
+        <v>-28.01682045864</v>
       </c>
       <c r="J18">
-        <v>0.003734740296</v>
+        <v>-1.395259983</v>
       </c>
       <c r="K18">
-        <v>0.4968854750342589</v>
+        <v>-0.5081628648052433</v>
       </c>
       <c r="L18">
-        <v>0.09537453393120043</v>
+        <v>-28.01682045864</v>
       </c>
       <c r="M18">
-        <v>0.006017081588</v>
+        <v>-1.395259983</v>
       </c>
       <c r="N18">
-        <v>0.8005377097774171</v>
+        <v>-0.5081628648052433</v>
       </c>
       <c r="O18" s="2">
-        <v>45614</v>
+        <v>45611</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Liquidation</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45624</v>
-      </c>
-      <c r="T18" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1628,16 +1653,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BLV FP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Believe Sa</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45646</v>
+        <v>45642</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1646,44 +1671,37 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I19">
-        <v>-2.28629558044203</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J19">
-        <v>-0.15320318645835</v>
-      </c>
-      <c r="K19">
-        <v>-54.61107756905555</v>
-      </c>
-      <c r="L19">
-        <v>-2.28629558044203</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M19">
-        <v>-0.15320318645835</v>
-      </c>
-      <c r="N19">
-        <v>-54.61107756905555</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O19" s="2">
-        <v>45623</v>
+        <v>45600</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45624</v>
+        <v>45628</v>
       </c>
       <c r="W19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1697,62 +1715,2416 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Louis Hachette</t>
+        </is>
+      </c>
+      <c r="D20" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J20">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M20">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O20" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q20" s="2">
+        <v>45628</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Havas</t>
+        </is>
+      </c>
+      <c r="D21" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>CAC 40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J21">
+        <v>-12.976968375</v>
+      </c>
+      <c r="M21">
+        <v>-12.976968375</v>
+      </c>
+      <c r="O21" s="2">
+        <v>45600</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Spin-off from Vivendi</t>
+        </is>
+      </c>
+      <c r="Q21" s="2">
+        <v>45628</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4921 JP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fancl Corp</t>
+        </is>
+      </c>
+      <c r="D22" s="2">
+        <v>45643</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I22">
+        <v>-22.05060407789443</v>
+      </c>
+      <c r="J22">
+        <v>-1.187546670000023</v>
+      </c>
+      <c r="K22">
+        <v>-12.40451945474511</v>
+      </c>
+      <c r="L22">
+        <v>-22.05060407789443</v>
+      </c>
+      <c r="M22">
+        <v>-1.187546670000023</v>
+      </c>
+      <c r="N22">
+        <v>-12.40451945474511</v>
+      </c>
+      <c r="O22" s="2">
+        <v>45628</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q22" s="2">
+        <v>45628</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SAVOLA AB</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Savola</t>
+        </is>
+      </c>
+      <c r="D23" s="2">
+        <v>45643</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I23">
+        <v>-243.8083327243425</v>
+      </c>
+      <c r="J23">
+        <v>-37.7842587486</v>
+      </c>
+      <c r="K23">
+        <v>-38.23519314600604</v>
+      </c>
+      <c r="L23">
+        <v>-227.6739577646434</v>
+      </c>
+      <c r="M23">
+        <v>-35.28382986082499</v>
+      </c>
+      <c r="N23">
+        <v>-35.70492301134387</v>
+      </c>
+      <c r="O23" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q23" s="2">
+        <v>45628</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SAVOLA AB</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Savola</t>
+        </is>
+      </c>
+      <c r="D24" s="2">
+        <v>45643</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I24">
+        <v>16.13437495969914</v>
+      </c>
+      <c r="J24">
+        <v>2.500428887775</v>
+      </c>
+      <c r="K24">
+        <v>2.530270134662165</v>
+      </c>
+      <c r="L24">
+        <v>-227.6739577646434</v>
+      </c>
+      <c r="M24">
+        <v>-35.28382986082499</v>
+      </c>
+      <c r="N24">
+        <v>-35.70492301134387</v>
+      </c>
+      <c r="O24" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q24" s="2">
+        <v>45628</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Savola (Detached)</t>
+        </is>
+      </c>
+      <c r="D25" s="2">
+        <v>45643</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q25" s="2">
+        <v>45628</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9961 HK</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Trip.Com Group Ltd</t>
+        </is>
+      </c>
+      <c r="D26" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I26">
+        <v>155.6624242861552</v>
+      </c>
+      <c r="J26">
+        <v>2.418546608908261</v>
+      </c>
+      <c r="K26">
+        <v>1.085094542466942</v>
+      </c>
+      <c r="L26">
+        <v>155.6624242861552</v>
+      </c>
+      <c r="M26">
+        <v>2.418546608908261</v>
+      </c>
+      <c r="N26">
+        <v>1.085094542466942</v>
+      </c>
+      <c r="O26" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q26" s="2">
+        <v>45625</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ADANIGR IN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Adani Green Energy Ltd</t>
+        </is>
+      </c>
+      <c r="D27" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I27">
+        <v>-56.55601408783848</v>
+      </c>
+      <c r="J27">
+        <v>-4.393962854399981</v>
+      </c>
+      <c r="K27">
+        <v>-0.8471153693359731</v>
+      </c>
+      <c r="L27">
+        <v>-56.55601408783848</v>
+      </c>
+      <c r="M27">
+        <v>-4.393962854399981</v>
+      </c>
+      <c r="N27">
+        <v>-0.8471153693359731</v>
+      </c>
+      <c r="O27" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q27" s="2">
+        <v>45625</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011200 KS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hmm Co Ltd</t>
+        </is>
+      </c>
+      <c r="D28" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I28">
+        <v>-50.89240754399992</v>
+      </c>
+      <c r="J28">
+        <v>-3.814799999999994</v>
+      </c>
+      <c r="K28">
+        <v>-2.021020777606654</v>
+      </c>
+      <c r="L28">
+        <v>-50.89240754399992</v>
+      </c>
+      <c r="M28">
+        <v>-3.814799999999994</v>
+      </c>
+      <c r="N28">
+        <v>-2.021020777606654</v>
+      </c>
+      <c r="O28" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q28" s="2">
+        <v>45625</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BDMS TB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bangkok Dusit Med Service</t>
+        </is>
+      </c>
+      <c r="D29" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I29">
+        <v>22.65721188701599</v>
+      </c>
+      <c r="J29">
+        <v>30.27795521280029</v>
+      </c>
+      <c r="K29">
+        <v>0.5173116364331635</v>
+      </c>
+      <c r="L29">
+        <v>22.65721188701599</v>
+      </c>
+      <c r="M29">
+        <v>30.27795521280029</v>
+      </c>
+      <c r="N29">
+        <v>0.5173116364331635</v>
+      </c>
+      <c r="O29" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q29" s="2">
+        <v>45625</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6890 TT</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Lai Yih Footwear Co Ltd</t>
+        </is>
+      </c>
+      <c r="D30" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>FTSE EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I30">
+        <v>42.52118783723223</v>
+      </c>
+      <c r="J30">
+        <v>3.56105360000002</v>
+      </c>
+      <c r="K30">
+        <v>4.361665687827779</v>
+      </c>
+      <c r="L30">
+        <v>42.52118783723223</v>
+      </c>
+      <c r="M30">
+        <v>3.56105360000002</v>
+      </c>
+      <c r="N30">
+        <v>4.361665687827779</v>
+      </c>
+      <c r="O30" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q30" s="2">
+        <v>45625</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GS P&amp;L</t>
+        </is>
+      </c>
+      <c r="D31" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J31">
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45609</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Spin off by GS Retail</t>
+        </is>
+      </c>
+      <c r="Q31" s="2">
+        <v>45628</v>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GS P&amp;L</t>
+        </is>
+      </c>
+      <c r="D32" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>-0.158686858219997</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>45624</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Spin off by GS Retail</t>
+        </is>
+      </c>
+      <c r="Q32" s="2">
+        <v>45628</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CURN SE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Curatis Holding Ag</t>
+        </is>
+      </c>
+      <c r="D33" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SPI</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I33">
+        <v>0.03617654735321396</v>
+      </c>
+      <c r="J33">
+        <v>0.002282341292</v>
+      </c>
+      <c r="K33">
+        <v>0.3036522347431582</v>
+      </c>
+      <c r="L33">
+        <v>0.09537453393120043</v>
+      </c>
+      <c r="M33">
+        <v>0.006017081588</v>
+      </c>
+      <c r="N33">
+        <v>0.8005377097774171</v>
+      </c>
+      <c r="O33" s="2">
+        <v>45614</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="Q33" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CURN SE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Curatis Holding Ag</t>
+        </is>
+      </c>
+      <c r="D34" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SPI Extra</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I34">
+        <v>0.05919798657798648</v>
+      </c>
+      <c r="J34">
+        <v>0.003734740296</v>
+      </c>
+      <c r="K34">
+        <v>0.4968854750342589</v>
+      </c>
+      <c r="L34">
+        <v>0.09537453393120043</v>
+      </c>
+      <c r="M34">
+        <v>0.006017081588</v>
+      </c>
+      <c r="N34">
+        <v>0.8005377097774171</v>
+      </c>
+      <c r="O34" s="2">
+        <v>45614</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="Q34" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UCG IM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Unicredit Spa</t>
+        </is>
+      </c>
+      <c r="D35" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>S Dec &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I35">
+        <v>-29.35103880806036</v>
+      </c>
+      <c r="J35">
+        <v>-0.7677952501984909</v>
+      </c>
+      <c r="K35">
+        <v>-0.03593990117629201</v>
+      </c>
+      <c r="L35">
+        <v>-29.35103880806036</v>
+      </c>
+      <c r="M35">
+        <v>-0.7677952501984909</v>
+      </c>
+      <c r="N35">
+        <v>-0.03593990117629201</v>
+      </c>
+      <c r="O35" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q35" s="2">
+        <v>45628</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AG1 GY</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D36" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I36">
+        <v>11.45745426812044</v>
+      </c>
+      <c r="J36">
+        <v>0.9023230347566403</v>
+      </c>
+      <c r="K36">
+        <v>0.6793460396007601</v>
+      </c>
+      <c r="L36">
+        <v>11.45745426812044</v>
+      </c>
+      <c r="M36">
+        <v>0.9023230347566403</v>
+      </c>
+      <c r="N36">
+        <v>0.6793460396007601</v>
+      </c>
+      <c r="O36" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q36" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>R3NK GY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Renk Group Ag</t>
+        </is>
+      </c>
+      <c r="D37" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I37">
+        <v>-2.063019719250005</v>
+      </c>
+      <c r="J37">
+        <v>-0.09922500000000026</v>
+      </c>
+      <c r="K37">
+        <v>-0.07480481766396392</v>
+      </c>
+      <c r="L37">
+        <v>-2.063019719250005</v>
+      </c>
+      <c r="M37">
+        <v>-0.09922500000000026</v>
+      </c>
+      <c r="N37">
+        <v>-0.07480481766396392</v>
+      </c>
+      <c r="O37" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q37" s="2">
+        <v>45628</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DNLM LN</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Dunelm Group Plc</t>
+        </is>
+      </c>
+      <c r="D38" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I38">
+        <v>4.516112737007396</v>
+      </c>
+      <c r="J38">
+        <v>0.3138977423007933</v>
+      </c>
+      <c r="K38">
+        <v>0.6413607781480402</v>
+      </c>
+      <c r="L38">
+        <v>4.516112737007396</v>
+      </c>
+      <c r="M38">
+        <v>0.3138977423007933</v>
+      </c>
+      <c r="N38">
+        <v>0.6413607781480402</v>
+      </c>
+      <c r="O38" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q38" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>IVG IM</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Iveco Group Nv</t>
+        </is>
+      </c>
+      <c r="D39" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I39">
+        <v>1.236816199566661</v>
+      </c>
+      <c r="J39">
+        <v>0.1233195537468653</v>
+      </c>
+      <c r="K39">
+        <v>0.02784947268211702</v>
+      </c>
+      <c r="L39">
+        <v>1.236816199566661</v>
+      </c>
+      <c r="M39">
+        <v>0.1233195537468653</v>
+      </c>
+      <c r="N39">
+        <v>0.02784947268211702</v>
+      </c>
+      <c r="O39" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q39" s="2">
+        <v>45628</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9961 HK</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Trip.Com Group Ltd</t>
+        </is>
+      </c>
+      <c r="D40" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I40">
+        <v>155.6624242861552</v>
+      </c>
+      <c r="J40">
+        <v>2.418546608908261</v>
+      </c>
+      <c r="K40">
+        <v>1.085094542466942</v>
+      </c>
+      <c r="L40">
+        <v>155.6624242861552</v>
+      </c>
+      <c r="M40">
+        <v>2.418546608908261</v>
+      </c>
+      <c r="N40">
+        <v>1.085094542466942</v>
+      </c>
+      <c r="O40" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q40" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ADANIGR IN</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Adani Green Energy Ltd</t>
+        </is>
+      </c>
+      <c r="D41" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I41">
+        <v>-56.55601408783848</v>
+      </c>
+      <c r="J41">
+        <v>-4.393962854399981</v>
+      </c>
+      <c r="K41">
+        <v>-0.8471153693359731</v>
+      </c>
+      <c r="L41">
+        <v>-56.55601408783848</v>
+      </c>
+      <c r="M41">
+        <v>-4.393962854399981</v>
+      </c>
+      <c r="N41">
+        <v>-0.8471153693359731</v>
+      </c>
+      <c r="O41" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q41" s="2">
+        <v>45628</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011200 KS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Hmm Co Ltd</t>
+        </is>
+      </c>
+      <c r="D42" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I42">
+        <v>-50.89240754399992</v>
+      </c>
+      <c r="J42">
+        <v>-3.814799999999994</v>
+      </c>
+      <c r="K42">
+        <v>-2.021020777606654</v>
+      </c>
+      <c r="L42">
+        <v>-50.89240754399992</v>
+      </c>
+      <c r="M42">
+        <v>-3.814799999999994</v>
+      </c>
+      <c r="N42">
+        <v>-2.021020777606654</v>
+      </c>
+      <c r="O42" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q42" s="2">
+        <v>45628</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BDMS TB</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bangkok Dusit Med Service</t>
+        </is>
+      </c>
+      <c r="D43" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I43">
+        <v>22.65721188701599</v>
+      </c>
+      <c r="J43">
+        <v>30.27795521280029</v>
+      </c>
+      <c r="K43">
+        <v>0.5173116364331635</v>
+      </c>
+      <c r="L43">
+        <v>22.65721188701599</v>
+      </c>
+      <c r="M43">
+        <v>30.27795521280029</v>
+      </c>
+      <c r="N43">
+        <v>0.5173116364331635</v>
+      </c>
+      <c r="O43" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q43" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AOF GY</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Atoss Software Se</t>
+        </is>
+      </c>
+      <c r="D44" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I44">
+        <v>5.191946306820023</v>
+      </c>
+      <c r="J44">
+        <v>0.04018736474218923</v>
+      </c>
+      <c r="K44">
+        <v>1.232964393623055</v>
+      </c>
+      <c r="L44">
+        <v>5.191946306820023</v>
+      </c>
+      <c r="M44">
+        <v>0.04018736474218923</v>
+      </c>
+      <c r="N44">
+        <v>1.232964393623055</v>
+      </c>
+      <c r="O44" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q44" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6890 TT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Lai Yih Footwear Co Ltd</t>
+        </is>
+      </c>
+      <c r="D45" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>FTSE EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I45">
+        <v>42.52118783723223</v>
+      </c>
+      <c r="J45">
+        <v>3.56105360000002</v>
+      </c>
+      <c r="K45">
+        <v>4.361665687827779</v>
+      </c>
+      <c r="L45">
+        <v>42.52118783723223</v>
+      </c>
+      <c r="M45">
+        <v>3.56105360000002</v>
+      </c>
+      <c r="N45">
+        <v>4.361665687827779</v>
+      </c>
+      <c r="O45" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q45" s="2">
+        <v>45628</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BLV FP</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Believe Sa</t>
+        </is>
+      </c>
+      <c r="D46" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I46">
+        <v>-2.28629558044203</v>
+      </c>
+      <c r="J46">
+        <v>-0.15320318645835</v>
+      </c>
+      <c r="K46">
+        <v>-54.61107756905555</v>
+      </c>
+      <c r="L46">
+        <v>-2.28629558044203</v>
+      </c>
+      <c r="M46">
+        <v>-0.15320318645835</v>
+      </c>
+      <c r="N46">
+        <v>-54.61107756905555</v>
+      </c>
+      <c r="O46" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q46" s="2">
+        <v>45628</v>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MQG AU</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Macquarie Group Ltd</t>
+        </is>
+      </c>
+      <c r="D47" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>S Dec &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I47">
+        <v>-2.319684123782327</v>
+      </c>
+      <c r="J47">
+        <v>-0.0154129480000128</v>
+      </c>
+      <c r="K47">
+        <v>-0.02262472337356681</v>
+      </c>
+      <c r="L47">
+        <v>-2.319684123782327</v>
+      </c>
+      <c r="M47">
+        <v>-0.0154129480000128</v>
+      </c>
+      <c r="N47">
+        <v>-0.02262472337356681</v>
+      </c>
+      <c r="O47" s="2">
+        <v>45624</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q47" s="2">
+        <v>45628</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>300 HK</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Midea Group Co Ltd</t>
+        </is>
+      </c>
+      <c r="D48" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I48">
+        <v>-3.148221707803769</v>
+      </c>
+      <c r="J48">
+        <v>-0.353331724799982</v>
+      </c>
+      <c r="K48">
+        <v>-0.0759754485223816</v>
+      </c>
+      <c r="L48">
+        <v>-3.148221707803769</v>
+      </c>
+      <c r="M48">
+        <v>-0.353331724799982</v>
+      </c>
+      <c r="N48">
+        <v>-0.0759754485223816</v>
+      </c>
+      <c r="O48" s="2">
+        <v>45624</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q48" s="2">
+        <v>45628</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010130 KS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Korea Zinc Co Ltd</t>
+        </is>
+      </c>
+      <c r="D49" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>S Dec &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I49">
+        <v>-72.43523723840126</v>
+      </c>
+      <c r="J49">
+        <v>-0.0856792230999954</v>
+      </c>
+      <c r="K49">
+        <v>-1.114928941504028</v>
+      </c>
+      <c r="L49">
+        <v>-72.43523723840126</v>
+      </c>
+      <c r="M49">
+        <v>-0.0856792230999954</v>
+      </c>
+      <c r="N49">
+        <v>-1.114928941504028</v>
+      </c>
+      <c r="O49" s="2">
+        <v>45624</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q49" s="2">
+        <v>45628</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PEO PW</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Bank Pekao Sa</t>
+        </is>
+      </c>
+      <c r="D50" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I50">
+        <v>26.20172070828116</v>
+      </c>
+      <c r="J50">
+        <v>0.7880835370319643</v>
+      </c>
+      <c r="K50">
+        <v>0.7323903756931315</v>
+      </c>
+      <c r="L50">
+        <v>26.20172070828116</v>
+      </c>
+      <c r="M50">
+        <v>0.7880835370319643</v>
+      </c>
+      <c r="N50">
+        <v>0.7323903756931315</v>
+      </c>
+      <c r="O50" s="2">
+        <v>45624</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q50" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>WALLB SS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Wallenstam Ab-B Shs</t>
+        </is>
+      </c>
+      <c r="D51" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I51">
+        <v>10.16297218930602</v>
+      </c>
+      <c r="J51">
+        <v>2.178449005506481</v>
+      </c>
+      <c r="K51">
+        <v>2.269365222808734</v>
+      </c>
+      <c r="L51">
+        <v>10.16297218930602</v>
+      </c>
+      <c r="M51">
+        <v>2.178449005506481</v>
+      </c>
+      <c r="N51">
+        <v>2.269365222808734</v>
+      </c>
+      <c r="O51" s="2">
+        <v>45625</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q51" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>ARAMCO AB</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Saudi Arabian Oil Co</t>
         </is>
       </c>
-      <c r="D20" s="2">
+      <c r="D52" s="2">
         <v>45646</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>FTSE EM</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>F Inc</t>
         </is>
       </c>
-      <c r="I20">
+      <c r="I52">
         <v>361.3818757216084</v>
       </c>
-      <c r="J20">
+      <c r="J52">
         <v>48.8008521160914</v>
       </c>
-      <c r="K20">
+      <c r="K52">
         <v>3.324102669118699</v>
       </c>
-      <c r="L20">
+      <c r="L52">
         <v>361.3818757216084</v>
       </c>
-      <c r="M20">
+      <c r="M52">
         <v>48.8008521160914</v>
       </c>
-      <c r="N20">
+      <c r="N52">
         <v>3.324102669118699</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O52" s="2">
         <v>45611</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>Public shareholder disclosure</t>
         </is>
       </c>
-      <c r="Q20" s="2">
-        <v>45624</v>
-      </c>
-      <c r="T20" t="inlineStr">
+      <c r="Q52" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Savola (Detached)</t>
+        </is>
+      </c>
+      <c r="D53" s="2">
+        <v>45649</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q53" s="2">
+        <v>45628</v>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ALMARAI AB</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Almarai Co</t>
+        </is>
+      </c>
+      <c r="D54" s="2">
+        <v>45649</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I54">
+        <v>84.8615650386063</v>
+      </c>
+      <c r="J54">
+        <v>5.702878202760012</v>
+      </c>
+      <c r="K54">
+        <v>8.947711024904306</v>
+      </c>
+      <c r="L54">
+        <v>84.8615650386063</v>
+      </c>
+      <c r="M54">
+        <v>5.702878202760012</v>
+      </c>
+      <c r="N54">
+        <v>8.947711024904306</v>
+      </c>
+      <c r="O54" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q54" s="2">
+        <v>45628</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -501,21 +501,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>187A JP</t>
+          <t>9503 JP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Samty Holdings Co Ltd /Japan</t>
+          <t>Kansai Electric Power Co</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,44 +524,52 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>3.801145429476402e-05</v>
       </c>
       <c r="I2">
-        <v>-17.99875274074589</v>
+        <v>180.8640450792115</v>
       </c>
       <c r="J2">
-        <v>-0.8335399300586476</v>
+        <v>14.71854210821919</v>
       </c>
       <c r="K2">
-        <v>-2.87591191560249</v>
+        <v>1.927079538295556</v>
       </c>
       <c r="L2">
-        <v>-17.99875274074589</v>
+        <v>180.8640450792115</v>
       </c>
       <c r="M2">
-        <v>-0.8335399300586476</v>
+        <v>14.71854210821919</v>
       </c>
       <c r="N2">
-        <v>-2.87591191560249</v>
+        <v>1.927079538295556</v>
       </c>
       <c r="O2" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Public Offering &amp; Secondary Offering</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45625</v>
-      </c>
-      <c r="U2" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -575,16 +583,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3191 JP</t>
+          <t>GPL IN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Joyful Honda</t>
+          <t>Godrej Properties Ltd</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -593,47 +601,44 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>9.308598485460151e-06</v>
+          <t>S Inc</t>
+        </is>
       </c>
       <c r="I3">
-        <v>2.24733465683731</v>
+        <v>10.90030629131986</v>
       </c>
       <c r="J3">
-        <v>0.1896227014305182</v>
+        <v>0.3320981950610728</v>
       </c>
       <c r="K3">
-        <v>0.4563338862683486</v>
+        <v>0.4886734057088029</v>
       </c>
       <c r="L3">
-        <v>2.24733465683731</v>
+        <v>10.90030629131986</v>
       </c>
       <c r="M3">
-        <v>0.1896227014305182</v>
+        <v>0.3320981950610728</v>
       </c>
       <c r="N3">
-        <v>0.4563338862683486</v>
+        <v>0.4886734057088029</v>
       </c>
       <c r="O3" s="2">
-        <v>45621</v>
+        <v>45625</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45628</v>
-      </c>
-      <c r="T3" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -642,21 +647,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GVTD IN</t>
+          <t>ATS LN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ge Vernova T&amp;D India Ltd</t>
+          <t>Artemis Alpha Trust Plc-Ord</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -665,44 +670,35 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I4">
-        <v>17.07336970256792</v>
-      </c>
-      <c r="J4">
-        <v>0.8237248511999991</v>
-      </c>
-      <c r="K4">
-        <v>1.294894887009405</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="L4">
-        <v>17.07336970256792</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8237248511999991</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.294894887009405</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t xml:space="preserve">Scheme of Reconstruction </t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45628</v>
-      </c>
-      <c r="T4" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -711,21 +707,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>187A JP</t>
+          <t>ARR LN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Samty Holdings Co Ltd /Japan</t>
+          <t>Aurora Investment Trust Plc</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -734,42 +730,47 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I5">
-        <v>-17.99875274074589</v>
+        <v>-1.283208570068149</v>
       </c>
       <c r="J5">
-        <v>-0.8335399300586476</v>
+        <v>-0.439392692292308</v>
       </c>
       <c r="K5">
-        <v>-2.87591191560249</v>
+        <v>-6.160745587293398</v>
       </c>
       <c r="L5">
-        <v>-17.99875274074589</v>
+        <v>-1.283208570068149</v>
       </c>
       <c r="M5">
-        <v>-0.8335399300586476</v>
+        <v>-0.439392692292308</v>
       </c>
       <c r="N5">
-        <v>-2.87591191560249</v>
+        <v>-6.160745587293398</v>
       </c>
       <c r="O5" s="2">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t xml:space="preserve">Scheme of Reconstruction </t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45628</v>
+        <v>45629</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -780,197 +781,185 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>MAC US</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">RAMACO RESOURCES A(DET) </t>
+          <t>Macerich Co</t>
         </is>
       </c>
       <c r="D6" s="2">
+        <v>45629</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>8.117304564158071e-05</v>
+      </c>
+      <c r="I6">
+        <v>8.962583694102266</v>
+      </c>
+      <c r="J6">
+        <v>0.4225640591278768</v>
+      </c>
+      <c r="K6">
+        <v>0.1663868447639852</v>
+      </c>
+      <c r="L6">
+        <v>8.962583694102266</v>
+      </c>
+      <c r="M6">
+        <v>0.4225640591278768</v>
+      </c>
+      <c r="N6">
+        <v>0.1663868447639852</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45625</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q6" s="2">
+        <v>45629</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1COV GY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Covestro Ag</t>
+        </is>
+      </c>
+      <c r="D7" s="2">
+        <v>45630</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L7">
+        <v>-294.8640571633365</v>
+      </c>
+      <c r="M7">
+        <v>-4.83653835</v>
+      </c>
+      <c r="N7">
+        <v>-2.900658254679372</v>
+      </c>
+      <c r="O7" s="2">
         <v>45628</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Conversion to tendered line</t>
+        </is>
+      </c>
+      <c r="Q7" s="2">
+        <v>45629</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1CO GY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Covestro Ag-Tend</t>
+        </is>
+      </c>
+      <c r="D8" s="2">
+        <v>45630</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Add</t>
         </is>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
-        <v>45621</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Spin-off from METC US</t>
-        </is>
-      </c>
-      <c r="Q6" s="2">
+      <c r="O8" s="2">
         <v>45628</v>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LB US</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Landbridge Co Llc</t>
-        </is>
-      </c>
-      <c r="D7" s="2">
-        <v>45628</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>2.886033069086332e-05</v>
-      </c>
-      <c r="I7">
-        <v>3.162269545271559</v>
-      </c>
-      <c r="J7">
-        <v>0.04168010472217687</v>
-      </c>
-      <c r="K7">
-        <v>0.07478934155363902</v>
-      </c>
-      <c r="L7">
-        <v>3.162269545271559</v>
-      </c>
-      <c r="M7">
-        <v>0.04168010472217687</v>
-      </c>
-      <c r="N7">
-        <v>0.07478934155363902</v>
-      </c>
-      <c r="O7" s="2">
-        <v>45622</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
-      <c r="Q7" s="2">
-        <v>45628</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>REPL US</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Replimune Group</t>
-        </is>
-      </c>
-      <c r="D8" s="2">
-        <v>45628</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>1.409395045065426e-05</v>
-      </c>
-      <c r="I8">
-        <v>1.544316282669745</v>
-      </c>
-      <c r="J8">
-        <v>0.1073933437183411</v>
-      </c>
-      <c r="K8">
-        <v>0.1138966879949042</v>
-      </c>
-      <c r="L8">
-        <v>1.544316282669745</v>
-      </c>
-      <c r="M8">
-        <v>0.1073933437183411</v>
-      </c>
-      <c r="N8">
-        <v>0.1138966879949042</v>
-      </c>
-      <c r="O8" s="2">
-        <v>45622</v>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45628</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -979,21 +968,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9503 JP</t>
+          <t>1COV GY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kansai Electric Power Co</t>
+          <t>Covestro Ag</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1002,52 +991,44 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>3.801145429476402e-05</v>
+          <t>F Dec</t>
+        </is>
       </c>
       <c r="I9">
-        <v>180.8640450792115</v>
+        <v>-52.3791716858865</v>
       </c>
       <c r="J9">
-        <v>14.71854210821919</v>
+        <v>-0.86130135</v>
       </c>
       <c r="K9">
-        <v>1.927079538295556</v>
+        <v>-0.4967545478087293</v>
       </c>
       <c r="L9">
-        <v>180.8640450792115</v>
+        <v>-294.8640571633365</v>
       </c>
       <c r="M9">
-        <v>14.71854210821919</v>
+        <v>-4.83653835</v>
       </c>
       <c r="N9">
-        <v>1.927079538295556</v>
+        <v>-2.900658254679372</v>
       </c>
       <c r="O9" s="2">
-        <v>45622</v>
+        <v>45628</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Public Offering &amp; Secondary Offering</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45628</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1056,21 +1037,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPL IN</t>
+          <t>1COV GY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Godrej Properties Ltd</t>
+          <t>Covestro Ag</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1079,44 +1060,44 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>DAX</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I10">
-        <v>10.90030629131986</v>
+        <v>-242.48488547745</v>
       </c>
       <c r="J10">
-        <v>0.3320981950610728</v>
+        <v>-3.975237</v>
       </c>
       <c r="K10">
-        <v>0.4886734057088029</v>
+        <v>-2.403903706870643</v>
       </c>
       <c r="L10">
-        <v>10.90030629131986</v>
+        <v>-294.8640571633365</v>
       </c>
       <c r="M10">
-        <v>0.3320981950610728</v>
+        <v>-4.83653835</v>
       </c>
       <c r="N10">
-        <v>0.4886734057088029</v>
+        <v>-2.900658254679372</v>
       </c>
       <c r="O10" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45628</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1125,21 +1106,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATS LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Artemis Alpha Trust Plc-Ord</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1148,12 +1129,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="L11">
@@ -1166,17 +1147,17 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>45625</v>
+        <v>45590</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scheme of Reconstruction </t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45628</v>
-      </c>
-      <c r="W11" t="inlineStr">
+        <v>45594</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1185,21 +1166,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ARR LN</t>
+          <t>IDX AU</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aurora Investment Trust Plc</t>
+          <t>Integral Diagnostics Ltd</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1208,116 +1189,109 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="I12">
-        <v>-1.283208570068149</v>
+        <v>6.889151588619043</v>
       </c>
       <c r="J12">
-        <v>-0.439392692292308</v>
+        <v>3.72110205102753</v>
       </c>
       <c r="K12">
-        <v>-6.160745587293398</v>
+        <v>4.548557423232247</v>
       </c>
       <c r="L12">
-        <v>-1.283208570068149</v>
+        <v>6.889151588619043</v>
       </c>
       <c r="M12">
-        <v>-0.439392692292308</v>
+        <v>3.72110205102753</v>
       </c>
       <c r="N12">
-        <v>-6.160745587293398</v>
+        <v>4.548557423232247</v>
       </c>
       <c r="O12" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scheme of Reconstruction </t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q12" s="2">
+        <v>45629</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OneSource Specialty Pharma</t>
+        </is>
+      </c>
+      <c r="D13" s="2">
+        <v>45631</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FTSE EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>45628</v>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MAC US</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Macerich Co</t>
-        </is>
-      </c>
-      <c r="D13" s="2">
-        <v>45629</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>8.117304564158071e-05</v>
-      </c>
-      <c r="I13">
-        <v>8.962583694102266</v>
-      </c>
-      <c r="J13">
-        <v>0.4225640591278768</v>
-      </c>
-      <c r="K13">
-        <v>0.1663868447639852</v>
-      </c>
-      <c r="L13">
-        <v>8.962583694102266</v>
-      </c>
-      <c r="M13">
-        <v>0.4225640591278768</v>
-      </c>
-      <c r="N13">
-        <v>0.1663868447639852</v>
-      </c>
-      <c r="O13" s="2">
-        <v>45625</v>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45628</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1340,7 +1314,7 @@
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1349,7 +1323,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1357,27 +1331,26 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O14" s="2">
-        <v>45590</v>
+        <v>45580</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="V14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1391,16 +1364,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IDX AU</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Integral Diagnostics Ltd</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1409,68 +1382,51 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="I15">
-        <v>6.889151588619043</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="J15">
-        <v>3.72110205102753</v>
-      </c>
-      <c r="K15">
-        <v>4.548557423232247</v>
-      </c>
-      <c r="L15">
-        <v>6.889151588619043</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M15">
-        <v>3.72110205102753</v>
-      </c>
-      <c r="N15">
-        <v>4.548557423232247</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O15" s="2">
-        <v>45628</v>
+        <v>45588</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45628</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>EQC US</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Equity Commonwealth</t>
         </is>
       </c>
       <c r="D16" s="2">
@@ -1478,39 +1434,52 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>-0.0002638907874384385</v>
+      </c>
+      <c r="I16">
+        <v>-28.01682045864</v>
+      </c>
+      <c r="J16">
+        <v>-1.395259983</v>
+      </c>
+      <c r="K16">
+        <v>-0.5081628648052433</v>
+      </c>
+      <c r="L16">
+        <v>-28.01682045864</v>
       </c>
       <c r="M16">
-        <v>-0.1196923767245363</v>
+        <v>-1.395259983</v>
+      </c>
+      <c r="N16">
+        <v>-0.5081628648052433</v>
       </c>
       <c r="O16" s="2">
-        <v>45580</v>
+        <v>45611</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Liquidation</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1519,7 +1488,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1529,11 +1498,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1542,30 +1511,30 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Spin-off Delete</t>
         </is>
       </c>
       <c r="J17">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M17">
-        <v>-0.1196923767245363</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O17" s="2">
-        <v>45588</v>
+        <v>45600</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Spin-Off by Jusung Engineering</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45595</v>
+        <v>45629</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1579,67 +1548,62 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EQC US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Equity Commonwealth</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45632</v>
+        <v>45642</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H18">
-        <v>-0.0002638907874384385</v>
-      </c>
-      <c r="I18">
-        <v>-28.01682045864</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J18">
-        <v>-1.395259983</v>
-      </c>
-      <c r="K18">
-        <v>-0.5081628648052433</v>
-      </c>
-      <c r="L18">
-        <v>-28.01682045864</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M18">
-        <v>-1.395259983</v>
-      </c>
-      <c r="N18">
-        <v>-0.5081628648052433</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O18" s="2">
-        <v>45611</v>
+        <v>45600</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Liquidation</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="W18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1658,7 +1622,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Canal+</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D19" s="2">
@@ -1694,7 +1658,7 @@
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -1715,12 +1679,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>1COV GY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Covestro Ag</t>
         </is>
       </c>
       <c r="D20" s="2">
@@ -1733,37 +1697,38 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J20">
-        <v>-12.976968375</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>-0.0001523985721787014</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>-12.976968375</v>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>45600</v>
+        <v>45628</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="W20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1777,12 +1742,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>1CO GY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Havas</t>
+          <t>Covestro Ag-Tend</t>
         </is>
       </c>
       <c r="D21" s="2">
@@ -1795,37 +1760,38 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J21">
-        <v>-12.976968375</v>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>0.0001523985721787014</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>-12.976968375</v>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>45600</v>
+        <v>45628</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45628</v>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="V21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1892,7 +1858,7 @@
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -1961,7 +1927,7 @@
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2035,7 +2001,7 @@
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2100,7 +2066,7 @@
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2466,12 +2432,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>011200 KS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Hmm Co Ltd</t>
         </is>
       </c>
       <c r="D31" s="2">
@@ -2484,43 +2450,44 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I31">
+        <v>-50.89240754399992</v>
       </c>
       <c r="J31">
-        <v>-0.158686858219997</v>
+        <v>-3.814799999999994</v>
+      </c>
+      <c r="K31">
+        <v>-2.021020777606654</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="M31">
-        <v>-0.158686858219997</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="O31" s="2">
-        <v>45609</v>
+        <v>45623</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Spin off by GS Retail</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q31" s="2">
         <v>45628</v>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2552,13 +2519,16 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J32">
+        <v>-0.158686858219997</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2570,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>45624</v>
+        <v>45609</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2578,9 +2548,9 @@
         </is>
       </c>
       <c r="Q32" s="2">
-        <v>45628</v>
-      </c>
-      <c r="V32" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2594,17 +2564,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CURN SE</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>GS P&amp;L</t>
         </is>
       </c>
       <c r="D33" s="2">
@@ -2617,44 +2587,40 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I33">
-        <v>0.03617654735321396</v>
-      </c>
-      <c r="J33">
-        <v>0.002282341292</v>
-      </c>
-      <c r="K33">
-        <v>0.3036522347431582</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L33">
-        <v>0.09537453393120043</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0.006017081588</v>
+        <v>-0.158686858219997</v>
       </c>
       <c r="N33">
-        <v>0.8005377097774171</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>45614</v>
+        <v>45624</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Spin off by GS Retail</t>
         </is>
       </c>
       <c r="Q33" s="2">
-        <v>45628</v>
-      </c>
-      <c r="T33" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2686,7 +2652,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2695,13 +2661,13 @@
         </is>
       </c>
       <c r="I34">
-        <v>0.05919798657798648</v>
+        <v>0.03617654735321396</v>
       </c>
       <c r="J34">
-        <v>0.003734740296</v>
+        <v>0.002282341292</v>
       </c>
       <c r="K34">
-        <v>0.4968854750342589</v>
+        <v>0.3036522347431582</v>
       </c>
       <c r="L34">
         <v>0.09537453393120043</v>
@@ -2721,7 +2687,7 @@
         </is>
       </c>
       <c r="Q34" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -2737,12 +2703,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>UCG IM</t>
+          <t>CURN SE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Unicredit Spa</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D35" s="2">
@@ -2755,47 +2721,42 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I35">
-        <v>-29.35103880806036</v>
+        <v>0.05919798657798648</v>
       </c>
       <c r="J35">
-        <v>-0.7677952501984909</v>
+        <v>0.003734740296</v>
       </c>
       <c r="K35">
-        <v>-0.03593990117629201</v>
+        <v>0.4968854750342589</v>
       </c>
       <c r="L35">
-        <v>-29.35103880806036</v>
+        <v>0.09537453393120043</v>
       </c>
       <c r="M35">
-        <v>-0.7677952501984909</v>
+        <v>0.006017081588</v>
       </c>
       <c r="N35">
-        <v>-0.03593990117629201</v>
+        <v>0.8005377097774171</v>
       </c>
       <c r="O35" s="2">
-        <v>45622</v>
+        <v>45614</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="Q35" s="2">
-        <v>45628</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+        <v>45629</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -2811,12 +2772,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AG1 GY</t>
+          <t>UCG IM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Auto1 Group Se</t>
+          <t>Unicredit Spa</t>
         </is>
       </c>
       <c r="D36" s="2">
@@ -2829,31 +2790,31 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Dec &amp; F Inc</t>
         </is>
       </c>
       <c r="I36">
-        <v>11.45745426812044</v>
+        <v>-29.35103880806036</v>
       </c>
       <c r="J36">
-        <v>0.9023230347566403</v>
+        <v>-0.7677952501984909</v>
       </c>
       <c r="K36">
-        <v>0.6793460396007601</v>
+        <v>-0.03593990117629201</v>
       </c>
       <c r="L36">
-        <v>11.45745426812044</v>
+        <v>-29.35103880806036</v>
       </c>
       <c r="M36">
-        <v>0.9023230347566403</v>
+        <v>-0.7677952501984909</v>
       </c>
       <c r="N36">
-        <v>0.6793460396007601</v>
+        <v>-0.03593990117629201</v>
       </c>
       <c r="O36" s="2">
         <v>45622</v>
@@ -2864,7 +2825,12 @@
         </is>
       </c>
       <c r="Q36" s="2">
-        <v>45628</v>
+        <v>45629</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -2880,12 +2846,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R3NK GY</t>
+          <t>AG1 GY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Renk Group Ag</t>
+          <t>Auto1 Group Se</t>
         </is>
       </c>
       <c r="D37" s="2">
@@ -2903,26 +2869,26 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I37">
-        <v>-2.063019719250005</v>
+        <v>11.45745426812044</v>
       </c>
       <c r="J37">
-        <v>-0.09922500000000026</v>
+        <v>0.9023230347566403</v>
       </c>
       <c r="K37">
-        <v>-0.07480481766396392</v>
+        <v>0.6793460396007601</v>
       </c>
       <c r="L37">
-        <v>-2.063019719250005</v>
+        <v>11.45745426812044</v>
       </c>
       <c r="M37">
-        <v>-0.09922500000000026</v>
+        <v>0.9023230347566403</v>
       </c>
       <c r="N37">
-        <v>-0.07480481766396392</v>
+        <v>0.6793460396007601</v>
       </c>
       <c r="O37" s="2">
         <v>45622</v>
@@ -2933,9 +2899,9 @@
         </is>
       </c>
       <c r="Q37" s="2">
-        <v>45628</v>
-      </c>
-      <c r="U37" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2949,12 +2915,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DNLM LN</t>
+          <t>R3NK GY</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Dunelm Group Plc</t>
+          <t>Renk Group Ag</t>
         </is>
       </c>
       <c r="D38" s="2">
@@ -2972,26 +2938,26 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I38">
-        <v>4.516112737007396</v>
+        <v>-2.063019719250005</v>
       </c>
       <c r="J38">
-        <v>0.3138977423007933</v>
+        <v>-0.09922500000000026</v>
       </c>
       <c r="K38">
-        <v>0.6413607781480402</v>
+        <v>-0.07480481766396392</v>
       </c>
       <c r="L38">
-        <v>4.516112737007396</v>
+        <v>-2.063019719250005</v>
       </c>
       <c r="M38">
-        <v>0.3138977423007933</v>
+        <v>-0.09922500000000026</v>
       </c>
       <c r="N38">
-        <v>0.6413607781480402</v>
+        <v>-0.07480481766396392</v>
       </c>
       <c r="O38" s="2">
         <v>45622</v>
@@ -3002,9 +2968,9 @@
         </is>
       </c>
       <c r="Q38" s="2">
-        <v>45628</v>
-      </c>
-      <c r="T38" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="U38" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3018,12 +2984,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>IVG IM</t>
+          <t>DNLM LN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Iveco Group Nv</t>
+          <t>Dunelm Group Plc</t>
         </is>
       </c>
       <c r="D39" s="2">
@@ -3041,26 +3007,26 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I39">
-        <v>1.236816199566661</v>
+        <v>4.516112737007396</v>
       </c>
       <c r="J39">
-        <v>0.1233195537468653</v>
+        <v>0.3138977423007933</v>
       </c>
       <c r="K39">
-        <v>0.02784947268211702</v>
+        <v>0.6413607781480402</v>
       </c>
       <c r="L39">
-        <v>1.236816199566661</v>
+        <v>4.516112737007396</v>
       </c>
       <c r="M39">
-        <v>0.1233195537468653</v>
+        <v>0.3138977423007933</v>
       </c>
       <c r="N39">
-        <v>0.02784947268211702</v>
+        <v>0.6413607781480402</v>
       </c>
       <c r="O39" s="2">
         <v>45622</v>
@@ -3071,9 +3037,9 @@
         </is>
       </c>
       <c r="Q39" s="2">
-        <v>45628</v>
-      </c>
-      <c r="R39" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3082,17 +3048,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9961 HK</t>
+          <t>IVG IM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Trip.Com Group Ltd</t>
+          <t>Iveco Group Nv</t>
         </is>
       </c>
       <c r="D40" s="2">
@@ -3105,34 +3071,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I40">
-        <v>155.6624242861552</v>
+        <v>1.236816199566661</v>
       </c>
       <c r="J40">
-        <v>2.418546608908261</v>
+        <v>0.1233195537468653</v>
       </c>
       <c r="K40">
-        <v>1.085094542466942</v>
+        <v>0.02784947268211702</v>
       </c>
       <c r="L40">
-        <v>155.6624242861552</v>
+        <v>1.236816199566661</v>
       </c>
       <c r="M40">
-        <v>2.418546608908261</v>
+        <v>0.1233195537468653</v>
       </c>
       <c r="N40">
-        <v>1.085094542466942</v>
+        <v>0.02784947268211702</v>
       </c>
       <c r="O40" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3140,9 +3106,9 @@
         </is>
       </c>
       <c r="Q40" s="2">
-        <v>45628</v>
-      </c>
-      <c r="T40" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="R40" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3156,12 +3122,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ADANIGR IN</t>
+          <t>9961 HK</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Adani Green Energy Ltd</t>
+          <t>Trip.Com Group Ltd</t>
         </is>
       </c>
       <c r="D41" s="2">
@@ -3179,26 +3145,26 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I41">
-        <v>-56.55601408783848</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="J41">
-        <v>-4.393962854399981</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="K41">
-        <v>-0.8471153693359731</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="L41">
-        <v>-56.55601408783848</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="M41">
-        <v>-4.393962854399981</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="N41">
-        <v>-0.8471153693359731</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="O41" s="2">
         <v>45623</v>
@@ -3209,9 +3175,9 @@
         </is>
       </c>
       <c r="Q41" s="2">
-        <v>45628</v>
-      </c>
-      <c r="U41" t="inlineStr">
+        <v>45629</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3225,12 +3191,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>011200 KS</t>
+          <t>ADANIGR IN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hmm Co Ltd</t>
+          <t>Adani Green Energy Ltd</t>
         </is>
       </c>
       <c r="D42" s="2">
@@ -3243,7 +3209,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3252,22 +3218,22 @@
         </is>
       </c>
       <c r="I42">
-        <v>-50.89240754399992</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="J42">
-        <v>-3.814799999999994</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="K42">
-        <v>-2.021020777606654</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="L42">
-        <v>-50.89240754399992</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="M42">
-        <v>-3.814799999999994</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="N42">
-        <v>-2.021020777606654</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="O42" s="2">
         <v>45623</v>
@@ -3278,7 +3244,7 @@
         </is>
       </c>
       <c r="Q42" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -3347,7 +3313,7 @@
         </is>
       </c>
       <c r="Q43" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -3416,7 +3382,7 @@
         </is>
       </c>
       <c r="Q44" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -3485,7 +3451,7 @@
         </is>
       </c>
       <c r="Q45" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -3554,7 +3520,7 @@
         </is>
       </c>
       <c r="Q46" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -3623,7 +3589,7 @@
         </is>
       </c>
       <c r="Q47" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -3697,7 +3663,7 @@
         </is>
       </c>
       <c r="Q48" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3771,7 +3737,7 @@
         </is>
       </c>
       <c r="Q49" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -3845,7 +3811,7 @@
         </is>
       </c>
       <c r="Q50" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -3914,7 +3880,7 @@
         </is>
       </c>
       <c r="Q51" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -3983,7 +3949,7 @@
         </is>
       </c>
       <c r="Q52" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4043,7 +4009,7 @@
         </is>
       </c>
       <c r="Q53" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4117,7 +4083,7 @@
         </is>
       </c>
       <c r="Q54" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +506,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9503 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kansai Electric Power Co</t>
+          <t>Jusung Engineering (New)</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,52 +524,37 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>KOSDAQ150</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>3.801145429476402e-05</v>
-      </c>
-      <c r="I2">
-        <v>180.8640450792115</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="J2">
-        <v>14.71854210821919</v>
-      </c>
-      <c r="K2">
-        <v>1.927079538295556</v>
-      </c>
-      <c r="L2">
-        <v>180.8640450792115</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="M2">
-        <v>14.71854210821919</v>
-      </c>
-      <c r="N2">
-        <v>1.927079538295556</v>
+        <v>-0.1196923767245363</v>
       </c>
       <c r="O2" s="2">
-        <v>45622</v>
+        <v>45588</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Public Offering &amp; Secondary Offering</t>
+          <t>Spin-Off by Jusung Engineering</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45629</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
+        <v>45595</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -583,62 +568,58 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GPL IN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Godrej Properties Ltd</t>
+          <t>Strides Pharma (Det)</t>
         </is>
       </c>
       <c r="D3" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <v>45629</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>FTSE EM</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I3">
-        <v>10.90030629131986</v>
-      </c>
-      <c r="J3">
-        <v>0.3320981950610728</v>
-      </c>
-      <c r="K3">
-        <v>0.4886734057088029</v>
-      </c>
-      <c r="L3">
-        <v>10.90030629131986</v>
-      </c>
-      <c r="M3">
-        <v>0.3320981950610728</v>
-      </c>
-      <c r="N3">
-        <v>0.4886734057088029</v>
-      </c>
-      <c r="O3" s="2">
-        <v>45625</v>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45629</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -652,16 +633,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATS LN</t>
+          <t>AKFYE TI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Artemis Alpha Trust Plc-Ord</t>
+          <t>Akfen Yenilenbilr Enerji</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -670,109 +651,119 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>1.370050574598514e-06</v>
+      </c>
+      <c r="I4">
+        <v>0.03122480541040308</v>
+      </c>
+      <c r="J4">
+        <v>0.05911527805777159</v>
+      </c>
+      <c r="K4">
+        <v>0.004051033812783128</v>
+      </c>
+      <c r="L4">
+        <v>0.03122480541040308</v>
+      </c>
+      <c r="M4">
+        <v>0.05911527805777159</v>
+      </c>
+      <c r="N4">
+        <v>0.004051033812783128</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45630</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q4" s="2">
+        <v>45632</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EQC US</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Equity Commonwealth</t>
+        </is>
+      </c>
+      <c r="D5" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45625</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scheme of Reconstruction </t>
-        </is>
-      </c>
-      <c r="Q4" s="2">
-        <v>45629</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ARR LN</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Aurora Investment Trust Plc</t>
-        </is>
-      </c>
-      <c r="D5" s="2">
-        <v>45629</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>FTSE All Share</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
+      <c r="H5">
+        <v>-0.0002638907874384385</v>
       </c>
       <c r="I5">
-        <v>-1.283208570068149</v>
+        <v>-28.01682045864</v>
       </c>
       <c r="J5">
-        <v>-0.439392692292308</v>
+        <v>-1.395259983</v>
       </c>
       <c r="K5">
-        <v>-6.160745587293398</v>
+        <v>-0.5081628648052433</v>
       </c>
       <c r="L5">
-        <v>-1.283208570068149</v>
+        <v>-28.01682045864</v>
       </c>
       <c r="M5">
-        <v>-0.439392692292308</v>
+        <v>-1.395259983</v>
       </c>
       <c r="N5">
-        <v>-6.160745587293398</v>
+        <v>-0.5081628648052433</v>
       </c>
       <c r="O5" s="2">
-        <v>45625</v>
+        <v>45611</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scheme of Reconstruction </t>
+          <t>Liquidation</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45629</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -781,16 +772,16 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAC US</t>
+          <t>CRGY US</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Macerich Co</t>
+          <t>Crescent Energ-A</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -799,167 +790,175 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>24.88159549372801</v>
+      </c>
+      <c r="J6">
+        <v>1.715972103015725</v>
+      </c>
+      <c r="K6">
+        <v>0.8223061368363975</v>
+      </c>
+      <c r="L6">
+        <v>28.7299238851354</v>
+      </c>
+      <c r="M6">
+        <v>1.981374061043821</v>
+      </c>
+      <c r="N6">
+        <v>0.9494886582954305</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45630</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Equity Offering</t>
+        </is>
+      </c>
+      <c r="Q6" s="2">
+        <v>45632</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RVMD US</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Revolution Medic</t>
+        </is>
+      </c>
+      <c r="D7" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I7">
+        <v>56.64553204591147</v>
+      </c>
+      <c r="J7">
+        <v>1.174000664163968</v>
+      </c>
+      <c r="K7">
+        <v>0.6930859266895083</v>
+      </c>
+      <c r="L7">
+        <v>56.64553204591147</v>
+      </c>
+      <c r="M7">
+        <v>1.174000664163968</v>
+      </c>
+      <c r="N7">
+        <v>0.6930859266895083</v>
+      </c>
+      <c r="O7" s="2">
+        <v>45630</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Equity Offering</t>
+        </is>
+      </c>
+      <c r="Q7" s="2">
+        <v>45632</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CRGY US</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Crescent Energy Company</t>
+        </is>
+      </c>
+      <c r="D8" s="2">
+        <v>45632</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>S Inc</t>
         </is>
       </c>
-      <c r="H6">
-        <v>8.117304564158071e-05</v>
-      </c>
-      <c r="I6">
-        <v>8.962583694102266</v>
-      </c>
-      <c r="J6">
-        <v>0.4225640591278768</v>
-      </c>
-      <c r="K6">
-        <v>0.1663868447639852</v>
-      </c>
-      <c r="L6">
-        <v>8.962583694102266</v>
-      </c>
-      <c r="M6">
-        <v>0.4225640591278768</v>
-      </c>
-      <c r="N6">
-        <v>0.1663868447639852</v>
-      </c>
-      <c r="O6" s="2">
-        <v>45625</v>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="H8">
+        <v>3.47865374199849e-05</v>
+      </c>
+      <c r="I8">
+        <v>3.848328391407394</v>
+      </c>
+      <c r="J8">
+        <v>0.2654019580280961</v>
+      </c>
+      <c r="K8">
+        <v>0.127182521459033</v>
+      </c>
+      <c r="L8">
+        <v>28.7299238851354</v>
+      </c>
+      <c r="M8">
+        <v>1.981374061043821</v>
+      </c>
+      <c r="N8">
+        <v>0.9494886582954305</v>
+      </c>
+      <c r="O8" s="2">
+        <v>45630</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>Public Offering</t>
         </is>
       </c>
-      <c r="Q6" s="2">
-        <v>45629</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1COV GY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Covestro Ag</t>
-        </is>
-      </c>
-      <c r="D7" s="2">
-        <v>45630</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>FTSE DM</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="L7">
-        <v>-294.8640571633365</v>
-      </c>
-      <c r="M7">
-        <v>-4.83653835</v>
-      </c>
-      <c r="N7">
-        <v>-2.900658254679372</v>
-      </c>
-      <c r="O7" s="2">
-        <v>45628</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Conversion to tendered line</t>
-        </is>
-      </c>
-      <c r="Q7" s="2">
-        <v>45629</v>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1CO GY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Covestro Ag-Tend</t>
-        </is>
-      </c>
-      <c r="D8" s="2">
-        <v>45630</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>FTSE DM</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>45628</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Conversion to tendered line</t>
-        </is>
-      </c>
       <c r="Q8" s="2">
-        <v>45629</v>
-      </c>
-      <c r="V8" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -968,21 +967,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1COV GY</t>
+          <t>AIA NZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Covestro Ag</t>
+          <t>Auckland Intl Airport</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45630</v>
+        <v>45635</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -991,44 +990,47 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stoxx Europe 600</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>1.101385047378767e-05</v>
       </c>
       <c r="I9">
-        <v>-52.3791716858865</v>
+        <v>57.5040755948723</v>
       </c>
       <c r="J9">
-        <v>-0.86130135</v>
+        <v>12.1065595627615</v>
       </c>
       <c r="K9">
-        <v>-0.4967545478087293</v>
+        <v>0.619371926894443</v>
       </c>
       <c r="L9">
-        <v>-294.8640571633365</v>
+        <v>80.50318854280158</v>
       </c>
       <c r="M9">
-        <v>-4.83653835</v>
+        <v>16.8239489301617</v>
       </c>
       <c r="N9">
-        <v>-2.900658254679372</v>
+        <v>0.8607136992824653</v>
       </c>
       <c r="O9" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45629</v>
-      </c>
-      <c r="U9" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1037,21 +1039,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1COV GY</t>
+          <t>GPL IN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Covestro Ag</t>
+          <t>Godrej Properties</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45630</v>
+        <v>45635</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1060,44 +1062,52 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DAX</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>0.0001110957666965613</v>
       </c>
       <c r="I10">
-        <v>-242.48488547745</v>
+        <v>81.02303739754643</v>
       </c>
       <c r="J10">
-        <v>-3.975237</v>
+        <v>2.366052882885422</v>
       </c>
       <c r="K10">
-        <v>-2.403903706870643</v>
+        <v>2.946907874551493</v>
       </c>
       <c r="L10">
-        <v>-294.8640571633365</v>
+        <v>81.02303739754643</v>
       </c>
       <c r="M10">
-        <v>-4.83653835</v>
+        <v>2.366052882885422</v>
       </c>
       <c r="N10">
-        <v>-2.900658254679372</v>
+        <v>2.946907874551493</v>
       </c>
       <c r="O10" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45629</v>
-      </c>
-      <c r="U10" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1111,53 +1121,62 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>AIA NZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Auckland Intl Airport Ltd</t>
         </is>
       </c>
       <c r="D11" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>22.99911294792928</v>
+      </c>
+      <c r="J11">
+        <v>4.717389367400203</v>
+      </c>
+      <c r="K11">
+        <v>0.2413417723880224</v>
+      </c>
+      <c r="L11">
+        <v>80.50318854280158</v>
+      </c>
+      <c r="M11">
+        <v>16.8239489301617</v>
+      </c>
+      <c r="N11">
+        <v>0.8607136992824653</v>
+      </c>
+      <c r="O11" s="2">
         <v>45631</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>45590</v>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45594</v>
-      </c>
-      <c r="V11" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1171,65 +1190,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IDX AU</t>
+          <t>INDUSTOW IN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Integral Diagnostics Ltd</t>
+          <t>Indus Towers Ltd</t>
         </is>
       </c>
       <c r="D12" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I12">
+        <v>13.05141590016115</v>
+      </c>
+      <c r="J12">
+        <v>3.041280000000267</v>
+      </c>
+      <c r="K12">
+        <v>0.3063660653808469</v>
+      </c>
+      <c r="L12">
+        <v>13.05141590016115</v>
+      </c>
+      <c r="M12">
+        <v>3.041280000000267</v>
+      </c>
+      <c r="N12">
+        <v>0.3063660653808469</v>
+      </c>
+      <c r="O12" s="2">
         <v>45631</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="I12">
-        <v>6.889151588619043</v>
-      </c>
-      <c r="J12">
-        <v>3.72110205102753</v>
-      </c>
-      <c r="K12">
-        <v>4.548557423232247</v>
-      </c>
-      <c r="L12">
-        <v>6.889151588619043</v>
-      </c>
-      <c r="M12">
-        <v>3.72110205102753</v>
-      </c>
-      <c r="N12">
-        <v>4.548557423232247</v>
-      </c>
-      <c r="O12" s="2">
-        <v>45628</v>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45629</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+        <v>45632</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1245,16 +1259,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>UPLLR IN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OneSource Specialty Pharma</t>
+          <t>Upl Ltd-Rights</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45631</v>
+        <v>45635</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1263,35 +1277,38 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J13">
+        <v>-2.529247503744</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-2.529247503744</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Demerger</t>
+          <t>Partly paid rights line</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45629</v>
-      </c>
-      <c r="V13" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1300,21 +1317,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>EBOX LN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Tritax Eurobox Plc</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1323,34 +1340,44 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>-28.08695149155881</v>
+      </c>
+      <c r="J14">
+        <v>-32.25852749112916</v>
+      </c>
+      <c r="K14">
+        <v>-2.502234155824255</v>
+      </c>
+      <c r="L14">
+        <v>-73.72824766534188</v>
       </c>
       <c r="M14">
-        <v>-0.1196923767245363</v>
+        <v>-84.67863466421404</v>
+      </c>
+      <c r="N14">
+        <v>-6.56836465903867</v>
       </c>
       <c r="O14" s="2">
-        <v>45580</v>
+        <v>45629</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45595</v>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1359,21 +1386,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>EBOX LN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Tritax Eurobox Plc</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1382,7 +1409,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1390,56 +1417,68 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="I15">
+        <v>-10.53260680933455</v>
+      </c>
       <c r="J15">
-        <v>-0.1196923767245363</v>
+        <v>-12.09694780917344</v>
+      </c>
+      <c r="K15">
+        <v>-0.9383378084340959</v>
+      </c>
+      <c r="L15">
+        <v>-73.72824766534188</v>
       </c>
       <c r="M15">
-        <v>-0.1196923767245363</v>
+        <v>-84.67863466421404</v>
+      </c>
+      <c r="N15">
+        <v>-6.56836465903867</v>
       </c>
       <c r="O15" s="2">
-        <v>45588</v>
+        <v>45629</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Spin-Off by Jusung Engineering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45595</v>
+        <v>45632</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EQC US</t>
+          <t>EBOX LN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Equity Commonwealth</t>
+          <t>Tritax Eurobox Plc</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1447,37 +1486,34 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H16">
-        <v>-0.0002638907874384385</v>
-      </c>
       <c r="I16">
-        <v>-28.01682045864</v>
+        <v>-35.10868936444852</v>
       </c>
       <c r="J16">
-        <v>-1.395259983</v>
+        <v>-40.32315936391145</v>
       </c>
       <c r="K16">
-        <v>-0.5081628648052433</v>
+        <v>-3.127792694780319</v>
       </c>
       <c r="L16">
-        <v>-28.01682045864</v>
+        <v>-73.72824766534188</v>
       </c>
       <c r="M16">
-        <v>-1.395259983</v>
+        <v>-84.67863466421404</v>
       </c>
       <c r="N16">
-        <v>-0.5081628648052433</v>
+        <v>-6.56836465903867</v>
       </c>
       <c r="O16" s="2">
-        <v>45611</v>
+        <v>45629</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Liquidation</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1493,16 +1529,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>MCG LN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Canal+</t>
+          <t>Mobico Group Plc</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1511,37 +1547,44 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>8.228039527644002</v>
       </c>
       <c r="J17">
-        <v>-12.976968375</v>
+        <v>7.445178960000002</v>
+      </c>
+      <c r="K17">
+        <v>3.578669699370132</v>
+      </c>
+      <c r="L17">
+        <v>8.228039527644002</v>
       </c>
       <c r="M17">
-        <v>-12.976968375</v>
+        <v>7.445178960000002</v>
+      </c>
+      <c r="N17">
+        <v>3.578669699370132</v>
       </c>
       <c r="O17" s="2">
-        <v>45600</v>
+        <v>45631</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Replacing EBOX LN</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45629</v>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1555,16 +1598,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CAL LN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Capital &amp; Regional Plc</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1573,37 +1616,35 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J18">
-        <v>-12.976968375</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L18">
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>-12.976968375</v>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>45600</v>
+        <v>45629</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="W18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1617,16 +1658,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NRR LN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Havas</t>
+          <t>Newriver Reit Plc</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1635,37 +1676,40 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J19">
-        <v>-12.976968375</v>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="L19">
+        <v>1.599190653886118</v>
       </c>
       <c r="M19">
-        <v>-12.976968375</v>
+        <v>1.647373868478306</v>
+      </c>
+      <c r="N19">
+        <v>3.88049256814833</v>
       </c>
       <c r="O19" s="2">
-        <v>45600</v>
+        <v>45629</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45629</v>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1679,16 +1723,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1COV GY</t>
+          <t>NRR LN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Covestro Ag</t>
+          <t>Newriver Reit Plc</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1697,38 +1741,49 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H20">
-        <v>-0.0001523985721787014</v>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>1.599190653886118</v>
+      </c>
+      <c r="J20">
+        <v>1.647373868478306</v>
+      </c>
+      <c r="K20">
+        <v>3.88049256814833</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.599190653886118</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.647373868478306</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>3.88049256814833</v>
       </c>
       <c r="O20" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Conversion to tendered line</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45629</v>
-      </c>
-      <c r="W20" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1742,16 +1797,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1CO GY</t>
+          <t>SYNSAM SS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Covestro Ag-Tend</t>
+          <t>Synsam</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1760,61 +1815,65 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H21">
-        <v>0.0001523985721787014</v>
+        <v>7.285926832516275e-06</v>
+      </c>
+      <c r="I21">
+        <v>1.240124406724843</v>
+      </c>
+      <c r="J21">
+        <v>0.2999602012793467</v>
+      </c>
+      <c r="K21">
+        <v>0.7880553868350667</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.240124406724843</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2999602012793467</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7880553868350667</v>
       </c>
       <c r="O21" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Conversion to tendered line</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45629</v>
-      </c>
-      <c r="V21" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4921 JP</t>
+          <t>JANX US</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fancl Corp</t>
+          <t>Janux Therapeutics</t>
         </is>
       </c>
       <c r="D22" s="2">
-        <v>45643</v>
+        <v>45635</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1823,44 +1882,52 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>9.064480409717008e-05</v>
       </c>
       <c r="I22">
-        <v>-22.05060407789443</v>
+        <v>10.02766313455187</v>
       </c>
       <c r="J22">
-        <v>-1.187546670000023</v>
+        <v>0.1500361058510042</v>
       </c>
       <c r="K22">
-        <v>-12.40451945474511</v>
+        <v>0.1137571676361058</v>
       </c>
       <c r="L22">
-        <v>-22.05060407789443</v>
+        <v>10.02766313455187</v>
       </c>
       <c r="M22">
-        <v>-1.187546670000023</v>
+        <v>0.1500361058510042</v>
       </c>
       <c r="N22">
-        <v>-12.40451945474511</v>
+        <v>0.1137571676361058</v>
       </c>
       <c r="O22" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Public Offering</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45629</v>
-      </c>
-      <c r="W22" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1874,60 +1941,48 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAVOLA AB</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Savola</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D23" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I23">
-        <v>-243.8083327243425</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J23">
-        <v>-37.7842587486</v>
-      </c>
-      <c r="K23">
-        <v>-38.23519314600604</v>
-      </c>
-      <c r="L23">
-        <v>-227.6739577646434</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M23">
-        <v>-35.28382986082499</v>
-      </c>
-      <c r="N23">
-        <v>-35.70492301134387</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O23" s="2">
-        <v>45623</v>
+        <v>45600</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -1948,62 +2003,50 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAVOLA AB</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Savola</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D24" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I24">
-        <v>16.13437495969914</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J24">
-        <v>2.500428887775</v>
-      </c>
-      <c r="K24">
-        <v>2.530270134662165</v>
-      </c>
-      <c r="L24">
-        <v>-227.6739577646434</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M24">
-        <v>-35.28382986082499</v>
-      </c>
-      <c r="N24">
-        <v>-35.70492301134387</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O24" s="2">
-        <v>45623</v>
+        <v>45600</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45629</v>
-      </c>
-      <c r="V24" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2027,48 +2070,45 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Savola (Detached)</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D25" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L25">
-        <v>0</v>
+          <t>Spin-off Delete</t>
+        </is>
+      </c>
+      <c r="J25">
+        <v>-12.976968375</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O25" s="2">
-        <v>45623</v>
+        <v>45600</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45629</v>
-      </c>
-      <c r="V25" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W25" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2087,16 +2127,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9961 HK</t>
+          <t>1COV GY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Trip.Com Group Ltd</t>
+          <t>Covestro Ag</t>
         </is>
       </c>
       <c r="D26" s="2">
-        <v>45646</v>
+        <v>45642</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2105,44 +2145,38 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I26">
-        <v>155.6624242861552</v>
-      </c>
-      <c r="J26">
-        <v>2.418546608908261</v>
-      </c>
-      <c r="K26">
-        <v>1.085094542466942</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>-0.0001523985721787014</v>
       </c>
       <c r="L26">
-        <v>155.6624242861552</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>2.418546608908261</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1.085094542466942</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45625</v>
-      </c>
-      <c r="T26" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2156,16 +2190,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ADANIGR IN</t>
+          <t>1CO GY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Adani Green Energy Ltd</t>
+          <t>Covestro Ag-Tend</t>
         </is>
       </c>
       <c r="D27" s="2">
-        <v>45646</v>
+        <v>45642</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2174,113 +2208,107 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
-      </c>
-      <c r="I27">
-        <v>-56.55601408783848</v>
-      </c>
-      <c r="J27">
-        <v>-4.393962854399981</v>
-      </c>
-      <c r="K27">
-        <v>-0.8471153693359731</v>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H27">
+        <v>0.0001523985721787014</v>
       </c>
       <c r="L27">
-        <v>-56.55601408783848</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-4.393962854399981</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>-0.8471153693359731</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q27" s="2">
-        <v>45625</v>
-      </c>
-      <c r="U27" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="V27" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011200 KS</t>
+          <t>METCB US</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hmm Co Ltd</t>
+          <t>Ramaco Resources Inc-B</t>
         </is>
       </c>
       <c r="D28" s="2">
-        <v>45646</v>
+        <v>45642</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I28">
-        <v>-50.89240754399992</v>
+        <v>0.0518777166375</v>
       </c>
       <c r="J28">
-        <v>-3.814799999999994</v>
+        <v>0.00510105375</v>
       </c>
       <c r="K28">
-        <v>-2.021020777606654</v>
+        <v>0.1256160354376438</v>
       </c>
       <c r="L28">
-        <v>-50.89240754399992</v>
+        <v>0.0518777166375</v>
       </c>
       <c r="M28">
-        <v>-3.814799999999994</v>
+        <v>0.00510105375</v>
       </c>
       <c r="N28">
-        <v>-2.021020777606654</v>
+        <v>0.1256160354376438</v>
       </c>
       <c r="O28" s="2">
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45625</v>
-      </c>
-      <c r="U28" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2289,21 +2317,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BDMS TB</t>
+          <t>4921 JP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bangkok Dusit Med Service</t>
+          <t>Fancl Corp</t>
         </is>
       </c>
       <c r="D29" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2312,44 +2340,44 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I29">
-        <v>22.65721188701599</v>
+        <v>-22.05060407789443</v>
       </c>
       <c r="J29">
-        <v>30.27795521280029</v>
+        <v>-1.187546670000023</v>
       </c>
       <c r="K29">
-        <v>0.5173116364331635</v>
+        <v>-12.40451945474511</v>
       </c>
       <c r="L29">
-        <v>22.65721188701599</v>
+        <v>-39.60393378891749</v>
       </c>
       <c r="M29">
-        <v>30.27795521280029</v>
+        <v>-2.132607370000023</v>
       </c>
       <c r="N29">
-        <v>0.5173116364331635</v>
+        <v>-19.24485457344806</v>
       </c>
       <c r="O29" s="2">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45625</v>
-      </c>
-      <c r="T29" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2358,67 +2386,70 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6890 TT</t>
+          <t>4921 JP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lai Yih Footwear Co Ltd</t>
+          <t>Fancl Corp</t>
         </is>
       </c>
       <c r="D30" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>-7.137577133705022e-05</v>
       </c>
       <c r="I30">
-        <v>42.52118783723223</v>
+        <v>-17.55332971102305</v>
       </c>
       <c r="J30">
-        <v>3.56105360000002</v>
+        <v>-0.9450606999999999</v>
       </c>
       <c r="K30">
-        <v>4.361665687827779</v>
+        <v>-6.840335118702952</v>
       </c>
       <c r="L30">
-        <v>42.52118783723223</v>
+        <v>-39.60393378891749</v>
       </c>
       <c r="M30">
-        <v>3.56105360000002</v>
+        <v>-2.132607370000023</v>
       </c>
       <c r="N30">
-        <v>4.361665687827779</v>
+        <v>-19.24485457344806</v>
       </c>
       <c r="O30" s="2">
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q30" s="2">
-        <v>45625</v>
-      </c>
-      <c r="V30" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2427,67 +2458,72 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>011200 KS</t>
+          <t>SAVOLA AB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hmm Co Ltd</t>
+          <t>Savola</t>
         </is>
       </c>
       <c r="D31" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I31">
-        <v>-50.89240754399992</v>
+        <v>-243.8083327243425</v>
       </c>
       <c r="J31">
-        <v>-3.814799999999994</v>
+        <v>-37.7842587486</v>
       </c>
       <c r="K31">
-        <v>-2.021020777606654</v>
+        <v>-38.23519314600604</v>
       </c>
       <c r="L31">
-        <v>-50.89240754399992</v>
+        <v>-227.6739577646434</v>
       </c>
       <c r="M31">
-        <v>-3.814799999999994</v>
+        <v>-35.28382986082499</v>
       </c>
       <c r="N31">
-        <v>-2.021020777606654</v>
+        <v>-35.70492301134387</v>
       </c>
       <c r="O31" s="2">
         <v>45623</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q31" s="2">
-        <v>45628</v>
-      </c>
-      <c r="U31" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2496,25 +2532,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>SAVOLA AB</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Savola</t>
         </is>
       </c>
       <c r="D32" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2524,33 +2560,39 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I32">
+        <v>16.13437495969914</v>
       </c>
       <c r="J32">
-        <v>-0.158686858219997</v>
+        <v>2.500428887775</v>
+      </c>
+      <c r="K32">
+        <v>2.530270134662165</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-227.6739577646434</v>
       </c>
       <c r="M32">
-        <v>-0.158686858219997</v>
+        <v>-35.28382986082499</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>-35.70492301134387</v>
       </c>
       <c r="O32" s="2">
-        <v>45609</v>
+        <v>45623</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Spin off by GS Retail</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q32" s="2">
-        <v>45629</v>
-      </c>
-      <c r="W32" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="V32" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2564,7 +2606,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2574,20 +2616,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Savola (Detached)</t>
         </is>
       </c>
       <c r="D33" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2599,21 +2641,21 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-0.158686858219997</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Spin off by GS Retail</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q33" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -2634,12 +2676,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CURN SE</t>
+          <t>9961 HK</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Trip.Com Group Ltd</t>
         </is>
       </c>
       <c r="D34" s="2">
@@ -2652,7 +2694,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2661,33 +2703,33 @@
         </is>
       </c>
       <c r="I34">
-        <v>0.03617654735321396</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="J34">
-        <v>0.002282341292</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="K34">
-        <v>0.3036522347431582</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="L34">
-        <v>0.09537453393120043</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="M34">
-        <v>0.006017081588</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="N34">
-        <v>0.8005377097774171</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="O34" s="2">
-        <v>45614</v>
+        <v>45623</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q34" s="2">
-        <v>45629</v>
+        <v>45625</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -2703,12 +2745,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CURN SE</t>
+          <t>ADANIGR IN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Adani Green Energy Ltd</t>
         </is>
       </c>
       <c r="D35" s="2">
@@ -2721,44 +2763,44 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I35">
-        <v>0.05919798657798648</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="J35">
-        <v>0.003734740296</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="K35">
-        <v>0.4968854750342589</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="L35">
-        <v>0.09537453393120043</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="M35">
-        <v>0.006017081588</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="N35">
-        <v>0.8005377097774171</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="O35" s="2">
-        <v>45614</v>
+        <v>45623</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q35" s="2">
-        <v>45629</v>
-      </c>
-      <c r="T35" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2772,12 +2814,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UCG IM</t>
+          <t>011200 KS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Unicredit Spa</t>
+          <t>Hmm Co Ltd</t>
         </is>
       </c>
       <c r="D36" s="2">
@@ -2795,29 +2837,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I36">
-        <v>-29.35103880806036</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="J36">
-        <v>-0.7677952501984909</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="K36">
-        <v>-0.03593990117629201</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="L36">
-        <v>-29.35103880806036</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="M36">
-        <v>-0.7677952501984909</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="N36">
-        <v>-0.03593990117629201</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="O36" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2825,14 +2867,9 @@
         </is>
       </c>
       <c r="Q36" s="2">
-        <v>45629</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="U36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2846,12 +2883,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AG1 GY</t>
+          <t>BDMS TB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Auto1 Group Se</t>
+          <t>Bangkok Dusit Med Service</t>
         </is>
       </c>
       <c r="D37" s="2">
@@ -2864,7 +2901,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2873,25 +2910,25 @@
         </is>
       </c>
       <c r="I37">
-        <v>11.45745426812044</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="J37">
-        <v>0.9023230347566403</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="K37">
-        <v>0.6793460396007601</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="L37">
-        <v>11.45745426812044</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="M37">
-        <v>0.9023230347566403</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="N37">
-        <v>0.6793460396007601</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="O37" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2899,7 +2936,7 @@
         </is>
       </c>
       <c r="Q37" s="2">
-        <v>45629</v>
+        <v>45625</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -2915,12 +2952,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R3NK GY</t>
+          <t>6890 TT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Renk Group Ag</t>
+          <t>Lai Yih Footwear Co Ltd</t>
         </is>
       </c>
       <c r="D38" s="2">
@@ -2933,34 +2970,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I38">
-        <v>-2.063019719250005</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="J38">
-        <v>-0.09922500000000026</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="K38">
-        <v>-0.07480481766396392</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="L38">
-        <v>-2.063019719250005</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="M38">
-        <v>-0.09922500000000026</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="N38">
-        <v>-0.07480481766396392</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="O38" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2968,9 +3005,9 @@
         </is>
       </c>
       <c r="Q38" s="2">
-        <v>45629</v>
-      </c>
-      <c r="U38" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="V38" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2979,17 +3016,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DNLM LN</t>
+          <t>011200 KS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dunelm Group Plc</t>
+          <t>Hmm Co Ltd</t>
         </is>
       </c>
       <c r="D39" s="2">
@@ -3002,34 +3039,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I39">
-        <v>4.516112737007396</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="J39">
-        <v>0.3138977423007933</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="K39">
-        <v>0.6413607781480402</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="L39">
-        <v>4.516112737007396</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="M39">
-        <v>0.3138977423007933</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="N39">
-        <v>0.6413607781480402</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="O39" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3037,9 +3074,9 @@
         </is>
       </c>
       <c r="Q39" s="2">
-        <v>45629</v>
-      </c>
-      <c r="T39" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="U39" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3048,17 +3085,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>IVG IM</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Iveco Group Nv</t>
+          <t>GS P&amp;L</t>
         </is>
       </c>
       <c r="D40" s="2">
@@ -3071,44 +3108,43 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I40">
-        <v>1.236816199566661</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="J40">
-        <v>0.1233195537468653</v>
-      </c>
-      <c r="K40">
-        <v>0.02784947268211702</v>
+        <v>-0.158686858219997</v>
       </c>
       <c r="L40">
-        <v>1.236816199566661</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.1233195537468653</v>
+        <v>-0.158686858219997</v>
       </c>
       <c r="N40">
-        <v>0.02784947268211702</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>45622</v>
+        <v>45609</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin off by GS Retail</t>
         </is>
       </c>
       <c r="Q40" s="2">
-        <v>45629</v>
-      </c>
-      <c r="R40" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3122,12 +3158,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9961 HK</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Trip.Com Group Ltd</t>
+          <t>GS P&amp;L</t>
         </is>
       </c>
       <c r="D41" s="2">
@@ -3140,44 +3176,40 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I41">
-        <v>155.6624242861552</v>
-      </c>
-      <c r="J41">
-        <v>2.418546608908261</v>
-      </c>
-      <c r="K41">
-        <v>1.085094542466942</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L41">
-        <v>155.6624242861552</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>2.418546608908261</v>
+        <v>-0.158686858219997</v>
       </c>
       <c r="N41">
-        <v>1.085094542466942</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin off by GS Retail</t>
         </is>
       </c>
       <c r="Q41" s="2">
-        <v>45629</v>
-      </c>
-      <c r="T41" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3191,12 +3223,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ADANIGR IN</t>
+          <t>MQG AU</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Adani Green Energy Ltd</t>
+          <t>Macquarie Group Ltd</t>
         </is>
       </c>
       <c r="D42" s="2">
@@ -3209,34 +3241,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>S Dec &amp; F Inc</t>
         </is>
       </c>
       <c r="I42">
-        <v>-56.55601408783848</v>
+        <v>-2.319684123782327</v>
       </c>
       <c r="J42">
-        <v>-4.393962854399981</v>
+        <v>-0.0154129480000128</v>
       </c>
       <c r="K42">
-        <v>-0.8471153693359731</v>
+        <v>-0.02262472337356681</v>
       </c>
       <c r="L42">
-        <v>-56.55601408783848</v>
+        <v>-2.319684123782327</v>
       </c>
       <c r="M42">
-        <v>-4.393962854399981</v>
+        <v>-0.0154129480000128</v>
       </c>
       <c r="N42">
-        <v>-0.8471153693359731</v>
+        <v>-0.02262472337356681</v>
       </c>
       <c r="O42" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3244,9 +3276,14 @@
         </is>
       </c>
       <c r="Q42" s="2">
-        <v>45629</v>
-      </c>
-      <c r="U42" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3260,12 +3297,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BDMS TB</t>
+          <t>300 HK</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bangkok Dusit Med Service</t>
+          <t>Midea Group Co Ltd</t>
         </is>
       </c>
       <c r="D43" s="2">
@@ -3283,29 +3320,29 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I43">
-        <v>22.65721188701599</v>
+        <v>-3.148221707803769</v>
       </c>
       <c r="J43">
-        <v>30.27795521280029</v>
+        <v>-0.353331724799982</v>
       </c>
       <c r="K43">
-        <v>0.5173116364331635</v>
+        <v>-0.0759754485223816</v>
       </c>
       <c r="L43">
-        <v>22.65721188701599</v>
+        <v>-3.148221707803769</v>
       </c>
       <c r="M43">
-        <v>30.27795521280029</v>
+        <v>-0.353331724799982</v>
       </c>
       <c r="N43">
-        <v>0.5173116364331635</v>
+        <v>-0.0759754485223816</v>
       </c>
       <c r="O43" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3313,9 +3350,14 @@
         </is>
       </c>
       <c r="Q43" s="2">
-        <v>45629</v>
-      </c>
-      <c r="T43" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3324,17 +3366,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AOF GY</t>
+          <t>010130 KS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Atoss Software Se</t>
+          <t>Korea Zinc Co Ltd</t>
         </is>
       </c>
       <c r="D44" s="2">
@@ -3347,34 +3389,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Dec &amp; F Dec</t>
         </is>
       </c>
       <c r="I44">
-        <v>5.191946306820023</v>
+        <v>-72.43523723840126</v>
       </c>
       <c r="J44">
-        <v>0.04018736474218923</v>
+        <v>-0.0856792230999954</v>
       </c>
       <c r="K44">
-        <v>1.232964393623055</v>
+        <v>-1.114928941504028</v>
       </c>
       <c r="L44">
-        <v>5.191946306820023</v>
+        <v>-72.43523723840126</v>
       </c>
       <c r="M44">
-        <v>0.04018736474218923</v>
+        <v>-0.0856792230999954</v>
       </c>
       <c r="N44">
-        <v>1.232964393623055</v>
+        <v>-1.114928941504028</v>
       </c>
       <c r="O44" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3382,9 +3424,14 @@
         </is>
       </c>
       <c r="Q44" s="2">
-        <v>45629</v>
-      </c>
-      <c r="T44" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3398,12 +3445,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6890 TT</t>
+          <t>9961 HK</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lai Yih Footwear Co Ltd</t>
+          <t>Trip.Com Group Ltd</t>
         </is>
       </c>
       <c r="D45" s="2">
@@ -3416,31 +3463,31 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I45">
-        <v>42.52118783723223</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="J45">
-        <v>3.56105360000002</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="K45">
-        <v>4.361665687827779</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="L45">
-        <v>42.52118783723223</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="M45">
-        <v>3.56105360000002</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="N45">
-        <v>4.361665687827779</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="O45" s="2">
         <v>45623</v>
@@ -3451,9 +3498,9 @@
         </is>
       </c>
       <c r="Q45" s="2">
-        <v>45629</v>
-      </c>
-      <c r="V45" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="T45" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3462,17 +3509,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BLV FP</t>
+          <t>ADANIGR IN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Believe Sa</t>
+          <t>Adani Green Energy Ltd</t>
         </is>
       </c>
       <c r="D46" s="2">
@@ -3485,31 +3532,31 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I46">
-        <v>-2.28629558044203</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="J46">
-        <v>-0.15320318645835</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="K46">
-        <v>-54.61107756905555</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="L46">
-        <v>-2.28629558044203</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="M46">
-        <v>-0.15320318645835</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="N46">
-        <v>-54.61107756905555</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="O46" s="2">
         <v>45623</v>
@@ -3520,9 +3567,9 @@
         </is>
       </c>
       <c r="Q46" s="2">
-        <v>45629</v>
-      </c>
-      <c r="W46" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3536,12 +3583,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MQG AU</t>
+          <t>BDMS TB</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Macquarie Group Ltd</t>
+          <t>Bangkok Dusit Med Service</t>
         </is>
       </c>
       <c r="D47" s="2">
@@ -3554,34 +3601,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I47">
-        <v>-2.319684123782327</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="J47">
-        <v>-0.0154129480000128</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="K47">
-        <v>-0.02262472337356681</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="L47">
-        <v>-2.319684123782327</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="M47">
-        <v>-0.0154129480000128</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="N47">
-        <v>-0.02262472337356681</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="O47" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3589,12 +3636,7 @@
         </is>
       </c>
       <c r="Q47" s="2">
-        <v>45629</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+        <v>45632</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -3610,12 +3652,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>300 HK</t>
+          <t>6890 TT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Midea Group Co Ltd</t>
+          <t>Lai Yih Footwear Co Ltd</t>
         </is>
       </c>
       <c r="D48" s="2">
@@ -3628,34 +3670,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I48">
-        <v>-3.148221707803769</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="J48">
-        <v>-0.353331724799982</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="K48">
-        <v>-0.0759754485223816</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="L48">
-        <v>-3.148221707803769</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="M48">
-        <v>-0.353331724799982</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="N48">
-        <v>-0.0759754485223816</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="O48" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -3663,14 +3705,9 @@
         </is>
       </c>
       <c r="Q48" s="2">
-        <v>45629</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="V48" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3684,12 +3721,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>010130 KS</t>
+          <t>3549 JP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Korea Zinc Co Ltd</t>
+          <t>Kusuri No Aoki Holdings Co L</t>
         </is>
       </c>
       <c r="D49" s="2">
@@ -3707,29 +3744,29 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I49">
-        <v>-72.43523723840126</v>
+        <v>4.772711612390871</v>
       </c>
       <c r="J49">
-        <v>-0.0856792230999954</v>
+        <v>0.21262315725</v>
       </c>
       <c r="K49">
-        <v>-1.114928941504028</v>
+        <v>0.8932807782795924</v>
       </c>
       <c r="L49">
-        <v>-72.43523723840126</v>
+        <v>4.772711612390871</v>
       </c>
       <c r="M49">
-        <v>-0.0856792230999954</v>
+        <v>0.21262315725</v>
       </c>
       <c r="N49">
-        <v>-1.114928941504028</v>
+        <v>0.8932807782795924</v>
       </c>
       <c r="O49" s="2">
-        <v>45624</v>
+        <v>45629</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3737,14 +3774,9 @@
         </is>
       </c>
       <c r="Q49" s="2">
-        <v>45629</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="R49" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3753,17 +3785,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PEO PW</t>
+          <t>3003 JP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bank Pekao Sa</t>
+          <t>Hulic Co Ltd</t>
         </is>
       </c>
       <c r="D50" s="2">
@@ -3785,25 +3817,25 @@
         </is>
       </c>
       <c r="I50">
-        <v>26.20172070828116</v>
+        <v>61.63050514194549</v>
       </c>
       <c r="J50">
-        <v>0.7880835370319643</v>
+        <v>6.557642904949804</v>
       </c>
       <c r="K50">
-        <v>0.7323903756931315</v>
+        <v>2.512805315937833</v>
       </c>
       <c r="L50">
-        <v>26.20172070828116</v>
+        <v>61.63050514194549</v>
       </c>
       <c r="M50">
-        <v>0.7880835370319643</v>
+        <v>6.557642904949804</v>
       </c>
       <c r="N50">
-        <v>0.7323903756931315</v>
+        <v>2.512805315937833</v>
       </c>
       <c r="O50" s="2">
-        <v>45624</v>
+        <v>45629</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3811,7 +3843,7 @@
         </is>
       </c>
       <c r="Q50" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -3822,17 +3854,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WALLB SS</t>
+          <t>PRIME SP</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wallenstam Ab-B Shs</t>
+          <t>Prime Us Reit</t>
         </is>
       </c>
       <c r="D51" s="2">
@@ -3850,29 +3882,29 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I51">
-        <v>10.16297218930602</v>
+        <v>4.769887218033598</v>
       </c>
       <c r="J51">
-        <v>2.178449005506481</v>
+        <v>28.73426034959999</v>
       </c>
       <c r="K51">
-        <v>2.269365222808734</v>
+        <v>8.601887269896956</v>
       </c>
       <c r="L51">
-        <v>10.16297218930602</v>
+        <v>4.769887218033598</v>
       </c>
       <c r="M51">
-        <v>2.178449005506481</v>
+        <v>28.73426034959999</v>
       </c>
       <c r="N51">
-        <v>2.269365222808734</v>
+        <v>8.601887269896956</v>
       </c>
       <c r="O51" s="2">
-        <v>45625</v>
+        <v>45629</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -3880,9 +3912,9 @@
         </is>
       </c>
       <c r="Q51" s="2">
-        <v>45629</v>
-      </c>
-      <c r="T51" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="V51" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3896,12 +3928,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ARAMCO AB</t>
+          <t>CURN SE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Saudi Arabian Oil Co</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D52" s="2">
@@ -3909,12 +3941,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3923,33 +3955,33 @@
         </is>
       </c>
       <c r="I52">
-        <v>361.3818757216084</v>
+        <v>0.03617654735321396</v>
       </c>
       <c r="J52">
-        <v>48.8008521160914</v>
+        <v>0.002282341292</v>
       </c>
       <c r="K52">
-        <v>3.324102669118699</v>
+        <v>0.3036522347431582</v>
       </c>
       <c r="L52">
-        <v>361.3818757216084</v>
+        <v>0.09537453393120043</v>
       </c>
       <c r="M52">
-        <v>48.8008521160914</v>
+        <v>0.006017081588</v>
       </c>
       <c r="N52">
-        <v>3.324102669118699</v>
+        <v>0.8005377097774171</v>
       </c>
       <c r="O52" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Public shareholder disclosure</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="Q52" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -3965,58 +3997,62 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CURN SE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Savola (Detached)</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D53" s="2">
-        <v>45649</v>
+        <v>45646</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I53">
+        <v>0.05919798657798648</v>
+      </c>
+      <c r="J53">
+        <v>0.003734740296</v>
+      </c>
+      <c r="K53">
+        <v>0.4968854750342589</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.09537453393120043</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>0.006017081588</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>0.8005377097774171</v>
       </c>
       <c r="O53" s="2">
-        <v>45623</v>
+        <v>45614</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="Q53" s="2">
-        <v>45629</v>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
+        <v>45632</v>
+      </c>
+      <c r="T53" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4030,67 +4066,1458 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>UCG IM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Unicredit Spa</t>
+        </is>
+      </c>
+      <c r="D54" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>S Dec &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I54">
+        <v>-29.35103880806036</v>
+      </c>
+      <c r="J54">
+        <v>-0.7677952501984909</v>
+      </c>
+      <c r="K54">
+        <v>-0.03593990117629201</v>
+      </c>
+      <c r="L54">
+        <v>-29.35103880806036</v>
+      </c>
+      <c r="M54">
+        <v>-0.7677952501984909</v>
+      </c>
+      <c r="N54">
+        <v>-0.03593990117629201</v>
+      </c>
+      <c r="O54" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q54" s="2">
+        <v>45632</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AG1 GY</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D55" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I55">
+        <v>11.45745426812044</v>
+      </c>
+      <c r="J55">
+        <v>0.9023230347566403</v>
+      </c>
+      <c r="K55">
+        <v>0.6793460396007601</v>
+      </c>
+      <c r="L55">
+        <v>11.45745426812044</v>
+      </c>
+      <c r="M55">
+        <v>0.9023230347566403</v>
+      </c>
+      <c r="N55">
+        <v>0.6793460396007601</v>
+      </c>
+      <c r="O55" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q55" s="2">
+        <v>45632</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>R3NK GY</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Renk Group Ag</t>
+        </is>
+      </c>
+      <c r="D56" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I56">
+        <v>-2.063019719250005</v>
+      </c>
+      <c r="J56">
+        <v>-0.09922500000000026</v>
+      </c>
+      <c r="K56">
+        <v>-0.07480481766396392</v>
+      </c>
+      <c r="L56">
+        <v>-2.063019719250005</v>
+      </c>
+      <c r="M56">
+        <v>-0.09922500000000026</v>
+      </c>
+      <c r="N56">
+        <v>-0.07480481766396392</v>
+      </c>
+      <c r="O56" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q56" s="2">
+        <v>45632</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DNLM LN</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Dunelm Group Plc</t>
+        </is>
+      </c>
+      <c r="D57" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I57">
+        <v>4.516112737007396</v>
+      </c>
+      <c r="J57">
+        <v>0.3138977423007933</v>
+      </c>
+      <c r="K57">
+        <v>0.6413607781480402</v>
+      </c>
+      <c r="L57">
+        <v>4.516112737007396</v>
+      </c>
+      <c r="M57">
+        <v>0.3138977423007933</v>
+      </c>
+      <c r="N57">
+        <v>0.6413607781480402</v>
+      </c>
+      <c r="O57" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q57" s="2">
+        <v>45632</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>IVG IM</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Iveco Group Nv</t>
+        </is>
+      </c>
+      <c r="D58" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I58">
+        <v>1.236816199566661</v>
+      </c>
+      <c r="J58">
+        <v>0.1233195537468653</v>
+      </c>
+      <c r="K58">
+        <v>0.02784947268211702</v>
+      </c>
+      <c r="L58">
+        <v>1.236816199566661</v>
+      </c>
+      <c r="M58">
+        <v>0.1233195537468653</v>
+      </c>
+      <c r="N58">
+        <v>0.02784947268211702</v>
+      </c>
+      <c r="O58" s="2">
+        <v>45622</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q58" s="2">
+        <v>45632</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AOF GY</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Atoss Software Se</t>
+        </is>
+      </c>
+      <c r="D59" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I59">
+        <v>5.191946306820023</v>
+      </c>
+      <c r="J59">
+        <v>0.04018736474218923</v>
+      </c>
+      <c r="K59">
+        <v>1.232964393623055</v>
+      </c>
+      <c r="L59">
+        <v>5.191946306820023</v>
+      </c>
+      <c r="M59">
+        <v>0.04018736474218923</v>
+      </c>
+      <c r="N59">
+        <v>1.232964393623055</v>
+      </c>
+      <c r="O59" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q59" s="2">
+        <v>45632</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BLV FP</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Believe Sa</t>
+        </is>
+      </c>
+      <c r="D60" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I60">
+        <v>-2.28629558044203</v>
+      </c>
+      <c r="J60">
+        <v>-0.15320318645835</v>
+      </c>
+      <c r="K60">
+        <v>-54.61107756905555</v>
+      </c>
+      <c r="L60">
+        <v>-2.28629558044203</v>
+      </c>
+      <c r="M60">
+        <v>-0.15320318645835</v>
+      </c>
+      <c r="N60">
+        <v>-54.61107756905555</v>
+      </c>
+      <c r="O60" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q60" s="2">
+        <v>45632</v>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PEO PW</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Bank Pekao Sa</t>
+        </is>
+      </c>
+      <c r="D61" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I61">
+        <v>26.20172070828116</v>
+      </c>
+      <c r="J61">
+        <v>0.7880835370319643</v>
+      </c>
+      <c r="K61">
+        <v>0.7323903756931315</v>
+      </c>
+      <c r="L61">
+        <v>26.20172070828116</v>
+      </c>
+      <c r="M61">
+        <v>0.7880835370319643</v>
+      </c>
+      <c r="N61">
+        <v>0.7323903756931315</v>
+      </c>
+      <c r="O61" s="2">
+        <v>45624</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q61" s="2">
+        <v>45632</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>WALLB SS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Wallenstam Ab-B Shs</t>
+        </is>
+      </c>
+      <c r="D62" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I62">
+        <v>10.16297218930602</v>
+      </c>
+      <c r="J62">
+        <v>2.178449005506481</v>
+      </c>
+      <c r="K62">
+        <v>2.269365222808734</v>
+      </c>
+      <c r="L62">
+        <v>10.16297218930602</v>
+      </c>
+      <c r="M62">
+        <v>2.178449005506481</v>
+      </c>
+      <c r="N62">
+        <v>2.269365222808734</v>
+      </c>
+      <c r="O62" s="2">
+        <v>45625</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q62" s="2">
+        <v>45632</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>JDEP NA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Jde Peet'S Nv</t>
+        </is>
+      </c>
+      <c r="D63" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I63">
+        <v>42.98552256319133</v>
+      </c>
+      <c r="J63">
+        <v>2.17788371976048</v>
+      </c>
+      <c r="K63">
+        <v>3.105666046584741</v>
+      </c>
+      <c r="L63">
+        <v>42.98552256319133</v>
+      </c>
+      <c r="M63">
+        <v>2.17788371976048</v>
+      </c>
+      <c r="N63">
+        <v>3.105666046584741</v>
+      </c>
+      <c r="O63" s="2">
+        <v>45629</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q63" s="2">
+        <v>45632</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NRP SJ</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Nepi Rockcastle N.V.</t>
+        </is>
+      </c>
+      <c r="D64" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I64">
+        <v>2.392633537963422</v>
+      </c>
+      <c r="J64">
+        <v>0.3142580525971531</v>
+      </c>
+      <c r="K64">
+        <v>0.2507198707835687</v>
+      </c>
+      <c r="L64">
+        <v>2.392633537963422</v>
+      </c>
+      <c r="M64">
+        <v>0.3142580525971531</v>
+      </c>
+      <c r="N64">
+        <v>0.2507198707835687</v>
+      </c>
+      <c r="O64" s="2">
+        <v>45629</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q64" s="2">
+        <v>45632</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KMPUR TI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Kimteks Poliuretan Sanayi Ve</t>
+        </is>
+      </c>
+      <c r="D65" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I65">
+        <v>0.8936489172876266</v>
+      </c>
+      <c r="J65">
+        <v>1.624202264794138</v>
+      </c>
+      <c r="K65">
+        <v>0.8119663459836358</v>
+      </c>
+      <c r="L65">
+        <v>0.8936489172876266</v>
+      </c>
+      <c r="M65">
+        <v>1.624202264794138</v>
+      </c>
+      <c r="N65">
+        <v>0.8119663459836358</v>
+      </c>
+      <c r="O65" s="2">
+        <v>45629</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q65" s="2">
+        <v>45632</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CCC LN</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Computacenter Plc</t>
+        </is>
+      </c>
+      <c r="D66" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>S Dec</t>
+        </is>
+      </c>
+      <c r="I66">
+        <v>-4.347906132818925</v>
+      </c>
+      <c r="J66">
+        <v>-0.1522250841691571</v>
+      </c>
+      <c r="K66">
+        <v>-0.3485193212483387</v>
+      </c>
+      <c r="L66">
+        <v>-4.347906132818925</v>
+      </c>
+      <c r="M66">
+        <v>-0.1522250841691571</v>
+      </c>
+      <c r="N66">
+        <v>-0.3485193212483387</v>
+      </c>
+      <c r="O66" s="2">
+        <v>45629</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q66" s="2">
+        <v>45632</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CBK GY</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Commerzbank Ag</t>
+        </is>
+      </c>
+      <c r="D67" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>S Dec &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I67">
+        <v>-63.90711755389893</v>
+      </c>
+      <c r="J67">
+        <v>-3.98325086536609</v>
+      </c>
+      <c r="K67">
+        <v>-0.3268193093795329</v>
+      </c>
+      <c r="L67">
+        <v>-63.90711755389893</v>
+      </c>
+      <c r="M67">
+        <v>-3.98325086536609</v>
+      </c>
+      <c r="N67">
+        <v>-0.3268193093795329</v>
+      </c>
+      <c r="O67" s="2">
+        <v>45630</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q67" s="2">
+        <v>45632</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BPT LN</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Bridgepoint Group</t>
+        </is>
+      </c>
+      <c r="D68" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I68">
+        <v>1.671111019447647</v>
+      </c>
+      <c r="J68">
+        <v>0.3676361377599372</v>
+      </c>
+      <c r="K68">
+        <v>0.5784189408232019</v>
+      </c>
+      <c r="L68">
+        <v>1.671111019447647</v>
+      </c>
+      <c r="M68">
+        <v>0.3676361377599372</v>
+      </c>
+      <c r="N68">
+        <v>0.5784189408232019</v>
+      </c>
+      <c r="O68" s="2">
+        <v>45631</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q68" s="2">
+        <v>45632</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ARAMCO AB</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Saudi Arabian Oil Co</t>
+        </is>
+      </c>
+      <c r="D69" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I69">
+        <v>361.3818757216084</v>
+      </c>
+      <c r="J69">
+        <v>48.8008521160914</v>
+      </c>
+      <c r="K69">
+        <v>3.324102669118699</v>
+      </c>
+      <c r="L69">
+        <v>361.3818757216084</v>
+      </c>
+      <c r="M69">
+        <v>48.8008521160914</v>
+      </c>
+      <c r="N69">
+        <v>3.324102669118699</v>
+      </c>
+      <c r="O69" s="2">
+        <v>45611</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Public shareholder disclosure</t>
+        </is>
+      </c>
+      <c r="Q69" s="2">
+        <v>45632</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FEMSAUBD MM</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Fomento Economico Mexica-Ubd</t>
+        </is>
+      </c>
+      <c r="D70" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>S Dec</t>
+        </is>
+      </c>
+      <c r="I70">
+        <v>-30.43746976200651</v>
+      </c>
+      <c r="J70">
+        <v>-3.30818150231603</v>
+      </c>
+      <c r="K70">
+        <v>-1.033448242114776</v>
+      </c>
+      <c r="L70">
+        <v>-30.43746976200651</v>
+      </c>
+      <c r="M70">
+        <v>-3.30818150231603</v>
+      </c>
+      <c r="N70">
+        <v>-1.033448242114776</v>
+      </c>
+      <c r="O70" s="2">
+        <v>45630</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q70" s="2">
+        <v>45632</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FIBRAPL MM</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Prologis Property Mexico Sa</t>
+        </is>
+      </c>
+      <c r="D71" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I71">
+        <v>11.17942440957777</v>
+      </c>
+      <c r="J71">
+        <v>3.763279678447809</v>
+      </c>
+      <c r="K71">
+        <v>0.9107646850067301</v>
+      </c>
+      <c r="L71">
+        <v>11.17942440957777</v>
+      </c>
+      <c r="M71">
+        <v>3.763279678447809</v>
+      </c>
+      <c r="N71">
+        <v>0.9107646850067301</v>
+      </c>
+      <c r="O71" s="2">
+        <v>45630</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q71" s="2">
+        <v>45632</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AMBP3 BZ</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ambipar Participacoes E Empr</t>
+        </is>
+      </c>
+      <c r="D72" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>FTSE EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>S Dec &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I72">
+        <v>-47.34665179336637</v>
+      </c>
+      <c r="J72">
+        <v>-1.883863510041737</v>
+      </c>
+      <c r="K72">
+        <v>-10.74252849794279</v>
+      </c>
+      <c r="L72">
+        <v>-47.34665179336637</v>
+      </c>
+      <c r="M72">
+        <v>-1.883863510041737</v>
+      </c>
+      <c r="N72">
+        <v>-10.74252849794279</v>
+      </c>
+      <c r="O72" s="2">
+        <v>45631</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Review Amendment</t>
+        </is>
+      </c>
+      <c r="Q72" s="2">
+        <v>45632</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Savola (Detached)</t>
+        </is>
+      </c>
+      <c r="D73" s="2">
+        <v>45649</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q73" s="2">
+        <v>45632</v>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>ALMARAI AB</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Almarai Co</t>
         </is>
       </c>
-      <c r="D54" s="2">
+      <c r="D74" s="2">
         <v>45649</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>MSCI EM</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>F Inc</t>
         </is>
       </c>
-      <c r="I54">
+      <c r="I74">
         <v>84.8615650386063</v>
       </c>
-      <c r="J54">
+      <c r="J74">
         <v>5.702878202760012</v>
       </c>
-      <c r="K54">
+      <c r="K74">
         <v>8.947711024904306</v>
       </c>
-      <c r="L54">
+      <c r="L74">
         <v>84.8615650386063</v>
       </c>
-      <c r="M54">
+      <c r="M74">
         <v>5.702878202760012</v>
       </c>
-      <c r="N54">
+      <c r="N74">
         <v>8.947711024904306</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O74" s="2">
         <v>45623</v>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>Spin-Off</t>
         </is>
       </c>
-      <c r="Q54" s="2">
-        <v>45629</v>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
+      <c r="Q74" s="2">
+        <v>45632</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +506,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>AIA NZ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jusung Engineering (New)</t>
+          <t>Auckland Intl Airport</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,37 +524,47 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>KOSDAQ150</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>1.101385047378767e-05</v>
+      </c>
+      <c r="I2">
+        <v>57.5040755948723</v>
       </c>
       <c r="J2">
-        <v>-0.1196923767245363</v>
+        <v>12.1065595627615</v>
+      </c>
+      <c r="K2">
+        <v>0.619371926894443</v>
+      </c>
+      <c r="L2">
+        <v>80.50318854280158</v>
       </c>
       <c r="M2">
-        <v>-0.1196923767245363</v>
+        <v>16.8239489301617</v>
+      </c>
+      <c r="N2">
+        <v>0.8607136992824653</v>
       </c>
       <c r="O2" s="2">
-        <v>45588</v>
+        <v>45631</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Spin-Off by Jusung Engineering</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45595</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -568,16 +578,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>GPL IN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Strides Pharma (Det)</t>
+          <t>Godrej Properties</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -586,40 +596,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>0.0001110957666965613</v>
+      </c>
+      <c r="I3">
+        <v>81.02303739754643</v>
+      </c>
+      <c r="J3">
+        <v>2.366052882885422</v>
+      </c>
+      <c r="K3">
+        <v>2.946907874551493</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>81.02303739754643</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.366052882885422</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.946907874551493</v>
       </c>
       <c r="O3" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45632</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -628,288 +650,291 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AIA NZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Auckland Intl Airport Ltd</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>22.99911294792928</v>
+      </c>
+      <c r="J4">
+        <v>4.717389367400203</v>
+      </c>
+      <c r="K4">
+        <v>0.2413417723880224</v>
+      </c>
+      <c r="L4">
+        <v>80.50318854280158</v>
+      </c>
+      <c r="M4">
+        <v>16.8239489301617</v>
+      </c>
+      <c r="N4">
+        <v>0.8607136992824653</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45631</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Secondary Offering</t>
+        </is>
+      </c>
+      <c r="Q4" s="2">
+        <v>45635</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INDUSTOW IN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Indus Towers Ltd</t>
+        </is>
+      </c>
+      <c r="D5" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>13.05141590016115</v>
+      </c>
+      <c r="J5">
+        <v>3.041280000000267</v>
+      </c>
+      <c r="K5">
+        <v>0.3063660653808469</v>
+      </c>
+      <c r="L5">
+        <v>13.05141590016115</v>
+      </c>
+      <c r="M5">
+        <v>3.041280000000267</v>
+      </c>
+      <c r="N5">
+        <v>0.3063660653808469</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45631</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Secondary Offering</t>
+        </is>
+      </c>
+      <c r="Q5" s="2">
+        <v>45635</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UPLLR IN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Upl Ltd-Rights</t>
+        </is>
+      </c>
+      <c r="D6" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J6">
+        <v>-2.529247503744</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>-2.529247503744</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45631</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Partly paid rights line</t>
+        </is>
+      </c>
+      <c r="Q6" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AKFYE TI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Akfen Yenilenbilr Enerji</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>1.370050574598514e-06</v>
-      </c>
-      <c r="I4">
-        <v>0.03122480541040308</v>
-      </c>
-      <c r="J4">
-        <v>0.05911527805777159</v>
-      </c>
-      <c r="K4">
-        <v>0.004051033812783128</v>
-      </c>
-      <c r="L4">
-        <v>0.03122480541040308</v>
-      </c>
-      <c r="M4">
-        <v>0.05911527805777159</v>
-      </c>
-      <c r="N4">
-        <v>0.004051033812783128</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45630</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
-      <c r="Q4" s="2">
-        <v>45632</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EQC US</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Equity Commonwealth</t>
-        </is>
-      </c>
-      <c r="D5" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EBOX LN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tritax Eurobox Plc</t>
+        </is>
+      </c>
+      <c r="D7" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FTSE All Share</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H5">
-        <v>-0.0002638907874384385</v>
-      </c>
-      <c r="I5">
-        <v>-28.01682045864</v>
-      </c>
-      <c r="J5">
-        <v>-1.395259983</v>
-      </c>
-      <c r="K5">
-        <v>-0.5081628648052433</v>
-      </c>
-      <c r="L5">
-        <v>-28.01682045864</v>
-      </c>
-      <c r="M5">
-        <v>-1.395259983</v>
-      </c>
-      <c r="N5">
-        <v>-0.5081628648052433</v>
-      </c>
-      <c r="O5" s="2">
-        <v>45611</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Liquidation</t>
-        </is>
-      </c>
-      <c r="Q5" s="2">
-        <v>45632</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CRGY US</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Crescent Energ-A</t>
-        </is>
-      </c>
-      <c r="D6" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Russell 2000</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I6">
-        <v>24.88159549372801</v>
-      </c>
-      <c r="J6">
-        <v>1.715972103015725</v>
-      </c>
-      <c r="K6">
-        <v>0.8223061368363975</v>
-      </c>
-      <c r="L6">
-        <v>28.7299238851354</v>
-      </c>
-      <c r="M6">
-        <v>1.981374061043821</v>
-      </c>
-      <c r="N6">
-        <v>0.9494886582954305</v>
-      </c>
-      <c r="O6" s="2">
-        <v>45630</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Equity Offering</t>
-        </is>
-      </c>
-      <c r="Q6" s="2">
-        <v>45632</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RVMD US</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Revolution Medic</t>
-        </is>
-      </c>
-      <c r="D7" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Russell 2000</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
       <c r="I7">
-        <v>56.64553204591147</v>
+        <v>-28.08695149155881</v>
       </c>
       <c r="J7">
-        <v>1.174000664163968</v>
+        <v>-32.25852749112916</v>
       </c>
       <c r="K7">
-        <v>0.6930859266895083</v>
+        <v>-2.502234155824255</v>
       </c>
       <c r="L7">
-        <v>56.64553204591147</v>
+        <v>-73.72824766534188</v>
       </c>
       <c r="M7">
-        <v>1.174000664163968</v>
+        <v>-84.67863466421404</v>
       </c>
       <c r="N7">
-        <v>0.6930859266895083</v>
+        <v>-6.56836465903867</v>
       </c>
       <c r="O7" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45632</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CRGY US</t>
+          <t>EBOX LN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Crescent Energy Company</t>
+          <t>Tritax Eurobox Plc</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -918,47 +943,44 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>3.47865374199849e-05</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I8">
-        <v>3.848328391407394</v>
+        <v>-10.53260680933455</v>
       </c>
       <c r="J8">
-        <v>0.2654019580280961</v>
+        <v>-12.09694780917344</v>
       </c>
       <c r="K8">
-        <v>0.127182521459033</v>
+        <v>-0.9383378084340959</v>
       </c>
       <c r="L8">
-        <v>28.7299238851354</v>
+        <v>-73.72824766534188</v>
       </c>
       <c r="M8">
-        <v>1.981374061043821</v>
+        <v>-84.67863466421404</v>
       </c>
       <c r="N8">
-        <v>0.9494886582954305</v>
+        <v>-6.56836465903867</v>
       </c>
       <c r="O8" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45632</v>
-      </c>
-      <c r="R8" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -967,17 +989,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AIA NZ</t>
+          <t>EBOX LN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Auckland Intl Airport</t>
+          <t>Tritax Eurobox Plc</t>
         </is>
       </c>
       <c r="D9" s="2">
@@ -990,47 +1012,44 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>1.101385047378767e-05</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I9">
-        <v>57.5040755948723</v>
+        <v>-35.10868936444852</v>
       </c>
       <c r="J9">
-        <v>12.1065595627615</v>
+        <v>-40.32315936391145</v>
       </c>
       <c r="K9">
-        <v>0.619371926894443</v>
+        <v>-3.127792694780319</v>
       </c>
       <c r="L9">
-        <v>80.50318854280158</v>
+        <v>-73.72824766534188</v>
       </c>
       <c r="M9">
-        <v>16.8239489301617</v>
+        <v>-84.67863466421404</v>
       </c>
       <c r="N9">
-        <v>0.8607136992824653</v>
+        <v>-6.56836465903867</v>
       </c>
       <c r="O9" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45632</v>
-      </c>
-      <c r="T9" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1039,17 +1058,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPL IN</t>
+          <t>MCG LN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Godrej Properties</t>
+          <t>Mobico Group Plc</t>
         </is>
       </c>
       <c r="D10" s="2">
@@ -1062,52 +1081,44 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>0.0001110957666965613</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="I10">
-        <v>81.02303739754643</v>
+        <v>8.228039527644002</v>
       </c>
       <c r="J10">
-        <v>2.366052882885422</v>
+        <v>7.445178960000002</v>
       </c>
       <c r="K10">
-        <v>2.946907874551493</v>
+        <v>3.578669699370132</v>
       </c>
       <c r="L10">
-        <v>81.02303739754643</v>
+        <v>8.228039527644002</v>
       </c>
       <c r="M10">
-        <v>2.366052882885422</v>
+        <v>7.445178960000002</v>
       </c>
       <c r="N10">
-        <v>2.946907874551493</v>
+        <v>3.578669699370132</v>
       </c>
       <c r="O10" s="2">
         <v>45631</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Replacing EBOX LN</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45632</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1116,17 +1127,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AIA NZ</t>
+          <t>CAL LN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Auckland Intl Airport Ltd</t>
+          <t>Capital &amp; Regional Plc</t>
         </is>
       </c>
       <c r="D11" s="2">
@@ -1139,44 +1150,35 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I11">
-        <v>22.99911294792928</v>
-      </c>
-      <c r="J11">
-        <v>4.717389367400203</v>
-      </c>
-      <c r="K11">
-        <v>0.2413417723880224</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="L11">
-        <v>80.50318854280158</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>16.8239489301617</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8607136992824653</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45632</v>
-      </c>
-      <c r="T11" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1185,17 +1187,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INDUSTOW IN</t>
+          <t>NRR LN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Indus Towers Ltd</t>
+          <t>Newriver Reit Plc</t>
         </is>
       </c>
       <c r="D12" s="2">
@@ -1208,44 +1210,40 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I12">
-        <v>13.05141590016115</v>
-      </c>
-      <c r="J12">
-        <v>3.041280000000267</v>
-      </c>
-      <c r="K12">
-        <v>0.3063660653808469</v>
+          <t>S Inc &amp; F Dec</t>
+        </is>
       </c>
       <c r="L12">
-        <v>13.05141590016115</v>
+        <v>1.599190653886118</v>
       </c>
       <c r="M12">
-        <v>3.041280000000267</v>
+        <v>1.647373868478306</v>
       </c>
       <c r="N12">
-        <v>0.3063660653808469</v>
+        <v>3.88049256814833</v>
       </c>
       <c r="O12" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45632</v>
-      </c>
-      <c r="T12" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1254,17 +1252,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UPLLR IN</t>
+          <t>NRR LN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Upl Ltd-Rights</t>
+          <t>Newriver Reit Plc</t>
         </is>
       </c>
       <c r="D13" s="2">
@@ -1277,38 +1275,49 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>1.599190653886118</v>
       </c>
       <c r="J13">
-        <v>-2.529247503744</v>
+        <v>1.647373868478306</v>
+      </c>
+      <c r="K13">
+        <v>3.88049256814833</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.599190653886118</v>
       </c>
       <c r="M13">
-        <v>-2.529247503744</v>
+        <v>1.647373868478306</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>3.88049256814833</v>
       </c>
       <c r="O13" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Partly paid rights line</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45632</v>
-      </c>
-      <c r="W13" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1322,12 +1331,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EBOX LN</t>
+          <t>SYNSAM SS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tritax Eurobox Plc</t>
+          <t>Synsam</t>
         </is>
       </c>
       <c r="D14" s="2">
@@ -1340,182 +1349,183 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>7.285926832516275e-06</v>
       </c>
       <c r="I14">
-        <v>-28.08695149155881</v>
+        <v>1.240124406724843</v>
       </c>
       <c r="J14">
-        <v>-32.25852749112916</v>
+        <v>0.2999602012793467</v>
       </c>
       <c r="K14">
-        <v>-2.502234155824255</v>
+        <v>0.7880553868350667</v>
       </c>
       <c r="L14">
-        <v>-73.72824766534188</v>
+        <v>1.240124406724843</v>
       </c>
       <c r="M14">
-        <v>-84.67863466421404</v>
+        <v>0.2999602012793467</v>
       </c>
       <c r="N14">
-        <v>-6.56836465903867</v>
+        <v>0.7880553868350667</v>
       </c>
       <c r="O14" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q14" s="2">
+        <v>45635</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JANX US</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Janux Therapeutics</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>9.064480409717008e-05</v>
+      </c>
+      <c r="I15">
+        <v>10.02766313455187</v>
+      </c>
+      <c r="J15">
+        <v>0.1500361058510042</v>
+      </c>
+      <c r="K15">
+        <v>0.1137571676361058</v>
+      </c>
+      <c r="L15">
+        <v>10.02766313455187</v>
+      </c>
+      <c r="M15">
+        <v>0.1500361058510042</v>
+      </c>
+      <c r="N15">
+        <v>0.1137571676361058</v>
+      </c>
+      <c r="O15" s="2">
+        <v>45631</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Public Offering</t>
+        </is>
+      </c>
+      <c r="Q15" s="2">
+        <v>45635</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SMTC US</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Semtech Corp (IT)</t>
+        </is>
+      </c>
+      <c r="D16" s="2">
+        <v>45635</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>78.67469429607408</v>
+      </c>
+      <c r="J16">
+        <v>1.189877409196523</v>
+      </c>
+      <c r="K16">
+        <v>0.6465626508411975</v>
+      </c>
+      <c r="L16">
+        <v>78.67469429607408</v>
+      </c>
+      <c r="M16">
+        <v>1.189877409196523</v>
+      </c>
+      <c r="N16">
+        <v>0.6465626508411975</v>
+      </c>
+      <c r="O16" s="2">
         <v>45632</v>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EBOX LN</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Tritax Eurobox Plc</t>
-        </is>
-      </c>
-      <c r="D15" s="2">
-        <v>45635</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>FTSE 250</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I15">
-        <v>-10.53260680933455</v>
-      </c>
-      <c r="J15">
-        <v>-12.09694780917344</v>
-      </c>
-      <c r="K15">
-        <v>-0.9383378084340959</v>
-      </c>
-      <c r="L15">
-        <v>-73.72824766534188</v>
-      </c>
-      <c r="M15">
-        <v>-84.67863466421404</v>
-      </c>
-      <c r="N15">
-        <v>-6.56836465903867</v>
-      </c>
-      <c r="O15" s="2">
-        <v>45629</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q15" s="2">
-        <v>45632</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EBOX LN</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Tritax Eurobox Plc</t>
-        </is>
-      </c>
-      <c r="D16" s="2">
-        <v>45635</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>FTSE EPRA Nareit</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I16">
-        <v>-35.10868936444852</v>
-      </c>
-      <c r="J16">
-        <v>-40.32315936391145</v>
-      </c>
-      <c r="K16">
-        <v>-3.127792694780319</v>
-      </c>
-      <c r="L16">
-        <v>-73.72824766534188</v>
-      </c>
-      <c r="M16">
-        <v>-84.67863466421404</v>
-      </c>
-      <c r="N16">
-        <v>-6.56836465903867</v>
-      </c>
-      <c r="O16" s="2">
-        <v>45629</v>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45632</v>
-      </c>
-      <c r="W16" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1524,21 +1534,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MCG LN</t>
+          <t>GMG AU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mobico Group Plc</t>
+          <t>Goodman Group</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1547,169 +1557,178 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FTSE 250</t>
+          <t>ASX50</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>0.0027060095287487</v>
       </c>
       <c r="I17">
-        <v>8.228039527644002</v>
+        <v>351.7122215078982</v>
       </c>
       <c r="J17">
-        <v>7.445178960000002</v>
+        <v>14.96655266217499</v>
       </c>
       <c r="K17">
-        <v>3.578669699370132</v>
+        <v>1.951835632214374</v>
       </c>
       <c r="L17">
-        <v>8.228039527644002</v>
+        <v>351.7122215078982</v>
       </c>
       <c r="M17">
-        <v>7.445178960000002</v>
+        <v>14.96655266217499</v>
       </c>
       <c r="N17">
-        <v>3.578669699370132</v>
+        <v>1.951835632214374</v>
       </c>
       <c r="O17" s="2">
-        <v>45631</v>
+        <v>45635</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Replacing EBOX LN</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q17" s="2">
+        <v>45635</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SMTC US</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Semtech Corp</t>
+        </is>
+      </c>
+      <c r="D18" s="2">
+        <v>45636</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>55.01128817616785</v>
+      </c>
+      <c r="J18">
+        <v>0.8319916542070152</v>
+      </c>
+      <c r="K18">
+        <v>0.4520925645483821</v>
+      </c>
+      <c r="L18">
+        <v>62.84842151598917</v>
+      </c>
+      <c r="M18">
+        <v>0.9505205915908829</v>
+      </c>
+      <c r="N18">
+        <v>0.5164995222433377</v>
+      </c>
+      <c r="O18" s="2">
         <v>45632</v>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CAL LN</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Capital &amp; Regional Plc</t>
-        </is>
-      </c>
-      <c r="D18" s="2">
-        <v>45635</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>FTSE All Share</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>45629</v>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q18" s="2">
+        <v>45635</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SMTC US</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Semtech Corp</t>
+        </is>
+      </c>
+      <c r="D19" s="2">
+        <v>45636</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>7.124092424534939e-05</v>
+      </c>
+      <c r="I19">
+        <v>7.837133339821332</v>
+      </c>
+      <c r="J19">
+        <v>0.1185289373838677</v>
+      </c>
+      <c r="K19">
+        <v>0.06440695769495561</v>
+      </c>
+      <c r="L19">
+        <v>62.84842151598917</v>
+      </c>
+      <c r="M19">
+        <v>0.9505205915908829</v>
+      </c>
+      <c r="N19">
+        <v>0.5164995222433377</v>
+      </c>
+      <c r="O19" s="2">
         <v>45632</v>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>NRR LN</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Newriver Reit Plc</t>
-        </is>
-      </c>
-      <c r="D19" s="2">
-        <v>45635</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>FTSE All Share</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="L19">
-        <v>1.599190653886118</v>
-      </c>
-      <c r="M19">
-        <v>1.647373868478306</v>
-      </c>
-      <c r="N19">
-        <v>3.88049256814833</v>
-      </c>
-      <c r="O19" s="2">
-        <v>45629</v>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="R19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1723,16 +1742,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NRR LN</t>
+          <t>ROOF LN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Newriver Reit Plc</t>
+          <t>Atrato Onsite Energy Plc</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1741,49 +1760,44 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I20">
-        <v>1.599190653886118</v>
+        <v>-5.81725876536</v>
       </c>
       <c r="J20">
-        <v>1.647373868478306</v>
+        <v>-5.997599999999999</v>
       </c>
       <c r="K20">
-        <v>3.88049256814833</v>
+        <v>-5.133336129268043</v>
       </c>
       <c r="L20">
-        <v>1.599190653886118</v>
+        <v>-5.81725876536</v>
       </c>
       <c r="M20">
-        <v>1.647373868478306</v>
+        <v>-5.997599999999999</v>
       </c>
       <c r="N20">
-        <v>3.88049256814833</v>
+        <v>-5.133336129268043</v>
       </c>
       <c r="O20" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Voluntary Liquidation</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45632</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="W20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1797,16 +1811,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SYNSAM SS</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Synsam</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45635</v>
+        <v>45642</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1815,65 +1829,60 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H21">
-        <v>7.285926832516275e-06</v>
-      </c>
-      <c r="I21">
-        <v>1.240124406724843</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J21">
-        <v>0.2999602012793467</v>
-      </c>
-      <c r="K21">
-        <v>0.7880553868350667</v>
-      </c>
-      <c r="L21">
-        <v>1.240124406724843</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M21">
-        <v>0.2999602012793467</v>
-      </c>
-      <c r="N21">
-        <v>0.7880553868350667</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O21" s="2">
-        <v>45631</v>
+        <v>45600</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45632</v>
-      </c>
-      <c r="T21" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JANX US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Janux Therapeutics</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D22" s="2">
-        <v>45635</v>
+        <v>45642</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1882,52 +1891,37 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H22">
-        <v>9.064480409717008e-05</v>
-      </c>
-      <c r="I22">
-        <v>10.02766313455187</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J22">
-        <v>0.1500361058510042</v>
-      </c>
-      <c r="K22">
-        <v>0.1137571676361058</v>
-      </c>
-      <c r="L22">
-        <v>10.02766313455187</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M22">
-        <v>0.1500361058510042</v>
-      </c>
-      <c r="N22">
-        <v>0.1137571676361058</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O22" s="2">
-        <v>45631</v>
+        <v>45600</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45632</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1946,7 +1940,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Canal+</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D23" s="2">
@@ -1982,7 +1976,7 @@
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2003,12 +1997,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>1COV GY</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Covestro Ag</t>
         </is>
       </c>
       <c r="D24" s="2">
@@ -2021,37 +2015,38 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J24">
-        <v>-12.976968375</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>-0.0001523985721787014</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>-12.976968375</v>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>45600</v>
+        <v>45628</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="W24" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2065,12 +2060,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>1CO GY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Havas</t>
+          <t>Covestro Ag-Tend</t>
         </is>
       </c>
       <c r="D25" s="2">
@@ -2083,56 +2078,52 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J25">
-        <v>-12.976968375</v>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>0.0001523985721787014</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>-12.976968375</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>45600</v>
+        <v>45628</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45632</v>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="V25" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1COV GY</t>
+          <t>METCB US</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Covestro Ag</t>
+          <t>Ramaco Resources Inc-B</t>
         </is>
       </c>
       <c r="D26" s="2">
@@ -2140,12 +2131,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2153,30 +2144,41 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H26">
-        <v>-0.0001523985721787014</v>
+      <c r="I26">
+        <v>0.0518777166375</v>
+      </c>
+      <c r="J26">
+        <v>0.00510105375</v>
+      </c>
+      <c r="K26">
+        <v>0.1256160354376438</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.0518777166375</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.00510105375</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.1256160354376438</v>
       </c>
       <c r="O26" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Conversion to tendered line</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="W26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2185,17 +2187,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1CO GY</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Covestro Ag-Tend</t>
+          <t>Automob</t>
         </is>
       </c>
       <c r="D27" s="2">
@@ -2203,112 +2205,117 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="H27">
-        <v>0.0001523985721787014</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J27">
+        <v>-13.73197917307085</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-13.73197917307085</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q27" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4921 JP</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fancl Corp</t>
+        </is>
+      </c>
+      <c r="D28" s="2">
+        <v>45643</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I28">
+        <v>-22.05060407789443</v>
+      </c>
+      <c r="J28">
+        <v>-1.187546670000023</v>
+      </c>
+      <c r="K28">
+        <v>-12.40451945474511</v>
+      </c>
+      <c r="L28">
+        <v>-39.60393378891749</v>
+      </c>
+      <c r="M28">
+        <v>-2.132607370000023</v>
+      </c>
+      <c r="N28">
+        <v>-19.24485457344806</v>
+      </c>
+      <c r="O28" s="2">
         <v>45628</v>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Conversion to tendered line</t>
-        </is>
-      </c>
-      <c r="Q27" s="2">
-        <v>45632</v>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>METCB US</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Ramaco Resources Inc-B</t>
-        </is>
-      </c>
-      <c r="D28" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I28">
-        <v>0.0518777166375</v>
-      </c>
-      <c r="J28">
-        <v>0.00510105375</v>
-      </c>
-      <c r="K28">
-        <v>0.1256160354376438</v>
-      </c>
-      <c r="L28">
-        <v>0.0518777166375</v>
-      </c>
-      <c r="M28">
-        <v>0.00510105375</v>
-      </c>
-      <c r="N28">
-        <v>0.1256160354376438</v>
-      </c>
-      <c r="O28" s="2">
-        <v>45631</v>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="W28" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2335,12 +2342,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2348,14 +2355,17 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="H29">
+        <v>-7.137577133705022e-05</v>
+      </c>
       <c r="I29">
-        <v>-22.05060407789443</v>
+        <v>-17.55332971102305</v>
       </c>
       <c r="J29">
-        <v>-1.187546670000023</v>
+        <v>-0.9450606999999999</v>
       </c>
       <c r="K29">
-        <v>-12.40451945474511</v>
+        <v>-6.840335118702952</v>
       </c>
       <c r="L29">
         <v>-39.60393378891749</v>
@@ -2367,7 +2377,7 @@
         <v>-19.24485457344806</v>
       </c>
       <c r="O29" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2375,7 +2385,7 @@
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2386,17 +2396,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4921 JP</t>
+          <t>SAVOLA AB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fancl Corp</t>
+          <t>Savola</t>
         </is>
       </c>
       <c r="D30" s="2">
@@ -2409,7 +2419,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2417,39 +2427,41 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H30">
-        <v>-7.137577133705022e-05</v>
-      </c>
       <c r="I30">
-        <v>-17.55332971102305</v>
+        <v>-243.8083327243425</v>
       </c>
       <c r="J30">
-        <v>-0.9450606999999999</v>
+        <v>-37.7842587486</v>
       </c>
       <c r="K30">
-        <v>-6.840335118702952</v>
+        <v>-38.23519314600604</v>
       </c>
       <c r="L30">
-        <v>-39.60393378891749</v>
+        <v>-227.6739577646434</v>
       </c>
       <c r="M30">
-        <v>-2.132607370000023</v>
+        <v>-35.28382986082499</v>
       </c>
       <c r="N30">
-        <v>-19.24485457344806</v>
+        <v>-35.70492301134387</v>
       </c>
       <c r="O30" s="2">
-        <v>45629</v>
+        <v>45623</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q30" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="W30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2481,22 +2493,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I31">
-        <v>-243.8083327243425</v>
+        <v>16.13437495969914</v>
       </c>
       <c r="J31">
-        <v>-37.7842587486</v>
+        <v>2.500428887775</v>
       </c>
       <c r="K31">
-        <v>-38.23519314600604</v>
+        <v>2.530270134662165</v>
       </c>
       <c r="L31">
         <v>-227.6739577646434</v>
@@ -2516,9 +2528,9 @@
         </is>
       </c>
       <c r="Q31" s="2">
-        <v>45632</v>
-      </c>
-      <c r="W31" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="V31" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2537,12 +2549,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAVOLA AB</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Savola</t>
+          <t>Savola (Detached)</t>
         </is>
       </c>
       <c r="D32" s="2">
@@ -2555,7 +2567,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2563,23 +2575,14 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="I32">
-        <v>16.13437495969914</v>
-      </c>
-      <c r="J32">
-        <v>2.500428887775</v>
-      </c>
-      <c r="K32">
-        <v>2.530270134662165</v>
-      </c>
       <c r="L32">
-        <v>-227.6739577646434</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>-35.28382986082499</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>-35.70492301134387</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
         <v>45623</v>
@@ -2590,7 +2593,7 @@
         </is>
       </c>
       <c r="Q32" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -2616,7 +2619,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Savola (Detached)</t>
+          <t>Ingenuity</t>
         </is>
       </c>
       <c r="D33" s="2">
@@ -2629,40 +2632,38 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J33">
+        <v>-15.25760174</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-15.25760174</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>45623</v>
+        <v>45632</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Partial Acquisition</t>
         </is>
       </c>
       <c r="Q33" s="2">
-        <v>45632</v>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3137,7 +3138,7 @@
         </is>
       </c>
       <c r="Q40" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3202,7 +3203,7 @@
         </is>
       </c>
       <c r="Q41" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3276,7 +3277,7 @@
         </is>
       </c>
       <c r="Q42" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -3350,7 +3351,7 @@
         </is>
       </c>
       <c r="Q43" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3424,7 +3425,7 @@
         </is>
       </c>
       <c r="Q44" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -3498,7 +3499,7 @@
         </is>
       </c>
       <c r="Q45" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -3567,7 +3568,7 @@
         </is>
       </c>
       <c r="Q46" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -3636,7 +3637,7 @@
         </is>
       </c>
       <c r="Q47" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -3705,7 +3706,7 @@
         </is>
       </c>
       <c r="Q48" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -3774,7 +3775,7 @@
         </is>
       </c>
       <c r="Q49" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3843,7 +3844,7 @@
         </is>
       </c>
       <c r="Q50" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -3912,7 +3913,7 @@
         </is>
       </c>
       <c r="Q51" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -3981,7 +3982,7 @@
         </is>
       </c>
       <c r="Q52" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4050,7 +4051,7 @@
         </is>
       </c>
       <c r="Q53" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -4119,7 +4120,7 @@
         </is>
       </c>
       <c r="Q54" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -4193,7 +4194,7 @@
         </is>
       </c>
       <c r="Q55" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -4262,7 +4263,7 @@
         </is>
       </c>
       <c r="Q56" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -4331,7 +4332,7 @@
         </is>
       </c>
       <c r="Q57" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -4400,7 +4401,7 @@
         </is>
       </c>
       <c r="Q58" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4469,7 +4470,7 @@
         </is>
       </c>
       <c r="Q59" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -4538,7 +4539,7 @@
         </is>
       </c>
       <c r="Q60" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -4607,7 +4608,7 @@
         </is>
       </c>
       <c r="Q61" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -4676,7 +4677,7 @@
         </is>
       </c>
       <c r="Q62" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -4745,7 +4746,7 @@
         </is>
       </c>
       <c r="Q63" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -4814,7 +4815,7 @@
         </is>
       </c>
       <c r="Q64" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -4883,7 +4884,7 @@
         </is>
       </c>
       <c r="Q65" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -4952,7 +4953,7 @@
         </is>
       </c>
       <c r="Q66" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -5021,7 +5022,7 @@
         </is>
       </c>
       <c r="Q67" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -5095,7 +5096,7 @@
         </is>
       </c>
       <c r="Q68" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5124,7 +5125,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5164,7 +5165,7 @@
         </is>
       </c>
       <c r="Q69" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -5233,7 +5234,7 @@
         </is>
       </c>
       <c r="Q70" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -5302,7 +5303,7 @@
         </is>
       </c>
       <c r="Q71" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5371,7 +5372,7 @@
         </is>
       </c>
       <c r="Q72" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -5385,32 +5386,27 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>METCB_x US</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Savola (Detached)</t>
+          <t>Ramaco Class B Distro</t>
         </is>
       </c>
       <c r="D73" s="2">
-        <v>45649</v>
+        <v>45646</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5428,96 +5424,1747 @@
         <v>0</v>
       </c>
       <c r="O73" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Distribtion from METC</t>
+        </is>
+      </c>
+      <c r="Q73" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>METCB US</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ramaco Res-B</t>
+        </is>
+      </c>
+      <c r="D74" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Distribtion from METC</t>
+        </is>
+      </c>
+      <c r="Q74" s="2">
+        <v>45635</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>APO US</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Apollo Global Ma (FN)</t>
+        </is>
+      </c>
+      <c r="D75" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I75">
+        <v>10156.99695828353</v>
+      </c>
+      <c r="J75">
+        <v>57.10990699062993</v>
+      </c>
+      <c r="K75">
+        <v>15.48496425841005</v>
+      </c>
+      <c r="L75">
+        <v>7772.057056563533</v>
+      </c>
+      <c r="M75">
+        <v>43.70006779062993</v>
+      </c>
+      <c r="N75">
+        <v>11.84897723505357</v>
+      </c>
+      <c r="O75" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Replaces QRVO</t>
+        </is>
+      </c>
+      <c r="Q75" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>WDAY US</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Workday Inc-A (IT)</t>
+        </is>
+      </c>
+      <c r="D76" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I76">
+        <v>7250.293118849239</v>
+      </c>
+      <c r="J76">
+        <v>27.21377193472427</v>
+      </c>
+      <c r="K76">
+        <v>9.357308678319537</v>
+      </c>
+      <c r="L76">
+        <v>5547.86931884924</v>
+      </c>
+      <c r="M76">
+        <v>20.82377193472427</v>
+      </c>
+      <c r="N76">
+        <v>7.160141648409699</v>
+      </c>
+      <c r="O76" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Replaces AMTM</t>
+        </is>
+      </c>
+      <c r="Q76" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AMTM US</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Amentum Holdings (ID)</t>
+        </is>
+      </c>
+      <c r="D77" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I77">
+        <v>-370.6000626479</v>
+      </c>
+      <c r="J77">
+        <v>-15.99482359291757</v>
+      </c>
+      <c r="K77">
+        <v>-9.019684836452655</v>
+      </c>
+      <c r="L77">
+        <v>131.7072982927761</v>
+      </c>
+      <c r="M77">
+        <v>5.684389222821583</v>
+      </c>
+      <c r="N77">
+        <v>3.205499515498342</v>
+      </c>
+      <c r="O77" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q77" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>QRVO US</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Qorvo Inc (IT)</t>
+        </is>
+      </c>
+      <c r="D78" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I78">
+        <v>-827.9977428440097</v>
+      </c>
+      <c r="J78">
+        <v>-12.11763124314371</v>
+      </c>
+      <c r="K78">
+        <v>-6.425037541069834</v>
+      </c>
+      <c r="L78">
+        <v>121.7021600105927</v>
+      </c>
+      <c r="M78">
+        <v>1.781094102306346</v>
+      </c>
+      <c r="N78">
+        <v>0.9443756986722347</v>
+      </c>
+      <c r="O78" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q78" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CRS US</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Carpenter Tech (MA)</t>
+        </is>
+      </c>
+      <c r="D79" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I79">
+        <v>948.3174767376414</v>
+      </c>
+      <c r="J79">
+        <v>4.900359015800131</v>
+      </c>
+      <c r="K79">
+        <v>8.717223777955011</v>
+      </c>
+      <c r="L79">
+        <v>-166.0801595577799</v>
+      </c>
+      <c r="M79">
+        <v>-0.8582066946970848</v>
+      </c>
+      <c r="N79">
+        <v>-1.526659532759169</v>
+      </c>
+      <c r="O79" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Moved from S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q79" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CMA US</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Comerica Inc (FN)</t>
+        </is>
+      </c>
+      <c r="D80" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I80">
+        <v>897.0415946755191</v>
+      </c>
+      <c r="J80">
+        <v>12.92939744415565</v>
+      </c>
+      <c r="K80">
+        <v>8.19560872331402</v>
+      </c>
+      <c r="L80">
+        <v>-164.1943308229764</v>
+      </c>
+      <c r="M80">
+        <v>-2.366594563605888</v>
+      </c>
+      <c r="N80">
+        <v>-1.500122734551967</v>
+      </c>
+      <c r="O80" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Moved from S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q80" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CRI US</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Carter'S Inc (CD)</t>
+        </is>
+      </c>
+      <c r="D81" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I81">
+        <v>-194.5552791678884</v>
+      </c>
+      <c r="J81">
+        <v>-3.547689262725901</v>
+      </c>
+      <c r="K81">
+        <v>-3.120092997755501</v>
+      </c>
+      <c r="L81">
+        <v>36.53962067290158</v>
+      </c>
+      <c r="M81">
+        <v>0.6662950523869728</v>
+      </c>
+      <c r="N81">
+        <v>0.5859877721631075</v>
+      </c>
+      <c r="O81" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q81" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>VSH US</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Vishay Intertech (IT)</t>
+        </is>
+      </c>
+      <c r="D82" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I82">
+        <v>-202.5031653122132</v>
+      </c>
+      <c r="J82">
+        <v>-11.13878797096883</v>
+      </c>
+      <c r="K82">
+        <v>-4.559092294405674</v>
+      </c>
+      <c r="L82">
+        <v>36.8664796302568</v>
+      </c>
+      <c r="M82">
+        <v>2.027859165580681</v>
+      </c>
+      <c r="N82">
+        <v>0.8300002765143466</v>
+      </c>
+      <c r="O82" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q82" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AMTM US</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Amentum Holdings (ID)</t>
+        </is>
+      </c>
+      <c r="D83" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I83">
+        <v>415.2718046406761</v>
+      </c>
+      <c r="J83">
+        <v>17.92282281573915</v>
+      </c>
+      <c r="K83">
+        <v>10.10690816553498</v>
+      </c>
+      <c r="L83">
+        <v>131.7072982927761</v>
+      </c>
+      <c r="M83">
+        <v>5.684389222821583</v>
+      </c>
+      <c r="N83">
+        <v>3.205499515498342</v>
+      </c>
+      <c r="O83" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Moved from S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="Q83" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CRI US</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Carter'S Inc (CD)</t>
+        </is>
+      </c>
+      <c r="D84" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I84">
+        <v>231.09489984079</v>
+      </c>
+      <c r="J84">
+        <v>4.213984315112874</v>
+      </c>
+      <c r="K84">
+        <v>3.706080769918608</v>
+      </c>
+      <c r="L84">
+        <v>36.53962067290158</v>
+      </c>
+      <c r="M84">
+        <v>0.6662950523869728</v>
+      </c>
+      <c r="N84">
+        <v>0.5859877721631075</v>
+      </c>
+      <c r="O84" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Moved from S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q84" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SKY US</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Champion Homes I (CD)</t>
+        </is>
+      </c>
+      <c r="D85" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I85">
+        <v>643.5668554983162</v>
+      </c>
+      <c r="J85">
+        <v>6.175080171735907</v>
+      </c>
+      <c r="K85">
+        <v>15.64666531176558</v>
+      </c>
+      <c r="L85">
+        <v>643.5668554983162</v>
+      </c>
+      <c r="M85">
+        <v>6.175080171735907</v>
+      </c>
+      <c r="N85">
+        <v>15.64666531176558</v>
+      </c>
+      <c r="O85" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Replaces RGNX</t>
+        </is>
+      </c>
+      <c r="Q85" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>QRVO US</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Qorvo Inc (IT)</t>
+        </is>
+      </c>
+      <c r="D86" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I86">
+        <v>755.2443389546024</v>
+      </c>
+      <c r="J86">
+        <v>11.05289534545006</v>
+      </c>
+      <c r="K86">
+        <v>5.860490891915354</v>
+      </c>
+      <c r="L86">
+        <v>121.7021600105927</v>
+      </c>
+      <c r="M86">
+        <v>1.781094102306346</v>
+      </c>
+      <c r="N86">
+        <v>0.9443756986722347</v>
+      </c>
+      <c r="O86" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Moved from S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="Q86" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TRNO US</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Terreno Realty C (RE)</t>
+        </is>
+      </c>
+      <c r="D87" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I87">
+        <v>692.3714930254733</v>
+      </c>
+      <c r="J87">
+        <v>11.66197562785032</v>
+      </c>
+      <c r="K87">
+        <v>17.04734789862394</v>
+      </c>
+      <c r="L87">
+        <v>692.3714930254733</v>
+      </c>
+      <c r="M87">
+        <v>11.66197562785032</v>
+      </c>
+      <c r="N87">
+        <v>17.04734789862394</v>
+      </c>
+      <c r="O87" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Replaces HPP</t>
+        </is>
+      </c>
+      <c r="Q87" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>VSH US</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Vishay Intertech (IT)</t>
+        </is>
+      </c>
+      <c r="D88" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I88">
+        <v>239.36964494247</v>
+      </c>
+      <c r="J88">
+        <v>13.16664713654951</v>
+      </c>
+      <c r="K88">
+        <v>5.38909257092002</v>
+      </c>
+      <c r="L88">
+        <v>36.8664796302568</v>
+      </c>
+      <c r="M88">
+        <v>2.027859165580681</v>
+      </c>
+      <c r="N88">
+        <v>0.8300002765143466</v>
+      </c>
+      <c r="O88" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Moved from S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q88" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CRS US</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Carpenter Tech (MA)</t>
+        </is>
+      </c>
+      <c r="D89" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I89">
+        <v>-1114.397636295421</v>
+      </c>
+      <c r="J89">
+        <v>-5.758565710497216</v>
+      </c>
+      <c r="K89">
+        <v>-10.24388331071418</v>
+      </c>
+      <c r="L89">
+        <v>-166.0801595577799</v>
+      </c>
+      <c r="M89">
+        <v>-0.8582066946970848</v>
+      </c>
+      <c r="N89">
+        <v>-1.526659532759169</v>
+      </c>
+      <c r="O89" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q89" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CMA US</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Comerica Inc (FN)</t>
+        </is>
+      </c>
+      <c r="D90" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I90">
+        <v>-1061.235925498496</v>
+      </c>
+      <c r="J90">
+        <v>-15.29599200776154</v>
+      </c>
+      <c r="K90">
+        <v>-9.695731457865987</v>
+      </c>
+      <c r="L90">
+        <v>-164.1943308229764</v>
+      </c>
+      <c r="M90">
+        <v>-2.366594563605888</v>
+      </c>
+      <c r="N90">
+        <v>-1.500122734551967</v>
+      </c>
+      <c r="O90" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q90" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>HPP US</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Hudson Pacific P (RE)</t>
+        </is>
+      </c>
+      <c r="D91" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I91">
+        <v>-57.8903871159458</v>
+      </c>
+      <c r="J91">
+        <v>-16.26134469549039</v>
+      </c>
+      <c r="K91">
+        <v>-4.847298777124189</v>
+      </c>
+      <c r="L91">
+        <v>-57.8903871159458</v>
+      </c>
+      <c r="M91">
+        <v>-16.26134469549039</v>
+      </c>
+      <c r="N91">
+        <v>-4.847298777124189</v>
+      </c>
+      <c r="O91" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q91" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>KELYA US</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Kelly Services-A (ID)</t>
+        </is>
+      </c>
+      <c r="D92" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I92">
+        <v>-53.31177684951699</v>
+      </c>
+      <c r="J92">
+        <v>-3.720291475890927</v>
+      </c>
+      <c r="K92">
+        <v>-9.255646460490929</v>
+      </c>
+      <c r="L92">
+        <v>-53.31177684951699</v>
+      </c>
+      <c r="M92">
+        <v>-3.720291475890927</v>
+      </c>
+      <c r="N92">
+        <v>-9.255646460490929</v>
+      </c>
+      <c r="O92" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q92" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>RGNX US</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Regenxbio Inc (HC)</t>
+        </is>
+      </c>
+      <c r="D93" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I93">
+        <v>-50.22123161418001</v>
+      </c>
+      <c r="J93">
+        <v>-5.242299750958248</v>
+      </c>
+      <c r="K93">
+        <v>-4.93340565597227</v>
+      </c>
+      <c r="L93">
+        <v>-50.22123161418001</v>
+      </c>
+      <c r="M93">
+        <v>-5.242299750958248</v>
+      </c>
+      <c r="N93">
+        <v>-4.93340565597227</v>
+      </c>
+      <c r="O93" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q93" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SVC US</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Service Properti (RE)</t>
+        </is>
+      </c>
+      <c r="D94" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I94">
+        <v>-53.17007880099526</v>
+      </c>
+      <c r="J94">
+        <v>-19.12592762625729</v>
+      </c>
+      <c r="K94">
+        <v>-7.795962203852298</v>
+      </c>
+      <c r="L94">
+        <v>-53.17007880099526</v>
+      </c>
+      <c r="M94">
+        <v>-19.12592762625729</v>
+      </c>
+      <c r="N94">
+        <v>-7.795962203852298</v>
+      </c>
+      <c r="O94" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q94" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>APO US</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Apollo Global Ma (FN)</t>
+        </is>
+      </c>
+      <c r="D95" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I95">
+        <v>-2384.93990172</v>
+      </c>
+      <c r="J95">
+        <v>-13.4098392</v>
+      </c>
+      <c r="K95">
+        <v>-3.635987023356481</v>
+      </c>
+      <c r="L95">
+        <v>7772.057056563533</v>
+      </c>
+      <c r="M95">
+        <v>43.70006779062993</v>
+      </c>
+      <c r="N95">
+        <v>11.84897723505357</v>
+      </c>
+      <c r="O95" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Add to S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="Q95" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>WDAY US</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Workday Inc-A (IT)</t>
+        </is>
+      </c>
+      <c r="D96" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I96">
+        <v>-1702.4238</v>
+      </c>
+      <c r="J96">
+        <v>-6.39</v>
+      </c>
+      <c r="K96">
+        <v>-2.197167029909839</v>
+      </c>
+      <c r="L96">
+        <v>5547.86931884924</v>
+      </c>
+      <c r="M96">
+        <v>20.82377193472427</v>
+      </c>
+      <c r="N96">
+        <v>7.160141648409699</v>
+      </c>
+      <c r="O96" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Add to S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="Q96" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>AMTM US</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Amentum Holdings (ID)</t>
+        </is>
+      </c>
+      <c r="D97" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I97">
+        <v>87.0355563</v>
+      </c>
+      <c r="J97">
+        <v>3.75639</v>
+      </c>
+      <c r="K97">
+        <v>2.118276186416018</v>
+      </c>
+      <c r="L97">
+        <v>131.7072982927761</v>
+      </c>
+      <c r="M97">
+        <v>5.684389222821583</v>
+      </c>
+      <c r="N97">
+        <v>3.205499515498342</v>
+      </c>
+      <c r="O97" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q97" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>QRVO US</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Qorvo Inc (IT)</t>
+        </is>
+      </c>
+      <c r="D98" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I98">
+        <v>194.4555639</v>
+      </c>
+      <c r="J98">
+        <v>2.84583</v>
+      </c>
+      <c r="K98">
+        <v>1.508922347826715</v>
+      </c>
+      <c r="L98">
+        <v>121.7021600105927</v>
+      </c>
+      <c r="M98">
+        <v>1.781094102306346</v>
+      </c>
+      <c r="N98">
+        <v>0.9443756986722347</v>
+      </c>
+      <c r="O98" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q98" s="2">
+        <v>45635</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Savola (Detached)</t>
+        </is>
+      </c>
+      <c r="D99" s="2">
+        <v>45649</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" s="2">
         <v>45623</v>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>Spin-Off</t>
         </is>
       </c>
-      <c r="Q73" s="2">
-        <v>45632</v>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="Q99" s="2">
+        <v>45635</v>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>ALMARAI AB</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Almarai Co</t>
         </is>
       </c>
-      <c r="D74" s="2">
+      <c r="D100" s="2">
         <v>45649</v>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>MSCI EM</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>F Inc</t>
         </is>
       </c>
-      <c r="I74">
+      <c r="I100">
         <v>84.8615650386063</v>
       </c>
-      <c r="J74">
+      <c r="J100">
         <v>5.702878202760012</v>
       </c>
-      <c r="K74">
+      <c r="K100">
         <v>8.947711024904306</v>
       </c>
-      <c r="L74">
+      <c r="L100">
         <v>84.8615650386063</v>
       </c>
-      <c r="M74">
+      <c r="M100">
         <v>5.702878202760012</v>
       </c>
-      <c r="N74">
+      <c r="N100">
         <v>8.947711024904306</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O100" s="2">
         <v>45623</v>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>Spin-Off</t>
         </is>
       </c>
-      <c r="Q74" s="2">
-        <v>45632</v>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
+      <c r="Q100" s="2">
+        <v>45635</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +506,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AIA NZ</t>
+          <t>IDX AU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Auckland Intl Airport</t>
+          <t>Integral Diagnostics Limited</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,45 +524,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>ASX300</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="H2">
-        <v>1.101385047378767e-05</v>
+        <v>0.0001552653150051411</v>
       </c>
       <c r="I2">
-        <v>57.5040755948723</v>
+        <v>6.47299992394754</v>
       </c>
       <c r="J2">
-        <v>12.1065595627615</v>
+        <v>3.452437867023558</v>
       </c>
       <c r="K2">
-        <v>0.619371926894443</v>
+        <v>4.473807722745609</v>
       </c>
       <c r="L2">
-        <v>80.50318854280158</v>
+        <v>6.47299992394754</v>
       </c>
       <c r="M2">
-        <v>16.8239489301617</v>
+        <v>3.452437867023558</v>
       </c>
       <c r="N2">
-        <v>0.8607136992824653</v>
+        <v>4.473807722745609</v>
       </c>
       <c r="O2" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45635</v>
+        <v>45637</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -578,16 +583,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GPL IN</t>
+          <t>IDX AU</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Godrej Properties</t>
+          <t>Integral Diagnostics Ltd</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -596,7 +601,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -604,37 +609,34 @@
           <t>S Inc &amp; F Inc</t>
         </is>
       </c>
-      <c r="H3">
-        <v>0.0001110957666965613</v>
-      </c>
       <c r="I3">
-        <v>81.02303739754643</v>
+        <v>6.969471576390472</v>
       </c>
       <c r="J3">
-        <v>2.366052882885422</v>
+        <v>3.72110205102753</v>
       </c>
       <c r="K3">
-        <v>2.946907874551493</v>
+        <v>4.821953568526854</v>
       </c>
       <c r="L3">
-        <v>81.02303739754643</v>
+        <v>6.969471576390472</v>
       </c>
       <c r="M3">
-        <v>2.366052882885422</v>
+        <v>3.72110205102753</v>
       </c>
       <c r="N3">
-        <v>2.946907874551493</v>
+        <v>4.821953568526854</v>
       </c>
       <c r="O3" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -650,21 +652,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AIA NZ</t>
+          <t>ROOF LN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Auckland Intl Airport Ltd</t>
+          <t>Atrato Onsite Energy Plc</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -673,67 +675,62 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I4">
-        <v>22.99911294792928</v>
+        <v>-5.81725876536</v>
       </c>
       <c r="J4">
-        <v>4.717389367400203</v>
+        <v>-5.997599999999999</v>
       </c>
       <c r="K4">
-        <v>0.2413417723880224</v>
+        <v>-5.133336129268043</v>
       </c>
       <c r="L4">
-        <v>80.50318854280158</v>
+        <v>-5.81725876536</v>
       </c>
       <c r="M4">
-        <v>16.8239489301617</v>
+        <v>-5.997599999999999</v>
       </c>
       <c r="N4">
-        <v>0.8607136992824653</v>
+        <v>-5.133336129268043</v>
       </c>
       <c r="O4" s="2">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Voluntary Liquidation</t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45635</v>
-      </c>
-      <c r="T4" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDUSTOW IN</t>
+          <t>AJG US</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indus Towers Ltd</t>
+          <t>Arthur J Gallagh</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -742,67 +739,62 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I5">
-        <v>13.05141590016115</v>
+        <v>304.2113752731859</v>
       </c>
       <c r="J5">
-        <v>3.041280000000267</v>
+        <v>1.066360681692323</v>
       </c>
       <c r="K5">
-        <v>0.3063660653808469</v>
+        <v>1.015288134993669</v>
       </c>
       <c r="L5">
-        <v>13.05141590016115</v>
+        <v>622.5432940321519</v>
       </c>
       <c r="M5">
-        <v>3.041280000000267</v>
+        <v>2.188274824072551</v>
       </c>
       <c r="N5">
-        <v>0.3063660653808469</v>
+        <v>2.083469039256321</v>
       </c>
       <c r="O5" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45635</v>
-      </c>
-      <c r="T5" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UPLLR IN</t>
+          <t>AJG US</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Upl Ltd-Rights</t>
+          <t>Gallagher (Arthur J.)</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -811,38 +803,47 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>0.00011903915115208</v>
+      </c>
+      <c r="I6">
+        <v>318.331918758966</v>
       </c>
       <c r="J6">
-        <v>-2.529247503744</v>
+        <v>1.121914142380228</v>
+      </c>
+      <c r="K6">
+        <v>1.068180904262652</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>622.5432940321519</v>
       </c>
       <c r="M6">
-        <v>-2.529247503744</v>
+        <v>2.188274824072551</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.083469039256321</v>
       </c>
       <c r="O6" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Partly paid rights line</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W6" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -851,21 +852,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EBOX LN</t>
+          <t>3003 JP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tritax Eurobox Plc</t>
+          <t>Hulic Co Ltd</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -874,44 +875,44 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I7">
-        <v>-28.08695149155881</v>
+        <v>27.42441863111996</v>
       </c>
       <c r="J7">
-        <v>-32.25852749112916</v>
+        <v>3.032032499999996</v>
       </c>
       <c r="K7">
-        <v>-2.502234155824255</v>
+        <v>0.7906954759768834</v>
       </c>
       <c r="L7">
-        <v>-73.72824766534188</v>
+        <v>47.73880280231994</v>
       </c>
       <c r="M7">
-        <v>-84.67863466421404</v>
+        <v>5.277982499999993</v>
       </c>
       <c r="N7">
-        <v>-6.56836465903867</v>
+        <v>1.376395828552353</v>
       </c>
       <c r="O7" s="2">
-        <v>45629</v>
+        <v>45637</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W7" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -920,21 +921,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EBOX LN</t>
+          <t>3003 JP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tritax Eurobox Plc</t>
+          <t>Hulic Co Ltd</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -943,44 +944,44 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FTSE 250</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I8">
-        <v>-10.53260680933455</v>
+        <v>20.31438417119997</v>
       </c>
       <c r="J8">
-        <v>-12.09694780917344</v>
+        <v>2.245949999999997</v>
       </c>
       <c r="K8">
-        <v>-0.9383378084340959</v>
+        <v>0.5857003525754692</v>
       </c>
       <c r="L8">
-        <v>-73.72824766534188</v>
+        <v>47.73880280231994</v>
       </c>
       <c r="M8">
-        <v>-84.67863466421404</v>
+        <v>5.277982499999993</v>
       </c>
       <c r="N8">
-        <v>-6.56836465903867</v>
+        <v>1.376395828552353</v>
       </c>
       <c r="O8" s="2">
-        <v>45629</v>
+        <v>45637</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W8" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -994,62 +995,53 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EBOX LN</t>
+          <t>CAN LN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tritax Eurobox Plc</t>
+          <t>Canal+ France</t>
         </is>
       </c>
       <c r="D9" s="2">
+        <v>45639</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
         <v>45635</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>FTSE EPRA Nareit</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>-35.10868936444852</v>
-      </c>
-      <c r="J9">
-        <v>-40.32315936391145</v>
-      </c>
-      <c r="K9">
-        <v>-3.127792694780319</v>
-      </c>
-      <c r="L9">
-        <v>-73.72824766534188</v>
-      </c>
-      <c r="M9">
-        <v>-84.67863466421404</v>
-      </c>
-      <c r="N9">
-        <v>-6.56836465903867</v>
-      </c>
-      <c r="O9" s="2">
-        <v>45629</v>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W9" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1063,60 +1055,51 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MCG LN</t>
+          <t>HAVAS NA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mobico Group Plc</t>
+          <t>Havas Bv</t>
         </is>
       </c>
       <c r="D10" s="2">
+        <v>45639</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
         <v>45635</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>FTSE 250</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I10">
-        <v>8.228039527644002</v>
-      </c>
-      <c r="J10">
-        <v>7.445178960000002</v>
-      </c>
-      <c r="K10">
-        <v>3.578669699370132</v>
-      </c>
-      <c r="L10">
-        <v>8.228039527644002</v>
-      </c>
-      <c r="M10">
-        <v>7.445178960000002</v>
-      </c>
-      <c r="N10">
-        <v>3.578669699370132</v>
-      </c>
-      <c r="O10" s="2">
-        <v>45631</v>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Replacing EBOX LN</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1132,16 +1115,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAL LN</t>
+          <t>ALHG FP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Capital &amp; Regional Plc</t>
+          <t>Louis Hachette Group</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1150,12 +1133,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="L11">
@@ -1168,17 +1151,17 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>45629</v>
+        <v>45635</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W11" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1192,16 +1175,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NRR LN</t>
+          <t>CAN LN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Newriver Reit Plc</t>
+          <t>Canal+ France</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1210,40 +1193,40 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="L12">
-        <v>1.599190653886118</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.647373868478306</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>3.88049256814833</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>45629</v>
+        <v>45636</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1257,16 +1240,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NRR LN</t>
+          <t>HAVAS NA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Newriver Reit Plc</t>
+          <t>Havas Bv</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1275,49 +1258,40 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="I13">
-        <v>1.599190653886118</v>
-      </c>
-      <c r="J13">
-        <v>1.647373868478306</v>
-      </c>
-      <c r="K13">
-        <v>3.88049256814833</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L13">
-        <v>1.599190653886118</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.647373868478306</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3.88049256814833</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>45629</v>
+        <v>45636</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1331,16 +1305,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SYNSAM SS</t>
+          <t>ALHG FP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Synsam</t>
+          <t>Louis Hachette Group</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1349,65 +1323,63 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H14">
-        <v>7.285926832516275e-06</v>
-      </c>
-      <c r="I14">
-        <v>1.240124406724843</v>
-      </c>
-      <c r="J14">
-        <v>0.2999602012793467</v>
-      </c>
-      <c r="K14">
-        <v>0.7880553868350667</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L14">
-        <v>1.240124406724843</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2999602012793467</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7880553868350667</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Block Sale</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45635</v>
-      </c>
-      <c r="T14" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JANX US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Janux Therapeutics</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45635</v>
+        <v>45642</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1416,70 +1388,60 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H15">
-        <v>9.064480409717008e-05</v>
-      </c>
-      <c r="I15">
-        <v>10.02766313455187</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J15">
-        <v>0.1500361058510042</v>
-      </c>
-      <c r="K15">
-        <v>0.1137571676361058</v>
-      </c>
-      <c r="L15">
-        <v>10.02766313455187</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M15">
-        <v>0.1500361058510042</v>
-      </c>
-      <c r="N15">
-        <v>0.1137571676361058</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O15" s="2">
-        <v>45631</v>
+        <v>45600</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Public Offering</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SMTC US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Semtech Corp (IT)</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45635</v>
+        <v>45642</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1488,44 +1450,37 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I16">
-        <v>78.67469429607408</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J16">
-        <v>1.189877409196523</v>
-      </c>
-      <c r="K16">
-        <v>0.6465626508411975</v>
-      </c>
-      <c r="L16">
-        <v>78.67469429607408</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M16">
-        <v>1.189877409196523</v>
-      </c>
-      <c r="N16">
-        <v>0.6465626508411975</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O16" s="2">
-        <v>45632</v>
+        <v>45600</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R16" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1534,21 +1489,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GMG AU</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Goodman Group</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45636</v>
+        <v>45642</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1557,65 +1512,60 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ASX50</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H17">
-        <v>0.0027060095287487</v>
-      </c>
-      <c r="I17">
-        <v>351.7122215078982</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J17">
-        <v>14.96655266217499</v>
-      </c>
-      <c r="K17">
-        <v>1.951835632214374</v>
-      </c>
-      <c r="L17">
-        <v>351.7122215078982</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M17">
-        <v>14.96655266217499</v>
-      </c>
-      <c r="N17">
-        <v>1.951835632214374</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O17" s="2">
-        <v>45635</v>
+        <v>45600</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45635</v>
-      </c>
-      <c r="T17" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SMTC US</t>
+          <t>1COV GY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Semtech Corp</t>
+          <t>Covestro Ag</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45636</v>
+        <v>45642</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1624,62 +1574,61 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="I18">
-        <v>55.01128817616785</v>
-      </c>
-      <c r="J18">
-        <v>0.8319916542070152</v>
-      </c>
-      <c r="K18">
-        <v>0.4520925645483821</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>-0.0001523985721787014</v>
       </c>
       <c r="L18">
-        <v>62.84842151598917</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9505205915908829</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5164995222433377</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>45632</v>
+        <v>45628</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SMTC US</t>
+          <t>1CO GY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Semtech Corp</t>
+          <t>Covestro Ag-Tend</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45636</v>
+        <v>45642</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1688,47 +1637,38 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="H19">
-        <v>7.124092424534939e-05</v>
-      </c>
-      <c r="I19">
-        <v>7.837133339821332</v>
-      </c>
-      <c r="J19">
-        <v>0.1185289373838677</v>
-      </c>
-      <c r="K19">
-        <v>0.06440695769495561</v>
+        <v>0.0001523985721787014</v>
       </c>
       <c r="L19">
-        <v>62.84842151598917</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9505205915908829</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5164995222433377</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>45632</v>
+        <v>45628</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R19" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1742,16 +1682,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROOF LN</t>
+          <t>VIV FP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Atrato Onsite Energy Plc</t>
+          <t>Vivendi</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45638</v>
+        <v>45642</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1760,7 +1700,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1768,36 +1708,38 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="I20">
-        <v>-5.81725876536</v>
+      <c r="H20">
+        <v>-9.124314523621965e-05</v>
       </c>
       <c r="J20">
-        <v>-5.997599999999999</v>
-      </c>
-      <c r="K20">
-        <v>-5.133336129268043</v>
+        <v>-60.19871440625</v>
       </c>
       <c r="L20">
-        <v>-5.81725876536</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>-5.997599999999999</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="N20">
-        <v>-5.133336129268043</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Voluntary Liquidation</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1811,12 +1753,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CAN LN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Canal+</t>
+          <t>Canal+ France</t>
         </is>
       </c>
       <c r="D21" s="2">
@@ -1829,30 +1771,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="J21">
-        <v>-12.976968375</v>
+        <v>-60.19871440625</v>
       </c>
       <c r="M21">
-        <v>-12.976968375</v>
+        <v>-45.81390107637372</v>
       </c>
       <c r="O21" s="2">
-        <v>45600</v>
+        <v>45636</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -1873,12 +1815,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>HAVAS NA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Louis Hachette</t>
+          <t>Havas Bv</t>
         </is>
       </c>
       <c r="D22" s="2">
@@ -1891,30 +1833,30 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="J22">
-        <v>-12.976968375</v>
+        <v>-60.19871440625</v>
       </c>
       <c r="M22">
-        <v>-12.976968375</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O22" s="2">
-        <v>45600</v>
+        <v>45636</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -1935,12 +1877,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ALHG FP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Havas</t>
+          <t>Louis Hachette Group</t>
         </is>
       </c>
       <c r="D23" s="2">
@@ -1953,30 +1895,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CAC 40</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Spin-off Delete</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="J23">
-        <v>-12.976968375</v>
+        <v>-60.19871440625</v>
       </c>
       <c r="M23">
-        <v>-12.976968375</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O23" s="2">
-        <v>45600</v>
+        <v>45636</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -1997,12 +1939,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1COV GY</t>
+          <t>VIV FP</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Covestro Ag</t>
+          <t>Vivendi</t>
         </is>
       </c>
       <c r="D24" s="2">
@@ -2015,38 +1957,46 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="H24">
-        <v>-0.0001523985721787014</v>
+        <v>0.0007813009972202981</v>
+      </c>
+      <c r="J24">
+        <v>17.26590840118978</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>45628</v>
+        <v>45636</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Conversion to tendered line</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W24" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2060,12 +2010,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1CO GY</t>
+          <t>CAN LN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Covestro Ag-Tend</t>
+          <t>Canal+ France</t>
         </is>
       </c>
       <c r="D25" s="2">
@@ -2078,7 +2028,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2086,44 +2036,48 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="H25">
-        <v>0.0001523985721787014</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
+      <c r="J25">
+        <v>14.38481332987627</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
+        <v>-45.81390107637372</v>
       </c>
       <c r="O25" s="2">
-        <v>45628</v>
+        <v>45636</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Conversion to tendered line</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>METCB US</t>
+          <t>HAVAS NA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ramaco Resources Inc-B</t>
+          <t>Havas Bv</t>
         </is>
       </c>
       <c r="D26" s="2">
@@ -2131,7 +2085,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2141,39 +2095,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I26">
-        <v>0.0518777166375</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J26">
-        <v>0.00510105375</v>
-      </c>
-      <c r="K26">
-        <v>0.1256160354376438</v>
-      </c>
-      <c r="L26">
-        <v>0.0518777166375</v>
+        <v>17.26590840118978</v>
       </c>
       <c r="M26">
-        <v>0.00510105375</v>
-      </c>
-      <c r="N26">
-        <v>0.1256160354376438</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O26" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W26" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2187,17 +2129,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>ALHG FP</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Automob</t>
+          <t>Louis Hachette Group</t>
         </is>
       </c>
       <c r="D27" s="2">
@@ -2205,43 +2147,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="J27">
-        <v>-13.73197917307085</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
+        <v>17.26590840118978</v>
       </c>
       <c r="M27">
-        <v>-13.73197917307085</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O27" s="2">
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q27" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W27" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V27" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2255,21 +2191,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4921 JP</t>
+          <t>VIV FP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fancl Corp</t>
+          <t>Vivendi Se</t>
         </is>
       </c>
       <c r="D28" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2278,7 +2214,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2286,36 +2222,29 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="I28">
-        <v>-22.05060407789443</v>
-      </c>
       <c r="J28">
-        <v>-1.187546670000023</v>
-      </c>
-      <c r="K28">
-        <v>-12.40451945474511</v>
-      </c>
-      <c r="L28">
-        <v>-39.60393378891749</v>
+        <v>-4.6928219365625</v>
       </c>
       <c r="M28">
-        <v>-2.132607370000023</v>
-      </c>
-      <c r="N28">
-        <v>-19.24485457344806</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O28" s="2">
-        <v>45628</v>
+        <v>45636</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2324,30 +2253,30 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4921 JP</t>
+          <t>HAVAS NA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fancl Corp</t>
+          <t>Havas Bv</t>
         </is>
       </c>
       <c r="D29" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2355,39 +2284,29 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H29">
-        <v>-7.137577133705022e-05</v>
-      </c>
-      <c r="I29">
-        <v>-17.55332971102305</v>
-      </c>
       <c r="J29">
-        <v>-0.9450606999999999</v>
-      </c>
-      <c r="K29">
-        <v>-6.840335118702952</v>
-      </c>
-      <c r="L29">
-        <v>-39.60393378891749</v>
+        <v>-4.6928219365625</v>
       </c>
       <c r="M29">
-        <v>-2.132607370000023</v>
-      </c>
-      <c r="N29">
-        <v>-19.24485457344806</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O29" s="2">
-        <v>45629</v>
+        <v>45636</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2401,136 +2320,119 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAVOLA AB</t>
+          <t>ALHG FP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Savola</t>
+          <t>Louis Hachette Group</t>
         </is>
       </c>
       <c r="D30" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Stoxx Europe 600</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J30">
+        <v>-4.6928219365625</v>
+      </c>
+      <c r="M30">
+        <v>-47.62562794162272</v>
+      </c>
+      <c r="O30" s="2">
+        <v>45636</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Spin-off</t>
+        </is>
+      </c>
+      <c r="Q30" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>METCB US</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ramaco Resources Inc-B</t>
+        </is>
+      </c>
+      <c r="D31" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>MSCI EM</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="I30">
-        <v>-243.8083327243425</v>
-      </c>
-      <c r="J30">
-        <v>-37.7842587486</v>
-      </c>
-      <c r="K30">
-        <v>-38.23519314600604</v>
-      </c>
-      <c r="L30">
-        <v>-227.6739577646434</v>
-      </c>
-      <c r="M30">
-        <v>-35.28382986082499</v>
-      </c>
-      <c r="N30">
-        <v>-35.70492301134387</v>
-      </c>
-      <c r="O30" s="2">
-        <v>45623</v>
-      </c>
-      <c r="P30" t="inlineStr">
+      <c r="I31">
+        <v>0.0518777166375</v>
+      </c>
+      <c r="J31">
+        <v>0.00510105375</v>
+      </c>
+      <c r="K31">
+        <v>0.1256160354376438</v>
+      </c>
+      <c r="L31">
+        <v>0.0518777166375</v>
+      </c>
+      <c r="M31">
+        <v>0.00510105375</v>
+      </c>
+      <c r="N31">
+        <v>0.1256160354376438</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45631</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>Spin-Off</t>
         </is>
       </c>
-      <c r="Q30" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SAVOLA AB</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Savola</t>
-        </is>
-      </c>
-      <c r="D31" s="2">
-        <v>45643</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I31">
-        <v>16.13437495969914</v>
-      </c>
-      <c r="J31">
-        <v>2.500428887775</v>
-      </c>
-      <c r="K31">
-        <v>2.530270134662165</v>
-      </c>
-      <c r="L31">
-        <v>-227.6739577646434</v>
-      </c>
-      <c r="M31">
-        <v>-35.28382986082499</v>
-      </c>
-      <c r="N31">
-        <v>-35.70492301134387</v>
-      </c>
-      <c r="O31" s="2">
-        <v>45623</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
       <c r="Q31" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V31" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2544,7 +2446,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2554,11 +2456,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Savola (Detached)</t>
+          <t>Automob</t>
         </is>
       </c>
       <c r="D32" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2567,25 +2469,28 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J32">
+        <v>-13.73197917307085</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-13.73197917307085</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>45623</v>
+        <v>45632</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2593,9 +2498,9 @@
         </is>
       </c>
       <c r="Q32" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V32" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2609,17 +2514,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>3003 JP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ingenuity</t>
+          <t>Hulic Co (New)</t>
         </is>
       </c>
       <c r="D33" s="2">
@@ -2632,38 +2537,47 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>1.445911962961938e-05</v>
+      </c>
+      <c r="I33">
+        <v>70.0049565793489</v>
       </c>
       <c r="J33">
-        <v>-15.25760174</v>
+        <v>7.714251365557105</v>
+      </c>
+      <c r="K33">
+        <v>2.011727662976734</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>70.0049565793489</v>
       </c>
       <c r="M33">
-        <v>-15.25760174</v>
+        <v>7.714251365557105</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>2.011727662976734</v>
       </c>
       <c r="O33" s="2">
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Partial Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q33" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W33" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2672,21 +2586,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9961 HK</t>
+          <t>4921 JP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trip.Com Group Ltd</t>
+          <t>Fancl Corp</t>
         </is>
       </c>
       <c r="D34" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2695,44 +2609,44 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I34">
-        <v>155.6624242861552</v>
+        <v>-22.05060407789443</v>
       </c>
       <c r="J34">
-        <v>2.418546608908261</v>
+        <v>-1.187546670000023</v>
       </c>
       <c r="K34">
-        <v>1.085094542466942</v>
+        <v>-12.40451945474511</v>
       </c>
       <c r="L34">
-        <v>155.6624242861552</v>
+        <v>-39.60393378891749</v>
       </c>
       <c r="M34">
-        <v>2.418546608908261</v>
+        <v>-2.132607370000023</v>
       </c>
       <c r="N34">
-        <v>1.085094542466942</v>
+        <v>-19.24485457344806</v>
       </c>
       <c r="O34" s="2">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q34" s="2">
-        <v>45625</v>
-      </c>
-      <c r="T34" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2741,67 +2655,70 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ADANIGR IN</t>
+          <t>4921 JP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Adani Green Energy Ltd</t>
+          <t>Fancl Corp</t>
         </is>
       </c>
       <c r="D35" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H35">
+        <v>-7.137577133705022e-05</v>
       </c>
       <c r="I35">
-        <v>-56.55601408783848</v>
+        <v>-17.55332971102305</v>
       </c>
       <c r="J35">
-        <v>-4.393962854399981</v>
+        <v>-0.9450606999999999</v>
       </c>
       <c r="K35">
-        <v>-0.8471153693359731</v>
+        <v>-6.840335118702952</v>
       </c>
       <c r="L35">
-        <v>-56.55601408783848</v>
+        <v>-39.60393378891749</v>
       </c>
       <c r="M35">
-        <v>-4.393962854399981</v>
+        <v>-2.132607370000023</v>
       </c>
       <c r="N35">
-        <v>-0.8471153693359731</v>
+        <v>-19.24485457344806</v>
       </c>
       <c r="O35" s="2">
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q35" s="2">
-        <v>45625</v>
-      </c>
-      <c r="U35" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2810,67 +2727,70 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>011200 KS</t>
+          <t>8136 JP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hmm Co Ltd</t>
+          <t>Sanrio Co Ltd</t>
         </is>
       </c>
       <c r="D36" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H36">
+        <v>9.400374976402154e-05</v>
       </c>
       <c r="I36">
-        <v>-50.89240754399992</v>
+        <v>22.7446348569734</v>
       </c>
       <c r="J36">
-        <v>-3.814799999999994</v>
+        <v>0.7383138787688757</v>
       </c>
       <c r="K36">
-        <v>-2.021020777606654</v>
+        <v>0.1107660505014797</v>
       </c>
       <c r="L36">
-        <v>-50.89240754399992</v>
+        <v>22.7446348569734</v>
       </c>
       <c r="M36">
-        <v>-3.814799999999994</v>
+        <v>0.7383138787688757</v>
       </c>
       <c r="N36">
-        <v>-2.021020777606654</v>
+        <v>0.1107660505014797</v>
       </c>
       <c r="O36" s="2">
-        <v>45623</v>
+        <v>45636</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q36" s="2">
-        <v>45625</v>
-      </c>
-      <c r="U36" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2884,16 +2804,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BDMS TB</t>
+          <t>SAVOLA AB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Bangkok Dusit Med Service</t>
+          <t>Savola</t>
         </is>
       </c>
       <c r="D37" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2902,44 +2822,49 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I37">
-        <v>22.65721188701599</v>
+        <v>-243.8083327243425</v>
       </c>
       <c r="J37">
-        <v>30.27795521280029</v>
+        <v>-37.7842587486</v>
       </c>
       <c r="K37">
-        <v>0.5173116364331635</v>
+        <v>-38.23519314600604</v>
       </c>
       <c r="L37">
-        <v>22.65721188701599</v>
+        <v>-227.6739577646434</v>
       </c>
       <c r="M37">
-        <v>30.27795521280029</v>
+        <v>-35.28382986082499</v>
       </c>
       <c r="N37">
-        <v>0.5173116364331635</v>
+        <v>-35.70492301134387</v>
       </c>
       <c r="O37" s="2">
         <v>45623</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q37" s="2">
-        <v>45625</v>
-      </c>
-      <c r="T37" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2953,16 +2878,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6890 TT</t>
+          <t>SAVOLA AB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lai Yih Footwear Co Ltd</t>
+          <t>Savola</t>
         </is>
       </c>
       <c r="D38" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2971,7 +2896,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2980,35 +2905,40 @@
         </is>
       </c>
       <c r="I38">
-        <v>42.52118783723223</v>
+        <v>16.13437495969914</v>
       </c>
       <c r="J38">
-        <v>3.56105360000002</v>
+        <v>2.500428887775</v>
       </c>
       <c r="K38">
-        <v>4.361665687827779</v>
+        <v>2.530270134662165</v>
       </c>
       <c r="L38">
-        <v>42.52118783723223</v>
+        <v>-227.6739577646434</v>
       </c>
       <c r="M38">
-        <v>3.56105360000002</v>
+        <v>-35.28382986082499</v>
       </c>
       <c r="N38">
-        <v>4.361665687827779</v>
+        <v>-35.70492301134387</v>
       </c>
       <c r="O38" s="2">
         <v>45623</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q38" s="2">
-        <v>45625</v>
+        <v>45637</v>
       </c>
       <c r="V38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3017,21 +2947,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>011200 KS</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hmm Co Ltd</t>
+          <t>Savola (Detached)</t>
         </is>
       </c>
       <c r="D39" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3040,44 +2970,40 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
-      </c>
-      <c r="I39">
-        <v>-50.89240754399992</v>
-      </c>
-      <c r="J39">
-        <v>-3.814799999999994</v>
-      </c>
-      <c r="K39">
-        <v>-2.021020777606654</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L39">
-        <v>-50.89240754399992</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-3.814799999999994</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>-2.021020777606654</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
         <v>45623</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q39" s="2">
-        <v>45628</v>
-      </c>
-      <c r="U39" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3086,7 +3012,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3096,20 +3022,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Ingenuity</t>
         </is>
       </c>
       <c r="D40" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3118,34 +3044,29 @@
         </is>
       </c>
       <c r="J40">
-        <v>-0.158686858219997</v>
+        <v>-15.25760174</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-0.158686858219997</v>
+        <v>-15.25760174</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>45609</v>
+        <v>45632</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Spin off by GS Retail</t>
+          <t>Partial Acquisition</t>
         </is>
       </c>
       <c r="Q40" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W40" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3154,17 +3075,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>9961 HK</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Trip.Com Group Ltd</t>
         </is>
       </c>
       <c r="D41" s="2">
@@ -3177,40 +3098,44 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I41">
+        <v>155.6624242861552</v>
+      </c>
+      <c r="J41">
+        <v>2.418546608908261</v>
+      </c>
+      <c r="K41">
+        <v>1.085094542466942</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="M41">
-        <v>-0.158686858219997</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="O41" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Spin off by GS Retail</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q41" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3219,17 +3144,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MQG AU</t>
+          <t>ADANIGR IN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Macquarie Group Ltd</t>
+          <t>Adani Green Energy Ltd</t>
         </is>
       </c>
       <c r="D42" s="2">
@@ -3242,34 +3167,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I42">
-        <v>-2.319684123782327</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="J42">
-        <v>-0.0154129480000128</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="K42">
-        <v>-0.02262472337356681</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="L42">
-        <v>-2.319684123782327</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="M42">
-        <v>-0.0154129480000128</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="N42">
-        <v>-0.02262472337356681</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="O42" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3277,14 +3202,9 @@
         </is>
       </c>
       <c r="Q42" s="2">
-        <v>45635</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3293,17 +3213,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>300 HK</t>
+          <t>011200 KS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Midea Group Co Ltd</t>
+          <t>Hmm Co Ltd</t>
         </is>
       </c>
       <c r="D43" s="2">
@@ -3316,34 +3236,34 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I43">
-        <v>-3.148221707803769</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="J43">
-        <v>-0.353331724799982</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="K43">
-        <v>-0.0759754485223816</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="L43">
-        <v>-3.148221707803769</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="M43">
-        <v>-0.353331724799982</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="N43">
-        <v>-0.0759754485223816</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="O43" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3351,12 +3271,7 @@
         </is>
       </c>
       <c r="Q43" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+        <v>45625</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -3367,17 +3282,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>010130 KS</t>
+          <t>BDMS TB</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Korea Zinc Co Ltd</t>
+          <t>Bangkok Dusit Med Service</t>
         </is>
       </c>
       <c r="D44" s="2">
@@ -3390,34 +3305,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I44">
-        <v>-72.43523723840126</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="J44">
-        <v>-0.0856792230999954</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="K44">
-        <v>-1.114928941504028</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="L44">
-        <v>-72.43523723840126</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="M44">
-        <v>-0.0856792230999954</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="N44">
-        <v>-1.114928941504028</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="O44" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3425,14 +3340,9 @@
         </is>
       </c>
       <c r="Q44" s="2">
-        <v>45635</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="T44" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3441,17 +3351,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9961 HK</t>
+          <t>6890 TT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Trip.Com Group Ltd</t>
+          <t>Lai Yih Footwear Co Ltd</t>
         </is>
       </c>
       <c r="D45" s="2">
@@ -3464,31 +3374,31 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I45">
-        <v>155.6624242861552</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="J45">
-        <v>2.418546608908261</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="K45">
-        <v>1.085094542466942</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="L45">
-        <v>155.6624242861552</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="M45">
-        <v>2.418546608908261</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="N45">
-        <v>1.085094542466942</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="O45" s="2">
         <v>45623</v>
@@ -3499,9 +3409,9 @@
         </is>
       </c>
       <c r="Q45" s="2">
-        <v>45635</v>
-      </c>
-      <c r="T45" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="V45" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3515,12 +3425,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ADANIGR IN</t>
+          <t>011200 KS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adani Green Energy Ltd</t>
+          <t>Hmm Co Ltd</t>
         </is>
       </c>
       <c r="D46" s="2">
@@ -3533,7 +3443,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3542,22 +3452,22 @@
         </is>
       </c>
       <c r="I46">
-        <v>-56.55601408783848</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="J46">
-        <v>-4.393962854399981</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="K46">
-        <v>-0.8471153693359731</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="L46">
-        <v>-56.55601408783848</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="M46">
-        <v>-4.393962854399981</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="N46">
-        <v>-0.8471153693359731</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="O46" s="2">
         <v>45623</v>
@@ -3568,7 +3478,7 @@
         </is>
       </c>
       <c r="Q46" s="2">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -3584,12 +3494,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BDMS TB</t>
+          <t>MQG AU</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bangkok Dusit Med Service</t>
+          <t>Macquarie Group Ltd</t>
         </is>
       </c>
       <c r="D47" s="2">
@@ -3602,34 +3512,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Dec &amp; F Inc</t>
         </is>
       </c>
       <c r="I47">
-        <v>22.65721188701599</v>
+        <v>-2.319684123782327</v>
       </c>
       <c r="J47">
-        <v>30.27795521280029</v>
+        <v>-0.0154129480000128</v>
       </c>
       <c r="K47">
-        <v>0.5173116364331635</v>
+        <v>-0.02262472337356681</v>
       </c>
       <c r="L47">
-        <v>22.65721188701599</v>
+        <v>-2.319684123782327</v>
       </c>
       <c r="M47">
-        <v>30.27795521280029</v>
+        <v>-0.0154129480000128</v>
       </c>
       <c r="N47">
-        <v>0.5173116364331635</v>
+        <v>-0.02262472337356681</v>
       </c>
       <c r="O47" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3639,6 +3549,11 @@
       <c r="Q47" s="2">
         <v>45635</v>
       </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3653,12 +3568,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6890 TT</t>
+          <t>300 HK</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lai Yih Footwear Co Ltd</t>
+          <t>Midea Group Co Ltd</t>
         </is>
       </c>
       <c r="D48" s="2">
@@ -3671,34 +3586,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I48">
-        <v>42.52118783723223</v>
+        <v>-3.148221707803769</v>
       </c>
       <c r="J48">
-        <v>3.56105360000002</v>
+        <v>-0.353331724799982</v>
       </c>
       <c r="K48">
-        <v>4.361665687827779</v>
+        <v>-0.0759754485223816</v>
       </c>
       <c r="L48">
-        <v>42.52118783723223</v>
+        <v>-3.148221707803769</v>
       </c>
       <c r="M48">
-        <v>3.56105360000002</v>
+        <v>-0.353331724799982</v>
       </c>
       <c r="N48">
-        <v>4.361665687827779</v>
+        <v>-0.0759754485223816</v>
       </c>
       <c r="O48" s="2">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -3708,7 +3623,12 @@
       <c r="Q48" s="2">
         <v>45635</v>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3722,12 +3642,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3549 JP</t>
+          <t>010130 KS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Kusuri No Aoki Holdings Co L</t>
+          <t>Korea Zinc Co Ltd</t>
         </is>
       </c>
       <c r="D49" s="2">
@@ -3745,29 +3665,29 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>S Dec &amp; F Dec</t>
         </is>
       </c>
       <c r="I49">
-        <v>4.772711612390871</v>
+        <v>-72.43523723840126</v>
       </c>
       <c r="J49">
-        <v>0.21262315725</v>
+        <v>-0.0856792230999954</v>
       </c>
       <c r="K49">
-        <v>0.8932807782795924</v>
+        <v>-1.114928941504028</v>
       </c>
       <c r="L49">
-        <v>4.772711612390871</v>
+        <v>-72.43523723840126</v>
       </c>
       <c r="M49">
-        <v>0.21262315725</v>
+        <v>-0.0856792230999954</v>
       </c>
       <c r="N49">
-        <v>0.8932807782795924</v>
+        <v>-1.114928941504028</v>
       </c>
       <c r="O49" s="2">
-        <v>45629</v>
+        <v>45624</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3777,7 +3697,12 @@
       <c r="Q49" s="2">
         <v>45635</v>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3791,12 +3716,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3003 JP</t>
+          <t>9961 HK</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hulic Co Ltd</t>
+          <t>Trip.Com Group Ltd</t>
         </is>
       </c>
       <c r="D50" s="2">
@@ -3809,7 +3734,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3818,25 +3743,25 @@
         </is>
       </c>
       <c r="I50">
-        <v>61.63050514194549</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="J50">
-        <v>6.557642904949804</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="K50">
-        <v>2.512805315937833</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="L50">
-        <v>61.63050514194549</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="M50">
-        <v>6.557642904949804</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="N50">
-        <v>2.512805315937833</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="O50" s="2">
-        <v>45629</v>
+        <v>45623</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3860,12 +3785,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PRIME SP</t>
+          <t>ADANIGR IN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Prime Us Reit</t>
+          <t>Adani Green Energy Ltd</t>
         </is>
       </c>
       <c r="D51" s="2">
@@ -3878,34 +3803,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I51">
-        <v>4.769887218033598</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="J51">
-        <v>28.73426034959999</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="K51">
-        <v>8.601887269896956</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="L51">
-        <v>4.769887218033598</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="M51">
-        <v>28.73426034959999</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="N51">
-        <v>8.601887269896956</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="O51" s="2">
-        <v>45629</v>
+        <v>45623</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -3915,7 +3840,7 @@
       <c r="Q51" s="2">
         <v>45635</v>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3924,17 +3849,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CURN SE</t>
+          <t>BDMS TB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Bangkok Dusit Med Service</t>
         </is>
       </c>
       <c r="D52" s="2">
@@ -3947,7 +3872,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3956,29 +3881,29 @@
         </is>
       </c>
       <c r="I52">
-        <v>0.03617654735321396</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="J52">
-        <v>0.002282341292</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="K52">
-        <v>0.3036522347431582</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="L52">
-        <v>0.09537453393120043</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="M52">
-        <v>0.006017081588</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="N52">
-        <v>0.8005377097774171</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="O52" s="2">
-        <v>45614</v>
+        <v>45623</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q52" s="2">
@@ -3993,17 +3918,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CURN SE</t>
+          <t>6890 TT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Lai Yih Footwear Co Ltd</t>
         </is>
       </c>
       <c r="D53" s="2">
@@ -4016,44 +3941,44 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I53">
-        <v>0.05919798657798648</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="J53">
-        <v>0.003734740296</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="K53">
-        <v>0.4968854750342589</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="L53">
-        <v>0.09537453393120043</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="M53">
-        <v>0.006017081588</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="N53">
-        <v>0.8005377097774171</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="O53" s="2">
-        <v>45614</v>
+        <v>45623</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q53" s="2">
         <v>45635</v>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4062,17 +3987,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>UCG IM</t>
+          <t>3549 JP</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Unicredit Spa</t>
+          <t>Kusuri No Aoki Holdings Co L</t>
         </is>
       </c>
       <c r="D54" s="2">
@@ -4090,29 +4015,29 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Inc</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I54">
-        <v>-29.35103880806036</v>
+        <v>4.772711612390871</v>
       </c>
       <c r="J54">
-        <v>-0.7677952501984909</v>
+        <v>0.21262315725</v>
       </c>
       <c r="K54">
-        <v>-0.03593990117629201</v>
+        <v>0.8932807782795924</v>
       </c>
       <c r="L54">
-        <v>-29.35103880806036</v>
+        <v>4.772711612390871</v>
       </c>
       <c r="M54">
-        <v>-0.7677952501984909</v>
+        <v>0.21262315725</v>
       </c>
       <c r="N54">
-        <v>-0.03593990117629201</v>
+        <v>0.8932807782795924</v>
       </c>
       <c r="O54" s="2">
-        <v>45622</v>
+        <v>45629</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -4122,12 +4047,7 @@
       <c r="Q54" s="2">
         <v>45635</v>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4136,17 +4056,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AG1 GY</t>
+          <t>PRIME SP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Auto1 Group Se</t>
+          <t>Prime Us Reit</t>
         </is>
       </c>
       <c r="D55" s="2">
@@ -4164,29 +4084,29 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I55">
-        <v>11.45745426812044</v>
+        <v>4.769887218033598</v>
       </c>
       <c r="J55">
-        <v>0.9023230347566403</v>
+        <v>28.73426034959999</v>
       </c>
       <c r="K55">
-        <v>0.6793460396007601</v>
+        <v>8.601887269896956</v>
       </c>
       <c r="L55">
-        <v>11.45745426812044</v>
+        <v>4.769887218033598</v>
       </c>
       <c r="M55">
-        <v>0.9023230347566403</v>
+        <v>28.73426034959999</v>
       </c>
       <c r="N55">
-        <v>0.6793460396007601</v>
+        <v>8.601887269896956</v>
       </c>
       <c r="O55" s="2">
-        <v>45622</v>
+        <v>45629</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -4196,7 +4116,7 @@
       <c r="Q55" s="2">
         <v>45635</v>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4210,12 +4130,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R3NK GY</t>
+          <t>UCG IM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Renk Group Ag</t>
+          <t>Unicredit Spa</t>
         </is>
       </c>
       <c r="D56" s="2">
@@ -4228,31 +4148,31 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>S Dec &amp; F Inc</t>
         </is>
       </c>
       <c r="I56">
-        <v>-2.063019719250005</v>
+        <v>-29.35103880806036</v>
       </c>
       <c r="J56">
-        <v>-0.09922500000000026</v>
+        <v>-0.7677952501984909</v>
       </c>
       <c r="K56">
-        <v>-0.07480481766396392</v>
+        <v>-0.03593990117629201</v>
       </c>
       <c r="L56">
-        <v>-2.063019719250005</v>
+        <v>-29.35103880806036</v>
       </c>
       <c r="M56">
-        <v>-0.09922500000000026</v>
+        <v>-0.7677952501984909</v>
       </c>
       <c r="N56">
-        <v>-0.07480481766396392</v>
+        <v>-0.03593990117629201</v>
       </c>
       <c r="O56" s="2">
         <v>45622</v>
@@ -4265,7 +4185,12 @@
       <c r="Q56" s="2">
         <v>45635</v>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4279,12 +4204,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DNLM LN</t>
+          <t>AG1 GY</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dunelm Group Plc</t>
+          <t>Auto1 Group Se</t>
         </is>
       </c>
       <c r="D57" s="2">
@@ -4306,22 +4231,22 @@
         </is>
       </c>
       <c r="I57">
-        <v>4.516112737007396</v>
+        <v>11.45745426812044</v>
       </c>
       <c r="J57">
-        <v>0.3138977423007933</v>
+        <v>0.9023230347566403</v>
       </c>
       <c r="K57">
-        <v>0.6413607781480402</v>
+        <v>0.6793460396007601</v>
       </c>
       <c r="L57">
-        <v>4.516112737007396</v>
+        <v>11.45745426812044</v>
       </c>
       <c r="M57">
-        <v>0.3138977423007933</v>
+        <v>0.9023230347566403</v>
       </c>
       <c r="N57">
-        <v>0.6413607781480402</v>
+        <v>0.6793460396007601</v>
       </c>
       <c r="O57" s="2">
         <v>45622</v>
@@ -4348,12 +4273,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>IVG IM</t>
+          <t>R3NK GY</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Iveco Group Nv</t>
+          <t>Renk Group Ag</t>
         </is>
       </c>
       <c r="D58" s="2">
@@ -4371,26 +4296,26 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I58">
-        <v>1.236816199566661</v>
+        <v>-2.063019719250005</v>
       </c>
       <c r="J58">
-        <v>0.1233195537468653</v>
+        <v>-0.09922500000000026</v>
       </c>
       <c r="K58">
-        <v>0.02784947268211702</v>
+        <v>-0.07480481766396392</v>
       </c>
       <c r="L58">
-        <v>1.236816199566661</v>
+        <v>-2.063019719250005</v>
       </c>
       <c r="M58">
-        <v>0.1233195537468653</v>
+        <v>-0.09922500000000026</v>
       </c>
       <c r="N58">
-        <v>0.02784947268211702</v>
+        <v>-0.07480481766396392</v>
       </c>
       <c r="O58" s="2">
         <v>45622</v>
@@ -4403,7 +4328,7 @@
       <c r="Q58" s="2">
         <v>45635</v>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4417,12 +4342,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AOF GY</t>
+          <t>DNLM LN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Atoss Software Se</t>
+          <t>Dunelm Group Plc</t>
         </is>
       </c>
       <c r="D59" s="2">
@@ -4444,25 +4369,25 @@
         </is>
       </c>
       <c r="I59">
-        <v>5.191946306820023</v>
+        <v>4.516112737007396</v>
       </c>
       <c r="J59">
-        <v>0.04018736474218923</v>
+        <v>0.3138977423007933</v>
       </c>
       <c r="K59">
-        <v>1.232964393623055</v>
+        <v>0.6413607781480402</v>
       </c>
       <c r="L59">
-        <v>5.191946306820023</v>
+        <v>4.516112737007396</v>
       </c>
       <c r="M59">
-        <v>0.04018736474218923</v>
+        <v>0.3138977423007933</v>
       </c>
       <c r="N59">
-        <v>1.232964393623055</v>
+        <v>0.6413607781480402</v>
       </c>
       <c r="O59" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -4486,12 +4411,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BLV FP</t>
+          <t>IVG IM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Believe Sa</t>
+          <t>Iveco Group Nv</t>
         </is>
       </c>
       <c r="D60" s="2">
@@ -4509,29 +4434,29 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I60">
-        <v>-2.28629558044203</v>
+        <v>1.236816199566661</v>
       </c>
       <c r="J60">
-        <v>-0.15320318645835</v>
+        <v>0.1233195537468653</v>
       </c>
       <c r="K60">
-        <v>-54.61107756905555</v>
+        <v>0.02784947268211702</v>
       </c>
       <c r="L60">
-        <v>-2.28629558044203</v>
+        <v>1.236816199566661</v>
       </c>
       <c r="M60">
-        <v>-0.15320318645835</v>
+        <v>0.1233195537468653</v>
       </c>
       <c r="N60">
-        <v>-54.61107756905555</v>
+        <v>0.02784947268211702</v>
       </c>
       <c r="O60" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -4541,7 +4466,7 @@
       <c r="Q60" s="2">
         <v>45635</v>
       </c>
-      <c r="W60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4555,12 +4480,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PEO PW</t>
+          <t>AOF GY</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bank Pekao Sa</t>
+          <t>Atoss Software Se</t>
         </is>
       </c>
       <c r="D61" s="2">
@@ -4573,7 +4498,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4582,25 +4507,25 @@
         </is>
       </c>
       <c r="I61">
-        <v>26.20172070828116</v>
+        <v>5.191946306820023</v>
       </c>
       <c r="J61">
-        <v>0.7880835370319643</v>
+        <v>0.04018736474218923</v>
       </c>
       <c r="K61">
-        <v>0.7323903756931315</v>
+        <v>1.232964393623055</v>
       </c>
       <c r="L61">
-        <v>26.20172070828116</v>
+        <v>5.191946306820023</v>
       </c>
       <c r="M61">
-        <v>0.7880835370319643</v>
+        <v>0.04018736474218923</v>
       </c>
       <c r="N61">
-        <v>0.7323903756931315</v>
+        <v>1.232964393623055</v>
       </c>
       <c r="O61" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -4624,12 +4549,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>WALLB SS</t>
+          <t>BLV FP</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Wallenstam Ab-B Shs</t>
+          <t>Believe Sa</t>
         </is>
       </c>
       <c r="D62" s="2">
@@ -4647,29 +4572,29 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I62">
-        <v>10.16297218930602</v>
+        <v>-2.28629558044203</v>
       </c>
       <c r="J62">
-        <v>2.178449005506481</v>
+        <v>-0.15320318645835</v>
       </c>
       <c r="K62">
-        <v>2.269365222808734</v>
+        <v>-54.61107756905555</v>
       </c>
       <c r="L62">
-        <v>10.16297218930602</v>
+        <v>-2.28629558044203</v>
       </c>
       <c r="M62">
-        <v>2.178449005506481</v>
+        <v>-0.15320318645835</v>
       </c>
       <c r="N62">
-        <v>2.269365222808734</v>
+        <v>-54.61107756905555</v>
       </c>
       <c r="O62" s="2">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -4679,7 +4604,7 @@
       <c r="Q62" s="2">
         <v>45635</v>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="W62" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4693,12 +4618,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JDEP NA</t>
+          <t>PEO PW</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Jde Peet'S Nv</t>
+          <t>Bank Pekao Sa</t>
         </is>
       </c>
       <c r="D63" s="2">
@@ -4720,25 +4645,25 @@
         </is>
       </c>
       <c r="I63">
-        <v>42.98552256319133</v>
+        <v>26.20172070828116</v>
       </c>
       <c r="J63">
-        <v>2.17788371976048</v>
+        <v>0.7880835370319643</v>
       </c>
       <c r="K63">
-        <v>3.105666046584741</v>
+        <v>0.7323903756931315</v>
       </c>
       <c r="L63">
-        <v>42.98552256319133</v>
+        <v>26.20172070828116</v>
       </c>
       <c r="M63">
-        <v>2.17788371976048</v>
+        <v>0.7880835370319643</v>
       </c>
       <c r="N63">
-        <v>3.105666046584741</v>
+        <v>0.7323903756931315</v>
       </c>
       <c r="O63" s="2">
-        <v>45629</v>
+        <v>45624</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4762,12 +4687,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NRP SJ</t>
+          <t>WALLB SS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nepi Rockcastle N.V.</t>
+          <t>Wallenstam Ab-B Shs</t>
         </is>
       </c>
       <c r="D64" s="2">
@@ -4780,34 +4705,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I64">
-        <v>2.392633537963422</v>
+        <v>10.16297218930602</v>
       </c>
       <c r="J64">
-        <v>0.3142580525971531</v>
+        <v>2.178449005506481</v>
       </c>
       <c r="K64">
-        <v>0.2507198707835687</v>
+        <v>2.269365222808734</v>
       </c>
       <c r="L64">
-        <v>2.392633537963422</v>
+        <v>10.16297218930602</v>
       </c>
       <c r="M64">
-        <v>0.3142580525971531</v>
+        <v>2.178449005506481</v>
       </c>
       <c r="N64">
-        <v>0.2507198707835687</v>
+        <v>2.269365222808734</v>
       </c>
       <c r="O64" s="2">
-        <v>45629</v>
+        <v>45625</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -4817,7 +4742,7 @@
       <c r="Q64" s="2">
         <v>45635</v>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4831,12 +4756,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KMPUR TI</t>
+          <t>JDEP NA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kimteks Poliuretan Sanayi Ve</t>
+          <t>Jde Peet'S Nv</t>
         </is>
       </c>
       <c r="D65" s="2">
@@ -4849,7 +4774,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4858,22 +4783,22 @@
         </is>
       </c>
       <c r="I65">
-        <v>0.8936489172876266</v>
+        <v>42.98552256319133</v>
       </c>
       <c r="J65">
-        <v>1.624202264794138</v>
+        <v>2.17788371976048</v>
       </c>
       <c r="K65">
-        <v>0.8119663459836358</v>
+        <v>3.105666046584741</v>
       </c>
       <c r="L65">
-        <v>0.8936489172876266</v>
+        <v>42.98552256319133</v>
       </c>
       <c r="M65">
-        <v>1.624202264794138</v>
+        <v>2.17788371976048</v>
       </c>
       <c r="N65">
-        <v>0.8119663459836358</v>
+        <v>3.105666046584741</v>
       </c>
       <c r="O65" s="2">
         <v>45629</v>
@@ -4900,12 +4825,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CCC LN</t>
+          <t>NRP SJ</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Computacenter Plc</t>
+          <t>Nepi Rockcastle N.V.</t>
         </is>
       </c>
       <c r="D66" s="2">
@@ -4918,31 +4843,31 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>S Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I66">
-        <v>-4.347906132818925</v>
+        <v>2.392633537963422</v>
       </c>
       <c r="J66">
-        <v>-0.1522250841691571</v>
+        <v>0.3142580525971531</v>
       </c>
       <c r="K66">
-        <v>-0.3485193212483387</v>
+        <v>0.2507198707835687</v>
       </c>
       <c r="L66">
-        <v>-4.347906132818925</v>
+        <v>2.392633537963422</v>
       </c>
       <c r="M66">
-        <v>-0.1522250841691571</v>
+        <v>0.3142580525971531</v>
       </c>
       <c r="N66">
-        <v>-0.3485193212483387</v>
+        <v>0.2507198707835687</v>
       </c>
       <c r="O66" s="2">
         <v>45629</v>
@@ -4955,7 +4880,7 @@
       <c r="Q66" s="2">
         <v>45635</v>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4969,12 +4894,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CBK GY</t>
+          <t>KMPUR TI</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Commerzbank Ag</t>
+          <t>Kimteks Poliuretan Sanayi Ve</t>
         </is>
       </c>
       <c r="D67" s="2">
@@ -4987,34 +4912,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I67">
-        <v>-63.90711755389893</v>
+        <v>0.8936489172876266</v>
       </c>
       <c r="J67">
-        <v>-3.98325086536609</v>
+        <v>1.624202264794138</v>
       </c>
       <c r="K67">
-        <v>-0.3268193093795329</v>
+        <v>0.8119663459836358</v>
       </c>
       <c r="L67">
-        <v>-63.90711755389893</v>
+        <v>0.8936489172876266</v>
       </c>
       <c r="M67">
-        <v>-3.98325086536609</v>
+        <v>1.624202264794138</v>
       </c>
       <c r="N67">
-        <v>-0.3268193093795329</v>
+        <v>0.8119663459836358</v>
       </c>
       <c r="O67" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -5024,12 +4949,7 @@
       <c r="Q67" s="2">
         <v>45635</v>
       </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5043,12 +4963,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BPT LN</t>
+          <t>CCC LN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bridgepoint Group</t>
+          <t>Computacenter Plc</t>
         </is>
       </c>
       <c r="D68" s="2">
@@ -5066,29 +4986,29 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>S Dec</t>
         </is>
       </c>
       <c r="I68">
-        <v>1.671111019447647</v>
+        <v>-4.347906132818925</v>
       </c>
       <c r="J68">
-        <v>0.3676361377599372</v>
+        <v>-0.1522250841691571</v>
       </c>
       <c r="K68">
-        <v>0.5784189408232019</v>
+        <v>-0.3485193212483387</v>
       </c>
       <c r="L68">
-        <v>1.671111019447647</v>
+        <v>-4.347906132818925</v>
       </c>
       <c r="M68">
-        <v>0.3676361377599372</v>
+        <v>-0.1522250841691571</v>
       </c>
       <c r="N68">
-        <v>0.5784189408232019</v>
+        <v>-0.3485193212483387</v>
       </c>
       <c r="O68" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -5098,7 +5018,7 @@
       <c r="Q68" s="2">
         <v>45635</v>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5112,12 +5032,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ARAMCO AB</t>
+          <t>CBK GY</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Saudi Arabian Oil Co</t>
+          <t>Commerzbank Ag</t>
         </is>
       </c>
       <c r="D69" s="2">
@@ -5130,44 +5050,49 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Dec &amp; F Dec</t>
         </is>
       </c>
       <c r="I69">
-        <v>361.3818757216084</v>
+        <v>-63.90711755389893</v>
       </c>
       <c r="J69">
-        <v>48.8008521160914</v>
+        <v>-3.98325086536609</v>
       </c>
       <c r="K69">
-        <v>3.324102669118699</v>
+        <v>-0.3268193093795329</v>
       </c>
       <c r="L69">
-        <v>361.3818757216084</v>
+        <v>-63.90711755389893</v>
       </c>
       <c r="M69">
-        <v>48.8008521160914</v>
+        <v>-3.98325086536609</v>
       </c>
       <c r="N69">
-        <v>3.324102669118699</v>
+        <v>-0.3268193093795329</v>
       </c>
       <c r="O69" s="2">
-        <v>45611</v>
+        <v>45630</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Public shareholder disclosure</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q69" s="2">
         <v>45635</v>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5176,17 +5101,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FEMSAUBD MM</t>
+          <t>BPT LN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fomento Economico Mexica-Ubd</t>
+          <t>Bridgepoint Group</t>
         </is>
       </c>
       <c r="D70" s="2">
@@ -5199,34 +5124,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>S Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I70">
-        <v>-30.43746976200651</v>
+        <v>1.671111019447647</v>
       </c>
       <c r="J70">
-        <v>-3.30818150231603</v>
+        <v>0.3676361377599372</v>
       </c>
       <c r="K70">
-        <v>-1.033448242114776</v>
+        <v>0.5784189408232019</v>
       </c>
       <c r="L70">
-        <v>-30.43746976200651</v>
+        <v>1.671111019447647</v>
       </c>
       <c r="M70">
-        <v>-3.30818150231603</v>
+        <v>0.3676361377599372</v>
       </c>
       <c r="N70">
-        <v>-1.033448242114776</v>
+        <v>0.5784189408232019</v>
       </c>
       <c r="O70" s="2">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -5236,7 +5161,7 @@
       <c r="Q70" s="2">
         <v>45635</v>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5250,12 +5175,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FIBRAPL MM</t>
+          <t>FEMSAUBD MM</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Prologis Property Mexico Sa</t>
+          <t>Fomento Economico Mexica-Ubd</t>
         </is>
       </c>
       <c r="D71" s="2">
@@ -5273,26 +5198,26 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>S Dec</t>
         </is>
       </c>
       <c r="I71">
-        <v>11.17942440957777</v>
+        <v>-30.43746976200651</v>
       </c>
       <c r="J71">
-        <v>3.763279678447809</v>
+        <v>-3.30818150231603</v>
       </c>
       <c r="K71">
-        <v>0.9107646850067301</v>
+        <v>-1.033448242114776</v>
       </c>
       <c r="L71">
-        <v>11.17942440957777</v>
+        <v>-30.43746976200651</v>
       </c>
       <c r="M71">
-        <v>3.763279678447809</v>
+        <v>-3.30818150231603</v>
       </c>
       <c r="N71">
-        <v>0.9107646850067301</v>
+        <v>-1.033448242114776</v>
       </c>
       <c r="O71" s="2">
         <v>45630</v>
@@ -5305,7 +5230,7 @@
       <c r="Q71" s="2">
         <v>45635</v>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5319,12 +5244,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AMBP3 BZ</t>
+          <t>FIBRAPL MM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ambipar Participacoes E Empr</t>
+          <t>Prologis Property Mexico Sa</t>
         </is>
       </c>
       <c r="D72" s="2">
@@ -5337,34 +5262,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I72">
-        <v>-47.34665179336637</v>
+        <v>11.17942440957777</v>
       </c>
       <c r="J72">
-        <v>-1.883863510041737</v>
+        <v>3.763279678447809</v>
       </c>
       <c r="K72">
-        <v>-10.74252849794279</v>
+        <v>0.9107646850067301</v>
       </c>
       <c r="L72">
-        <v>-47.34665179336637</v>
+        <v>11.17942440957777</v>
       </c>
       <c r="M72">
-        <v>-1.883863510041737</v>
+        <v>3.763279678447809</v>
       </c>
       <c r="N72">
-        <v>-10.74252849794279</v>
+        <v>0.9107646850067301</v>
       </c>
       <c r="O72" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -5374,26 +5299,26 @@
       <c r="Q72" s="2">
         <v>45635</v>
       </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>LATAM</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>METCB_x US</t>
+          <t>AMBP3 BZ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ramaco Class B Distro</t>
+          <t>Ambipar Participacoes E Empr</t>
         </is>
       </c>
       <c r="D73" s="2">
@@ -5406,49 +5331,68 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Dec &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I73">
+        <v>-47.34665179336637</v>
+      </c>
+      <c r="J73">
+        <v>-1.883863510041737</v>
+      </c>
+      <c r="K73">
+        <v>-10.74252849794279</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>-47.34665179336637</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>-1.883863510041737</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>-10.74252849794279</v>
       </c>
       <c r="O73" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Distribtion from METC</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q73" s="2">
         <v>45635</v>
       </c>
-      <c r="W73" t="inlineStr">
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>METCB US</t>
+          <t>ARAMCO AB</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ramaco Res-B</t>
+          <t>Saudi Arabian Oil Co</t>
         </is>
       </c>
       <c r="D74" s="2">
@@ -5461,49 +5405,63 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I74">
+        <v>361.3818757216084</v>
+      </c>
+      <c r="J74">
+        <v>48.8008521160914</v>
+      </c>
+      <c r="K74">
+        <v>3.324102669118699</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>361.3818757216084</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>48.8008521160914</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>3.324102669118699</v>
       </c>
       <c r="O74" s="2">
-        <v>45632</v>
+        <v>45611</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Distribtion from METC</t>
+          <t>Public shareholder disclosure</t>
         </is>
       </c>
       <c r="Q74" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R74" t="inlineStr">
+        <v>45636</v>
+      </c>
+      <c r="T74" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>APO US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Apollo Global Ma (FN)</t>
+          <t>GS P&amp;L</t>
         </is>
       </c>
       <c r="D75" s="2">
@@ -5516,58 +5474,62 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I75">
-        <v>10156.99695828353</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="J75">
-        <v>57.10990699062993</v>
-      </c>
-      <c r="K75">
-        <v>15.48496425841005</v>
+        <v>-0.158686858219997</v>
       </c>
       <c r="L75">
-        <v>7772.057056563533</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>43.70006779062993</v>
+        <v>-0.158686858219997</v>
       </c>
       <c r="N75">
-        <v>11.84897723505357</v>
+        <v>0</v>
       </c>
       <c r="O75" s="2">
-        <v>45632</v>
+        <v>45609</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Replaces QRVO</t>
+          <t>Spin off by GS Retail</t>
         </is>
       </c>
       <c r="Q75" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V75" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>WDAY US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Workday Inc-A (IT)</t>
+          <t>GS P&amp;L</t>
         </is>
       </c>
       <c r="D76" s="2">
@@ -5580,7 +5542,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5588,50 +5550,51 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="I76">
-        <v>7250.293118849239</v>
-      </c>
-      <c r="J76">
-        <v>27.21377193472427</v>
-      </c>
-      <c r="K76">
-        <v>9.357308678319537</v>
-      </c>
       <c r="L76">
-        <v>5547.86931884924</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>20.82377193472427</v>
+        <v>-0.158686858219997</v>
       </c>
       <c r="N76">
-        <v>7.160141648409699</v>
+        <v>0</v>
       </c>
       <c r="O76" s="2">
-        <v>45632</v>
+        <v>45624</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Replaces AMTM</t>
+          <t>Spin off by GS Retail</t>
         </is>
       </c>
       <c r="Q76" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AMTM US</t>
+          <t>3003 JP</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Amentum Holdings (ID)</t>
+          <t>Hulic Co Ltd</t>
         </is>
       </c>
       <c r="D77" s="2">
@@ -5644,58 +5607,63 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I77">
-        <v>-370.6000626479</v>
+        <v>40.08500461597477</v>
       </c>
       <c r="J77">
-        <v>-15.99482359291757</v>
+        <v>4.431781704949927</v>
       </c>
       <c r="K77">
-        <v>-9.019684836452655</v>
+        <v>1.155723015706801</v>
       </c>
       <c r="L77">
-        <v>131.7072982927761</v>
+        <v>69.77760062780794</v>
       </c>
       <c r="M77">
-        <v>5.684389222821583</v>
+        <v>7.714582967875799</v>
       </c>
       <c r="N77">
-        <v>3.205499515498342</v>
+        <v>2.011814138452579</v>
       </c>
       <c r="O77" s="2">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q77" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W77" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="T77" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>QRVO US</t>
+          <t>3003 JP</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Qorvo Inc (IT)</t>
+          <t>Hulic Co Ltd</t>
         </is>
       </c>
       <c r="D78" s="2">
@@ -5708,58 +5676,63 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I78">
-        <v>-827.9977428440097</v>
+        <v>29.69259601183317</v>
       </c>
       <c r="J78">
-        <v>-12.11763124314371</v>
+        <v>3.282801262925872</v>
       </c>
       <c r="K78">
-        <v>-6.425037541069834</v>
+        <v>0.8560911227457785</v>
       </c>
       <c r="L78">
-        <v>121.7021600105927</v>
+        <v>69.77760062780794</v>
       </c>
       <c r="M78">
-        <v>1.781094102306346</v>
+        <v>7.714582967875799</v>
       </c>
       <c r="N78">
-        <v>0.9443756986722347</v>
+        <v>2.011814138452579</v>
       </c>
       <c r="O78" s="2">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q78" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W78" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="T78" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CRS US</t>
+          <t>CURN SE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Carpenter Tech (MA)</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D79" s="2">
@@ -5772,58 +5745,63 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I79">
-        <v>948.3174767376414</v>
+        <v>0.03617654735321396</v>
       </c>
       <c r="J79">
-        <v>4.900359015800131</v>
+        <v>0.002282341292</v>
       </c>
       <c r="K79">
-        <v>8.717223777955011</v>
+        <v>0.3036522347431582</v>
       </c>
       <c r="L79">
-        <v>-166.0801595577799</v>
+        <v>0.09537453393120043</v>
       </c>
       <c r="M79">
-        <v>-0.8582066946970848</v>
+        <v>0.006017081588</v>
       </c>
       <c r="N79">
-        <v>-1.526659532759169</v>
+        <v>0.8005377097774171</v>
       </c>
       <c r="O79" s="2">
-        <v>45632</v>
+        <v>45614</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 600</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="Q79" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V79" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="T79" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CMA US</t>
+          <t>CURN SE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Comerica Inc (FN)</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D80" s="2">
@@ -5836,58 +5814,63 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I80">
-        <v>897.0415946755191</v>
+        <v>0.05919798657798648</v>
       </c>
       <c r="J80">
-        <v>12.92939744415565</v>
+        <v>0.003734740296</v>
       </c>
       <c r="K80">
-        <v>8.19560872331402</v>
+        <v>0.4968854750342589</v>
       </c>
       <c r="L80">
-        <v>-164.1943308229764</v>
+        <v>0.09537453393120043</v>
       </c>
       <c r="M80">
-        <v>-2.366594563605888</v>
+        <v>0.006017081588</v>
       </c>
       <c r="N80">
-        <v>-1.500122734551967</v>
+        <v>0.8005377097774171</v>
       </c>
       <c r="O80" s="2">
-        <v>45632</v>
+        <v>45614</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 600</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="Q80" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V80" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="T80" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CRI US</t>
+          <t>TALABAT UH</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Carter'S Inc (CD)</t>
+          <t>Talabat Holding Plc</t>
         </is>
       </c>
       <c r="D81" s="2">
@@ -5900,44 +5883,38 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I81">
-        <v>-194.5552791678884</v>
+        <v>60.8947372777905</v>
       </c>
       <c r="J81">
-        <v>-3.547689262725901</v>
-      </c>
-      <c r="K81">
-        <v>-3.120092997755501</v>
+        <v>150.1116746879995</v>
       </c>
       <c r="L81">
-        <v>36.53962067290158</v>
+        <v>60.8947372777905</v>
       </c>
       <c r="M81">
-        <v>0.6662950523869728</v>
-      </c>
-      <c r="N81">
-        <v>0.5859877721631075</v>
+        <v>150.1116746879995</v>
       </c>
       <c r="O81" s="2">
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Fast Entry</t>
         </is>
       </c>
       <c r="Q81" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W81" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V81" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5946,12 +5923,12 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>VSH US</t>
+          <t>METCB_x US</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Vishay Intertech (IT)</t>
+          <t>Ramaco Class B Distro</t>
         </is>
       </c>
       <c r="D82" s="2">
@@ -5964,7 +5941,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5972,34 +5949,25 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="I82">
-        <v>-202.5031653122132</v>
-      </c>
-      <c r="J82">
-        <v>-11.13878797096883</v>
-      </c>
-      <c r="K82">
-        <v>-4.559092294405674</v>
-      </c>
       <c r="L82">
-        <v>36.8664796302568</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>2.027859165580681</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>0.8300002765143466</v>
+        <v>0</v>
       </c>
       <c r="O82" s="2">
         <v>45632</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Distribtion from METC</t>
         </is>
       </c>
       <c r="Q82" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -6010,12 +5978,12 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>AMTM US</t>
+          <t>METCB US</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Amentum Holdings (ID)</t>
+          <t>Ramaco Res-B</t>
         </is>
       </c>
       <c r="D83" s="2">
@@ -6028,44 +5996,35 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I83">
-        <v>415.2718046406761</v>
-      </c>
-      <c r="J83">
-        <v>17.92282281573915</v>
-      </c>
-      <c r="K83">
-        <v>10.10690816553498</v>
+          <t>S Inc</t>
+        </is>
       </c>
       <c r="L83">
-        <v>131.7072982927761</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>5.684389222821583</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>3.205499515498342</v>
+        <v>0</v>
       </c>
       <c r="O83" s="2">
         <v>45632</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 500</t>
+          <t>Distribtion from METC</t>
         </is>
       </c>
       <c r="Q83" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V83" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="R83" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6074,12 +6033,12 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>CRI US</t>
+          <t>APO US</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Carter'S Inc (CD)</t>
+          <t>Apollo Global Ma (FN)</t>
         </is>
       </c>
       <c r="D84" s="2">
@@ -6092,7 +6051,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -6101,33 +6060,33 @@
         </is>
       </c>
       <c r="I84">
-        <v>231.09489984079</v>
+        <v>10156.99695828353</v>
       </c>
       <c r="J84">
-        <v>4.213984315112874</v>
+        <v>57.10990699062993</v>
       </c>
       <c r="K84">
-        <v>3.706080769918608</v>
+        <v>15.48496425841005</v>
       </c>
       <c r="L84">
-        <v>36.53962067290158</v>
+        <v>7772.057056563533</v>
       </c>
       <c r="M84">
-        <v>0.6662950523869728</v>
+        <v>43.70006779062993</v>
       </c>
       <c r="N84">
-        <v>0.5859877721631075</v>
+        <v>11.84897723505357</v>
       </c>
       <c r="O84" s="2">
         <v>45632</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 400</t>
+          <t>Replaces QRVO</t>
         </is>
       </c>
       <c r="Q84" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -6138,12 +6097,12 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>SKY US</t>
+          <t>WDAY US</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Champion Homes I (CD)</t>
+          <t>Workday Inc-A (IT)</t>
         </is>
       </c>
       <c r="D85" s="2">
@@ -6156,7 +6115,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6165,33 +6124,33 @@
         </is>
       </c>
       <c r="I85">
-        <v>643.5668554983162</v>
+        <v>7250.293118849239</v>
       </c>
       <c r="J85">
-        <v>6.175080171735907</v>
+        <v>27.21377193472427</v>
       </c>
       <c r="K85">
-        <v>15.64666531176558</v>
+        <v>9.357308678319537</v>
       </c>
       <c r="L85">
-        <v>643.5668554983162</v>
+        <v>5547.86931884924</v>
       </c>
       <c r="M85">
-        <v>6.175080171735907</v>
+        <v>20.82377193472427</v>
       </c>
       <c r="N85">
-        <v>15.64666531176558</v>
+        <v>7.160141648409699</v>
       </c>
       <c r="O85" s="2">
         <v>45632</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Replaces RGNX</t>
+          <t>Replaces AMTM</t>
         </is>
       </c>
       <c r="Q85" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -6202,12 +6161,12 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>QRVO US</t>
+          <t>AMTM US</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Qorvo Inc (IT)</t>
+          <t>Amentum Holdings (ID)</t>
         </is>
       </c>
       <c r="D86" s="2">
@@ -6220,44 +6179,44 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I86">
-        <v>755.2443389546024</v>
+        <v>-370.6000626479</v>
       </c>
       <c r="J86">
-        <v>11.05289534545006</v>
+        <v>-15.99482359291757</v>
       </c>
       <c r="K86">
-        <v>5.860490891915354</v>
+        <v>-9.019684836452655</v>
       </c>
       <c r="L86">
-        <v>121.7021600105927</v>
+        <v>131.7072982927761</v>
       </c>
       <c r="M86">
-        <v>1.781094102306346</v>
+        <v>5.684389222821583</v>
       </c>
       <c r="N86">
-        <v>0.9443756986722347</v>
+        <v>3.205499515498342</v>
       </c>
       <c r="O86" s="2">
         <v>45632</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 500</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q86" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V86" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W86" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6266,12 +6225,12 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRNO US</t>
+          <t>QRVO US</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Terreno Realty C (RE)</t>
+          <t>Qorvo Inc (IT)</t>
         </is>
       </c>
       <c r="D87" s="2">
@@ -6284,44 +6243,44 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I87">
-        <v>692.3714930254733</v>
+        <v>-827.9977428440097</v>
       </c>
       <c r="J87">
-        <v>11.66197562785032</v>
+        <v>-12.11763124314371</v>
       </c>
       <c r="K87">
-        <v>17.04734789862394</v>
+        <v>-6.425037541069834</v>
       </c>
       <c r="L87">
-        <v>692.3714930254733</v>
+        <v>121.7021600105927</v>
       </c>
       <c r="M87">
-        <v>11.66197562785032</v>
+        <v>1.781094102306346</v>
       </c>
       <c r="N87">
-        <v>17.04734789862394</v>
+        <v>0.9443756986722347</v>
       </c>
       <c r="O87" s="2">
         <v>45632</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Replaces HPP</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q87" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V87" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="W87" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6330,12 +6289,12 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>VSH US</t>
+          <t>CRS US</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Vishay Intertech (IT)</t>
+          <t>Carpenter Tech (MA)</t>
         </is>
       </c>
       <c r="D88" s="2">
@@ -6348,7 +6307,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6357,33 +6316,33 @@
         </is>
       </c>
       <c r="I88">
-        <v>239.36964494247</v>
+        <v>948.3174767376414</v>
       </c>
       <c r="J88">
-        <v>13.16664713654951</v>
+        <v>4.900359015800131</v>
       </c>
       <c r="K88">
-        <v>5.38909257092002</v>
+        <v>8.717223777955011</v>
       </c>
       <c r="L88">
-        <v>36.8664796302568</v>
+        <v>-166.0801595577799</v>
       </c>
       <c r="M88">
-        <v>2.027859165580681</v>
+        <v>-0.8582066946970848</v>
       </c>
       <c r="N88">
-        <v>0.8300002765143466</v>
+        <v>-1.526659532759169</v>
       </c>
       <c r="O88" s="2">
         <v>45632</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 400</t>
+          <t>Moved from S&amp;P 600</t>
         </is>
       </c>
       <c r="Q88" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -6394,12 +6353,12 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>CRS US</t>
+          <t>CMA US</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Carpenter Tech (MA)</t>
+          <t>Comerica Inc (FN)</t>
         </is>
       </c>
       <c r="D89" s="2">
@@ -6412,44 +6371,44 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I89">
-        <v>-1114.397636295421</v>
+        <v>897.0415946755191</v>
       </c>
       <c r="J89">
-        <v>-5.758565710497216</v>
+        <v>12.92939744415565</v>
       </c>
       <c r="K89">
-        <v>-10.24388331071418</v>
+        <v>8.19560872331402</v>
       </c>
       <c r="L89">
-        <v>-166.0801595577799</v>
+        <v>-164.1943308229764</v>
       </c>
       <c r="M89">
-        <v>-0.8582066946970848</v>
+        <v>-2.366594563605888</v>
       </c>
       <c r="N89">
-        <v>-1.526659532759169</v>
+        <v>-1.500122734551967</v>
       </c>
       <c r="O89" s="2">
         <v>45632</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 400</t>
+          <t>Moved from S&amp;P 600</t>
         </is>
       </c>
       <c r="Q89" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W89" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V89" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6458,12 +6417,12 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>CMA US</t>
+          <t>CRI US</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Comerica Inc (FN)</t>
+          <t>Carter'S Inc (CD)</t>
         </is>
       </c>
       <c r="D90" s="2">
@@ -6476,7 +6435,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6485,33 +6444,33 @@
         </is>
       </c>
       <c r="I90">
-        <v>-1061.235925498496</v>
+        <v>-194.5552791678884</v>
       </c>
       <c r="J90">
-        <v>-15.29599200776154</v>
+        <v>-3.547689262725901</v>
       </c>
       <c r="K90">
-        <v>-9.695731457865987</v>
+        <v>-3.120092997755501</v>
       </c>
       <c r="L90">
-        <v>-164.1943308229764</v>
+        <v>36.53962067290158</v>
       </c>
       <c r="M90">
-        <v>-2.366594563605888</v>
+        <v>0.6662950523869728</v>
       </c>
       <c r="N90">
-        <v>-1.500122734551967</v>
+        <v>0.5859877721631075</v>
       </c>
       <c r="O90" s="2">
         <v>45632</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 400</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q90" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -6522,12 +6481,12 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>HPP US</t>
+          <t>VSH US</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hudson Pacific P (RE)</t>
+          <t>Vishay Intertech (IT)</t>
         </is>
       </c>
       <c r="D91" s="2">
@@ -6540,7 +6499,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6549,33 +6508,33 @@
         </is>
       </c>
       <c r="I91">
-        <v>-57.8903871159458</v>
+        <v>-202.5031653122132</v>
       </c>
       <c r="J91">
-        <v>-16.26134469549039</v>
+        <v>-11.13878797096883</v>
       </c>
       <c r="K91">
-        <v>-4.847298777124189</v>
+        <v>-4.559092294405674</v>
       </c>
       <c r="L91">
-        <v>-57.8903871159458</v>
+        <v>36.8664796302568</v>
       </c>
       <c r="M91">
-        <v>-16.26134469549039</v>
+        <v>2.027859165580681</v>
       </c>
       <c r="N91">
-        <v>-4.847298777124189</v>
+        <v>0.8300002765143466</v>
       </c>
       <c r="O91" s="2">
         <v>45632</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q91" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -6586,12 +6545,12 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>KELYA US</t>
+          <t>AMTM US</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Kelly Services-A (ID)</t>
+          <t>Amentum Holdings (ID)</t>
         </is>
       </c>
       <c r="D92" s="2">
@@ -6609,39 +6568,39 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I92">
-        <v>-53.31177684951699</v>
+        <v>415.2718046406761</v>
       </c>
       <c r="J92">
-        <v>-3.720291475890927</v>
+        <v>17.92282281573915</v>
       </c>
       <c r="K92">
-        <v>-9.255646460490929</v>
+        <v>10.10690816553498</v>
       </c>
       <c r="L92">
-        <v>-53.31177684951699</v>
+        <v>131.7072982927761</v>
       </c>
       <c r="M92">
-        <v>-3.720291475890927</v>
+        <v>5.684389222821583</v>
       </c>
       <c r="N92">
-        <v>-9.255646460490929</v>
+        <v>3.205499515498342</v>
       </c>
       <c r="O92" s="2">
         <v>45632</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Moved from S&amp;P 500</t>
         </is>
       </c>
       <c r="Q92" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W92" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V92" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6650,12 +6609,12 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>RGNX US</t>
+          <t>CRI US</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Regenxbio Inc (HC)</t>
+          <t>Carter'S Inc (CD)</t>
         </is>
       </c>
       <c r="D93" s="2">
@@ -6673,39 +6632,39 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I93">
-        <v>-50.22123161418001</v>
+        <v>231.09489984079</v>
       </c>
       <c r="J93">
-        <v>-5.242299750958248</v>
+        <v>4.213984315112874</v>
       </c>
       <c r="K93">
-        <v>-4.93340565597227</v>
+        <v>3.706080769918608</v>
       </c>
       <c r="L93">
-        <v>-50.22123161418001</v>
+        <v>36.53962067290158</v>
       </c>
       <c r="M93">
-        <v>-5.242299750958248</v>
+        <v>0.6662950523869728</v>
       </c>
       <c r="N93">
-        <v>-4.93340565597227</v>
+        <v>0.5859877721631075</v>
       </c>
       <c r="O93" s="2">
         <v>45632</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Moved from S&amp;P 400</t>
         </is>
       </c>
       <c r="Q93" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W93" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V93" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6714,12 +6673,12 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>SVC US</t>
+          <t>SKY US</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Service Properti (RE)</t>
+          <t>Champion Homes I (CD)</t>
         </is>
       </c>
       <c r="D94" s="2">
@@ -6737,39 +6696,39 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I94">
-        <v>-53.17007880099526</v>
+        <v>643.5668554983162</v>
       </c>
       <c r="J94">
-        <v>-19.12592762625729</v>
+        <v>6.175080171735907</v>
       </c>
       <c r="K94">
-        <v>-7.795962203852298</v>
+        <v>15.64666531176558</v>
       </c>
       <c r="L94">
-        <v>-53.17007880099526</v>
+        <v>643.5668554983162</v>
       </c>
       <c r="M94">
-        <v>-19.12592762625729</v>
+        <v>6.175080171735907</v>
       </c>
       <c r="N94">
-        <v>-7.795962203852298</v>
+        <v>15.64666531176558</v>
       </c>
       <c r="O94" s="2">
         <v>45632</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Replaces RGNX</t>
         </is>
       </c>
       <c r="Q94" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W94" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V94" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6778,12 +6737,12 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>APO US</t>
+          <t>QRVO US</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Apollo Global Ma (FN)</t>
+          <t>Qorvo Inc (IT)</t>
         </is>
       </c>
       <c r="D95" s="2">
@@ -6796,44 +6755,44 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I95">
-        <v>-2384.93990172</v>
+        <v>755.2443389546024</v>
       </c>
       <c r="J95">
-        <v>-13.4098392</v>
+        <v>11.05289534545006</v>
       </c>
       <c r="K95">
-        <v>-3.635987023356481</v>
+        <v>5.860490891915354</v>
       </c>
       <c r="L95">
-        <v>7772.057056563533</v>
+        <v>121.7021600105927</v>
       </c>
       <c r="M95">
-        <v>43.70006779062993</v>
+        <v>1.781094102306346</v>
       </c>
       <c r="N95">
-        <v>11.84897723505357</v>
+        <v>0.9443756986722347</v>
       </c>
       <c r="O95" s="2">
         <v>45632</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Add to S&amp;P 500</t>
+          <t>Moved from S&amp;P 500</t>
         </is>
       </c>
       <c r="Q95" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W95" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V95" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6842,12 +6801,12 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>WDAY US</t>
+          <t>TRNO US</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Workday Inc-A (IT)</t>
+          <t>Terreno Realty C (RE)</t>
         </is>
       </c>
       <c r="D96" s="2">
@@ -6860,44 +6819,44 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I96">
-        <v>-1702.4238</v>
+        <v>692.3714930254733</v>
       </c>
       <c r="J96">
-        <v>-6.39</v>
+        <v>11.66197562785032</v>
       </c>
       <c r="K96">
-        <v>-2.197167029909839</v>
+        <v>17.04734789862394</v>
       </c>
       <c r="L96">
-        <v>5547.86931884924</v>
+        <v>692.3714930254733</v>
       </c>
       <c r="M96">
-        <v>20.82377193472427</v>
+        <v>11.66197562785032</v>
       </c>
       <c r="N96">
-        <v>7.160141648409699</v>
+        <v>17.04734789862394</v>
       </c>
       <c r="O96" s="2">
         <v>45632</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Add to S&amp;P 500</t>
+          <t>Replaces HPP</t>
         </is>
       </c>
       <c r="Q96" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W96" t="inlineStr">
+        <v>45637</v>
+      </c>
+      <c r="V96" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6906,12 +6865,12 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>AMTM US</t>
+          <t>VSH US</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Amentum Holdings (ID)</t>
+          <t>Vishay Intertech (IT)</t>
         </is>
       </c>
       <c r="D97" s="2">
@@ -6924,7 +6883,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6933,33 +6892,33 @@
         </is>
       </c>
       <c r="I97">
-        <v>87.0355563</v>
+        <v>239.36964494247</v>
       </c>
       <c r="J97">
-        <v>3.75639</v>
+        <v>13.16664713654951</v>
       </c>
       <c r="K97">
-        <v>2.118276186416018</v>
+        <v>5.38909257092002</v>
       </c>
       <c r="L97">
-        <v>131.7072982927761</v>
+        <v>36.8664796302568</v>
       </c>
       <c r="M97">
-        <v>5.684389222821583</v>
+        <v>2.027859165580681</v>
       </c>
       <c r="N97">
-        <v>3.205499515498342</v>
+        <v>0.8300002765143466</v>
       </c>
       <c r="O97" s="2">
         <v>45632</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Moved from S&amp;P 400</t>
         </is>
       </c>
       <c r="Q97" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="V97" t="inlineStr">
         <is>
@@ -6970,12 +6929,12 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>QRVO US</t>
+          <t>CRS US</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Qorvo Inc (IT)</t>
+          <t>Carpenter Tech (MA)</t>
         </is>
       </c>
       <c r="D98" s="2">
@@ -6988,183 +6947,836 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I98">
-        <v>194.4555639</v>
+        <v>-1114.397636295421</v>
       </c>
       <c r="J98">
-        <v>2.84583</v>
+        <v>-5.758565710497216</v>
       </c>
       <c r="K98">
-        <v>1.508922347826715</v>
+        <v>-10.24388331071418</v>
       </c>
       <c r="L98">
-        <v>121.7021600105927</v>
+        <v>-166.0801595577799</v>
       </c>
       <c r="M98">
-        <v>1.781094102306346</v>
+        <v>-0.8582066946970848</v>
       </c>
       <c r="N98">
-        <v>0.9443756986722347</v>
+        <v>-1.526659532759169</v>
       </c>
       <c r="O98" s="2">
         <v>45632</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
+          <t>Moved to S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q98" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CMA US</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Comerica Inc (FN)</t>
+        </is>
+      </c>
+      <c r="D99" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I99">
+        <v>-1061.235925498496</v>
+      </c>
+      <c r="J99">
+        <v>-15.29599200776154</v>
+      </c>
+      <c r="K99">
+        <v>-9.695731457865987</v>
+      </c>
+      <c r="L99">
+        <v>-164.1943308229764</v>
+      </c>
+      <c r="M99">
+        <v>-2.366594563605888</v>
+      </c>
+      <c r="N99">
+        <v>-1.500122734551967</v>
+      </c>
+      <c r="O99" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q99" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>HPP US</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Hudson Pacific P (RE)</t>
+        </is>
+      </c>
+      <c r="D100" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I100">
+        <v>-57.8903871159458</v>
+      </c>
+      <c r="J100">
+        <v>-16.26134469549039</v>
+      </c>
+      <c r="K100">
+        <v>-4.847298777124189</v>
+      </c>
+      <c r="L100">
+        <v>-57.8903871159458</v>
+      </c>
+      <c r="M100">
+        <v>-16.26134469549039</v>
+      </c>
+      <c r="N100">
+        <v>-4.847298777124189</v>
+      </c>
+      <c r="O100" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q100" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>KELYA US</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Kelly Services-A (ID)</t>
+        </is>
+      </c>
+      <c r="D101" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I101">
+        <v>-53.31177684951699</v>
+      </c>
+      <c r="J101">
+        <v>-3.720291475890927</v>
+      </c>
+      <c r="K101">
+        <v>-9.255646460490929</v>
+      </c>
+      <c r="L101">
+        <v>-53.31177684951699</v>
+      </c>
+      <c r="M101">
+        <v>-3.720291475890927</v>
+      </c>
+      <c r="N101">
+        <v>-9.255646460490929</v>
+      </c>
+      <c r="O101" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q101" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>RGNX US</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Regenxbio Inc (HC)</t>
+        </is>
+      </c>
+      <c r="D102" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I102">
+        <v>-50.22123161418001</v>
+      </c>
+      <c r="J102">
+        <v>-5.242299750958248</v>
+      </c>
+      <c r="K102">
+        <v>-4.93340565597227</v>
+      </c>
+      <c r="L102">
+        <v>-50.22123161418001</v>
+      </c>
+      <c r="M102">
+        <v>-5.242299750958248</v>
+      </c>
+      <c r="N102">
+        <v>-4.93340565597227</v>
+      </c>
+      <c r="O102" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q102" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SVC US</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Service Properti (RE)</t>
+        </is>
+      </c>
+      <c r="D103" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I103">
+        <v>-53.17007880099526</v>
+      </c>
+      <c r="J103">
+        <v>-19.12592762625729</v>
+      </c>
+      <c r="K103">
+        <v>-7.795962203852298</v>
+      </c>
+      <c r="L103">
+        <v>-53.17007880099526</v>
+      </c>
+      <c r="M103">
+        <v>-19.12592762625729</v>
+      </c>
+      <c r="N103">
+        <v>-7.795962203852298</v>
+      </c>
+      <c r="O103" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q103" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>APO US</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Apollo Global Ma (FN)</t>
+        </is>
+      </c>
+      <c r="D104" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I104">
+        <v>-2384.93990172</v>
+      </c>
+      <c r="J104">
+        <v>-13.4098392</v>
+      </c>
+      <c r="K104">
+        <v>-3.635987023356481</v>
+      </c>
+      <c r="L104">
+        <v>7772.057056563533</v>
+      </c>
+      <c r="M104">
+        <v>43.70006779062993</v>
+      </c>
+      <c r="N104">
+        <v>11.84897723505357</v>
+      </c>
+      <c r="O104" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Add to S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="Q104" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>WDAY US</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Workday Inc-A (IT)</t>
+        </is>
+      </c>
+      <c r="D105" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I105">
+        <v>-1702.4238</v>
+      </c>
+      <c r="J105">
+        <v>-6.39</v>
+      </c>
+      <c r="K105">
+        <v>-2.197167029909839</v>
+      </c>
+      <c r="L105">
+        <v>5547.86931884924</v>
+      </c>
+      <c r="M105">
+        <v>20.82377193472427</v>
+      </c>
+      <c r="N105">
+        <v>7.160141648409699</v>
+      </c>
+      <c r="O105" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Add to S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="Q105" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AMTM US</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Amentum Holdings (ID)</t>
+        </is>
+      </c>
+      <c r="D106" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I106">
+        <v>87.0355563</v>
+      </c>
+      <c r="J106">
+        <v>3.75639</v>
+      </c>
+      <c r="K106">
+        <v>2.118276186416018</v>
+      </c>
+      <c r="L106">
+        <v>131.7072982927761</v>
+      </c>
+      <c r="M106">
+        <v>5.684389222821583</v>
+      </c>
+      <c r="N106">
+        <v>3.205499515498342</v>
+      </c>
+      <c r="O106" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
           <t>Moved to S&amp;P 600</t>
         </is>
       </c>
-      <c r="Q98" s="2">
-        <v>45635</v>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="Q106" s="2">
+        <v>45637</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>QRVO US</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Qorvo Inc (IT)</t>
+        </is>
+      </c>
+      <c r="D107" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I107">
+        <v>194.4555639</v>
+      </c>
+      <c r="J107">
+        <v>2.84583</v>
+      </c>
+      <c r="K107">
+        <v>1.508922347826715</v>
+      </c>
+      <c r="L107">
+        <v>121.7021600105927</v>
+      </c>
+      <c r="M107">
+        <v>1.781094102306346</v>
+      </c>
+      <c r="N107">
+        <v>0.9443756986722347</v>
+      </c>
+      <c r="O107" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q107" s="2">
+        <v>45637</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Savola (Detached)</t>
         </is>
       </c>
-      <c r="D99" s="2">
+      <c r="D108" s="2">
         <v>45649</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>MSCI EM</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="L99">
+      <c r="L108">
         <v>0</v>
       </c>
-      <c r="M99">
+      <c r="M108">
         <v>0</v>
       </c>
-      <c r="N99">
+      <c r="N108">
         <v>0</v>
       </c>
-      <c r="O99" s="2">
+      <c r="O108" s="2">
         <v>45623</v>
       </c>
-      <c r="P99" t="inlineStr">
+      <c r="P108" t="inlineStr">
         <is>
           <t>Spin-Off</t>
         </is>
       </c>
-      <c r="Q99" s="2">
-        <v>45635</v>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="Q108" s="2">
+        <v>45637</v>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>ALMARAI AB</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Almarai Co</t>
         </is>
       </c>
-      <c r="D100" s="2">
+      <c r="D109" s="2">
         <v>45649</v>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>MSCI EM</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>F Inc</t>
         </is>
       </c>
-      <c r="I100">
+      <c r="I109">
         <v>84.8615650386063</v>
       </c>
-      <c r="J100">
+      <c r="J109">
         <v>5.702878202760012</v>
       </c>
-      <c r="K100">
+      <c r="K109">
         <v>8.947711024904306</v>
       </c>
-      <c r="L100">
+      <c r="L109">
         <v>84.8615650386063</v>
       </c>
-      <c r="M100">
+      <c r="M109">
         <v>5.702878202760012</v>
       </c>
-      <c r="N100">
+      <c r="N109">
         <v>8.947711024904306</v>
       </c>
-      <c r="O100" s="2">
+      <c r="O109" s="2">
         <v>45623</v>
       </c>
-      <c r="P100" t="inlineStr">
+      <c r="P109" t="inlineStr">
         <is>
           <t>Spin-Off</t>
         </is>
       </c>
-      <c r="Q100" s="2">
-        <v>45635</v>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr">
+      <c r="Q109" s="2">
+        <v>45637</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>018880 KS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Hanon Systems</t>
+        </is>
+      </c>
+      <c r="D110" s="2">
+        <v>45653</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H110">
+        <v>2.048582091539132e-05</v>
+      </c>
+      <c r="I110">
+        <v>0.5376098474253072</v>
+      </c>
+      <c r="J110">
+        <v>0.1911303059057406</v>
+      </c>
+      <c r="K110">
+        <v>0.1522248348417269</v>
+      </c>
+      <c r="L110">
+        <v>0.5376098474253072</v>
+      </c>
+      <c r="M110">
+        <v>0.1911303059057406</v>
+      </c>
+      <c r="N110">
+        <v>0.1522248348417269</v>
+      </c>
+      <c r="O110" s="2">
+        <v>45636</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q110" s="2">
+        <v>45637</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z110"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,11 +511,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Integral Diagnostics Limited</t>
+          <t>Integral Diagnostics Ltd</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASX300</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -532,26 +532,23 @@
           <t>S Inc &amp; F Inc</t>
         </is>
       </c>
-      <c r="H2">
-        <v>0.0001552653150051411</v>
-      </c>
       <c r="I2">
-        <v>6.47299992394754</v>
+        <v>6.969471576390472</v>
       </c>
       <c r="J2">
-        <v>3.452437867023558</v>
+        <v>3.72110205102753</v>
       </c>
       <c r="K2">
-        <v>4.473807722745609</v>
+        <v>4.821953568526854</v>
       </c>
       <c r="L2">
-        <v>6.47299992394754</v>
+        <v>6.969471576390472</v>
       </c>
       <c r="M2">
-        <v>3.452437867023558</v>
+        <v>3.72110205102753</v>
       </c>
       <c r="N2">
-        <v>4.473807722745609</v>
+        <v>4.821953568526854</v>
       </c>
       <c r="O2" s="2">
         <v>45636</v>
@@ -562,7 +559,7 @@
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -578,17 +575,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IDX AU</t>
+          <t>ROOF LN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Integral Diagnostics Ltd</t>
+          <t>Atrato Onsite Energy Plc</t>
         </is>
       </c>
       <c r="D3" s="2">
@@ -601,118 +598,108 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I3">
-        <v>6.969471576390472</v>
+        <v>-5.81725876536</v>
       </c>
       <c r="J3">
-        <v>3.72110205102753</v>
+        <v>-5.997599999999999</v>
       </c>
       <c r="K3">
-        <v>4.821953568526854</v>
+        <v>-5.133336129268043</v>
       </c>
       <c r="L3">
-        <v>6.969471576390472</v>
+        <v>-5.81725876536</v>
       </c>
       <c r="M3">
-        <v>3.72110205102753</v>
+        <v>-5.997599999999999</v>
       </c>
       <c r="N3">
-        <v>4.821953568526854</v>
+        <v>-5.133336129268043</v>
       </c>
       <c r="O3" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Voluntary Liquidation</t>
+        </is>
+      </c>
+      <c r="Q3" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AJG US</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Arthur J Gallagh</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <v>45638</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Russell 1000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>304.2113752731859</v>
+      </c>
+      <c r="J4">
+        <v>1.066360681692323</v>
+      </c>
+      <c r="K4">
+        <v>1.015288134993669</v>
+      </c>
+      <c r="L4">
+        <v>622.5432940321519</v>
+      </c>
+      <c r="M4">
+        <v>2.188274824072551</v>
+      </c>
+      <c r="N4">
+        <v>2.083469039256321</v>
+      </c>
+      <c r="O4" s="2">
         <v>45636</v>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q3" s="2">
-        <v>45637</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ROOF LN</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Atrato Onsite Energy Plc</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <v>45638</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>FTSE All Share</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I4">
-        <v>-5.81725876536</v>
-      </c>
-      <c r="J4">
-        <v>-5.997599999999999</v>
-      </c>
-      <c r="K4">
-        <v>-5.133336129268043</v>
-      </c>
-      <c r="L4">
-        <v>-5.81725876536</v>
-      </c>
-      <c r="M4">
-        <v>-5.997599999999999</v>
-      </c>
-      <c r="N4">
-        <v>-5.133336129268043</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45632</v>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Voluntary Liquidation</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W4" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -726,7 +713,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arthur J Gallagh</t>
+          <t>Gallagher (Arthur J.)</t>
         </is>
       </c>
       <c r="D5" s="2">
@@ -739,7 +726,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -747,14 +734,17 @@
           <t>S Inc</t>
         </is>
       </c>
+      <c r="H5">
+        <v>0.00011903915115208</v>
+      </c>
       <c r="I5">
-        <v>304.2113752731859</v>
+        <v>318.331918758966</v>
       </c>
       <c r="J5">
-        <v>1.066360681692323</v>
+        <v>1.121914142380228</v>
       </c>
       <c r="K5">
-        <v>1.015288134993669</v>
+        <v>1.068180904262652</v>
       </c>
       <c r="L5">
         <v>622.5432940321519</v>
@@ -774,76 +764,78 @@
         </is>
       </c>
       <c r="Q5" s="2">
+        <v>45638</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3003 JP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hulic Co Ltd</t>
+        </is>
+      </c>
+      <c r="D6" s="2">
+        <v>45639</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>27.42441863111996</v>
+      </c>
+      <c r="J6">
+        <v>3.032032499999996</v>
+      </c>
+      <c r="K6">
+        <v>0.7906954759768834</v>
+      </c>
+      <c r="L6">
+        <v>47.73880280231994</v>
+      </c>
+      <c r="M6">
+        <v>5.277982499999993</v>
+      </c>
+      <c r="N6">
+        <v>1.376395828552353</v>
+      </c>
+      <c r="O6" s="2">
         <v>45637</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AJG US</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Gallagher (Arthur J.)</t>
-        </is>
-      </c>
-      <c r="D6" s="2">
-        <v>45638</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MSCI DM</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>0.00011903915115208</v>
-      </c>
-      <c r="I6">
-        <v>318.331918758966</v>
-      </c>
-      <c r="J6">
-        <v>1.121914142380228</v>
-      </c>
-      <c r="K6">
-        <v>1.068180904262652</v>
-      </c>
-      <c r="L6">
-        <v>622.5432940321519</v>
-      </c>
-      <c r="M6">
-        <v>2.188274824072551</v>
-      </c>
-      <c r="N6">
-        <v>2.083469039256321</v>
-      </c>
-      <c r="O6" s="2">
-        <v>45636</v>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45637</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -875,7 +867,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -884,13 +876,13 @@
         </is>
       </c>
       <c r="I7">
-        <v>27.42441863111996</v>
+        <v>20.31438417119997</v>
       </c>
       <c r="J7">
-        <v>3.032032499999996</v>
+        <v>2.245949999999997</v>
       </c>
       <c r="K7">
-        <v>0.7906954759768834</v>
+        <v>0.5857003525754692</v>
       </c>
       <c r="L7">
         <v>47.73880280231994</v>
@@ -910,7 +902,7 @@
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -926,12 +918,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3003 JP</t>
+          <t>SPR AU</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hulic Co Ltd</t>
+          <t>Spartan Resource</t>
         </is>
       </c>
       <c r="D8" s="2">
@@ -944,44 +936,47 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>1.334727341885675e-05</v>
       </c>
       <c r="I8">
-        <v>20.31438417119997</v>
+        <v>2.801800049465851</v>
       </c>
       <c r="J8">
-        <v>2.245949999999997</v>
+        <v>2.913315402428035</v>
       </c>
       <c r="K8">
-        <v>0.5857003525754692</v>
+        <v>0.487397121477571</v>
       </c>
       <c r="L8">
-        <v>47.73880280231994</v>
+        <v>2.801800049465851</v>
       </c>
       <c r="M8">
-        <v>5.277982499999993</v>
+        <v>2.913315402428035</v>
       </c>
       <c r="N8">
-        <v>1.376395828552353</v>
+        <v>0.487397121477571</v>
       </c>
       <c r="O8" s="2">
         <v>45637</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45637</v>
-      </c>
-      <c r="T8" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1039,7 +1034,7 @@
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1099,7 +1094,7 @@
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1159,7 +1154,7 @@
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1184,7 +1179,7 @@
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1219,7 +1214,7 @@
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1249,7 +1244,7 @@
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1284,7 +1279,7 @@
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1314,7 +1309,7 @@
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1349,200 +1344,209 @@
         </is>
       </c>
       <c r="Q14" s="2">
+        <v>45638</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RCKT US</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rocket Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>45639</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>1.581294274666864e-05</v>
+      </c>
+      <c r="I15">
+        <v>1.720383822497292</v>
+      </c>
+      <c r="J15">
+        <v>0.1286749306280697</v>
+      </c>
+      <c r="K15">
+        <v>0.130127338786982</v>
+      </c>
+      <c r="L15">
+        <v>1.720383822497292</v>
+      </c>
+      <c r="M15">
+        <v>0.1286749306280697</v>
+      </c>
+      <c r="N15">
+        <v>0.130127338786982</v>
+      </c>
+      <c r="O15" s="2">
         <v>45637</v>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Canal+</t>
-        </is>
-      </c>
-      <c r="D15" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J15">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M15">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O15" s="2">
-        <v>45600</v>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q15" s="2">
+        <v>45638</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CUZ US</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cousins Prop</t>
+        </is>
+      </c>
+      <c r="D16" s="2">
+        <v>45639</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Russell 1000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>10.13185039413186</v>
+      </c>
+      <c r="J16">
+        <v>0.3356028616804193</v>
+      </c>
+      <c r="K16">
+        <v>0.3283008756787905</v>
+      </c>
+      <c r="L16">
+        <v>18.68435276657758</v>
+      </c>
+      <c r="M16">
+        <v>0.6188921088631195</v>
+      </c>
+      <c r="N16">
+        <v>0.5692790538492351</v>
+      </c>
+      <c r="O16" s="2">
         <v>45637</v>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Louis Hachette</t>
-        </is>
-      </c>
-      <c r="D16" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J16">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M16">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O16" s="2">
-        <v>45600</v>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q16" s="2">
+        <v>45638</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CUZ US</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cousins Properties Inc</t>
+        </is>
+      </c>
+      <c r="D17" s="2">
+        <v>45639</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FTSE EPRA Nareit</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>8.552502372445721</v>
+      </c>
+      <c r="J17">
+        <v>0.2832892471827003</v>
+      </c>
+      <c r="K17">
+        <v>0.2409781781704445</v>
+      </c>
+      <c r="L17">
+        <v>18.68435276657758</v>
+      </c>
+      <c r="M17">
+        <v>0.6188921088631195</v>
+      </c>
+      <c r="N17">
+        <v>0.5692790538492351</v>
+      </c>
+      <c r="O17" s="2">
         <v>45637</v>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Havas</t>
-        </is>
-      </c>
-      <c r="D17" s="2">
-        <v>45642</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>CAC 40</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Spin-off Delete</t>
-        </is>
-      </c>
-      <c r="J17">
-        <v>-12.976968375</v>
-      </c>
-      <c r="M17">
-        <v>-12.976968375</v>
-      </c>
-      <c r="O17" s="2">
-        <v>45600</v>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Spin-off from Vivendi</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1551,21 +1555,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1COV GY</t>
+          <t>VAMO3 BZ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Covestro Ag</t>
+          <t>Vamos Locacao de Caminhoes Maquinas e Equipamentos SA</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45642</v>
+        <v>45639</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1574,16 +1578,13 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H18">
-        <v>-0.0001523985721787014</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1595,17 +1596,22 @@
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>45628</v>
+        <v>45637</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Conversion to tendered line</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W18" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1619,16 +1625,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1CO GY</t>
+          <t>CAN LN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Covestro Ag-Tend</t>
+          <t>Canal+ France</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1637,16 +1643,13 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>Add</t>
         </is>
-      </c>
-      <c r="H19">
-        <v>0.0001523985721787014</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1658,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>45628</v>
+        <v>45636</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Conversion to tendered line</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q19" s="2">
@@ -1673,6 +1676,11 @@
           <t>TRUE</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1682,16 +1690,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VIV FP</t>
+          <t>HAVAS NA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Vivendi</t>
+          <t>Havas Bv</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1700,25 +1708,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H20">
-        <v>-9.124314523621965e-05</v>
-      </c>
-      <c r="J20">
-        <v>-60.19871440625</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-47.62562794162272</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1728,13 +1730,13 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Spin-Off from VIV FP</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q20" s="2">
         <v>45637</v>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1753,16 +1755,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CAN LN</t>
+          <t>ALHG FP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Canal+ France</t>
+          <t>Louis Hachette Group</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1771,32 +1773,35 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="J21">
-        <v>-60.19871440625</v>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>-45.81390107637372</v>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>45636</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Spin-Off from VIV FP</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q21" s="2">
         <v>45637</v>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1815,12 +1820,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HAVAS NA</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Havas Bv</t>
+          <t>Canal+</t>
         </is>
       </c>
       <c r="D22" s="2">
@@ -1833,30 +1838,30 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Spin-off Delete</t>
         </is>
       </c>
       <c r="J22">
-        <v>-60.19871440625</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M22">
-        <v>-47.62562794162272</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O22" s="2">
-        <v>45636</v>
+        <v>45600</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Spin-Off from VIV FP</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -1877,12 +1882,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ALHG FP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Louis Hachette Group</t>
+          <t>Louis Hachette</t>
         </is>
       </c>
       <c r="D23" s="2">
@@ -1895,30 +1900,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Spin-off Delete</t>
         </is>
       </c>
       <c r="J23">
-        <v>-60.19871440625</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M23">
-        <v>-47.62562794162272</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O23" s="2">
-        <v>45636</v>
+        <v>45600</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Spin-Off from VIV FP</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -1939,12 +1944,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VIV FP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Vivendi</t>
+          <t>Havas</t>
         </is>
       </c>
       <c r="D24" s="2">
@@ -1957,41 +1962,32 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>CAC 40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="H24">
-        <v>0.0007813009972202981</v>
+          <t>Spin-off Delete</t>
+        </is>
       </c>
       <c r="J24">
-        <v>17.26590840118978</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
+        <v>-12.976968375</v>
       </c>
       <c r="M24">
-        <v>-47.62562794162272</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
+        <v>-12.976968375</v>
       </c>
       <c r="O24" s="2">
-        <v>45636</v>
+        <v>45600</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Spin-Off from VIV FP</t>
+          <t>Spin-off from Vivendi</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V24" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2010,12 +2006,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CAN LN</t>
+          <t>ALMARAI AB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Canal+ France</t>
+          <t>Almarai Co JSC</t>
         </is>
       </c>
       <c r="D25" s="2">
@@ -2028,7 +2024,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2036,22 +2032,25 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="J25">
-        <v>14.38481332987627</v>
+      <c r="L25">
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>-45.81390107637372</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Spin-Off from VIV FP</t>
+          <t>Spin-pff from Savola</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2072,12 +2071,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HAVAS NA</t>
+          <t>1COV GY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Havas Bv</t>
+          <t>Covestro Ag</t>
         </is>
       </c>
       <c r="D26" s="2">
@@ -2090,37 +2089,38 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="J26">
-        <v>17.26590840118978</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>-0.0001523985721787014</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>-47.62562794162272</v>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>45636</v>
+        <v>45628</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Spin-Off from VIV FP</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ALHG FP</t>
+          <t>1CO GY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Louis Hachette Group</t>
+          <t>Covestro Ag-Tend</t>
         </is>
       </c>
       <c r="D27" s="2">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2160,29 +2160,30 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="J27">
-        <v>17.26590840118978</v>
+      <c r="H27">
+        <v>0.0001523985721787014</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-47.62562794162272</v>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>45636</v>
+        <v>45628</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Spin-Off from VIV FP</t>
+          <t>Conversion to tendered line</t>
         </is>
       </c>
       <c r="Q27" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2201,7 +2202,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Vivendi Se</t>
+          <t>Vivendi</t>
         </is>
       </c>
       <c r="D28" s="2">
@@ -2214,7 +2215,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stoxx Europe 600</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2222,22 +2223,31 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="H28">
+        <v>-9.124314523621965e-05</v>
+      </c>
       <c r="J28">
-        <v>-4.6928219365625</v>
+        <v>-60.19871440625</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
       </c>
       <c r="M28">
         <v>-47.62562794162272</v>
       </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
       <c r="O28" s="2">
         <v>45636</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Spin-off</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2258,12 +2268,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HAVAS NA</t>
+          <t>CAN LN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Havas Bv</t>
+          <t>Canal+ France</t>
         </is>
       </c>
       <c r="D29" s="2">
@@ -2276,7 +2286,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stoxx Europe 600</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2285,21 +2295,21 @@
         </is>
       </c>
       <c r="J29">
-        <v>-4.6928219365625</v>
+        <v>-60.19871440625</v>
       </c>
       <c r="M29">
-        <v>-47.62562794162272</v>
+        <v>-45.81390107637372</v>
       </c>
       <c r="O29" s="2">
         <v>45636</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Spin-off</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2320,12 +2330,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ALHG FP</t>
+          <t>HAVAS NA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Louis Hachette Group</t>
+          <t>Havas Bv</t>
         </is>
       </c>
       <c r="D30" s="2">
@@ -2338,7 +2348,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stoxx Europe 600</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2347,7 +2357,7 @@
         </is>
       </c>
       <c r="J30">
-        <v>-4.6928219365625</v>
+        <v>-60.19871440625</v>
       </c>
       <c r="M30">
         <v>-47.62562794162272</v>
@@ -2357,11 +2367,11 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Spin-off</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q30" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2375,14 +2385,19 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>METCB US</t>
+          <t>ALHG FP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ramaco Resources Inc-B</t>
+          <t>Louis Hachette Group</t>
         </is>
       </c>
       <c r="D31" s="2">
@@ -2390,12 +2405,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2403,34 +2418,22 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="I31">
-        <v>0.0518777166375</v>
-      </c>
       <c r="J31">
-        <v>0.00510105375</v>
-      </c>
-      <c r="K31">
-        <v>0.1256160354376438</v>
-      </c>
-      <c r="L31">
-        <v>0.0518777166375</v>
+        <v>-60.19871440625</v>
       </c>
       <c r="M31">
-        <v>0.00510105375</v>
-      </c>
-      <c r="N31">
-        <v>0.1256160354376438</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O31" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q31" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -2446,17 +2449,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>VIV FP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Automob</t>
+          <t>Vivendi</t>
         </is>
       </c>
       <c r="D32" s="2">
@@ -2464,43 +2467,46 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>0.0007813009972202981</v>
       </c>
       <c r="J32">
-        <v>-13.73197917307085</v>
+        <v>17.26590840118978</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-13.73197917307085</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q32" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W32" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V32" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2514,70 +2520,60 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3003 JP</t>
+          <t>CAN LN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hulic Co (New)</t>
+          <t>Canal+ France</t>
         </is>
       </c>
       <c r="D33" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H33">
-        <v>1.445911962961938e-05</v>
-      </c>
-      <c r="I33">
-        <v>70.0049565793489</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J33">
-        <v>7.714251365557105</v>
-      </c>
-      <c r="K33">
-        <v>2.011727662976734</v>
-      </c>
-      <c r="L33">
-        <v>70.0049565793489</v>
+        <v>14.38481332987627</v>
       </c>
       <c r="M33">
-        <v>7.714251365557105</v>
-      </c>
-      <c r="N33">
-        <v>2.011727662976734</v>
+        <v>-45.81390107637372</v>
       </c>
       <c r="O33" s="2">
         <v>45636</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q33" s="2">
-        <v>45637</v>
-      </c>
-      <c r="T33" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2586,21 +2582,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4921 JP</t>
+          <t>HAVAS NA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fancl Corp</t>
+          <t>Havas Bv</t>
         </is>
       </c>
       <c r="D34" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2609,44 +2605,37 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I34">
-        <v>-22.05060407789443</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J34">
-        <v>-1.187546670000023</v>
-      </c>
-      <c r="K34">
-        <v>-12.40451945474511</v>
-      </c>
-      <c r="L34">
-        <v>-39.60393378891749</v>
+        <v>17.26590840118978</v>
       </c>
       <c r="M34">
-        <v>-2.132607370000023</v>
-      </c>
-      <c r="N34">
-        <v>-19.24485457344806</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O34" s="2">
-        <v>45628</v>
+        <v>45636</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q34" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W34" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2655,25 +2644,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4921 JP</t>
+          <t>ALHG FP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fancl Corp</t>
+          <t>Louis Hachette Group</t>
         </is>
       </c>
       <c r="D35" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2683,42 +2672,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H35">
-        <v>-7.137577133705022e-05</v>
-      </c>
-      <c r="I35">
-        <v>-17.55332971102305</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="J35">
-        <v>-0.9450606999999999</v>
-      </c>
-      <c r="K35">
-        <v>-6.840335118702952</v>
-      </c>
-      <c r="L35">
-        <v>-39.60393378891749</v>
+        <v>17.26590840118978</v>
       </c>
       <c r="M35">
-        <v>-2.132607370000023</v>
-      </c>
-      <c r="N35">
-        <v>-19.24485457344806</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O35" s="2">
-        <v>45629</v>
+        <v>45636</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Spin-Off from VIV FP</t>
         </is>
       </c>
       <c r="Q35" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W35" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2727,70 +2706,60 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8136 JP</t>
+          <t>VIV FP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sanrio Co Ltd</t>
+          <t>Vivendi Se</t>
         </is>
       </c>
       <c r="D36" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="H36">
-        <v>9.400374976402154e-05</v>
-      </c>
-      <c r="I36">
-        <v>22.7446348569734</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="J36">
-        <v>0.7383138787688757</v>
-      </c>
-      <c r="K36">
-        <v>0.1107660505014797</v>
-      </c>
-      <c r="L36">
-        <v>22.7446348569734</v>
+        <v>-4.6928219365625</v>
       </c>
       <c r="M36">
-        <v>0.7383138787688757</v>
-      </c>
-      <c r="N36">
-        <v>0.1107660505014797</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O36" s="2">
         <v>45636</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q36" s="2">
-        <v>45637</v>
-      </c>
-      <c r="T36" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2804,16 +2773,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SAVOLA AB</t>
+          <t>HAVAS NA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Savola</t>
+          <t>Havas Bv</t>
         </is>
       </c>
       <c r="D37" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2822,7 +2791,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2830,34 +2799,22 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="I37">
-        <v>-243.8083327243425</v>
-      </c>
       <c r="J37">
-        <v>-37.7842587486</v>
-      </c>
-      <c r="K37">
-        <v>-38.23519314600604</v>
-      </c>
-      <c r="L37">
-        <v>-227.6739577646434</v>
+        <v>-4.6928219365625</v>
       </c>
       <c r="M37">
-        <v>-35.28382986082499</v>
-      </c>
-      <c r="N37">
-        <v>-35.70492301134387</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O37" s="2">
-        <v>45623</v>
+        <v>45636</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Spin-off</t>
         </is>
       </c>
       <c r="Q37" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -2878,16 +2835,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SAVOLA AB</t>
+          <t>ALHG FP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Savola</t>
+          <t>Louis Hachette Group</t>
         </is>
       </c>
       <c r="D38" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2896,109 +2853,101 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I38">
-        <v>16.13437495969914</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="J38">
-        <v>2.500428887775</v>
-      </c>
-      <c r="K38">
-        <v>2.530270134662165</v>
-      </c>
-      <c r="L38">
-        <v>-227.6739577646434</v>
+        <v>-4.6928219365625</v>
       </c>
       <c r="M38">
-        <v>-35.28382986082499</v>
-      </c>
-      <c r="N38">
-        <v>-35.70492301134387</v>
+        <v>-47.62562794162272</v>
       </c>
       <c r="O38" s="2">
-        <v>45623</v>
+        <v>45636</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>Spin-off</t>
+        </is>
+      </c>
+      <c r="Q38" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>METCB US</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ramaco Resources Inc-B</t>
+        </is>
+      </c>
+      <c r="D39" s="2">
+        <v>45642</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I39">
+        <v>0.0518777166375</v>
+      </c>
+      <c r="J39">
+        <v>0.00510105375</v>
+      </c>
+      <c r="K39">
+        <v>0.1256160354376438</v>
+      </c>
+      <c r="L39">
+        <v>0.0518777166375</v>
+      </c>
+      <c r="M39">
+        <v>0.00510105375</v>
+      </c>
+      <c r="N39">
+        <v>0.1256160354376438</v>
+      </c>
+      <c r="O39" s="2">
+        <v>45631</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
           <t>Spin-Off</t>
         </is>
       </c>
-      <c r="Q38" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Savola (Detached)</t>
-        </is>
-      </c>
-      <c r="D39" s="2">
-        <v>45643</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>MSCI EM</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>45623</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
       <c r="Q39" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V39" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3012,7 +2961,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3022,20 +2971,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ingenuity</t>
+          <t>Automob</t>
         </is>
       </c>
       <c r="D40" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3044,13 +2993,13 @@
         </is>
       </c>
       <c r="J40">
-        <v>-15.25760174</v>
+        <v>-13.73197917307085</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-15.25760174</v>
+        <v>-13.73197917307085</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3060,13 +3009,18 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Partial Acquisition</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q40" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3075,30 +3029,30 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9961 HK</t>
+          <t>3003 JP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Trip.Com Group Ltd</t>
+          <t>Hulic Co (New)</t>
         </is>
       </c>
       <c r="D41" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3106,34 +3060,37 @@
           <t>F Inc</t>
         </is>
       </c>
+      <c r="H41">
+        <v>1.445911962961938e-05</v>
+      </c>
       <c r="I41">
-        <v>155.6624242861552</v>
+        <v>70.0049565793489</v>
       </c>
       <c r="J41">
-        <v>2.418546608908261</v>
+        <v>7.714251365557105</v>
       </c>
       <c r="K41">
-        <v>1.085094542466942</v>
+        <v>2.011727662976734</v>
       </c>
       <c r="L41">
-        <v>155.6624242861552</v>
+        <v>70.0049565793489</v>
       </c>
       <c r="M41">
-        <v>2.418546608908261</v>
+        <v>7.714251365557105</v>
       </c>
       <c r="N41">
-        <v>1.085094542466942</v>
+        <v>2.011727662976734</v>
       </c>
       <c r="O41" s="2">
-        <v>45623</v>
+        <v>45636</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q41" s="2">
-        <v>45625</v>
+        <v>45638</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3144,21 +3101,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ADANIGR IN</t>
+          <t>4921 JP</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Adani Green Energy Ltd</t>
+          <t>Fancl Corp</t>
         </is>
       </c>
       <c r="D42" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3167,44 +3124,44 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I42">
-        <v>-56.55601408783848</v>
+        <v>-22.05060407789443</v>
       </c>
       <c r="J42">
-        <v>-4.393962854399981</v>
+        <v>-1.187546670000023</v>
       </c>
       <c r="K42">
-        <v>-0.8471153693359731</v>
+        <v>-12.40451945474511</v>
       </c>
       <c r="L42">
-        <v>-56.55601408783848</v>
+        <v>-39.60393378891749</v>
       </c>
       <c r="M42">
-        <v>-4.393962854399981</v>
+        <v>-2.132607370000023</v>
       </c>
       <c r="N42">
-        <v>-0.8471153693359731</v>
+        <v>-19.24485457344806</v>
       </c>
       <c r="O42" s="2">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q42" s="2">
-        <v>45625</v>
-      </c>
-      <c r="U42" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W42" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3213,67 +3170,70 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>011200 KS</t>
+          <t>4921 JP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hmm Co Ltd</t>
+          <t>Fancl Corp</t>
         </is>
       </c>
       <c r="D43" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H43">
+        <v>-7.137577133705022e-05</v>
       </c>
       <c r="I43">
-        <v>-50.89240754399992</v>
+        <v>-17.55332971102305</v>
       </c>
       <c r="J43">
-        <v>-3.814799999999994</v>
+        <v>-0.9450606999999999</v>
       </c>
       <c r="K43">
-        <v>-2.021020777606654</v>
+        <v>-6.840335118702952</v>
       </c>
       <c r="L43">
-        <v>-50.89240754399992</v>
+        <v>-39.60393378891749</v>
       </c>
       <c r="M43">
-        <v>-3.814799999999994</v>
+        <v>-2.132607370000023</v>
       </c>
       <c r="N43">
-        <v>-2.021020777606654</v>
+        <v>-19.24485457344806</v>
       </c>
       <c r="O43" s="2">
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q43" s="2">
-        <v>45625</v>
-      </c>
-      <c r="U43" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W43" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3282,30 +3242,30 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BDMS TB</t>
+          <t>8136 JP</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bangkok Dusit Med Service</t>
+          <t>Sanrio Co Ltd</t>
         </is>
       </c>
       <c r="D44" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3313,34 +3273,37 @@
           <t>F Inc</t>
         </is>
       </c>
+      <c r="H44">
+        <v>9.400374976402154e-05</v>
+      </c>
       <c r="I44">
-        <v>22.65721188701599</v>
+        <v>22.7446348569734</v>
       </c>
       <c r="J44">
-        <v>30.27795521280029</v>
+        <v>0.7383138787688757</v>
       </c>
       <c r="K44">
-        <v>0.5173116364331635</v>
+        <v>0.1107660505014797</v>
       </c>
       <c r="L44">
-        <v>22.65721188701599</v>
+        <v>22.7446348569734</v>
       </c>
       <c r="M44">
-        <v>30.27795521280029</v>
+        <v>0.7383138787688757</v>
       </c>
       <c r="N44">
-        <v>0.5173116364331635</v>
+        <v>0.1107660505014797</v>
       </c>
       <c r="O44" s="2">
-        <v>45623</v>
+        <v>45636</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Secondary Offering</t>
         </is>
       </c>
       <c r="Q44" s="2">
-        <v>45625</v>
+        <v>45638</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -3356,16 +3319,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6890 TT</t>
+          <t>SAVOLA AB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lai Yih Footwear Co Ltd</t>
+          <t>Savola</t>
         </is>
       </c>
       <c r="D45" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3374,44 +3337,49 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I45">
-        <v>42.52118783723223</v>
+        <v>-243.8083327243425</v>
       </c>
       <c r="J45">
-        <v>3.56105360000002</v>
+        <v>-37.7842587486</v>
       </c>
       <c r="K45">
-        <v>4.361665687827779</v>
+        <v>-38.23519314600604</v>
       </c>
       <c r="L45">
-        <v>42.52118783723223</v>
+        <v>-227.6739577646434</v>
       </c>
       <c r="M45">
-        <v>3.56105360000002</v>
+        <v>-35.28382986082499</v>
       </c>
       <c r="N45">
-        <v>4.361665687827779</v>
+        <v>-35.70492301134387</v>
       </c>
       <c r="O45" s="2">
         <v>45623</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q45" s="2">
-        <v>45625</v>
-      </c>
-      <c r="V45" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3420,21 +3388,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>011200 KS</t>
+          <t>SAVOLA AB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hmm Co Ltd</t>
+          <t>Savola</t>
         </is>
       </c>
       <c r="D46" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3443,44 +3411,49 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I46">
-        <v>-50.89240754399992</v>
+        <v>16.13437495969914</v>
       </c>
       <c r="J46">
-        <v>-3.814799999999994</v>
+        <v>2.500428887775</v>
       </c>
       <c r="K46">
-        <v>-2.021020777606654</v>
+        <v>2.530270134662165</v>
       </c>
       <c r="L46">
-        <v>-50.89240754399992</v>
+        <v>-227.6739577646434</v>
       </c>
       <c r="M46">
-        <v>-3.814799999999994</v>
+        <v>-35.28382986082499</v>
       </c>
       <c r="N46">
-        <v>-2.021020777606654</v>
+        <v>-35.70492301134387</v>
       </c>
       <c r="O46" s="2">
         <v>45623</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q46" s="2">
-        <v>45628</v>
-      </c>
-      <c r="U46" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3489,21 +3462,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MQG AU</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Macquarie Group Ltd</t>
+          <t>Savola (Detached)</t>
         </is>
       </c>
       <c r="D47" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3512,49 +3485,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="I47">
-        <v>-2.319684123782327</v>
-      </c>
-      <c r="J47">
-        <v>-0.0154129480000128</v>
-      </c>
-      <c r="K47">
-        <v>-0.02262472337356681</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L47">
-        <v>-2.319684123782327</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>-0.0154129480000128</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>-0.02262472337356681</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q47" s="2">
-        <v>45635</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3563,72 +3527,61 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>300 HK</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Midea Group Co Ltd</t>
+          <t>Ingenuity</t>
         </is>
       </c>
       <c r="D48" s="2">
-        <v>45646</v>
+        <v>45643</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="I48">
-        <v>-3.148221707803769</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="J48">
-        <v>-0.353331724799982</v>
-      </c>
-      <c r="K48">
-        <v>-0.0759754485223816</v>
+        <v>-15.25760174</v>
       </c>
       <c r="L48">
-        <v>-3.148221707803769</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>-0.353331724799982</v>
+        <v>-15.25760174</v>
       </c>
       <c r="N48">
-        <v>-0.0759754485223816</v>
+        <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>45624</v>
+        <v>45632</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Review Amendment</t>
+          <t>Partial Acquisition</t>
         </is>
       </c>
       <c r="Q48" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W48" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3637,17 +3590,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>010130 KS</t>
+          <t>9961 HK</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Korea Zinc Co Ltd</t>
+          <t>Trip.Com Group Ltd</t>
         </is>
       </c>
       <c r="D49" s="2">
@@ -3660,34 +3613,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I49">
-        <v>-72.43523723840126</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="J49">
-        <v>-0.0856792230999954</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="K49">
-        <v>-1.114928941504028</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="L49">
-        <v>-72.43523723840126</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="M49">
-        <v>-0.0856792230999954</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="N49">
-        <v>-1.114928941504028</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="O49" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3695,14 +3648,9 @@
         </is>
       </c>
       <c r="Q49" s="2">
-        <v>45635</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="T49" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3711,17 +3659,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9961 HK</t>
+          <t>ADANIGR IN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Trip.Com Group Ltd</t>
+          <t>Adani Green Energy Ltd</t>
         </is>
       </c>
       <c r="D50" s="2">
@@ -3739,26 +3687,26 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I50">
-        <v>155.6624242861552</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="J50">
-        <v>2.418546608908261</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="K50">
-        <v>1.085094542466942</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="L50">
-        <v>155.6624242861552</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="M50">
-        <v>2.418546608908261</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="N50">
-        <v>1.085094542466942</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="O50" s="2">
         <v>45623</v>
@@ -3769,9 +3717,9 @@
         </is>
       </c>
       <c r="Q50" s="2">
-        <v>45635</v>
-      </c>
-      <c r="T50" t="inlineStr">
+        <v>45625</v>
+      </c>
+      <c r="U50" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3780,17 +3728,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ADANIGR IN</t>
+          <t>011200 KS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Adani Green Energy Ltd</t>
+          <t>Hmm Co Ltd</t>
         </is>
       </c>
       <c r="D51" s="2">
@@ -3803,7 +3751,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3812,22 +3760,22 @@
         </is>
       </c>
       <c r="I51">
-        <v>-56.55601408783848</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="J51">
-        <v>-4.393962854399981</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="K51">
-        <v>-0.8471153693359731</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="L51">
-        <v>-56.55601408783848</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="M51">
-        <v>-4.393962854399981</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="N51">
-        <v>-0.8471153693359731</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="O51" s="2">
         <v>45623</v>
@@ -3838,7 +3786,7 @@
         </is>
       </c>
       <c r="Q51" s="2">
-        <v>45635</v>
+        <v>45625</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -3849,7 +3797,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3907,7 +3855,7 @@
         </is>
       </c>
       <c r="Q52" s="2">
-        <v>45635</v>
+        <v>45625</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -3918,7 +3866,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3976,7 +3924,7 @@
         </is>
       </c>
       <c r="Q53" s="2">
-        <v>45635</v>
+        <v>45625</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -3992,12 +3940,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3549 JP</t>
+          <t>011200 KS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kusuri No Aoki Holdings Co L</t>
+          <t>Hmm Co Ltd</t>
         </is>
       </c>
       <c r="D54" s="2">
@@ -4015,29 +3963,29 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I54">
-        <v>4.772711612390871</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="J54">
-        <v>0.21262315725</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="K54">
-        <v>0.8932807782795924</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="L54">
-        <v>4.772711612390871</v>
+        <v>-50.89240754399992</v>
       </c>
       <c r="M54">
-        <v>0.21262315725</v>
+        <v>-3.814799999999994</v>
       </c>
       <c r="N54">
-        <v>0.8932807782795924</v>
+        <v>-2.021020777606654</v>
       </c>
       <c r="O54" s="2">
-        <v>45629</v>
+        <v>45623</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -4045,9 +3993,9 @@
         </is>
       </c>
       <c r="Q54" s="2">
-        <v>45635</v>
-      </c>
-      <c r="R54" t="inlineStr">
+        <v>45628</v>
+      </c>
+      <c r="U54" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4061,12 +4009,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PRIME SP</t>
+          <t>MQG AU</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Prime Us Reit</t>
+          <t>Macquarie Group Ltd</t>
         </is>
       </c>
       <c r="D55" s="2">
@@ -4079,34 +4027,34 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>S Dec &amp; F Inc</t>
         </is>
       </c>
       <c r="I55">
-        <v>4.769887218033598</v>
+        <v>-2.319684123782327</v>
       </c>
       <c r="J55">
-        <v>28.73426034959999</v>
+        <v>-0.0154129480000128</v>
       </c>
       <c r="K55">
-        <v>8.601887269896956</v>
+        <v>-0.02262472337356681</v>
       </c>
       <c r="L55">
-        <v>4.769887218033598</v>
+        <v>-2.319684123782327</v>
       </c>
       <c r="M55">
-        <v>28.73426034959999</v>
+        <v>-0.0154129480000128</v>
       </c>
       <c r="N55">
-        <v>8.601887269896956</v>
+        <v>-0.02262472337356681</v>
       </c>
       <c r="O55" s="2">
-        <v>45629</v>
+        <v>45624</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -4116,7 +4064,12 @@
       <c r="Q55" s="2">
         <v>45635</v>
       </c>
-      <c r="V55" t="inlineStr">
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4125,17 +4078,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>UCG IM</t>
+          <t>300 HK</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Unicredit Spa</t>
+          <t>Midea Group Co Ltd</t>
         </is>
       </c>
       <c r="D56" s="2">
@@ -4148,34 +4101,34 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Inc</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I56">
-        <v>-29.35103880806036</v>
+        <v>-3.148221707803769</v>
       </c>
       <c r="J56">
-        <v>-0.7677952501984909</v>
+        <v>-0.353331724799982</v>
       </c>
       <c r="K56">
-        <v>-0.03593990117629201</v>
+        <v>-0.0759754485223816</v>
       </c>
       <c r="L56">
-        <v>-29.35103880806036</v>
+        <v>-3.148221707803769</v>
       </c>
       <c r="M56">
-        <v>-0.7677952501984909</v>
+        <v>-0.353331724799982</v>
       </c>
       <c r="N56">
-        <v>-0.03593990117629201</v>
+        <v>-0.0759754485223816</v>
       </c>
       <c r="O56" s="2">
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -4185,12 +4138,12 @@
       <c r="Q56" s="2">
         <v>45635</v>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4199,17 +4152,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AG1 GY</t>
+          <t>010130 KS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Auto1 Group Se</t>
+          <t>Korea Zinc Co Ltd</t>
         </is>
       </c>
       <c r="D57" s="2">
@@ -4222,34 +4175,34 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Dec &amp; F Dec</t>
         </is>
       </c>
       <c r="I57">
-        <v>11.45745426812044</v>
+        <v>-72.43523723840126</v>
       </c>
       <c r="J57">
-        <v>0.9023230347566403</v>
+        <v>-0.0856792230999954</v>
       </c>
       <c r="K57">
-        <v>0.6793460396007601</v>
+        <v>-1.114928941504028</v>
       </c>
       <c r="L57">
-        <v>11.45745426812044</v>
+        <v>-72.43523723840126</v>
       </c>
       <c r="M57">
-        <v>0.9023230347566403</v>
+        <v>-0.0856792230999954</v>
       </c>
       <c r="N57">
-        <v>0.6793460396007601</v>
+        <v>-1.114928941504028</v>
       </c>
       <c r="O57" s="2">
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -4259,7 +4212,12 @@
       <c r="Q57" s="2">
         <v>45635</v>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4268,17 +4226,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R3NK GY</t>
+          <t>9961 HK</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Renk Group Ag</t>
+          <t>Trip.Com Group Ltd</t>
         </is>
       </c>
       <c r="D58" s="2">
@@ -4291,34 +4249,34 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I58">
-        <v>-2.063019719250005</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="J58">
-        <v>-0.09922500000000026</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="K58">
-        <v>-0.07480481766396392</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="L58">
-        <v>-2.063019719250005</v>
+        <v>155.6624242861552</v>
       </c>
       <c r="M58">
-        <v>-0.09922500000000026</v>
+        <v>2.418546608908261</v>
       </c>
       <c r="N58">
-        <v>-0.07480481766396392</v>
+        <v>1.085094542466942</v>
       </c>
       <c r="O58" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -4328,7 +4286,7 @@
       <c r="Q58" s="2">
         <v>45635</v>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4337,17 +4295,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DNLM LN</t>
+          <t>ADANIGR IN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dunelm Group Plc</t>
+          <t>Adani Green Energy Ltd</t>
         </is>
       </c>
       <c r="D59" s="2">
@@ -4360,34 +4318,34 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I59">
-        <v>4.516112737007396</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="J59">
-        <v>0.3138977423007933</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="K59">
-        <v>0.6413607781480402</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="L59">
-        <v>4.516112737007396</v>
+        <v>-56.55601408783848</v>
       </c>
       <c r="M59">
-        <v>0.3138977423007933</v>
+        <v>-4.393962854399981</v>
       </c>
       <c r="N59">
-        <v>0.6413607781480402</v>
+        <v>-0.8471153693359731</v>
       </c>
       <c r="O59" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -4397,7 +4355,7 @@
       <c r="Q59" s="2">
         <v>45635</v>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4406,17 +4364,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>IVG IM</t>
+          <t>BDMS TB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Iveco Group Nv</t>
+          <t>Bangkok Dusit Med Service</t>
         </is>
       </c>
       <c r="D60" s="2">
@@ -4429,34 +4387,34 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I60">
-        <v>1.236816199566661</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="J60">
-        <v>0.1233195537468653</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="K60">
-        <v>0.02784947268211702</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="L60">
-        <v>1.236816199566661</v>
+        <v>22.65721188701599</v>
       </c>
       <c r="M60">
-        <v>0.1233195537468653</v>
+        <v>30.27795521280029</v>
       </c>
       <c r="N60">
-        <v>0.02784947268211702</v>
+        <v>0.5173116364331635</v>
       </c>
       <c r="O60" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -4466,7 +4424,7 @@
       <c r="Q60" s="2">
         <v>45635</v>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4475,17 +4433,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AOF GY</t>
+          <t>6890 TT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Atoss Software Se</t>
+          <t>Lai Yih Footwear Co Ltd</t>
         </is>
       </c>
       <c r="D61" s="2">
@@ -4498,31 +4456,31 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I61">
-        <v>5.191946306820023</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="J61">
-        <v>0.04018736474218923</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="K61">
-        <v>1.232964393623055</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="L61">
-        <v>5.191946306820023</v>
+        <v>42.52118783723223</v>
       </c>
       <c r="M61">
-        <v>0.04018736474218923</v>
+        <v>3.56105360000002</v>
       </c>
       <c r="N61">
-        <v>1.232964393623055</v>
+        <v>4.361665687827779</v>
       </c>
       <c r="O61" s="2">
         <v>45623</v>
@@ -4535,7 +4493,7 @@
       <c r="Q61" s="2">
         <v>45635</v>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4544,17 +4502,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BLV FP</t>
+          <t>3549 JP</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Believe Sa</t>
+          <t>Kusuri No Aoki Holdings Co L</t>
         </is>
       </c>
       <c r="D62" s="2">
@@ -4567,34 +4525,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I62">
-        <v>-2.28629558044203</v>
+        <v>4.772711612390871</v>
       </c>
       <c r="J62">
-        <v>-0.15320318645835</v>
+        <v>0.21262315725</v>
       </c>
       <c r="K62">
-        <v>-54.61107756905555</v>
+        <v>0.8932807782795924</v>
       </c>
       <c r="L62">
-        <v>-2.28629558044203</v>
+        <v>4.772711612390871</v>
       </c>
       <c r="M62">
-        <v>-0.15320318645835</v>
+        <v>0.21262315725</v>
       </c>
       <c r="N62">
-        <v>-54.61107756905555</v>
+        <v>0.8932807782795924</v>
       </c>
       <c r="O62" s="2">
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -4604,7 +4562,7 @@
       <c r="Q62" s="2">
         <v>45635</v>
       </c>
-      <c r="W62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4613,17 +4571,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PEO PW</t>
+          <t>PRIME SP</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bank Pekao Sa</t>
+          <t>Prime Us Reit</t>
         </is>
       </c>
       <c r="D63" s="2">
@@ -4636,34 +4594,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I63">
-        <v>26.20172070828116</v>
+        <v>4.769887218033598</v>
       </c>
       <c r="J63">
-        <v>0.7880835370319643</v>
+        <v>28.73426034959999</v>
       </c>
       <c r="K63">
-        <v>0.7323903756931315</v>
+        <v>8.601887269896956</v>
       </c>
       <c r="L63">
-        <v>26.20172070828116</v>
+        <v>4.769887218033598</v>
       </c>
       <c r="M63">
-        <v>0.7880835370319643</v>
+        <v>28.73426034959999</v>
       </c>
       <c r="N63">
-        <v>0.7323903756931315</v>
+        <v>8.601887269896956</v>
       </c>
       <c r="O63" s="2">
-        <v>45624</v>
+        <v>45629</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4673,7 +4631,7 @@
       <c r="Q63" s="2">
         <v>45635</v>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4687,12 +4645,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>WALLB SS</t>
+          <t>UCG IM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Wallenstam Ab-B Shs</t>
+          <t>Unicredit Spa</t>
         </is>
       </c>
       <c r="D64" s="2">
@@ -4705,34 +4663,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Dec &amp; F Inc</t>
         </is>
       </c>
       <c r="I64">
-        <v>10.16297218930602</v>
+        <v>-29.35103880806036</v>
       </c>
       <c r="J64">
-        <v>2.178449005506481</v>
+        <v>-0.7677952501984909</v>
       </c>
       <c r="K64">
-        <v>2.269365222808734</v>
+        <v>-0.03593990117629201</v>
       </c>
       <c r="L64">
-        <v>10.16297218930602</v>
+        <v>-29.35103880806036</v>
       </c>
       <c r="M64">
-        <v>2.178449005506481</v>
+        <v>-0.7677952501984909</v>
       </c>
       <c r="N64">
-        <v>2.269365222808734</v>
+        <v>-0.03593990117629201</v>
       </c>
       <c r="O64" s="2">
-        <v>45625</v>
+        <v>45622</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -4742,6 +4700,11 @@
       <c r="Q64" s="2">
         <v>45635</v>
       </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4756,12 +4719,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JDEP NA</t>
+          <t>AG1 GY</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jde Peet'S Nv</t>
+          <t>Auto1 Group Se</t>
         </is>
       </c>
       <c r="D65" s="2">
@@ -4774,7 +4737,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4783,25 +4746,25 @@
         </is>
       </c>
       <c r="I65">
-        <v>42.98552256319133</v>
+        <v>11.45745426812044</v>
       </c>
       <c r="J65">
-        <v>2.17788371976048</v>
+        <v>0.9023230347566403</v>
       </c>
       <c r="K65">
-        <v>3.105666046584741</v>
+        <v>0.6793460396007601</v>
       </c>
       <c r="L65">
-        <v>42.98552256319133</v>
+        <v>11.45745426812044</v>
       </c>
       <c r="M65">
-        <v>2.17788371976048</v>
+        <v>0.9023230347566403</v>
       </c>
       <c r="N65">
-        <v>3.105666046584741</v>
+        <v>0.6793460396007601</v>
       </c>
       <c r="O65" s="2">
-        <v>45629</v>
+        <v>45622</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -4825,12 +4788,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NRP SJ</t>
+          <t>R3NK GY</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nepi Rockcastle N.V.</t>
+          <t>Renk Group Ag</t>
         </is>
       </c>
       <c r="D66" s="2">
@@ -4843,34 +4806,34 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I66">
-        <v>2.392633537963422</v>
+        <v>-2.063019719250005</v>
       </c>
       <c r="J66">
-        <v>0.3142580525971531</v>
+        <v>-0.09922500000000026</v>
       </c>
       <c r="K66">
-        <v>0.2507198707835687</v>
+        <v>-0.07480481766396392</v>
       </c>
       <c r="L66">
-        <v>2.392633537963422</v>
+        <v>-2.063019719250005</v>
       </c>
       <c r="M66">
-        <v>0.3142580525971531</v>
+        <v>-0.09922500000000026</v>
       </c>
       <c r="N66">
-        <v>0.2507198707835687</v>
+        <v>-0.07480481766396392</v>
       </c>
       <c r="O66" s="2">
-        <v>45629</v>
+        <v>45622</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -4880,7 +4843,7 @@
       <c r="Q66" s="2">
         <v>45635</v>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -4894,12 +4857,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KMPUR TI</t>
+          <t>DNLM LN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Kimteks Poliuretan Sanayi Ve</t>
+          <t>Dunelm Group Plc</t>
         </is>
       </c>
       <c r="D67" s="2">
@@ -4912,7 +4875,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4921,25 +4884,25 @@
         </is>
       </c>
       <c r="I67">
-        <v>0.8936489172876266</v>
+        <v>4.516112737007396</v>
       </c>
       <c r="J67">
-        <v>1.624202264794138</v>
+        <v>0.3138977423007933</v>
       </c>
       <c r="K67">
-        <v>0.8119663459836358</v>
+        <v>0.6413607781480402</v>
       </c>
       <c r="L67">
-        <v>0.8936489172876266</v>
+        <v>4.516112737007396</v>
       </c>
       <c r="M67">
-        <v>1.624202264794138</v>
+        <v>0.3138977423007933</v>
       </c>
       <c r="N67">
-        <v>0.8119663459836358</v>
+        <v>0.6413607781480402</v>
       </c>
       <c r="O67" s="2">
-        <v>45629</v>
+        <v>45622</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -4963,12 +4926,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CCC LN</t>
+          <t>IVG IM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Computacenter Plc</t>
+          <t>Iveco Group Nv</t>
         </is>
       </c>
       <c r="D68" s="2">
@@ -4986,29 +4949,29 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>S Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I68">
-        <v>-4.347906132818925</v>
+        <v>1.236816199566661</v>
       </c>
       <c r="J68">
-        <v>-0.1522250841691571</v>
+        <v>0.1233195537468653</v>
       </c>
       <c r="K68">
-        <v>-0.3485193212483387</v>
+        <v>0.02784947268211702</v>
       </c>
       <c r="L68">
-        <v>-4.347906132818925</v>
+        <v>1.236816199566661</v>
       </c>
       <c r="M68">
-        <v>-0.1522250841691571</v>
+        <v>0.1233195537468653</v>
       </c>
       <c r="N68">
-        <v>-0.3485193212483387</v>
+        <v>0.02784947268211702</v>
       </c>
       <c r="O68" s="2">
-        <v>45629</v>
+        <v>45622</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -5018,7 +4981,7 @@
       <c r="Q68" s="2">
         <v>45635</v>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5032,12 +4995,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CBK GY</t>
+          <t>AOF GY</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Commerzbank Ag</t>
+          <t>Atoss Software Se</t>
         </is>
       </c>
       <c r="D69" s="2">
@@ -5050,34 +5013,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I69">
-        <v>-63.90711755389893</v>
+        <v>5.191946306820023</v>
       </c>
       <c r="J69">
-        <v>-3.98325086536609</v>
+        <v>0.04018736474218923</v>
       </c>
       <c r="K69">
-        <v>-0.3268193093795329</v>
+        <v>1.232964393623055</v>
       </c>
       <c r="L69">
-        <v>-63.90711755389893</v>
+        <v>5.191946306820023</v>
       </c>
       <c r="M69">
-        <v>-3.98325086536609</v>
+        <v>0.04018736474218923</v>
       </c>
       <c r="N69">
-        <v>-0.3268193093795329</v>
+        <v>1.232964393623055</v>
       </c>
       <c r="O69" s="2">
-        <v>45630</v>
+        <v>45623</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -5087,12 +5050,7 @@
       <c r="Q69" s="2">
         <v>45635</v>
       </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5106,12 +5064,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BPT LN</t>
+          <t>BLV FP</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bridgepoint Group</t>
+          <t>Believe Sa</t>
         </is>
       </c>
       <c r="D70" s="2">
@@ -5129,29 +5087,29 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I70">
-        <v>1.671111019447647</v>
+        <v>-2.28629558044203</v>
       </c>
       <c r="J70">
-        <v>0.3676361377599372</v>
+        <v>-0.15320318645835</v>
       </c>
       <c r="K70">
-        <v>0.5784189408232019</v>
+        <v>-54.61107756905555</v>
       </c>
       <c r="L70">
-        <v>1.671111019447647</v>
+        <v>-2.28629558044203</v>
       </c>
       <c r="M70">
-        <v>0.3676361377599372</v>
+        <v>-0.15320318645835</v>
       </c>
       <c r="N70">
-        <v>0.5784189408232019</v>
+        <v>-54.61107756905555</v>
       </c>
       <c r="O70" s="2">
-        <v>45631</v>
+        <v>45623</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -5161,7 +5119,7 @@
       <c r="Q70" s="2">
         <v>45635</v>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="W70" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5170,17 +5128,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FEMSAUBD MM</t>
+          <t>PEO PW</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fomento Economico Mexica-Ubd</t>
+          <t>Bank Pekao Sa</t>
         </is>
       </c>
       <c r="D71" s="2">
@@ -5193,34 +5151,34 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>S Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I71">
-        <v>-30.43746976200651</v>
+        <v>26.20172070828116</v>
       </c>
       <c r="J71">
-        <v>-3.30818150231603</v>
+        <v>0.7880835370319643</v>
       </c>
       <c r="K71">
-        <v>-1.033448242114776</v>
+        <v>0.7323903756931315</v>
       </c>
       <c r="L71">
-        <v>-30.43746976200651</v>
+        <v>26.20172070828116</v>
       </c>
       <c r="M71">
-        <v>-3.30818150231603</v>
+        <v>0.7880835370319643</v>
       </c>
       <c r="N71">
-        <v>-1.033448242114776</v>
+        <v>0.7323903756931315</v>
       </c>
       <c r="O71" s="2">
-        <v>45630</v>
+        <v>45624</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -5230,7 +5188,7 @@
       <c r="Q71" s="2">
         <v>45635</v>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5239,17 +5197,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FIBRAPL MM</t>
+          <t>WALLB SS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Prologis Property Mexico Sa</t>
+          <t>Wallenstam Ab-B Shs</t>
         </is>
       </c>
       <c r="D72" s="2">
@@ -5262,34 +5220,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I72">
-        <v>11.17942440957777</v>
+        <v>10.16297218930602</v>
       </c>
       <c r="J72">
-        <v>3.763279678447809</v>
+        <v>2.178449005506481</v>
       </c>
       <c r="K72">
-        <v>0.9107646850067301</v>
+        <v>2.269365222808734</v>
       </c>
       <c r="L72">
-        <v>11.17942440957777</v>
+        <v>10.16297218930602</v>
       </c>
       <c r="M72">
-        <v>3.763279678447809</v>
+        <v>2.178449005506481</v>
       </c>
       <c r="N72">
-        <v>0.9107646850067301</v>
+        <v>2.269365222808734</v>
       </c>
       <c r="O72" s="2">
-        <v>45630</v>
+        <v>45625</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -5299,7 +5257,7 @@
       <c r="Q72" s="2">
         <v>45635</v>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5308,17 +5266,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AMBP3 BZ</t>
+          <t>JDEP NA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ambipar Participacoes E Empr</t>
+          <t>Jde Peet'S Nv</t>
         </is>
       </c>
       <c r="D73" s="2">
@@ -5331,34 +5289,34 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>S Dec &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I73">
-        <v>-47.34665179336637</v>
+        <v>42.98552256319133</v>
       </c>
       <c r="J73">
-        <v>-1.883863510041737</v>
+        <v>2.17788371976048</v>
       </c>
       <c r="K73">
-        <v>-10.74252849794279</v>
+        <v>3.105666046584741</v>
       </c>
       <c r="L73">
-        <v>-47.34665179336637</v>
+        <v>42.98552256319133</v>
       </c>
       <c r="M73">
-        <v>-1.883863510041737</v>
+        <v>2.17788371976048</v>
       </c>
       <c r="N73">
-        <v>-10.74252849794279</v>
+        <v>3.105666046584741</v>
       </c>
       <c r="O73" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -5368,12 +5326,7 @@
       <c r="Q73" s="2">
         <v>45635</v>
       </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5387,12 +5340,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ARAMCO AB</t>
+          <t>NRP SJ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Saudi Arabian Oil Co</t>
+          <t>Nepi Rockcastle N.V.</t>
         </is>
       </c>
       <c r="D74" s="2">
@@ -5410,39 +5363,39 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I74">
-        <v>361.3818757216084</v>
+        <v>2.392633537963422</v>
       </c>
       <c r="J74">
-        <v>48.8008521160914</v>
+        <v>0.3142580525971531</v>
       </c>
       <c r="K74">
-        <v>3.324102669118699</v>
+        <v>0.2507198707835687</v>
       </c>
       <c r="L74">
-        <v>361.3818757216084</v>
+        <v>2.392633537963422</v>
       </c>
       <c r="M74">
-        <v>48.8008521160914</v>
+        <v>0.3142580525971531</v>
       </c>
       <c r="N74">
-        <v>3.324102669118699</v>
+        <v>0.2507198707835687</v>
       </c>
       <c r="O74" s="2">
-        <v>45611</v>
+        <v>45629</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Public shareholder disclosure</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q74" s="2">
-        <v>45636</v>
-      </c>
-      <c r="T74" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="R74" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5451,17 +5404,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>KMPUR TI</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Kimteks Poliuretan Sanayi Ve</t>
         </is>
       </c>
       <c r="D75" s="2">
@@ -5474,43 +5427,44 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I75">
+        <v>0.8936489172876266</v>
       </c>
       <c r="J75">
-        <v>-0.158686858219997</v>
+        <v>1.624202264794138</v>
+      </c>
+      <c r="K75">
+        <v>0.8119663459836358</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.8936489172876266</v>
       </c>
       <c r="M75">
-        <v>-0.158686858219997</v>
+        <v>1.624202264794138</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>0.8119663459836358</v>
       </c>
       <c r="O75" s="2">
-        <v>45609</v>
+        <v>45629</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Spin off by GS Retail</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q75" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="T75" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5519,17 +5473,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CCC LN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GS P&amp;L</t>
+          <t>Computacenter Plc</t>
         </is>
       </c>
       <c r="D76" s="2">
@@ -5542,40 +5496,44 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Dec</t>
+        </is>
+      </c>
+      <c r="I76">
+        <v>-4.347906132818925</v>
+      </c>
+      <c r="J76">
+        <v>-0.1522250841691571</v>
+      </c>
+      <c r="K76">
+        <v>-0.3485193212483387</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>-4.347906132818925</v>
       </c>
       <c r="M76">
-        <v>-0.158686858219997</v>
+        <v>-0.1522250841691571</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>-0.3485193212483387</v>
       </c>
       <c r="O76" s="2">
-        <v>45624</v>
+        <v>45629</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Spin off by GS Retail</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q76" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5584,17 +5542,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3003 JP</t>
+          <t>CBK GY</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hulic Co Ltd</t>
+          <t>Commerzbank Ag</t>
         </is>
       </c>
       <c r="D77" s="2">
@@ -5612,29 +5570,29 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Dec &amp; F Dec</t>
         </is>
       </c>
       <c r="I77">
-        <v>40.08500461597477</v>
+        <v>-63.90711755389893</v>
       </c>
       <c r="J77">
-        <v>4.431781704949927</v>
+        <v>-3.98325086536609</v>
       </c>
       <c r="K77">
-        <v>1.155723015706801</v>
+        <v>-0.3268193093795329</v>
       </c>
       <c r="L77">
-        <v>69.77760062780794</v>
+        <v>-63.90711755389893</v>
       </c>
       <c r="M77">
-        <v>7.714582967875799</v>
+        <v>-3.98325086536609</v>
       </c>
       <c r="N77">
-        <v>2.011814138452579</v>
+        <v>-0.3268193093795329</v>
       </c>
       <c r="O77" s="2">
-        <v>45637</v>
+        <v>45630</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -5642,9 +5600,14 @@
         </is>
       </c>
       <c r="Q77" s="2">
-        <v>45637</v>
-      </c>
-      <c r="T77" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5653,17 +5616,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3003 JP</t>
+          <t>BPT LN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hulic Co Ltd</t>
+          <t>Bridgepoint Group</t>
         </is>
       </c>
       <c r="D78" s="2">
@@ -5676,34 +5639,34 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I78">
-        <v>29.69259601183317</v>
+        <v>1.671111019447647</v>
       </c>
       <c r="J78">
-        <v>3.282801262925872</v>
+        <v>0.3676361377599372</v>
       </c>
       <c r="K78">
-        <v>0.8560911227457785</v>
+        <v>0.5784189408232019</v>
       </c>
       <c r="L78">
-        <v>69.77760062780794</v>
+        <v>1.671111019447647</v>
       </c>
       <c r="M78">
-        <v>7.714582967875799</v>
+        <v>0.3676361377599372</v>
       </c>
       <c r="N78">
-        <v>2.011814138452579</v>
+        <v>0.5784189408232019</v>
       </c>
       <c r="O78" s="2">
-        <v>45637</v>
+        <v>45631</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -5711,9 +5674,9 @@
         </is>
       </c>
       <c r="Q78" s="2">
-        <v>45637</v>
-      </c>
-      <c r="T78" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="R78" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5722,17 +5685,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CURN SE</t>
+          <t>FEMSAUBD MM</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Fomento Economico Mexica-Ubd</t>
         </is>
       </c>
       <c r="D79" s="2">
@@ -5745,44 +5708,44 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Dec</t>
         </is>
       </c>
       <c r="I79">
-        <v>0.03617654735321396</v>
+        <v>-30.43746976200651</v>
       </c>
       <c r="J79">
-        <v>0.002282341292</v>
+        <v>-3.30818150231603</v>
       </c>
       <c r="K79">
-        <v>0.3036522347431582</v>
+        <v>-1.033448242114776</v>
       </c>
       <c r="L79">
-        <v>0.09537453393120043</v>
+        <v>-30.43746976200651</v>
       </c>
       <c r="M79">
-        <v>0.006017081588</v>
+        <v>-3.30818150231603</v>
       </c>
       <c r="N79">
-        <v>0.8005377097774171</v>
+        <v>-1.033448242114776</v>
       </c>
       <c r="O79" s="2">
-        <v>45614</v>
+        <v>45630</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q79" s="2">
-        <v>45637</v>
-      </c>
-      <c r="T79" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="S79" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5791,17 +5754,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CURN SE</t>
+          <t>FIBRAPL MM</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Curatis Holding Ag</t>
+          <t>Prologis Property Mexico Sa</t>
         </is>
       </c>
       <c r="D80" s="2">
@@ -5814,44 +5777,44 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I80">
-        <v>0.05919798657798648</v>
+        <v>11.17942440957777</v>
       </c>
       <c r="J80">
-        <v>0.003734740296</v>
+        <v>3.763279678447809</v>
       </c>
       <c r="K80">
-        <v>0.4968854750342589</v>
+        <v>0.9107646850067301</v>
       </c>
       <c r="L80">
-        <v>0.09537453393120043</v>
+        <v>11.17942440957777</v>
       </c>
       <c r="M80">
-        <v>0.006017081588</v>
+        <v>3.763279678447809</v>
       </c>
       <c r="N80">
-        <v>0.8005377097774171</v>
+        <v>0.9107646850067301</v>
       </c>
       <c r="O80" s="2">
-        <v>45614</v>
+        <v>45630</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q80" s="2">
-        <v>45637</v>
-      </c>
-      <c r="T80" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="R80" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -5860,17 +5823,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TALABAT UH</t>
+          <t>AMBP3 BZ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Talabat Holding Plc</t>
+          <t>Ambipar Participacoes E Empr</t>
         </is>
       </c>
       <c r="D81" s="2">
@@ -5883,52 +5846,68 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>S Dec &amp; F Dec</t>
         </is>
       </c>
       <c r="I81">
-        <v>60.8947372777905</v>
+        <v>-47.34665179336637</v>
       </c>
       <c r="J81">
-        <v>150.1116746879995</v>
+        <v>-1.883863510041737</v>
+      </c>
+      <c r="K81">
+        <v>-10.74252849794279</v>
       </c>
       <c r="L81">
-        <v>60.8947372777905</v>
+        <v>-47.34665179336637</v>
       </c>
       <c r="M81">
-        <v>150.1116746879995</v>
+        <v>-1.883863510041737</v>
+      </c>
+      <c r="N81">
+        <v>-10.74252849794279</v>
       </c>
       <c r="O81" s="2">
-        <v>45636</v>
+        <v>45631</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Fast Entry</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q81" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V81" t="inlineStr">
+        <v>45635</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>METCB_x US</t>
+          <t>ARAMCO AB</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ramaco Class B Distro</t>
+          <t>Saudi Arabian Oil Co</t>
         </is>
       </c>
       <c r="D82" s="2">
@@ -5941,49 +5920,63 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I82">
+        <v>361.3818757216084</v>
+      </c>
+      <c r="J82">
+        <v>48.8008521160914</v>
+      </c>
+      <c r="K82">
+        <v>3.324102669118699</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>361.3818757216084</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>48.8008521160914</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>3.324102669118699</v>
       </c>
       <c r="O82" s="2">
-        <v>45632</v>
+        <v>45611</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Distribtion from METC</t>
+          <t>Public shareholder disclosure</t>
         </is>
       </c>
       <c r="Q82" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W82" t="inlineStr">
+        <v>45636</v>
+      </c>
+      <c r="T82" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>METCB US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ramaco Res-B</t>
+          <t>GS P&amp;L</t>
         </is>
       </c>
       <c r="D83" s="2">
@@ -5996,49 +5989,62 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="J83">
+        <v>-0.158686858219997</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>-0.158686858219997</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83" s="2">
-        <v>45632</v>
+        <v>45609</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Distribtion from METC</t>
+          <t>Spin off by GS Retail</t>
         </is>
       </c>
       <c r="Q83" s="2">
-        <v>45637</v>
-      </c>
-      <c r="R83" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>APO US</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Apollo Global Ma (FN)</t>
+          <t>GS P&amp;L</t>
         </is>
       </c>
       <c r="D84" s="2">
@@ -6051,7 +6057,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -6059,50 +6065,51 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="I84">
-        <v>10156.99695828353</v>
-      </c>
-      <c r="J84">
-        <v>57.10990699062993</v>
-      </c>
-      <c r="K84">
-        <v>15.48496425841005</v>
-      </c>
       <c r="L84">
-        <v>7772.057056563533</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>43.70006779062993</v>
+        <v>-0.158686858219997</v>
       </c>
       <c r="N84">
-        <v>11.84897723505357</v>
+        <v>0</v>
       </c>
       <c r="O84" s="2">
-        <v>45632</v>
+        <v>45624</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Replaces QRVO</t>
+          <t>Spin off by GS Retail</t>
         </is>
       </c>
       <c r="Q84" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WDAY US</t>
+          <t>3003 JP</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Workday Inc-A (IT)</t>
+          <t>Hulic Co Ltd</t>
         </is>
       </c>
       <c r="D85" s="2">
@@ -6115,58 +6122,63 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I85">
-        <v>7250.293118849239</v>
+        <v>40.08500461597477</v>
       </c>
       <c r="J85">
-        <v>27.21377193472427</v>
+        <v>4.431781704949927</v>
       </c>
       <c r="K85">
-        <v>9.357308678319537</v>
+        <v>1.155723015706801</v>
       </c>
       <c r="L85">
-        <v>5547.86931884924</v>
+        <v>69.77760062780794</v>
       </c>
       <c r="M85">
-        <v>20.82377193472427</v>
+        <v>7.714582967875799</v>
       </c>
       <c r="N85">
-        <v>7.160141648409699</v>
+        <v>2.011814138452579</v>
       </c>
       <c r="O85" s="2">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Replaces AMTM</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q85" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V85" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="T85" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AMTM US</t>
+          <t>3003 JP</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Amentum Holdings (ID)</t>
+          <t>Hulic Co Ltd</t>
         </is>
       </c>
       <c r="D86" s="2">
@@ -6179,58 +6191,63 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I86">
-        <v>-370.6000626479</v>
+        <v>29.69259601183317</v>
       </c>
       <c r="J86">
-        <v>-15.99482359291757</v>
+        <v>3.282801262925872</v>
       </c>
       <c r="K86">
-        <v>-9.019684836452655</v>
+        <v>0.8560911227457785</v>
       </c>
       <c r="L86">
-        <v>131.7072982927761</v>
+        <v>69.77760062780794</v>
       </c>
       <c r="M86">
-        <v>5.684389222821583</v>
+        <v>7.714582967875799</v>
       </c>
       <c r="N86">
-        <v>3.205499515498342</v>
+        <v>2.011814138452579</v>
       </c>
       <c r="O86" s="2">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q86" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W86" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="T86" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>QRVO US</t>
+          <t>CURN SE</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Qorvo Inc (IT)</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D87" s="2">
@@ -6243,58 +6260,63 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I87">
-        <v>-827.9977428440097</v>
+        <v>0.03617654735321396</v>
       </c>
       <c r="J87">
-        <v>-12.11763124314371</v>
+        <v>0.002282341292</v>
       </c>
       <c r="K87">
-        <v>-6.425037541069834</v>
+        <v>0.3036522347431582</v>
       </c>
       <c r="L87">
-        <v>121.7021600105927</v>
+        <v>0.09537453393120043</v>
       </c>
       <c r="M87">
-        <v>1.781094102306346</v>
+        <v>0.006017081588</v>
       </c>
       <c r="N87">
-        <v>0.9443756986722347</v>
+        <v>0.8005377097774171</v>
       </c>
       <c r="O87" s="2">
-        <v>45632</v>
+        <v>45614</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="Q87" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W87" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="T87" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CRS US</t>
+          <t>CURN SE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Carpenter Tech (MA)</t>
+          <t>Curatis Holding Ag</t>
         </is>
       </c>
       <c r="D88" s="2">
@@ -6307,58 +6329,63 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>SPI Extra</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I88">
-        <v>948.3174767376414</v>
+        <v>0.05919798657798648</v>
       </c>
       <c r="J88">
-        <v>4.900359015800131</v>
+        <v>0.003734740296</v>
       </c>
       <c r="K88">
-        <v>8.717223777955011</v>
+        <v>0.4968854750342589</v>
       </c>
       <c r="L88">
-        <v>-166.0801595577799</v>
+        <v>0.09537453393120043</v>
       </c>
       <c r="M88">
-        <v>-0.8582066946970848</v>
+        <v>0.006017081588</v>
       </c>
       <c r="N88">
-        <v>-1.526659532759169</v>
+        <v>0.8005377097774171</v>
       </c>
       <c r="O88" s="2">
-        <v>45632</v>
+        <v>45614</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 600</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="Q88" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V88" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="T88" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CMA US</t>
+          <t>TALABAT UH</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Comerica Inc (FN)</t>
+          <t>Talabat Holding Plc</t>
         </is>
       </c>
       <c r="D89" s="2">
@@ -6371,7 +6398,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6380,33 +6407,27 @@
         </is>
       </c>
       <c r="I89">
-        <v>897.0415946755191</v>
+        <v>60.8947372777905</v>
       </c>
       <c r="J89">
-        <v>12.92939744415565</v>
-      </c>
-      <c r="K89">
-        <v>8.19560872331402</v>
+        <v>150.1116746879995</v>
       </c>
       <c r="L89">
-        <v>-164.1943308229764</v>
+        <v>60.8947372777905</v>
       </c>
       <c r="M89">
-        <v>-2.366594563605888</v>
-      </c>
-      <c r="N89">
-        <v>-1.500122734551967</v>
+        <v>150.1116746879995</v>
       </c>
       <c r="O89" s="2">
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 600</t>
+          <t>Fast Entry</t>
         </is>
       </c>
       <c r="Q89" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -6415,14 +6436,19 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CRI US</t>
+          <t>CVC NA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Carter'S Inc (CD)</t>
+          <t>Cvc Capital Partners Plc</t>
         </is>
       </c>
       <c r="D90" s="2">
@@ -6435,44 +6461,44 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I90">
-        <v>-194.5552791678884</v>
+        <v>190.4135768667565</v>
       </c>
       <c r="J90">
-        <v>-3.547689262725901</v>
+        <v>8.336474328500062</v>
       </c>
       <c r="K90">
-        <v>-3.120092997755501</v>
+        <v>2.959345860080199</v>
       </c>
       <c r="L90">
-        <v>36.53962067290158</v>
+        <v>190.4135768667565</v>
       </c>
       <c r="M90">
-        <v>0.6662950523869728</v>
+        <v>8.336474328500062</v>
       </c>
       <c r="N90">
-        <v>0.5859877721631075</v>
+        <v>2.959345860080199</v>
       </c>
       <c r="O90" s="2">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Review Amendment</t>
         </is>
       </c>
       <c r="Q90" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W90" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V90" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6481,12 +6507,12 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>VSH US</t>
+          <t>METCB_x US</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Vishay Intertech (IT)</t>
+          <t>Ramaco Class B Distro</t>
         </is>
       </c>
       <c r="D91" s="2">
@@ -6499,7 +6525,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6507,34 +6533,25 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="I91">
-        <v>-202.5031653122132</v>
-      </c>
-      <c r="J91">
-        <v>-11.13878797096883</v>
-      </c>
-      <c r="K91">
-        <v>-4.559092294405674</v>
-      </c>
       <c r="L91">
-        <v>36.8664796302568</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>2.027859165580681</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>0.8300002765143466</v>
+        <v>0</v>
       </c>
       <c r="O91" s="2">
         <v>45632</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Distribtion from METC</t>
         </is>
       </c>
       <c r="Q91" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -6545,12 +6562,12 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>AMTM US</t>
+          <t>METCB US</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Amentum Holdings (ID)</t>
+          <t>Ramaco Res-B</t>
         </is>
       </c>
       <c r="D92" s="2">
@@ -6563,44 +6580,35 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I92">
-        <v>415.2718046406761</v>
-      </c>
-      <c r="J92">
-        <v>17.92282281573915</v>
-      </c>
-      <c r="K92">
-        <v>10.10690816553498</v>
+          <t>S Inc</t>
+        </is>
       </c>
       <c r="L92">
-        <v>131.7072982927761</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>5.684389222821583</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>3.205499515498342</v>
+        <v>0</v>
       </c>
       <c r="O92" s="2">
         <v>45632</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 500</t>
+          <t>Distribtion from METC</t>
         </is>
       </c>
       <c r="Q92" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V92" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="R92" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6609,12 +6617,12 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>CRI US</t>
+          <t>APO US</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Carter'S Inc (CD)</t>
+          <t>Apollo Global Ma (FN)</t>
         </is>
       </c>
       <c r="D93" s="2">
@@ -6627,7 +6635,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6636,33 +6644,33 @@
         </is>
       </c>
       <c r="I93">
-        <v>231.09489984079</v>
+        <v>10156.99695828353</v>
       </c>
       <c r="J93">
-        <v>4.213984315112874</v>
+        <v>57.10990699062993</v>
       </c>
       <c r="K93">
-        <v>3.706080769918608</v>
+        <v>15.48496425841005</v>
       </c>
       <c r="L93">
-        <v>36.53962067290158</v>
+        <v>7772.057056563533</v>
       </c>
       <c r="M93">
-        <v>0.6662950523869728</v>
+        <v>43.70006779062993</v>
       </c>
       <c r="N93">
-        <v>0.5859877721631075</v>
+        <v>11.84897723505357</v>
       </c>
       <c r="O93" s="2">
         <v>45632</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 400</t>
+          <t>Replaces QRVO</t>
         </is>
       </c>
       <c r="Q93" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -6673,12 +6681,12 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>SKY US</t>
+          <t>WDAY US</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Champion Homes I (CD)</t>
+          <t>Workday Inc-A (IT)</t>
         </is>
       </c>
       <c r="D94" s="2">
@@ -6691,7 +6699,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6700,33 +6708,33 @@
         </is>
       </c>
       <c r="I94">
-        <v>643.5668554983162</v>
+        <v>7250.293118849239</v>
       </c>
       <c r="J94">
-        <v>6.175080171735907</v>
+        <v>27.21377193472427</v>
       </c>
       <c r="K94">
-        <v>15.64666531176558</v>
+        <v>9.357308678319537</v>
       </c>
       <c r="L94">
-        <v>643.5668554983162</v>
+        <v>5547.86931884924</v>
       </c>
       <c r="M94">
-        <v>6.175080171735907</v>
+        <v>20.82377193472427</v>
       </c>
       <c r="N94">
-        <v>15.64666531176558</v>
+        <v>7.160141648409699</v>
       </c>
       <c r="O94" s="2">
         <v>45632</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Replaces RGNX</t>
+          <t>Replaces AMTM</t>
         </is>
       </c>
       <c r="Q94" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -6737,12 +6745,12 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>QRVO US</t>
+          <t>AMTM US</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Qorvo Inc (IT)</t>
+          <t>Amentum Holdings (ID)</t>
         </is>
       </c>
       <c r="D95" s="2">
@@ -6755,44 +6763,44 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I95">
-        <v>755.2443389546024</v>
+        <v>-370.6000626479</v>
       </c>
       <c r="J95">
-        <v>11.05289534545006</v>
+        <v>-15.99482359291757</v>
       </c>
       <c r="K95">
-        <v>5.860490891915354</v>
+        <v>-9.019684836452655</v>
       </c>
       <c r="L95">
-        <v>121.7021600105927</v>
+        <v>131.7072982927761</v>
       </c>
       <c r="M95">
-        <v>1.781094102306346</v>
+        <v>5.684389222821583</v>
       </c>
       <c r="N95">
-        <v>0.9443756986722347</v>
+        <v>3.205499515498342</v>
       </c>
       <c r="O95" s="2">
         <v>45632</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 500</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q95" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V95" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W95" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6801,12 +6809,12 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRNO US</t>
+          <t>QRVO US</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Terreno Realty C (RE)</t>
+          <t>Qorvo Inc (IT)</t>
         </is>
       </c>
       <c r="D96" s="2">
@@ -6819,44 +6827,44 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I96">
-        <v>692.3714930254733</v>
+        <v>-827.9977428440097</v>
       </c>
       <c r="J96">
-        <v>11.66197562785032</v>
+        <v>-12.11763124314371</v>
       </c>
       <c r="K96">
-        <v>17.04734789862394</v>
+        <v>-6.425037541069834</v>
       </c>
       <c r="L96">
-        <v>692.3714930254733</v>
+        <v>121.7021600105927</v>
       </c>
       <c r="M96">
-        <v>11.66197562785032</v>
+        <v>1.781094102306346</v>
       </c>
       <c r="N96">
-        <v>17.04734789862394</v>
+        <v>0.9443756986722347</v>
       </c>
       <c r="O96" s="2">
         <v>45632</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Replaces HPP</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q96" s="2">
-        <v>45637</v>
-      </c>
-      <c r="V96" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="W96" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6865,12 +6873,12 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>VSH US</t>
+          <t>CRS US</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Vishay Intertech (IT)</t>
+          <t>Carpenter Tech (MA)</t>
         </is>
       </c>
       <c r="D97" s="2">
@@ -6883,7 +6891,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6892,33 +6900,33 @@
         </is>
       </c>
       <c r="I97">
-        <v>239.36964494247</v>
+        <v>948.3174767376414</v>
       </c>
       <c r="J97">
-        <v>13.16664713654951</v>
+        <v>4.900359015800131</v>
       </c>
       <c r="K97">
-        <v>5.38909257092002</v>
+        <v>8.717223777955011</v>
       </c>
       <c r="L97">
-        <v>36.8664796302568</v>
+        <v>-166.0801595577799</v>
       </c>
       <c r="M97">
-        <v>2.027859165580681</v>
+        <v>-0.8582066946970848</v>
       </c>
       <c r="N97">
-        <v>0.8300002765143466</v>
+        <v>-1.526659532759169</v>
       </c>
       <c r="O97" s="2">
         <v>45632</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 400</t>
+          <t>Moved from S&amp;P 600</t>
         </is>
       </c>
       <c r="Q97" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V97" t="inlineStr">
         <is>
@@ -6929,12 +6937,12 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>CRS US</t>
+          <t>CMA US</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Carpenter Tech (MA)</t>
+          <t>Comerica Inc (FN)</t>
         </is>
       </c>
       <c r="D98" s="2">
@@ -6947,44 +6955,44 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I98">
-        <v>-1114.397636295421</v>
+        <v>897.0415946755191</v>
       </c>
       <c r="J98">
-        <v>-5.758565710497216</v>
+        <v>12.92939744415565</v>
       </c>
       <c r="K98">
-        <v>-10.24388331071418</v>
+        <v>8.19560872331402</v>
       </c>
       <c r="L98">
-        <v>-166.0801595577799</v>
+        <v>-164.1943308229764</v>
       </c>
       <c r="M98">
-        <v>-0.8582066946970848</v>
+        <v>-2.366594563605888</v>
       </c>
       <c r="N98">
-        <v>-1.526659532759169</v>
+        <v>-1.500122734551967</v>
       </c>
       <c r="O98" s="2">
         <v>45632</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 400</t>
+          <t>Moved from S&amp;P 600</t>
         </is>
       </c>
       <c r="Q98" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W98" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V98" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -6993,12 +7001,12 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>CMA US</t>
+          <t>CRI US</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Comerica Inc (FN)</t>
+          <t>Carter'S Inc (CD)</t>
         </is>
       </c>
       <c r="D99" s="2">
@@ -7011,7 +7019,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7020,33 +7028,33 @@
         </is>
       </c>
       <c r="I99">
-        <v>-1061.235925498496</v>
+        <v>-194.5552791678884</v>
       </c>
       <c r="J99">
-        <v>-15.29599200776154</v>
+        <v>-3.547689262725901</v>
       </c>
       <c r="K99">
-        <v>-9.695731457865987</v>
+        <v>-3.120092997755501</v>
       </c>
       <c r="L99">
-        <v>-164.1943308229764</v>
+        <v>36.53962067290158</v>
       </c>
       <c r="M99">
-        <v>-2.366594563605888</v>
+        <v>0.6662950523869728</v>
       </c>
       <c r="N99">
-        <v>-1.500122734551967</v>
+        <v>0.5859877721631075</v>
       </c>
       <c r="O99" s="2">
         <v>45632</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 400</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q99" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -7057,12 +7065,12 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>HPP US</t>
+          <t>VSH US</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Hudson Pacific P (RE)</t>
+          <t>Vishay Intertech (IT)</t>
         </is>
       </c>
       <c r="D100" s="2">
@@ -7075,7 +7083,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -7084,33 +7092,33 @@
         </is>
       </c>
       <c r="I100">
-        <v>-57.8903871159458</v>
+        <v>-202.5031653122132</v>
       </c>
       <c r="J100">
-        <v>-16.26134469549039</v>
+        <v>-11.13878797096883</v>
       </c>
       <c r="K100">
-        <v>-4.847298777124189</v>
+        <v>-4.559092294405674</v>
       </c>
       <c r="L100">
-        <v>-57.8903871159458</v>
+        <v>36.8664796302568</v>
       </c>
       <c r="M100">
-        <v>-16.26134469549039</v>
+        <v>2.027859165580681</v>
       </c>
       <c r="N100">
-        <v>-4.847298777124189</v>
+        <v>0.8300002765143466</v>
       </c>
       <c r="O100" s="2">
         <v>45632</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q100" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -7121,12 +7129,12 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>KELYA US</t>
+          <t>AMTM US</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Kelly Services-A (ID)</t>
+          <t>Amentum Holdings (ID)</t>
         </is>
       </c>
       <c r="D101" s="2">
@@ -7144,39 +7152,39 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I101">
-        <v>-53.31177684951699</v>
+        <v>415.2718046406761</v>
       </c>
       <c r="J101">
-        <v>-3.720291475890927</v>
+        <v>17.92282281573915</v>
       </c>
       <c r="K101">
-        <v>-9.255646460490929</v>
+        <v>10.10690816553498</v>
       </c>
       <c r="L101">
-        <v>-53.31177684951699</v>
+        <v>131.7072982927761</v>
       </c>
       <c r="M101">
-        <v>-3.720291475890927</v>
+        <v>5.684389222821583</v>
       </c>
       <c r="N101">
-        <v>-9.255646460490929</v>
+        <v>3.205499515498342</v>
       </c>
       <c r="O101" s="2">
         <v>45632</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Moved from S&amp;P 500</t>
         </is>
       </c>
       <c r="Q101" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W101" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V101" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -7185,12 +7193,12 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>RGNX US</t>
+          <t>CRI US</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Regenxbio Inc (HC)</t>
+          <t>Carter'S Inc (CD)</t>
         </is>
       </c>
       <c r="D102" s="2">
@@ -7208,39 +7216,39 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I102">
-        <v>-50.22123161418001</v>
+        <v>231.09489984079</v>
       </c>
       <c r="J102">
-        <v>-5.242299750958248</v>
+        <v>4.213984315112874</v>
       </c>
       <c r="K102">
-        <v>-4.93340565597227</v>
+        <v>3.706080769918608</v>
       </c>
       <c r="L102">
-        <v>-50.22123161418001</v>
+        <v>36.53962067290158</v>
       </c>
       <c r="M102">
-        <v>-5.242299750958248</v>
+        <v>0.6662950523869728</v>
       </c>
       <c r="N102">
-        <v>-4.93340565597227</v>
+        <v>0.5859877721631075</v>
       </c>
       <c r="O102" s="2">
         <v>45632</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Moved from S&amp;P 400</t>
         </is>
       </c>
       <c r="Q102" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W102" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V102" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -7249,12 +7257,12 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>SVC US</t>
+          <t>SKY US</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Service Properti (RE)</t>
+          <t>Champion Homes I (CD)</t>
         </is>
       </c>
       <c r="D103" s="2">
@@ -7272,39 +7280,39 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I103">
-        <v>-53.17007880099526</v>
+        <v>643.5668554983162</v>
       </c>
       <c r="J103">
-        <v>-19.12592762625729</v>
+        <v>6.175080171735907</v>
       </c>
       <c r="K103">
-        <v>-7.795962203852298</v>
+        <v>15.64666531176558</v>
       </c>
       <c r="L103">
-        <v>-53.17007880099526</v>
+        <v>643.5668554983162</v>
       </c>
       <c r="M103">
-        <v>-19.12592762625729</v>
+        <v>6.175080171735907</v>
       </c>
       <c r="N103">
-        <v>-7.795962203852298</v>
+        <v>15.64666531176558</v>
       </c>
       <c r="O103" s="2">
         <v>45632</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Replaces RGNX</t>
         </is>
       </c>
       <c r="Q103" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W103" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V103" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -7313,12 +7321,12 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>APO US</t>
+          <t>QRVO US</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Apollo Global Ma (FN)</t>
+          <t>Qorvo Inc (IT)</t>
         </is>
       </c>
       <c r="D104" s="2">
@@ -7331,44 +7339,44 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I104">
-        <v>-2384.93990172</v>
+        <v>755.2443389546024</v>
       </c>
       <c r="J104">
-        <v>-13.4098392</v>
+        <v>11.05289534545006</v>
       </c>
       <c r="K104">
-        <v>-3.635987023356481</v>
+        <v>5.860490891915354</v>
       </c>
       <c r="L104">
-        <v>7772.057056563533</v>
+        <v>121.7021600105927</v>
       </c>
       <c r="M104">
-        <v>43.70006779062993</v>
+        <v>1.781094102306346</v>
       </c>
       <c r="N104">
-        <v>11.84897723505357</v>
+        <v>0.9443756986722347</v>
       </c>
       <c r="O104" s="2">
         <v>45632</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Add to S&amp;P 500</t>
+          <t>Moved from S&amp;P 500</t>
         </is>
       </c>
       <c r="Q104" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W104" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V104" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -7377,12 +7385,12 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>WDAY US</t>
+          <t>TRNO US</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Workday Inc-A (IT)</t>
+          <t>Terreno Realty C (RE)</t>
         </is>
       </c>
       <c r="D105" s="2">
@@ -7395,44 +7403,44 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I105">
-        <v>-1702.4238</v>
+        <v>692.3714930254733</v>
       </c>
       <c r="J105">
-        <v>-6.39</v>
+        <v>11.66197562785032</v>
       </c>
       <c r="K105">
-        <v>-2.197167029909839</v>
+        <v>17.04734789862394</v>
       </c>
       <c r="L105">
-        <v>5547.86931884924</v>
+        <v>692.3714930254733</v>
       </c>
       <c r="M105">
-        <v>20.82377193472427</v>
+        <v>11.66197562785032</v>
       </c>
       <c r="N105">
-        <v>7.160141648409699</v>
+        <v>17.04734789862394</v>
       </c>
       <c r="O105" s="2">
         <v>45632</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Add to S&amp;P 500</t>
+          <t>Replaces HPP</t>
         </is>
       </c>
       <c r="Q105" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W105" t="inlineStr">
+        <v>45638</v>
+      </c>
+      <c r="V105" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -7441,12 +7449,12 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>AMTM US</t>
+          <t>VSH US</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Amentum Holdings (ID)</t>
+          <t>Vishay Intertech (IT)</t>
         </is>
       </c>
       <c r="D106" s="2">
@@ -7459,7 +7467,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7468,33 +7476,33 @@
         </is>
       </c>
       <c r="I106">
-        <v>87.0355563</v>
+        <v>239.36964494247</v>
       </c>
       <c r="J106">
-        <v>3.75639</v>
+        <v>13.16664713654951</v>
       </c>
       <c r="K106">
-        <v>2.118276186416018</v>
+        <v>5.38909257092002</v>
       </c>
       <c r="L106">
-        <v>131.7072982927761</v>
+        <v>36.8664796302568</v>
       </c>
       <c r="M106">
-        <v>5.684389222821583</v>
+        <v>2.027859165580681</v>
       </c>
       <c r="N106">
-        <v>3.205499515498342</v>
+        <v>0.8300002765143466</v>
       </c>
       <c r="O106" s="2">
         <v>45632</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Moved from S&amp;P 400</t>
         </is>
       </c>
       <c r="Q106" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="V106" t="inlineStr">
         <is>
@@ -7505,12 +7513,12 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>QRVO US</t>
+          <t>CRS US</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Qorvo Inc (IT)</t>
+          <t>Carpenter Tech (MA)</t>
         </is>
       </c>
       <c r="D107" s="2">
@@ -7523,260 +7531,908 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I107">
-        <v>194.4555639</v>
+        <v>-1114.397636295421</v>
       </c>
       <c r="J107">
-        <v>2.84583</v>
+        <v>-5.758565710497216</v>
       </c>
       <c r="K107">
-        <v>1.508922347826715</v>
+        <v>-10.24388331071418</v>
       </c>
       <c r="L107">
-        <v>121.7021600105927</v>
+        <v>-166.0801595577799</v>
       </c>
       <c r="M107">
-        <v>1.781094102306346</v>
+        <v>-0.8582066946970848</v>
       </c>
       <c r="N107">
-        <v>0.9443756986722347</v>
+        <v>-1.526659532759169</v>
       </c>
       <c r="O107" s="2">
         <v>45632</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
+          <t>Moved to S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q107" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CMA US</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Comerica Inc (FN)</t>
+        </is>
+      </c>
+      <c r="D108" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I108">
+        <v>-1061.235925498496</v>
+      </c>
+      <c r="J108">
+        <v>-15.29599200776154</v>
+      </c>
+      <c r="K108">
+        <v>-9.695731457865987</v>
+      </c>
+      <c r="L108">
+        <v>-164.1943308229764</v>
+      </c>
+      <c r="M108">
+        <v>-2.366594563605888</v>
+      </c>
+      <c r="N108">
+        <v>-1.500122734551967</v>
+      </c>
+      <c r="O108" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 400</t>
+        </is>
+      </c>
+      <c r="Q108" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>HPP US</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Hudson Pacific P (RE)</t>
+        </is>
+      </c>
+      <c r="D109" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I109">
+        <v>-57.8903871159458</v>
+      </c>
+      <c r="J109">
+        <v>-16.26134469549039</v>
+      </c>
+      <c r="K109">
+        <v>-4.847298777124189</v>
+      </c>
+      <c r="L109">
+        <v>-57.8903871159458</v>
+      </c>
+      <c r="M109">
+        <v>-16.26134469549039</v>
+      </c>
+      <c r="N109">
+        <v>-4.847298777124189</v>
+      </c>
+      <c r="O109" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q109" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>KELYA US</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Kelly Services-A (ID)</t>
+        </is>
+      </c>
+      <c r="D110" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I110">
+        <v>-53.31177684951699</v>
+      </c>
+      <c r="J110">
+        <v>-3.720291475890927</v>
+      </c>
+      <c r="K110">
+        <v>-9.255646460490929</v>
+      </c>
+      <c r="L110">
+        <v>-53.31177684951699</v>
+      </c>
+      <c r="M110">
+        <v>-3.720291475890927</v>
+      </c>
+      <c r="N110">
+        <v>-9.255646460490929</v>
+      </c>
+      <c r="O110" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q110" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>RGNX US</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Regenxbio Inc (HC)</t>
+        </is>
+      </c>
+      <c r="D111" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I111">
+        <v>-50.22123161418001</v>
+      </c>
+      <c r="J111">
+        <v>-5.242299750958248</v>
+      </c>
+      <c r="K111">
+        <v>-4.93340565597227</v>
+      </c>
+      <c r="L111">
+        <v>-50.22123161418001</v>
+      </c>
+      <c r="M111">
+        <v>-5.242299750958248</v>
+      </c>
+      <c r="N111">
+        <v>-4.93340565597227</v>
+      </c>
+      <c r="O111" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q111" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SVC US</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Service Properti (RE)</t>
+        </is>
+      </c>
+      <c r="D112" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I112">
+        <v>-53.17007880099526</v>
+      </c>
+      <c r="J112">
+        <v>-19.12592762625729</v>
+      </c>
+      <c r="K112">
+        <v>-7.795962203852298</v>
+      </c>
+      <c r="L112">
+        <v>-53.17007880099526</v>
+      </c>
+      <c r="M112">
+        <v>-19.12592762625729</v>
+      </c>
+      <c r="N112">
+        <v>-7.795962203852298</v>
+      </c>
+      <c r="O112" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Discretionary Removal</t>
+        </is>
+      </c>
+      <c r="Q112" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>APO US</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Apollo Global Ma (FN)</t>
+        </is>
+      </c>
+      <c r="D113" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I113">
+        <v>-2384.93990172</v>
+      </c>
+      <c r="J113">
+        <v>-13.4098392</v>
+      </c>
+      <c r="K113">
+        <v>-3.635987023356481</v>
+      </c>
+      <c r="L113">
+        <v>7772.057056563533</v>
+      </c>
+      <c r="M113">
+        <v>43.70006779062993</v>
+      </c>
+      <c r="N113">
+        <v>11.84897723505357</v>
+      </c>
+      <c r="O113" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Add to S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="Q113" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>WDAY US</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Workday Inc-A (IT)</t>
+        </is>
+      </c>
+      <c r="D114" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I114">
+        <v>-1702.4238</v>
+      </c>
+      <c r="J114">
+        <v>-6.39</v>
+      </c>
+      <c r="K114">
+        <v>-2.197167029909839</v>
+      </c>
+      <c r="L114">
+        <v>5547.86931884924</v>
+      </c>
+      <c r="M114">
+        <v>20.82377193472427</v>
+      </c>
+      <c r="N114">
+        <v>7.160141648409699</v>
+      </c>
+      <c r="O114" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Add to S&amp;P 500</t>
+        </is>
+      </c>
+      <c r="Q114" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>AMTM US</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Amentum Holdings (ID)</t>
+        </is>
+      </c>
+      <c r="D115" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I115">
+        <v>87.0355563</v>
+      </c>
+      <c r="J115">
+        <v>3.75639</v>
+      </c>
+      <c r="K115">
+        <v>2.118276186416018</v>
+      </c>
+      <c r="L115">
+        <v>131.7072982927761</v>
+      </c>
+      <c r="M115">
+        <v>5.684389222821583</v>
+      </c>
+      <c r="N115">
+        <v>3.205499515498342</v>
+      </c>
+      <c r="O115" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
           <t>Moved to S&amp;P 600</t>
         </is>
       </c>
-      <c r="Q107" s="2">
+      <c r="Q115" s="2">
+        <v>45638</v>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>QRVO US</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Qorvo Inc (IT)</t>
+        </is>
+      </c>
+      <c r="D116" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I116">
+        <v>194.4555639</v>
+      </c>
+      <c r="J116">
+        <v>2.84583</v>
+      </c>
+      <c r="K116">
+        <v>1.508922347826715</v>
+      </c>
+      <c r="L116">
+        <v>121.7021600105927</v>
+      </c>
+      <c r="M116">
+        <v>1.781094102306346</v>
+      </c>
+      <c r="N116">
+        <v>0.9443756986722347</v>
+      </c>
+      <c r="O116" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q116" s="2">
+        <v>45638</v>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Savola (Detached)</t>
+        </is>
+      </c>
+      <c r="D117" s="2">
+        <v>45649</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q117" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ALMARAI AB</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Almarai Co</t>
+        </is>
+      </c>
+      <c r="D118" s="2">
+        <v>45649</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I118">
+        <v>84.8615650386063</v>
+      </c>
+      <c r="J118">
+        <v>5.702878202760012</v>
+      </c>
+      <c r="K118">
+        <v>8.947711024904306</v>
+      </c>
+      <c r="L118">
+        <v>84.8615650386063</v>
+      </c>
+      <c r="M118">
+        <v>5.702878202760012</v>
+      </c>
+      <c r="N118">
+        <v>8.947711024904306</v>
+      </c>
+      <c r="O118" s="2">
+        <v>45623</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q118" s="2">
+        <v>45638</v>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>018880 KS</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Hanon Systems</t>
+        </is>
+      </c>
+      <c r="D119" s="2">
+        <v>45653</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H119">
+        <v>2.048582091539132e-05</v>
+      </c>
+      <c r="I119">
+        <v>0.5376098474253072</v>
+      </c>
+      <c r="J119">
+        <v>0.1911303059057406</v>
+      </c>
+      <c r="K119">
+        <v>0.1522248348417269</v>
+      </c>
+      <c r="L119">
+        <v>0.5376098474253072</v>
+      </c>
+      <c r="M119">
+        <v>0.1911303059057406</v>
+      </c>
+      <c r="N119">
+        <v>0.1522248348417269</v>
+      </c>
+      <c r="O119" s="2">
+        <v>45636</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q119" s="2">
+        <v>45638</v>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>BORR NO</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Borr Drilling</t>
+        </is>
+      </c>
+      <c r="D120" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H120">
+        <v>-0.0001021870253659572</v>
+      </c>
+      <c r="I120">
+        <v>-17.18164076952931</v>
+      </c>
+      <c r="J120">
+        <v>-4.489366647000002</v>
+      </c>
+      <c r="K120">
+        <v>-5.25771244477013</v>
+      </c>
+      <c r="L120">
+        <v>-17.18164076952931</v>
+      </c>
+      <c r="M120">
+        <v>-4.489366647000002</v>
+      </c>
+      <c r="N120">
+        <v>-5.25771244477013</v>
+      </c>
+      <c r="O120" s="2">
         <v>45637</v>
       </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Savola (Detached)</t>
-        </is>
-      </c>
-      <c r="D108" s="2">
-        <v>45649</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>MSCI EM</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>0</v>
-      </c>
-      <c r="O108" s="2">
-        <v>45623</v>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
-      <c r="Q108" s="2">
-        <v>45637</v>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ALMARAI AB</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Almarai Co</t>
-        </is>
-      </c>
-      <c r="D109" s="2">
-        <v>45649</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>MSCI EM</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I109">
-        <v>84.8615650386063</v>
-      </c>
-      <c r="J109">
-        <v>5.702878202760012</v>
-      </c>
-      <c r="K109">
-        <v>8.947711024904306</v>
-      </c>
-      <c r="L109">
-        <v>84.8615650386063</v>
-      </c>
-      <c r="M109">
-        <v>5.702878202760012</v>
-      </c>
-      <c r="N109">
-        <v>8.947711024904306</v>
-      </c>
-      <c r="O109" s="2">
-        <v>45623</v>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>Spin-Off</t>
-        </is>
-      </c>
-      <c r="Q109" s="2">
-        <v>45637</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>018880 KS</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Hanon Systems</t>
-        </is>
-      </c>
-      <c r="D110" s="2">
-        <v>45653</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H110">
-        <v>2.048582091539132e-05</v>
-      </c>
-      <c r="I110">
-        <v>0.5376098474253072</v>
-      </c>
-      <c r="J110">
-        <v>0.1911303059057406</v>
-      </c>
-      <c r="K110">
-        <v>0.1522248348417269</v>
-      </c>
-      <c r="L110">
-        <v>0.5376098474253072</v>
-      </c>
-      <c r="M110">
-        <v>0.1911303059057406</v>
-      </c>
-      <c r="N110">
-        <v>0.1522248348417269</v>
-      </c>
-      <c r="O110" s="2">
-        <v>45636</v>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
-      <c r="Q110" s="2">
-        <v>45637</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U110" t="inlineStr">
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q120" s="2">
+        <v>45638</v>
+      </c>
+      <c r="W120" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z142"/>
+  <dimension ref="A1:Z149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         </is>
       </c>
       <c r="Q101" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="Q102" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="V102" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="Q103" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="Q104" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="Q105" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -7689,12 +7689,12 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>METCB_x US</t>
+          <t>LII US</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ramaco Class B Distro</t>
+          <t>Lennox Intl Inc (ID)</t>
         </is>
       </c>
       <c r="D106" s="2">
@@ -7707,35 +7707,44 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I106">
+        <v>2538.936050375293</v>
+      </c>
+      <c r="J106">
+        <v>3.977528591263461</v>
+      </c>
+      <c r="K106">
+        <v>15.17098040688529</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>-65.92888699371565</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>-0.1032850090765064</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>-0.393946847413337</v>
       </c>
       <c r="O106" s="2">
-        <v>45632</v>
+        <v>45644</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Distribtion from METC</t>
+          <t>Moved from S&amp;P 400</t>
         </is>
       </c>
       <c r="Q106" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W106" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="V106" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -7744,12 +7753,12 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>METCB US</t>
+          <t>CTLT US</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ramaco Res-B</t>
+          <t>Catalent Inc (HC)</t>
         </is>
       </c>
       <c r="D107" s="2">
@@ -7762,13 +7771,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -7780,17 +7798,17 @@
         <v>0</v>
       </c>
       <c r="O107" s="2">
-        <v>45632</v>
+        <v>45644</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Distribtion from METC</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="Q107" s="2">
-        <v>45644</v>
-      </c>
-      <c r="R107" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W107" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -7799,12 +7817,12 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>APO US</t>
+          <t>BILL US</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Apollo Global Ma (FN)</t>
+          <t>Bill Holdings In (IT)</t>
         </is>
       </c>
       <c r="D108" s="2">
@@ -7817,7 +7835,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7826,33 +7844,33 @@
         </is>
       </c>
       <c r="I108">
-        <v>10156.99695828353</v>
+        <v>759.4869884379349</v>
       </c>
       <c r="J108">
-        <v>57.10990699062993</v>
+        <v>9.075002849061237</v>
       </c>
       <c r="K108">
-        <v>15.48496425841005</v>
+        <v>4.133476801323639</v>
       </c>
       <c r="L108">
-        <v>7772.057056563533</v>
+        <v>759.4869884379349</v>
       </c>
       <c r="M108">
-        <v>43.70006779062993</v>
+        <v>9.075002849061237</v>
       </c>
       <c r="N108">
-        <v>11.84897723505357</v>
+        <v>4.133476801323639</v>
       </c>
       <c r="O108" s="2">
-        <v>45632</v>
+        <v>45644</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Replaces QRVO</t>
+          <t>Replacing LII</t>
         </is>
       </c>
       <c r="Q108" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="V108" t="inlineStr">
         <is>
@@ -7863,12 +7881,12 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>WDAY US</t>
+          <t>LII US</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Workday Inc-A (IT)</t>
+          <t>Lennox Intl Inc (ID)</t>
         </is>
       </c>
       <c r="D109" s="2">
@@ -7881,44 +7899,44 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I109">
-        <v>7250.293118849239</v>
+        <v>-1990.725775609008</v>
       </c>
       <c r="J109">
-        <v>27.21377193472427</v>
+        <v>-3.118695600339968</v>
       </c>
       <c r="K109">
-        <v>9.357308678319537</v>
+        <v>-11.89524317982786</v>
       </c>
       <c r="L109">
-        <v>5547.86931884924</v>
+        <v>-65.92888699371565</v>
       </c>
       <c r="M109">
-        <v>20.82377193472427</v>
+        <v>-0.1032850090765064</v>
       </c>
       <c r="N109">
-        <v>7.160141648409699</v>
+        <v>-0.393946847413337</v>
       </c>
       <c r="O109" s="2">
-        <v>45632</v>
+        <v>45644</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Replaces AMTM</t>
+          <t>Moving to S&amp;P 500</t>
         </is>
       </c>
       <c r="Q109" s="2">
-        <v>45644</v>
-      </c>
-      <c r="V109" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W109" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -7927,12 +7945,12 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>AMTM US</t>
+          <t>LII US</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Amentum Holdings (ID)</t>
+          <t>Lennox Intl Inc (ID)</t>
         </is>
       </c>
       <c r="D110" s="2">
@@ -7945,7 +7963,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>S&amp;P Completion</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7954,33 +7972,33 @@
         </is>
       </c>
       <c r="I110">
-        <v>-370.6000626479</v>
+        <v>-614.13916176</v>
       </c>
       <c r="J110">
-        <v>-15.99482359291757</v>
+        <v>-0.9621179999999999</v>
       </c>
       <c r="K110">
-        <v>-9.019684836452655</v>
+        <v>-3.669684074470765</v>
       </c>
       <c r="L110">
-        <v>131.7072982927761</v>
+        <v>-65.92888699371565</v>
       </c>
       <c r="M110">
-        <v>5.684389222821583</v>
+        <v>-0.1032850090765064</v>
       </c>
       <c r="N110">
-        <v>3.205499515498342</v>
+        <v>-0.393946847413337</v>
       </c>
       <c r="O110" s="2">
-        <v>45632</v>
+        <v>45644</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Moving to S&amp;P 500</t>
         </is>
       </c>
       <c r="Q110" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W110" t="inlineStr">
         <is>
@@ -7991,12 +8009,12 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>QRVO US</t>
+          <t>METCB_x US</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Qorvo Inc (IT)</t>
+          <t>Ramaco Class B Distro</t>
         </is>
       </c>
       <c r="D111" s="2">
@@ -8009,7 +8027,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -8017,34 +8035,25 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="I111">
-        <v>-827.9977428440097</v>
-      </c>
-      <c r="J111">
-        <v>-12.11763124314371</v>
-      </c>
-      <c r="K111">
-        <v>-6.425037541069834</v>
-      </c>
       <c r="L111">
-        <v>121.7021600105927</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>1.781094102306346</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>0.9443756986722347</v>
+        <v>0</v>
       </c>
       <c r="O111" s="2">
         <v>45632</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Distribtion from METC</t>
         </is>
       </c>
       <c r="Q111" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W111" t="inlineStr">
         <is>
@@ -8055,12 +8064,12 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>CRS US</t>
+          <t>METCB US</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Carpenter Tech (MA)</t>
+          <t>Ramaco Res-B</t>
         </is>
       </c>
       <c r="D112" s="2">
@@ -8073,44 +8082,35 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I112">
-        <v>948.3174767376414</v>
-      </c>
-      <c r="J112">
-        <v>4.900359015800131</v>
-      </c>
-      <c r="K112">
-        <v>8.717223777955011</v>
+          <t>S Inc</t>
+        </is>
       </c>
       <c r="L112">
-        <v>-166.0801595577799</v>
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>-0.8582066946970848</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>-1.526659532759169</v>
+        <v>0</v>
       </c>
       <c r="O112" s="2">
         <v>45632</v>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 600</t>
+          <t>Distribtion from METC</t>
         </is>
       </c>
       <c r="Q112" s="2">
-        <v>45644</v>
-      </c>
-      <c r="V112" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="R112" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8119,12 +8119,12 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>CMA US</t>
+          <t>APO US</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Comerica Inc (FN)</t>
+          <t>Apollo Global Ma (FN)</t>
         </is>
       </c>
       <c r="D113" s="2">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -8146,33 +8146,33 @@
         </is>
       </c>
       <c r="I113">
-        <v>897.0415946755191</v>
+        <v>10156.99695828353</v>
       </c>
       <c r="J113">
-        <v>12.92939744415565</v>
+        <v>57.10990699062993</v>
       </c>
       <c r="K113">
-        <v>8.19560872331402</v>
+        <v>15.48496425841005</v>
       </c>
       <c r="L113">
-        <v>-164.1943308229764</v>
+        <v>7772.057056563533</v>
       </c>
       <c r="M113">
-        <v>-2.366594563605888</v>
+        <v>43.70006779062993</v>
       </c>
       <c r="N113">
-        <v>-1.500122734551967</v>
+        <v>11.84897723505357</v>
       </c>
       <c r="O113" s="2">
         <v>45632</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 600</t>
+          <t>Replaces QRVO</t>
         </is>
       </c>
       <c r="Q113" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="V113" t="inlineStr">
         <is>
@@ -8183,12 +8183,12 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>CRI US</t>
+          <t>WDAY US</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Carter'S Inc (CD)</t>
+          <t>Workday Inc-A (IT)</t>
         </is>
       </c>
       <c r="D114" s="2">
@@ -8201,44 +8201,44 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I114">
-        <v>-194.5552791678884</v>
+        <v>7250.293118849239</v>
       </c>
       <c r="J114">
-        <v>-3.547689262725901</v>
+        <v>27.21377193472427</v>
       </c>
       <c r="K114">
-        <v>-3.120092997755501</v>
+        <v>9.357308678319537</v>
       </c>
       <c r="L114">
-        <v>36.53962067290158</v>
+        <v>5547.86931884924</v>
       </c>
       <c r="M114">
-        <v>0.6662950523869728</v>
+        <v>20.82377193472427</v>
       </c>
       <c r="N114">
-        <v>0.5859877721631075</v>
+        <v>7.160141648409699</v>
       </c>
       <c r="O114" s="2">
         <v>45632</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Replaces AMTM</t>
         </is>
       </c>
       <c r="Q114" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W114" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="V114" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8247,12 +8247,12 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>VSH US</t>
+          <t>AMTM US</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vishay Intertech (IT)</t>
+          <t>Amentum Holdings (ID)</t>
         </is>
       </c>
       <c r="D115" s="2">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -8274,22 +8274,22 @@
         </is>
       </c>
       <c r="I115">
-        <v>-202.5031653122132</v>
+        <v>-370.6000626479</v>
       </c>
       <c r="J115">
-        <v>-11.13878797096883</v>
+        <v>-15.99482359291757</v>
       </c>
       <c r="K115">
-        <v>-4.559092294405674</v>
+        <v>-9.019684836452655</v>
       </c>
       <c r="L115">
-        <v>36.8664796302568</v>
+        <v>131.7072982927761</v>
       </c>
       <c r="M115">
-        <v>2.027859165580681</v>
+        <v>5.684389222821583</v>
       </c>
       <c r="N115">
-        <v>0.8300002765143466</v>
+        <v>3.205499515498342</v>
       </c>
       <c r="O115" s="2">
         <v>45632</v>
@@ -8300,7 +8300,7 @@
         </is>
       </c>
       <c r="Q115" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W115" t="inlineStr">
         <is>
@@ -8311,12 +8311,12 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>AMTM US</t>
+          <t>QRVO US</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Amentum Holdings (ID)</t>
+          <t>Qorvo Inc (IT)</t>
         </is>
       </c>
       <c r="D116" s="2">
@@ -8329,44 +8329,44 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I116">
-        <v>415.2718046406761</v>
+        <v>-827.9977428440097</v>
       </c>
       <c r="J116">
-        <v>17.92282281573915</v>
+        <v>-12.11763124314371</v>
       </c>
       <c r="K116">
-        <v>10.10690816553498</v>
+        <v>-6.425037541069834</v>
       </c>
       <c r="L116">
-        <v>131.7072982927761</v>
+        <v>121.7021600105927</v>
       </c>
       <c r="M116">
-        <v>5.684389222821583</v>
+        <v>1.781094102306346</v>
       </c>
       <c r="N116">
-        <v>3.205499515498342</v>
+        <v>0.9443756986722347</v>
       </c>
       <c r="O116" s="2">
         <v>45632</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 500</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q116" s="2">
-        <v>45644</v>
-      </c>
-      <c r="V116" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W116" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8375,12 +8375,12 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>CRI US</t>
+          <t>CRS US</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Carter'S Inc (CD)</t>
+          <t>Carpenter Tech (MA)</t>
         </is>
       </c>
       <c r="D117" s="2">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -8402,33 +8402,33 @@
         </is>
       </c>
       <c r="I117">
-        <v>231.09489984079</v>
+        <v>948.3174767376414</v>
       </c>
       <c r="J117">
-        <v>4.213984315112874</v>
+        <v>4.900359015800131</v>
       </c>
       <c r="K117">
-        <v>3.706080769918608</v>
+        <v>8.717223777955011</v>
       </c>
       <c r="L117">
-        <v>36.53962067290158</v>
+        <v>-166.0801595577799</v>
       </c>
       <c r="M117">
-        <v>0.6662950523869728</v>
+        <v>-0.8582066946970848</v>
       </c>
       <c r="N117">
-        <v>0.5859877721631075</v>
+        <v>-1.526659532759169</v>
       </c>
       <c r="O117" s="2">
         <v>45632</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 400</t>
+          <t>Moved from S&amp;P 600</t>
         </is>
       </c>
       <c r="Q117" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="V117" t="inlineStr">
         <is>
@@ -8439,12 +8439,12 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>SKY US</t>
+          <t>CMA US</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Champion Homes I (CD)</t>
+          <t>Comerica Inc (FN)</t>
         </is>
       </c>
       <c r="D118" s="2">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -8466,33 +8466,33 @@
         </is>
       </c>
       <c r="I118">
-        <v>643.5668554983162</v>
+        <v>897.0415946755191</v>
       </c>
       <c r="J118">
-        <v>6.175080171735907</v>
+        <v>12.92939744415565</v>
       </c>
       <c r="K118">
-        <v>15.64666531176558</v>
+        <v>8.19560872331402</v>
       </c>
       <c r="L118">
-        <v>643.5668554983162</v>
+        <v>-164.1943308229764</v>
       </c>
       <c r="M118">
-        <v>6.175080171735907</v>
+        <v>-2.366594563605888</v>
       </c>
       <c r="N118">
-        <v>15.64666531176558</v>
+        <v>-1.500122734551967</v>
       </c>
       <c r="O118" s="2">
         <v>45632</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Replaces RGNX</t>
+          <t>Moved from S&amp;P 600</t>
         </is>
       </c>
       <c r="Q118" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="V118" t="inlineStr">
         <is>
@@ -8503,12 +8503,12 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>QRVO US</t>
+          <t>CRI US</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Qorvo Inc (IT)</t>
+          <t>Carter'S Inc (CD)</t>
         </is>
       </c>
       <c r="D119" s="2">
@@ -8521,44 +8521,44 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I119">
-        <v>755.2443389546024</v>
+        <v>-194.5552791678884</v>
       </c>
       <c r="J119">
-        <v>11.05289534545006</v>
+        <v>-3.547689262725901</v>
       </c>
       <c r="K119">
-        <v>5.860490891915354</v>
+        <v>-3.120092997755501</v>
       </c>
       <c r="L119">
-        <v>121.7021600105927</v>
+        <v>36.53962067290158</v>
       </c>
       <c r="M119">
-        <v>1.781094102306346</v>
+        <v>0.6662950523869728</v>
       </c>
       <c r="N119">
-        <v>0.9443756986722347</v>
+        <v>0.5859877721631075</v>
       </c>
       <c r="O119" s="2">
         <v>45632</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 500</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q119" s="2">
-        <v>45644</v>
-      </c>
-      <c r="V119" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W119" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8567,12 +8567,12 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRNO US</t>
+          <t>VSH US</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Terreno Realty C (RE)</t>
+          <t>Vishay Intertech (IT)</t>
         </is>
       </c>
       <c r="D120" s="2">
@@ -8585,44 +8585,44 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I120">
-        <v>692.3714930254733</v>
+        <v>-202.5031653122132</v>
       </c>
       <c r="J120">
-        <v>11.66197562785032</v>
+        <v>-11.13878797096883</v>
       </c>
       <c r="K120">
-        <v>17.04734789862394</v>
+        <v>-4.559092294405674</v>
       </c>
       <c r="L120">
-        <v>692.3714930254733</v>
+        <v>36.8664796302568</v>
       </c>
       <c r="M120">
-        <v>11.66197562785032</v>
+        <v>2.027859165580681</v>
       </c>
       <c r="N120">
-        <v>17.04734789862394</v>
+        <v>0.8300002765143466</v>
       </c>
       <c r="O120" s="2">
         <v>45632</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>Replaces HPP</t>
+          <t>Moved to S&amp;P 600</t>
         </is>
       </c>
       <c r="Q120" s="2">
-        <v>45644</v>
-      </c>
-      <c r="V120" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W120" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8631,12 +8631,12 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>VSH US</t>
+          <t>AMTM US</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vishay Intertech (IT)</t>
+          <t>Amentum Holdings (ID)</t>
         </is>
       </c>
       <c r="D121" s="2">
@@ -8658,33 +8658,33 @@
         </is>
       </c>
       <c r="I121">
-        <v>239.36964494247</v>
+        <v>415.2718046406761</v>
       </c>
       <c r="J121">
-        <v>13.16664713654951</v>
+        <v>17.92282281573915</v>
       </c>
       <c r="K121">
-        <v>5.38909257092002</v>
+        <v>10.10690816553498</v>
       </c>
       <c r="L121">
-        <v>36.8664796302568</v>
+        <v>131.7072982927761</v>
       </c>
       <c r="M121">
-        <v>2.027859165580681</v>
+        <v>5.684389222821583</v>
       </c>
       <c r="N121">
-        <v>0.8300002765143466</v>
+        <v>3.205499515498342</v>
       </c>
       <c r="O121" s="2">
         <v>45632</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Moved from S&amp;P 400</t>
+          <t>Moved from S&amp;P 500</t>
         </is>
       </c>
       <c r="Q121" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="V121" t="inlineStr">
         <is>
@@ -8695,12 +8695,12 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>CRS US</t>
+          <t>CRI US</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Carpenter Tech (MA)</t>
+          <t>Carter'S Inc (CD)</t>
         </is>
       </c>
       <c r="D122" s="2">
@@ -8718,39 +8718,39 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I122">
-        <v>-1114.397636295421</v>
+        <v>231.09489984079</v>
       </c>
       <c r="J122">
-        <v>-5.758565710497216</v>
+        <v>4.213984315112874</v>
       </c>
       <c r="K122">
-        <v>-10.24388331071418</v>
+        <v>3.706080769918608</v>
       </c>
       <c r="L122">
-        <v>-166.0801595577799</v>
+        <v>36.53962067290158</v>
       </c>
       <c r="M122">
-        <v>-0.8582066946970848</v>
+        <v>0.6662950523869728</v>
       </c>
       <c r="N122">
-        <v>-1.526659532759169</v>
+        <v>0.5859877721631075</v>
       </c>
       <c r="O122" s="2">
         <v>45632</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 400</t>
+          <t>Moved from S&amp;P 400</t>
         </is>
       </c>
       <c r="Q122" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W122" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="V122" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8759,12 +8759,12 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>CMA US</t>
+          <t>SKY US</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Comerica Inc (FN)</t>
+          <t>Champion Homes I (CD)</t>
         </is>
       </c>
       <c r="D123" s="2">
@@ -8782,39 +8782,39 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I123">
-        <v>-1061.235925498496</v>
+        <v>643.5668554983162</v>
       </c>
       <c r="J123">
-        <v>-15.29599200776154</v>
+        <v>6.175080171735907</v>
       </c>
       <c r="K123">
-        <v>-9.695731457865987</v>
+        <v>15.64666531176558</v>
       </c>
       <c r="L123">
-        <v>-164.1943308229764</v>
+        <v>643.5668554983162</v>
       </c>
       <c r="M123">
-        <v>-2.366594563605888</v>
+        <v>6.175080171735907</v>
       </c>
       <c r="N123">
-        <v>-1.500122734551967</v>
+        <v>15.64666531176558</v>
       </c>
       <c r="O123" s="2">
         <v>45632</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 400</t>
+          <t>Replaces RGNX</t>
         </is>
       </c>
       <c r="Q123" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W123" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="V123" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8823,12 +8823,12 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>HPP US</t>
+          <t>QRVO US</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Hudson Pacific P (RE)</t>
+          <t>Qorvo Inc (IT)</t>
         </is>
       </c>
       <c r="D124" s="2">
@@ -8846,39 +8846,39 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I124">
-        <v>-57.8903871159458</v>
+        <v>755.2443389546024</v>
       </c>
       <c r="J124">
-        <v>-16.26134469549039</v>
+        <v>11.05289534545006</v>
       </c>
       <c r="K124">
-        <v>-4.847298777124189</v>
+        <v>5.860490891915354</v>
       </c>
       <c r="L124">
-        <v>-57.8903871159458</v>
+        <v>121.7021600105927</v>
       </c>
       <c r="M124">
-        <v>-16.26134469549039</v>
+        <v>1.781094102306346</v>
       </c>
       <c r="N124">
-        <v>-4.847298777124189</v>
+        <v>0.9443756986722347</v>
       </c>
       <c r="O124" s="2">
         <v>45632</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Moved from S&amp;P 500</t>
         </is>
       </c>
       <c r="Q124" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W124" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="V124" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8887,12 +8887,12 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>KELYA US</t>
+          <t>TRNO US</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Kelly Services-A (ID)</t>
+          <t>Terreno Realty C (RE)</t>
         </is>
       </c>
       <c r="D125" s="2">
@@ -8910,39 +8910,39 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I125">
-        <v>-53.31177684951699</v>
+        <v>692.3714930254733</v>
       </c>
       <c r="J125">
-        <v>-3.720291475890927</v>
+        <v>11.66197562785032</v>
       </c>
       <c r="K125">
-        <v>-9.255646460490929</v>
+        <v>17.04734789862394</v>
       </c>
       <c r="L125">
-        <v>-53.31177684951699</v>
+        <v>692.3714930254733</v>
       </c>
       <c r="M125">
-        <v>-3.720291475890927</v>
+        <v>11.66197562785032</v>
       </c>
       <c r="N125">
-        <v>-9.255646460490929</v>
+        <v>17.04734789862394</v>
       </c>
       <c r="O125" s="2">
         <v>45632</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Replaces HPP</t>
         </is>
       </c>
       <c r="Q125" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W125" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="V125" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -8951,12 +8951,12 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>RGNX US</t>
+          <t>VSH US</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Regenxbio Inc (HC)</t>
+          <t>Vishay Intertech (IT)</t>
         </is>
       </c>
       <c r="D126" s="2">
@@ -8974,39 +8974,39 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I126">
-        <v>-50.22123161418001</v>
+        <v>239.36964494247</v>
       </c>
       <c r="J126">
-        <v>-5.242299750958248</v>
+        <v>13.16664713654951</v>
       </c>
       <c r="K126">
-        <v>-4.93340565597227</v>
+        <v>5.38909257092002</v>
       </c>
       <c r="L126">
-        <v>-50.22123161418001</v>
+        <v>36.8664796302568</v>
       </c>
       <c r="M126">
-        <v>-5.242299750958248</v>
+        <v>2.027859165580681</v>
       </c>
       <c r="N126">
-        <v>-4.93340565597227</v>
+        <v>0.8300002765143466</v>
       </c>
       <c r="O126" s="2">
         <v>45632</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Moved from S&amp;P 400</t>
         </is>
       </c>
       <c r="Q126" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W126" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="V126" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9015,12 +9015,12 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>SVC US</t>
+          <t>CRS US</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Service Properti (RE)</t>
+          <t>Carpenter Tech (MA)</t>
         </is>
       </c>
       <c r="D127" s="2">
@@ -9042,33 +9042,33 @@
         </is>
       </c>
       <c r="I127">
-        <v>-53.17007880099526</v>
+        <v>-1114.397636295421</v>
       </c>
       <c r="J127">
-        <v>-19.12592762625729</v>
+        <v>-5.758565710497216</v>
       </c>
       <c r="K127">
-        <v>-7.795962203852298</v>
+        <v>-10.24388331071418</v>
       </c>
       <c r="L127">
-        <v>-53.17007880099526</v>
+        <v>-166.0801595577799</v>
       </c>
       <c r="M127">
-        <v>-19.12592762625729</v>
+        <v>-0.8582066946970848</v>
       </c>
       <c r="N127">
-        <v>-7.795962203852298</v>
+        <v>-1.526659532759169</v>
       </c>
       <c r="O127" s="2">
         <v>45632</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Discretionary Removal</t>
+          <t>Moved to S&amp;P 400</t>
         </is>
       </c>
       <c r="Q127" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W127" t="inlineStr">
         <is>
@@ -9079,12 +9079,12 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>APO US</t>
+          <t>CMA US</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Apollo Global Ma (FN)</t>
+          <t>Comerica Inc (FN)</t>
         </is>
       </c>
       <c r="D128" s="2">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -9106,33 +9106,33 @@
         </is>
       </c>
       <c r="I128">
-        <v>-2384.93990172</v>
+        <v>-1061.235925498496</v>
       </c>
       <c r="J128">
-        <v>-13.4098392</v>
+        <v>-15.29599200776154</v>
       </c>
       <c r="K128">
-        <v>-3.635987023356481</v>
+        <v>-9.695731457865987</v>
       </c>
       <c r="L128">
-        <v>7772.057056563533</v>
+        <v>-164.1943308229764</v>
       </c>
       <c r="M128">
-        <v>43.70006779062993</v>
+        <v>-2.366594563605888</v>
       </c>
       <c r="N128">
-        <v>11.84897723505357</v>
+        <v>-1.500122734551967</v>
       </c>
       <c r="O128" s="2">
         <v>45632</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Add to S&amp;P 500</t>
+          <t>Moved to S&amp;P 400</t>
         </is>
       </c>
       <c r="Q128" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W128" t="inlineStr">
         <is>
@@ -9143,12 +9143,12 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>WDAY US</t>
+          <t>HPP US</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Workday Inc-A (IT)</t>
+          <t>Hudson Pacific P (RE)</t>
         </is>
       </c>
       <c r="D129" s="2">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -9170,33 +9170,33 @@
         </is>
       </c>
       <c r="I129">
-        <v>-1702.4238</v>
+        <v>-57.8903871159458</v>
       </c>
       <c r="J129">
-        <v>-6.39</v>
+        <v>-16.26134469549039</v>
       </c>
       <c r="K129">
-        <v>-2.197167029909839</v>
+        <v>-4.847298777124189</v>
       </c>
       <c r="L129">
-        <v>5547.86931884924</v>
+        <v>-57.8903871159458</v>
       </c>
       <c r="M129">
-        <v>20.82377193472427</v>
+        <v>-16.26134469549039</v>
       </c>
       <c r="N129">
-        <v>7.160141648409699</v>
+        <v>-4.847298777124189</v>
       </c>
       <c r="O129" s="2">
         <v>45632</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Add to S&amp;P 500</t>
+          <t>Discretionary Removal</t>
         </is>
       </c>
       <c r="Q129" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W129" t="inlineStr">
         <is>
@@ -9207,12 +9207,12 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>AMTM US</t>
+          <t>KELYA US</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Amentum Holdings (ID)</t>
+          <t>Kelly Services-A (ID)</t>
         </is>
       </c>
       <c r="D130" s="2">
@@ -9225,44 +9225,44 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I130">
-        <v>87.0355563</v>
+        <v>-53.31177684951699</v>
       </c>
       <c r="J130">
-        <v>3.75639</v>
+        <v>-3.720291475890927</v>
       </c>
       <c r="K130">
-        <v>2.118276186416018</v>
+        <v>-9.255646460490929</v>
       </c>
       <c r="L130">
-        <v>131.7072982927761</v>
+        <v>-53.31177684951699</v>
       </c>
       <c r="M130">
-        <v>5.684389222821583</v>
+        <v>-3.720291475890927</v>
       </c>
       <c r="N130">
-        <v>3.205499515498342</v>
+        <v>-9.255646460490929</v>
       </c>
       <c r="O130" s="2">
         <v>45632</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Discretionary Removal</t>
         </is>
       </c>
       <c r="Q130" s="2">
-        <v>45644</v>
-      </c>
-      <c r="V130" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W130" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9271,12 +9271,12 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>QRVO US</t>
+          <t>RGNX US</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Qorvo Inc (IT)</t>
+          <t>Regenxbio Inc (HC)</t>
         </is>
       </c>
       <c r="D131" s="2">
@@ -9289,44 +9289,44 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>S&amp;P Completion</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I131">
-        <v>194.4555639</v>
+        <v>-50.22123161418001</v>
       </c>
       <c r="J131">
-        <v>2.84583</v>
+        <v>-5.242299750958248</v>
       </c>
       <c r="K131">
-        <v>1.508922347826715</v>
+        <v>-4.93340565597227</v>
       </c>
       <c r="L131">
-        <v>121.7021600105927</v>
+        <v>-50.22123161418001</v>
       </c>
       <c r="M131">
-        <v>1.781094102306346</v>
+        <v>-5.242299750958248</v>
       </c>
       <c r="N131">
-        <v>0.9443756986722347</v>
+        <v>-4.93340565597227</v>
       </c>
       <c r="O131" s="2">
         <v>45632</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Moved to S&amp;P 600</t>
+          <t>Discretionary Removal</t>
         </is>
       </c>
       <c r="Q131" s="2">
-        <v>45644</v>
-      </c>
-      <c r="V131" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W131" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9335,12 +9335,12 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>ORA US</t>
+          <t>SVC US</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ormat Technologi</t>
+          <t>Service Properti (RE)</t>
         </is>
       </c>
       <c r="D132" s="2">
@@ -9353,67 +9353,62 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>S Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I132">
-        <v>25.12838334448818</v>
+        <v>-53.17007880099526</v>
       </c>
       <c r="J132">
-        <v>0.3339320045779161</v>
+        <v>-19.12592762625729</v>
       </c>
       <c r="K132">
-        <v>0.8212330862082458</v>
+        <v>-7.795962203852298</v>
       </c>
       <c r="L132">
-        <v>25.12838334448818</v>
+        <v>-53.17007880099526</v>
       </c>
       <c r="M132">
-        <v>0.3339320045779161</v>
+        <v>-19.12592762625729</v>
       </c>
       <c r="N132">
-        <v>0.8212330862082458</v>
+        <v>-7.795962203852298</v>
       </c>
       <c r="O132" s="2">
-        <v>45638</v>
+        <v>45632</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Discretionary Removal</t>
         </is>
       </c>
       <c r="Q132" s="2">
-        <v>45644</v>
-      </c>
-      <c r="R132" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W132" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>APO US</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Savola (Detached)</t>
+          <t>Apollo Global Ma (FN)</t>
         </is>
       </c>
       <c r="D133" s="2">
-        <v>45649</v>
+        <v>45646</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -9422,7 +9417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>S&amp;P Completion</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -9430,55 +9425,54 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="I133">
+        <v>-2384.93990172</v>
+      </c>
+      <c r="J133">
+        <v>-13.4098392</v>
+      </c>
+      <c r="K133">
+        <v>-3.635987023356481</v>
+      </c>
       <c r="L133">
-        <v>0</v>
+        <v>7772.057056563533</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>43.70006779062993</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>11.84897723505357</v>
       </c>
       <c r="O133" s="2">
-        <v>45623</v>
+        <v>45632</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Add to S&amp;P 500</t>
         </is>
       </c>
       <c r="Q133" s="2">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="W133" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="X133" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ALMARAI AB</t>
+          <t>WDAY US</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Almarai Co</t>
+          <t>Workday Inc-A (IT)</t>
         </is>
       </c>
       <c r="D134" s="2">
-        <v>45649</v>
+        <v>45646</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -9487,49 +9481,44 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>S&amp;P Completion</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I134">
-        <v>84.8615650386063</v>
+        <v>-1702.4238</v>
       </c>
       <c r="J134">
-        <v>5.702878202760012</v>
+        <v>-6.39</v>
       </c>
       <c r="K134">
-        <v>8.947711024904306</v>
+        <v>-2.197167029909839</v>
       </c>
       <c r="L134">
-        <v>84.8615650386063</v>
+        <v>5547.86931884924</v>
       </c>
       <c r="M134">
-        <v>5.702878202760012</v>
+        <v>20.82377193472427</v>
       </c>
       <c r="N134">
-        <v>8.947711024904306</v>
+        <v>7.160141648409699</v>
       </c>
       <c r="O134" s="2">
-        <v>45623</v>
+        <v>45632</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Add to S&amp;P 500</t>
         </is>
       </c>
       <c r="Q134" s="2">
-        <v>45644</v>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X134" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W134" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9538,16 +9527,16 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>NAPA US</t>
+          <t>AMTM US</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Duckhorn Portfol</t>
+          <t>Amentum Holdings (ID)</t>
         </is>
       </c>
       <c r="D135" s="2">
-        <v>45649</v>
+        <v>45646</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -9556,256 +9545,239 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I135">
+        <v>87.0355563</v>
+      </c>
+      <c r="J135">
+        <v>3.75639</v>
+      </c>
+      <c r="K135">
+        <v>2.118276186416018</v>
+      </c>
+      <c r="L135">
+        <v>131.7072982927761</v>
+      </c>
+      <c r="M135">
+        <v>5.684389222821583</v>
+      </c>
+      <c r="N135">
+        <v>3.205499515498342</v>
+      </c>
+      <c r="O135" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q135" s="2">
+        <v>45645</v>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>QRVO US</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Qorvo Inc (IT)</t>
+        </is>
+      </c>
+      <c r="D136" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>S&amp;P Completion</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I136">
+        <v>194.4555639</v>
+      </c>
+      <c r="J136">
+        <v>2.84583</v>
+      </c>
+      <c r="K136">
+        <v>1.508922347826715</v>
+      </c>
+      <c r="L136">
+        <v>121.7021600105927</v>
+      </c>
+      <c r="M136">
+        <v>1.781094102306346</v>
+      </c>
+      <c r="N136">
+        <v>0.9443756986722347</v>
+      </c>
+      <c r="O136" s="2">
+        <v>45632</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>Moved to S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="Q136" s="2">
+        <v>45645</v>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ORA US</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Ormat Technologi</t>
+        </is>
+      </c>
+      <c r="D137" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>Russell 2000</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I135">
-        <v>107.9874884509773</v>
-      </c>
-      <c r="J135">
-        <v>9.746163217597228</v>
-      </c>
-      <c r="K135">
-        <v>6.54028208275387</v>
-      </c>
-      <c r="L135">
-        <v>107.9874884509773</v>
-      </c>
-      <c r="M135">
-        <v>9.746163217597228</v>
-      </c>
-      <c r="N135">
-        <v>6.54028208275387</v>
-      </c>
-      <c r="O135" s="2">
-        <v>45643</v>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>Acquired</t>
-        </is>
-      </c>
-      <c r="Q135" s="2">
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I137">
+        <v>25.12838334448818</v>
+      </c>
+      <c r="J137">
+        <v>0.3339320045779161</v>
+      </c>
+      <c r="K137">
+        <v>0.8212330862082458</v>
+      </c>
+      <c r="L137">
+        <v>25.12838334448818</v>
+      </c>
+      <c r="M137">
+        <v>0.3339320045779161</v>
+      </c>
+      <c r="N137">
+        <v>0.8212330862082458</v>
+      </c>
+      <c r="O137" s="2">
+        <v>45638</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>Equity Offering</t>
+        </is>
+      </c>
+      <c r="Q137" s="2">
+        <v>45645</v>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>EVGO US</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Evgo A</t>
+        </is>
+      </c>
+      <c r="D138" s="2">
+        <v>45646</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H138">
+        <v>1.183771440462497e-05</v>
+      </c>
+      <c r="I138">
+        <v>1.266730905356691</v>
+      </c>
+      <c r="J138">
+        <v>0.2840203823669711</v>
+      </c>
+      <c r="K138">
+        <v>0.03714416917522924</v>
+      </c>
+      <c r="L138">
+        <v>1.266730905356691</v>
+      </c>
+      <c r="M138">
+        <v>0.2840203823669711</v>
+      </c>
+      <c r="N138">
+        <v>0.03714416917522924</v>
+      </c>
+      <c r="O138" s="2">
         <v>45644</v>
       </c>
-      <c r="W135" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>018880 KS</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Hanon Systems</t>
-        </is>
-      </c>
-      <c r="D136" s="2">
-        <v>45653</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>MSCI EM Small Cap</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H136">
-        <v>2.048582091539132e-05</v>
-      </c>
-      <c r="I136">
-        <v>0.5376098474253072</v>
-      </c>
-      <c r="J136">
-        <v>0.1911303059057406</v>
-      </c>
-      <c r="K136">
-        <v>0.1522248348417269</v>
-      </c>
-      <c r="L136">
-        <v>0.5376098474253072</v>
-      </c>
-      <c r="M136">
-        <v>0.1911303059057406</v>
-      </c>
-      <c r="N136">
-        <v>0.1522248348417269</v>
-      </c>
-      <c r="O136" s="2">
-        <v>45636</v>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
-      <c r="Q136" s="2">
-        <v>45639</v>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>BORR NO</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Borr Drilling</t>
-        </is>
-      </c>
-      <c r="D137" s="2">
-        <v>45656</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H137">
-        <v>-0.0001021870253659572</v>
-      </c>
-      <c r="I137">
-        <v>-17.18164076952931</v>
-      </c>
-      <c r="J137">
-        <v>-4.489366647000002</v>
-      </c>
-      <c r="K137">
-        <v>-5.25771244477013</v>
-      </c>
-      <c r="L137">
-        <v>-17.18164076952931</v>
-      </c>
-      <c r="M137">
-        <v>-4.489366647000002</v>
-      </c>
-      <c r="N137">
-        <v>-5.25771244477013</v>
-      </c>
-      <c r="O137" s="2">
-        <v>45637</v>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>Delisting</t>
-        </is>
-      </c>
-      <c r="Q137" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W137" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>VASTN NA</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Vastned Retail</t>
-        </is>
-      </c>
-      <c r="D138" s="2">
-        <v>45657</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H138">
-        <v>-2.98503575636324e-05</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-      <c r="O138" s="2">
-        <v>45639</v>
-      </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q138" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W138" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="R138" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9819,65 +9791,58 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>VASTB BB</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vastned Belgium</t>
+          <t>Savola (Detached)</t>
         </is>
       </c>
       <c r="D139" s="2">
-        <v>45657</v>
+        <v>45649</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="H139">
-        <v>3.329736455529341e-05</v>
-      </c>
-      <c r="I139">
-        <v>0.1031619925159331</v>
-      </c>
-      <c r="J139">
-        <v>0.003635253686399992</v>
-      </c>
-      <c r="K139">
-        <v>1.537170149435491</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="L139">
-        <v>0.1031619925159331</v>
+        <v>0</v>
       </c>
       <c r="M139">
-        <v>0.003635253686399992</v>
+        <v>0</v>
       </c>
       <c r="N139">
-        <v>1.537170149435491</v>
+        <v>0</v>
       </c>
       <c r="O139" s="2">
-        <v>45639</v>
+        <v>45623</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Acquisition &amp; Name Change</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q139" s="2">
-        <v>45644</v>
-      </c>
-      <c r="V139" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X139" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -9886,152 +9851,136 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>020560 KS</t>
+          <t>ALMARAI AB</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Asiana Airlines</t>
+          <t>Almarai Co</t>
         </is>
       </c>
       <c r="D140" s="2">
-        <v>45660</v>
+        <v>45649</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H140">
-        <v>7.562020168108501e-05</v>
+          <t>F Inc</t>
+        </is>
       </c>
       <c r="I140">
-        <v>2.014851167715062</v>
+        <v>84.8615650386063</v>
       </c>
       <c r="J140">
-        <v>0.2863119437000318</v>
+        <v>5.702878202760012</v>
       </c>
       <c r="K140">
-        <v>0.9090546502255137</v>
+        <v>8.947711024904306</v>
       </c>
       <c r="L140">
-        <v>2.014851167715062</v>
+        <v>84.8615650386063</v>
       </c>
       <c r="M140">
-        <v>0.2863119437000318</v>
+        <v>5.702878202760012</v>
       </c>
       <c r="N140">
-        <v>0.9090546502255137</v>
+        <v>8.947711024904306</v>
       </c>
       <c r="O140" s="2">
-        <v>45642</v>
+        <v>45623</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q140" s="2">
-        <v>45644</v>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U140" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>018880 KS</t>
+          <t>NAPA US</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Hanon Systems</t>
+          <t>Duckhorn Portfol</t>
         </is>
       </c>
       <c r="D141" s="2">
-        <v>45666</v>
+        <v>45649</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H141">
-        <v>2.03098351779087e-05</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I141">
-        <v>0.5447067368751124</v>
+        <v>107.9874884509773</v>
       </c>
       <c r="J141">
-        <v>0.1909117008815375</v>
+        <v>9.746163217597228</v>
       </c>
       <c r="K141">
-        <v>0.1606716833569298</v>
+        <v>6.54028208275387</v>
       </c>
       <c r="L141">
-        <v>0.5447067368751124</v>
+        <v>107.9874884509773</v>
       </c>
       <c r="M141">
-        <v>0.1909117008815375</v>
+        <v>9.746163217597228</v>
       </c>
       <c r="N141">
-        <v>0.1606716833569298</v>
+        <v>6.54028208275387</v>
       </c>
       <c r="O141" s="2">
-        <v>45636</v>
+        <v>45643</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="Q141" s="2">
-        <v>45644</v>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U141" t="inlineStr">
+        <v>45645</v>
+      </c>
+      <c r="W141" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -10040,70 +9989,582 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2363 TT</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Silicon Integrated Systems</t>
+        </is>
+      </c>
+      <c r="D142" s="2">
+        <v>45651</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>FTSE EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I142">
+        <v>1.483705279235078</v>
+      </c>
+      <c r="J142">
+        <v>0.6809832888365304</v>
+      </c>
+      <c r="K142">
+        <v>0.07245669317162756</v>
+      </c>
+      <c r="L142">
+        <v>1.483705279235078</v>
+      </c>
+      <c r="M142">
+        <v>0.6809832888365304</v>
+      </c>
+      <c r="N142">
+        <v>0.07245669317162756</v>
+      </c>
+      <c r="O142" s="2">
+        <v>45645</v>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q142" s="2">
+        <v>45645</v>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>018880 KS</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Hanon Systems</t>
+        </is>
+      </c>
+      <c r="D143" s="2">
+        <v>45653</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H143">
+        <v>2.048582091539132e-05</v>
+      </c>
+      <c r="I143">
+        <v>0.5376098474253072</v>
+      </c>
+      <c r="J143">
+        <v>0.1911303059057406</v>
+      </c>
+      <c r="K143">
+        <v>0.1522248348417269</v>
+      </c>
+      <c r="L143">
+        <v>0.5376098474253072</v>
+      </c>
+      <c r="M143">
+        <v>0.1911303059057406</v>
+      </c>
+      <c r="N143">
+        <v>0.1522248348417269</v>
+      </c>
+      <c r="O143" s="2">
+        <v>45636</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q143" s="2">
+        <v>45639</v>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>BORR NO</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Borr Drilling</t>
+        </is>
+      </c>
+      <c r="D144" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H144">
+        <v>-0.0001021870253659572</v>
+      </c>
+      <c r="I144">
+        <v>-17.18164076952931</v>
+      </c>
+      <c r="J144">
+        <v>-4.489366647000002</v>
+      </c>
+      <c r="K144">
+        <v>-5.25771244477013</v>
+      </c>
+      <c r="L144">
+        <v>-17.18164076952931</v>
+      </c>
+      <c r="M144">
+        <v>-4.489366647000002</v>
+      </c>
+      <c r="N144">
+        <v>-5.25771244477013</v>
+      </c>
+      <c r="O144" s="2">
+        <v>45637</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q144" s="2">
+        <v>45645</v>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>VASTN NA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Vastned Retail</t>
+        </is>
+      </c>
+      <c r="D145" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H145">
+        <v>-2.98503575636324e-05</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145" s="2">
+        <v>45639</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q145" s="2">
+        <v>45645</v>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>VASTB BB</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Vastned Belgium</t>
+        </is>
+      </c>
+      <c r="D146" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H146">
+        <v>3.329736455529341e-05</v>
+      </c>
+      <c r="I146">
+        <v>0.1031619925159331</v>
+      </c>
+      <c r="J146">
+        <v>0.003635253686399992</v>
+      </c>
+      <c r="K146">
+        <v>1.537170149435491</v>
+      </c>
+      <c r="L146">
+        <v>0.1031619925159331</v>
+      </c>
+      <c r="M146">
+        <v>0.003635253686399992</v>
+      </c>
+      <c r="N146">
+        <v>1.537170149435491</v>
+      </c>
+      <c r="O146" s="2">
+        <v>45639</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>Acquisition &amp; Name Change</t>
+        </is>
+      </c>
+      <c r="Q146" s="2">
+        <v>45645</v>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>020560 KS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Asiana Airlines</t>
+        </is>
+      </c>
+      <c r="D147" s="2">
+        <v>45660</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H147">
+        <v>7.562020168108501e-05</v>
+      </c>
+      <c r="I147">
+        <v>2.014851167715062</v>
+      </c>
+      <c r="J147">
+        <v>0.2863119437000318</v>
+      </c>
+      <c r="K147">
+        <v>0.9090546502255137</v>
+      </c>
+      <c r="L147">
+        <v>2.014851167715062</v>
+      </c>
+      <c r="M147">
+        <v>0.2863119437000318</v>
+      </c>
+      <c r="N147">
+        <v>0.9090546502255137</v>
+      </c>
+      <c r="O147" s="2">
+        <v>45642</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q147" s="2">
+        <v>45645</v>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>018880 KS</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Hanon Systems</t>
+        </is>
+      </c>
+      <c r="D148" s="2">
+        <v>45666</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H148">
+        <v>2.03098351779087e-05</v>
+      </c>
+      <c r="I148">
+        <v>0.5447067368751124</v>
+      </c>
+      <c r="J148">
+        <v>0.1909117008815375</v>
+      </c>
+      <c r="K148">
+        <v>0.1606716833569298</v>
+      </c>
+      <c r="L148">
+        <v>0.5447067368751124</v>
+      </c>
+      <c r="M148">
+        <v>0.1909117008815375</v>
+      </c>
+      <c r="N148">
+        <v>0.1606716833569298</v>
+      </c>
+      <c r="O148" s="2">
+        <v>45636</v>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q148" s="2">
+        <v>45645</v>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>**Restricted**</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>**Restricted**</t>
         </is>
       </c>
-      <c r="D142" s="2">
+      <c r="D149" s="2">
         <v>45673</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H142">
+      <c r="H149">
         <v>-0.0004757285907927726</v>
       </c>
-      <c r="I142">
+      <c r="I149">
         <v>-78.32108023960316</v>
       </c>
-      <c r="J142">
+      <c r="J149">
         <v>-4.729218978</v>
       </c>
-      <c r="K142">
+      <c r="K149">
         <v>-3.860032336578581</v>
       </c>
-      <c r="L142">
+      <c r="L149">
         <v>-78.32108023960316</v>
       </c>
-      <c r="M142">
+      <c r="M149">
         <v>-4.729218978</v>
       </c>
-      <c r="N142">
+      <c r="N149">
         <v>-3.860032336578581</v>
       </c>
-      <c r="O142" s="2">
+      <c r="O149" s="2">
         <v>45643</v>
       </c>
-      <c r="P142" t="inlineStr">
+      <c r="P149" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q142" s="2">
-        <v>45644</v>
-      </c>
-      <c r="W142" t="inlineStr">
+      <c r="Q149" s="2">
+        <v>45645</v>
+      </c>
+      <c r="W149" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,21 +501,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>6640 JP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Savola (Detached)</t>
+          <t>I-Pex Inc</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -532,32 +532,36 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="I2">
+        <v>-4.453185782471279</v>
+      </c>
+      <c r="J2">
+        <v>-0.235889505896</v>
+      </c>
+      <c r="K2">
+        <v>-0.9991930951202981</v>
+      </c>
       <c r="L2">
-        <v>0</v>
+        <v>-4.453185782471279</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.235889505896</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-0.9991930951202981</v>
       </c>
       <c r="O2" s="2">
-        <v>45623</v>
+        <v>45646</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="W2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -566,21 +570,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALMARAI AB</t>
+          <t>7518 JP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Almarai Co</t>
+          <t>Net One Systems Co Ltd</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -589,49 +593,44 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>F Inc</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I3">
-        <v>84.8615650386063</v>
+        <v>-71.40394228656496</v>
       </c>
       <c r="J3">
-        <v>5.702878202760012</v>
+        <v>-2.499616406609998</v>
       </c>
       <c r="K3">
-        <v>8.947711024904306</v>
+        <v>-2.659392721306067</v>
       </c>
       <c r="L3">
-        <v>84.8615650386063</v>
+        <v>-121.4547862695155</v>
       </c>
       <c r="M3">
-        <v>5.702878202760012</v>
+        <v>-4.24592163495263</v>
       </c>
       <c r="N3">
-        <v>8.947711024904306</v>
+        <v>-4.565412911484719</v>
       </c>
       <c r="O3" s="2">
-        <v>45623</v>
+        <v>45646</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45649</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -640,21 +639,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1COV GY</t>
+          <t>7518 JP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Covestro AG</t>
+          <t>Net One Systems</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -663,7 +662,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stoxx Europe 600</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -671,34 +670,37 @@
           <t>F Dec</t>
         </is>
       </c>
+      <c r="H4">
+        <v>-0.0002160758652551688</v>
+      </c>
       <c r="I4">
-        <v>-15.393587672736</v>
+        <v>-50.0508439829505</v>
       </c>
       <c r="J4">
-        <v>-0.26056485</v>
+        <v>-1.746305228342632</v>
       </c>
       <c r="K4">
-        <v>-0.244375922629487</v>
+        <v>-1.906020190178653</v>
       </c>
       <c r="L4">
-        <v>-108.796512918366</v>
+        <v>-121.4547862695155</v>
       </c>
       <c r="M4">
-        <v>-1.8140976</v>
+        <v>-4.24592163495263</v>
       </c>
       <c r="N4">
-        <v>-1.701387484689274</v>
+        <v>-4.565412911484719</v>
       </c>
       <c r="O4" s="2">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -709,21 +711,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1COV GY</t>
+          <t>BIRET IN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Covestro AG</t>
+          <t>Brookfield India</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -732,44 +734,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DAX</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>0.0002113375936373213</v>
       </c>
       <c r="I5">
-        <v>-93.40292524563</v>
+        <v>6.492906037342504</v>
       </c>
       <c r="J5">
-        <v>-1.55353275</v>
+        <v>2.007078502380962</v>
       </c>
       <c r="K5">
-        <v>-1.457011562059787</v>
+        <v>5.057911711974312</v>
       </c>
       <c r="L5">
-        <v>-108.796512918366</v>
+        <v>6.492906037342504</v>
       </c>
       <c r="M5">
-        <v>-1.8140976</v>
+        <v>2.007078502380962</v>
       </c>
       <c r="N5">
-        <v>-1.701387484689274</v>
+        <v>5.057911711974312</v>
       </c>
       <c r="O5" s="2">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45649</v>
-      </c>
-      <c r="W5" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -783,16 +793,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FME GY</t>
+          <t>ALMARAI AB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fresenius Medical Care AG</t>
+          <t>Almarai Co</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -801,44 +811,40 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DAX</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I6">
-        <v>261.2601769715442</v>
-      </c>
-      <c r="J6">
-        <v>5.45085134227685</v>
-      </c>
-      <c r="K6">
-        <v>5.087411735317502</v>
+          <t>F Inc</t>
+        </is>
       </c>
       <c r="L6">
-        <v>118.1725862086778</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.465516205426349</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.301126060770935</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>45645</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Replacement</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45649</v>
-      </c>
-      <c r="V6" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -847,21 +853,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FME GY</t>
+          <t>2363 TT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fresenius Medical Care AG</t>
+          <t>Silicon Integrated Systems</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45649</v>
+        <v>45651</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -870,180 +876,178 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MDAX</t>
+          <t>FTSE EM Small Cap</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I7">
-        <v>-143.0875907628664</v>
+        <v>1.483705279235078</v>
       </c>
       <c r="J7">
-        <v>-2.9853351368505</v>
+        <v>0.6809832888365304</v>
       </c>
       <c r="K7">
-        <v>-2.786285674546568</v>
+        <v>0.07245669317162756</v>
       </c>
       <c r="L7">
-        <v>118.1725862086778</v>
+        <v>1.483705279235078</v>
       </c>
       <c r="M7">
-        <v>2.465516205426349</v>
+        <v>0.6809832888365304</v>
       </c>
       <c r="N7">
-        <v>2.301126060770935</v>
+        <v>0.07245669317162756</v>
       </c>
       <c r="O7" s="2">
         <v>45645</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Moving to DAX</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q7" s="2">
+        <v>45650</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CNSL US</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Consolidated Commu</t>
+        </is>
+      </c>
+      <c r="D8" s="2">
+        <v>45652</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>-4.535210422756729e-05</v>
+      </c>
+      <c r="I8">
+        <v>-4.705317669065001</v>
+      </c>
+      <c r="J8">
+        <v>-1.00113141895</v>
+      </c>
+      <c r="K8">
+        <v>-0.7315841697856305</v>
+      </c>
+      <c r="L8">
+        <v>-36.21435778309164</v>
+      </c>
+      <c r="M8">
+        <v>-7.705182507040773</v>
+      </c>
+      <c r="N8">
+        <v>-5.630618958470345</v>
+      </c>
+      <c r="O8" s="2">
         <v>45649</v>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DWNI GY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Deutsche Wohnen SE</t>
-        </is>
-      </c>
-      <c r="D8" s="2">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q8" s="2">
+        <v>45650</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CNSL US</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Consolidated Com</t>
+        </is>
+      </c>
+      <c r="D9" s="2">
+        <v>45652</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I9">
+        <v>-31.50904011402663</v>
+      </c>
+      <c r="J9">
+        <v>-6.704051088090773</v>
+      </c>
+      <c r="K9">
+        <v>-4.899034788684714</v>
+      </c>
+      <c r="L9">
+        <v>-36.21435778309164</v>
+      </c>
+      <c r="M9">
+        <v>-7.705182507040773</v>
+      </c>
+      <c r="N9">
+        <v>-5.630618958470345</v>
+      </c>
+      <c r="O9" s="2">
         <v>45649</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>MDAX</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I8">
-        <v>20.5932351610094</v>
-      </c>
-      <c r="J8">
-        <v>0.8337055267737509</v>
-      </c>
-      <c r="K8">
-        <v>1.664319081557784</v>
-      </c>
-      <c r="L8">
-        <v>17.34760556126434</v>
-      </c>
-      <c r="M8">
-        <v>0.7023080404627509</v>
-      </c>
-      <c r="N8">
-        <v>1.402011424101806</v>
-      </c>
-      <c r="O8" s="2">
-        <v>45645</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Replacement</t>
-        </is>
-      </c>
-      <c r="Q8" s="2">
-        <v>45649</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DWNI GY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Deutsche Wohnen SE</t>
-        </is>
-      </c>
-      <c r="D9" s="2">
-        <v>45649</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>SDAX</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>-3.245629599745064</v>
-      </c>
-      <c r="J9">
-        <v>-0.131397486311</v>
-      </c>
-      <c r="K9">
-        <v>-0.2623076574559783</v>
-      </c>
-      <c r="L9">
-        <v>17.34760556126434</v>
-      </c>
-      <c r="M9">
-        <v>0.7023080404627509</v>
-      </c>
-      <c r="N9">
-        <v>1.402011424101806</v>
-      </c>
-      <c r="O9" s="2">
-        <v>45645</v>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Moving to MDAX</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1054,85 +1058,98 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LPK GY</t>
+          <t>018880 KS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LPKF Laser &amp; Electronics SE</t>
+          <t>Hanon Systems</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45649</v>
+        <v>45653</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SDAX</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>2.048582091539132e-05</v>
       </c>
       <c r="I10">
-        <v>0.5800134719728459</v>
+        <v>0.5376098474253072</v>
       </c>
       <c r="J10">
-        <v>0.06292081078880751</v>
+        <v>0.1911303059057406</v>
       </c>
       <c r="K10">
-        <v>0.8020600745555394</v>
+        <v>0.1522248348417269</v>
       </c>
       <c r="L10">
-        <v>0.5800134719728459</v>
+        <v>0.5376098474253072</v>
       </c>
       <c r="M10">
-        <v>0.06292081078880751</v>
+        <v>0.1911303059057406</v>
       </c>
       <c r="N10">
-        <v>0.8020600745555394</v>
+        <v>0.1522248348417269</v>
       </c>
       <c r="O10" s="2">
-        <v>45645</v>
+        <v>45636</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Replacement</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45649</v>
-      </c>
-      <c r="V10" t="inlineStr">
+        <v>45639</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NAPA US</t>
+          <t>HPI AU</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Duckhorn Portfol</t>
+          <t>Hotel Property Investments</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45649</v>
+        <v>45653</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1141,62 +1158,67 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="I11">
-        <v>107.9874884509773</v>
+        <v>-7.136277602829039</v>
       </c>
       <c r="J11">
-        <v>9.746163217597228</v>
+        <v>-3.022701401600003</v>
       </c>
       <c r="K11">
-        <v>6.54028208275387</v>
+        <v>-2.88492874447868</v>
       </c>
       <c r="L11">
-        <v>101.6209165114053</v>
+        <v>-14.54417822860313</v>
       </c>
       <c r="M11">
-        <v>9.172080986797228</v>
+        <v>-6.160453721600006</v>
       </c>
       <c r="N11">
-        <v>6.159580660749263</v>
+        <v>-5.879664465390803</v>
       </c>
       <c r="O11" s="2">
-        <v>45643</v>
+        <v>45646</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45649</v>
-      </c>
-      <c r="W11" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NAPA US</t>
+          <t>HPI AU</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Duckhorn Portfolio</t>
+          <t>Hotel Property Investments</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45649</v>
+        <v>45653</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1205,47 +1227,44 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>-6.117569920132345e-05</v>
+          <t>F Dec</t>
+        </is>
       </c>
       <c r="I12">
-        <v>-6.366571939572</v>
+        <v>-7.407900625774086</v>
       </c>
       <c r="J12">
-        <v>-0.5740822308</v>
+        <v>-3.137752320000003</v>
       </c>
       <c r="K12">
-        <v>-0.3807014220046065</v>
+        <v>-2.994735720912123</v>
       </c>
       <c r="L12">
-        <v>101.6209165114053</v>
+        <v>-14.54417822860313</v>
       </c>
       <c r="M12">
-        <v>9.172080986797228</v>
+        <v>-6.160453721600006</v>
       </c>
       <c r="N12">
-        <v>6.159580660749263</v>
+        <v>-5.879664465390803</v>
       </c>
       <c r="O12" s="2">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45649</v>
-      </c>
-      <c r="W12" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1254,21 +1273,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6640 JP</t>
+          <t>LRE SM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>I-Pex Inc</t>
+          <t>Lar Espana Real Estate Socim</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1286,22 +1305,22 @@
         </is>
       </c>
       <c r="I13">
-        <v>-4.453185782471279</v>
+        <v>-15.39157332400192</v>
       </c>
       <c r="J13">
-        <v>-0.235889505896</v>
+        <v>-1.865874810537529</v>
       </c>
       <c r="K13">
-        <v>-0.9991930951202981</v>
+        <v>-8.240295409845425</v>
       </c>
       <c r="L13">
-        <v>-4.453185782471279</v>
+        <v>-50.04879592801555</v>
       </c>
       <c r="M13">
-        <v>-0.235889505896</v>
+        <v>-6.032759612609797</v>
       </c>
       <c r="N13">
-        <v>-0.9991930951202981</v>
+        <v>-27.08612108618932</v>
       </c>
       <c r="O13" s="2">
         <v>45646</v>
@@ -1312,7 +1331,7 @@
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1323,21 +1342,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7518 JP</t>
+          <t>LRE SM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Net One Systems Co Ltd</t>
+          <t>Lar Espana Real Estate Socim</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1346,31 +1365,31 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I14">
-        <v>-71.40394228656496</v>
+        <v>-24.43106876825701</v>
       </c>
       <c r="J14">
-        <v>-2.499616406609998</v>
+        <v>-2.961706048472267</v>
       </c>
       <c r="K14">
-        <v>-2.659392721306067</v>
+        <v>-13.07983398388162</v>
       </c>
       <c r="L14">
-        <v>-121.4547862695155</v>
+        <v>-50.04879592801555</v>
       </c>
       <c r="M14">
-        <v>-4.24592163495263</v>
+        <v>-6.032759612609797</v>
       </c>
       <c r="N14">
-        <v>-4.565412911484719</v>
+        <v>-27.08612108618932</v>
       </c>
       <c r="O14" s="2">
         <v>45646</v>
@@ -1381,9 +1400,9 @@
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45649</v>
-      </c>
-      <c r="U14" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1392,21 +1411,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7518 JP</t>
+          <t>LRE SM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Net One Systems</t>
+          <t>Lar Espana Real Est Soc</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1420,32 +1439,32 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="H15">
-        <v>-0.0002160758652551688</v>
+        <v>-5.333622131202427e-05</v>
       </c>
       <c r="I15">
-        <v>-50.0508439829505</v>
+        <v>-10.22615383575663</v>
       </c>
       <c r="J15">
-        <v>-1.746305228342632</v>
+        <v>-1.2051787536</v>
       </c>
       <c r="K15">
-        <v>-1.906020190178653</v>
+        <v>-5.765991692462263</v>
       </c>
       <c r="L15">
-        <v>-121.4547862695155</v>
+        <v>-50.04879592801555</v>
       </c>
       <c r="M15">
-        <v>-4.24592163495263</v>
+        <v>-6.032759612609797</v>
       </c>
       <c r="N15">
-        <v>-4.565412911484719</v>
+        <v>-27.08612108618932</v>
       </c>
       <c r="O15" s="2">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1453,9 +1472,9 @@
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45649</v>
-      </c>
-      <c r="U15" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1464,21 +1483,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIRET IN</t>
+          <t>MAREL IR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brookfield India</t>
+          <t>Marel Hf</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1487,75 +1506,62 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H16">
-        <v>0.0002113375936373213</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I16">
-        <v>6.492906037342504</v>
+        <v>-92.04156730707801</v>
       </c>
       <c r="J16">
-        <v>2.007078502380962</v>
+        <v>-21.80351804505984</v>
       </c>
       <c r="K16">
-        <v>5.057911711974312</v>
+        <v>-16.91963233290279</v>
       </c>
       <c r="L16">
-        <v>6.492906037342504</v>
+        <v>-92.04156730707801</v>
       </c>
       <c r="M16">
-        <v>2.007078502380962</v>
+        <v>-21.80351804505984</v>
       </c>
       <c r="N16">
-        <v>5.057911711974312</v>
+        <v>-16.91963233290279</v>
       </c>
       <c r="O16" s="2">
         <v>45646</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45649</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ALMARAI AB</t>
+          <t>JBT US</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Almarai Co</t>
+          <t>John Bean Tech</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1564,63 +1570,62 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>163.5149372038647</v>
+      </c>
+      <c r="J17">
+        <v>1.309376499070025</v>
+      </c>
+      <c r="K17">
+        <v>2.935284954912308</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>164.078195321162</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.313890508665291</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.94467221333532</v>
       </c>
       <c r="O17" s="2">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45649</v>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2363 TT</t>
+          <t>AJG US</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Silicon Integrated Systems</t>
+          <t>Arthur J Gallagh (FN)</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45651</v>
+        <v>45653</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1629,68 +1634,58 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>S&amp;P 500</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I18">
-        <v>1.483705279235078</v>
+        <v>1123.589041069923</v>
       </c>
       <c r="J18">
-        <v>0.6809832888365304</v>
+        <v>3.9688768670785</v>
       </c>
       <c r="K18">
-        <v>0.07245669317162756</v>
+        <v>1.549896628207744</v>
       </c>
       <c r="L18">
-        <v>1.483705279235078</v>
+        <v>1123.589041069923</v>
       </c>
       <c r="M18">
-        <v>0.6809832888365304</v>
+        <v>3.9688768670785</v>
       </c>
       <c r="N18">
-        <v>0.07245669317162756</v>
+        <v>1.549896628207744</v>
       </c>
       <c r="O18" s="2">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>018880 KS</t>
+          <t>CHWY US</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hanon Systems</t>
+          <t>Chewy Inc- Cl A (CD)</t>
         </is>
       </c>
       <c r="D19" s="2">
@@ -1698,76 +1693,68 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H19">
-        <v>2.048582091539132e-05</v>
+          <t>S Inc &amp; F Inc</t>
+        </is>
       </c>
       <c r="I19">
-        <v>0.5376098474253072</v>
+        <v>47.49765275684293</v>
       </c>
       <c r="J19">
-        <v>0.1911303059057406</v>
+        <v>1.408589939408153</v>
       </c>
       <c r="K19">
-        <v>0.1522248348417269</v>
+        <v>0.2219856812079652</v>
       </c>
       <c r="L19">
-        <v>0.5376098474253072</v>
+        <v>47.49765275684293</v>
       </c>
       <c r="M19">
-        <v>0.1911303059057406</v>
+        <v>1.408589939408153</v>
       </c>
       <c r="N19">
-        <v>0.1522248348417269</v>
+        <v>0.2219856812079652</v>
       </c>
       <c r="O19" s="2">
-        <v>45636</v>
+        <v>45646</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45639</v>
+        <v>45650</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HPI AU</t>
+          <t>CUZ US</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hotel Property Investments</t>
+          <t>Cousins Prop (RE)</t>
         </is>
       </c>
       <c r="D20" s="2">
@@ -1780,63 +1767,58 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="I20">
-        <v>-7.136277602829039</v>
+        <v>26.72015590594468</v>
       </c>
       <c r="J20">
-        <v>-3.022701401600003</v>
+        <v>0.8836030392177475</v>
       </c>
       <c r="K20">
-        <v>-2.88492874447868</v>
+        <v>0.6502844077207006</v>
       </c>
       <c r="L20">
-        <v>-14.54417822860313</v>
+        <v>26.72015590594468</v>
       </c>
       <c r="M20">
-        <v>-6.160453721600006</v>
+        <v>0.8836030392177475</v>
       </c>
       <c r="N20">
-        <v>-5.879664465390803</v>
+        <v>0.6502844077207006</v>
       </c>
       <c r="O20" s="2">
         <v>45646</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45649</v>
-      </c>
-      <c r="U20" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HPI AU</t>
+          <t>ORA US</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hotel Property Investments</t>
+          <t>Ormat Technologi (UT)</t>
         </is>
       </c>
       <c r="D21" s="2">
@@ -1849,63 +1831,58 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>S&amp;P 400</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I21">
-        <v>-7.407900625774086</v>
+        <v>26.30192057469179</v>
       </c>
       <c r="J21">
-        <v>-3.137752320000003</v>
+        <v>0.3895426625398666</v>
       </c>
       <c r="K21">
-        <v>-2.994735720912123</v>
+        <v>0.5538027340604662</v>
       </c>
       <c r="L21">
-        <v>-14.54417822860313</v>
+        <v>26.30192057469179</v>
       </c>
       <c r="M21">
-        <v>-6.160453721600006</v>
+        <v>0.3895426625398666</v>
       </c>
       <c r="N21">
-        <v>-5.879664465390803</v>
+        <v>0.5538027340604662</v>
       </c>
       <c r="O21" s="2">
         <v>45646</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Equity Offering</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45649</v>
-      </c>
-      <c r="U21" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LRE SM</t>
+          <t>INSW US</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lar Espana Real Estate Socim</t>
+          <t>International Se (EN)</t>
         </is>
       </c>
       <c r="D22" s="2">
@@ -1918,63 +1895,58 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I22">
-        <v>-15.39157332400192</v>
+        <v>146.5625534046559</v>
       </c>
       <c r="J22">
-        <v>-1.865874810537529</v>
+        <v>4.338737519379986</v>
       </c>
       <c r="K22">
-        <v>-8.240295409845425</v>
+        <v>5.949597823349382</v>
       </c>
       <c r="L22">
-        <v>-39.82264209225892</v>
+        <v>146.5625534046559</v>
       </c>
       <c r="M22">
-        <v>-4.827580859009797</v>
+        <v>4.338737519379986</v>
       </c>
       <c r="N22">
-        <v>-21.32012939372705</v>
+        <v>5.949597823349382</v>
       </c>
       <c r="O22" s="2">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Replacing CNSL</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45649</v>
-      </c>
-      <c r="W22" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="V22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LRE SM</t>
+          <t>CNSL US</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lar Espana Real Estate Socim</t>
+          <t>Consolidated Com (CM)</t>
         </is>
       </c>
       <c r="D23" s="2">
@@ -1987,7 +1959,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1996,33 +1968,33 @@
         </is>
       </c>
       <c r="I23">
-        <v>-24.43106876825701</v>
+        <v>-38.21586519266767</v>
       </c>
       <c r="J23">
-        <v>-2.961706048472267</v>
+        <v>-8.1310351473761</v>
       </c>
       <c r="K23">
-        <v>-13.07983398388162</v>
+        <v>-5.94181391692794</v>
       </c>
       <c r="L23">
-        <v>-39.82264209225892</v>
+        <v>-38.21586519266767</v>
       </c>
       <c r="M23">
-        <v>-4.827580859009797</v>
+        <v>-8.1310351473761</v>
       </c>
       <c r="N23">
-        <v>-21.32012939372705</v>
+        <v>-5.94181391692794</v>
       </c>
       <c r="O23" s="2">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Acquired</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2031,19 +2003,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAREL IR</t>
+          <t>JBT US</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Marel Hf</t>
+          <t>John Bean Technologies Corp</t>
         </is>
       </c>
       <c r="D24" s="2">
@@ -2056,31 +2023,31 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I24">
-        <v>-92.04156730707801</v>
+        <v>0.5632581172973314</v>
       </c>
       <c r="J24">
-        <v>-21.80351804505984</v>
+        <v>0.00451400959526632</v>
       </c>
       <c r="K24">
-        <v>-16.91963233290279</v>
+        <v>0.009387258423011928</v>
       </c>
       <c r="L24">
-        <v>-92.04156730707801</v>
+        <v>164.078195321162</v>
       </c>
       <c r="M24">
-        <v>-21.80351804505984</v>
+        <v>1.313890508665291</v>
       </c>
       <c r="N24">
-        <v>-16.91963233290279</v>
+        <v>2.94467221333532</v>
       </c>
       <c r="O24" s="2">
         <v>45646</v>
@@ -2091,91 +2058,114 @@
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45649</v>
-      </c>
-      <c r="W24" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JBT US</t>
+          <t>020560 KS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>John Bean Tech</t>
+          <t>Asiana Airlines</t>
         </is>
       </c>
       <c r="D25" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>7.562020168108501e-05</v>
       </c>
       <c r="I25">
-        <v>163.5149372038647</v>
+        <v>2.014851167715062</v>
       </c>
       <c r="J25">
-        <v>1.309376499070025</v>
+        <v>0.2863119437000318</v>
       </c>
       <c r="K25">
-        <v>2.935284954912308</v>
+        <v>0.9090546502255137</v>
       </c>
       <c r="L25">
-        <v>164.078195321162</v>
+        <v>2.014851167715062</v>
       </c>
       <c r="M25">
-        <v>1.313890508665291</v>
+        <v>0.2863119437000318</v>
       </c>
       <c r="N25">
-        <v>2.94467221333532</v>
+        <v>0.9090546502255137</v>
       </c>
       <c r="O25" s="2">
-        <v>45646</v>
+        <v>45642</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AJG US</t>
+          <t>BORR NO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Arthur J Gallagh (FN)</t>
+          <t>Borr Drilling</t>
         </is>
       </c>
       <c r="D26" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2184,62 +2174,70 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>-0.0001021870253659572</v>
       </c>
       <c r="I26">
-        <v>1123.589041069923</v>
+        <v>-17.18164076952931</v>
       </c>
       <c r="J26">
-        <v>3.9688768670785</v>
+        <v>-4.489366647000002</v>
       </c>
       <c r="K26">
-        <v>1.549896628207744</v>
+        <v>-5.25771244477013</v>
       </c>
       <c r="L26">
-        <v>1123.589041069923</v>
+        <v>-43.01308105736324</v>
       </c>
       <c r="M26">
-        <v>3.9688768670785</v>
+        <v>-11.88539434199999</v>
       </c>
       <c r="N26">
-        <v>1.549896628207744</v>
+        <v>-12.03859228263839</v>
       </c>
       <c r="O26" s="2">
-        <v>45646</v>
+        <v>45637</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45649</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHWY US</t>
+          <t>BORR NO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Chewy Inc- Cl A (CD)</t>
+          <t>Borr Drilling Ltd</t>
         </is>
       </c>
       <c r="D27" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2248,49 +2246,44 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I27">
-        <v>47.49765275684293</v>
+        <v>-25.83144028783392</v>
       </c>
       <c r="J27">
-        <v>1.408589939408153</v>
+        <v>-7.396027694999993</v>
       </c>
       <c r="K27">
-        <v>0.2219856812079652</v>
+        <v>-6.780879837868259</v>
       </c>
       <c r="L27">
-        <v>47.49765275684293</v>
+        <v>-43.01308105736324</v>
       </c>
       <c r="M27">
-        <v>1.408589939408153</v>
+        <v>-11.88539434199999</v>
       </c>
       <c r="N27">
-        <v>0.2219856812079652</v>
+        <v>-12.03859228263839</v>
       </c>
       <c r="O27" s="2">
         <v>45646</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q27" s="2">
-        <v>45649</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2299,16 +2292,16 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>CUZ US</t>
+          <t>JBT US</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cousins Prop (RE)</t>
+          <t>John Bean Technologies</t>
         </is>
       </c>
       <c r="D28" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2317,62 +2310,75 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>0.0002426078402114301</v>
       </c>
       <c r="I28">
-        <v>26.72015590594468</v>
+        <v>25.16001622849801</v>
       </c>
       <c r="J28">
-        <v>0.8836030392177475</v>
+        <v>0.1974263671413842</v>
       </c>
       <c r="K28">
-        <v>0.6502844077207006</v>
+        <v>0.4105645521480694</v>
       </c>
       <c r="L28">
-        <v>26.72015590594468</v>
+        <v>25.16001622849801</v>
       </c>
       <c r="M28">
-        <v>0.8836030392177475</v>
+        <v>0.1974263671413842</v>
       </c>
       <c r="N28">
-        <v>0.6502844077207006</v>
+        <v>0.4105645521480694</v>
       </c>
       <c r="O28" s="2">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ORA US</t>
+          <t>VASTN NA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ormat Technologi (UT)</t>
+          <t>Vastned Retail</t>
         </is>
       </c>
       <c r="D29" s="2">
-        <v>45653</v>
+        <v>45657</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2381,62 +2387,61 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I29">
-        <v>26.30192057469179</v>
-      </c>
-      <c r="J29">
-        <v>0.3895426625398666</v>
-      </c>
-      <c r="K29">
-        <v>0.5538027340604662</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>-2.98503575636324e-05</v>
       </c>
       <c r="L29">
-        <v>26.30192057469179</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0.3895426625398666</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0.5538027340604662</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>45646</v>
+        <v>45639</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45649</v>
-      </c>
-      <c r="T29" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JBT US</t>
+          <t>VASTB BB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>John Bean Technologies Corp</t>
+          <t>Vastned Belgium</t>
         </is>
       </c>
       <c r="D30" s="2">
-        <v>45653</v>
+        <v>45657</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2445,49 +2450,47 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>3.329736455529341e-05</v>
       </c>
       <c r="I30">
-        <v>0.5632581172973314</v>
+        <v>0.1031619925159331</v>
       </c>
       <c r="J30">
-        <v>0.00451400959526632</v>
+        <v>0.003635253686399992</v>
       </c>
       <c r="K30">
-        <v>0.009387258423011928</v>
+        <v>1.537170149435491</v>
       </c>
       <c r="L30">
-        <v>164.078195321162</v>
+        <v>0.01237579447247585</v>
       </c>
       <c r="M30">
-        <v>1.313890508665291</v>
+        <v>0.0002795231965236843</v>
       </c>
       <c r="N30">
-        <v>2.94467221333532</v>
+        <v>-0.3243839458555018</v>
       </c>
       <c r="O30" s="2">
-        <v>45646</v>
+        <v>45639</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Acquisition &amp; Name Change</t>
         </is>
       </c>
       <c r="Q30" s="2">
-        <v>45649</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="V30" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2501,16 +2504,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BORR NO</t>
+          <t>VASTN NA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Borr Drilling</t>
+          <t>Vastned Retail Nv</t>
         </is>
       </c>
       <c r="D31" s="2">
-        <v>45656</v>
+        <v>45657</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2519,7 +2522,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2527,37 +2530,25 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H31">
-        <v>-0.0001021870253659572</v>
-      </c>
-      <c r="I31">
-        <v>-17.18164076952931</v>
-      </c>
-      <c r="J31">
-        <v>-4.489366647000002</v>
-      </c>
-      <c r="K31">
-        <v>-5.25771244477013</v>
-      </c>
       <c r="L31">
-        <v>-43.01308105736324</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-11.88539434199999</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>-12.03859228263839</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>45637</v>
+        <v>45649</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Reverse Merger</t>
         </is>
       </c>
       <c r="Q31" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -2573,16 +2564,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BORR NO</t>
+          <t>VASTB BB</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Borr Drilling Ltd</t>
+          <t>Vastned Belgium Nv</t>
         </is>
       </c>
       <c r="D32" s="2">
-        <v>45656</v>
+        <v>45657</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2596,39 +2587,44 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="I32">
-        <v>-25.83144028783392</v>
+        <v>-0.03509297137300228</v>
       </c>
       <c r="J32">
-        <v>-7.396027694999993</v>
+        <v>-0.001297000127989002</v>
       </c>
       <c r="K32">
-        <v>-6.780879837868259</v>
+        <v>-0.7194963681186044</v>
       </c>
       <c r="L32">
-        <v>-43.01308105736324</v>
+        <v>0.01237579447247585</v>
       </c>
       <c r="M32">
-        <v>-11.88539434199999</v>
+        <v>0.0002795231965236843</v>
       </c>
       <c r="N32">
-        <v>-12.03859228263839</v>
+        <v>-0.3243839458555018</v>
       </c>
       <c r="O32" s="2">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Reverse Merger</t>
         </is>
       </c>
       <c r="Q32" s="2">
-        <v>45649</v>
-      </c>
-      <c r="W32" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2647,7 +2643,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Vastned Retail</t>
+          <t>Vastned Retail Nv</t>
         </is>
       </c>
       <c r="D33" s="2">
@@ -2660,16 +2656,13 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
-      </c>
-      <c r="H33">
-        <v>-2.98503575636324e-05</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2681,15 +2674,15 @@
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>45639</v>
+        <v>45649</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Reverse Merger</t>
         </is>
       </c>
       <c r="Q33" s="2">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -2710,7 +2703,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vastned Belgium</t>
+          <t>Vastned Belgium Nv</t>
         </is>
       </c>
       <c r="D34" s="2">
@@ -2723,47 +2716,49 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE EPRA Nareit</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="H34">
-        <v>3.329736455529341e-05</v>
+          <t>S Inc &amp; F Inc</t>
+        </is>
       </c>
       <c r="I34">
-        <v>0.1031619925159331</v>
+        <v>-0.055693226670455</v>
       </c>
       <c r="J34">
-        <v>0.003635253686399992</v>
+        <v>-0.002058730361887305</v>
       </c>
       <c r="K34">
-        <v>1.537170149435491</v>
+        <v>-1.142057727172388</v>
       </c>
       <c r="L34">
-        <v>0.1031619925159331</v>
+        <v>0.01237579447247585</v>
       </c>
       <c r="M34">
-        <v>0.003635253686399992</v>
+        <v>0.0002795231965236843</v>
       </c>
       <c r="N34">
-        <v>1.537170149435491</v>
+        <v>-0.3243839458555018</v>
       </c>
       <c r="O34" s="2">
-        <v>45639</v>
+        <v>45649</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Acquisition &amp; Name Change</t>
+          <t>Reverse Merger</t>
         </is>
       </c>
       <c r="Q34" s="2">
-        <v>45649</v>
-      </c>
-      <c r="V34" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2847,65 +2842,69 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>JBT US</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ITC (DET)               </t>
+          <t>John Bean Tech (ID)</t>
         </is>
       </c>
       <c r="D36" s="2">
-        <v>45663</v>
+        <v>45660</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>S&amp;P 600</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I36">
+        <v>191.8682990031967</v>
+      </c>
+      <c r="J36">
+        <v>1.505557901782774</v>
+      </c>
+      <c r="K36">
+        <v>3.130932887174929</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>191.8682990031967</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1.505557901782774</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>3.130932887174929</v>
       </c>
       <c r="O36" s="2">
-        <v>45645</v>
+        <v>45649</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q36" s="2">
-        <v>45649</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2919,16 +2918,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>018880 KS</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hanon Systems</t>
+          <t xml:space="preserve"> ITC (DET)               </t>
         </is>
       </c>
       <c r="D37" s="2">
-        <v>45666</v>
+        <v>45663</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2937,52 +2936,40 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H37">
-        <v>2.03098351779087e-05</v>
-      </c>
-      <c r="I37">
-        <v>0.5447067368751124</v>
-      </c>
-      <c r="J37">
-        <v>0.1909117008815375</v>
-      </c>
-      <c r="K37">
-        <v>0.1606716833569298</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L37">
-        <v>0.5447067368751124</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>0.1909117008815375</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>0.1606716833569298</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>45636</v>
+        <v>45645</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Spin-Off</t>
         </is>
       </c>
       <c r="Q37" s="2">
-        <v>45649</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
+        <v>45650</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2991,70 +2978,342 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>018880 KS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Hanon Systems</t>
+        </is>
+      </c>
+      <c r="D38" s="2">
+        <v>45666</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H38">
+        <v>2.03098351779087e-05</v>
+      </c>
+      <c r="I38">
+        <v>0.5447067368751124</v>
+      </c>
+      <c r="J38">
+        <v>0.1909117008815375</v>
+      </c>
+      <c r="K38">
+        <v>0.1606716833569298</v>
+      </c>
+      <c r="L38">
+        <v>0.5447067368751124</v>
+      </c>
+      <c r="M38">
+        <v>0.1909117008815375</v>
+      </c>
+      <c r="N38">
+        <v>0.1606716833569298</v>
+      </c>
+      <c r="O38" s="2">
+        <v>45636</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q38" s="2">
+        <v>45650</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9058 JP</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Trancom Co Ltd</t>
+        </is>
+      </c>
+      <c r="D39" s="2">
+        <v>45671</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I39">
+        <v>-3.700288390580433</v>
+      </c>
+      <c r="J39">
+        <v>-0.05668480679999885</v>
+      </c>
+      <c r="K39">
+        <v>-2.621868954671547</v>
+      </c>
+      <c r="L39">
+        <v>-3.700288390580433</v>
+      </c>
+      <c r="M39">
+        <v>-0.05668480679999885</v>
+      </c>
+      <c r="N39">
+        <v>-2.621868954671547</v>
+      </c>
+      <c r="O39" s="2">
+        <v>45650</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q39" s="2">
+        <v>45650</v>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>**Restricted**</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>**Restricted**</t>
         </is>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>45673</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H38">
+      <c r="H40">
         <v>-0.0004757285907927726</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <v>-78.32108023960316</v>
       </c>
-      <c r="J38">
+      <c r="J40">
         <v>-4.729218978</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <v>-3.860032336578581</v>
       </c>
-      <c r="L38">
+      <c r="L40">
         <v>-78.32108023960316</v>
       </c>
-      <c r="M38">
+      <c r="M40">
         <v>-4.729218978</v>
       </c>
-      <c r="N38">
+      <c r="N40">
         <v>-3.860032336578581</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O40" s="2">
         <v>45643</v>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q38" s="2">
-        <v>45649</v>
-      </c>
-      <c r="W38" t="inlineStr">
+      <c r="Q40" s="2">
+        <v>45650</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SPEX SE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Spexis Ag</t>
+        </is>
+      </c>
+      <c r="D41" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SPI</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I41">
+        <v>-0.02111177412148012</v>
+      </c>
+      <c r="J41">
+        <v>-0.6298346523589999</v>
+      </c>
+      <c r="L41">
+        <v>-0.05565831359299304</v>
+      </c>
+      <c r="M41">
+        <v>-1.660473174401</v>
+      </c>
+      <c r="O41" s="2">
+        <v>45645</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q41" s="2">
+        <v>45650</v>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SPEX SE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Spexis Ag</t>
+        </is>
+      </c>
+      <c r="D42" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SPI Extra</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I42">
+        <v>-0.03454653947151293</v>
+      </c>
+      <c r="J42">
+        <v>-1.030638522042</v>
+      </c>
+      <c r="L42">
+        <v>-0.05565831359299304</v>
+      </c>
+      <c r="M42">
+        <v>-1.660473174401</v>
+      </c>
+      <c r="O42" s="2">
+        <v>45645</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q42" s="2">
+        <v>45650</v>
+      </c>
+      <c r="W42" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,62 +506,65 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6640 JP</t>
+          <t>PDN AU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I-Pex Inc</t>
+          <t>Paladin Energy</t>
         </is>
       </c>
       <c r="D2" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>5.831101598363972e-05</v>
+      </c>
+      <c r="I2">
+        <v>11.68855136393085</v>
+      </c>
+      <c r="J2">
+        <v>2.488570926340211</v>
+      </c>
+      <c r="K2">
+        <v>0.7341675176906792</v>
+      </c>
+      <c r="L2">
+        <v>11.68855136393085</v>
+      </c>
+      <c r="M2">
+        <v>2.488570926340211</v>
+      </c>
+      <c r="N2">
+        <v>0.7341675176906792</v>
+      </c>
+      <c r="O2" s="2">
         <v>45650</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I2">
-        <v>-4.453185782471279</v>
-      </c>
-      <c r="J2">
-        <v>-0.235889505896</v>
-      </c>
-      <c r="K2">
-        <v>-0.9991930951202981</v>
-      </c>
-      <c r="L2">
-        <v>-4.453185782471279</v>
-      </c>
-      <c r="M2">
-        <v>-0.235889505896</v>
-      </c>
-      <c r="N2">
-        <v>-0.9991930951202981</v>
-      </c>
-      <c r="O2" s="2">
-        <v>45646</v>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W2" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -575,16 +578,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7518 JP</t>
+          <t>020560 KS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Net One Systems Co Ltd</t>
+          <t>Asiana Airlines</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -593,42 +596,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>7.562020168108501e-05</v>
       </c>
       <c r="I3">
-        <v>-71.40394228656496</v>
+        <v>2.014851167715062</v>
       </c>
       <c r="J3">
-        <v>-2.499616406609998</v>
+        <v>0.2863119437000318</v>
       </c>
       <c r="K3">
-        <v>-2.659392721306067</v>
+        <v>0.9090546502255137</v>
       </c>
       <c r="L3">
-        <v>-121.4547862695155</v>
+        <v>2.014851167715062</v>
       </c>
       <c r="M3">
-        <v>-4.24592163495263</v>
+        <v>0.2863119437000318</v>
       </c>
       <c r="N3">
-        <v>-4.565412911484719</v>
+        <v>0.9090546502255137</v>
       </c>
       <c r="O3" s="2">
-        <v>45646</v>
+        <v>45642</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45650</v>
+        <v>45656</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -644,16 +655,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7518 JP</t>
+          <t>ADE IN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Net One Systems</t>
+          <t>Adani Enterprises Ltd.</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -662,47 +673,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>S Inc &amp; F Inc</t>
         </is>
       </c>
       <c r="H4">
-        <v>-0.0002160758652551688</v>
+        <v>0.0003038555532146594</v>
       </c>
       <c r="I4">
-        <v>-50.0508439829505</v>
+        <v>13.28231238351096</v>
       </c>
       <c r="J4">
-        <v>-1.746305228342632</v>
+        <v>0.4719748810766745</v>
       </c>
       <c r="K4">
-        <v>-1.906020190178653</v>
+        <v>0.1674305077020978</v>
       </c>
       <c r="L4">
-        <v>-121.4547862695155</v>
+        <v>13.28231238351096</v>
       </c>
       <c r="M4">
-        <v>-4.24592163495263</v>
+        <v>0.4719748810766745</v>
       </c>
       <c r="N4">
-        <v>-4.565412911484719</v>
+        <v>0.1674305077020978</v>
       </c>
       <c r="O4" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45650</v>
-      </c>
-      <c r="U4" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -716,16 +732,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIRET IN</t>
+          <t>HDFCB IN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brookfield India</t>
+          <t>Hdfc Bank Ltd.</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -734,7 +750,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -743,36 +759,36 @@
         </is>
       </c>
       <c r="H5">
-        <v>0.0002113375936373213</v>
+        <v>0.0002439433735368923</v>
       </c>
       <c r="I5">
-        <v>6.492906037342504</v>
+        <v>10.66339600157153</v>
       </c>
       <c r="J5">
-        <v>2.007078502380962</v>
+        <v>0.5078813708606815</v>
       </c>
       <c r="K5">
-        <v>5.057911711974312</v>
+        <v>0.04343323922259274</v>
       </c>
       <c r="L5">
-        <v>6.492906037342504</v>
+        <v>-53.40219456148042</v>
       </c>
       <c r="M5">
-        <v>2.007078502380962</v>
+        <v>-2.54346549418744</v>
       </c>
       <c r="N5">
-        <v>5.057911711974312</v>
+        <v>-0.2175132847976753</v>
       </c>
       <c r="O5" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -788,21 +804,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALMARAI AB</t>
+          <t>ICICIBC IN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Almarai Co</t>
+          <t>Icici Bank Ltd.</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -811,40 +827,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>8.308251686450774e-05</v>
+      </c>
+      <c r="I6">
+        <v>3.631751767995893</v>
+      </c>
+      <c r="J6">
+        <v>0.2387595075114387</v>
+      </c>
+      <c r="K6">
+        <v>0.01800621331112884</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.57928360898422</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9584748068482523</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0722840401428865</v>
       </c>
       <c r="O6" s="2">
-        <v>45645</v>
+        <v>45652</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45650</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -858,16 +886,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2363 TT</t>
+          <t>HCLT IN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Silicon Integrated Systems</t>
+          <t>Hcl Technologies Ltd.</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45651</v>
+        <v>45656</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -876,180 +904,201 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FTSE EM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>3.242727039580104e-05</v>
       </c>
       <c r="I7">
-        <v>1.483705279235078</v>
+        <v>1.417479886692514</v>
       </c>
       <c r="J7">
-        <v>0.6809832888365304</v>
+        <v>0.06360533559604828</v>
       </c>
       <c r="K7">
-        <v>0.07245669317162756</v>
+        <v>0.02558362190098049</v>
       </c>
       <c r="L7">
-        <v>1.483705279235078</v>
+        <v>1.417479886692514</v>
       </c>
       <c r="M7">
-        <v>0.6809832888365304</v>
+        <v>0.06360533559604828</v>
       </c>
       <c r="N7">
-        <v>0.07245669317162756</v>
+        <v>0.02558362190098049</v>
       </c>
       <c r="O7" s="2">
-        <v>45645</v>
+        <v>45652</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45650</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CNSL US</t>
+          <t>RELIANCE IN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Consolidated Commu</t>
+          <t>Reliance Industries Ltd.</t>
         </is>
       </c>
       <c r="D8" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>3.11593744203309e-05</v>
+      </c>
+      <c r="I8">
+        <v>1.362056873231596</v>
+      </c>
+      <c r="J8">
+        <v>0.09549200328049681</v>
+      </c>
+      <c r="K8">
+        <v>0.006184899503514795</v>
+      </c>
+      <c r="L8">
+        <v>1.362056873231596</v>
+      </c>
+      <c r="M8">
+        <v>0.09549200328049681</v>
+      </c>
+      <c r="N8">
+        <v>0.006184899503514795</v>
+      </c>
+      <c r="O8" s="2">
         <v>45652</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>-4.535210422756729e-05</v>
-      </c>
-      <c r="I8">
-        <v>-4.705317669065001</v>
-      </c>
-      <c r="J8">
-        <v>-1.00113141895</v>
-      </c>
-      <c r="K8">
-        <v>-0.7315841697856305</v>
-      </c>
-      <c r="L8">
-        <v>-36.21435778309164</v>
-      </c>
-      <c r="M8">
-        <v>-7.705182507040773</v>
-      </c>
-      <c r="N8">
-        <v>-5.630618958470345</v>
-      </c>
-      <c r="O8" s="2">
-        <v>45649</v>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W8" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CNSL US</t>
+          <t>INFO IN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Consolidated Com</t>
+          <t>Infosys Ltd.</t>
         </is>
       </c>
       <c r="D9" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>1.907998805528166e-05</v>
+      </c>
+      <c r="I9">
+        <v>0.8340356427347412</v>
+      </c>
+      <c r="J9">
+        <v>0.03729447076018181</v>
+      </c>
+      <c r="K9">
+        <v>0.007038926459337059</v>
+      </c>
+      <c r="L9">
+        <v>0.8340356427347412</v>
+      </c>
+      <c r="M9">
+        <v>0.03729447076018181</v>
+      </c>
+      <c r="N9">
+        <v>0.007038926459337059</v>
+      </c>
+      <c r="O9" s="2">
         <v>45652</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Russell 2000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>-31.50904011402663</v>
-      </c>
-      <c r="J9">
-        <v>-6.704051088090773</v>
-      </c>
-      <c r="K9">
-        <v>-4.899034788684714</v>
-      </c>
-      <c r="L9">
-        <v>-36.21435778309164</v>
-      </c>
-      <c r="M9">
-        <v>-7.705182507040773</v>
-      </c>
-      <c r="N9">
-        <v>-5.630618958470345</v>
-      </c>
-      <c r="O9" s="2">
-        <v>45649</v>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W9" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1063,70 +1112,65 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>018880 KS</t>
+          <t>BJFIN IN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hanon Systems</t>
+          <t>Bajaj Finserv Ltd.</t>
         </is>
       </c>
       <c r="D10" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H10">
-        <v>2.048582091539132e-05</v>
+        <v>7.010659574601535e-06</v>
       </c>
       <c r="I10">
-        <v>0.5376098474253072</v>
+        <v>0.3064540683859953</v>
       </c>
       <c r="J10">
-        <v>0.1911303059057406</v>
+        <v>0.01676244673151644</v>
       </c>
       <c r="K10">
-        <v>0.1522248348417269</v>
+        <v>0.01111699307445868</v>
       </c>
       <c r="L10">
-        <v>0.5376098474253072</v>
+        <v>0.3064540683859953</v>
       </c>
       <c r="M10">
-        <v>0.1911303059057406</v>
+        <v>0.01676244673151644</v>
       </c>
       <c r="N10">
-        <v>0.1522248348417269</v>
+        <v>0.01111699307445868</v>
       </c>
       <c r="O10" s="2">
-        <v>45636</v>
+        <v>45652</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45639</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1140,16 +1184,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HPI AU</t>
+          <t>WPRO IN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hotel Property Investments</t>
+          <t>Wipro Ltd.</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1158,44 +1202,52 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>6.592925411934292e-06</v>
       </c>
       <c r="I11">
-        <v>-7.136277602829039</v>
+        <v>0.2881938273500482</v>
       </c>
       <c r="J11">
-        <v>-3.022701401600003</v>
+        <v>0.08057782059169438</v>
       </c>
       <c r="K11">
-        <v>-2.88492874447868</v>
+        <v>0.006843481538465634</v>
       </c>
       <c r="L11">
-        <v>-14.54417822860313</v>
+        <v>0.2881938273500482</v>
       </c>
       <c r="M11">
-        <v>-6.160453721600006</v>
+        <v>0.08057782059169438</v>
       </c>
       <c r="N11">
-        <v>-5.879664465390803</v>
+        <v>0.006843481538465634</v>
       </c>
       <c r="O11" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45650</v>
-      </c>
-      <c r="U11" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1209,16 +1261,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HPI AU</t>
+          <t>HDFCLIFE IN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hotel Property Investments</t>
+          <t>Hdfc Life Insurance Company Ltd.</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1227,44 +1279,52 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>F Dec</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>6.199565500265673e-06</v>
       </c>
       <c r="I12">
-        <v>-7.407900625774086</v>
+        <v>0.27099904788771</v>
       </c>
       <c r="J12">
-        <v>-3.137752320000003</v>
+        <v>0.03689928473517657</v>
       </c>
       <c r="K12">
-        <v>-2.994735720912123</v>
+        <v>0.007446914926566055</v>
       </c>
       <c r="L12">
-        <v>-14.54417822860313</v>
+        <v>0.27099904788771</v>
       </c>
       <c r="M12">
-        <v>-6.160453721600006</v>
+        <v>0.03689928473517657</v>
       </c>
       <c r="N12">
-        <v>-5.879664465390803</v>
+        <v>0.007446914926566055</v>
       </c>
       <c r="O12" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45650</v>
-      </c>
-      <c r="U12" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1273,21 +1333,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LRE SM</t>
+          <t>BHARTI IN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lar Espana Real Estate Socim</t>
+          <t>Bharti Airtel Ltd.</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1296,44 +1356,52 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>2.281224154555839e-06</v>
       </c>
       <c r="I13">
-        <v>-15.39157332400192</v>
+        <v>0.09971820990948251</v>
       </c>
       <c r="J13">
-        <v>-1.865874810537529</v>
+        <v>0.005317309128236928</v>
       </c>
       <c r="K13">
-        <v>-8.240295409845425</v>
+        <v>0.0007079614104558008</v>
       </c>
       <c r="L13">
-        <v>-50.04879592801555</v>
+        <v>0.09971820990948251</v>
       </c>
       <c r="M13">
-        <v>-6.032759612609797</v>
+        <v>0.005317309128236928</v>
       </c>
       <c r="N13">
-        <v>-27.08612108618932</v>
+        <v>0.0007079614104558008</v>
       </c>
       <c r="O13" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W13" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1342,21 +1410,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LRE SM</t>
+          <t>AXSB IN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lar Espana Real Estate Socim</t>
+          <t>Axis Bank Ltd.</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1365,44 +1433,52 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>9.834064988653579e-07</v>
       </c>
       <c r="I14">
-        <v>-24.43106876825701</v>
+        <v>0.04298724239104785</v>
       </c>
       <c r="J14">
-        <v>-2.961706048472267</v>
+        <v>0.003405232178303964</v>
       </c>
       <c r="K14">
-        <v>-13.07983398388162</v>
+        <v>0.0004284525673447496</v>
       </c>
       <c r="L14">
-        <v>-50.04879592801555</v>
+        <v>9.739920230287231</v>
       </c>
       <c r="M14">
-        <v>-6.032759612609797</v>
+        <v>0.7715472762959749</v>
       </c>
       <c r="N14">
-        <v>-27.08612108618932</v>
+        <v>0.09707749546802008</v>
       </c>
       <c r="O14" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W14" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1411,21 +1487,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LRE SM</t>
+          <t>JSTL IN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lar Espana Real Est Soc</t>
+          <t>Jsw Steel Ltd.</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1434,47 +1510,47 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H15">
-        <v>-5.333622131202427e-05</v>
+        <v>1.179750197047302e-07</v>
       </c>
       <c r="I15">
-        <v>-10.22615383575663</v>
+        <v>0.005156993343024706</v>
       </c>
       <c r="J15">
-        <v>-1.2051787536</v>
+        <v>0.0004809923680043787</v>
       </c>
       <c r="K15">
-        <v>-5.765991692462263</v>
+        <v>0.0001462619943593604</v>
       </c>
       <c r="L15">
-        <v>-50.04879592801555</v>
+        <v>0.005156993343024706</v>
       </c>
       <c r="M15">
-        <v>-6.032759612609797</v>
+        <v>0.0004809923680043787</v>
       </c>
       <c r="N15">
-        <v>-27.08612108618932</v>
+        <v>0.0001462619943593604</v>
       </c>
       <c r="O15" s="2">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W15" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1483,21 +1559,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAREL IR</t>
+          <t>SBILIFE IN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Marel Hf</t>
+          <t>Sbi Life Insurance Company Ltd.</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1506,62 +1582,75 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>-4.836137424768863e-07</v>
       </c>
       <c r="I16">
-        <v>-92.04156730707801</v>
+        <v>-0.0211400079168503</v>
       </c>
       <c r="J16">
-        <v>-21.80351804505984</v>
+        <v>-0.001279618119291979</v>
       </c>
       <c r="K16">
-        <v>-16.91963233290279</v>
+        <v>-0.0004787470590516106</v>
       </c>
       <c r="L16">
-        <v>-92.04156730707801</v>
+        <v>-0.0211400079168503</v>
       </c>
       <c r="M16">
-        <v>-21.80351804505984</v>
+        <v>-0.001279618119291979</v>
       </c>
       <c r="N16">
-        <v>-16.91963233290279</v>
+        <v>-0.0004787470590516106</v>
       </c>
       <c r="O16" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W16" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JBT US</t>
+          <t>BAF IN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>John Bean Tech</t>
+          <t>Bajaj Finance Ltd.</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1570,62 +1659,75 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>-8.690678199446689e-07</v>
       </c>
       <c r="I17">
-        <v>163.5149372038647</v>
+        <v>-0.03798920291184282</v>
       </c>
       <c r="J17">
-        <v>1.309376499070025</v>
+        <v>-0.0004753880226464491</v>
       </c>
       <c r="K17">
-        <v>2.935284954912308</v>
+        <v>-0.0004266477802326691</v>
       </c>
       <c r="L17">
-        <v>164.078195321162</v>
+        <v>-0.03798920291184282</v>
       </c>
       <c r="M17">
-        <v>1.313890508665291</v>
+        <v>-0.0004753880226464491</v>
       </c>
       <c r="N17">
-        <v>2.94467221333532</v>
+        <v>-0.0004266477802326691</v>
       </c>
       <c r="O17" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AJG US</t>
+          <t>EIM IN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Arthur J Gallagh (FN)</t>
+          <t>Eicher Motors Ltd.</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1634,62 +1736,75 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>S&amp;P 500</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>-1.136071900904173e-06</v>
       </c>
       <c r="I18">
-        <v>1123.589041069923</v>
+        <v>-0.04966064209884034</v>
       </c>
       <c r="J18">
-        <v>3.9688768670785</v>
+        <v>-0.0008821667500771901</v>
       </c>
       <c r="K18">
-        <v>1.549896628207744</v>
+        <v>-0.00225131154961555</v>
       </c>
       <c r="L18">
-        <v>1123.589041069923</v>
+        <v>-0.04966064209884034</v>
       </c>
       <c r="M18">
-        <v>3.9688768670785</v>
+        <v>-0.0008821667500771901</v>
       </c>
       <c r="N18">
-        <v>1.549896628207744</v>
+        <v>-0.00225131154961555</v>
       </c>
       <c r="O18" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHWY US</t>
+          <t>CIPLA IN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chewy Inc- Cl A (CD)</t>
+          <t>Cipla Ltd.</t>
         </is>
       </c>
       <c r="D19" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1698,7 +1813,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1706,34 +1821,37 @@
           <t>S Inc &amp; F Inc</t>
         </is>
       </c>
+      <c r="H19">
+        <v>-1.946216929291436e-06</v>
+      </c>
       <c r="I19">
-        <v>47.49765275684293</v>
+        <v>-0.08507417734328636</v>
       </c>
       <c r="J19">
-        <v>1.408589939408153</v>
+        <v>-0.004868027114917814</v>
       </c>
       <c r="K19">
-        <v>0.2219856812079652</v>
+        <v>-0.001749310005587057</v>
       </c>
       <c r="L19">
-        <v>47.49765275684293</v>
+        <v>-0.08507417734328636</v>
       </c>
       <c r="M19">
-        <v>1.408589939408153</v>
+        <v>-0.004868027114917814</v>
       </c>
       <c r="N19">
-        <v>0.2219856812079652</v>
+        <v>-0.001749310005587057</v>
       </c>
       <c r="O19" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1747,18 +1865,23 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CUZ US</t>
+          <t>TECHM IN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cousins Prop (RE)</t>
+          <t>Tech Mahindra Ltd.</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1767,62 +1890,75 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>-1.968131837717588e-06</v>
       </c>
       <c r="I20">
-        <v>26.72015590594468</v>
+        <v>-0.08603213469010025</v>
       </c>
       <c r="J20">
-        <v>0.8836030392177475</v>
+        <v>-0.004319621716875241</v>
       </c>
       <c r="K20">
-        <v>0.6502844077207006</v>
+        <v>-0.002597434398139329</v>
       </c>
       <c r="L20">
-        <v>26.72015590594468</v>
+        <v>-0.08603213469010025</v>
       </c>
       <c r="M20">
-        <v>0.8836030392177475</v>
+        <v>-0.004319621716875241</v>
       </c>
       <c r="N20">
-        <v>0.6502844077207006</v>
+        <v>-0.002597434398139329</v>
       </c>
       <c r="O20" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORA US</t>
+          <t>BJAUT IN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ormat Technologi (UT)</t>
+          <t>Bajaj Auto Ltd.</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1831,7 +1967,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1839,34 +1975,37 @@
           <t>F Inc</t>
         </is>
       </c>
+      <c r="H21">
+        <v>-1.99569381789666e-06</v>
+      </c>
       <c r="I21">
-        <v>26.30192057469179</v>
+        <v>-0.08723694015366192</v>
       </c>
       <c r="J21">
-        <v>0.3895426625398666</v>
+        <v>-0.000838035666889138</v>
       </c>
       <c r="K21">
-        <v>0.5538027340604662</v>
+        <v>-0.001703771939479103</v>
       </c>
       <c r="L21">
-        <v>26.30192057469179</v>
+        <v>-0.08723694015366192</v>
       </c>
       <c r="M21">
-        <v>0.3895426625398666</v>
+        <v>-0.000838035666889138</v>
       </c>
       <c r="N21">
-        <v>0.5538027340604662</v>
+        <v>-0.001703771939479103</v>
       </c>
       <c r="O21" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Equity Offering</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -1875,18 +2014,23 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INSW US</t>
+          <t>HMCL IN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>International Se (EN)</t>
+          <t>Hero Motocorp Ltd.</t>
         </is>
       </c>
       <c r="D22" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1895,62 +2039,75 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>-2.492127542471148e-06</v>
       </c>
       <c r="I22">
-        <v>146.5625534046559</v>
+        <v>-0.1089373426565907</v>
       </c>
       <c r="J22">
-        <v>4.338737519379986</v>
+        <v>-0.002173413296901217</v>
       </c>
       <c r="K22">
-        <v>5.949597823349382</v>
+        <v>-0.003304192587764464</v>
       </c>
       <c r="L22">
-        <v>146.5625534046559</v>
+        <v>-0.1089373426565907</v>
       </c>
       <c r="M22">
-        <v>4.338737519379986</v>
+        <v>-0.002173413296901217</v>
       </c>
       <c r="N22">
-        <v>5.949597823349382</v>
+        <v>-0.003304192587764464</v>
       </c>
       <c r="O22" s="2">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Replacing CNSL</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45650</v>
-      </c>
-      <c r="V22" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CNSL US</t>
+          <t>DRRD IN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Consolidated Com (CM)</t>
+          <t>Dr. Reddy'S Laboratories Ltd.</t>
         </is>
       </c>
       <c r="D23" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1959,62 +2116,75 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>-2.711488518789516e-06</v>
       </c>
       <c r="I23">
-        <v>-38.21586519266767</v>
+        <v>-0.1185261784747538</v>
       </c>
       <c r="J23">
-        <v>-8.1310351473761</v>
+        <v>-0.007459825187540365</v>
       </c>
       <c r="K23">
-        <v>-5.94181391692794</v>
+        <v>-0.002717512735466655</v>
       </c>
       <c r="L23">
-        <v>-38.21586519266767</v>
+        <v>-0.1185261784747538</v>
       </c>
       <c r="M23">
-        <v>-8.1310351473761</v>
+        <v>-0.007459825187540365</v>
       </c>
       <c r="N23">
-        <v>-5.94181391692794</v>
+        <v>-0.002717512735466655</v>
       </c>
       <c r="O23" s="2">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Acquired</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W23" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JBT US</t>
+          <t>SHFL IN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>John Bean Technologies Corp</t>
+          <t>Shriram Finance Ltd.</t>
         </is>
       </c>
       <c r="D24" s="2">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2023,49 +2193,52 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>-3.133288796874217e-06</v>
       </c>
       <c r="I24">
-        <v>0.5632581172973314</v>
+        <v>-0.1369641599356848</v>
       </c>
       <c r="J24">
-        <v>0.00451400959526632</v>
+        <v>-0.003991175153115745</v>
       </c>
       <c r="K24">
-        <v>0.009387258423011928</v>
+        <v>-0.003034751860892461</v>
       </c>
       <c r="L24">
-        <v>164.078195321162</v>
+        <v>-0.1369641599356848</v>
       </c>
       <c r="M24">
-        <v>1.313890508665291</v>
+        <v>-0.003991175153115745</v>
       </c>
       <c r="N24">
-        <v>2.94467221333532</v>
+        <v>-0.003034751860892461</v>
       </c>
       <c r="O24" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2079,12 +2252,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>020560 KS</t>
+          <t>TATACONS IN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Asiana Airlines</t>
+          <t>Tata Consumer Products Ltd.</t>
         </is>
       </c>
       <c r="D25" s="2">
@@ -2092,57 +2265,52 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>S Inc</t>
         </is>
       </c>
       <c r="H25">
-        <v>7.562020168108501e-05</v>
+        <v>-3.347225872363246e-06</v>
       </c>
       <c r="I25">
-        <v>2.014851167715062</v>
+        <v>-0.1463159030155705</v>
       </c>
       <c r="J25">
-        <v>0.2863119437000318</v>
+        <v>-0.01385137031448286</v>
       </c>
       <c r="K25">
-        <v>0.9090546502255137</v>
+        <v>-0.008304890835654891</v>
       </c>
       <c r="L25">
-        <v>2.014851167715062</v>
+        <v>-0.1463159030155705</v>
       </c>
       <c r="M25">
-        <v>0.2863119437000318</v>
+        <v>-0.01385137031448286</v>
       </c>
       <c r="N25">
-        <v>0.9090546502255137</v>
+        <v>-0.008304890835654891</v>
       </c>
       <c r="O25" s="2">
-        <v>45642</v>
+        <v>45652</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q25" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="R25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2151,17 +2319,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BORR NO</t>
+          <t>IIB IN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Borr Drilling</t>
+          <t>Indusind Bank Ltd.</t>
         </is>
       </c>
       <c r="D26" s="2">
@@ -2174,47 +2342,52 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="H26">
-        <v>-0.0001021870253659572</v>
+        <v>-3.450716300399531e-06</v>
       </c>
       <c r="I26">
-        <v>-17.18164076952931</v>
+        <v>-0.1508397373814019</v>
       </c>
       <c r="J26">
-        <v>-4.489366647000002</v>
+        <v>-0.01380462968233024</v>
       </c>
       <c r="K26">
-        <v>-5.25771244477013</v>
+        <v>-0.002988530636633687</v>
       </c>
       <c r="L26">
-        <v>-43.01308105736324</v>
+        <v>24.75423901337811</v>
       </c>
       <c r="M26">
-        <v>-11.88539434199999</v>
+        <v>2.265471344487438</v>
       </c>
       <c r="N26">
-        <v>-12.03859228263839</v>
+        <v>0.4904463701827866</v>
       </c>
       <c r="O26" s="2">
-        <v>45637</v>
+        <v>45652</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q26" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W26" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2223,17 +2396,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BORR NO</t>
+          <t>APHS IN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Borr Drilling Ltd</t>
+          <t>Apollo Hospitals Enterprise Ltd.</t>
         </is>
       </c>
       <c r="D27" s="2">
@@ -2246,58 +2419,66 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H27">
+        <v>-4.572757296574838e-06</v>
       </c>
       <c r="I27">
-        <v>-25.83144028783392</v>
+        <v>-0.1998870523329828</v>
       </c>
       <c r="J27">
-        <v>-7.396027694999993</v>
+        <v>-0.002347907382538387</v>
       </c>
       <c r="K27">
-        <v>-6.780879837868259</v>
+        <v>-0.007118876842327296</v>
       </c>
       <c r="L27">
-        <v>-43.01308105736324</v>
+        <v>-0.1998870523329828</v>
       </c>
       <c r="M27">
-        <v>-11.88539434199999</v>
+        <v>-0.002347907382538387</v>
       </c>
       <c r="N27">
-        <v>-12.03859228263839</v>
+        <v>-0.007118876842327296</v>
       </c>
       <c r="O27" s="2">
-        <v>45646</v>
+        <v>45652</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q27" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W27" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JBT US</t>
+          <t>COAL IN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>John Bean Technologies</t>
+          <t>Coal India Ltd.</t>
         </is>
       </c>
       <c r="D28" s="2">
@@ -2310,52 +2491,47 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H28">
-        <v>0.0002426078402114301</v>
+        <v>-5.175274913230693e-06</v>
       </c>
       <c r="I28">
-        <v>25.16001622849801</v>
+        <v>-0.2262246562251123</v>
       </c>
       <c r="J28">
-        <v>0.1974263671413842</v>
+        <v>-0.04990914001608574</v>
       </c>
       <c r="K28">
-        <v>0.4105645521480694</v>
+        <v>-0.00726062756355206</v>
       </c>
       <c r="L28">
-        <v>25.16001622849801</v>
+        <v>-0.2262246562251123</v>
       </c>
       <c r="M28">
-        <v>0.1974263671413842</v>
+        <v>-0.04990914001608574</v>
       </c>
       <c r="N28">
-        <v>0.4105645521480694</v>
+        <v>-0.00726062756355206</v>
       </c>
       <c r="O28" s="2">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q28" s="2">
-        <v>45650</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="T28" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2364,21 +2540,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VASTN NA</t>
+          <t>ADSEZ IN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Vastned Retail</t>
+          <t>Adani Ports And Special Economic Zone Ltd.</t>
         </is>
       </c>
       <c r="D29" s="2">
-        <v>45657</v>
+        <v>45656</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2387,38 +2563,47 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H29">
-        <v>-2.98503575636324e-05</v>
+        <v>-5.690450471421485e-06</v>
+      </c>
+      <c r="I29">
+        <v>-0.2487443127653556</v>
+      </c>
+      <c r="J29">
+        <v>-0.01705500254479178</v>
+      </c>
+      <c r="K29">
+        <v>-0.003438297150032465</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-0.2487443127653556</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-0.01705500254479178</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-0.003438297150032465</v>
       </c>
       <c r="O29" s="2">
-        <v>45639</v>
+        <v>45652</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q29" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W29" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2427,21 +2612,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VASTB BB</t>
+          <t>NEST IN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Vastned Belgium</t>
+          <t>Nestle India Ltd.</t>
         </is>
       </c>
       <c r="D30" s="2">
-        <v>45657</v>
+        <v>45656</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2450,47 +2635,47 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>F Dec</t>
         </is>
       </c>
       <c r="H30">
-        <v>3.329736455529341e-05</v>
+        <v>-6.065706403443963e-06</v>
       </c>
       <c r="I30">
-        <v>0.1031619925159331</v>
+        <v>-0.2651477204377076</v>
       </c>
       <c r="J30">
-        <v>0.003635253686399992</v>
+        <v>-0.01051892571696954</v>
       </c>
       <c r="K30">
-        <v>1.537170149435491</v>
+        <v>-0.01056351431087574</v>
       </c>
       <c r="L30">
-        <v>0.01237579447247585</v>
+        <v>-0.2651477204377076</v>
       </c>
       <c r="M30">
-        <v>0.0002795231965236843</v>
+        <v>-0.01051892571696954</v>
       </c>
       <c r="N30">
-        <v>-0.3243839458555018</v>
+        <v>-0.01056351431087574</v>
       </c>
       <c r="O30" s="2">
-        <v>45639</v>
+        <v>45652</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Acquisition &amp; Name Change</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q30" s="2">
-        <v>45650</v>
-      </c>
-      <c r="V30" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2499,21 +2684,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VASTN NA</t>
+          <t>ONGC IN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vastned Retail Nv</t>
+          <t>Oil &amp; Natural Gas Corporation Ltd.</t>
         </is>
       </c>
       <c r="D31" s="2">
-        <v>45657</v>
+        <v>45656</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2522,35 +2707,47 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>-6.433963788302771e-06</v>
+      </c>
+      <c r="I31">
+        <v>-0.2812452035064933</v>
+      </c>
+      <c r="J31">
+        <v>-0.09984422384888503</v>
+      </c>
+      <c r="K31">
+        <v>-0.009695327120800474</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-0.2812452035064933</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-0.09984422384888503</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-0.009695327120800474</v>
       </c>
       <c r="O31" s="2">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Reverse Merger</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q31" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W31" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2559,21 +2756,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VASTB BB</t>
+          <t>TATA IN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Vastned Belgium Nv</t>
+          <t>Tata Steel Ltd.</t>
         </is>
       </c>
       <c r="D32" s="2">
-        <v>45657</v>
+        <v>45656</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2582,49 +2779,47 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>-7.365611117873816e-06</v>
       </c>
       <c r="I32">
-        <v>-0.03509297137300228</v>
+        <v>-0.3219699186933981</v>
       </c>
       <c r="J32">
-        <v>-0.001297000127989002</v>
+        <v>-0.1956467084490804</v>
       </c>
       <c r="K32">
-        <v>-0.7194963681186044</v>
+        <v>-0.006157454357249787</v>
       </c>
       <c r="L32">
-        <v>0.01237579447247585</v>
+        <v>-0.3219699186933981</v>
       </c>
       <c r="M32">
-        <v>0.0002795231965236843</v>
+        <v>-0.1956467084490804</v>
       </c>
       <c r="N32">
-        <v>-0.3243839458555018</v>
+        <v>-0.006157454357249787</v>
       </c>
       <c r="O32" s="2">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Reverse Merger</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q32" s="2">
-        <v>45650</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2633,21 +2828,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VASTN NA</t>
+          <t>APNT IN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Vastned Retail Nv</t>
+          <t>Asian Paints Ltd.</t>
         </is>
       </c>
       <c r="D33" s="2">
-        <v>45657</v>
+        <v>45656</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2656,35 +2851,47 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>-7.520437182696738e-06</v>
+      </c>
+      <c r="I33">
+        <v>-0.3287377665616745</v>
+      </c>
+      <c r="J33">
+        <v>-0.01239315633155234</v>
+      </c>
+      <c r="K33">
+        <v>-0.00806639203977127</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-0.3287377665616745</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-0.01239315633155234</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>-0.00806639203977127</v>
       </c>
       <c r="O33" s="2">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Reverse Merger</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q33" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W33" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2693,21 +2900,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VASTB BB</t>
+          <t>TTAN IN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vastned Belgium Nv</t>
+          <t>Titan Company Ltd.</t>
         </is>
       </c>
       <c r="D34" s="2">
-        <v>45657</v>
+        <v>45656</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2716,47 +2923,45 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FTSE EPRA Nareit</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H34">
+        <v>-8.21043914824883e-06</v>
       </c>
       <c r="I34">
-        <v>-0.055693226670455</v>
+        <v>-0.3588995376885788</v>
       </c>
       <c r="J34">
-        <v>-0.002058730361887305</v>
+        <v>-0.009211655253385751</v>
       </c>
       <c r="K34">
-        <v>-1.142057727172388</v>
+        <v>-0.008204349798210822</v>
       </c>
       <c r="L34">
-        <v>0.01237579447247585</v>
+        <v>-0.3588995376885788</v>
       </c>
       <c r="M34">
-        <v>0.0002795231965236843</v>
+        <v>-0.009211655253385751</v>
       </c>
       <c r="N34">
-        <v>-0.3243839458555018</v>
+        <v>-0.008204349798210822</v>
       </c>
       <c r="O34" s="2">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Reverse Merger</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q34" s="2">
-        <v>45650</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+        <v>45656</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -2772,88 +2977,88 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>020560 KS</t>
+          <t>PWGR IN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Asiana Airlines</t>
+          <t>Power Grid Corporation Of India Ltd.</t>
         </is>
       </c>
       <c r="D35" s="2">
-        <v>45660</v>
+        <v>45656</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H35">
-        <v>7.562020168108501e-05</v>
+        <v>-8.572688859429661e-06</v>
       </c>
       <c r="I35">
-        <v>2.014851167715062</v>
+        <v>-0.3747344097975026</v>
       </c>
       <c r="J35">
-        <v>0.2863119437000318</v>
+        <v>-0.1030013632746046</v>
       </c>
       <c r="K35">
-        <v>0.9090546502255137</v>
+        <v>-0.007737150923871543</v>
       </c>
       <c r="L35">
-        <v>2.014851167715062</v>
+        <v>-0.3747344097975026</v>
       </c>
       <c r="M35">
-        <v>0.2863119437000318</v>
+        <v>-0.1030013632746046</v>
       </c>
       <c r="N35">
-        <v>0.9090546502255137</v>
+        <v>-0.007737150923871543</v>
       </c>
       <c r="O35" s="2">
-        <v>45642</v>
+        <v>45652</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q35" s="2">
-        <v>45649</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JBT US</t>
+          <t>SBIN IN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>John Bean Tech (ID)</t>
+          <t>State Bank Of India</t>
         </is>
       </c>
       <c r="D36" s="2">
-        <v>45660</v>
+        <v>45656</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2862,49 +3067,52 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H36">
+        <v>-8.975230559978703e-06</v>
       </c>
       <c r="I36">
-        <v>191.8682990031967</v>
+        <v>-0.3923305490074546</v>
       </c>
       <c r="J36">
-        <v>1.505557901782774</v>
+        <v>-0.04118670506898783</v>
       </c>
       <c r="K36">
-        <v>3.130932887174929</v>
+        <v>-0.004108501964536555</v>
       </c>
       <c r="L36">
-        <v>191.8682990031967</v>
+        <v>-61.85984536447542</v>
       </c>
       <c r="M36">
-        <v>1.505557901782774</v>
+        <v>-6.494021974800215</v>
       </c>
       <c r="N36">
-        <v>3.130932887174929</v>
+        <v>-0.6477988952143661</v>
       </c>
       <c r="O36" s="2">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q36" s="2">
-        <v>45650</v>
+        <v>45656</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2918,58 +3126,65 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NTPC IN</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ITC (DET)               </t>
+          <t>Ntpc Ltd.</t>
         </is>
       </c>
       <c r="D37" s="2">
-        <v>45663</v>
+        <v>45656</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H37">
+        <v>-9.695320487368084e-06</v>
+      </c>
+      <c r="I37">
+        <v>-0.4238075427915657</v>
+      </c>
+      <c r="J37">
+        <v>-0.1080138704854588</v>
+      </c>
+      <c r="K37">
+        <v>-0.007563059094598137</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-0.4238075427915657</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-0.1080138704854588</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>-0.007563059094598137</v>
       </c>
       <c r="O37" s="2">
-        <v>45645</v>
+        <v>45652</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q37" s="2">
-        <v>45650</v>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -2983,70 +3198,65 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>018880 KS</t>
+          <t>SUNP IN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hanon Systems</t>
+          <t>Sun Pharmaceutical Industries Ltd.</t>
         </is>
       </c>
       <c r="D38" s="2">
-        <v>45666</v>
+        <v>45656</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H38">
-        <v>2.03098351779087e-05</v>
+        <v>-1.185109971391096e-05</v>
       </c>
       <c r="I38">
-        <v>0.5447067368751124</v>
+        <v>-0.518042230339296</v>
       </c>
       <c r="J38">
-        <v>0.1909117008815375</v>
+        <v>-0.02399553433834447</v>
       </c>
       <c r="K38">
-        <v>0.1606716833569298</v>
+        <v>-0.01278748380661751</v>
       </c>
       <c r="L38">
-        <v>0.5447067368751124</v>
+        <v>-0.518042230339296</v>
       </c>
       <c r="M38">
-        <v>0.1909117008815375</v>
+        <v>-0.02399553433834447</v>
       </c>
       <c r="N38">
-        <v>0.1606716833569298</v>
+        <v>-0.01278748380661751</v>
       </c>
       <c r="O38" s="2">
-        <v>45636</v>
+        <v>45652</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q38" s="2">
-        <v>45650</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="T38" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3060,16 +3270,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9058 JP</t>
+          <t>KMB IN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Trancom Co Ltd</t>
+          <t>Kotak Mahindra Bank Ltd.</t>
         </is>
       </c>
       <c r="D39" s="2">
-        <v>45671</v>
+        <v>45656</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3078,44 +3288,52 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H39">
+        <v>-1.295516996124499e-05</v>
       </c>
       <c r="I39">
-        <v>-3.700288390580433</v>
+        <v>-0.5663039973640733</v>
       </c>
       <c r="J39">
-        <v>-0.05668480679999885</v>
+        <v>-0.02755617870389425</v>
       </c>
       <c r="K39">
-        <v>-2.621868954671547</v>
+        <v>-0.007060979527467394</v>
       </c>
       <c r="L39">
-        <v>-3.700288390580433</v>
+        <v>-21.09040992303779</v>
       </c>
       <c r="M39">
-        <v>-0.05668480679999885</v>
+        <v>-1.026252873867642</v>
       </c>
       <c r="N39">
-        <v>-2.621868954671547</v>
+        <v>-0.2629664515624563</v>
       </c>
       <c r="O39" s="2">
-        <v>45650</v>
+        <v>45652</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q39" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W39" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3124,70 +3342,75 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>HNDL IN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Hindalco Industries Ltd.</t>
         </is>
       </c>
       <c r="D40" s="2">
-        <v>45673</v>
+        <v>45656</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="H40">
-        <v>-0.0004757285907927726</v>
+        <v>-1.323942292195956e-05</v>
       </c>
       <c r="I40">
-        <v>-78.32108023960316</v>
+        <v>-0.5787294297124551</v>
       </c>
       <c r="J40">
-        <v>-4.729218978</v>
+        <v>-0.07850531816470155</v>
       </c>
       <c r="K40">
-        <v>-3.860032336578581</v>
+        <v>-0.01847134844760635</v>
       </c>
       <c r="L40">
-        <v>-78.32108023960316</v>
+        <v>-0.5787294297124551</v>
       </c>
       <c r="M40">
-        <v>-4.729218978</v>
+        <v>-0.07850531816470155</v>
       </c>
       <c r="N40">
-        <v>-3.860032336578581</v>
+        <v>-0.01847134844760635</v>
       </c>
       <c r="O40" s="2">
-        <v>45643</v>
+        <v>45652</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q40" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W40" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3196,21 +3419,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SPEX SE</t>
+          <t>TRENT IN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Spexis Ag</t>
+          <t>Trent Ltd.</t>
         </is>
       </c>
       <c r="D41" s="2">
-        <v>45735</v>
+        <v>45656</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3219,38 +3442,47 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>NIFTY50</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H41">
+        <v>-1.541643460856862e-05</v>
       </c>
       <c r="I41">
-        <v>-0.02111177412148012</v>
+        <v>-0.6738922430235152</v>
       </c>
       <c r="J41">
-        <v>-0.6298346523589999</v>
+        <v>-0.008136917228686896</v>
+      </c>
+      <c r="K41">
+        <v>-0.01042067213530657</v>
       </c>
       <c r="L41">
-        <v>-0.05565831359299304</v>
+        <v>-0.6738922430235152</v>
       </c>
       <c r="M41">
-        <v>-1.660473174401</v>
+        <v>-0.008136917228686896</v>
+      </c>
+      <c r="N41">
+        <v>-0.01042067213530657</v>
       </c>
       <c r="O41" s="2">
-        <v>45645</v>
+        <v>45652</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>December 2024 review</t>
         </is>
       </c>
       <c r="Q41" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W41" t="inlineStr">
+        <v>45656</v>
+      </c>
+      <c r="U41" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -3259,61 +3491,3211 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GRASIM IN</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Grasim Industries Ltd.</t>
+        </is>
+      </c>
+      <c r="D42" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H42">
+        <v>-1.614405070725529e-05</v>
+      </c>
+      <c r="I42">
+        <v>-0.7056982252271725</v>
+      </c>
+      <c r="J42">
+        <v>-0.02424991478754288</v>
+      </c>
+      <c r="K42">
+        <v>-0.04252958585428186</v>
+      </c>
+      <c r="L42">
+        <v>-0.7056982252271725</v>
+      </c>
+      <c r="M42">
+        <v>-0.02424991478754288</v>
+      </c>
+      <c r="N42">
+        <v>-0.04252958585428186</v>
+      </c>
+      <c r="O42" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q42" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UTCEM IN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ultratech Cement Ltd.</t>
+        </is>
+      </c>
+      <c r="D43" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H43">
+        <v>-1.650958368981659e-05</v>
+      </c>
+      <c r="I43">
+        <v>-0.7216766176228043</v>
+      </c>
+      <c r="J43">
+        <v>-0.005370751782428494</v>
+      </c>
+      <c r="K43">
+        <v>-0.01740429635539101</v>
+      </c>
+      <c r="L43">
+        <v>-0.7216766176228043</v>
+      </c>
+      <c r="M43">
+        <v>-0.005370751782428494</v>
+      </c>
+      <c r="N43">
+        <v>-0.01740429635539101</v>
+      </c>
+      <c r="O43" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q43" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LT IN</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Larsen &amp; Toubro Ltd.</t>
+        </is>
+      </c>
+      <c r="D44" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H44">
+        <v>-2.183482927962943e-05</v>
+      </c>
+      <c r="I44">
+        <v>-0.9544568801340503</v>
+      </c>
+      <c r="J44">
+        <v>-0.02242906807263094</v>
+      </c>
+      <c r="K44">
+        <v>-0.01116843075416229</v>
+      </c>
+      <c r="L44">
+        <v>-0.9544568801340503</v>
+      </c>
+      <c r="M44">
+        <v>-0.02242906807263094</v>
+      </c>
+      <c r="N44">
+        <v>-0.01116843075416229</v>
+      </c>
+      <c r="O44" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q44" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TCS IN</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Ltd.</t>
+        </is>
+      </c>
+      <c r="D45" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H45">
+        <v>-2.72693774224439e-05</v>
+      </c>
+      <c r="I45">
+        <v>-1.192015040030825</v>
+      </c>
+      <c r="J45">
+        <v>-0.02438603090912565</v>
+      </c>
+      <c r="K45">
+        <v>-0.01050488559231982</v>
+      </c>
+      <c r="L45">
+        <v>-1.192015040030825</v>
+      </c>
+      <c r="M45">
+        <v>-0.02438603090912565</v>
+      </c>
+      <c r="N45">
+        <v>-0.01050488559231982</v>
+      </c>
+      <c r="O45" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q45" s="2">
+        <v>45656</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ITC IN</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Itc Ltd.</t>
+        </is>
+      </c>
+      <c r="D46" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H46">
+        <v>-4.445951493525779e-05</v>
+      </c>
+      <c r="I46">
+        <v>-1.943440426024689</v>
+      </c>
+      <c r="J46">
+        <v>-0.3475363106597202</v>
+      </c>
+      <c r="K46">
+        <v>-0.02366166004162112</v>
+      </c>
+      <c r="L46">
+        <v>-1.943440426024689</v>
+      </c>
+      <c r="M46">
+        <v>-0.3475363106597202</v>
+      </c>
+      <c r="N46">
+        <v>-0.02366166004162112</v>
+      </c>
+      <c r="O46" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q46" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>HUVR IN</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Ltd.</t>
+        </is>
+      </c>
+      <c r="D47" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>-6.903879299126336e-05</v>
+      </c>
+      <c r="I47">
+        <v>-3.017864262769271</v>
+      </c>
+      <c r="J47">
+        <v>-0.1103400462721182</v>
+      </c>
+      <c r="K47">
+        <v>-0.0593274856867894</v>
+      </c>
+      <c r="L47">
+        <v>-3.017864262769271</v>
+      </c>
+      <c r="M47">
+        <v>-0.1103400462721182</v>
+      </c>
+      <c r="N47">
+        <v>-0.0593274856867894</v>
+      </c>
+      <c r="O47" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q47" s="2">
+        <v>45656</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MM IN</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mahindra &amp; Mahindra Ltd.</t>
+        </is>
+      </c>
+      <c r="D48" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H48">
+        <v>-0.0001724118698486522</v>
+      </c>
+      <c r="I48">
+        <v>-7.536568904953461</v>
+      </c>
+      <c r="J48">
+        <v>-0.216019766636966</v>
+      </c>
+      <c r="K48">
+        <v>-0.07464782809796976</v>
+      </c>
+      <c r="L48">
+        <v>-7.536568904953461</v>
+      </c>
+      <c r="M48">
+        <v>-0.216019766636966</v>
+      </c>
+      <c r="N48">
+        <v>-0.07464782809796976</v>
+      </c>
+      <c r="O48" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q48" s="2">
+        <v>45656</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TTMT IN</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Tata Motors Ltd.</t>
+        </is>
+      </c>
+      <c r="D49" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H49">
+        <v>-0.0001912074947444473</v>
+      </c>
+      <c r="I49">
+        <v>-8.358174298266384</v>
+      </c>
+      <c r="J49">
+        <v>-0.9623035738811508</v>
+      </c>
+      <c r="K49">
+        <v>-0.07230472416268321</v>
+      </c>
+      <c r="L49">
+        <v>-8.358174298266384</v>
+      </c>
+      <c r="M49">
+        <v>-0.9623035738811508</v>
+      </c>
+      <c r="N49">
+        <v>-0.07230472416268321</v>
+      </c>
+      <c r="O49" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q49" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PNB IN</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Punjab National Bank</t>
+        </is>
+      </c>
+      <c r="D50" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H50">
+        <v>0.006456608835975545</v>
+      </c>
+      <c r="I50">
+        <v>26.62118164990159</v>
+      </c>
+      <c r="J50">
+        <v>22.22524954282603</v>
+      </c>
+      <c r="K50">
+        <v>0.7801650927631691</v>
+      </c>
+      <c r="L50">
+        <v>26.62118164990159</v>
+      </c>
+      <c r="M50">
+        <v>22.22524954282603</v>
+      </c>
+      <c r="N50">
+        <v>0.7801650927631691</v>
+      </c>
+      <c r="O50" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q50" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>IIB IN</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Indusind Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="D51" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H51">
+        <v>0.006040391205677946</v>
+      </c>
+      <c r="I51">
+        <v>24.90507875075952</v>
+      </c>
+      <c r="J51">
+        <v>2.279275974169769</v>
+      </c>
+      <c r="K51">
+        <v>0.4934349008194203</v>
+      </c>
+      <c r="L51">
+        <v>24.75423901337811</v>
+      </c>
+      <c r="M51">
+        <v>2.265471344487438</v>
+      </c>
+      <c r="N51">
+        <v>0.4904463701827866</v>
+      </c>
+      <c r="O51" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q51" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>FB IN</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Federal Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="D52" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H52">
+        <v>0.004762622720464193</v>
+      </c>
+      <c r="I52">
+        <v>19.63672382706289</v>
+      </c>
+      <c r="J52">
+        <v>8.472431452920494</v>
+      </c>
+      <c r="K52">
+        <v>1.127152093382894</v>
+      </c>
+      <c r="L52">
+        <v>19.63672382706289</v>
+      </c>
+      <c r="M52">
+        <v>8.472431452920494</v>
+      </c>
+      <c r="N52">
+        <v>1.127152093382894</v>
+      </c>
+      <c r="O52" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q52" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CBK IN</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Canara Bank</t>
+        </is>
+      </c>
+      <c r="D53" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H53">
+        <v>0.003336189597841075</v>
+      </c>
+      <c r="I53">
+        <v>13.75541116999081</v>
+      </c>
+      <c r="J53">
+        <v>11.61244970198627</v>
+      </c>
+      <c r="K53">
+        <v>0.5047881598456948</v>
+      </c>
+      <c r="L53">
+        <v>13.75541116999081</v>
+      </c>
+      <c r="M53">
+        <v>11.61244970198627</v>
+      </c>
+      <c r="N53">
+        <v>0.5047881598456948</v>
+      </c>
+      <c r="O53" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q53" s="2">
+        <v>45656</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AUBANK IN</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Au Small Finance Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="D54" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H54">
+        <v>0.003034691099368568</v>
+      </c>
+      <c r="I54">
+        <v>12.51230561738435</v>
+      </c>
+      <c r="J54">
+        <v>1.946350001148671</v>
+      </c>
+      <c r="K54">
+        <v>1.016042865095583</v>
+      </c>
+      <c r="L54">
+        <v>12.51230561738435</v>
+      </c>
+      <c r="M54">
+        <v>1.946350001148671</v>
+      </c>
+      <c r="N54">
+        <v>1.016042865095583</v>
+      </c>
+      <c r="O54" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q54" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ICICIBC IN</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Icici Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="D55" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H55">
+        <v>0.002655176308333035</v>
+      </c>
+      <c r="I55">
+        <v>10.94753184098832</v>
+      </c>
+      <c r="J55">
+        <v>0.7197152993368136</v>
+      </c>
+      <c r="K55">
+        <v>0.05427782683175766</v>
+      </c>
+      <c r="L55">
+        <v>14.57928360898422</v>
+      </c>
+      <c r="M55">
+        <v>0.9584748068482523</v>
+      </c>
+      <c r="N55">
+        <v>0.0722840401428865</v>
+      </c>
+      <c r="O55" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q55" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>AXSB IN</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Axis Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="D56" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H56">
+        <v>0.00235186041081481</v>
+      </c>
+      <c r="I56">
+        <v>9.696932987896183</v>
+      </c>
+      <c r="J56">
+        <v>0.7681420441176708</v>
+      </c>
+      <c r="K56">
+        <v>0.09664904290067533</v>
+      </c>
+      <c r="L56">
+        <v>9.739920230287231</v>
+      </c>
+      <c r="M56">
+        <v>0.7715472762959749</v>
+      </c>
+      <c r="N56">
+        <v>0.09707749546802008</v>
+      </c>
+      <c r="O56" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q56" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>IDFCFB IN</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Idfc First Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="D57" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H57">
+        <v>0.002279565504454822</v>
+      </c>
+      <c r="I57">
+        <v>9.398854556406215</v>
+      </c>
+      <c r="J57">
+        <v>12.98202261965803</v>
+      </c>
+      <c r="K57">
+        <v>0.5518985506484871</v>
+      </c>
+      <c r="L57">
+        <v>9.398854556406215</v>
+      </c>
+      <c r="M57">
+        <v>12.98202261965803</v>
+      </c>
+      <c r="N57">
+        <v>0.5518985506484871</v>
+      </c>
+      <c r="O57" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q57" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>KMB IN</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Kotak Mahindra Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="D58" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H58">
+        <v>-0.004977845289248939</v>
+      </c>
+      <c r="I58">
+        <v>-20.52410592567371</v>
+      </c>
+      <c r="J58">
+        <v>-0.9986966951637478</v>
+      </c>
+      <c r="K58">
+        <v>-0.2559054720349889</v>
+      </c>
+      <c r="L58">
+        <v>-21.09040992303779</v>
+      </c>
+      <c r="M58">
+        <v>-1.026252873867642</v>
+      </c>
+      <c r="N58">
+        <v>-0.2629664515624563</v>
+      </c>
+      <c r="O58" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q58" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SBIN IN</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>State Bank Of India</t>
+        </is>
+      </c>
+      <c r="D59" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H59">
+        <v>-0.01490811732184981</v>
+      </c>
+      <c r="I59">
+        <v>-61.46751481546796</v>
+      </c>
+      <c r="J59">
+        <v>-6.452835269731227</v>
+      </c>
+      <c r="K59">
+        <v>-0.6436903932498295</v>
+      </c>
+      <c r="L59">
+        <v>-61.85984536447542</v>
+      </c>
+      <c r="M59">
+        <v>-6.494021974800215</v>
+      </c>
+      <c r="N59">
+        <v>-0.6477988952143661</v>
+      </c>
+      <c r="O59" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q59" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>HDFCB IN</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Hdfc Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="D60" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NIFTY Bank</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H60">
+        <v>-0.01553824558020406</v>
+      </c>
+      <c r="I60">
+        <v>-64.06559056305196</v>
+      </c>
+      <c r="J60">
+        <v>-3.051346865048122</v>
+      </c>
+      <c r="K60">
+        <v>-0.260946524020268</v>
+      </c>
+      <c r="L60">
+        <v>-53.40219456148042</v>
+      </c>
+      <c r="M60">
+        <v>-2.54346549418744</v>
+      </c>
+      <c r="N60">
+        <v>-0.2175132847976753</v>
+      </c>
+      <c r="O60" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>December 2024 review</t>
+        </is>
+      </c>
+      <c r="Q60" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BORR NO</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Borr Drilling</t>
+        </is>
+      </c>
+      <c r="D61" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H61">
+        <v>-0.0001021870253659572</v>
+      </c>
+      <c r="I61">
+        <v>-17.18164076952931</v>
+      </c>
+      <c r="J61">
+        <v>-4.489366647000002</v>
+      </c>
+      <c r="K61">
+        <v>-5.25771244477013</v>
+      </c>
+      <c r="L61">
+        <v>-43.01308105736324</v>
+      </c>
+      <c r="M61">
+        <v>-11.88539434199999</v>
+      </c>
+      <c r="N61">
+        <v>-12.03859228263839</v>
+      </c>
+      <c r="O61" s="2">
+        <v>45637</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q61" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BORR NO</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Borr Drilling Ltd</t>
+        </is>
+      </c>
+      <c r="D62" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I62">
+        <v>-25.83144028783392</v>
+      </c>
+      <c r="J62">
+        <v>-7.396027694999993</v>
+      </c>
+      <c r="K62">
+        <v>-6.780879837868259</v>
+      </c>
+      <c r="L62">
+        <v>-43.01308105736324</v>
+      </c>
+      <c r="M62">
+        <v>-11.88539434199999</v>
+      </c>
+      <c r="N62">
+        <v>-12.03859228263839</v>
+      </c>
+      <c r="O62" s="2">
+        <v>45646</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q62" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>JBT US</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>John Bean Technologies</t>
+        </is>
+      </c>
+      <c r="D63" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H63">
+        <v>0.0002426078402114301</v>
+      </c>
+      <c r="I63">
+        <v>25.16001622849801</v>
+      </c>
+      <c r="J63">
+        <v>0.1974263671413842</v>
+      </c>
+      <c r="K63">
+        <v>0.4105645521480694</v>
+      </c>
+      <c r="L63">
+        <v>25.16001622849801</v>
+      </c>
+      <c r="M63">
+        <v>0.1974263671413842</v>
+      </c>
+      <c r="N63">
+        <v>0.4105645521480694</v>
+      </c>
+      <c r="O63" s="2">
+        <v>45649</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q63" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>GEAR US</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Revelyst Inc</t>
+        </is>
+      </c>
+      <c r="D64" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Russell 2000</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I64">
+        <v>-96.91617529711043</v>
+      </c>
+      <c r="J64">
+        <v>-5.087463270189524</v>
+      </c>
+      <c r="K64">
+        <v>-3.830090515151476</v>
+      </c>
+      <c r="L64">
+        <v>-96.91617529711043</v>
+      </c>
+      <c r="M64">
+        <v>-5.087463270189524</v>
+      </c>
+      <c r="N64">
+        <v>-3.830090515151476</v>
+      </c>
+      <c r="O64" s="2">
+        <v>45650</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q64" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FCU CN</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Fission Uranium</t>
+        </is>
+      </c>
+      <c r="D65" s="2">
+        <v>45656</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H65">
+        <v>-4.821409723490465e-05</v>
+      </c>
+      <c r="I65">
+        <v>-5.426813443977671</v>
+      </c>
+      <c r="J65">
+        <v>-10.8204621714</v>
+      </c>
+      <c r="K65">
+        <v>-2.250626783477943</v>
+      </c>
+      <c r="L65">
+        <v>-5.426813443977671</v>
+      </c>
+      <c r="M65">
+        <v>-10.8204621714</v>
+      </c>
+      <c r="N65">
+        <v>-2.250626783477943</v>
+      </c>
+      <c r="O65" s="2">
+        <v>45650</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q65" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VASTN NA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Vastned Retail</t>
+        </is>
+      </c>
+      <c r="D66" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H66">
+        <v>-2.98503575636324e-05</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>45639</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q66" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>VASTB BB</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Vastned Belgium</t>
+        </is>
+      </c>
+      <c r="D67" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="H67">
+        <v>3.329736455529341e-05</v>
+      </c>
+      <c r="I67">
+        <v>0.1031619925159331</v>
+      </c>
+      <c r="J67">
+        <v>0.003635253686399992</v>
+      </c>
+      <c r="K67">
+        <v>1.537170149435491</v>
+      </c>
+      <c r="L67">
+        <v>0.01237579447247585</v>
+      </c>
+      <c r="M67">
+        <v>0.0002795231965236843</v>
+      </c>
+      <c r="N67">
+        <v>-0.3243839458555018</v>
+      </c>
+      <c r="O67" s="2">
+        <v>45639</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Acquisition &amp; Name Change</t>
+        </is>
+      </c>
+      <c r="Q67" s="2">
+        <v>45656</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>VASTN NA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Vastned Retail Nv</t>
+        </is>
+      </c>
+      <c r="D68" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>45649</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Reverse Merger</t>
+        </is>
+      </c>
+      <c r="Q68" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>VASTB BB</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Vastned Belgium Nv</t>
+        </is>
+      </c>
+      <c r="D69" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I69">
+        <v>-0.03509297137300228</v>
+      </c>
+      <c r="J69">
+        <v>-0.001297000127989002</v>
+      </c>
+      <c r="K69">
+        <v>-0.7194963681186044</v>
+      </c>
+      <c r="L69">
+        <v>0.01237579447247585</v>
+      </c>
+      <c r="M69">
+        <v>0.0002795231965236843</v>
+      </c>
+      <c r="N69">
+        <v>-0.3243839458555018</v>
+      </c>
+      <c r="O69" s="2">
+        <v>45649</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Reverse Merger</t>
+        </is>
+      </c>
+      <c r="Q69" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>VASTN NA</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Vastned Retail Nv</t>
+        </is>
+      </c>
+      <c r="D70" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>FTSE EPRA Nareit</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>45649</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Reverse Merger</t>
+        </is>
+      </c>
+      <c r="Q70" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>VASTB BB</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Vastned Belgium Nv</t>
+        </is>
+      </c>
+      <c r="D71" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>FTSE EPRA Nareit</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="I71">
+        <v>-0.055693226670455</v>
+      </c>
+      <c r="J71">
+        <v>-0.002058730361887305</v>
+      </c>
+      <c r="K71">
+        <v>-1.142057727172388</v>
+      </c>
+      <c r="L71">
+        <v>0.01237579447247585</v>
+      </c>
+      <c r="M71">
+        <v>0.0002795231965236843</v>
+      </c>
+      <c r="N71">
+        <v>-0.3243839458555018</v>
+      </c>
+      <c r="O71" s="2">
+        <v>45649</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Reverse Merger</t>
+        </is>
+      </c>
+      <c r="Q71" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GDYN US</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Grid Dynamics Ho (IT)</t>
+        </is>
+      </c>
+      <c r="D72" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="I72">
+        <v>141.2911577693372</v>
+      </c>
+      <c r="J72">
+        <v>6.705797710931999</v>
+      </c>
+      <c r="K72">
+        <v>10.33521823711206</v>
+      </c>
+      <c r="L72">
+        <v>141.2911577693372</v>
+      </c>
+      <c r="M72">
+        <v>6.705797710931999</v>
+      </c>
+      <c r="N72">
+        <v>10.33521823711206</v>
+      </c>
+      <c r="O72" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Replacing GEAR</t>
+        </is>
+      </c>
+      <c r="Q72" s="2">
+        <v>45656</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GEAR US</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Revelyst Inc (CD)</t>
+        </is>
+      </c>
+      <c r="D73" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I73">
+        <v>-120.8231023466672</v>
+      </c>
+      <c r="J73">
+        <v>-6.286321662157504</v>
+      </c>
+      <c r="K73">
+        <v>-4.919327306754273</v>
+      </c>
+      <c r="L73">
+        <v>-120.8231023466672</v>
+      </c>
+      <c r="M73">
+        <v>-6.286321662157504</v>
+      </c>
+      <c r="N73">
+        <v>-4.919327306754273</v>
+      </c>
+      <c r="O73" s="2">
+        <v>45652</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Acquired</t>
+        </is>
+      </c>
+      <c r="Q73" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PDN AU</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Paladin Energy Ltd</t>
+        </is>
+      </c>
+      <c r="D74" s="2">
+        <v>45659</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I74">
+        <v>10.50508978449319</v>
+      </c>
+      <c r="J74">
+        <v>2.200513745812815</v>
+      </c>
+      <c r="K74">
+        <v>0.6491861241758926</v>
+      </c>
+      <c r="L74">
+        <v>10.50508978449319</v>
+      </c>
+      <c r="M74">
+        <v>2.200513745812815</v>
+      </c>
+      <c r="N74">
+        <v>0.6491861241758926</v>
+      </c>
+      <c r="O74" s="2">
+        <v>45653</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Merger</t>
+        </is>
+      </c>
+      <c r="Q74" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>020560 KS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Asiana Airlines</t>
+        </is>
+      </c>
+      <c r="D75" s="2">
+        <v>45660</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H75">
+        <v>7.562020168108501e-05</v>
+      </c>
+      <c r="I75">
+        <v>2.014851167715062</v>
+      </c>
+      <c r="J75">
+        <v>0.2863119437000318</v>
+      </c>
+      <c r="K75">
+        <v>0.9090546502255137</v>
+      </c>
+      <c r="L75">
+        <v>2.014851167715062</v>
+      </c>
+      <c r="M75">
+        <v>0.2863119437000318</v>
+      </c>
+      <c r="N75">
+        <v>0.9090546502255137</v>
+      </c>
+      <c r="O75" s="2">
+        <v>45642</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q75" s="2">
+        <v>45649</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JBT US</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>John Bean Tech (ID)</t>
+        </is>
+      </c>
+      <c r="D76" s="2">
+        <v>45660</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>S&amp;P 600</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I76">
+        <v>191.8682990031967</v>
+      </c>
+      <c r="J76">
+        <v>1.505557901782774</v>
+      </c>
+      <c r="K76">
+        <v>3.130932887174929</v>
+      </c>
+      <c r="L76">
+        <v>191.8682990031967</v>
+      </c>
+      <c r="M76">
+        <v>1.505557901782774</v>
+      </c>
+      <c r="N76">
+        <v>3.130932887174929</v>
+      </c>
+      <c r="O76" s="2">
+        <v>45649</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q76" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ITCH IN</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Itc Hotels Limited</t>
+        </is>
+      </c>
+      <c r="D77" s="2">
+        <v>45660</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
+        <v>45653</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Demerger</t>
+        </is>
+      </c>
+      <c r="Q77" s="2">
+        <v>45656</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITC (DET)               </t>
+        </is>
+      </c>
+      <c r="D78" s="2">
+        <v>45663</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>45645</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Spin-Off</t>
+        </is>
+      </c>
+      <c r="Q78" s="2">
+        <v>45656</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>018880 KS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Hanon Systems</t>
+        </is>
+      </c>
+      <c r="D79" s="2">
+        <v>45666</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MSCI EM Small Cap</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H79">
+        <v>2.03098351779087e-05</v>
+      </c>
+      <c r="I79">
+        <v>0.5447067368751124</v>
+      </c>
+      <c r="J79">
+        <v>0.1909117008815375</v>
+      </c>
+      <c r="K79">
+        <v>0.1606716833569298</v>
+      </c>
+      <c r="L79">
+        <v>0.5447067368751124</v>
+      </c>
+      <c r="M79">
+        <v>0.1909117008815375</v>
+      </c>
+      <c r="N79">
+        <v>0.1606716833569298</v>
+      </c>
+      <c r="O79" s="2">
+        <v>45636</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q79" s="2">
+        <v>45656</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>GUANGDONG INV (DET)</t>
+        </is>
+      </c>
+      <c r="D80" s="2">
+        <v>45667</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <v>45653</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Spin-off from 270 HK</t>
+        </is>
+      </c>
+      <c r="Q80" s="2">
+        <v>45656</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>9058 JP</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Trancom Co Ltd</t>
+        </is>
+      </c>
+      <c r="D81" s="2">
+        <v>45671</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>FTSE DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I81">
+        <v>-3.700288390580433</v>
+      </c>
+      <c r="J81">
+        <v>-0.05668480679999885</v>
+      </c>
+      <c r="K81">
+        <v>-2.621868954671547</v>
+      </c>
+      <c r="L81">
+        <v>-7.583334882674633</v>
+      </c>
+      <c r="M81">
+        <v>-0.1165648767999989</v>
+      </c>
+      <c r="N81">
+        <v>-5.204576308564151</v>
+      </c>
+      <c r="O81" s="2">
+        <v>45650</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q81" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>9058 JP</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Trancom Co</t>
+        </is>
+      </c>
+      <c r="D82" s="2">
+        <v>45671</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H82">
+        <v>-1.666074229788147e-05</v>
+      </c>
+      <c r="I82">
+        <v>-3.8830464920942</v>
+      </c>
+      <c r="J82">
+        <v>-0.05988007000000001</v>
+      </c>
+      <c r="K82">
+        <v>-2.582707353892603</v>
+      </c>
+      <c r="L82">
+        <v>-7.583334882674633</v>
+      </c>
+      <c r="M82">
+        <v>-0.1165648767999989</v>
+      </c>
+      <c r="N82">
+        <v>-5.204576308564151</v>
+      </c>
+      <c r="O82" s="2">
+        <v>45650</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q82" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>**Restricted**</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>**Restricted**</t>
+        </is>
+      </c>
+      <c r="D83" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H83">
+        <v>-0.0004757285907927726</v>
+      </c>
+      <c r="I83">
+        <v>-78.32108023960316</v>
+      </c>
+      <c r="J83">
+        <v>-4.729218978</v>
+      </c>
+      <c r="K83">
+        <v>-3.860032336578581</v>
+      </c>
+      <c r="L83">
+        <v>-78.32108023960316</v>
+      </c>
+      <c r="M83">
+        <v>-4.729218978</v>
+      </c>
+      <c r="N83">
+        <v>-3.860032336578581</v>
+      </c>
+      <c r="O83" s="2">
+        <v>45643</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q83" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>8114 JP</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Descente Ltd</t>
+        </is>
+      </c>
+      <c r="D84" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>FTSE DM</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I84">
+        <v>-11.77268470645807</v>
+      </c>
+      <c r="J84">
+        <v>-0.429696252000007</v>
+      </c>
+      <c r="K84">
+        <v>-7.570406131078347</v>
+      </c>
+      <c r="L84">
+        <v>-11.77268470645807</v>
+      </c>
+      <c r="M84">
+        <v>-0.429696252000007</v>
+      </c>
+      <c r="N84">
+        <v>-7.570406131078347</v>
+      </c>
+      <c r="O84" s="2">
+        <v>45656</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q84" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>SPEX SE</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Spexis Ag</t>
         </is>
       </c>
-      <c r="D42" s="2">
+      <c r="D85" s="2">
         <v>45735</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>SPI</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I85">
+        <v>-0.02111177412148012</v>
+      </c>
+      <c r="J85">
+        <v>-0.6298346523589999</v>
+      </c>
+      <c r="L85">
+        <v>-0.05565831359299304</v>
+      </c>
+      <c r="M85">
+        <v>-1.660473174401</v>
+      </c>
+      <c r="O85" s="2">
+        <v>45645</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q85" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SPEX SE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Spexis Ag</t>
+        </is>
+      </c>
+      <c r="D86" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>SPI Extra</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="I42">
+      <c r="I86">
         <v>-0.03454653947151293</v>
       </c>
-      <c r="J42">
+      <c r="J86">
         <v>-1.030638522042</v>
       </c>
-      <c r="L42">
+      <c r="L86">
         <v>-0.05565831359299304</v>
       </c>
-      <c r="M42">
+      <c r="M86">
         <v>-1.660473174401</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O86" s="2">
         <v>45645</v>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>Delisting</t>
         </is>
       </c>
-      <c r="Q42" s="2">
-        <v>45650</v>
-      </c>
-      <c r="W42" t="inlineStr">
+      <c r="Q86" s="2">
+        <v>45656</v>
+      </c>
+      <c r="W86" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,23 +499,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>CAC US</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ITC (DET)               </t>
+          <t>Camden National Corp</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,63 +519,70 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>7.622423772701096e-06</v>
+      </c>
+      <c r="I2">
+        <v>0.7912961440786604</v>
+      </c>
+      <c r="J2">
+        <v>0.01872890281842983</v>
+      </c>
+      <c r="K2">
+        <v>0.3021343954177874</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.7912961440786604</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01872890281842983</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3021343954177874</v>
       </c>
       <c r="O2" s="2">
-        <v>45645</v>
+        <v>45660</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Spin-Off</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45663</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+        <v>45664</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WONH IN</t>
+          <t>PSTX US</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wonderla Hldy L</t>
+          <t>Poseida Therapeu</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -589,70 +591,67 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>Russell 2000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>5.73451484502279e-05</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I3">
-        <v>1.720962781351391</v>
+        <v>-58.56973028670522</v>
       </c>
       <c r="J3">
-        <v>0.1931649800057034</v>
+        <v>-6.152282593141305</v>
       </c>
       <c r="K3">
-        <v>1.531020112197701</v>
+        <v>-5.859426968403744</v>
       </c>
       <c r="L3">
-        <v>1.720962781351391</v>
+        <v>-58.56973028670522</v>
       </c>
       <c r="M3">
-        <v>0.1931649800057034</v>
+        <v>-6.152282593141305</v>
       </c>
       <c r="N3">
-        <v>1.531020112197701</v>
+        <v>-5.859426968403744</v>
       </c>
       <c r="O3" s="2">
-        <v>45659</v>
+        <v>45660</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Tender Offer</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45663</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
+        <v>45664</v>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAC US</t>
+          <t>1076993D IN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Camden National Corp</t>
+          <t>Onesource Speciality Pharma</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -661,70 +660,66 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>7.622423772701096e-06</v>
-      </c>
-      <c r="I4">
-        <v>0.7912961440786604</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="J4">
-        <v>0.01872890281842983</v>
-      </c>
-      <c r="K4">
-        <v>0.3021343954177874</v>
+        <v>-1.03537509605441</v>
       </c>
       <c r="L4">
-        <v>0.7912961440786604</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01872890281842983</v>
+        <v>-1.03537509605441</v>
       </c>
       <c r="N4">
-        <v>0.3021343954177874</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from STR IN</t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45663</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+        <v>45664</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PSTX US</t>
+          <t>3800 HK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Poseida Therapeu</t>
+          <t>Gcl Technology Holdings</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -733,121 +728,114 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Russell 2000</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>2.265103372827934e-05</v>
       </c>
       <c r="I5">
-        <v>-58.56973028670522</v>
+        <v>14.38263189901136</v>
       </c>
       <c r="J5">
-        <v>-6.152282593141305</v>
+        <v>103.5456222832265</v>
       </c>
       <c r="K5">
-        <v>-5.859426968403744</v>
+        <v>0.3166087409209301</v>
       </c>
       <c r="L5">
-        <v>-58.56973028670522</v>
+        <v>14.38263189901136</v>
       </c>
       <c r="M5">
-        <v>-6.152282593141305</v>
+        <v>103.5456222832265</v>
       </c>
       <c r="N5">
-        <v>-5.859426968403744</v>
+        <v>0.3166087409209301</v>
       </c>
       <c r="O5" s="2">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45663</v>
-      </c>
-      <c r="W5" t="inlineStr">
+        <v>45664</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>018880 KS</t>
+          <t>GEAR US</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hanon Systems</t>
+          <t>Revelyst</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45666</v>
+        <v>45665</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MSCI EM Small Cap</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="H6">
-        <v>2.03098351779087e-05</v>
+        <v>-0.0001164150508678883</v>
       </c>
       <c r="I6">
-        <v>0.5447067368751124</v>
+        <v>-12.197386991296</v>
       </c>
       <c r="J6">
-        <v>0.1909117008815375</v>
+        <v>-0.6074395912</v>
       </c>
       <c r="K6">
-        <v>0.1606716833569298</v>
+        <v>-0.3153302965346945</v>
       </c>
       <c r="L6">
-        <v>0.5447067368751124</v>
+        <v>-12.197386991296</v>
       </c>
       <c r="M6">
-        <v>0.1909117008815375</v>
+        <v>-0.6074395912</v>
       </c>
       <c r="N6">
-        <v>0.1606716833569298</v>
+        <v>-0.3153302965346945</v>
       </c>
       <c r="O6" s="2">
-        <v>45636</v>
+        <v>45663</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45663</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+        <v>45664</v>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -861,12 +849,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>018880 KS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Guangdong Land Holdings (Red Chip) (Temporary Line)</t>
+          <t>Hanon Systems</t>
         </is>
       </c>
       <c r="D7" s="2">
@@ -879,35 +867,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>2.03098351779087e-05</v>
+      </c>
+      <c r="I7">
+        <v>0.5447067368751124</v>
+      </c>
+      <c r="J7">
+        <v>0.1909117008815375</v>
+      </c>
+      <c r="K7">
+        <v>0.1606716833569298</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.5447067368751124</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1909117008815375</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1606716833569298</v>
       </c>
       <c r="O7" s="2">
-        <v>45660</v>
+        <v>45636</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Distribution in Specie</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45663</v>
-      </c>
-      <c r="V7" t="inlineStr">
+        <v>45664</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -926,20 +931,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GUANGDONG INV (DET)</t>
+          <t>Guangdong Land Holdings (Red Chip) (Temporary Line)</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45667</v>
+        <v>45666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE EM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -957,22 +962,17 @@
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>45653</v>
+        <v>45660</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Spin-off from 270 HK</t>
+          <t>Distribution in Specie</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="V8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -986,16 +986,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9058 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Trancom Co Ltd</t>
+          <t>GUANGDONG INV (DET)</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45671</v>
+        <v>45667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1004,44 +1004,40 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>-3.700288390580433</v>
-      </c>
-      <c r="J9">
-        <v>-0.05668480679999885</v>
-      </c>
-      <c r="K9">
-        <v>-2.621868954671547</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L9">
-        <v>-7.583334882674633</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.1165648767999989</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-5.204576308564151</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Spin-off from 270 HK</t>
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45663</v>
-      </c>
-      <c r="W9" t="inlineStr">
+        <v>45664</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1060,7 +1056,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trancom Co</t>
+          <t>Trancom Co Ltd</t>
         </is>
       </c>
       <c r="D10" s="2">
@@ -1068,12 +1064,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1081,17 +1077,14 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H10">
-        <v>-1.666074229788147e-05</v>
-      </c>
       <c r="I10">
-        <v>-3.8830464920942</v>
+        <v>-3.700288390580433</v>
       </c>
       <c r="J10">
-        <v>-0.05988007000000001</v>
+        <v>-0.05668480679999885</v>
       </c>
       <c r="K10">
-        <v>-2.582707353892603</v>
+        <v>-2.621868954671547</v>
       </c>
       <c r="L10">
         <v>-7.583334882674633</v>
@@ -1111,7 +1104,7 @@
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1122,21 +1115,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>9058 JP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Trancom Co</t>
         </is>
       </c>
       <c r="D11" s="2">
-        <v>45673</v>
+        <v>45671</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1154,36 +1147,36 @@
         </is>
       </c>
       <c r="H11">
-        <v>-0.0004757285907927726</v>
+        <v>-1.666074229788147e-05</v>
       </c>
       <c r="I11">
-        <v>-78.32108023960316</v>
+        <v>-3.8830464920942</v>
       </c>
       <c r="J11">
-        <v>-4.729218978</v>
+        <v>-0.05988007000000001</v>
       </c>
       <c r="K11">
-        <v>-3.860032336578581</v>
+        <v>-2.582707353892603</v>
       </c>
       <c r="L11">
-        <v>-78.32108023960316</v>
+        <v>-7.583334882674633</v>
       </c>
       <c r="M11">
-        <v>-4.729218978</v>
+        <v>-0.1165648767999989</v>
       </c>
       <c r="N11">
-        <v>-3.860032336578581</v>
+        <v>-5.204576308564151</v>
       </c>
       <c r="O11" s="2">
-        <v>45643</v>
+        <v>45650</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1194,30 +1187,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8114 JP</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Descente Ltd</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45680</v>
+        <v>45673</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1225,34 +1218,37 @@
           <t>Delete</t>
         </is>
       </c>
+      <c r="H12">
+        <v>-0.0004757285907927726</v>
+      </c>
       <c r="I12">
-        <v>-11.77268470645807</v>
+        <v>-78.32108023960316</v>
       </c>
       <c r="J12">
-        <v>-0.429696252000007</v>
+        <v>-4.729218978</v>
       </c>
       <c r="K12">
-        <v>-7.570406131078347</v>
+        <v>-3.860032336578581</v>
       </c>
       <c r="L12">
-        <v>-11.77268470645807</v>
+        <v>-78.32108023960316</v>
       </c>
       <c r="M12">
-        <v>-0.429696252000007</v>
+        <v>-4.729218978</v>
       </c>
       <c r="N12">
-        <v>-7.570406131078347</v>
+        <v>-3.860032336578581</v>
       </c>
       <c r="O12" s="2">
-        <v>45656</v>
+        <v>45643</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1263,21 +1259,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SPEX SE</t>
+          <t>8114 JP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Spexis Ag</t>
+          <t>Descente Ltd</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45735</v>
+        <v>45680</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1286,7 +1282,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1295,19 +1291,25 @@
         </is>
       </c>
       <c r="I13">
-        <v>-0.02111177412148012</v>
+        <v>-11.77268470645807</v>
       </c>
       <c r="J13">
-        <v>-0.6298346523589999</v>
+        <v>-0.429696252000007</v>
+      </c>
+      <c r="K13">
+        <v>-7.570406131078347</v>
       </c>
       <c r="L13">
-        <v>-0.05565831359299304</v>
+        <v>-11.77268470645807</v>
       </c>
       <c r="M13">
-        <v>-1.660473174401</v>
+        <v>-0.429696252000007</v>
+      </c>
+      <c r="N13">
+        <v>-7.570406131078347</v>
       </c>
       <c r="O13" s="2">
-        <v>45645</v>
+        <v>45656</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1315,7 +1317,7 @@
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1349,7 +1351,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SPI Extra</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1358,10 +1360,10 @@
         </is>
       </c>
       <c r="I14">
-        <v>-0.03454653947151293</v>
+        <v>-0.02111177412148012</v>
       </c>
       <c r="J14">
-        <v>-1.030638522042</v>
+        <v>-0.6298346523589999</v>
       </c>
       <c r="L14">
         <v>-0.05565831359299304</v>
@@ -1378,9 +1380,72 @@
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="W14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SPEX SE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Spexis Ag</t>
+        </is>
+      </c>
+      <c r="D15" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SPI Extra</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>-0.03454653947151293</v>
+      </c>
+      <c r="J15">
+        <v>-1.030638522042</v>
+      </c>
+      <c r="L15">
+        <v>-0.05565831359299304</v>
+      </c>
+      <c r="M15">
+        <v>-1.660473174401</v>
+      </c>
+      <c r="O15" s="2">
+        <v>45645</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q15" s="2">
+        <v>45664</v>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,137 +501,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OVH FP</t>
+          <t>AWLTD IN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovh Groupe Sas</t>
+          <t>Adani Wilmar Ltd</t>
         </is>
       </c>
       <c r="D2" s="2">
+        <v>45672</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FTSE EM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>22.59823339111484</v>
+      </c>
+      <c r="J2">
+        <v>7.491322444800164</v>
+      </c>
+      <c r="K2">
+        <v>1.809163436137218</v>
+      </c>
+      <c r="L2">
+        <v>22.59823339111484</v>
+      </c>
+      <c r="M2">
+        <v>7.491322444800164</v>
+      </c>
+      <c r="N2">
+        <v>1.809163436137218</v>
+      </c>
+      <c r="O2" s="2">
         <v>45670</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Secondary Offering</t>
+        </is>
+      </c>
+      <c r="Q2" s="2">
+        <v>45672</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IMVT US</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Immunovant</t>
+        </is>
+      </c>
+      <c r="D3" s="2">
+        <v>45672</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>-0.0002781965892294926</v>
-      </c>
-      <c r="I2">
-        <v>-7.83921416535</v>
-      </c>
-      <c r="J2">
-        <v>-0.9145940400000001</v>
-      </c>
-      <c r="K2">
-        <v>-5.772742329259272</v>
-      </c>
-      <c r="L2">
-        <v>-7.83921416535</v>
-      </c>
-      <c r="M2">
-        <v>-0.9145940400000001</v>
-      </c>
-      <c r="N2">
-        <v>-5.772742329259272</v>
-      </c>
-      <c r="O2" s="2">
-        <v>45666</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Buyback</t>
-        </is>
-      </c>
-      <c r="Q2" s="2">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Inc</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>4.869755463595297e-05</v>
+      </c>
+      <c r="I3">
+        <v>4.979439075262252</v>
+      </c>
+      <c r="J3">
+        <v>0.2120715108714758</v>
+      </c>
+      <c r="K3">
+        <v>0.2210304554352104</v>
+      </c>
+      <c r="L3">
+        <v>4.979439075262252</v>
+      </c>
+      <c r="M3">
+        <v>0.2120715108714758</v>
+      </c>
+      <c r="N3">
+        <v>0.2210304554352104</v>
+      </c>
+      <c r="O3" s="2">
         <v>45670</v>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LTMC IM</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lottomatica Group Spa</t>
-        </is>
-      </c>
-      <c r="D3" s="2">
-        <v>45670</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>FTSE DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>F Inc</t>
-        </is>
-      </c>
-      <c r="I3">
-        <v>10.11689784</v>
-      </c>
-      <c r="J3">
-        <v>0.7559999999999998</v>
-      </c>
-      <c r="K3">
-        <v>0.7491876368184099</v>
-      </c>
-      <c r="L3">
-        <v>10.11689784</v>
-      </c>
-      <c r="M3">
-        <v>0.7559999999999998</v>
-      </c>
-      <c r="N3">
-        <v>0.7491876368184099</v>
-      </c>
-      <c r="O3" s="2">
-        <v>45666</v>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q3" s="2">
-        <v>45670</v>
+        <v>45672</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -642,53 +642,65 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>CEIX US</t>
+          <t>GATO US</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Consol Energy In</t>
+          <t>Gatos Silver</t>
         </is>
       </c>
       <c r="D4" s="2">
+        <v>45672</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>-7.886101890123373e-05</v>
+      </c>
+      <c r="I4">
+        <v>-8.064656084393997</v>
+      </c>
+      <c r="J4">
+        <v>-0.5408890733999998</v>
+      </c>
+      <c r="K4">
+        <v>-1.259969856202074</v>
+      </c>
+      <c r="L4">
+        <v>-8.064656084393997</v>
+      </c>
+      <c r="M4">
+        <v>-0.5408890733999998</v>
+      </c>
+      <c r="N4">
+        <v>-1.259969856202074</v>
+      </c>
+      <c r="O4" s="2">
         <v>45670</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Russell 2000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45664</v>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Acquiring ARCH</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q4" s="2">
-        <v>45670</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -697,53 +709,70 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARCH US</t>
+          <t>AG CN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arch Resources I</t>
+          <t>First Majestic Silver</t>
         </is>
       </c>
       <c r="D5" s="2">
+        <v>45672</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>7.835095950651597e-05</v>
+      </c>
+      <c r="I5">
+        <v>8.562946770024498</v>
+      </c>
+      <c r="J5">
+        <v>1.459197065265889</v>
+      </c>
+      <c r="K5">
+        <v>1.227684083795908</v>
+      </c>
+      <c r="L5">
+        <v>66.63686916512529</v>
+      </c>
+      <c r="M5">
+        <v>11.32252303885281</v>
+      </c>
+      <c r="N5">
+        <v>9.588751725905443</v>
+      </c>
+      <c r="O5" s="2">
         <v>45670</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Russell 2000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>45664</v>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Acquired by CEIX</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q5" s="2">
-        <v>45670</v>
-      </c>
-      <c r="W5" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -752,16 +781,16 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>CART US</t>
+          <t>AG CN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Maplebear Inc (CS)</t>
+          <t>First Majestic Silver Corp</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -770,44 +799,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S&amp;P 400</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>S Inc &amp; F Dec</t>
         </is>
       </c>
       <c r="I6">
-        <v>675.9605626674112</v>
+        <v>19.2139223951008</v>
       </c>
       <c r="J6">
-        <v>15.75298444808696</v>
+        <v>3.293325973586919</v>
       </c>
       <c r="K6">
-        <v>4.778156782597506</v>
+        <v>2.811067642109534</v>
       </c>
       <c r="L6">
-        <v>675.9605626674112</v>
+        <v>66.63686916512529</v>
       </c>
       <c r="M6">
-        <v>15.75298444808696</v>
+        <v>11.32252303885281</v>
       </c>
       <c r="N6">
-        <v>4.778156782597506</v>
+        <v>9.588751725905443</v>
       </c>
       <c r="O6" s="2">
-        <v>45664</v>
+        <v>45667</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Replacing ENOV</t>
+          <t>Merger</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45670</v>
-      </c>
-      <c r="V6" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -816,62 +850,65 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENOV US</t>
+          <t>LUN CN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enovis Corp (HC)</t>
+          <t>Lundin Mining Corp</t>
         </is>
       </c>
       <c r="D7" s="2">
+        <v>45672</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MSCI DM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>9.739006206750293e-06</v>
+      </c>
+      <c r="I7">
+        <v>35.01328287878302</v>
+      </c>
+      <c r="J7">
+        <v>4.059370103164539</v>
+      </c>
+      <c r="K7">
+        <v>1.044097081929724</v>
+      </c>
+      <c r="L7">
+        <v>35.01328287878302</v>
+      </c>
+      <c r="M7">
+        <v>4.059370103164539</v>
+      </c>
+      <c r="N7">
+        <v>1.044097081929724</v>
+      </c>
+      <c r="O7" s="2">
         <v>45670</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>S&amp;P 400</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I7">
-        <v>-242.0832913710367</v>
-      </c>
-      <c r="J7">
-        <v>-5.40847389122066</v>
-      </c>
-      <c r="K7">
-        <v>-9.072886156466792</v>
-      </c>
-      <c r="L7">
-        <v>40.97441420497509</v>
-      </c>
-      <c r="M7">
-        <v>0.9154248035070394</v>
-      </c>
-      <c r="N7">
-        <v>1.535654085435704</v>
-      </c>
-      <c r="O7" s="2">
-        <v>45664</v>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Moving to S&amp;P 600</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45670</v>
-      </c>
-      <c r="W7" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -880,62 +917,65 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENOV US</t>
+          <t>FIL CN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enovis Corp (HC)</t>
+          <t>Filo</t>
         </is>
       </c>
       <c r="D8" s="2">
+        <v>45672</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>-0.0002490191149246397</v>
+      </c>
+      <c r="I8">
+        <v>-27.42463374762732</v>
+      </c>
+      <c r="J8">
+        <v>-1.2256393968</v>
+      </c>
+      <c r="K8">
+        <v>-2.322743289968387</v>
+      </c>
+      <c r="L8">
+        <v>-27.42463374762732</v>
+      </c>
+      <c r="M8">
+        <v>-1.2256393968</v>
+      </c>
+      <c r="N8">
+        <v>-2.322743289968387</v>
+      </c>
+      <c r="O8" s="2">
         <v>45670</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>S&amp;P 600</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I8">
-        <v>283.0577055760118</v>
-      </c>
-      <c r="J8">
-        <v>6.323898694727699</v>
-      </c>
-      <c r="K8">
-        <v>10.6085402419025</v>
-      </c>
-      <c r="L8">
-        <v>40.97441420497509</v>
-      </c>
-      <c r="M8">
-        <v>0.9154248035070394</v>
-      </c>
-      <c r="N8">
-        <v>1.535654085435704</v>
-      </c>
-      <c r="O8" s="2">
-        <v>45664</v>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Replacing ARCH</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45670</v>
-      </c>
-      <c r="V8" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -944,16 +984,16 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARCH US</t>
+          <t>AG CN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Arch Resources I (MA)</t>
+          <t>First Majestic Silver Corp</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -962,283 +1002,334 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>S&amp;P 600</t>
+          <t>S&amp;P TSX Composite</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>S Inc &amp; F Dec</t>
+        </is>
+      </c>
+      <c r="I9">
+        <v>38.86</v>
+      </c>
+      <c r="J9">
+        <v>6.57</v>
+      </c>
+      <c r="K9">
+        <v>5.55</v>
+      </c>
+      <c r="L9">
+        <v>66.63686916512529</v>
+      </c>
+      <c r="M9">
+        <v>11.32252303885281</v>
+      </c>
+      <c r="N9">
+        <v>9.588751725905443</v>
+      </c>
+      <c r="O9" s="2">
+        <v>45671</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q9" s="2">
+        <v>45672</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>601985 C1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>China Natl Nucl A (Hk-C)</t>
+        </is>
+      </c>
+      <c r="D10" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MSCI EM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>1.768077202238182e-05</v>
+      </c>
+      <c r="I10">
+        <v>10.4734999976491</v>
+      </c>
+      <c r="J10">
+        <v>8.082346012266168</v>
+      </c>
+      <c r="K10">
+        <v>0.04969283623933293</v>
+      </c>
+      <c r="L10">
+        <v>10.4734999976491</v>
+      </c>
+      <c r="M10">
+        <v>8.082346012266168</v>
+      </c>
+      <c r="N10">
+        <v>0.04969283623933293</v>
+      </c>
+      <c r="O10" s="2">
+        <v>45671</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Private Placement</t>
+        </is>
+      </c>
+      <c r="Q10" s="2">
+        <v>45672</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1973 JP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nec Networks &amp; System Integr</t>
+        </is>
+      </c>
+      <c r="D11" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FTSE Japan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>-23.89661207253428</v>
+      </c>
+      <c r="J11">
+        <v>-1.140674786774997</v>
+      </c>
+      <c r="K11">
+        <v>-2.766714255369459</v>
+      </c>
+      <c r="L11">
+        <v>-42.00793504766555</v>
+      </c>
+      <c r="M11">
+        <v>-2.006291905429078</v>
+      </c>
+      <c r="N11">
+        <v>-5.055102339527603</v>
+      </c>
+      <c r="O11" s="2">
+        <v>45671</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Tender Offer</t>
+        </is>
+      </c>
+      <c r="Q11" s="2">
+        <v>45672</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1973 JP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nec Networks &amp; S</t>
+        </is>
+      </c>
+      <c r="D12" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>-7.867954901066813e-05</v>
+      </c>
+      <c r="I12">
+        <v>-18.11132297513127</v>
+      </c>
+      <c r="J12">
+        <v>-0.8656171186540804</v>
+      </c>
+      <c r="K12">
+        <v>-2.288388084158144</v>
+      </c>
+      <c r="L12">
+        <v>-42.00793504766555</v>
+      </c>
+      <c r="M12">
+        <v>-2.006291905429078</v>
+      </c>
+      <c r="N12">
+        <v>-5.055102339527603</v>
+      </c>
+      <c r="O12" s="2">
+        <v>45671</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Tender Offer</t>
+        </is>
+      </c>
+      <c r="Q12" s="2">
+        <v>45672</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>**Restricted**</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>**Restricted**</t>
+        </is>
+      </c>
+      <c r="D13" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>45664</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Acquired by CEIX</t>
-        </is>
-      </c>
-      <c r="Q9" s="2">
-        <v>45670</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CEIX US</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Consol Energy In (EN)</t>
-        </is>
-      </c>
-      <c r="D10" s="2">
-        <v>45670</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>S&amp;P 600</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>45664</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Acquiring ARCH</t>
-        </is>
-      </c>
-      <c r="Q10" s="2">
-        <v>45670</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>KRP US</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Kimbell Royalty Partners</t>
-        </is>
-      </c>
-      <c r="D11" s="2">
-        <v>45670</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>2.501787067115861e-05</v>
-      </c>
-      <c r="I11">
-        <v>2.613356371736906</v>
-      </c>
-      <c r="J11">
-        <v>0.169588343396295</v>
-      </c>
-      <c r="K11">
-        <v>0.3057760089003793</v>
-      </c>
-      <c r="L11">
-        <v>2.613356371736906</v>
-      </c>
-      <c r="M11">
-        <v>0.169588343396295</v>
-      </c>
-      <c r="N11">
-        <v>0.3057760089003793</v>
-      </c>
-      <c r="O11" s="2">
-        <v>45665</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Public Offering</t>
-        </is>
-      </c>
-      <c r="Q11" s="2">
-        <v>45670</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ARCH US</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Arch Resources A</t>
-        </is>
-      </c>
-      <c r="D12" s="2">
-        <v>45670</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>-0.0003164393592772239</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>45665</v>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="H13">
+        <v>-0.0004757285907927726</v>
+      </c>
+      <c r="I13">
+        <v>-78.32108023960316</v>
+      </c>
+      <c r="J13">
+        <v>-4.729218978</v>
+      </c>
+      <c r="K13">
+        <v>-3.860032336578581</v>
+      </c>
+      <c r="L13">
+        <v>-448.1282387807663</v>
+      </c>
+      <c r="M13">
+        <v>-27.88150577500005</v>
+      </c>
+      <c r="N13">
+        <v>-19.8664585158663</v>
+      </c>
+      <c r="O13" s="2">
+        <v>45643</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q12" s="2">
-        <v>45670</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CEIX US</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Consol Energy (New)</t>
-        </is>
-      </c>
-      <c r="D13" s="2">
-        <v>45670</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>0.0003149485259079425</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>45665</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
       <c r="Q13" s="2">
-        <v>45670</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1247,21 +1338,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9058 JP</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Trancom Co Ltd</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45671</v>
+        <v>45673</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1270,7 +1361,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FTSE DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1279,33 +1370,33 @@
         </is>
       </c>
       <c r="I14">
-        <v>-3.700288390580433</v>
+        <v>-125.5582718645991</v>
       </c>
       <c r="J14">
-        <v>-0.05668480679999885</v>
+        <v>-7.842005514000016</v>
       </c>
       <c r="K14">
-        <v>-2.621868954671547</v>
+        <v>-5.426899544298553</v>
       </c>
       <c r="L14">
-        <v>-7.583334882674633</v>
+        <v>-448.1282387807663</v>
       </c>
       <c r="M14">
-        <v>-0.1165648767999989</v>
+        <v>-27.88150577500005</v>
       </c>
       <c r="N14">
-        <v>-5.204576308564151</v>
+        <v>-19.8664585158663</v>
       </c>
       <c r="O14" s="2">
-        <v>45650</v>
+        <v>45667</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1316,30 +1407,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9058 JP</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Trancom Co</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45671</v>
+        <v>45673</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1347,37 +1438,34 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H15">
-        <v>-1.666074229788147e-05</v>
-      </c>
       <c r="I15">
-        <v>-3.8830464920942</v>
+        <v>-158.7810439875987</v>
       </c>
       <c r="J15">
-        <v>-0.05988007000000001</v>
+        <v>-9.95810224000002</v>
       </c>
       <c r="K15">
-        <v>-2.582707353892603</v>
+        <v>-6.881928412922537</v>
       </c>
       <c r="L15">
-        <v>-7.583334882674633</v>
+        <v>-448.1282387807663</v>
       </c>
       <c r="M15">
-        <v>-0.1165648767999989</v>
+        <v>-27.88150577500005</v>
       </c>
       <c r="N15">
-        <v>-5.204576308564151</v>
+        <v>-19.8664585158663</v>
       </c>
       <c r="O15" s="2">
-        <v>45650</v>
+        <v>45667</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1386,18 +1474,23 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LUN CN</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lundin Mining Corp</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45671</v>
+        <v>45673</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1406,25 +1499,31 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S&amp;P TSX Composite</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">S Inc &amp; F Inc </t>
-        </is>
-      </c>
-      <c r="H16">
-        <v>0.0002147713505282174</v>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>-59.54289149534954</v>
+      </c>
+      <c r="J16">
+        <v>-3.734288340000008</v>
+      </c>
+      <c r="K16">
+        <v>-2.580723154845952</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-448.1282387807663</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-27.88150577500005</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-19.8664585158663</v>
       </c>
       <c r="O16" s="2">
         <v>45667</v>
@@ -1435,141 +1534,147 @@
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45670</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FIL CN</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Filo Corp</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="D17" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Stoxx Europe 600</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>-25.92495119361576</v>
+      </c>
+      <c r="J17">
+        <v>-1.617890703</v>
+      </c>
+      <c r="K17">
+        <v>-1.116875067220678</v>
+      </c>
+      <c r="L17">
+        <v>-448.1282387807663</v>
+      </c>
+      <c r="M17">
+        <v>-27.88150577500005</v>
+      </c>
+      <c r="N17">
+        <v>-19.8664585158663</v>
+      </c>
+      <c r="O17" s="2">
         <v>45671</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Acquisition</t>
+        </is>
+      </c>
+      <c r="Q17" s="2">
+        <v>45672</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>POLN LN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pollen Street Group Ltd</t>
+        </is>
+      </c>
+      <c r="D18" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>S&amp;P TSX Composite</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H17">
-        <v>-0.0007294262210965072</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>45667</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q17" s="2">
-        <v>45670</v>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AG CN</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>First Majestic Silver Corp</t>
-        </is>
-      </c>
-      <c r="D18" s="2">
-        <v>45672</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I18">
-        <v>19.2139223951008</v>
+        <v>6.35409900294774</v>
       </c>
       <c r="J18">
-        <v>3.293325973586919</v>
+        <v>0.6740199180652917</v>
       </c>
       <c r="K18">
-        <v>2.811067642109534</v>
+        <v>8.258712047380715</v>
       </c>
       <c r="L18">
-        <v>19.2139223951008</v>
+        <v>6.35409900294774</v>
       </c>
       <c r="M18">
-        <v>3.293325973586919</v>
+        <v>0.6740199180652917</v>
       </c>
       <c r="N18">
-        <v>2.811067642109534</v>
+        <v>8.258712047380715</v>
       </c>
       <c r="O18" s="2">
-        <v>45667</v>
+        <v>45671</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Replacing **Restricted**</t>
         </is>
       </c>
       <c r="Q18" s="2">
-        <v>45670</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="V18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1583,12 +1688,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>PLUS LN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Plus500 Ltd</t>
         </is>
       </c>
       <c r="D19" s="2">
@@ -1596,75 +1701,67 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H19">
-        <v>-0.0004757285907927726</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="I19">
-        <v>-78.32108023960316</v>
+        <v>15.96391804585419</v>
       </c>
       <c r="J19">
-        <v>-4.729218978</v>
+        <v>0.4783837129902999</v>
       </c>
       <c r="K19">
-        <v>-3.860032336578581</v>
+        <v>1.566430721523405</v>
       </c>
       <c r="L19">
-        <v>-422.2032875871505</v>
+        <v>15.96391804585419</v>
       </c>
       <c r="M19">
-        <v>-26.26361507200005</v>
+        <v>0.4783837129902999</v>
       </c>
       <c r="N19">
-        <v>-18.74958344864562</v>
+        <v>1.566430721523405</v>
       </c>
       <c r="O19" s="2">
-        <v>45643</v>
+        <v>45671</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Replacing **Restricted**</t>
         </is>
       </c>
       <c r="Q19" s="2">
-        <v>45670</v>
-      </c>
-      <c r="W19" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="V19" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>MRP US</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Millrose Propert</t>
         </is>
       </c>
       <c r="D20" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1673,44 +1770,40 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I20">
-        <v>-125.5582718645991</v>
-      </c>
-      <c r="J20">
-        <v>-7.842005514000016</v>
-      </c>
-      <c r="K20">
-        <v>-5.426899544298553</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L20">
-        <v>-422.2032875871505</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>-26.26361507200005</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>-18.74958344864562</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>45667</v>
+        <v>45671</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Lennar Corp</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45670</v>
-      </c>
-      <c r="W20" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1719,21 +1812,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>8114 JP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Descente Ltd</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45673</v>
+        <v>45680</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1742,7 +1835,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1751,33 +1844,33 @@
         </is>
       </c>
       <c r="I21">
-        <v>-158.7810439875987</v>
+        <v>-11.77268470645807</v>
       </c>
       <c r="J21">
-        <v>-9.95810224000002</v>
+        <v>-0.429696252000007</v>
       </c>
       <c r="K21">
-        <v>-6.881928412922537</v>
+        <v>-7.570406131078347</v>
       </c>
       <c r="L21">
-        <v>-422.2032875871505</v>
+        <v>-11.77268470645807</v>
       </c>
       <c r="M21">
-        <v>-26.26361507200005</v>
+        <v>-0.429696252000007</v>
       </c>
       <c r="N21">
-        <v>-18.74958344864562</v>
+        <v>-7.570406131078347</v>
       </c>
       <c r="O21" s="2">
-        <v>45667</v>
+        <v>45656</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -1788,21 +1881,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>187A JP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Samty Holdings Co Ltd /Japan</t>
         </is>
       </c>
       <c r="D22" s="2">
-        <v>45673</v>
+        <v>45686</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1811,7 +1904,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FTSE 250</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1820,33 +1913,33 @@
         </is>
       </c>
       <c r="I22">
-        <v>-59.54289149534954</v>
+        <v>-3.946209446210863</v>
       </c>
       <c r="J22">
-        <v>-3.734288340000008</v>
+        <v>-0.1894781103999938</v>
       </c>
       <c r="K22">
-        <v>-2.580723154845952</v>
+        <v>-1.755158264091462</v>
       </c>
       <c r="L22">
-        <v>-422.2032875871505</v>
+        <v>-3.946209446210863</v>
       </c>
       <c r="M22">
-        <v>-26.26361507200005</v>
+        <v>-0.1894781103999938</v>
       </c>
       <c r="N22">
-        <v>-18.74958344864562</v>
+        <v>-1.755158264091462</v>
       </c>
       <c r="O22" s="2">
-        <v>45667</v>
+        <v>45671</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q22" s="2">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -1862,62 +1955,58 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8114 JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Descente Ltd</t>
+          <t>Premier Inv (DET)</t>
         </is>
       </c>
       <c r="D23" s="2">
-        <v>45680</v>
+        <v>45686</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I23">
-        <v>-11.77268470645807</v>
-      </c>
-      <c r="J23">
-        <v>-0.429696252000007</v>
-      </c>
-      <c r="K23">
-        <v>-7.570406131078347</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L23">
-        <v>-11.77268470645807</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-0.429696252000007</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>-7.570406131078347</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>45656</v>
+        <v>45671</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Spin off</t>
         </is>
       </c>
       <c r="Q23" s="2">
-        <v>45670</v>
-      </c>
-      <c r="W23" t="inlineStr">
+        <v>45672</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1926,30 +2015,30 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SPEX SE</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Spexis Ag</t>
+          <t>Premier Inv (DET)</t>
         </is>
       </c>
       <c r="D24" s="2">
-        <v>45735</v>
+        <v>45694</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>MSCI DM Small Cap</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1957,30 +2046,32 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="I24">
-        <v>-0.02111177412148012</v>
-      </c>
-      <c r="J24">
-        <v>-0.6298346523589999</v>
-      </c>
       <c r="L24">
-        <v>-0.05565831359299304</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>-1.660473174401</v>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>45645</v>
+        <v>45671</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Delisting</t>
+          <t>Spin off</t>
         </is>
       </c>
       <c r="Q24" s="2">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="W24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1989,61 +2080,198 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MYR AU</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Myer Holdings</t>
+        </is>
+      </c>
+      <c r="D25" s="2">
+        <v>45694</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MSCI DM Small Cap</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I25">
+        <v>-8.972072459014008</v>
+      </c>
+      <c r="J25">
+        <v>-17.24240067926942</v>
+      </c>
+      <c r="K25">
+        <v>-5.708750149575387</v>
+      </c>
+      <c r="L25">
+        <v>-8.972072459014008</v>
+      </c>
+      <c r="M25">
+        <v>-17.24240067926942</v>
+      </c>
+      <c r="N25">
+        <v>-5.708750149575387</v>
+      </c>
+      <c r="O25" s="2">
+        <v>45671</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Spin off</t>
+        </is>
+      </c>
+      <c r="Q25" s="2">
+        <v>45672</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>EMEA</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>SPEX SE</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Spexis Ag</t>
         </is>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>45735</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>SPI</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I26">
+        <v>-0.02111177412148012</v>
+      </c>
+      <c r="J26">
+        <v>-0.6298346523589999</v>
+      </c>
+      <c r="L26">
+        <v>-0.05565831359299304</v>
+      </c>
+      <c r="M26">
+        <v>-1.660473174401</v>
+      </c>
+      <c r="O26" s="2">
+        <v>45645</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Delisting</t>
+        </is>
+      </c>
+      <c r="Q26" s="2">
+        <v>45672</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SPEX SE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Spexis Ag</t>
+        </is>
+      </c>
+      <c r="D27" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>SPI Extra</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="I25">
+      <c r="I27">
         <v>-0.03454653947151293</v>
       </c>
-      <c r="J25">
+      <c r="J27">
         <v>-1.030638522042</v>
       </c>
-      <c r="L25">
+      <c r="L27">
         <v>-0.05565831359299304</v>
       </c>
-      <c r="M25">
+      <c r="M27">
         <v>-1.660473174401</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O27" s="2">
         <v>45645</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>Delisting</t>
         </is>
       </c>
-      <c r="Q25" s="2">
-        <v>45670</v>
-      </c>
-      <c r="W25" t="inlineStr">
+      <c r="Q27" s="2">
+        <v>45672</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>

--- a/JPM_UPCOMING_INDEX_EVENTS.xlsx
+++ b/JPM_UPCOMING_INDEX_EVENTS.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +506,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AWLTD IN</t>
+          <t>601985 C1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adani Wilmar Ltd</t>
+          <t>China Natl Nucl A (Hk-C)</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,62 +524,70 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FTSE EM</t>
+          <t>MSCI EM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>F Inc</t>
-        </is>
+          <t>S Inc</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>1.768077202238182e-05</v>
       </c>
       <c r="I2">
-        <v>22.59823339111484</v>
+        <v>10.4734999976491</v>
       </c>
       <c r="J2">
-        <v>7.491322444800164</v>
+        <v>8.082346012266168</v>
       </c>
       <c r="K2">
-        <v>1.809163436137218</v>
+        <v>0.04969283623933293</v>
       </c>
       <c r="L2">
-        <v>22.59823339111484</v>
+        <v>10.4734999976491</v>
       </c>
       <c r="M2">
-        <v>7.491322444800164</v>
+        <v>8.082346012266168</v>
       </c>
       <c r="N2">
-        <v>1.809163436137218</v>
+        <v>0.04969283623933293</v>
       </c>
       <c r="O2" s="2">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Secondary Offering</t>
+          <t>Private Placement</t>
         </is>
       </c>
       <c r="Q2" s="2">
-        <v>45672</v>
-      </c>
-      <c r="T2" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IMVT US</t>
+          <t>1973 JP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Immunovant</t>
+          <t>Nec Networks &amp; System Integr</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -588,215 +596,217 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>FTSE Japan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>-23.89661207253428</v>
+      </c>
+      <c r="J3">
+        <v>-1.140674786774997</v>
+      </c>
+      <c r="K3">
+        <v>-2.766714255369459</v>
+      </c>
+      <c r="L3">
+        <v>-42.00793504766555</v>
+      </c>
+      <c r="M3">
+        <v>-2.006291905429078</v>
+      </c>
+      <c r="N3">
+        <v>-5.055102339527603</v>
+      </c>
+      <c r="O3" s="2">
+        <v>45671</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Tender Offer</t>
+        </is>
+      </c>
+      <c r="Q3" s="2">
+        <v>45673</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1973 JP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nec Networks &amp; S</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Inc</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>4.869755463595297e-05</v>
-      </c>
-      <c r="I3">
-        <v>4.979439075262252</v>
-      </c>
-      <c r="J3">
-        <v>0.2120715108714758</v>
-      </c>
-      <c r="K3">
-        <v>0.2210304554352104</v>
-      </c>
-      <c r="L3">
-        <v>4.979439075262252</v>
-      </c>
-      <c r="M3">
-        <v>0.2120715108714758</v>
-      </c>
-      <c r="N3">
-        <v>0.2210304554352104</v>
-      </c>
-      <c r="O3" s="2">
-        <v>45670</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Private Placement</t>
-        </is>
-      </c>
-      <c r="Q3" s="2">
-        <v>45672</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GATO US</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Gatos Silver</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <v>45672</v>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>F Dec</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>-7.867954901066813e-05</v>
+      </c>
+      <c r="I4">
+        <v>-18.11132297513127</v>
+      </c>
+      <c r="J4">
+        <v>-0.8656171186540804</v>
+      </c>
+      <c r="K4">
+        <v>-2.288388084158144</v>
+      </c>
+      <c r="L4">
+        <v>-42.00793504766555</v>
+      </c>
+      <c r="M4">
+        <v>-2.006291905429078</v>
+      </c>
+      <c r="N4">
+        <v>-5.055102339527603</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45671</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Tender Offer</t>
+        </is>
+      </c>
+      <c r="Q4" s="2">
+        <v>45673</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>**Restricted**</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>**Restricted**</t>
+        </is>
+      </c>
+      <c r="D5" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>MSCI DM Small Cap</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Delete</t>
         </is>
       </c>
-      <c r="H4">
-        <v>-7.886101890123373e-05</v>
-      </c>
-      <c r="I4">
-        <v>-8.064656084393997</v>
-      </c>
-      <c r="J4">
-        <v>-0.5408890733999998</v>
-      </c>
-      <c r="K4">
-        <v>-1.259969856202074</v>
-      </c>
-      <c r="L4">
-        <v>-8.064656084393997</v>
-      </c>
-      <c r="M4">
-        <v>-0.5408890733999998</v>
-      </c>
-      <c r="N4">
-        <v>-1.259969856202074</v>
-      </c>
-      <c r="O4" s="2">
-        <v>45670</v>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="H5">
+        <v>-0.0004757285907927726</v>
+      </c>
+      <c r="I5">
+        <v>-78.32108023960316</v>
+      </c>
+      <c r="J5">
+        <v>-4.729218978</v>
+      </c>
+      <c r="K5">
+        <v>-3.860032336578581</v>
+      </c>
+      <c r="L5">
+        <v>-448.1282387807663</v>
+      </c>
+      <c r="M5">
+        <v>-27.88150577500005</v>
+      </c>
+      <c r="N5">
+        <v>-19.8664585158663</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45643</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q4" s="2">
-        <v>45672</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AG CN</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>First Majestic Silver</t>
-        </is>
-      </c>
-      <c r="D5" s="2">
-        <v>45672</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="Q5" s="2">
+        <v>45673</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>**Restricted**</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>**Restricted**</t>
+        </is>
+      </c>
+      <c r="D6" s="2">
+        <v>45673</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MSCI DM Small Cap</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>S Inc &amp; F Dec</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>7.835095950651597e-05</v>
-      </c>
-      <c r="I5">
-        <v>8.562946770024498</v>
-      </c>
-      <c r="J5">
-        <v>1.459197065265889</v>
-      </c>
-      <c r="K5">
-        <v>1.227684083795908</v>
-      </c>
-      <c r="L5">
-        <v>66.63686916512529</v>
-      </c>
-      <c r="M5">
-        <v>11.32252303885281</v>
-      </c>
-      <c r="N5">
-        <v>9.588751725905443</v>
-      </c>
-      <c r="O5" s="2">
-        <v>45670</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Acquisition</t>
-        </is>
-      </c>
-      <c r="Q5" s="2">
-        <v>45672</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AG CN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>First Majestic Silver Corp</t>
-        </is>
-      </c>
-      <c r="D6" s="2">
-        <v>45672</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>FTSE DM</t>
@@ -804,62 +814,62 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I6">
-        <v>19.2139223951008</v>
+        <v>-125.5582718645991</v>
       </c>
       <c r="J6">
-        <v>3.293325973586919</v>
+        <v>-7.842005514000016</v>
       </c>
       <c r="K6">
-        <v>2.811067642109534</v>
+        <v>-5.426899544298553</v>
       </c>
       <c r="L6">
-        <v>66.63686916512529</v>
+        <v>-448.1282387807663</v>
       </c>
       <c r="M6">
-        <v>11.32252303885281</v>
+        <v>-27.88150577500005</v>
       </c>
       <c r="N6">
-        <v>9.588751725905443</v>
+        <v>-19.8664585158663</v>
       </c>
       <c r="O6" s="2">
         <v>45667</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Merger</t>
+          <t>Acquisition</t>
         </is>
       </c>
       <c r="Q6" s="2">
-        <v>45672</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LUN CN</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lundin Mining Corp</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -868,37 +878,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MSCI DM</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>9.739006206750293e-06</v>
+          <t>Delete</t>
+        </is>
       </c>
       <c r="I7">
-        <v>35.01328287878302</v>
+        <v>-158.7810439875987</v>
       </c>
       <c r="J7">
-        <v>4.059370103164539</v>
+        <v>-9.95810224000002</v>
       </c>
       <c r="K7">
-        <v>1.044097081929724</v>
+        <v>-6.881928412922537</v>
       </c>
       <c r="L7">
-        <v>35.01328287878302</v>
+        <v>-448.1282387807663</v>
       </c>
       <c r="M7">
-        <v>4.059370103164539</v>
+        <v>-27.88150577500005</v>
       </c>
       <c r="N7">
-        <v>1.044097081929724</v>
+        <v>-19.8664585158663</v>
       </c>
       <c r="O7" s="2">
-        <v>45670</v>
+        <v>45667</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -906,27 +913,32 @@
         </is>
       </c>
       <c r="Q7" s="2">
-        <v>45672</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FIL CN</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Filo</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -935,7 +947,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -943,29 +955,26 @@
           <t>Delete</t>
         </is>
       </c>
-      <c r="H8">
-        <v>-0.0002490191149246397</v>
-      </c>
       <c r="I8">
-        <v>-27.42463374762732</v>
+        <v>-59.54289149534954</v>
       </c>
       <c r="J8">
-        <v>-1.2256393968</v>
+        <v>-3.734288340000008</v>
       </c>
       <c r="K8">
-        <v>-2.322743289968387</v>
+        <v>-2.580723154845952</v>
       </c>
       <c r="L8">
-        <v>-27.42463374762732</v>
+        <v>-448.1282387807663</v>
       </c>
       <c r="M8">
-        <v>-1.2256393968</v>
+        <v>-27.88150577500005</v>
       </c>
       <c r="N8">
-        <v>-2.322743289968387</v>
+        <v>-19.8664585158663</v>
       </c>
       <c r="O8" s="2">
-        <v>45670</v>
+        <v>45667</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -973,7 +982,7 @@
         </is>
       </c>
       <c r="Q8" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -982,18 +991,23 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AG CN</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>First Majestic Silver Corp</t>
+          <t>**Restricted**</t>
         </is>
       </c>
       <c r="D9" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1002,31 +1016,31 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>S&amp;P TSX Composite</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>S Inc &amp; F Dec</t>
+          <t>Delete</t>
         </is>
       </c>
       <c r="I9">
-        <v>38.86</v>
+        <v>-25.92495119361576</v>
       </c>
       <c r="J9">
-        <v>6.57</v>
+        <v>-1.617890703</v>
       </c>
       <c r="K9">
-        <v>5.55</v>
+        <v>-1.116875067220678</v>
       </c>
       <c r="L9">
-        <v>66.63686916512529</v>
+        <v>-448.1282387807663</v>
       </c>
       <c r="M9">
-        <v>11.32252303885281</v>
+        <v>-27.88150577500005</v>
       </c>
       <c r="N9">
-        <v>9.588751725905443</v>
+        <v>-19.8664585158663</v>
       </c>
       <c r="O9" s="2">
         <v>45671</v>
@@ -1037,14 +1051,9 @@
         </is>
       </c>
       <c r="Q9" s="2">
-        <v>45672</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1053,17 +1062,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>601985 C1</t>
+          <t>POLN LN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>China Natl Nucl A (Hk-C)</t>
+          <t>Pollen Street Group Ltd</t>
         </is>
       </c>
       <c r="D10" s="2">
@@ -1076,47 +1085,44 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSCI EM</t>
+          <t>FTSE 250</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S Inc</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>1.768077202238182e-05</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="I10">
-        <v>10.4734999976491</v>
+        <v>6.35409900294774</v>
       </c>
       <c r="J10">
-        <v>8.082346012266168</v>
+        <v>0.6740199180652917</v>
       </c>
       <c r="K10">
-        <v>0.04969283623933293</v>
+        <v>8.258712047380715</v>
       </c>
       <c r="L10">
-        <v>10.4734999976491</v>
+        <v>6.35409900294774</v>
       </c>
       <c r="M10">
-        <v>8.082346012266168</v>
+        <v>0.6740199180652917</v>
       </c>
       <c r="N10">
-        <v>0.04969283623933293</v>
+        <v>8.258712047380715</v>
       </c>
       <c r="O10" s="2">
         <v>45671</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Private Placement</t>
+          <t>Replacing **Restricted**</t>
         </is>
       </c>
       <c r="Q10" s="2">
-        <v>45672</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1125,17 +1131,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>EMEA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1973 JP</t>
+          <t>PLUS LN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nec Networks &amp; System Integr</t>
+          <t>Plus500 Ltd</t>
         </is>
       </c>
       <c r="D11" s="2">
@@ -1148,44 +1154,44 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FTSE Japan</t>
+          <t>Stoxx Europe 600</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="I11">
-        <v>-23.89661207253428</v>
+        <v>15.96391804585419</v>
       </c>
       <c r="J11">
-        <v>-1.140674786774997</v>
+        <v>0.4783837129902999</v>
       </c>
       <c r="K11">
-        <v>-2.766714255369459</v>
+        <v>1.566430721523405</v>
       </c>
       <c r="L11">
-        <v>-42.00793504766555</v>
+        <v>15.96391804585419</v>
       </c>
       <c r="M11">
-        <v>-2.006291905429078</v>
+        <v>0.4783837129902999</v>
       </c>
       <c r="N11">
-        <v>-5.055102339527603</v>
+        <v>1.566430721523405</v>
       </c>
       <c r="O11" s="2">
         <v>45671</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Replacing **Restricted**</t>
         </is>
       </c>
       <c r="Q11" s="2">
-        <v>45672</v>
-      </c>
-      <c r="U11" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1199,16 +1205,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1973 JP</t>
+          <t>HOMEFIRS IN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nec Networks &amp; S</t>
+          <t>Home First Finan</t>
         </is>
       </c>
       <c r="D12" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1217,47 +1223,47 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>MSCI EM Small Cap</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>F Dec</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="H12">
-        <v>-7.867954901066813e-05</v>
+        <v>0.0001691090436119303</v>
       </c>
       <c r="I12">
-        <v>-18.11132297513127</v>
+        <v>4.875499354853758</v>
       </c>
       <c r="J12">
-        <v>-0.8656171186540804</v>
+        <v>0.409885093632837</v>
       </c>
       <c r="K12">
-        <v>-2.288388084158144</v>
+        <v>1.411692620849233</v>
       </c>
       <c r="L12">
-        <v>-42.00793504766555</v>
+        <v>4.875499354853758</v>
       </c>
       <c r="M12">
-        <v>-2.006291905429078</v>
+        <v>0.409885093632837</v>
       </c>
       <c r="N12">
-        <v>-5.055102339527603</v>
+        <v>1.411692620849233</v>
       </c>
       <c r="O12" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Tender Offer</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q12" s="2">
-        <v>45672</v>
-      </c>
-      <c r="U12" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1271,16 +1277,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>HLN LN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Haleon Plc</t>
         </is>
       </c>
       <c r="D13" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1289,47 +1295,44 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MSCI DM Small Cap</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>-0.0004757285907927726</v>
+          <t>F Inc</t>
+        </is>
       </c>
       <c r="I13">
-        <v>-78.32108023960316</v>
+        <v>123.9396319000015</v>
       </c>
       <c r="J13">
-        <v>-4.729218978</v>
+        <v>27.65000000000033</v>
       </c>
       <c r="K13">
-        <v>-3.860032336578581</v>
+        <v>1.161031499855357</v>
       </c>
       <c r="L13">
-        <v>-448.1282387807663</v>
+        <v>639.7679508122931</v>
       </c>
       <c r="M13">
-        <v>-27.88150577500005</v>
+        <v>142.5967602586703</v>
       </c>
       <c r="N13">
-        <v>-19.8664585158663</v>
+        <v>5.987679220167698</v>
       </c>
       <c r="O13" s="2">
-        <v>45643</v>
+        <v>45672</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Placing</t>
         </is>
       </c>
       <c r="Q13" s="2">
-        <v>45672</v>
-      </c>
-      <c r="W13" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1343,16 +1346,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>HLN LN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Haleon Plc</t>
         </is>
       </c>
       <c r="D14" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1361,44 +1364,44 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE All Share</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I14">
-        <v>-125.5582718645991</v>
+        <v>125.5084880000016</v>
       </c>
       <c r="J14">
-        <v>-7.842005514000016</v>
+        <v>28.00000000000036</v>
       </c>
       <c r="K14">
-        <v>-5.426899544298553</v>
+        <v>1.17572810111935</v>
       </c>
       <c r="L14">
-        <v>-448.1282387807663</v>
+        <v>639.7679508122931</v>
       </c>
       <c r="M14">
-        <v>-27.88150577500005</v>
+        <v>142.5967602586703</v>
       </c>
       <c r="N14">
-        <v>-19.8664585158663</v>
+        <v>5.987679220167698</v>
       </c>
       <c r="O14" s="2">
-        <v>45667</v>
+        <v>45672</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Placing</t>
         </is>
       </c>
       <c r="Q14" s="2">
-        <v>45672</v>
-      </c>
-      <c r="W14" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1412,16 +1415,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>HLN LN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Haleon Plc</t>
         </is>
       </c>
       <c r="D15" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1430,44 +1433,44 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FTSE All Share</t>
+          <t>FTSE 100</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Delete</t>
+          <t>F Inc</t>
         </is>
       </c>
       <c r="I15">
-        <v>-158.7810439875987</v>
+        <v>94.13136600000109</v>
       </c>
       <c r="J15">
-        <v>-9.95810224000002</v>
+        <v>21.00000000000024</v>
       </c>
       <c r="K15">
-        <v>-6.881928412922537</v>
+        <v>0.8817960758395115</v>
       </c>
       <c r="L15">
-        <v>-448.1282387807663</v>
+        <v>639.7679508122931</v>
       </c>
       <c r="M15">
-        <v>-27.88150577500005</v>
+        <v>142.5967602586703</v>
       </c>
       <c r="N15">
-        <v>-19.8664585158663</v>
+        <v>5.987679220167698</v>
       </c>
       <c r="O15" s="2">
-        <v>45667</v>
+        <v>45672</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Secondary Placing</t>
         </is>
       </c>
       <c r="Q15" s="2">
-        <v>45672</v>
-      </c>
-      <c r="W15" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1481,16 +1484,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>HLN LN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Haleon</t>
         </is>
       </c>
       <c r="D16" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1499,67 +1502,65 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FTSE 250</t>
+          <t>MSCI DM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
+          <t>F Inc</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>5.859518901470866e-05</v>
       </c>
       <c r="I16">
-        <v>-59.54289149534954</v>
+        <v>296.1884649122889</v>
       </c>
       <c r="J16">
-        <v>-3.734288340000008</v>
+        <v>65.9467602586694</v>
       </c>
       <c r="K16">
-        <v>-2.580723154845952</v>
+        <v>2.769123543353479</v>
       </c>
       <c r="L16">
-        <v>-448.1282387807663</v>
+        <v>639.7679508122931</v>
       </c>
       <c r="M16">
-        <v>-27.88150577500005</v>
+        <v>142.5967602586703</v>
       </c>
       <c r="N16">
-        <v>-19.8664585158663</v>
+        <v>5.987679220167698</v>
       </c>
       <c r="O16" s="2">
-        <v>45667</v>
+        <v>45672</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Block Sale</t>
         </is>
       </c>
       <c r="Q16" s="2">
-        <v>45672</v>
-      </c>
-      <c r="W16" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>MRP US</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>**Restricted**</t>
+          <t>Millrose Propert</t>
         </is>
       </c>
       <c r="D17" s="2">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1568,44 +1569,40 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stoxx Europe 600</t>
+          <t>Russell 1000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Delete</t>
-        </is>
-      </c>
-      <c r="I17">
-        <v>-25.92495119361576</v>
-      </c>
-      <c r="J17">
-        <v>-1.617890703</v>
-      </c>
-      <c r="K17">
-        <v>-1.116875067220678</v>
+          <t>Add</t>
+        </is>
       </c>
       <c r="L17">
-        <v>-448.1282387807663</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>-27.88150577500005</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-19.8664585158663</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>45671</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Acquisition</t>
+          <t>Spin-off from Lennar Corp</t>
         </is>
       </c>
       <c r="Q17" s="2">
-        <v>45672</v>
-      </c>
-      <c r="W17" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1614,21 +1611,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POLN LN</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pollen Street Group Ltd</t>
+          <t>ESG Minerals</t>
         </is>
       </c>
       <c r="D18" s="2">
-        <v>45673</v>
+        <v>45677</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1637,7 +1634,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FTSE 250</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1645,165 +1642,156 @@
           <t>Add</t>
         </is>
       </c>
-      <c r="I18">
-        <v>6.35409900294774</v>
-      </c>
-      <c r="J18">
-        <v>0.6740199180652917</v>
-      </c>
-      <c r="K18">
-        <v>8.258712047380715</v>
-      </c>
       <c r="L18">
-        <v>6.35409900294774</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6740199180652917</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>8.258712047380715</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>45671</v>
+        <v>45673</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Replacing **Restricted**</t>
+          <t>Demerger</t>
         </is>
       </c>
       <c r="Q18" s="2">
+        <v>45673</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LENNAR CORP A (DET1)    </t>
+        </is>
+      </c>
+      <c r="D19" s="2">
+        <v>45678</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MSCI DM</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Add</t>
+        </is>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <v>45672</v>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>EMEA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PLUS LN</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Plus500 Ltd</t>
-        </is>
-      </c>
-      <c r="D19" s="2">
-        <v>45673</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Spin-off from Lennar Corp</t>
+        </is>
+      </c>
+      <c r="Q19" s="2">
+        <v>45673</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8114 JP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Descente Ltd</t>
+        </is>
+      </c>
+      <c r="D20" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Stoxx Europe 600</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Add</t>
-        </is>
-      </c>
-      <c r="I19">
-        <v>15.96391804585419</v>
-      </c>
-      <c r="J19">
-        <v>0.4783837129902999</v>
-      </c>
-      <c r="K19">
-        <v>1.566430721523405</v>
-      </c>
-      <c r="L19">
-        <v>15.96391804585419</v>
-      </c>
-      <c r="M19">
-        <v>0.4783837129902999</v>
-      </c>
-      <c r="N19">
-        <v>1.566430721523405</v>
-      </c>
-      <c r="O19" s="2">
-        <v>45671</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Replacing **Restricted**</t>
-        </is>
-      </c>
-      <c r="Q19" s="2">
-        <v>45672</v>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MRP US</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Millrose Propert</t>
-        </is>
-      </c>
-      <c r="D20" s="2">
-        <v>45674</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Russell 1000</t>
+          <t>FTSE DM</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Add</t>
-        </is>
+          <t>Delete</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>-11.77268470645807</v>
+      </c>
+      <c r="J20">
+        <v>-0.429696252000007</v>
+      </c>
+      <c r="K20">
+        <v>-7.570406131078347</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-11.77268470645807</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-0.429696252000007</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-7.570406131078347</v>
       </c>
       <c r="O20" s="2">
-        <v>45671</v>
+        <v>45656</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Spin-off from Lennar Corp</t>
+          <t>Delisting</t>
         </is>
       </c>
       <c r="Q20" s="2">
-        <v>45672</v>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
+        <v>45673</v>
+      </c>
+      <c r="W20" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -1817,16 +1805,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8114 JP</t>
+          <t>187A JP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Descente Ltd</t>
+          <t>Samty Holdings Co Ltd /Japan</t>
         </is>
       </c>
       <c r="D21" s="2">
-        <v>45680</v>
+        <v>45686</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1835,7 +1823,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FTSE DM</t>
+          <t>FTSE DM Small Cap</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1844,25 +1832,25 @@
         </is>
       </c>
       <c r="I21">
-        <v>-11.77268470645807</v>
+        <v>-3.946209446210863</v>
       </c>
       <c r="J21">
-        <v>-0.429696252000007</v>
+        <v>-0.1894781103999938</v>
       </c>
       <c r="K21">
-        <v>-7.570406131078347</v>
+        <v>-1.755158264091462</v>
       </c>
       <c r="L21">
-        <v>-11.77268470645807</v>
+        <v>-3.946209446210863</v>
       </c>
       <c r="M21">
-        <v>-0.429696252000007</v>
+        <v>-0.1894781103999938</v>
       </c>
       <c r="N21">
-        <v>-7.570406131078347</v>
+        <v>-1.755158264091462</v>
       </c>
       <c r="O21" s="2">
-        <v>45656</v>
+        <v>45671</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1870,7 +1858,7 @@
         </is>
       </c>
       <c r="Q21" s="2">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -1886,12 +1874,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>187A JP</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Samty Holdings Co Ltd /Japan</t>
+          <t>Premier Inv (DET)</t>
         </is>
       </c>
       <c r="D22" s="2">
@@ -1899,49 +1887,45 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
      